--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13020"/>
+    <workbookView windowWidth="27240" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>日期</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>002622(融钰集团)</t>
-  </si>
-  <si>
-    <t>20w   39.94/12.85/8.39  3T    成交量减少不明显</t>
   </si>
   <si>
     <t>002903(宇环数控)</t>
@@ -350,9 +347,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -397,6 +394,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -405,7 +416,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,10 +451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,46 +467,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,14 +492,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,30 +531,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +584,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,115 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,31 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,41 +1066,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,11 +1089,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,6 +1122,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,148 +1165,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2622,8 +2619,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3873,7 +3870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" ht="74" spans="1:43">
+    <row r="11" ht="13" spans="1:43">
       <c r="A11" s="9">
         <v>44517</v>
       </c>
@@ -3929,7 +3926,7 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X11" s="29">
         <f t="shared" si="2"/>
@@ -3944,15 +3941,17 @@
         <v>0.0839416058394162</v>
       </c>
       <c r="AA11" s="32" t="e">
-        <f>(Q11-R11)/Q11</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB11" s="32" t="e">
-        <f>(S11-T11)/S11</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
+      <c r="AD11" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="30" t="s">
@@ -3985,7 +3984,7 @@
         <v>44519</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="11">
         <v>15.38</v>
@@ -4069,7 +4068,7 @@
       <c r="AE12" s="25"/>
       <c r="AF12" s="25"/>
       <c r="AG12" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="25"/>
       <c r="AI12" s="25"/>
@@ -4087,7 +4086,7 @@
         <v>44519</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11">
         <v>26.92</v>
@@ -4167,7 +4166,7 @@
       <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="25"/>
       <c r="AI13" s="25"/>
@@ -4185,7 +4184,7 @@
         <v>44519</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="11">
         <v>35.35</v>
@@ -4265,7 +4264,7 @@
       <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="25"/>
       <c r="AI14" s="25"/>
@@ -4283,7 +4282,7 @@
         <v>44519</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11">
         <v>16.62</v>
@@ -4368,7 +4367,7 @@
       <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
       <c r="AG15" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
@@ -4386,7 +4385,7 @@
         <v>44519</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="11">
         <v>22.34</v>
@@ -4475,7 +4474,7 @@
       <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="25"/>
       <c r="AI16" s="25"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>日期</t>
   </si>
@@ -527,6 +527,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>出场当日最高价</t>
+  </si>
+  <si>
+    <t>出场当日最低价</t>
   </si>
   <si>
     <r>
@@ -3226,10 +3232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BH501"/>
+  <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2:BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3258,12 +3264,12 @@
     <col min="54" max="54" width="13.9821428571429" customWidth="1"/>
     <col min="55" max="55" width="19.0446428571429" customWidth="1"/>
     <col min="56" max="56" width="16.9553571428571" customWidth="1"/>
-    <col min="57" max="57" width="20.375" customWidth="1"/>
-    <col min="58" max="59" width="21.4196428571429" customWidth="1"/>
-    <col min="60" max="60" width="26.9285714285714" customWidth="1"/>
+    <col min="57" max="59" width="20.375" customWidth="1"/>
+    <col min="60" max="61" width="21.4196428571429" customWidth="1"/>
+    <col min="62" max="62" width="26.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:60">
+    <row r="1" ht="23.6" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3332,12 +3338,14 @@
       <c r="BD1" s="59"/>
       <c r="BE1" s="59"/>
       <c r="BF1" s="59"/>
-      <c r="BG1" s="63" t="s">
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BH1" s="63"/>
-    </row>
-    <row r="2" ht="18.8" spans="1:60">
+      <c r="BJ1" s="63"/>
+    </row>
+    <row r="2" ht="18.8" spans="1:62">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -3464,14 +3472,20 @@
       <c r="BF2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="64" t="s">
+      <c r="BG2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="64" t="s">
+      <c r="BH2" s="61" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" ht="25" spans="1:60">
+      <c r="BI2" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ2" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="25" spans="1:62">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6"/>
@@ -3484,77 +3498,77 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3577,16 +3591,18 @@
       <c r="BC3" s="62"/>
       <c r="BD3" s="62"/>
       <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="65"/>
-    </row>
-    <row r="4" ht="36" spans="1:60">
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="65"/>
+    </row>
+    <row r="4" ht="36" spans="1:62">
       <c r="A4" s="8">
         <v>44517</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10">
         <v>22.15</v>
@@ -3641,7 +3657,7 @@
       <c r="U4" s="26"/>
       <c r="V4" s="26"/>
       <c r="W4" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X4" s="30">
         <f>(H4-L4)/H4</f>
@@ -3665,16 +3681,16 @@
       </c>
       <c r="AC4" s="26"/>
       <c r="AD4" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF4" s="33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH4" s="11">
         <v>28.15</v>
@@ -3727,13 +3743,15 @@
       <c r="BF4" s="20"/>
       <c r="BG4" s="20"/>
       <c r="BH4" s="20"/>
-    </row>
-    <row r="5" ht="36" spans="1:60">
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+    </row>
+    <row r="5" ht="36" spans="1:62">
       <c r="A5" s="12">
         <v>44517</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14">
         <v>31.92</v>
@@ -3788,7 +3806,7 @@
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X5" s="30">
         <f>(H5-L5)/H5</f>
@@ -3812,16 +3830,16 @@
       </c>
       <c r="AC5" s="27"/>
       <c r="AD5" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE5" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH5" s="15">
         <v>35.48</v>
@@ -3874,13 +3892,15 @@
       <c r="BF5" s="20"/>
       <c r="BG5" s="20"/>
       <c r="BH5" s="20"/>
-    </row>
-    <row r="6" ht="48" spans="1:60">
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+    </row>
+    <row r="6" ht="48" spans="1:62">
       <c r="A6" s="12">
         <v>44519</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="14">
         <v>28.2</v>
@@ -3933,7 +3953,7 @@
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X6" s="30">
         <f>(H6-L6)/H6</f>
@@ -3957,16 +3977,16 @@
       </c>
       <c r="AC6" s="27"/>
       <c r="AD6" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF6" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH6" s="15">
         <v>36.21</v>
@@ -4039,13 +4059,15 @@
       <c r="BF6" s="20"/>
       <c r="BG6" s="20"/>
       <c r="BH6" s="20"/>
-    </row>
-    <row r="7" ht="13" spans="1:60">
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+    </row>
+    <row r="7" ht="13" spans="1:62">
       <c r="A7" s="18">
         <v>44510</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="20">
         <v>6.19</v>
@@ -4100,7 +4122,7 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X7" s="30">
         <f>(H7-L7)/H7</f>
@@ -4121,10 +4143,10 @@
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
       <c r="AD7" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AE7" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
@@ -4154,8 +4176,10 @@
       <c r="BF7" s="20"/>
       <c r="BG7" s="20"/>
       <c r="BH7" s="20"/>
-    </row>
-    <row r="8" spans="1:60">
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+    </row>
+    <row r="8" spans="1:62">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -4215,8 +4239,10 @@
       <c r="BF8" s="20"/>
       <c r="BG8" s="20"/>
       <c r="BH8" s="20"/>
-    </row>
-    <row r="9" spans="1:60">
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+    </row>
+    <row r="9" spans="1:62">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -4276,8 +4302,10 @@
       <c r="BF9" s="20"/>
       <c r="BG9" s="20"/>
       <c r="BH9" s="20"/>
-    </row>
-    <row r="10" spans="1:60">
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+    </row>
+    <row r="10" spans="1:62">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -4337,8 +4365,10 @@
       <c r="BF10" s="20"/>
       <c r="BG10" s="20"/>
       <c r="BH10" s="20"/>
-    </row>
-    <row r="11" spans="1:60">
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+    </row>
+    <row r="11" spans="1:62">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -4398,8 +4428,10 @@
       <c r="BF11" s="20"/>
       <c r="BG11" s="20"/>
       <c r="BH11" s="20"/>
-    </row>
-    <row r="12" spans="1:60">
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+    </row>
+    <row r="12" spans="1:62">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -4459,8 +4491,10 @@
       <c r="BF12" s="20"/>
       <c r="BG12" s="20"/>
       <c r="BH12" s="20"/>
-    </row>
-    <row r="13" spans="1:60">
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+    </row>
+    <row r="13" spans="1:62">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -4520,8 +4554,10 @@
       <c r="BF13" s="20"/>
       <c r="BG13" s="20"/>
       <c r="BH13" s="20"/>
-    </row>
-    <row r="14" spans="1:60">
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+    </row>
+    <row r="14" spans="1:62">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -4581,8 +4617,10 @@
       <c r="BF14" s="20"/>
       <c r="BG14" s="20"/>
       <c r="BH14" s="20"/>
-    </row>
-    <row r="15" spans="1:60">
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+    </row>
+    <row r="15" spans="1:62">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -4642,8 +4680,10 @@
       <c r="BF15" s="20"/>
       <c r="BG15" s="20"/>
       <c r="BH15" s="20"/>
-    </row>
-    <row r="16" spans="1:60">
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+    </row>
+    <row r="16" spans="1:62">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -4703,8 +4743,10 @@
       <c r="BF16" s="20"/>
       <c r="BG16" s="20"/>
       <c r="BH16" s="20"/>
-    </row>
-    <row r="17" spans="1:60">
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+    </row>
+    <row r="17" spans="1:62">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4764,8 +4806,10 @@
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
       <c r="BH17" s="20"/>
-    </row>
-    <row r="18" spans="1:60">
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+    </row>
+    <row r="18" spans="1:62">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -4825,8 +4869,10 @@
       <c r="BF18" s="20"/>
       <c r="BG18" s="20"/>
       <c r="BH18" s="20"/>
-    </row>
-    <row r="19" spans="1:60">
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+    </row>
+    <row r="19" spans="1:62">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4886,8 +4932,10 @@
       <c r="BF19" s="20"/>
       <c r="BG19" s="20"/>
       <c r="BH19" s="20"/>
-    </row>
-    <row r="20" spans="1:60">
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+    </row>
+    <row r="20" spans="1:62">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4947,8 +4995,10 @@
       <c r="BF20" s="20"/>
       <c r="BG20" s="20"/>
       <c r="BH20" s="20"/>
-    </row>
-    <row r="21" spans="1:60">
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+    </row>
+    <row r="21" spans="1:62">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -5008,8 +5058,10 @@
       <c r="BF21" s="20"/>
       <c r="BG21" s="20"/>
       <c r="BH21" s="20"/>
-    </row>
-    <row r="22" spans="1:60">
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+    </row>
+    <row r="22" spans="1:62">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -5069,8 +5121,10 @@
       <c r="BF22" s="20"/>
       <c r="BG22" s="20"/>
       <c r="BH22" s="20"/>
-    </row>
-    <row r="23" spans="1:60">
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+    </row>
+    <row r="23" spans="1:62">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -5130,8 +5184,10 @@
       <c r="BF23" s="20"/>
       <c r="BG23" s="20"/>
       <c r="BH23" s="20"/>
-    </row>
-    <row r="24" spans="1:60">
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+    </row>
+    <row r="24" spans="1:62">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -5191,8 +5247,10 @@
       <c r="BF24" s="20"/>
       <c r="BG24" s="20"/>
       <c r="BH24" s="20"/>
-    </row>
-    <row r="25" spans="1:60">
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+    </row>
+    <row r="25" spans="1:62">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5252,8 +5310,10 @@
       <c r="BF25" s="20"/>
       <c r="BG25" s="20"/>
       <c r="BH25" s="20"/>
-    </row>
-    <row r="26" spans="1:60">
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+    </row>
+    <row r="26" spans="1:62">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -5313,8 +5373,10 @@
       <c r="BF26" s="20"/>
       <c r="BG26" s="20"/>
       <c r="BH26" s="20"/>
-    </row>
-    <row r="27" spans="1:60">
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+    </row>
+    <row r="27" spans="1:62">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -5374,8 +5436,10 @@
       <c r="BF27" s="20"/>
       <c r="BG27" s="20"/>
       <c r="BH27" s="20"/>
-    </row>
-    <row r="28" spans="1:60">
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+    </row>
+    <row r="28" spans="1:62">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -5435,8 +5499,10 @@
       <c r="BF28" s="20"/>
       <c r="BG28" s="20"/>
       <c r="BH28" s="20"/>
-    </row>
-    <row r="29" spans="1:60">
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+    </row>
+    <row r="29" spans="1:62">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -5496,8 +5562,10 @@
       <c r="BF29" s="20"/>
       <c r="BG29" s="20"/>
       <c r="BH29" s="20"/>
-    </row>
-    <row r="30" spans="1:60">
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+    </row>
+    <row r="30" spans="1:62">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -5557,8 +5625,10 @@
       <c r="BF30" s="20"/>
       <c r="BG30" s="20"/>
       <c r="BH30" s="20"/>
-    </row>
-    <row r="31" spans="1:60">
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="20"/>
+    </row>
+    <row r="31" spans="1:62">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -5618,8 +5688,10 @@
       <c r="BF31" s="20"/>
       <c r="BG31" s="20"/>
       <c r="BH31" s="20"/>
-    </row>
-    <row r="32" spans="1:60">
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="20"/>
+    </row>
+    <row r="32" spans="1:62">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -5679,8 +5751,10 @@
       <c r="BF32" s="20"/>
       <c r="BG32" s="20"/>
       <c r="BH32" s="20"/>
-    </row>
-    <row r="33" spans="1:60">
+      <c r="BI32" s="20"/>
+      <c r="BJ32" s="20"/>
+    </row>
+    <row r="33" spans="1:62">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -5740,8 +5814,10 @@
       <c r="BF33" s="20"/>
       <c r="BG33" s="20"/>
       <c r="BH33" s="20"/>
-    </row>
-    <row r="34" spans="1:60">
+      <c r="BI33" s="20"/>
+      <c r="BJ33" s="20"/>
+    </row>
+    <row r="34" spans="1:62">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -5801,8 +5877,10 @@
       <c r="BF34" s="20"/>
       <c r="BG34" s="20"/>
       <c r="BH34" s="20"/>
-    </row>
-    <row r="35" spans="1:60">
+      <c r="BI34" s="20"/>
+      <c r="BJ34" s="20"/>
+    </row>
+    <row r="35" spans="1:62">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -5862,8 +5940,10 @@
       <c r="BF35" s="20"/>
       <c r="BG35" s="20"/>
       <c r="BH35" s="20"/>
-    </row>
-    <row r="36" spans="1:60">
+      <c r="BI35" s="20"/>
+      <c r="BJ35" s="20"/>
+    </row>
+    <row r="36" spans="1:62">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -5923,8 +6003,10 @@
       <c r="BF36" s="20"/>
       <c r="BG36" s="20"/>
       <c r="BH36" s="20"/>
-    </row>
-    <row r="37" spans="1:60">
+      <c r="BI36" s="20"/>
+      <c r="BJ36" s="20"/>
+    </row>
+    <row r="37" spans="1:62">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -5984,8 +6066,10 @@
       <c r="BF37" s="20"/>
       <c r="BG37" s="20"/>
       <c r="BH37" s="20"/>
-    </row>
-    <row r="38" spans="1:60">
+      <c r="BI37" s="20"/>
+      <c r="BJ37" s="20"/>
+    </row>
+    <row r="38" spans="1:62">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -6045,8 +6129,10 @@
       <c r="BF38" s="20"/>
       <c r="BG38" s="20"/>
       <c r="BH38" s="20"/>
-    </row>
-    <row r="39" spans="1:60">
+      <c r="BI38" s="20"/>
+      <c r="BJ38" s="20"/>
+    </row>
+    <row r="39" spans="1:62">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -6106,8 +6192,10 @@
       <c r="BF39" s="20"/>
       <c r="BG39" s="20"/>
       <c r="BH39" s="20"/>
-    </row>
-    <row r="40" spans="1:60">
+      <c r="BI39" s="20"/>
+      <c r="BJ39" s="20"/>
+    </row>
+    <row r="40" spans="1:62">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -6167,8 +6255,10 @@
       <c r="BF40" s="20"/>
       <c r="BG40" s="20"/>
       <c r="BH40" s="20"/>
-    </row>
-    <row r="41" spans="1:60">
+      <c r="BI40" s="20"/>
+      <c r="BJ40" s="20"/>
+    </row>
+    <row r="41" spans="1:62">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -6228,8 +6318,10 @@
       <c r="BF41" s="20"/>
       <c r="BG41" s="20"/>
       <c r="BH41" s="20"/>
-    </row>
-    <row r="42" spans="1:60">
+      <c r="BI41" s="20"/>
+      <c r="BJ41" s="20"/>
+    </row>
+    <row r="42" spans="1:62">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -6289,8 +6381,10 @@
       <c r="BF42" s="20"/>
       <c r="BG42" s="20"/>
       <c r="BH42" s="20"/>
-    </row>
-    <row r="43" spans="1:60">
+      <c r="BI42" s="20"/>
+      <c r="BJ42" s="20"/>
+    </row>
+    <row r="43" spans="1:62">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -6350,8 +6444,10 @@
       <c r="BF43" s="20"/>
       <c r="BG43" s="20"/>
       <c r="BH43" s="20"/>
-    </row>
-    <row r="44" spans="1:60">
+      <c r="BI43" s="20"/>
+      <c r="BJ43" s="20"/>
+    </row>
+    <row r="44" spans="1:62">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -6411,8 +6507,10 @@
       <c r="BF44" s="20"/>
       <c r="BG44" s="20"/>
       <c r="BH44" s="20"/>
-    </row>
-    <row r="45" spans="1:60">
+      <c r="BI44" s="20"/>
+      <c r="BJ44" s="20"/>
+    </row>
+    <row r="45" spans="1:62">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -6472,8 +6570,10 @@
       <c r="BF45" s="20"/>
       <c r="BG45" s="20"/>
       <c r="BH45" s="20"/>
-    </row>
-    <row r="46" spans="1:60">
+      <c r="BI45" s="20"/>
+      <c r="BJ45" s="20"/>
+    </row>
+    <row r="46" spans="1:62">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -6533,8 +6633,10 @@
       <c r="BF46" s="20"/>
       <c r="BG46" s="20"/>
       <c r="BH46" s="20"/>
-    </row>
-    <row r="47" spans="1:60">
+      <c r="BI46" s="20"/>
+      <c r="BJ46" s="20"/>
+    </row>
+    <row r="47" spans="1:62">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -6594,8 +6696,10 @@
       <c r="BF47" s="20"/>
       <c r="BG47" s="20"/>
       <c r="BH47" s="20"/>
-    </row>
-    <row r="48" spans="1:60">
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20"/>
+    </row>
+    <row r="48" spans="1:62">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -6655,8 +6759,10 @@
       <c r="BF48" s="20"/>
       <c r="BG48" s="20"/>
       <c r="BH48" s="20"/>
-    </row>
-    <row r="49" spans="1:60">
+      <c r="BI48" s="20"/>
+      <c r="BJ48" s="20"/>
+    </row>
+    <row r="49" spans="1:62">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -6716,8 +6822,10 @@
       <c r="BF49" s="20"/>
       <c r="BG49" s="20"/>
       <c r="BH49" s="20"/>
-    </row>
-    <row r="50" spans="1:60">
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20"/>
+    </row>
+    <row r="50" spans="1:62">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -6777,8 +6885,10 @@
       <c r="BF50" s="20"/>
       <c r="BG50" s="20"/>
       <c r="BH50" s="20"/>
-    </row>
-    <row r="51" spans="1:60">
+      <c r="BI50" s="20"/>
+      <c r="BJ50" s="20"/>
+    </row>
+    <row r="51" spans="1:62">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -6838,8 +6948,10 @@
       <c r="BF51" s="20"/>
       <c r="BG51" s="20"/>
       <c r="BH51" s="20"/>
-    </row>
-    <row r="52" spans="1:60">
+      <c r="BI51" s="20"/>
+      <c r="BJ51" s="20"/>
+    </row>
+    <row r="52" spans="1:62">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -6899,8 +7011,10 @@
       <c r="BF52" s="20"/>
       <c r="BG52" s="20"/>
       <c r="BH52" s="20"/>
-    </row>
-    <row r="53" spans="1:60">
+      <c r="BI52" s="20"/>
+      <c r="BJ52" s="20"/>
+    </row>
+    <row r="53" spans="1:62">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -6960,8 +7074,10 @@
       <c r="BF53" s="20"/>
       <c r="BG53" s="20"/>
       <c r="BH53" s="20"/>
-    </row>
-    <row r="54" spans="1:60">
+      <c r="BI53" s="20"/>
+      <c r="BJ53" s="20"/>
+    </row>
+    <row r="54" spans="1:62">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -7021,8 +7137,10 @@
       <c r="BF54" s="20"/>
       <c r="BG54" s="20"/>
       <c r="BH54" s="20"/>
-    </row>
-    <row r="55" spans="1:60">
+      <c r="BI54" s="20"/>
+      <c r="BJ54" s="20"/>
+    </row>
+    <row r="55" spans="1:62">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -7082,8 +7200,10 @@
       <c r="BF55" s="20"/>
       <c r="BG55" s="20"/>
       <c r="BH55" s="20"/>
-    </row>
-    <row r="56" spans="1:60">
+      <c r="BI55" s="20"/>
+      <c r="BJ55" s="20"/>
+    </row>
+    <row r="56" spans="1:62">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -7143,8 +7263,10 @@
       <c r="BF56" s="20"/>
       <c r="BG56" s="20"/>
       <c r="BH56" s="20"/>
-    </row>
-    <row r="57" spans="1:60">
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="20"/>
+    </row>
+    <row r="57" spans="1:62">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -7204,8 +7326,10 @@
       <c r="BF57" s="20"/>
       <c r="BG57" s="20"/>
       <c r="BH57" s="20"/>
-    </row>
-    <row r="58" spans="1:60">
+      <c r="BI57" s="20"/>
+      <c r="BJ57" s="20"/>
+    </row>
+    <row r="58" spans="1:62">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -7265,8 +7389,10 @@
       <c r="BF58" s="20"/>
       <c r="BG58" s="20"/>
       <c r="BH58" s="20"/>
-    </row>
-    <row r="59" spans="1:60">
+      <c r="BI58" s="20"/>
+      <c r="BJ58" s="20"/>
+    </row>
+    <row r="59" spans="1:62">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -7326,8 +7452,10 @@
       <c r="BF59" s="20"/>
       <c r="BG59" s="20"/>
       <c r="BH59" s="20"/>
-    </row>
-    <row r="60" spans="1:60">
+      <c r="BI59" s="20"/>
+      <c r="BJ59" s="20"/>
+    </row>
+    <row r="60" spans="1:62">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -7387,8 +7515,10 @@
       <c r="BF60" s="20"/>
       <c r="BG60" s="20"/>
       <c r="BH60" s="20"/>
-    </row>
-    <row r="61" spans="1:60">
+      <c r="BI60" s="20"/>
+      <c r="BJ60" s="20"/>
+    </row>
+    <row r="61" spans="1:62">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -7448,8 +7578,10 @@
       <c r="BF61" s="20"/>
       <c r="BG61" s="20"/>
       <c r="BH61" s="20"/>
-    </row>
-    <row r="62" spans="1:60">
+      <c r="BI61" s="20"/>
+      <c r="BJ61" s="20"/>
+    </row>
+    <row r="62" spans="1:62">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -7509,8 +7641,10 @@
       <c r="BF62" s="20"/>
       <c r="BG62" s="20"/>
       <c r="BH62" s="20"/>
-    </row>
-    <row r="63" spans="1:60">
+      <c r="BI62" s="20"/>
+      <c r="BJ62" s="20"/>
+    </row>
+    <row r="63" spans="1:62">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -7570,8 +7704,10 @@
       <c r="BF63" s="20"/>
       <c r="BG63" s="20"/>
       <c r="BH63" s="20"/>
-    </row>
-    <row r="64" spans="1:60">
+      <c r="BI63" s="20"/>
+      <c r="BJ63" s="20"/>
+    </row>
+    <row r="64" spans="1:62">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -7631,8 +7767,10 @@
       <c r="BF64" s="20"/>
       <c r="BG64" s="20"/>
       <c r="BH64" s="20"/>
-    </row>
-    <row r="65" spans="1:60">
+      <c r="BI64" s="20"/>
+      <c r="BJ64" s="20"/>
+    </row>
+    <row r="65" spans="1:62">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -7692,8 +7830,10 @@
       <c r="BF65" s="20"/>
       <c r="BG65" s="20"/>
       <c r="BH65" s="20"/>
-    </row>
-    <row r="66" spans="1:60">
+      <c r="BI65" s="20"/>
+      <c r="BJ65" s="20"/>
+    </row>
+    <row r="66" spans="1:62">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -7753,8 +7893,10 @@
       <c r="BF66" s="20"/>
       <c r="BG66" s="20"/>
       <c r="BH66" s="20"/>
-    </row>
-    <row r="67" spans="1:60">
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20"/>
+    </row>
+    <row r="67" spans="1:62">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -7814,8 +7956,10 @@
       <c r="BF67" s="20"/>
       <c r="BG67" s="20"/>
       <c r="BH67" s="20"/>
-    </row>
-    <row r="68" spans="1:60">
+      <c r="BI67" s="20"/>
+      <c r="BJ67" s="20"/>
+    </row>
+    <row r="68" spans="1:62">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -7875,8 +8019,10 @@
       <c r="BF68" s="20"/>
       <c r="BG68" s="20"/>
       <c r="BH68" s="20"/>
-    </row>
-    <row r="69" spans="1:60">
+      <c r="BI68" s="20"/>
+      <c r="BJ68" s="20"/>
+    </row>
+    <row r="69" spans="1:62">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -7936,8 +8082,10 @@
       <c r="BF69" s="20"/>
       <c r="BG69" s="20"/>
       <c r="BH69" s="20"/>
-    </row>
-    <row r="70" spans="1:60">
+      <c r="BI69" s="20"/>
+      <c r="BJ69" s="20"/>
+    </row>
+    <row r="70" spans="1:62">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -7997,8 +8145,10 @@
       <c r="BF70" s="20"/>
       <c r="BG70" s="20"/>
       <c r="BH70" s="20"/>
-    </row>
-    <row r="71" spans="1:60">
+      <c r="BI70" s="20"/>
+      <c r="BJ70" s="20"/>
+    </row>
+    <row r="71" spans="1:62">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -8058,8 +8208,10 @@
       <c r="BF71" s="20"/>
       <c r="BG71" s="20"/>
       <c r="BH71" s="20"/>
-    </row>
-    <row r="72" spans="1:60">
+      <c r="BI71" s="20"/>
+      <c r="BJ71" s="20"/>
+    </row>
+    <row r="72" spans="1:62">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -8119,8 +8271,10 @@
       <c r="BF72" s="20"/>
       <c r="BG72" s="20"/>
       <c r="BH72" s="20"/>
-    </row>
-    <row r="73" spans="1:60">
+      <c r="BI72" s="20"/>
+      <c r="BJ72" s="20"/>
+    </row>
+    <row r="73" spans="1:62">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -8180,8 +8334,10 @@
       <c r="BF73" s="20"/>
       <c r="BG73" s="20"/>
       <c r="BH73" s="20"/>
-    </row>
-    <row r="74" spans="1:60">
+      <c r="BI73" s="20"/>
+      <c r="BJ73" s="20"/>
+    </row>
+    <row r="74" spans="1:62">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -8241,8 +8397,10 @@
       <c r="BF74" s="20"/>
       <c r="BG74" s="20"/>
       <c r="BH74" s="20"/>
-    </row>
-    <row r="75" spans="1:60">
+      <c r="BI74" s="20"/>
+      <c r="BJ74" s="20"/>
+    </row>
+    <row r="75" spans="1:62">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -8302,8 +8460,10 @@
       <c r="BF75" s="20"/>
       <c r="BG75" s="20"/>
       <c r="BH75" s="20"/>
-    </row>
-    <row r="76" spans="1:60">
+      <c r="BI75" s="20"/>
+      <c r="BJ75" s="20"/>
+    </row>
+    <row r="76" spans="1:62">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -8363,8 +8523,10 @@
       <c r="BF76" s="20"/>
       <c r="BG76" s="20"/>
       <c r="BH76" s="20"/>
-    </row>
-    <row r="77" spans="1:60">
+      <c r="BI76" s="20"/>
+      <c r="BJ76" s="20"/>
+    </row>
+    <row r="77" spans="1:62">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -8424,8 +8586,10 @@
       <c r="BF77" s="20"/>
       <c r="BG77" s="20"/>
       <c r="BH77" s="20"/>
-    </row>
-    <row r="78" spans="1:60">
+      <c r="BI77" s="20"/>
+      <c r="BJ77" s="20"/>
+    </row>
+    <row r="78" spans="1:62">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -8485,8 +8649,10 @@
       <c r="BF78" s="20"/>
       <c r="BG78" s="20"/>
       <c r="BH78" s="20"/>
-    </row>
-    <row r="79" spans="1:60">
+      <c r="BI78" s="20"/>
+      <c r="BJ78" s="20"/>
+    </row>
+    <row r="79" spans="1:62">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -8546,8 +8712,10 @@
       <c r="BF79" s="20"/>
       <c r="BG79" s="20"/>
       <c r="BH79" s="20"/>
-    </row>
-    <row r="80" spans="1:60">
+      <c r="BI79" s="20"/>
+      <c r="BJ79" s="20"/>
+    </row>
+    <row r="80" spans="1:62">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -8607,8 +8775,10 @@
       <c r="BF80" s="20"/>
       <c r="BG80" s="20"/>
       <c r="BH80" s="20"/>
-    </row>
-    <row r="81" spans="1:60">
+      <c r="BI80" s="20"/>
+      <c r="BJ80" s="20"/>
+    </row>
+    <row r="81" spans="1:62">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -8668,8 +8838,10 @@
       <c r="BF81" s="20"/>
       <c r="BG81" s="20"/>
       <c r="BH81" s="20"/>
-    </row>
-    <row r="82" spans="1:60">
+      <c r="BI81" s="20"/>
+      <c r="BJ81" s="20"/>
+    </row>
+    <row r="82" spans="1:62">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -8729,8 +8901,10 @@
       <c r="BF82" s="20"/>
       <c r="BG82" s="20"/>
       <c r="BH82" s="20"/>
-    </row>
-    <row r="83" spans="1:60">
+      <c r="BI82" s="20"/>
+      <c r="BJ82" s="20"/>
+    </row>
+    <row r="83" spans="1:62">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -8790,8 +8964,10 @@
       <c r="BF83" s="20"/>
       <c r="BG83" s="20"/>
       <c r="BH83" s="20"/>
-    </row>
-    <row r="84" spans="1:60">
+      <c r="BI83" s="20"/>
+      <c r="BJ83" s="20"/>
+    </row>
+    <row r="84" spans="1:62">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -8851,8 +9027,10 @@
       <c r="BF84" s="20"/>
       <c r="BG84" s="20"/>
       <c r="BH84" s="20"/>
-    </row>
-    <row r="85" spans="1:60">
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="20"/>
+    </row>
+    <row r="85" spans="1:62">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -8912,8 +9090,10 @@
       <c r="BF85" s="20"/>
       <c r="BG85" s="20"/>
       <c r="BH85" s="20"/>
-    </row>
-    <row r="86" spans="1:60">
+      <c r="BI85" s="20"/>
+      <c r="BJ85" s="20"/>
+    </row>
+    <row r="86" spans="1:62">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -8973,8 +9153,10 @@
       <c r="BF86" s="20"/>
       <c r="BG86" s="20"/>
       <c r="BH86" s="20"/>
-    </row>
-    <row r="87" spans="1:60">
+      <c r="BI86" s="20"/>
+      <c r="BJ86" s="20"/>
+    </row>
+    <row r="87" spans="1:62">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -9034,8 +9216,10 @@
       <c r="BF87" s="20"/>
       <c r="BG87" s="20"/>
       <c r="BH87" s="20"/>
-    </row>
-    <row r="88" spans="1:60">
+      <c r="BI87" s="20"/>
+      <c r="BJ87" s="20"/>
+    </row>
+    <row r="88" spans="1:62">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -9095,8 +9279,10 @@
       <c r="BF88" s="20"/>
       <c r="BG88" s="20"/>
       <c r="BH88" s="20"/>
-    </row>
-    <row r="89" spans="1:60">
+      <c r="BI88" s="20"/>
+      <c r="BJ88" s="20"/>
+    </row>
+    <row r="89" spans="1:62">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -9156,8 +9342,10 @@
       <c r="BF89" s="20"/>
       <c r="BG89" s="20"/>
       <c r="BH89" s="20"/>
-    </row>
-    <row r="90" spans="1:60">
+      <c r="BI89" s="20"/>
+      <c r="BJ89" s="20"/>
+    </row>
+    <row r="90" spans="1:62">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -9217,8 +9405,10 @@
       <c r="BF90" s="20"/>
       <c r="BG90" s="20"/>
       <c r="BH90" s="20"/>
-    </row>
-    <row r="91" spans="1:60">
+      <c r="BI90" s="20"/>
+      <c r="BJ90" s="20"/>
+    </row>
+    <row r="91" spans="1:62">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -9278,8 +9468,10 @@
       <c r="BF91" s="20"/>
       <c r="BG91" s="20"/>
       <c r="BH91" s="20"/>
-    </row>
-    <row r="92" spans="1:60">
+      <c r="BI91" s="20"/>
+      <c r="BJ91" s="20"/>
+    </row>
+    <row r="92" spans="1:62">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -9339,8 +9531,10 @@
       <c r="BF92" s="20"/>
       <c r="BG92" s="20"/>
       <c r="BH92" s="20"/>
-    </row>
-    <row r="93" spans="1:60">
+      <c r="BI92" s="20"/>
+      <c r="BJ92" s="20"/>
+    </row>
+    <row r="93" spans="1:62">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -9400,8 +9594,10 @@
       <c r="BF93" s="20"/>
       <c r="BG93" s="20"/>
       <c r="BH93" s="20"/>
-    </row>
-    <row r="94" spans="1:60">
+      <c r="BI93" s="20"/>
+      <c r="BJ93" s="20"/>
+    </row>
+    <row r="94" spans="1:62">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -9461,8 +9657,10 @@
       <c r="BF94" s="20"/>
       <c r="BG94" s="20"/>
       <c r="BH94" s="20"/>
-    </row>
-    <row r="95" spans="1:60">
+      <c r="BI94" s="20"/>
+      <c r="BJ94" s="20"/>
+    </row>
+    <row r="95" spans="1:62">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -9522,8 +9720,10 @@
       <c r="BF95" s="20"/>
       <c r="BG95" s="20"/>
       <c r="BH95" s="20"/>
-    </row>
-    <row r="96" spans="1:60">
+      <c r="BI95" s="20"/>
+      <c r="BJ95" s="20"/>
+    </row>
+    <row r="96" spans="1:62">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -9583,8 +9783,10 @@
       <c r="BF96" s="20"/>
       <c r="BG96" s="20"/>
       <c r="BH96" s="20"/>
-    </row>
-    <row r="97" spans="1:60">
+      <c r="BI96" s="20"/>
+      <c r="BJ96" s="20"/>
+    </row>
+    <row r="97" spans="1:62">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -9644,8 +9846,10 @@
       <c r="BF97" s="20"/>
       <c r="BG97" s="20"/>
       <c r="BH97" s="20"/>
-    </row>
-    <row r="98" spans="1:60">
+      <c r="BI97" s="20"/>
+      <c r="BJ97" s="20"/>
+    </row>
+    <row r="98" spans="1:62">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -9705,8 +9909,10 @@
       <c r="BF98" s="20"/>
       <c r="BG98" s="20"/>
       <c r="BH98" s="20"/>
-    </row>
-    <row r="99" spans="1:60">
+      <c r="BI98" s="20"/>
+      <c r="BJ98" s="20"/>
+    </row>
+    <row r="99" spans="1:62">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -9766,8 +9972,10 @@
       <c r="BF99" s="20"/>
       <c r="BG99" s="20"/>
       <c r="BH99" s="20"/>
-    </row>
-    <row r="100" spans="1:60">
+      <c r="BI99" s="20"/>
+      <c r="BJ99" s="20"/>
+    </row>
+    <row r="100" spans="1:62">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -9827,8 +10035,10 @@
       <c r="BF100" s="20"/>
       <c r="BG100" s="20"/>
       <c r="BH100" s="20"/>
-    </row>
-    <row r="101" spans="1:60">
+      <c r="BI100" s="20"/>
+      <c r="BJ100" s="20"/>
+    </row>
+    <row r="101" spans="1:62">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -9888,8 +10098,10 @@
       <c r="BF101" s="20"/>
       <c r="BG101" s="20"/>
       <c r="BH101" s="20"/>
-    </row>
-    <row r="102" spans="1:60">
+      <c r="BI101" s="20"/>
+      <c r="BJ101" s="20"/>
+    </row>
+    <row r="102" spans="1:62">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -9949,8 +10161,10 @@
       <c r="BF102" s="20"/>
       <c r="BG102" s="20"/>
       <c r="BH102" s="20"/>
-    </row>
-    <row r="103" spans="1:60">
+      <c r="BI102" s="20"/>
+      <c r="BJ102" s="20"/>
+    </row>
+    <row r="103" spans="1:62">
       <c r="A103" s="20"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -10010,8 +10224,10 @@
       <c r="BF103" s="20"/>
       <c r="BG103" s="20"/>
       <c r="BH103" s="20"/>
-    </row>
-    <row r="104" spans="1:60">
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="20"/>
+    </row>
+    <row r="104" spans="1:62">
       <c r="A104" s="20"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -10071,8 +10287,10 @@
       <c r="BF104" s="20"/>
       <c r="BG104" s="20"/>
       <c r="BH104" s="20"/>
-    </row>
-    <row r="105" spans="1:60">
+      <c r="BI104" s="20"/>
+      <c r="BJ104" s="20"/>
+    </row>
+    <row r="105" spans="1:62">
       <c r="A105" s="20"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -10132,8 +10350,10 @@
       <c r="BF105" s="20"/>
       <c r="BG105" s="20"/>
       <c r="BH105" s="20"/>
-    </row>
-    <row r="106" spans="1:60">
+      <c r="BI105" s="20"/>
+      <c r="BJ105" s="20"/>
+    </row>
+    <row r="106" spans="1:62">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -10193,8 +10413,10 @@
       <c r="BF106" s="20"/>
       <c r="BG106" s="20"/>
       <c r="BH106" s="20"/>
-    </row>
-    <row r="107" spans="1:60">
+      <c r="BI106" s="20"/>
+      <c r="BJ106" s="20"/>
+    </row>
+    <row r="107" spans="1:62">
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -10254,8 +10476,10 @@
       <c r="BF107" s="20"/>
       <c r="BG107" s="20"/>
       <c r="BH107" s="20"/>
-    </row>
-    <row r="108" spans="1:60">
+      <c r="BI107" s="20"/>
+      <c r="BJ107" s="20"/>
+    </row>
+    <row r="108" spans="1:62">
       <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -10315,8 +10539,10 @@
       <c r="BF108" s="20"/>
       <c r="BG108" s="20"/>
       <c r="BH108" s="20"/>
-    </row>
-    <row r="109" spans="1:60">
+      <c r="BI108" s="20"/>
+      <c r="BJ108" s="20"/>
+    </row>
+    <row r="109" spans="1:62">
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -10376,8 +10602,10 @@
       <c r="BF109" s="20"/>
       <c r="BG109" s="20"/>
       <c r="BH109" s="20"/>
-    </row>
-    <row r="110" spans="1:60">
+      <c r="BI109" s="20"/>
+      <c r="BJ109" s="20"/>
+    </row>
+    <row r="110" spans="1:62">
       <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -10437,8 +10665,10 @@
       <c r="BF110" s="20"/>
       <c r="BG110" s="20"/>
       <c r="BH110" s="20"/>
-    </row>
-    <row r="111" spans="1:60">
+      <c r="BI110" s="20"/>
+      <c r="BJ110" s="20"/>
+    </row>
+    <row r="111" spans="1:62">
       <c r="A111" s="20"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -10498,8 +10728,10 @@
       <c r="BF111" s="20"/>
       <c r="BG111" s="20"/>
       <c r="BH111" s="20"/>
-    </row>
-    <row r="112" spans="1:60">
+      <c r="BI111" s="20"/>
+      <c r="BJ111" s="20"/>
+    </row>
+    <row r="112" spans="1:62">
       <c r="A112" s="20"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -10559,8 +10791,10 @@
       <c r="BF112" s="20"/>
       <c r="BG112" s="20"/>
       <c r="BH112" s="20"/>
-    </row>
-    <row r="113" spans="1:60">
+      <c r="BI112" s="20"/>
+      <c r="BJ112" s="20"/>
+    </row>
+    <row r="113" spans="1:62">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -10620,8 +10854,10 @@
       <c r="BF113" s="20"/>
       <c r="BG113" s="20"/>
       <c r="BH113" s="20"/>
-    </row>
-    <row r="114" spans="1:60">
+      <c r="BI113" s="20"/>
+      <c r="BJ113" s="20"/>
+    </row>
+    <row r="114" spans="1:62">
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -10681,8 +10917,10 @@
       <c r="BF114" s="20"/>
       <c r="BG114" s="20"/>
       <c r="BH114" s="20"/>
-    </row>
-    <row r="115" spans="1:60">
+      <c r="BI114" s="20"/>
+      <c r="BJ114" s="20"/>
+    </row>
+    <row r="115" spans="1:62">
       <c r="A115" s="20"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -10742,8 +10980,10 @@
       <c r="BF115" s="20"/>
       <c r="BG115" s="20"/>
       <c r="BH115" s="20"/>
-    </row>
-    <row r="116" spans="1:60">
+      <c r="BI115" s="20"/>
+      <c r="BJ115" s="20"/>
+    </row>
+    <row r="116" spans="1:62">
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -10803,8 +11043,10 @@
       <c r="BF116" s="20"/>
       <c r="BG116" s="20"/>
       <c r="BH116" s="20"/>
-    </row>
-    <row r="117" spans="1:60">
+      <c r="BI116" s="20"/>
+      <c r="BJ116" s="20"/>
+    </row>
+    <row r="117" spans="1:62">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -10864,8 +11106,10 @@
       <c r="BF117" s="20"/>
       <c r="BG117" s="20"/>
       <c r="BH117" s="20"/>
-    </row>
-    <row r="118" spans="1:60">
+      <c r="BI117" s="20"/>
+      <c r="BJ117" s="20"/>
+    </row>
+    <row r="118" spans="1:62">
       <c r="A118" s="20"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -10925,8 +11169,10 @@
       <c r="BF118" s="20"/>
       <c r="BG118" s="20"/>
       <c r="BH118" s="20"/>
-    </row>
-    <row r="119" spans="1:60">
+      <c r="BI118" s="20"/>
+      <c r="BJ118" s="20"/>
+    </row>
+    <row r="119" spans="1:62">
       <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -10986,8 +11232,10 @@
       <c r="BF119" s="20"/>
       <c r="BG119" s="20"/>
       <c r="BH119" s="20"/>
-    </row>
-    <row r="120" spans="1:60">
+      <c r="BI119" s="20"/>
+      <c r="BJ119" s="20"/>
+    </row>
+    <row r="120" spans="1:62">
       <c r="A120" s="20"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -11047,8 +11295,10 @@
       <c r="BF120" s="20"/>
       <c r="BG120" s="20"/>
       <c r="BH120" s="20"/>
-    </row>
-    <row r="121" spans="1:60">
+      <c r="BI120" s="20"/>
+      <c r="BJ120" s="20"/>
+    </row>
+    <row r="121" spans="1:62">
       <c r="A121" s="20"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -11108,8 +11358,10 @@
       <c r="BF121" s="20"/>
       <c r="BG121" s="20"/>
       <c r="BH121" s="20"/>
-    </row>
-    <row r="122" spans="1:60">
+      <c r="BI121" s="20"/>
+      <c r="BJ121" s="20"/>
+    </row>
+    <row r="122" spans="1:62">
       <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -11169,8 +11421,10 @@
       <c r="BF122" s="20"/>
       <c r="BG122" s="20"/>
       <c r="BH122" s="20"/>
-    </row>
-    <row r="123" spans="1:60">
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="20"/>
+    </row>
+    <row r="123" spans="1:62">
       <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -11230,8 +11484,10 @@
       <c r="BF123" s="20"/>
       <c r="BG123" s="20"/>
       <c r="BH123" s="20"/>
-    </row>
-    <row r="124" spans="1:60">
+      <c r="BI123" s="20"/>
+      <c r="BJ123" s="20"/>
+    </row>
+    <row r="124" spans="1:62">
       <c r="A124" s="20"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -11291,8 +11547,10 @@
       <c r="BF124" s="20"/>
       <c r="BG124" s="20"/>
       <c r="BH124" s="20"/>
-    </row>
-    <row r="125" spans="1:60">
+      <c r="BI124" s="20"/>
+      <c r="BJ124" s="20"/>
+    </row>
+    <row r="125" spans="1:62">
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -11352,8 +11610,10 @@
       <c r="BF125" s="20"/>
       <c r="BG125" s="20"/>
       <c r="BH125" s="20"/>
-    </row>
-    <row r="126" spans="1:60">
+      <c r="BI125" s="20"/>
+      <c r="BJ125" s="20"/>
+    </row>
+    <row r="126" spans="1:62">
       <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -11413,8 +11673,10 @@
       <c r="BF126" s="20"/>
       <c r="BG126" s="20"/>
       <c r="BH126" s="20"/>
-    </row>
-    <row r="127" spans="1:60">
+      <c r="BI126" s="20"/>
+      <c r="BJ126" s="20"/>
+    </row>
+    <row r="127" spans="1:62">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -11474,8 +11736,10 @@
       <c r="BF127" s="20"/>
       <c r="BG127" s="20"/>
       <c r="BH127" s="20"/>
-    </row>
-    <row r="128" spans="1:60">
+      <c r="BI127" s="20"/>
+      <c r="BJ127" s="20"/>
+    </row>
+    <row r="128" spans="1:62">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -11535,8 +11799,10 @@
       <c r="BF128" s="20"/>
       <c r="BG128" s="20"/>
       <c r="BH128" s="20"/>
-    </row>
-    <row r="129" spans="1:60">
+      <c r="BI128" s="20"/>
+      <c r="BJ128" s="20"/>
+    </row>
+    <row r="129" spans="1:62">
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -11596,8 +11862,10 @@
       <c r="BF129" s="20"/>
       <c r="BG129" s="20"/>
       <c r="BH129" s="20"/>
-    </row>
-    <row r="130" spans="1:60">
+      <c r="BI129" s="20"/>
+      <c r="BJ129" s="20"/>
+    </row>
+    <row r="130" spans="1:62">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -11657,8 +11925,10 @@
       <c r="BF130" s="20"/>
       <c r="BG130" s="20"/>
       <c r="BH130" s="20"/>
-    </row>
-    <row r="131" spans="1:60">
+      <c r="BI130" s="20"/>
+      <c r="BJ130" s="20"/>
+    </row>
+    <row r="131" spans="1:62">
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -11718,8 +11988,10 @@
       <c r="BF131" s="20"/>
       <c r="BG131" s="20"/>
       <c r="BH131" s="20"/>
-    </row>
-    <row r="132" spans="1:60">
+      <c r="BI131" s="20"/>
+      <c r="BJ131" s="20"/>
+    </row>
+    <row r="132" spans="1:62">
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -11779,8 +12051,10 @@
       <c r="BF132" s="20"/>
       <c r="BG132" s="20"/>
       <c r="BH132" s="20"/>
-    </row>
-    <row r="133" spans="1:60">
+      <c r="BI132" s="20"/>
+      <c r="BJ132" s="20"/>
+    </row>
+    <row r="133" spans="1:62">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -11840,8 +12114,10 @@
       <c r="BF133" s="20"/>
       <c r="BG133" s="20"/>
       <c r="BH133" s="20"/>
-    </row>
-    <row r="134" spans="1:60">
+      <c r="BI133" s="20"/>
+      <c r="BJ133" s="20"/>
+    </row>
+    <row r="134" spans="1:62">
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -11901,8 +12177,10 @@
       <c r="BF134" s="20"/>
       <c r="BG134" s="20"/>
       <c r="BH134" s="20"/>
-    </row>
-    <row r="135" spans="1:60">
+      <c r="BI134" s="20"/>
+      <c r="BJ134" s="20"/>
+    </row>
+    <row r="135" spans="1:62">
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -11962,8 +12240,10 @@
       <c r="BF135" s="20"/>
       <c r="BG135" s="20"/>
       <c r="BH135" s="20"/>
-    </row>
-    <row r="136" spans="1:60">
+      <c r="BI135" s="20"/>
+      <c r="BJ135" s="20"/>
+    </row>
+    <row r="136" spans="1:62">
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
@@ -12023,8 +12303,10 @@
       <c r="BF136" s="20"/>
       <c r="BG136" s="20"/>
       <c r="BH136" s="20"/>
-    </row>
-    <row r="137" spans="1:60">
+      <c r="BI136" s="20"/>
+      <c r="BJ136" s="20"/>
+    </row>
+    <row r="137" spans="1:62">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
@@ -12084,8 +12366,10 @@
       <c r="BF137" s="20"/>
       <c r="BG137" s="20"/>
       <c r="BH137" s="20"/>
-    </row>
-    <row r="138" spans="1:60">
+      <c r="BI137" s="20"/>
+      <c r="BJ137" s="20"/>
+    </row>
+    <row r="138" spans="1:62">
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
@@ -12145,8 +12429,10 @@
       <c r="BF138" s="20"/>
       <c r="BG138" s="20"/>
       <c r="BH138" s="20"/>
-    </row>
-    <row r="139" spans="1:60">
+      <c r="BI138" s="20"/>
+      <c r="BJ138" s="20"/>
+    </row>
+    <row r="139" spans="1:62">
       <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
@@ -12206,8 +12492,10 @@
       <c r="BF139" s="20"/>
       <c r="BG139" s="20"/>
       <c r="BH139" s="20"/>
-    </row>
-    <row r="140" spans="1:60">
+      <c r="BI139" s="20"/>
+      <c r="BJ139" s="20"/>
+    </row>
+    <row r="140" spans="1:62">
       <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
@@ -12267,8 +12555,10 @@
       <c r="BF140" s="20"/>
       <c r="BG140" s="20"/>
       <c r="BH140" s="20"/>
-    </row>
-    <row r="141" spans="1:60">
+      <c r="BI140" s="20"/>
+      <c r="BJ140" s="20"/>
+    </row>
+    <row r="141" spans="1:62">
       <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
@@ -12328,8 +12618,10 @@
       <c r="BF141" s="20"/>
       <c r="BG141" s="20"/>
       <c r="BH141" s="20"/>
-    </row>
-    <row r="142" spans="1:60">
+      <c r="BI141" s="20"/>
+      <c r="BJ141" s="20"/>
+    </row>
+    <row r="142" spans="1:62">
       <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
@@ -12389,8 +12681,10 @@
       <c r="BF142" s="20"/>
       <c r="BG142" s="20"/>
       <c r="BH142" s="20"/>
-    </row>
-    <row r="143" spans="1:60">
+      <c r="BI142" s="20"/>
+      <c r="BJ142" s="20"/>
+    </row>
+    <row r="143" spans="1:62">
       <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
@@ -12450,8 +12744,10 @@
       <c r="BF143" s="20"/>
       <c r="BG143" s="20"/>
       <c r="BH143" s="20"/>
-    </row>
-    <row r="144" spans="1:60">
+      <c r="BI143" s="20"/>
+      <c r="BJ143" s="20"/>
+    </row>
+    <row r="144" spans="1:62">
       <c r="A144" s="20"/>
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
@@ -12511,8 +12807,10 @@
       <c r="BF144" s="20"/>
       <c r="BG144" s="20"/>
       <c r="BH144" s="20"/>
-    </row>
-    <row r="145" spans="1:60">
+      <c r="BI144" s="20"/>
+      <c r="BJ144" s="20"/>
+    </row>
+    <row r="145" spans="1:62">
       <c r="A145" s="20"/>
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
@@ -12572,8 +12870,10 @@
       <c r="BF145" s="20"/>
       <c r="BG145" s="20"/>
       <c r="BH145" s="20"/>
-    </row>
-    <row r="146" spans="1:60">
+      <c r="BI145" s="20"/>
+      <c r="BJ145" s="20"/>
+    </row>
+    <row r="146" spans="1:62">
       <c r="A146" s="20"/>
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
@@ -12633,8 +12933,10 @@
       <c r="BF146" s="20"/>
       <c r="BG146" s="20"/>
       <c r="BH146" s="20"/>
-    </row>
-    <row r="147" spans="1:60">
+      <c r="BI146" s="20"/>
+      <c r="BJ146" s="20"/>
+    </row>
+    <row r="147" spans="1:62">
       <c r="A147" s="20"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
@@ -12694,8 +12996,10 @@
       <c r="BF147" s="20"/>
       <c r="BG147" s="20"/>
       <c r="BH147" s="20"/>
-    </row>
-    <row r="148" spans="1:60">
+      <c r="BI147" s="20"/>
+      <c r="BJ147" s="20"/>
+    </row>
+    <row r="148" spans="1:62">
       <c r="A148" s="20"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
@@ -12755,8 +13059,10 @@
       <c r="BF148" s="20"/>
       <c r="BG148" s="20"/>
       <c r="BH148" s="20"/>
-    </row>
-    <row r="149" spans="1:60">
+      <c r="BI148" s="20"/>
+      <c r="BJ148" s="20"/>
+    </row>
+    <row r="149" spans="1:62">
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
@@ -12816,8 +13122,10 @@
       <c r="BF149" s="20"/>
       <c r="BG149" s="20"/>
       <c r="BH149" s="20"/>
-    </row>
-    <row r="150" spans="1:60">
+      <c r="BI149" s="20"/>
+      <c r="BJ149" s="20"/>
+    </row>
+    <row r="150" spans="1:62">
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
@@ -12877,8 +13185,10 @@
       <c r="BF150" s="20"/>
       <c r="BG150" s="20"/>
       <c r="BH150" s="20"/>
-    </row>
-    <row r="151" spans="1:60">
+      <c r="BI150" s="20"/>
+      <c r="BJ150" s="20"/>
+    </row>
+    <row r="151" spans="1:62">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
@@ -12938,8 +13248,10 @@
       <c r="BF151" s="20"/>
       <c r="BG151" s="20"/>
       <c r="BH151" s="20"/>
-    </row>
-    <row r="152" spans="1:60">
+      <c r="BI151" s="20"/>
+      <c r="BJ151" s="20"/>
+    </row>
+    <row r="152" spans="1:62">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
@@ -12999,8 +13311,10 @@
       <c r="BF152" s="20"/>
       <c r="BG152" s="20"/>
       <c r="BH152" s="20"/>
-    </row>
-    <row r="153" spans="1:60">
+      <c r="BI152" s="20"/>
+      <c r="BJ152" s="20"/>
+    </row>
+    <row r="153" spans="1:62">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
@@ -13060,8 +13374,10 @@
       <c r="BF153" s="20"/>
       <c r="BG153" s="20"/>
       <c r="BH153" s="20"/>
-    </row>
-    <row r="154" spans="1:60">
+      <c r="BI153" s="20"/>
+      <c r="BJ153" s="20"/>
+    </row>
+    <row r="154" spans="1:62">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
@@ -13121,8 +13437,10 @@
       <c r="BF154" s="20"/>
       <c r="BG154" s="20"/>
       <c r="BH154" s="20"/>
-    </row>
-    <row r="155" spans="1:60">
+      <c r="BI154" s="20"/>
+      <c r="BJ154" s="20"/>
+    </row>
+    <row r="155" spans="1:62">
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
@@ -13182,8 +13500,10 @@
       <c r="BF155" s="20"/>
       <c r="BG155" s="20"/>
       <c r="BH155" s="20"/>
-    </row>
-    <row r="156" spans="1:60">
+      <c r="BI155" s="20"/>
+      <c r="BJ155" s="20"/>
+    </row>
+    <row r="156" spans="1:62">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
@@ -13243,8 +13563,10 @@
       <c r="BF156" s="20"/>
       <c r="BG156" s="20"/>
       <c r="BH156" s="20"/>
-    </row>
-    <row r="157" spans="1:60">
+      <c r="BI156" s="20"/>
+      <c r="BJ156" s="20"/>
+    </row>
+    <row r="157" spans="1:62">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
@@ -13304,8 +13626,10 @@
       <c r="BF157" s="20"/>
       <c r="BG157" s="20"/>
       <c r="BH157" s="20"/>
-    </row>
-    <row r="158" spans="1:60">
+      <c r="BI157" s="20"/>
+      <c r="BJ157" s="20"/>
+    </row>
+    <row r="158" spans="1:62">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -13365,8 +13689,10 @@
       <c r="BF158" s="20"/>
       <c r="BG158" s="20"/>
       <c r="BH158" s="20"/>
-    </row>
-    <row r="159" spans="1:60">
+      <c r="BI158" s="20"/>
+      <c r="BJ158" s="20"/>
+    </row>
+    <row r="159" spans="1:62">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
@@ -13426,8 +13752,10 @@
       <c r="BF159" s="20"/>
       <c r="BG159" s="20"/>
       <c r="BH159" s="20"/>
-    </row>
-    <row r="160" spans="1:60">
+      <c r="BI159" s="20"/>
+      <c r="BJ159" s="20"/>
+    </row>
+    <row r="160" spans="1:62">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
@@ -13487,8 +13815,10 @@
       <c r="BF160" s="20"/>
       <c r="BG160" s="20"/>
       <c r="BH160" s="20"/>
-    </row>
-    <row r="161" spans="1:60">
+      <c r="BI160" s="20"/>
+      <c r="BJ160" s="20"/>
+    </row>
+    <row r="161" spans="1:62">
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
@@ -13548,8 +13878,10 @@
       <c r="BF161" s="20"/>
       <c r="BG161" s="20"/>
       <c r="BH161" s="20"/>
-    </row>
-    <row r="162" spans="1:60">
+      <c r="BI161" s="20"/>
+      <c r="BJ161" s="20"/>
+    </row>
+    <row r="162" spans="1:62">
       <c r="A162" s="20"/>
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
@@ -13609,8 +13941,10 @@
       <c r="BF162" s="20"/>
       <c r="BG162" s="20"/>
       <c r="BH162" s="20"/>
-    </row>
-    <row r="163" spans="1:60">
+      <c r="BI162" s="20"/>
+      <c r="BJ162" s="20"/>
+    </row>
+    <row r="163" spans="1:62">
       <c r="A163" s="20"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
@@ -13670,8 +14004,10 @@
       <c r="BF163" s="20"/>
       <c r="BG163" s="20"/>
       <c r="BH163" s="20"/>
-    </row>
-    <row r="164" spans="1:60">
+      <c r="BI163" s="20"/>
+      <c r="BJ163" s="20"/>
+    </row>
+    <row r="164" spans="1:62">
       <c r="A164" s="20"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
@@ -13731,8 +14067,10 @@
       <c r="BF164" s="20"/>
       <c r="BG164" s="20"/>
       <c r="BH164" s="20"/>
-    </row>
-    <row r="165" spans="1:60">
+      <c r="BI164" s="20"/>
+      <c r="BJ164" s="20"/>
+    </row>
+    <row r="165" spans="1:62">
       <c r="A165" s="20"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
@@ -13792,8 +14130,10 @@
       <c r="BF165" s="20"/>
       <c r="BG165" s="20"/>
       <c r="BH165" s="20"/>
-    </row>
-    <row r="166" spans="1:60">
+      <c r="BI165" s="20"/>
+      <c r="BJ165" s="20"/>
+    </row>
+    <row r="166" spans="1:62">
       <c r="A166" s="20"/>
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
@@ -13853,8 +14193,10 @@
       <c r="BF166" s="20"/>
       <c r="BG166" s="20"/>
       <c r="BH166" s="20"/>
-    </row>
-    <row r="167" spans="1:60">
+      <c r="BI166" s="20"/>
+      <c r="BJ166" s="20"/>
+    </row>
+    <row r="167" spans="1:62">
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
@@ -13914,8 +14256,10 @@
       <c r="BF167" s="20"/>
       <c r="BG167" s="20"/>
       <c r="BH167" s="20"/>
-    </row>
-    <row r="168" spans="1:60">
+      <c r="BI167" s="20"/>
+      <c r="BJ167" s="20"/>
+    </row>
+    <row r="168" spans="1:62">
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
@@ -13975,8 +14319,10 @@
       <c r="BF168" s="20"/>
       <c r="BG168" s="20"/>
       <c r="BH168" s="20"/>
-    </row>
-    <row r="169" spans="1:60">
+      <c r="BI168" s="20"/>
+      <c r="BJ168" s="20"/>
+    </row>
+    <row r="169" spans="1:62">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
@@ -14036,8 +14382,10 @@
       <c r="BF169" s="20"/>
       <c r="BG169" s="20"/>
       <c r="BH169" s="20"/>
-    </row>
-    <row r="170" spans="1:60">
+      <c r="BI169" s="20"/>
+      <c r="BJ169" s="20"/>
+    </row>
+    <row r="170" spans="1:62">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
@@ -14097,8 +14445,10 @@
       <c r="BF170" s="20"/>
       <c r="BG170" s="20"/>
       <c r="BH170" s="20"/>
-    </row>
-    <row r="171" spans="1:60">
+      <c r="BI170" s="20"/>
+      <c r="BJ170" s="20"/>
+    </row>
+    <row r="171" spans="1:62">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
@@ -14158,8 +14508,10 @@
       <c r="BF171" s="20"/>
       <c r="BG171" s="20"/>
       <c r="BH171" s="20"/>
-    </row>
-    <row r="172" spans="1:60">
+      <c r="BI171" s="20"/>
+      <c r="BJ171" s="20"/>
+    </row>
+    <row r="172" spans="1:62">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
@@ -14219,8 +14571,10 @@
       <c r="BF172" s="20"/>
       <c r="BG172" s="20"/>
       <c r="BH172" s="20"/>
-    </row>
-    <row r="173" spans="1:60">
+      <c r="BI172" s="20"/>
+      <c r="BJ172" s="20"/>
+    </row>
+    <row r="173" spans="1:62">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
@@ -14280,8 +14634,10 @@
       <c r="BF173" s="20"/>
       <c r="BG173" s="20"/>
       <c r="BH173" s="20"/>
-    </row>
-    <row r="174" spans="1:60">
+      <c r="BI173" s="20"/>
+      <c r="BJ173" s="20"/>
+    </row>
+    <row r="174" spans="1:62">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
@@ -14341,8 +14697,10 @@
       <c r="BF174" s="20"/>
       <c r="BG174" s="20"/>
       <c r="BH174" s="20"/>
-    </row>
-    <row r="175" spans="1:60">
+      <c r="BI174" s="20"/>
+      <c r="BJ174" s="20"/>
+    </row>
+    <row r="175" spans="1:62">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
@@ -14402,8 +14760,10 @@
       <c r="BF175" s="20"/>
       <c r="BG175" s="20"/>
       <c r="BH175" s="20"/>
-    </row>
-    <row r="176" spans="1:60">
+      <c r="BI175" s="20"/>
+      <c r="BJ175" s="20"/>
+    </row>
+    <row r="176" spans="1:62">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
@@ -14463,8 +14823,10 @@
       <c r="BF176" s="20"/>
       <c r="BG176" s="20"/>
       <c r="BH176" s="20"/>
-    </row>
-    <row r="177" spans="1:60">
+      <c r="BI176" s="20"/>
+      <c r="BJ176" s="20"/>
+    </row>
+    <row r="177" spans="1:62">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
@@ -14524,8 +14886,10 @@
       <c r="BF177" s="20"/>
       <c r="BG177" s="20"/>
       <c r="BH177" s="20"/>
-    </row>
-    <row r="178" spans="1:60">
+      <c r="BI177" s="20"/>
+      <c r="BJ177" s="20"/>
+    </row>
+    <row r="178" spans="1:62">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
@@ -14585,8 +14949,10 @@
       <c r="BF178" s="20"/>
       <c r="BG178" s="20"/>
       <c r="BH178" s="20"/>
-    </row>
-    <row r="179" spans="1:60">
+      <c r="BI178" s="20"/>
+      <c r="BJ178" s="20"/>
+    </row>
+    <row r="179" spans="1:62">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
@@ -14646,8 +15012,10 @@
       <c r="BF179" s="20"/>
       <c r="BG179" s="20"/>
       <c r="BH179" s="20"/>
-    </row>
-    <row r="180" spans="1:60">
+      <c r="BI179" s="20"/>
+      <c r="BJ179" s="20"/>
+    </row>
+    <row r="180" spans="1:62">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
@@ -14707,8 +15075,10 @@
       <c r="BF180" s="20"/>
       <c r="BG180" s="20"/>
       <c r="BH180" s="20"/>
-    </row>
-    <row r="181" spans="1:60">
+      <c r="BI180" s="20"/>
+      <c r="BJ180" s="20"/>
+    </row>
+    <row r="181" spans="1:62">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
@@ -14768,8 +15138,10 @@
       <c r="BF181" s="20"/>
       <c r="BG181" s="20"/>
       <c r="BH181" s="20"/>
-    </row>
-    <row r="182" spans="1:60">
+      <c r="BI181" s="20"/>
+      <c r="BJ181" s="20"/>
+    </row>
+    <row r="182" spans="1:62">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
@@ -14829,8 +15201,10 @@
       <c r="BF182" s="20"/>
       <c r="BG182" s="20"/>
       <c r="BH182" s="20"/>
-    </row>
-    <row r="183" spans="1:60">
+      <c r="BI182" s="20"/>
+      <c r="BJ182" s="20"/>
+    </row>
+    <row r="183" spans="1:62">
       <c r="A183" s="20"/>
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
@@ -14890,8 +15264,10 @@
       <c r="BF183" s="20"/>
       <c r="BG183" s="20"/>
       <c r="BH183" s="20"/>
-    </row>
-    <row r="184" spans="1:60">
+      <c r="BI183" s="20"/>
+      <c r="BJ183" s="20"/>
+    </row>
+    <row r="184" spans="1:62">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
@@ -14951,8 +15327,10 @@
       <c r="BF184" s="20"/>
       <c r="BG184" s="20"/>
       <c r="BH184" s="20"/>
-    </row>
-    <row r="185" spans="1:60">
+      <c r="BI184" s="20"/>
+      <c r="BJ184" s="20"/>
+    </row>
+    <row r="185" spans="1:62">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
@@ -15012,8 +15390,10 @@
       <c r="BF185" s="20"/>
       <c r="BG185" s="20"/>
       <c r="BH185" s="20"/>
-    </row>
-    <row r="186" spans="1:60">
+      <c r="BI185" s="20"/>
+      <c r="BJ185" s="20"/>
+    </row>
+    <row r="186" spans="1:62">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
@@ -15073,8 +15453,10 @@
       <c r="BF186" s="20"/>
       <c r="BG186" s="20"/>
       <c r="BH186" s="20"/>
-    </row>
-    <row r="187" spans="1:60">
+      <c r="BI186" s="20"/>
+      <c r="BJ186" s="20"/>
+    </row>
+    <row r="187" spans="1:62">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
@@ -15134,8 +15516,10 @@
       <c r="BF187" s="20"/>
       <c r="BG187" s="20"/>
       <c r="BH187" s="20"/>
-    </row>
-    <row r="188" spans="1:60">
+      <c r="BI187" s="20"/>
+      <c r="BJ187" s="20"/>
+    </row>
+    <row r="188" spans="1:62">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
@@ -15195,8 +15579,10 @@
       <c r="BF188" s="20"/>
       <c r="BG188" s="20"/>
       <c r="BH188" s="20"/>
-    </row>
-    <row r="189" spans="1:60">
+      <c r="BI188" s="20"/>
+      <c r="BJ188" s="20"/>
+    </row>
+    <row r="189" spans="1:62">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -15256,8 +15642,10 @@
       <c r="BF189" s="20"/>
       <c r="BG189" s="20"/>
       <c r="BH189" s="20"/>
-    </row>
-    <row r="190" spans="1:60">
+      <c r="BI189" s="20"/>
+      <c r="BJ189" s="20"/>
+    </row>
+    <row r="190" spans="1:62">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
@@ -15317,8 +15705,10 @@
       <c r="BF190" s="20"/>
       <c r="BG190" s="20"/>
       <c r="BH190" s="20"/>
-    </row>
-    <row r="191" spans="1:60">
+      <c r="BI190" s="20"/>
+      <c r="BJ190" s="20"/>
+    </row>
+    <row r="191" spans="1:62">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
@@ -15378,8 +15768,10 @@
       <c r="BF191" s="20"/>
       <c r="BG191" s="20"/>
       <c r="BH191" s="20"/>
-    </row>
-    <row r="192" spans="1:60">
+      <c r="BI191" s="20"/>
+      <c r="BJ191" s="20"/>
+    </row>
+    <row r="192" spans="1:62">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
@@ -15439,8 +15831,10 @@
       <c r="BF192" s="20"/>
       <c r="BG192" s="20"/>
       <c r="BH192" s="20"/>
-    </row>
-    <row r="193" spans="1:60">
+      <c r="BI192" s="20"/>
+      <c r="BJ192" s="20"/>
+    </row>
+    <row r="193" spans="1:62">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
@@ -15500,8 +15894,10 @@
       <c r="BF193" s="20"/>
       <c r="BG193" s="20"/>
       <c r="BH193" s="20"/>
-    </row>
-    <row r="194" spans="1:60">
+      <c r="BI193" s="20"/>
+      <c r="BJ193" s="20"/>
+    </row>
+    <row r="194" spans="1:62">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
@@ -15561,8 +15957,10 @@
       <c r="BF194" s="20"/>
       <c r="BG194" s="20"/>
       <c r="BH194" s="20"/>
-    </row>
-    <row r="195" spans="1:60">
+      <c r="BI194" s="20"/>
+      <c r="BJ194" s="20"/>
+    </row>
+    <row r="195" spans="1:62">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
@@ -15622,8 +16020,10 @@
       <c r="BF195" s="20"/>
       <c r="BG195" s="20"/>
       <c r="BH195" s="20"/>
-    </row>
-    <row r="196" spans="1:60">
+      <c r="BI195" s="20"/>
+      <c r="BJ195" s="20"/>
+    </row>
+    <row r="196" spans="1:62">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
@@ -15683,8 +16083,10 @@
       <c r="BF196" s="20"/>
       <c r="BG196" s="20"/>
       <c r="BH196" s="20"/>
-    </row>
-    <row r="197" spans="1:60">
+      <c r="BI196" s="20"/>
+      <c r="BJ196" s="20"/>
+    </row>
+    <row r="197" spans="1:62">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
@@ -15744,8 +16146,10 @@
       <c r="BF197" s="20"/>
       <c r="BG197" s="20"/>
       <c r="BH197" s="20"/>
-    </row>
-    <row r="198" spans="1:60">
+      <c r="BI197" s="20"/>
+      <c r="BJ197" s="20"/>
+    </row>
+    <row r="198" spans="1:62">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
@@ -15805,8 +16209,10 @@
       <c r="BF198" s="20"/>
       <c r="BG198" s="20"/>
       <c r="BH198" s="20"/>
-    </row>
-    <row r="199" spans="1:60">
+      <c r="BI198" s="20"/>
+      <c r="BJ198" s="20"/>
+    </row>
+    <row r="199" spans="1:62">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
@@ -15866,8 +16272,10 @@
       <c r="BF199" s="20"/>
       <c r="BG199" s="20"/>
       <c r="BH199" s="20"/>
-    </row>
-    <row r="200" spans="1:60">
+      <c r="BI199" s="20"/>
+      <c r="BJ199" s="20"/>
+    </row>
+    <row r="200" spans="1:62">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
@@ -15927,8 +16335,10 @@
       <c r="BF200" s="20"/>
       <c r="BG200" s="20"/>
       <c r="BH200" s="20"/>
-    </row>
-    <row r="201" spans="1:60">
+      <c r="BI200" s="20"/>
+      <c r="BJ200" s="20"/>
+    </row>
+    <row r="201" spans="1:62">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
@@ -15988,8 +16398,10 @@
       <c r="BF201" s="20"/>
       <c r="BG201" s="20"/>
       <c r="BH201" s="20"/>
-    </row>
-    <row r="202" spans="1:60">
+      <c r="BI201" s="20"/>
+      <c r="BJ201" s="20"/>
+    </row>
+    <row r="202" spans="1:62">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
@@ -16049,8 +16461,10 @@
       <c r="BF202" s="20"/>
       <c r="BG202" s="20"/>
       <c r="BH202" s="20"/>
-    </row>
-    <row r="203" spans="1:60">
+      <c r="BI202" s="20"/>
+      <c r="BJ202" s="20"/>
+    </row>
+    <row r="203" spans="1:62">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
@@ -16110,8 +16524,10 @@
       <c r="BF203" s="20"/>
       <c r="BG203" s="20"/>
       <c r="BH203" s="20"/>
-    </row>
-    <row r="204" spans="1:60">
+      <c r="BI203" s="20"/>
+      <c r="BJ203" s="20"/>
+    </row>
+    <row r="204" spans="1:62">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
@@ -16171,8 +16587,10 @@
       <c r="BF204" s="20"/>
       <c r="BG204" s="20"/>
       <c r="BH204" s="20"/>
-    </row>
-    <row r="205" spans="1:60">
+      <c r="BI204" s="20"/>
+      <c r="BJ204" s="20"/>
+    </row>
+    <row r="205" spans="1:62">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
@@ -16232,8 +16650,10 @@
       <c r="BF205" s="20"/>
       <c r="BG205" s="20"/>
       <c r="BH205" s="20"/>
-    </row>
-    <row r="206" spans="1:60">
+      <c r="BI205" s="20"/>
+      <c r="BJ205" s="20"/>
+    </row>
+    <row r="206" spans="1:62">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
@@ -16293,8 +16713,10 @@
       <c r="BF206" s="20"/>
       <c r="BG206" s="20"/>
       <c r="BH206" s="20"/>
-    </row>
-    <row r="207" spans="1:60">
+      <c r="BI206" s="20"/>
+      <c r="BJ206" s="20"/>
+    </row>
+    <row r="207" spans="1:62">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
@@ -16354,8 +16776,10 @@
       <c r="BF207" s="20"/>
       <c r="BG207" s="20"/>
       <c r="BH207" s="20"/>
-    </row>
-    <row r="208" spans="1:60">
+      <c r="BI207" s="20"/>
+      <c r="BJ207" s="20"/>
+    </row>
+    <row r="208" spans="1:62">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
@@ -16415,8 +16839,10 @@
       <c r="BF208" s="20"/>
       <c r="BG208" s="20"/>
       <c r="BH208" s="20"/>
-    </row>
-    <row r="209" spans="1:60">
+      <c r="BI208" s="20"/>
+      <c r="BJ208" s="20"/>
+    </row>
+    <row r="209" spans="1:62">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
@@ -16476,8 +16902,10 @@
       <c r="BF209" s="20"/>
       <c r="BG209" s="20"/>
       <c r="BH209" s="20"/>
-    </row>
-    <row r="210" spans="1:60">
+      <c r="BI209" s="20"/>
+      <c r="BJ209" s="20"/>
+    </row>
+    <row r="210" spans="1:62">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
@@ -16537,8 +16965,10 @@
       <c r="BF210" s="20"/>
       <c r="BG210" s="20"/>
       <c r="BH210" s="20"/>
-    </row>
-    <row r="211" spans="1:60">
+      <c r="BI210" s="20"/>
+      <c r="BJ210" s="20"/>
+    </row>
+    <row r="211" spans="1:62">
       <c r="A211" s="20"/>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
@@ -16598,8 +17028,10 @@
       <c r="BF211" s="20"/>
       <c r="BG211" s="20"/>
       <c r="BH211" s="20"/>
-    </row>
-    <row r="212" spans="1:60">
+      <c r="BI211" s="20"/>
+      <c r="BJ211" s="20"/>
+    </row>
+    <row r="212" spans="1:62">
       <c r="A212" s="20"/>
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
@@ -16659,8 +17091,10 @@
       <c r="BF212" s="20"/>
       <c r="BG212" s="20"/>
       <c r="BH212" s="20"/>
-    </row>
-    <row r="213" spans="1:60">
+      <c r="BI212" s="20"/>
+      <c r="BJ212" s="20"/>
+    </row>
+    <row r="213" spans="1:62">
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="20"/>
@@ -16720,8 +17154,10 @@
       <c r="BF213" s="20"/>
       <c r="BG213" s="20"/>
       <c r="BH213" s="20"/>
-    </row>
-    <row r="214" spans="1:60">
+      <c r="BI213" s="20"/>
+      <c r="BJ213" s="20"/>
+    </row>
+    <row r="214" spans="1:62">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
@@ -16781,8 +17217,10 @@
       <c r="BF214" s="20"/>
       <c r="BG214" s="20"/>
       <c r="BH214" s="20"/>
-    </row>
-    <row r="215" spans="1:60">
+      <c r="BI214" s="20"/>
+      <c r="BJ214" s="20"/>
+    </row>
+    <row r="215" spans="1:62">
       <c r="A215" s="20"/>
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
@@ -16842,8 +17280,10 @@
       <c r="BF215" s="20"/>
       <c r="BG215" s="20"/>
       <c r="BH215" s="20"/>
-    </row>
-    <row r="216" spans="1:60">
+      <c r="BI215" s="20"/>
+      <c r="BJ215" s="20"/>
+    </row>
+    <row r="216" spans="1:62">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
@@ -16903,8 +17343,10 @@
       <c r="BF216" s="20"/>
       <c r="BG216" s="20"/>
       <c r="BH216" s="20"/>
-    </row>
-    <row r="217" spans="1:60">
+      <c r="BI216" s="20"/>
+      <c r="BJ216" s="20"/>
+    </row>
+    <row r="217" spans="1:62">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
@@ -16964,8 +17406,10 @@
       <c r="BF217" s="20"/>
       <c r="BG217" s="20"/>
       <c r="BH217" s="20"/>
-    </row>
-    <row r="218" spans="1:60">
+      <c r="BI217" s="20"/>
+      <c r="BJ217" s="20"/>
+    </row>
+    <row r="218" spans="1:62">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
@@ -17025,8 +17469,10 @@
       <c r="BF218" s="20"/>
       <c r="BG218" s="20"/>
       <c r="BH218" s="20"/>
-    </row>
-    <row r="219" spans="1:60">
+      <c r="BI218" s="20"/>
+      <c r="BJ218" s="20"/>
+    </row>
+    <row r="219" spans="1:62">
       <c r="A219" s="20"/>
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
@@ -17086,8 +17532,10 @@
       <c r="BF219" s="20"/>
       <c r="BG219" s="20"/>
       <c r="BH219" s="20"/>
-    </row>
-    <row r="220" spans="1:60">
+      <c r="BI219" s="20"/>
+      <c r="BJ219" s="20"/>
+    </row>
+    <row r="220" spans="1:62">
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="20"/>
@@ -17147,8 +17595,10 @@
       <c r="BF220" s="20"/>
       <c r="BG220" s="20"/>
       <c r="BH220" s="20"/>
-    </row>
-    <row r="221" spans="1:60">
+      <c r="BI220" s="20"/>
+      <c r="BJ220" s="20"/>
+    </row>
+    <row r="221" spans="1:62">
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="20"/>
@@ -17208,8 +17658,10 @@
       <c r="BF221" s="20"/>
       <c r="BG221" s="20"/>
       <c r="BH221" s="20"/>
-    </row>
-    <row r="222" spans="1:60">
+      <c r="BI221" s="20"/>
+      <c r="BJ221" s="20"/>
+    </row>
+    <row r="222" spans="1:62">
       <c r="A222" s="20"/>
       <c r="B222" s="20"/>
       <c r="C222" s="20"/>
@@ -17269,8 +17721,10 @@
       <c r="BF222" s="20"/>
       <c r="BG222" s="20"/>
       <c r="BH222" s="20"/>
-    </row>
-    <row r="223" spans="1:60">
+      <c r="BI222" s="20"/>
+      <c r="BJ222" s="20"/>
+    </row>
+    <row r="223" spans="1:62">
       <c r="A223" s="20"/>
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
@@ -17330,8 +17784,10 @@
       <c r="BF223" s="20"/>
       <c r="BG223" s="20"/>
       <c r="BH223" s="20"/>
-    </row>
-    <row r="224" spans="1:60">
+      <c r="BI223" s="20"/>
+      <c r="BJ223" s="20"/>
+    </row>
+    <row r="224" spans="1:62">
       <c r="A224" s="20"/>
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
@@ -17391,8 +17847,10 @@
       <c r="BF224" s="20"/>
       <c r="BG224" s="20"/>
       <c r="BH224" s="20"/>
-    </row>
-    <row r="225" spans="1:60">
+      <c r="BI224" s="20"/>
+      <c r="BJ224" s="20"/>
+    </row>
+    <row r="225" spans="1:62">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
@@ -17452,8 +17910,10 @@
       <c r="BF225" s="20"/>
       <c r="BG225" s="20"/>
       <c r="BH225" s="20"/>
-    </row>
-    <row r="226" spans="1:60">
+      <c r="BI225" s="20"/>
+      <c r="BJ225" s="20"/>
+    </row>
+    <row r="226" spans="1:62">
       <c r="A226" s="20"/>
       <c r="B226" s="20"/>
       <c r="C226" s="20"/>
@@ -17513,8 +17973,10 @@
       <c r="BF226" s="20"/>
       <c r="BG226" s="20"/>
       <c r="BH226" s="20"/>
-    </row>
-    <row r="227" spans="1:60">
+      <c r="BI226" s="20"/>
+      <c r="BJ226" s="20"/>
+    </row>
+    <row r="227" spans="1:62">
       <c r="A227" s="20"/>
       <c r="B227" s="20"/>
       <c r="C227" s="20"/>
@@ -17574,8 +18036,10 @@
       <c r="BF227" s="20"/>
       <c r="BG227" s="20"/>
       <c r="BH227" s="20"/>
-    </row>
-    <row r="228" spans="1:60">
+      <c r="BI227" s="20"/>
+      <c r="BJ227" s="20"/>
+    </row>
+    <row r="228" spans="1:62">
       <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
@@ -17635,8 +18099,10 @@
       <c r="BF228" s="20"/>
       <c r="BG228" s="20"/>
       <c r="BH228" s="20"/>
-    </row>
-    <row r="229" spans="1:60">
+      <c r="BI228" s="20"/>
+      <c r="BJ228" s="20"/>
+    </row>
+    <row r="229" spans="1:62">
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
@@ -17696,8 +18162,10 @@
       <c r="BF229" s="20"/>
       <c r="BG229" s="20"/>
       <c r="BH229" s="20"/>
-    </row>
-    <row r="230" spans="1:60">
+      <c r="BI229" s="20"/>
+      <c r="BJ229" s="20"/>
+    </row>
+    <row r="230" spans="1:62">
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
@@ -17757,8 +18225,10 @@
       <c r="BF230" s="20"/>
       <c r="BG230" s="20"/>
       <c r="BH230" s="20"/>
-    </row>
-    <row r="231" spans="1:60">
+      <c r="BI230" s="20"/>
+      <c r="BJ230" s="20"/>
+    </row>
+    <row r="231" spans="1:62">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
@@ -17818,8 +18288,10 @@
       <c r="BF231" s="20"/>
       <c r="BG231" s="20"/>
       <c r="BH231" s="20"/>
-    </row>
-    <row r="232" spans="1:60">
+      <c r="BI231" s="20"/>
+      <c r="BJ231" s="20"/>
+    </row>
+    <row r="232" spans="1:62">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
@@ -17879,8 +18351,10 @@
       <c r="BF232" s="20"/>
       <c r="BG232" s="20"/>
       <c r="BH232" s="20"/>
-    </row>
-    <row r="233" spans="1:60">
+      <c r="BI232" s="20"/>
+      <c r="BJ232" s="20"/>
+    </row>
+    <row r="233" spans="1:62">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
@@ -17940,8 +18414,10 @@
       <c r="BF233" s="20"/>
       <c r="BG233" s="20"/>
       <c r="BH233" s="20"/>
-    </row>
-    <row r="234" spans="1:60">
+      <c r="BI233" s="20"/>
+      <c r="BJ233" s="20"/>
+    </row>
+    <row r="234" spans="1:62">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
@@ -18001,8 +18477,10 @@
       <c r="BF234" s="20"/>
       <c r="BG234" s="20"/>
       <c r="BH234" s="20"/>
-    </row>
-    <row r="235" spans="1:60">
+      <c r="BI234" s="20"/>
+      <c r="BJ234" s="20"/>
+    </row>
+    <row r="235" spans="1:62">
       <c r="A235" s="20"/>
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
@@ -18062,8 +18540,10 @@
       <c r="BF235" s="20"/>
       <c r="BG235" s="20"/>
       <c r="BH235" s="20"/>
-    </row>
-    <row r="236" spans="1:60">
+      <c r="BI235" s="20"/>
+      <c r="BJ235" s="20"/>
+    </row>
+    <row r="236" spans="1:62">
       <c r="A236" s="20"/>
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
@@ -18123,8 +18603,10 @@
       <c r="BF236" s="20"/>
       <c r="BG236" s="20"/>
       <c r="BH236" s="20"/>
-    </row>
-    <row r="237" spans="1:60">
+      <c r="BI236" s="20"/>
+      <c r="BJ236" s="20"/>
+    </row>
+    <row r="237" spans="1:62">
       <c r="A237" s="20"/>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
@@ -18184,8 +18666,10 @@
       <c r="BF237" s="20"/>
       <c r="BG237" s="20"/>
       <c r="BH237" s="20"/>
-    </row>
-    <row r="238" spans="1:60">
+      <c r="BI237" s="20"/>
+      <c r="BJ237" s="20"/>
+    </row>
+    <row r="238" spans="1:62">
       <c r="A238" s="20"/>
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
@@ -18245,8 +18729,10 @@
       <c r="BF238" s="20"/>
       <c r="BG238" s="20"/>
       <c r="BH238" s="20"/>
-    </row>
-    <row r="239" spans="1:60">
+      <c r="BI238" s="20"/>
+      <c r="BJ238" s="20"/>
+    </row>
+    <row r="239" spans="1:62">
       <c r="A239" s="20"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
@@ -18306,8 +18792,10 @@
       <c r="BF239" s="20"/>
       <c r="BG239" s="20"/>
       <c r="BH239" s="20"/>
-    </row>
-    <row r="240" spans="1:60">
+      <c r="BI239" s="20"/>
+      <c r="BJ239" s="20"/>
+    </row>
+    <row r="240" spans="1:62">
       <c r="A240" s="20"/>
       <c r="B240" s="20"/>
       <c r="C240" s="20"/>
@@ -18367,8 +18855,10 @@
       <c r="BF240" s="20"/>
       <c r="BG240" s="20"/>
       <c r="BH240" s="20"/>
-    </row>
-    <row r="241" spans="1:60">
+      <c r="BI240" s="20"/>
+      <c r="BJ240" s="20"/>
+    </row>
+    <row r="241" spans="1:62">
       <c r="A241" s="20"/>
       <c r="B241" s="20"/>
       <c r="C241" s="20"/>
@@ -18428,8 +18918,10 @@
       <c r="BF241" s="20"/>
       <c r="BG241" s="20"/>
       <c r="BH241" s="20"/>
-    </row>
-    <row r="242" spans="1:60">
+      <c r="BI241" s="20"/>
+      <c r="BJ241" s="20"/>
+    </row>
+    <row r="242" spans="1:62">
       <c r="A242" s="20"/>
       <c r="B242" s="20"/>
       <c r="C242" s="20"/>
@@ -18489,8 +18981,10 @@
       <c r="BF242" s="20"/>
       <c r="BG242" s="20"/>
       <c r="BH242" s="20"/>
-    </row>
-    <row r="243" spans="1:60">
+      <c r="BI242" s="20"/>
+      <c r="BJ242" s="20"/>
+    </row>
+    <row r="243" spans="1:62">
       <c r="A243" s="20"/>
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
@@ -18550,8 +19044,10 @@
       <c r="BF243" s="20"/>
       <c r="BG243" s="20"/>
       <c r="BH243" s="20"/>
-    </row>
-    <row r="244" spans="1:60">
+      <c r="BI243" s="20"/>
+      <c r="BJ243" s="20"/>
+    </row>
+    <row r="244" spans="1:62">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
@@ -18611,8 +19107,10 @@
       <c r="BF244" s="20"/>
       <c r="BG244" s="20"/>
       <c r="BH244" s="20"/>
-    </row>
-    <row r="245" spans="1:60">
+      <c r="BI244" s="20"/>
+      <c r="BJ244" s="20"/>
+    </row>
+    <row r="245" spans="1:62">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
@@ -18672,8 +19170,10 @@
       <c r="BF245" s="20"/>
       <c r="BG245" s="20"/>
       <c r="BH245" s="20"/>
-    </row>
-    <row r="246" spans="1:60">
+      <c r="BI245" s="20"/>
+      <c r="BJ245" s="20"/>
+    </row>
+    <row r="246" spans="1:62">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
@@ -18733,8 +19233,10 @@
       <c r="BF246" s="20"/>
       <c r="BG246" s="20"/>
       <c r="BH246" s="20"/>
-    </row>
-    <row r="247" spans="1:60">
+      <c r="BI246" s="20"/>
+      <c r="BJ246" s="20"/>
+    </row>
+    <row r="247" spans="1:62">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
@@ -18794,8 +19296,10 @@
       <c r="BF247" s="20"/>
       <c r="BG247" s="20"/>
       <c r="BH247" s="20"/>
-    </row>
-    <row r="248" spans="1:60">
+      <c r="BI247" s="20"/>
+      <c r="BJ247" s="20"/>
+    </row>
+    <row r="248" spans="1:62">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
@@ -18855,8 +19359,10 @@
       <c r="BF248" s="20"/>
       <c r="BG248" s="20"/>
       <c r="BH248" s="20"/>
-    </row>
-    <row r="249" spans="1:60">
+      <c r="BI248" s="20"/>
+      <c r="BJ248" s="20"/>
+    </row>
+    <row r="249" spans="1:62">
       <c r="A249" s="20"/>
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
@@ -18916,8 +19422,10 @@
       <c r="BF249" s="20"/>
       <c r="BG249" s="20"/>
       <c r="BH249" s="20"/>
-    </row>
-    <row r="250" spans="1:60">
+      <c r="BI249" s="20"/>
+      <c r="BJ249" s="20"/>
+    </row>
+    <row r="250" spans="1:62">
       <c r="A250" s="20"/>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
@@ -18977,8 +19485,10 @@
       <c r="BF250" s="20"/>
       <c r="BG250" s="20"/>
       <c r="BH250" s="20"/>
-    </row>
-    <row r="251" spans="1:60">
+      <c r="BI250" s="20"/>
+      <c r="BJ250" s="20"/>
+    </row>
+    <row r="251" spans="1:62">
       <c r="A251" s="20"/>
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
@@ -19038,8 +19548,10 @@
       <c r="BF251" s="20"/>
       <c r="BG251" s="20"/>
       <c r="BH251" s="20"/>
-    </row>
-    <row r="252" spans="1:60">
+      <c r="BI251" s="20"/>
+      <c r="BJ251" s="20"/>
+    </row>
+    <row r="252" spans="1:62">
       <c r="A252" s="20"/>
       <c r="B252" s="20"/>
       <c r="C252" s="20"/>
@@ -19099,8 +19611,10 @@
       <c r="BF252" s="20"/>
       <c r="BG252" s="20"/>
       <c r="BH252" s="20"/>
-    </row>
-    <row r="253" spans="1:60">
+      <c r="BI252" s="20"/>
+      <c r="BJ252" s="20"/>
+    </row>
+    <row r="253" spans="1:62">
       <c r="A253" s="20"/>
       <c r="B253" s="20"/>
       <c r="C253" s="20"/>
@@ -19160,8 +19674,10 @@
       <c r="BF253" s="20"/>
       <c r="BG253" s="20"/>
       <c r="BH253" s="20"/>
-    </row>
-    <row r="254" spans="1:60">
+      <c r="BI253" s="20"/>
+      <c r="BJ253" s="20"/>
+    </row>
+    <row r="254" spans="1:62">
       <c r="A254" s="20"/>
       <c r="B254" s="20"/>
       <c r="C254" s="20"/>
@@ -19221,8 +19737,10 @@
       <c r="BF254" s="20"/>
       <c r="BG254" s="20"/>
       <c r="BH254" s="20"/>
-    </row>
-    <row r="255" spans="1:60">
+      <c r="BI254" s="20"/>
+      <c r="BJ254" s="20"/>
+    </row>
+    <row r="255" spans="1:62">
       <c r="A255" s="20"/>
       <c r="B255" s="20"/>
       <c r="C255" s="20"/>
@@ -19282,8 +19800,10 @@
       <c r="BF255" s="20"/>
       <c r="BG255" s="20"/>
       <c r="BH255" s="20"/>
-    </row>
-    <row r="256" spans="1:60">
+      <c r="BI255" s="20"/>
+      <c r="BJ255" s="20"/>
+    </row>
+    <row r="256" spans="1:62">
       <c r="A256" s="20"/>
       <c r="B256" s="20"/>
       <c r="C256" s="20"/>
@@ -19343,8 +19863,10 @@
       <c r="BF256" s="20"/>
       <c r="BG256" s="20"/>
       <c r="BH256" s="20"/>
-    </row>
-    <row r="257" spans="1:60">
+      <c r="BI256" s="20"/>
+      <c r="BJ256" s="20"/>
+    </row>
+    <row r="257" spans="1:62">
       <c r="A257" s="20"/>
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
@@ -19404,8 +19926,10 @@
       <c r="BF257" s="20"/>
       <c r="BG257" s="20"/>
       <c r="BH257" s="20"/>
-    </row>
-    <row r="258" spans="1:60">
+      <c r="BI257" s="20"/>
+      <c r="BJ257" s="20"/>
+    </row>
+    <row r="258" spans="1:62">
       <c r="A258" s="20"/>
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
@@ -19465,8 +19989,10 @@
       <c r="BF258" s="20"/>
       <c r="BG258" s="20"/>
       <c r="BH258" s="20"/>
-    </row>
-    <row r="259" spans="1:60">
+      <c r="BI258" s="20"/>
+      <c r="BJ258" s="20"/>
+    </row>
+    <row r="259" spans="1:62">
       <c r="A259" s="20"/>
       <c r="B259" s="20"/>
       <c r="C259" s="20"/>
@@ -19526,8 +20052,10 @@
       <c r="BF259" s="20"/>
       <c r="BG259" s="20"/>
       <c r="BH259" s="20"/>
-    </row>
-    <row r="260" spans="1:60">
+      <c r="BI259" s="20"/>
+      <c r="BJ259" s="20"/>
+    </row>
+    <row r="260" spans="1:62">
       <c r="A260" s="20"/>
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
@@ -19587,8 +20115,10 @@
       <c r="BF260" s="20"/>
       <c r="BG260" s="20"/>
       <c r="BH260" s="20"/>
-    </row>
-    <row r="261" spans="1:60">
+      <c r="BI260" s="20"/>
+      <c r="BJ260" s="20"/>
+    </row>
+    <row r="261" spans="1:62">
       <c r="A261" s="20"/>
       <c r="B261" s="20"/>
       <c r="C261" s="20"/>
@@ -19648,8 +20178,10 @@
       <c r="BF261" s="20"/>
       <c r="BG261" s="20"/>
       <c r="BH261" s="20"/>
-    </row>
-    <row r="262" spans="1:60">
+      <c r="BI261" s="20"/>
+      <c r="BJ261" s="20"/>
+    </row>
+    <row r="262" spans="1:62">
       <c r="A262" s="20"/>
       <c r="B262" s="20"/>
       <c r="C262" s="20"/>
@@ -19709,8 +20241,10 @@
       <c r="BF262" s="20"/>
       <c r="BG262" s="20"/>
       <c r="BH262" s="20"/>
-    </row>
-    <row r="263" spans="1:60">
+      <c r="BI262" s="20"/>
+      <c r="BJ262" s="20"/>
+    </row>
+    <row r="263" spans="1:62">
       <c r="A263" s="20"/>
       <c r="B263" s="20"/>
       <c r="C263" s="20"/>
@@ -19770,8 +20304,10 @@
       <c r="BF263" s="20"/>
       <c r="BG263" s="20"/>
       <c r="BH263" s="20"/>
-    </row>
-    <row r="264" spans="1:60">
+      <c r="BI263" s="20"/>
+      <c r="BJ263" s="20"/>
+    </row>
+    <row r="264" spans="1:62">
       <c r="A264" s="20"/>
       <c r="B264" s="20"/>
       <c r="C264" s="20"/>
@@ -19831,8 +20367,10 @@
       <c r="BF264" s="20"/>
       <c r="BG264" s="20"/>
       <c r="BH264" s="20"/>
-    </row>
-    <row r="265" spans="1:60">
+      <c r="BI264" s="20"/>
+      <c r="BJ264" s="20"/>
+    </row>
+    <row r="265" spans="1:62">
       <c r="A265" s="20"/>
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
@@ -19892,8 +20430,10 @@
       <c r="BF265" s="20"/>
       <c r="BG265" s="20"/>
       <c r="BH265" s="20"/>
-    </row>
-    <row r="266" spans="1:60">
+      <c r="BI265" s="20"/>
+      <c r="BJ265" s="20"/>
+    </row>
+    <row r="266" spans="1:62">
       <c r="A266" s="20"/>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
@@ -19953,8 +20493,10 @@
       <c r="BF266" s="20"/>
       <c r="BG266" s="20"/>
       <c r="BH266" s="20"/>
-    </row>
-    <row r="267" spans="1:60">
+      <c r="BI266" s="20"/>
+      <c r="BJ266" s="20"/>
+    </row>
+    <row r="267" spans="1:62">
       <c r="A267" s="20"/>
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
@@ -20014,8 +20556,10 @@
       <c r="BF267" s="20"/>
       <c r="BG267" s="20"/>
       <c r="BH267" s="20"/>
-    </row>
-    <row r="268" spans="1:60">
+      <c r="BI267" s="20"/>
+      <c r="BJ267" s="20"/>
+    </row>
+    <row r="268" spans="1:62">
       <c r="A268" s="20"/>
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
@@ -20075,8 +20619,10 @@
       <c r="BF268" s="20"/>
       <c r="BG268" s="20"/>
       <c r="BH268" s="20"/>
-    </row>
-    <row r="269" spans="1:60">
+      <c r="BI268" s="20"/>
+      <c r="BJ268" s="20"/>
+    </row>
+    <row r="269" spans="1:62">
       <c r="A269" s="20"/>
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
@@ -20136,8 +20682,10 @@
       <c r="BF269" s="20"/>
       <c r="BG269" s="20"/>
       <c r="BH269" s="20"/>
-    </row>
-    <row r="270" spans="1:60">
+      <c r="BI269" s="20"/>
+      <c r="BJ269" s="20"/>
+    </row>
+    <row r="270" spans="1:62">
       <c r="A270" s="20"/>
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
@@ -20197,8 +20745,10 @@
       <c r="BF270" s="20"/>
       <c r="BG270" s="20"/>
       <c r="BH270" s="20"/>
-    </row>
-    <row r="271" spans="1:60">
+      <c r="BI270" s="20"/>
+      <c r="BJ270" s="20"/>
+    </row>
+    <row r="271" spans="1:62">
       <c r="A271" s="20"/>
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
@@ -20258,8 +20808,10 @@
       <c r="BF271" s="20"/>
       <c r="BG271" s="20"/>
       <c r="BH271" s="20"/>
-    </row>
-    <row r="272" spans="1:60">
+      <c r="BI271" s="20"/>
+      <c r="BJ271" s="20"/>
+    </row>
+    <row r="272" spans="1:62">
       <c r="A272" s="20"/>
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
@@ -20319,8 +20871,10 @@
       <c r="BF272" s="20"/>
       <c r="BG272" s="20"/>
       <c r="BH272" s="20"/>
-    </row>
-    <row r="273" spans="1:60">
+      <c r="BI272" s="20"/>
+      <c r="BJ272" s="20"/>
+    </row>
+    <row r="273" spans="1:62">
       <c r="A273" s="20"/>
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
@@ -20380,8 +20934,10 @@
       <c r="BF273" s="20"/>
       <c r="BG273" s="20"/>
       <c r="BH273" s="20"/>
-    </row>
-    <row r="274" spans="1:60">
+      <c r="BI273" s="20"/>
+      <c r="BJ273" s="20"/>
+    </row>
+    <row r="274" spans="1:62">
       <c r="A274" s="20"/>
       <c r="B274" s="20"/>
       <c r="C274" s="20"/>
@@ -20441,8 +20997,10 @@
       <c r="BF274" s="20"/>
       <c r="BG274" s="20"/>
       <c r="BH274" s="20"/>
-    </row>
-    <row r="275" spans="1:60">
+      <c r="BI274" s="20"/>
+      <c r="BJ274" s="20"/>
+    </row>
+    <row r="275" spans="1:62">
       <c r="A275" s="20"/>
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
@@ -20502,8 +21060,10 @@
       <c r="BF275" s="20"/>
       <c r="BG275" s="20"/>
       <c r="BH275" s="20"/>
-    </row>
-    <row r="276" spans="1:60">
+      <c r="BI275" s="20"/>
+      <c r="BJ275" s="20"/>
+    </row>
+    <row r="276" spans="1:62">
       <c r="A276" s="20"/>
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
@@ -20563,8 +21123,10 @@
       <c r="BF276" s="20"/>
       <c r="BG276" s="20"/>
       <c r="BH276" s="20"/>
-    </row>
-    <row r="277" spans="1:60">
+      <c r="BI276" s="20"/>
+      <c r="BJ276" s="20"/>
+    </row>
+    <row r="277" spans="1:62">
       <c r="A277" s="20"/>
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
@@ -20624,8 +21186,10 @@
       <c r="BF277" s="20"/>
       <c r="BG277" s="20"/>
       <c r="BH277" s="20"/>
-    </row>
-    <row r="278" spans="1:60">
+      <c r="BI277" s="20"/>
+      <c r="BJ277" s="20"/>
+    </row>
+    <row r="278" spans="1:62">
       <c r="A278" s="20"/>
       <c r="B278" s="20"/>
       <c r="C278" s="20"/>
@@ -20685,8 +21249,10 @@
       <c r="BF278" s="20"/>
       <c r="BG278" s="20"/>
       <c r="BH278" s="20"/>
-    </row>
-    <row r="279" spans="1:60">
+      <c r="BI278" s="20"/>
+      <c r="BJ278" s="20"/>
+    </row>
+    <row r="279" spans="1:62">
       <c r="A279" s="20"/>
       <c r="B279" s="20"/>
       <c r="C279" s="20"/>
@@ -20746,8 +21312,10 @@
       <c r="BF279" s="20"/>
       <c r="BG279" s="20"/>
       <c r="BH279" s="20"/>
-    </row>
-    <row r="280" spans="1:60">
+      <c r="BI279" s="20"/>
+      <c r="BJ279" s="20"/>
+    </row>
+    <row r="280" spans="1:62">
       <c r="A280" s="20"/>
       <c r="B280" s="20"/>
       <c r="C280" s="20"/>
@@ -20807,8 +21375,10 @@
       <c r="BF280" s="20"/>
       <c r="BG280" s="20"/>
       <c r="BH280" s="20"/>
-    </row>
-    <row r="281" spans="1:60">
+      <c r="BI280" s="20"/>
+      <c r="BJ280" s="20"/>
+    </row>
+    <row r="281" spans="1:62">
       <c r="A281" s="20"/>
       <c r="B281" s="20"/>
       <c r="C281" s="20"/>
@@ -20868,8 +21438,10 @@
       <c r="BF281" s="20"/>
       <c r="BG281" s="20"/>
       <c r="BH281" s="20"/>
-    </row>
-    <row r="282" spans="1:60">
+      <c r="BI281" s="20"/>
+      <c r="BJ281" s="20"/>
+    </row>
+    <row r="282" spans="1:62">
       <c r="A282" s="20"/>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
@@ -20929,8 +21501,10 @@
       <c r="BF282" s="20"/>
       <c r="BG282" s="20"/>
       <c r="BH282" s="20"/>
-    </row>
-    <row r="283" spans="1:60">
+      <c r="BI282" s="20"/>
+      <c r="BJ282" s="20"/>
+    </row>
+    <row r="283" spans="1:62">
       <c r="A283" s="20"/>
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
@@ -20990,8 +21564,10 @@
       <c r="BF283" s="20"/>
       <c r="BG283" s="20"/>
       <c r="BH283" s="20"/>
-    </row>
-    <row r="284" spans="1:60">
+      <c r="BI283" s="20"/>
+      <c r="BJ283" s="20"/>
+    </row>
+    <row r="284" spans="1:62">
       <c r="A284" s="20"/>
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
@@ -21051,8 +21627,10 @@
       <c r="BF284" s="20"/>
       <c r="BG284" s="20"/>
       <c r="BH284" s="20"/>
-    </row>
-    <row r="285" spans="1:60">
+      <c r="BI284" s="20"/>
+      <c r="BJ284" s="20"/>
+    </row>
+    <row r="285" spans="1:62">
       <c r="A285" s="20"/>
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
@@ -21112,8 +21690,10 @@
       <c r="BF285" s="20"/>
       <c r="BG285" s="20"/>
       <c r="BH285" s="20"/>
-    </row>
-    <row r="286" spans="1:60">
+      <c r="BI285" s="20"/>
+      <c r="BJ285" s="20"/>
+    </row>
+    <row r="286" spans="1:62">
       <c r="A286" s="20"/>
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
@@ -21173,8 +21753,10 @@
       <c r="BF286" s="20"/>
       <c r="BG286" s="20"/>
       <c r="BH286" s="20"/>
-    </row>
-    <row r="287" spans="1:60">
+      <c r="BI286" s="20"/>
+      <c r="BJ286" s="20"/>
+    </row>
+    <row r="287" spans="1:62">
       <c r="A287" s="20"/>
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
@@ -21234,8 +21816,10 @@
       <c r="BF287" s="20"/>
       <c r="BG287" s="20"/>
       <c r="BH287" s="20"/>
-    </row>
-    <row r="288" spans="1:60">
+      <c r="BI287" s="20"/>
+      <c r="BJ287" s="20"/>
+    </row>
+    <row r="288" spans="1:62">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
@@ -21295,8 +21879,10 @@
       <c r="BF288" s="20"/>
       <c r="BG288" s="20"/>
       <c r="BH288" s="20"/>
-    </row>
-    <row r="289" spans="1:60">
+      <c r="BI288" s="20"/>
+      <c r="BJ288" s="20"/>
+    </row>
+    <row r="289" spans="1:62">
       <c r="A289" s="20"/>
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
@@ -21356,8 +21942,10 @@
       <c r="BF289" s="20"/>
       <c r="BG289" s="20"/>
       <c r="BH289" s="20"/>
-    </row>
-    <row r="290" spans="1:60">
+      <c r="BI289" s="20"/>
+      <c r="BJ289" s="20"/>
+    </row>
+    <row r="290" spans="1:62">
       <c r="A290" s="20"/>
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
@@ -21417,8 +22005,10 @@
       <c r="BF290" s="20"/>
       <c r="BG290" s="20"/>
       <c r="BH290" s="20"/>
-    </row>
-    <row r="291" spans="1:60">
+      <c r="BI290" s="20"/>
+      <c r="BJ290" s="20"/>
+    </row>
+    <row r="291" spans="1:62">
       <c r="A291" s="20"/>
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
@@ -21478,8 +22068,10 @@
       <c r="BF291" s="20"/>
       <c r="BG291" s="20"/>
       <c r="BH291" s="20"/>
-    </row>
-    <row r="292" spans="1:60">
+      <c r="BI291" s="20"/>
+      <c r="BJ291" s="20"/>
+    </row>
+    <row r="292" spans="1:62">
       <c r="A292" s="20"/>
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
@@ -21539,8 +22131,10 @@
       <c r="BF292" s="20"/>
       <c r="BG292" s="20"/>
       <c r="BH292" s="20"/>
-    </row>
-    <row r="293" spans="1:60">
+      <c r="BI292" s="20"/>
+      <c r="BJ292" s="20"/>
+    </row>
+    <row r="293" spans="1:62">
       <c r="A293" s="20"/>
       <c r="B293" s="20"/>
       <c r="C293" s="20"/>
@@ -21600,8 +22194,10 @@
       <c r="BF293" s="20"/>
       <c r="BG293" s="20"/>
       <c r="BH293" s="20"/>
-    </row>
-    <row r="294" spans="1:60">
+      <c r="BI293" s="20"/>
+      <c r="BJ293" s="20"/>
+    </row>
+    <row r="294" spans="1:62">
       <c r="A294" s="20"/>
       <c r="B294" s="20"/>
       <c r="C294" s="20"/>
@@ -21661,8 +22257,10 @@
       <c r="BF294" s="20"/>
       <c r="BG294" s="20"/>
       <c r="BH294" s="20"/>
-    </row>
-    <row r="295" spans="1:60">
+      <c r="BI294" s="20"/>
+      <c r="BJ294" s="20"/>
+    </row>
+    <row r="295" spans="1:62">
       <c r="A295" s="20"/>
       <c r="B295" s="20"/>
       <c r="C295" s="20"/>
@@ -21722,8 +22320,10 @@
       <c r="BF295" s="20"/>
       <c r="BG295" s="20"/>
       <c r="BH295" s="20"/>
-    </row>
-    <row r="296" spans="1:60">
+      <c r="BI295" s="20"/>
+      <c r="BJ295" s="20"/>
+    </row>
+    <row r="296" spans="1:62">
       <c r="A296" s="20"/>
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
@@ -21783,8 +22383,10 @@
       <c r="BF296" s="20"/>
       <c r="BG296" s="20"/>
       <c r="BH296" s="20"/>
-    </row>
-    <row r="297" spans="1:60">
+      <c r="BI296" s="20"/>
+      <c r="BJ296" s="20"/>
+    </row>
+    <row r="297" spans="1:62">
       <c r="A297" s="20"/>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
@@ -21844,8 +22446,10 @@
       <c r="BF297" s="20"/>
       <c r="BG297" s="20"/>
       <c r="BH297" s="20"/>
-    </row>
-    <row r="298" spans="1:60">
+      <c r="BI297" s="20"/>
+      <c r="BJ297" s="20"/>
+    </row>
+    <row r="298" spans="1:62">
       <c r="A298" s="20"/>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
@@ -21905,8 +22509,10 @@
       <c r="BF298" s="20"/>
       <c r="BG298" s="20"/>
       <c r="BH298" s="20"/>
-    </row>
-    <row r="299" spans="1:60">
+      <c r="BI298" s="20"/>
+      <c r="BJ298" s="20"/>
+    </row>
+    <row r="299" spans="1:62">
       <c r="A299" s="20"/>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
@@ -21966,8 +22572,10 @@
       <c r="BF299" s="20"/>
       <c r="BG299" s="20"/>
       <c r="BH299" s="20"/>
-    </row>
-    <row r="300" spans="1:60">
+      <c r="BI299" s="20"/>
+      <c r="BJ299" s="20"/>
+    </row>
+    <row r="300" spans="1:62">
       <c r="A300" s="20"/>
       <c r="B300" s="20"/>
       <c r="C300" s="20"/>
@@ -22027,8 +22635,10 @@
       <c r="BF300" s="20"/>
       <c r="BG300" s="20"/>
       <c r="BH300" s="20"/>
-    </row>
-    <row r="301" spans="1:60">
+      <c r="BI300" s="20"/>
+      <c r="BJ300" s="20"/>
+    </row>
+    <row r="301" spans="1:62">
       <c r="A301" s="20"/>
       <c r="B301" s="20"/>
       <c r="C301" s="20"/>
@@ -22088,8 +22698,10 @@
       <c r="BF301" s="20"/>
       <c r="BG301" s="20"/>
       <c r="BH301" s="20"/>
-    </row>
-    <row r="302" spans="1:60">
+      <c r="BI301" s="20"/>
+      <c r="BJ301" s="20"/>
+    </row>
+    <row r="302" spans="1:62">
       <c r="A302" s="20"/>
       <c r="B302" s="20"/>
       <c r="C302" s="20"/>
@@ -22149,8 +22761,10 @@
       <c r="BF302" s="20"/>
       <c r="BG302" s="20"/>
       <c r="BH302" s="20"/>
-    </row>
-    <row r="303" spans="1:60">
+      <c r="BI302" s="20"/>
+      <c r="BJ302" s="20"/>
+    </row>
+    <row r="303" spans="1:62">
       <c r="A303" s="20"/>
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
@@ -22210,8 +22824,10 @@
       <c r="BF303" s="20"/>
       <c r="BG303" s="20"/>
       <c r="BH303" s="20"/>
-    </row>
-    <row r="304" spans="1:60">
+      <c r="BI303" s="20"/>
+      <c r="BJ303" s="20"/>
+    </row>
+    <row r="304" spans="1:62">
       <c r="A304" s="20"/>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
@@ -22271,8 +22887,10 @@
       <c r="BF304" s="20"/>
       <c r="BG304" s="20"/>
       <c r="BH304" s="20"/>
-    </row>
-    <row r="305" spans="1:60">
+      <c r="BI304" s="20"/>
+      <c r="BJ304" s="20"/>
+    </row>
+    <row r="305" spans="1:62">
       <c r="A305" s="20"/>
       <c r="B305" s="20"/>
       <c r="C305" s="20"/>
@@ -22332,8 +22950,10 @@
       <c r="BF305" s="20"/>
       <c r="BG305" s="20"/>
       <c r="BH305" s="20"/>
-    </row>
-    <row r="306" spans="1:60">
+      <c r="BI305" s="20"/>
+      <c r="BJ305" s="20"/>
+    </row>
+    <row r="306" spans="1:62">
       <c r="A306" s="20"/>
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
@@ -22393,8 +23013,10 @@
       <c r="BF306" s="20"/>
       <c r="BG306" s="20"/>
       <c r="BH306" s="20"/>
-    </row>
-    <row r="307" spans="1:60">
+      <c r="BI306" s="20"/>
+      <c r="BJ306" s="20"/>
+    </row>
+    <row r="307" spans="1:62">
       <c r="A307" s="20"/>
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
@@ -22454,8 +23076,10 @@
       <c r="BF307" s="20"/>
       <c r="BG307" s="20"/>
       <c r="BH307" s="20"/>
-    </row>
-    <row r="308" spans="1:60">
+      <c r="BI307" s="20"/>
+      <c r="BJ307" s="20"/>
+    </row>
+    <row r="308" spans="1:62">
       <c r="A308" s="20"/>
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
@@ -22515,8 +23139,10 @@
       <c r="BF308" s="20"/>
       <c r="BG308" s="20"/>
       <c r="BH308" s="20"/>
-    </row>
-    <row r="309" spans="1:60">
+      <c r="BI308" s="20"/>
+      <c r="BJ308" s="20"/>
+    </row>
+    <row r="309" spans="1:62">
       <c r="A309" s="20"/>
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
@@ -22576,8 +23202,10 @@
       <c r="BF309" s="20"/>
       <c r="BG309" s="20"/>
       <c r="BH309" s="20"/>
-    </row>
-    <row r="310" spans="1:60">
+      <c r="BI309" s="20"/>
+      <c r="BJ309" s="20"/>
+    </row>
+    <row r="310" spans="1:62">
       <c r="A310" s="20"/>
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
@@ -22637,8 +23265,10 @@
       <c r="BF310" s="20"/>
       <c r="BG310" s="20"/>
       <c r="BH310" s="20"/>
-    </row>
-    <row r="311" spans="1:60">
+      <c r="BI310" s="20"/>
+      <c r="BJ310" s="20"/>
+    </row>
+    <row r="311" spans="1:62">
       <c r="A311" s="20"/>
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
@@ -22698,8 +23328,10 @@
       <c r="BF311" s="20"/>
       <c r="BG311" s="20"/>
       <c r="BH311" s="20"/>
-    </row>
-    <row r="312" spans="1:60">
+      <c r="BI311" s="20"/>
+      <c r="BJ311" s="20"/>
+    </row>
+    <row r="312" spans="1:62">
       <c r="A312" s="20"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
@@ -22759,8 +23391,10 @@
       <c r="BF312" s="20"/>
       <c r="BG312" s="20"/>
       <c r="BH312" s="20"/>
-    </row>
-    <row r="313" spans="1:60">
+      <c r="BI312" s="20"/>
+      <c r="BJ312" s="20"/>
+    </row>
+    <row r="313" spans="1:62">
       <c r="A313" s="20"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
@@ -22820,8 +23454,10 @@
       <c r="BF313" s="20"/>
       <c r="BG313" s="20"/>
       <c r="BH313" s="20"/>
-    </row>
-    <row r="314" spans="1:60">
+      <c r="BI313" s="20"/>
+      <c r="BJ313" s="20"/>
+    </row>
+    <row r="314" spans="1:62">
       <c r="A314" s="20"/>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
@@ -22881,8 +23517,10 @@
       <c r="BF314" s="20"/>
       <c r="BG314" s="20"/>
       <c r="BH314" s="20"/>
-    </row>
-    <row r="315" spans="1:60">
+      <c r="BI314" s="20"/>
+      <c r="BJ314" s="20"/>
+    </row>
+    <row r="315" spans="1:62">
       <c r="A315" s="20"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
@@ -22942,8 +23580,10 @@
       <c r="BF315" s="20"/>
       <c r="BG315" s="20"/>
       <c r="BH315" s="20"/>
-    </row>
-    <row r="316" spans="1:60">
+      <c r="BI315" s="20"/>
+      <c r="BJ315" s="20"/>
+    </row>
+    <row r="316" spans="1:62">
       <c r="A316" s="20"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
@@ -23003,8 +23643,10 @@
       <c r="BF316" s="20"/>
       <c r="BG316" s="20"/>
       <c r="BH316" s="20"/>
-    </row>
-    <row r="317" spans="1:60">
+      <c r="BI316" s="20"/>
+      <c r="BJ316" s="20"/>
+    </row>
+    <row r="317" spans="1:62">
       <c r="A317" s="20"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
@@ -23064,8 +23706,10 @@
       <c r="BF317" s="20"/>
       <c r="BG317" s="20"/>
       <c r="BH317" s="20"/>
-    </row>
-    <row r="318" spans="1:60">
+      <c r="BI317" s="20"/>
+      <c r="BJ317" s="20"/>
+    </row>
+    <row r="318" spans="1:62">
       <c r="A318" s="20"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
@@ -23125,8 +23769,10 @@
       <c r="BF318" s="20"/>
       <c r="BG318" s="20"/>
       <c r="BH318" s="20"/>
-    </row>
-    <row r="319" spans="1:60">
+      <c r="BI318" s="20"/>
+      <c r="BJ318" s="20"/>
+    </row>
+    <row r="319" spans="1:62">
       <c r="A319" s="20"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
@@ -23186,8 +23832,10 @@
       <c r="BF319" s="20"/>
       <c r="BG319" s="20"/>
       <c r="BH319" s="20"/>
-    </row>
-    <row r="320" spans="1:60">
+      <c r="BI319" s="20"/>
+      <c r="BJ319" s="20"/>
+    </row>
+    <row r="320" spans="1:62">
       <c r="A320" s="20"/>
       <c r="B320" s="20"/>
       <c r="C320" s="20"/>
@@ -23247,8 +23895,10 @@
       <c r="BF320" s="20"/>
       <c r="BG320" s="20"/>
       <c r="BH320" s="20"/>
-    </row>
-    <row r="321" spans="1:60">
+      <c r="BI320" s="20"/>
+      <c r="BJ320" s="20"/>
+    </row>
+    <row r="321" spans="1:62">
       <c r="A321" s="20"/>
       <c r="B321" s="20"/>
       <c r="C321" s="20"/>
@@ -23308,8 +23958,10 @@
       <c r="BF321" s="20"/>
       <c r="BG321" s="20"/>
       <c r="BH321" s="20"/>
-    </row>
-    <row r="322" spans="1:60">
+      <c r="BI321" s="20"/>
+      <c r="BJ321" s="20"/>
+    </row>
+    <row r="322" spans="1:62">
       <c r="A322" s="20"/>
       <c r="B322" s="20"/>
       <c r="C322" s="20"/>
@@ -23369,8 +24021,10 @@
       <c r="BF322" s="20"/>
       <c r="BG322" s="20"/>
       <c r="BH322" s="20"/>
-    </row>
-    <row r="323" spans="1:60">
+      <c r="BI322" s="20"/>
+      <c r="BJ322" s="20"/>
+    </row>
+    <row r="323" spans="1:62">
       <c r="A323" s="20"/>
       <c r="B323" s="20"/>
       <c r="C323" s="20"/>
@@ -23430,8 +24084,10 @@
       <c r="BF323" s="20"/>
       <c r="BG323" s="20"/>
       <c r="BH323" s="20"/>
-    </row>
-    <row r="324" spans="1:60">
+      <c r="BI323" s="20"/>
+      <c r="BJ323" s="20"/>
+    </row>
+    <row r="324" spans="1:62">
       <c r="A324" s="20"/>
       <c r="B324" s="20"/>
       <c r="C324" s="20"/>
@@ -23491,8 +24147,10 @@
       <c r="BF324" s="20"/>
       <c r="BG324" s="20"/>
       <c r="BH324" s="20"/>
-    </row>
-    <row r="325" spans="1:60">
+      <c r="BI324" s="20"/>
+      <c r="BJ324" s="20"/>
+    </row>
+    <row r="325" spans="1:62">
       <c r="A325" s="20"/>
       <c r="B325" s="20"/>
       <c r="C325" s="20"/>
@@ -23552,8 +24210,10 @@
       <c r="BF325" s="20"/>
       <c r="BG325" s="20"/>
       <c r="BH325" s="20"/>
-    </row>
-    <row r="326" spans="1:60">
+      <c r="BI325" s="20"/>
+      <c r="BJ325" s="20"/>
+    </row>
+    <row r="326" spans="1:62">
       <c r="A326" s="20"/>
       <c r="B326" s="20"/>
       <c r="C326" s="20"/>
@@ -23613,8 +24273,10 @@
       <c r="BF326" s="20"/>
       <c r="BG326" s="20"/>
       <c r="BH326" s="20"/>
-    </row>
-    <row r="327" spans="1:60">
+      <c r="BI326" s="20"/>
+      <c r="BJ326" s="20"/>
+    </row>
+    <row r="327" spans="1:62">
       <c r="A327" s="20"/>
       <c r="B327" s="20"/>
       <c r="C327" s="20"/>
@@ -23674,8 +24336,10 @@
       <c r="BF327" s="20"/>
       <c r="BG327" s="20"/>
       <c r="BH327" s="20"/>
-    </row>
-    <row r="328" spans="1:60">
+      <c r="BI327" s="20"/>
+      <c r="BJ327" s="20"/>
+    </row>
+    <row r="328" spans="1:62">
       <c r="A328" s="20"/>
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
@@ -23735,8 +24399,10 @@
       <c r="BF328" s="20"/>
       <c r="BG328" s="20"/>
       <c r="BH328" s="20"/>
-    </row>
-    <row r="329" spans="1:60">
+      <c r="BI328" s="20"/>
+      <c r="BJ328" s="20"/>
+    </row>
+    <row r="329" spans="1:62">
       <c r="A329" s="20"/>
       <c r="B329" s="20"/>
       <c r="C329" s="20"/>
@@ -23796,8 +24462,10 @@
       <c r="BF329" s="20"/>
       <c r="BG329" s="20"/>
       <c r="BH329" s="20"/>
-    </row>
-    <row r="330" spans="1:60">
+      <c r="BI329" s="20"/>
+      <c r="BJ329" s="20"/>
+    </row>
+    <row r="330" spans="1:62">
       <c r="A330" s="20"/>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
@@ -23857,8 +24525,10 @@
       <c r="BF330" s="20"/>
       <c r="BG330" s="20"/>
       <c r="BH330" s="20"/>
-    </row>
-    <row r="331" spans="1:60">
+      <c r="BI330" s="20"/>
+      <c r="BJ330" s="20"/>
+    </row>
+    <row r="331" spans="1:62">
       <c r="A331" s="20"/>
       <c r="B331" s="20"/>
       <c r="C331" s="20"/>
@@ -23918,8 +24588,10 @@
       <c r="BF331" s="20"/>
       <c r="BG331" s="20"/>
       <c r="BH331" s="20"/>
-    </row>
-    <row r="332" spans="1:60">
+      <c r="BI331" s="20"/>
+      <c r="BJ331" s="20"/>
+    </row>
+    <row r="332" spans="1:62">
       <c r="A332" s="20"/>
       <c r="B332" s="20"/>
       <c r="C332" s="20"/>
@@ -23979,8 +24651,10 @@
       <c r="BF332" s="20"/>
       <c r="BG332" s="20"/>
       <c r="BH332" s="20"/>
-    </row>
-    <row r="333" spans="1:60">
+      <c r="BI332" s="20"/>
+      <c r="BJ332" s="20"/>
+    </row>
+    <row r="333" spans="1:62">
       <c r="A333" s="20"/>
       <c r="B333" s="20"/>
       <c r="C333" s="20"/>
@@ -24040,8 +24714,10 @@
       <c r="BF333" s="20"/>
       <c r="BG333" s="20"/>
       <c r="BH333" s="20"/>
-    </row>
-    <row r="334" spans="1:60">
+      <c r="BI333" s="20"/>
+      <c r="BJ333" s="20"/>
+    </row>
+    <row r="334" spans="1:62">
       <c r="A334" s="20"/>
       <c r="B334" s="20"/>
       <c r="C334" s="20"/>
@@ -24101,8 +24777,10 @@
       <c r="BF334" s="20"/>
       <c r="BG334" s="20"/>
       <c r="BH334" s="20"/>
-    </row>
-    <row r="335" spans="1:60">
+      <c r="BI334" s="20"/>
+      <c r="BJ334" s="20"/>
+    </row>
+    <row r="335" spans="1:62">
       <c r="A335" s="20"/>
       <c r="B335" s="20"/>
       <c r="C335" s="20"/>
@@ -24162,8 +24840,10 @@
       <c r="BF335" s="20"/>
       <c r="BG335" s="20"/>
       <c r="BH335" s="20"/>
-    </row>
-    <row r="336" spans="1:60">
+      <c r="BI335" s="20"/>
+      <c r="BJ335" s="20"/>
+    </row>
+    <row r="336" spans="1:62">
       <c r="A336" s="20"/>
       <c r="B336" s="20"/>
       <c r="C336" s="20"/>
@@ -24223,8 +24903,10 @@
       <c r="BF336" s="20"/>
       <c r="BG336" s="20"/>
       <c r="BH336" s="20"/>
-    </row>
-    <row r="337" spans="1:60">
+      <c r="BI336" s="20"/>
+      <c r="BJ336" s="20"/>
+    </row>
+    <row r="337" spans="1:62">
       <c r="A337" s="20"/>
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
@@ -24284,8 +24966,10 @@
       <c r="BF337" s="20"/>
       <c r="BG337" s="20"/>
       <c r="BH337" s="20"/>
-    </row>
-    <row r="338" spans="1:60">
+      <c r="BI337" s="20"/>
+      <c r="BJ337" s="20"/>
+    </row>
+    <row r="338" spans="1:62">
       <c r="A338" s="20"/>
       <c r="B338" s="20"/>
       <c r="C338" s="20"/>
@@ -24345,8 +25029,10 @@
       <c r="BF338" s="20"/>
       <c r="BG338" s="20"/>
       <c r="BH338" s="20"/>
-    </row>
-    <row r="339" spans="1:60">
+      <c r="BI338" s="20"/>
+      <c r="BJ338" s="20"/>
+    </row>
+    <row r="339" spans="1:62">
       <c r="A339" s="20"/>
       <c r="B339" s="20"/>
       <c r="C339" s="20"/>
@@ -24406,8 +25092,10 @@
       <c r="BF339" s="20"/>
       <c r="BG339" s="20"/>
       <c r="BH339" s="20"/>
-    </row>
-    <row r="340" spans="1:60">
+      <c r="BI339" s="20"/>
+      <c r="BJ339" s="20"/>
+    </row>
+    <row r="340" spans="1:62">
       <c r="A340" s="20"/>
       <c r="B340" s="20"/>
       <c r="C340" s="20"/>
@@ -24467,8 +25155,10 @@
       <c r="BF340" s="20"/>
       <c r="BG340" s="20"/>
       <c r="BH340" s="20"/>
-    </row>
-    <row r="341" spans="1:60">
+      <c r="BI340" s="20"/>
+      <c r="BJ340" s="20"/>
+    </row>
+    <row r="341" spans="1:62">
       <c r="A341" s="20"/>
       <c r="B341" s="20"/>
       <c r="C341" s="20"/>
@@ -24528,8 +25218,10 @@
       <c r="BF341" s="20"/>
       <c r="BG341" s="20"/>
       <c r="BH341" s="20"/>
-    </row>
-    <row r="342" spans="1:60">
+      <c r="BI341" s="20"/>
+      <c r="BJ341" s="20"/>
+    </row>
+    <row r="342" spans="1:62">
       <c r="A342" s="20"/>
       <c r="B342" s="20"/>
       <c r="C342" s="20"/>
@@ -24589,8 +25281,10 @@
       <c r="BF342" s="20"/>
       <c r="BG342" s="20"/>
       <c r="BH342" s="20"/>
-    </row>
-    <row r="343" spans="1:60">
+      <c r="BI342" s="20"/>
+      <c r="BJ342" s="20"/>
+    </row>
+    <row r="343" spans="1:62">
       <c r="A343" s="20"/>
       <c r="B343" s="20"/>
       <c r="C343" s="20"/>
@@ -24650,8 +25344,10 @@
       <c r="BF343" s="20"/>
       <c r="BG343" s="20"/>
       <c r="BH343" s="20"/>
-    </row>
-    <row r="344" spans="1:60">
+      <c r="BI343" s="20"/>
+      <c r="BJ343" s="20"/>
+    </row>
+    <row r="344" spans="1:62">
       <c r="A344" s="20"/>
       <c r="B344" s="20"/>
       <c r="C344" s="20"/>
@@ -24711,8 +25407,10 @@
       <c r="BF344" s="20"/>
       <c r="BG344" s="20"/>
       <c r="BH344" s="20"/>
-    </row>
-    <row r="345" spans="1:60">
+      <c r="BI344" s="20"/>
+      <c r="BJ344" s="20"/>
+    </row>
+    <row r="345" spans="1:62">
       <c r="A345" s="20"/>
       <c r="B345" s="20"/>
       <c r="C345" s="20"/>
@@ -24772,8 +25470,10 @@
       <c r="BF345" s="20"/>
       <c r="BG345" s="20"/>
       <c r="BH345" s="20"/>
-    </row>
-    <row r="346" spans="1:60">
+      <c r="BI345" s="20"/>
+      <c r="BJ345" s="20"/>
+    </row>
+    <row r="346" spans="1:62">
       <c r="A346" s="20"/>
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
@@ -24833,8 +25533,10 @@
       <c r="BF346" s="20"/>
       <c r="BG346" s="20"/>
       <c r="BH346" s="20"/>
-    </row>
-    <row r="347" spans="1:60">
+      <c r="BI346" s="20"/>
+      <c r="BJ346" s="20"/>
+    </row>
+    <row r="347" spans="1:62">
       <c r="A347" s="20"/>
       <c r="B347" s="20"/>
       <c r="C347" s="20"/>
@@ -24894,8 +25596,10 @@
       <c r="BF347" s="20"/>
       <c r="BG347" s="20"/>
       <c r="BH347" s="20"/>
-    </row>
-    <row r="348" spans="1:60">
+      <c r="BI347" s="20"/>
+      <c r="BJ347" s="20"/>
+    </row>
+    <row r="348" spans="1:62">
       <c r="A348" s="20"/>
       <c r="B348" s="20"/>
       <c r="C348" s="20"/>
@@ -24955,8 +25659,10 @@
       <c r="BF348" s="20"/>
       <c r="BG348" s="20"/>
       <c r="BH348" s="20"/>
-    </row>
-    <row r="349" spans="1:60">
+      <c r="BI348" s="20"/>
+      <c r="BJ348" s="20"/>
+    </row>
+    <row r="349" spans="1:62">
       <c r="A349" s="20"/>
       <c r="B349" s="20"/>
       <c r="C349" s="20"/>
@@ -25016,8 +25722,10 @@
       <c r="BF349" s="20"/>
       <c r="BG349" s="20"/>
       <c r="BH349" s="20"/>
-    </row>
-    <row r="350" spans="1:60">
+      <c r="BI349" s="20"/>
+      <c r="BJ349" s="20"/>
+    </row>
+    <row r="350" spans="1:62">
       <c r="A350" s="20"/>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
@@ -25077,8 +25785,10 @@
       <c r="BF350" s="20"/>
       <c r="BG350" s="20"/>
       <c r="BH350" s="20"/>
-    </row>
-    <row r="351" spans="1:60">
+      <c r="BI350" s="20"/>
+      <c r="BJ350" s="20"/>
+    </row>
+    <row r="351" spans="1:62">
       <c r="A351" s="20"/>
       <c r="B351" s="20"/>
       <c r="C351" s="20"/>
@@ -25138,8 +25848,10 @@
       <c r="BF351" s="20"/>
       <c r="BG351" s="20"/>
       <c r="BH351" s="20"/>
-    </row>
-    <row r="352" spans="1:60">
+      <c r="BI351" s="20"/>
+      <c r="BJ351" s="20"/>
+    </row>
+    <row r="352" spans="1:62">
       <c r="A352" s="20"/>
       <c r="B352" s="20"/>
       <c r="C352" s="20"/>
@@ -25199,8 +25911,10 @@
       <c r="BF352" s="20"/>
       <c r="BG352" s="20"/>
       <c r="BH352" s="20"/>
-    </row>
-    <row r="353" spans="1:60">
+      <c r="BI352" s="20"/>
+      <c r="BJ352" s="20"/>
+    </row>
+    <row r="353" spans="1:62">
       <c r="A353" s="20"/>
       <c r="B353" s="20"/>
       <c r="C353" s="20"/>
@@ -25260,8 +25974,10 @@
       <c r="BF353" s="20"/>
       <c r="BG353" s="20"/>
       <c r="BH353" s="20"/>
-    </row>
-    <row r="354" spans="1:60">
+      <c r="BI353" s="20"/>
+      <c r="BJ353" s="20"/>
+    </row>
+    <row r="354" spans="1:62">
       <c r="A354" s="20"/>
       <c r="B354" s="20"/>
       <c r="C354" s="20"/>
@@ -25321,8 +26037,10 @@
       <c r="BF354" s="20"/>
       <c r="BG354" s="20"/>
       <c r="BH354" s="20"/>
-    </row>
-    <row r="355" spans="1:60">
+      <c r="BI354" s="20"/>
+      <c r="BJ354" s="20"/>
+    </row>
+    <row r="355" spans="1:62">
       <c r="A355" s="20"/>
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
@@ -25382,8 +26100,10 @@
       <c r="BF355" s="20"/>
       <c r="BG355" s="20"/>
       <c r="BH355" s="20"/>
-    </row>
-    <row r="356" spans="1:60">
+      <c r="BI355" s="20"/>
+      <c r="BJ355" s="20"/>
+    </row>
+    <row r="356" spans="1:62">
       <c r="A356" s="20"/>
       <c r="B356" s="20"/>
       <c r="C356" s="20"/>
@@ -25443,8 +26163,10 @@
       <c r="BF356" s="20"/>
       <c r="BG356" s="20"/>
       <c r="BH356" s="20"/>
-    </row>
-    <row r="357" spans="1:60">
+      <c r="BI356" s="20"/>
+      <c r="BJ356" s="20"/>
+    </row>
+    <row r="357" spans="1:62">
       <c r="A357" s="20"/>
       <c r="B357" s="20"/>
       <c r="C357" s="20"/>
@@ -25504,8 +26226,10 @@
       <c r="BF357" s="20"/>
       <c r="BG357" s="20"/>
       <c r="BH357" s="20"/>
-    </row>
-    <row r="358" spans="1:60">
+      <c r="BI357" s="20"/>
+      <c r="BJ357" s="20"/>
+    </row>
+    <row r="358" spans="1:62">
       <c r="A358" s="20"/>
       <c r="B358" s="20"/>
       <c r="C358" s="20"/>
@@ -25565,8 +26289,10 @@
       <c r="BF358" s="20"/>
       <c r="BG358" s="20"/>
       <c r="BH358" s="20"/>
-    </row>
-    <row r="359" spans="1:60">
+      <c r="BI358" s="20"/>
+      <c r="BJ358" s="20"/>
+    </row>
+    <row r="359" spans="1:62">
       <c r="A359" s="20"/>
       <c r="B359" s="20"/>
       <c r="C359" s="20"/>
@@ -25626,8 +26352,10 @@
       <c r="BF359" s="20"/>
       <c r="BG359" s="20"/>
       <c r="BH359" s="20"/>
-    </row>
-    <row r="360" spans="1:60">
+      <c r="BI359" s="20"/>
+      <c r="BJ359" s="20"/>
+    </row>
+    <row r="360" spans="1:62">
       <c r="A360" s="20"/>
       <c r="B360" s="20"/>
       <c r="C360" s="20"/>
@@ -25687,8 +26415,10 @@
       <c r="BF360" s="20"/>
       <c r="BG360" s="20"/>
       <c r="BH360" s="20"/>
-    </row>
-    <row r="361" spans="1:60">
+      <c r="BI360" s="20"/>
+      <c r="BJ360" s="20"/>
+    </row>
+    <row r="361" spans="1:62">
       <c r="A361" s="20"/>
       <c r="B361" s="20"/>
       <c r="C361" s="20"/>
@@ -25748,8 +26478,10 @@
       <c r="BF361" s="20"/>
       <c r="BG361" s="20"/>
       <c r="BH361" s="20"/>
-    </row>
-    <row r="362" spans="1:60">
+      <c r="BI361" s="20"/>
+      <c r="BJ361" s="20"/>
+    </row>
+    <row r="362" spans="1:62">
       <c r="A362" s="20"/>
       <c r="B362" s="20"/>
       <c r="C362" s="20"/>
@@ -25809,8 +26541,10 @@
       <c r="BF362" s="20"/>
       <c r="BG362" s="20"/>
       <c r="BH362" s="20"/>
-    </row>
-    <row r="363" spans="1:60">
+      <c r="BI362" s="20"/>
+      <c r="BJ362" s="20"/>
+    </row>
+    <row r="363" spans="1:62">
       <c r="A363" s="20"/>
       <c r="B363" s="20"/>
       <c r="C363" s="20"/>
@@ -25870,8 +26604,10 @@
       <c r="BF363" s="20"/>
       <c r="BG363" s="20"/>
       <c r="BH363" s="20"/>
-    </row>
-    <row r="364" spans="1:60">
+      <c r="BI363" s="20"/>
+      <c r="BJ363" s="20"/>
+    </row>
+    <row r="364" spans="1:62">
       <c r="A364" s="20"/>
       <c r="B364" s="20"/>
       <c r="C364" s="20"/>
@@ -25931,8 +26667,10 @@
       <c r="BF364" s="20"/>
       <c r="BG364" s="20"/>
       <c r="BH364" s="20"/>
-    </row>
-    <row r="365" spans="1:60">
+      <c r="BI364" s="20"/>
+      <c r="BJ364" s="20"/>
+    </row>
+    <row r="365" spans="1:62">
       <c r="A365" s="20"/>
       <c r="B365" s="20"/>
       <c r="C365" s="20"/>
@@ -25992,8 +26730,10 @@
       <c r="BF365" s="20"/>
       <c r="BG365" s="20"/>
       <c r="BH365" s="20"/>
-    </row>
-    <row r="366" spans="1:60">
+      <c r="BI365" s="20"/>
+      <c r="BJ365" s="20"/>
+    </row>
+    <row r="366" spans="1:62">
       <c r="A366" s="20"/>
       <c r="B366" s="20"/>
       <c r="C366" s="20"/>
@@ -26053,8 +26793,10 @@
       <c r="BF366" s="20"/>
       <c r="BG366" s="20"/>
       <c r="BH366" s="20"/>
-    </row>
-    <row r="367" spans="1:60">
+      <c r="BI366" s="20"/>
+      <c r="BJ366" s="20"/>
+    </row>
+    <row r="367" spans="1:62">
       <c r="A367" s="20"/>
       <c r="B367" s="20"/>
       <c r="C367" s="20"/>
@@ -26114,8 +26856,10 @@
       <c r="BF367" s="20"/>
       <c r="BG367" s="20"/>
       <c r="BH367" s="20"/>
-    </row>
-    <row r="368" spans="1:60">
+      <c r="BI367" s="20"/>
+      <c r="BJ367" s="20"/>
+    </row>
+    <row r="368" spans="1:62">
       <c r="A368" s="20"/>
       <c r="B368" s="20"/>
       <c r="C368" s="20"/>
@@ -26175,8 +26919,10 @@
       <c r="BF368" s="20"/>
       <c r="BG368" s="20"/>
       <c r="BH368" s="20"/>
-    </row>
-    <row r="369" spans="1:60">
+      <c r="BI368" s="20"/>
+      <c r="BJ368" s="20"/>
+    </row>
+    <row r="369" spans="1:62">
       <c r="A369" s="20"/>
       <c r="B369" s="20"/>
       <c r="C369" s="20"/>
@@ -26236,8 +26982,10 @@
       <c r="BF369" s="20"/>
       <c r="BG369" s="20"/>
       <c r="BH369" s="20"/>
-    </row>
-    <row r="370" spans="1:60">
+      <c r="BI369" s="20"/>
+      <c r="BJ369" s="20"/>
+    </row>
+    <row r="370" spans="1:62">
       <c r="A370" s="20"/>
       <c r="B370" s="20"/>
       <c r="C370" s="20"/>
@@ -26297,8 +27045,10 @@
       <c r="BF370" s="20"/>
       <c r="BG370" s="20"/>
       <c r="BH370" s="20"/>
-    </row>
-    <row r="371" spans="1:60">
+      <c r="BI370" s="20"/>
+      <c r="BJ370" s="20"/>
+    </row>
+    <row r="371" spans="1:62">
       <c r="A371" s="20"/>
       <c r="B371" s="20"/>
       <c r="C371" s="20"/>
@@ -26358,8 +27108,10 @@
       <c r="BF371" s="20"/>
       <c r="BG371" s="20"/>
       <c r="BH371" s="20"/>
-    </row>
-    <row r="372" spans="1:60">
+      <c r="BI371" s="20"/>
+      <c r="BJ371" s="20"/>
+    </row>
+    <row r="372" spans="1:62">
       <c r="A372" s="20"/>
       <c r="B372" s="20"/>
       <c r="C372" s="20"/>
@@ -26419,8 +27171,10 @@
       <c r="BF372" s="20"/>
       <c r="BG372" s="20"/>
       <c r="BH372" s="20"/>
-    </row>
-    <row r="373" spans="1:60">
+      <c r="BI372" s="20"/>
+      <c r="BJ372" s="20"/>
+    </row>
+    <row r="373" spans="1:62">
       <c r="A373" s="20"/>
       <c r="B373" s="20"/>
       <c r="C373" s="20"/>
@@ -26480,8 +27234,10 @@
       <c r="BF373" s="20"/>
       <c r="BG373" s="20"/>
       <c r="BH373" s="20"/>
-    </row>
-    <row r="374" spans="1:60">
+      <c r="BI373" s="20"/>
+      <c r="BJ373" s="20"/>
+    </row>
+    <row r="374" spans="1:62">
       <c r="A374" s="20"/>
       <c r="B374" s="20"/>
       <c r="C374" s="20"/>
@@ -26541,8 +27297,10 @@
       <c r="BF374" s="20"/>
       <c r="BG374" s="20"/>
       <c r="BH374" s="20"/>
-    </row>
-    <row r="375" spans="1:60">
+      <c r="BI374" s="20"/>
+      <c r="BJ374" s="20"/>
+    </row>
+    <row r="375" spans="1:62">
       <c r="A375" s="20"/>
       <c r="B375" s="20"/>
       <c r="C375" s="20"/>
@@ -26602,8 +27360,10 @@
       <c r="BF375" s="20"/>
       <c r="BG375" s="20"/>
       <c r="BH375" s="20"/>
-    </row>
-    <row r="376" spans="1:60">
+      <c r="BI375" s="20"/>
+      <c r="BJ375" s="20"/>
+    </row>
+    <row r="376" spans="1:62">
       <c r="A376" s="20"/>
       <c r="B376" s="20"/>
       <c r="C376" s="20"/>
@@ -26663,8 +27423,10 @@
       <c r="BF376" s="20"/>
       <c r="BG376" s="20"/>
       <c r="BH376" s="20"/>
-    </row>
-    <row r="377" spans="1:60">
+      <c r="BI376" s="20"/>
+      <c r="BJ376" s="20"/>
+    </row>
+    <row r="377" spans="1:62">
       <c r="A377" s="20"/>
       <c r="B377" s="20"/>
       <c r="C377" s="20"/>
@@ -26724,8 +27486,10 @@
       <c r="BF377" s="20"/>
       <c r="BG377" s="20"/>
       <c r="BH377" s="20"/>
-    </row>
-    <row r="378" spans="1:60">
+      <c r="BI377" s="20"/>
+      <c r="BJ377" s="20"/>
+    </row>
+    <row r="378" spans="1:62">
       <c r="A378" s="20"/>
       <c r="B378" s="20"/>
       <c r="C378" s="20"/>
@@ -26785,8 +27549,10 @@
       <c r="BF378" s="20"/>
       <c r="BG378" s="20"/>
       <c r="BH378" s="20"/>
-    </row>
-    <row r="379" spans="1:60">
+      <c r="BI378" s="20"/>
+      <c r="BJ378" s="20"/>
+    </row>
+    <row r="379" spans="1:62">
       <c r="A379" s="20"/>
       <c r="B379" s="20"/>
       <c r="C379" s="20"/>
@@ -26846,8 +27612,10 @@
       <c r="BF379" s="20"/>
       <c r="BG379" s="20"/>
       <c r="BH379" s="20"/>
-    </row>
-    <row r="380" spans="1:60">
+      <c r="BI379" s="20"/>
+      <c r="BJ379" s="20"/>
+    </row>
+    <row r="380" spans="1:62">
       <c r="A380" s="20"/>
       <c r="B380" s="20"/>
       <c r="C380" s="20"/>
@@ -26907,8 +27675,10 @@
       <c r="BF380" s="20"/>
       <c r="BG380" s="20"/>
       <c r="BH380" s="20"/>
-    </row>
-    <row r="381" spans="1:60">
+      <c r="BI380" s="20"/>
+      <c r="BJ380" s="20"/>
+    </row>
+    <row r="381" spans="1:62">
       <c r="A381" s="20"/>
       <c r="B381" s="20"/>
       <c r="C381" s="20"/>
@@ -26968,8 +27738,10 @@
       <c r="BF381" s="20"/>
       <c r="BG381" s="20"/>
       <c r="BH381" s="20"/>
-    </row>
-    <row r="382" spans="1:60">
+      <c r="BI381" s="20"/>
+      <c r="BJ381" s="20"/>
+    </row>
+    <row r="382" spans="1:62">
       <c r="A382" s="20"/>
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
@@ -27029,8 +27801,10 @@
       <c r="BF382" s="20"/>
       <c r="BG382" s="20"/>
       <c r="BH382" s="20"/>
-    </row>
-    <row r="383" spans="1:60">
+      <c r="BI382" s="20"/>
+      <c r="BJ382" s="20"/>
+    </row>
+    <row r="383" spans="1:62">
       <c r="A383" s="20"/>
       <c r="B383" s="20"/>
       <c r="C383" s="20"/>
@@ -27090,8 +27864,10 @@
       <c r="BF383" s="20"/>
       <c r="BG383" s="20"/>
       <c r="BH383" s="20"/>
-    </row>
-    <row r="384" spans="1:60">
+      <c r="BI383" s="20"/>
+      <c r="BJ383" s="20"/>
+    </row>
+    <row r="384" spans="1:62">
       <c r="A384" s="20"/>
       <c r="B384" s="20"/>
       <c r="C384" s="20"/>
@@ -27151,8 +27927,10 @@
       <c r="BF384" s="20"/>
       <c r="BG384" s="20"/>
       <c r="BH384" s="20"/>
-    </row>
-    <row r="385" spans="1:60">
+      <c r="BI384" s="20"/>
+      <c r="BJ384" s="20"/>
+    </row>
+    <row r="385" spans="1:62">
       <c r="A385" s="20"/>
       <c r="B385" s="20"/>
       <c r="C385" s="20"/>
@@ -27212,8 +27990,10 @@
       <c r="BF385" s="20"/>
       <c r="BG385" s="20"/>
       <c r="BH385" s="20"/>
-    </row>
-    <row r="386" spans="1:60">
+      <c r="BI385" s="20"/>
+      <c r="BJ385" s="20"/>
+    </row>
+    <row r="386" spans="1:62">
       <c r="A386" s="20"/>
       <c r="B386" s="20"/>
       <c r="C386" s="20"/>
@@ -27273,8 +28053,10 @@
       <c r="BF386" s="20"/>
       <c r="BG386" s="20"/>
       <c r="BH386" s="20"/>
-    </row>
-    <row r="387" spans="1:60">
+      <c r="BI386" s="20"/>
+      <c r="BJ386" s="20"/>
+    </row>
+    <row r="387" spans="1:62">
       <c r="A387" s="20"/>
       <c r="B387" s="20"/>
       <c r="C387" s="20"/>
@@ -27334,8 +28116,10 @@
       <c r="BF387" s="20"/>
       <c r="BG387" s="20"/>
       <c r="BH387" s="20"/>
-    </row>
-    <row r="388" spans="1:60">
+      <c r="BI387" s="20"/>
+      <c r="BJ387" s="20"/>
+    </row>
+    <row r="388" spans="1:62">
       <c r="A388" s="20"/>
       <c r="B388" s="20"/>
       <c r="C388" s="20"/>
@@ -27395,8 +28179,10 @@
       <c r="BF388" s="20"/>
       <c r="BG388" s="20"/>
       <c r="BH388" s="20"/>
-    </row>
-    <row r="389" spans="1:60">
+      <c r="BI388" s="20"/>
+      <c r="BJ388" s="20"/>
+    </row>
+    <row r="389" spans="1:62">
       <c r="A389" s="20"/>
       <c r="B389" s="20"/>
       <c r="C389" s="20"/>
@@ -27456,8 +28242,10 @@
       <c r="BF389" s="20"/>
       <c r="BG389" s="20"/>
       <c r="BH389" s="20"/>
-    </row>
-    <row r="390" spans="1:60">
+      <c r="BI389" s="20"/>
+      <c r="BJ389" s="20"/>
+    </row>
+    <row r="390" spans="1:62">
       <c r="A390" s="20"/>
       <c r="B390" s="20"/>
       <c r="C390" s="20"/>
@@ -27517,8 +28305,10 @@
       <c r="BF390" s="20"/>
       <c r="BG390" s="20"/>
       <c r="BH390" s="20"/>
-    </row>
-    <row r="391" spans="1:60">
+      <c r="BI390" s="20"/>
+      <c r="BJ390" s="20"/>
+    </row>
+    <row r="391" spans="1:62">
       <c r="A391" s="20"/>
       <c r="B391" s="20"/>
       <c r="C391" s="20"/>
@@ -27578,8 +28368,10 @@
       <c r="BF391" s="20"/>
       <c r="BG391" s="20"/>
       <c r="BH391" s="20"/>
-    </row>
-    <row r="392" spans="1:60">
+      <c r="BI391" s="20"/>
+      <c r="BJ391" s="20"/>
+    </row>
+    <row r="392" spans="1:62">
       <c r="A392" s="20"/>
       <c r="B392" s="20"/>
       <c r="C392" s="20"/>
@@ -27639,8 +28431,10 @@
       <c r="BF392" s="20"/>
       <c r="BG392" s="20"/>
       <c r="BH392" s="20"/>
-    </row>
-    <row r="393" spans="1:60">
+      <c r="BI392" s="20"/>
+      <c r="BJ392" s="20"/>
+    </row>
+    <row r="393" spans="1:62">
       <c r="A393" s="20"/>
       <c r="B393" s="20"/>
       <c r="C393" s="20"/>
@@ -27700,8 +28494,10 @@
       <c r="BF393" s="20"/>
       <c r="BG393" s="20"/>
       <c r="BH393" s="20"/>
-    </row>
-    <row r="394" spans="1:60">
+      <c r="BI393" s="20"/>
+      <c r="BJ393" s="20"/>
+    </row>
+    <row r="394" spans="1:62">
       <c r="A394" s="20"/>
       <c r="B394" s="20"/>
       <c r="C394" s="20"/>
@@ -27761,8 +28557,10 @@
       <c r="BF394" s="20"/>
       <c r="BG394" s="20"/>
       <c r="BH394" s="20"/>
-    </row>
-    <row r="395" spans="1:60">
+      <c r="BI394" s="20"/>
+      <c r="BJ394" s="20"/>
+    </row>
+    <row r="395" spans="1:62">
       <c r="A395" s="20"/>
       <c r="B395" s="20"/>
       <c r="C395" s="20"/>
@@ -27822,8 +28620,10 @@
       <c r="BF395" s="20"/>
       <c r="BG395" s="20"/>
       <c r="BH395" s="20"/>
-    </row>
-    <row r="396" spans="1:60">
+      <c r="BI395" s="20"/>
+      <c r="BJ395" s="20"/>
+    </row>
+    <row r="396" spans="1:62">
       <c r="A396" s="20"/>
       <c r="B396" s="20"/>
       <c r="C396" s="20"/>
@@ -27883,8 +28683,10 @@
       <c r="BF396" s="20"/>
       <c r="BG396" s="20"/>
       <c r="BH396" s="20"/>
-    </row>
-    <row r="397" spans="1:60">
+      <c r="BI396" s="20"/>
+      <c r="BJ396" s="20"/>
+    </row>
+    <row r="397" spans="1:62">
       <c r="A397" s="20"/>
       <c r="B397" s="20"/>
       <c r="C397" s="20"/>
@@ -27944,8 +28746,10 @@
       <c r="BF397" s="20"/>
       <c r="BG397" s="20"/>
       <c r="BH397" s="20"/>
-    </row>
-    <row r="398" spans="1:60">
+      <c r="BI397" s="20"/>
+      <c r="BJ397" s="20"/>
+    </row>
+    <row r="398" spans="1:62">
       <c r="A398" s="20"/>
       <c r="B398" s="20"/>
       <c r="C398" s="20"/>
@@ -28005,8 +28809,10 @@
       <c r="BF398" s="20"/>
       <c r="BG398" s="20"/>
       <c r="BH398" s="20"/>
-    </row>
-    <row r="399" spans="1:60">
+      <c r="BI398" s="20"/>
+      <c r="BJ398" s="20"/>
+    </row>
+    <row r="399" spans="1:62">
       <c r="A399" s="20"/>
       <c r="B399" s="20"/>
       <c r="C399" s="20"/>
@@ -28066,8 +28872,10 @@
       <c r="BF399" s="20"/>
       <c r="BG399" s="20"/>
       <c r="BH399" s="20"/>
-    </row>
-    <row r="400" spans="1:60">
+      <c r="BI399" s="20"/>
+      <c r="BJ399" s="20"/>
+    </row>
+    <row r="400" spans="1:62">
       <c r="A400" s="20"/>
       <c r="B400" s="20"/>
       <c r="C400" s="20"/>
@@ -28127,8 +28935,10 @@
       <c r="BF400" s="20"/>
       <c r="BG400" s="20"/>
       <c r="BH400" s="20"/>
-    </row>
-    <row r="401" spans="1:60">
+      <c r="BI400" s="20"/>
+      <c r="BJ400" s="20"/>
+    </row>
+    <row r="401" spans="1:62">
       <c r="A401" s="20"/>
       <c r="B401" s="20"/>
       <c r="C401" s="20"/>
@@ -28188,8 +28998,10 @@
       <c r="BF401" s="20"/>
       <c r="BG401" s="20"/>
       <c r="BH401" s="20"/>
-    </row>
-    <row r="402" spans="1:60">
+      <c r="BI401" s="20"/>
+      <c r="BJ401" s="20"/>
+    </row>
+    <row r="402" spans="1:62">
       <c r="A402" s="20"/>
       <c r="B402" s="20"/>
       <c r="C402" s="20"/>
@@ -28249,8 +29061,10 @@
       <c r="BF402" s="20"/>
       <c r="BG402" s="20"/>
       <c r="BH402" s="20"/>
-    </row>
-    <row r="403" spans="1:60">
+      <c r="BI402" s="20"/>
+      <c r="BJ402" s="20"/>
+    </row>
+    <row r="403" spans="1:62">
       <c r="A403" s="20"/>
       <c r="B403" s="20"/>
       <c r="C403" s="20"/>
@@ -28310,8 +29124,10 @@
       <c r="BF403" s="20"/>
       <c r="BG403" s="20"/>
       <c r="BH403" s="20"/>
-    </row>
-    <row r="404" spans="1:60">
+      <c r="BI403" s="20"/>
+      <c r="BJ403" s="20"/>
+    </row>
+    <row r="404" spans="1:62">
       <c r="A404" s="20"/>
       <c r="B404" s="20"/>
       <c r="C404" s="20"/>
@@ -28371,8 +29187,10 @@
       <c r="BF404" s="20"/>
       <c r="BG404" s="20"/>
       <c r="BH404" s="20"/>
-    </row>
-    <row r="405" spans="1:60">
+      <c r="BI404" s="20"/>
+      <c r="BJ404" s="20"/>
+    </row>
+    <row r="405" spans="1:62">
       <c r="A405" s="20"/>
       <c r="B405" s="20"/>
       <c r="C405" s="20"/>
@@ -28432,8 +29250,10 @@
       <c r="BF405" s="20"/>
       <c r="BG405" s="20"/>
       <c r="BH405" s="20"/>
-    </row>
-    <row r="406" spans="1:60">
+      <c r="BI405" s="20"/>
+      <c r="BJ405" s="20"/>
+    </row>
+    <row r="406" spans="1:62">
       <c r="A406" s="20"/>
       <c r="B406" s="20"/>
       <c r="C406" s="20"/>
@@ -28493,8 +29313,10 @@
       <c r="BF406" s="20"/>
       <c r="BG406" s="20"/>
       <c r="BH406" s="20"/>
-    </row>
-    <row r="407" spans="1:60">
+      <c r="BI406" s="20"/>
+      <c r="BJ406" s="20"/>
+    </row>
+    <row r="407" spans="1:62">
       <c r="A407" s="20"/>
       <c r="B407" s="20"/>
       <c r="C407" s="20"/>
@@ -28554,8 +29376,10 @@
       <c r="BF407" s="20"/>
       <c r="BG407" s="20"/>
       <c r="BH407" s="20"/>
-    </row>
-    <row r="408" spans="1:60">
+      <c r="BI407" s="20"/>
+      <c r="BJ407" s="20"/>
+    </row>
+    <row r="408" spans="1:62">
       <c r="A408" s="20"/>
       <c r="B408" s="20"/>
       <c r="C408" s="20"/>
@@ -28615,8 +29439,10 @@
       <c r="BF408" s="20"/>
       <c r="BG408" s="20"/>
       <c r="BH408" s="20"/>
-    </row>
-    <row r="409" spans="1:60">
+      <c r="BI408" s="20"/>
+      <c r="BJ408" s="20"/>
+    </row>
+    <row r="409" spans="1:62">
       <c r="A409" s="20"/>
       <c r="B409" s="20"/>
       <c r="C409" s="20"/>
@@ -28676,8 +29502,10 @@
       <c r="BF409" s="20"/>
       <c r="BG409" s="20"/>
       <c r="BH409" s="20"/>
-    </row>
-    <row r="410" spans="1:60">
+      <c r="BI409" s="20"/>
+      <c r="BJ409" s="20"/>
+    </row>
+    <row r="410" spans="1:62">
       <c r="A410" s="20"/>
       <c r="B410" s="20"/>
       <c r="C410" s="20"/>
@@ -28737,8 +29565,10 @@
       <c r="BF410" s="20"/>
       <c r="BG410" s="20"/>
       <c r="BH410" s="20"/>
-    </row>
-    <row r="411" spans="1:60">
+      <c r="BI410" s="20"/>
+      <c r="BJ410" s="20"/>
+    </row>
+    <row r="411" spans="1:62">
       <c r="A411" s="20"/>
       <c r="B411" s="20"/>
       <c r="C411" s="20"/>
@@ -28798,8 +29628,10 @@
       <c r="BF411" s="20"/>
       <c r="BG411" s="20"/>
       <c r="BH411" s="20"/>
-    </row>
-    <row r="412" spans="1:60">
+      <c r="BI411" s="20"/>
+      <c r="BJ411" s="20"/>
+    </row>
+    <row r="412" spans="1:62">
       <c r="A412" s="20"/>
       <c r="B412" s="20"/>
       <c r="C412" s="20"/>
@@ -28859,8 +29691,10 @@
       <c r="BF412" s="20"/>
       <c r="BG412" s="20"/>
       <c r="BH412" s="20"/>
-    </row>
-    <row r="413" spans="1:60">
+      <c r="BI412" s="20"/>
+      <c r="BJ412" s="20"/>
+    </row>
+    <row r="413" spans="1:62">
       <c r="A413" s="20"/>
       <c r="B413" s="20"/>
       <c r="C413" s="20"/>
@@ -28920,8 +29754,10 @@
       <c r="BF413" s="20"/>
       <c r="BG413" s="20"/>
       <c r="BH413" s="20"/>
-    </row>
-    <row r="414" spans="1:60">
+      <c r="BI413" s="20"/>
+      <c r="BJ413" s="20"/>
+    </row>
+    <row r="414" spans="1:62">
       <c r="A414" s="20"/>
       <c r="B414" s="20"/>
       <c r="C414" s="20"/>
@@ -28981,8 +29817,10 @@
       <c r="BF414" s="20"/>
       <c r="BG414" s="20"/>
       <c r="BH414" s="20"/>
-    </row>
-    <row r="415" spans="1:60">
+      <c r="BI414" s="20"/>
+      <c r="BJ414" s="20"/>
+    </row>
+    <row r="415" spans="1:62">
       <c r="A415" s="20"/>
       <c r="B415" s="20"/>
       <c r="C415" s="20"/>
@@ -29042,8 +29880,10 @@
       <c r="BF415" s="20"/>
       <c r="BG415" s="20"/>
       <c r="BH415" s="20"/>
-    </row>
-    <row r="416" spans="1:60">
+      <c r="BI415" s="20"/>
+      <c r="BJ415" s="20"/>
+    </row>
+    <row r="416" spans="1:62">
       <c r="A416" s="20"/>
       <c r="B416" s="20"/>
       <c r="C416" s="20"/>
@@ -29103,8 +29943,10 @@
       <c r="BF416" s="20"/>
       <c r="BG416" s="20"/>
       <c r="BH416" s="20"/>
-    </row>
-    <row r="417" spans="1:60">
+      <c r="BI416" s="20"/>
+      <c r="BJ416" s="20"/>
+    </row>
+    <row r="417" spans="1:62">
       <c r="A417" s="20"/>
       <c r="B417" s="20"/>
       <c r="C417" s="20"/>
@@ -29164,8 +30006,10 @@
       <c r="BF417" s="20"/>
       <c r="BG417" s="20"/>
       <c r="BH417" s="20"/>
-    </row>
-    <row r="418" spans="1:60">
+      <c r="BI417" s="20"/>
+      <c r="BJ417" s="20"/>
+    </row>
+    <row r="418" spans="1:62">
       <c r="A418" s="20"/>
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
@@ -29225,8 +30069,10 @@
       <c r="BF418" s="20"/>
       <c r="BG418" s="20"/>
       <c r="BH418" s="20"/>
-    </row>
-    <row r="419" spans="1:60">
+      <c r="BI418" s="20"/>
+      <c r="BJ418" s="20"/>
+    </row>
+    <row r="419" spans="1:62">
       <c r="A419" s="20"/>
       <c r="B419" s="20"/>
       <c r="C419" s="20"/>
@@ -29286,8 +30132,10 @@
       <c r="BF419" s="20"/>
       <c r="BG419" s="20"/>
       <c r="BH419" s="20"/>
-    </row>
-    <row r="420" spans="1:60">
+      <c r="BI419" s="20"/>
+      <c r="BJ419" s="20"/>
+    </row>
+    <row r="420" spans="1:62">
       <c r="A420" s="20"/>
       <c r="B420" s="20"/>
       <c r="C420" s="20"/>
@@ -29347,8 +30195,10 @@
       <c r="BF420" s="20"/>
       <c r="BG420" s="20"/>
       <c r="BH420" s="20"/>
-    </row>
-    <row r="421" spans="1:60">
+      <c r="BI420" s="20"/>
+      <c r="BJ420" s="20"/>
+    </row>
+    <row r="421" spans="1:62">
       <c r="A421" s="20"/>
       <c r="B421" s="20"/>
       <c r="C421" s="20"/>
@@ -29408,8 +30258,10 @@
       <c r="BF421" s="20"/>
       <c r="BG421" s="20"/>
       <c r="BH421" s="20"/>
-    </row>
-    <row r="422" spans="1:60">
+      <c r="BI421" s="20"/>
+      <c r="BJ421" s="20"/>
+    </row>
+    <row r="422" spans="1:62">
       <c r="A422" s="20"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20"/>
@@ -29469,8 +30321,10 @@
       <c r="BF422" s="20"/>
       <c r="BG422" s="20"/>
       <c r="BH422" s="20"/>
-    </row>
-    <row r="423" spans="1:60">
+      <c r="BI422" s="20"/>
+      <c r="BJ422" s="20"/>
+    </row>
+    <row r="423" spans="1:62">
       <c r="A423" s="20"/>
       <c r="B423" s="20"/>
       <c r="C423" s="20"/>
@@ -29530,8 +30384,10 @@
       <c r="BF423" s="20"/>
       <c r="BG423" s="20"/>
       <c r="BH423" s="20"/>
-    </row>
-    <row r="424" spans="1:60">
+      <c r="BI423" s="20"/>
+      <c r="BJ423" s="20"/>
+    </row>
+    <row r="424" spans="1:62">
       <c r="A424" s="20"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20"/>
@@ -29591,8 +30447,10 @@
       <c r="BF424" s="20"/>
       <c r="BG424" s="20"/>
       <c r="BH424" s="20"/>
-    </row>
-    <row r="425" spans="1:60">
+      <c r="BI424" s="20"/>
+      <c r="BJ424" s="20"/>
+    </row>
+    <row r="425" spans="1:62">
       <c r="A425" s="20"/>
       <c r="B425" s="20"/>
       <c r="C425" s="20"/>
@@ -29652,8 +30510,10 @@
       <c r="BF425" s="20"/>
       <c r="BG425" s="20"/>
       <c r="BH425" s="20"/>
-    </row>
-    <row r="426" spans="1:60">
+      <c r="BI425" s="20"/>
+      <c r="BJ425" s="20"/>
+    </row>
+    <row r="426" spans="1:62">
       <c r="A426" s="20"/>
       <c r="B426" s="20"/>
       <c r="C426" s="20"/>
@@ -29713,8 +30573,10 @@
       <c r="BF426" s="20"/>
       <c r="BG426" s="20"/>
       <c r="BH426" s="20"/>
-    </row>
-    <row r="427" spans="1:60">
+      <c r="BI426" s="20"/>
+      <c r="BJ426" s="20"/>
+    </row>
+    <row r="427" spans="1:62">
       <c r="A427" s="20"/>
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
@@ -29774,8 +30636,10 @@
       <c r="BF427" s="20"/>
       <c r="BG427" s="20"/>
       <c r="BH427" s="20"/>
-    </row>
-    <row r="428" spans="1:60">
+      <c r="BI427" s="20"/>
+      <c r="BJ427" s="20"/>
+    </row>
+    <row r="428" spans="1:62">
       <c r="A428" s="20"/>
       <c r="B428" s="20"/>
       <c r="C428" s="20"/>
@@ -29835,8 +30699,10 @@
       <c r="BF428" s="20"/>
       <c r="BG428" s="20"/>
       <c r="BH428" s="20"/>
-    </row>
-    <row r="429" spans="1:60">
+      <c r="BI428" s="20"/>
+      <c r="BJ428" s="20"/>
+    </row>
+    <row r="429" spans="1:62">
       <c r="A429" s="20"/>
       <c r="B429" s="20"/>
       <c r="C429" s="20"/>
@@ -29896,8 +30762,10 @@
       <c r="BF429" s="20"/>
       <c r="BG429" s="20"/>
       <c r="BH429" s="20"/>
-    </row>
-    <row r="430" spans="1:60">
+      <c r="BI429" s="20"/>
+      <c r="BJ429" s="20"/>
+    </row>
+    <row r="430" spans="1:62">
       <c r="A430" s="20"/>
       <c r="B430" s="20"/>
       <c r="C430" s="20"/>
@@ -29957,8 +30825,10 @@
       <c r="BF430" s="20"/>
       <c r="BG430" s="20"/>
       <c r="BH430" s="20"/>
-    </row>
-    <row r="431" spans="1:60">
+      <c r="BI430" s="20"/>
+      <c r="BJ430" s="20"/>
+    </row>
+    <row r="431" spans="1:62">
       <c r="A431" s="20"/>
       <c r="B431" s="20"/>
       <c r="C431" s="20"/>
@@ -30018,8 +30888,10 @@
       <c r="BF431" s="20"/>
       <c r="BG431" s="20"/>
       <c r="BH431" s="20"/>
-    </row>
-    <row r="432" spans="1:60">
+      <c r="BI431" s="20"/>
+      <c r="BJ431" s="20"/>
+    </row>
+    <row r="432" spans="1:62">
       <c r="A432" s="20"/>
       <c r="B432" s="20"/>
       <c r="C432" s="20"/>
@@ -30079,8 +30951,10 @@
       <c r="BF432" s="20"/>
       <c r="BG432" s="20"/>
       <c r="BH432" s="20"/>
-    </row>
-    <row r="433" spans="1:60">
+      <c r="BI432" s="20"/>
+      <c r="BJ432" s="20"/>
+    </row>
+    <row r="433" spans="1:62">
       <c r="A433" s="20"/>
       <c r="B433" s="20"/>
       <c r="C433" s="20"/>
@@ -30140,8 +31014,10 @@
       <c r="BF433" s="20"/>
       <c r="BG433" s="20"/>
       <c r="BH433" s="20"/>
-    </row>
-    <row r="434" spans="1:60">
+      <c r="BI433" s="20"/>
+      <c r="BJ433" s="20"/>
+    </row>
+    <row r="434" spans="1:62">
       <c r="A434" s="20"/>
       <c r="B434" s="20"/>
       <c r="C434" s="20"/>
@@ -30201,8 +31077,10 @@
       <c r="BF434" s="20"/>
       <c r="BG434" s="20"/>
       <c r="BH434" s="20"/>
-    </row>
-    <row r="435" spans="1:60">
+      <c r="BI434" s="20"/>
+      <c r="BJ434" s="20"/>
+    </row>
+    <row r="435" spans="1:62">
       <c r="A435" s="20"/>
       <c r="B435" s="20"/>
       <c r="C435" s="20"/>
@@ -30262,8 +31140,10 @@
       <c r="BF435" s="20"/>
       <c r="BG435" s="20"/>
       <c r="BH435" s="20"/>
-    </row>
-    <row r="436" spans="1:60">
+      <c r="BI435" s="20"/>
+      <c r="BJ435" s="20"/>
+    </row>
+    <row r="436" spans="1:62">
       <c r="A436" s="20"/>
       <c r="B436" s="20"/>
       <c r="C436" s="20"/>
@@ -30323,8 +31203,10 @@
       <c r="BF436" s="20"/>
       <c r="BG436" s="20"/>
       <c r="BH436" s="20"/>
-    </row>
-    <row r="437" spans="1:60">
+      <c r="BI436" s="20"/>
+      <c r="BJ436" s="20"/>
+    </row>
+    <row r="437" spans="1:62">
       <c r="A437" s="20"/>
       <c r="B437" s="20"/>
       <c r="C437" s="20"/>
@@ -30384,8 +31266,10 @@
       <c r="BF437" s="20"/>
       <c r="BG437" s="20"/>
       <c r="BH437" s="20"/>
-    </row>
-    <row r="438" spans="1:60">
+      <c r="BI437" s="20"/>
+      <c r="BJ437" s="20"/>
+    </row>
+    <row r="438" spans="1:62">
       <c r="A438" s="20"/>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
@@ -30445,8 +31329,10 @@
       <c r="BF438" s="20"/>
       <c r="BG438" s="20"/>
       <c r="BH438" s="20"/>
-    </row>
-    <row r="439" spans="1:60">
+      <c r="BI438" s="20"/>
+      <c r="BJ438" s="20"/>
+    </row>
+    <row r="439" spans="1:62">
       <c r="A439" s="20"/>
       <c r="B439" s="20"/>
       <c r="C439" s="20"/>
@@ -30506,8 +31392,10 @@
       <c r="BF439" s="20"/>
       <c r="BG439" s="20"/>
       <c r="BH439" s="20"/>
-    </row>
-    <row r="440" spans="1:60">
+      <c r="BI439" s="20"/>
+      <c r="BJ439" s="20"/>
+    </row>
+    <row r="440" spans="1:62">
       <c r="A440" s="20"/>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
@@ -30567,8 +31455,10 @@
       <c r="BF440" s="20"/>
       <c r="BG440" s="20"/>
       <c r="BH440" s="20"/>
-    </row>
-    <row r="441" spans="1:60">
+      <c r="BI440" s="20"/>
+      <c r="BJ440" s="20"/>
+    </row>
+    <row r="441" spans="1:62">
       <c r="A441" s="20"/>
       <c r="B441" s="20"/>
       <c r="C441" s="20"/>
@@ -30628,8 +31518,10 @@
       <c r="BF441" s="20"/>
       <c r="BG441" s="20"/>
       <c r="BH441" s="20"/>
-    </row>
-    <row r="442" spans="1:60">
+      <c r="BI441" s="20"/>
+      <c r="BJ441" s="20"/>
+    </row>
+    <row r="442" spans="1:62">
       <c r="A442" s="20"/>
       <c r="B442" s="20"/>
       <c r="C442" s="20"/>
@@ -30689,8 +31581,10 @@
       <c r="BF442" s="20"/>
       <c r="BG442" s="20"/>
       <c r="BH442" s="20"/>
-    </row>
-    <row r="443" spans="1:60">
+      <c r="BI442" s="20"/>
+      <c r="BJ442" s="20"/>
+    </row>
+    <row r="443" spans="1:62">
       <c r="A443" s="20"/>
       <c r="B443" s="20"/>
       <c r="C443" s="20"/>
@@ -30750,8 +31644,10 @@
       <c r="BF443" s="20"/>
       <c r="BG443" s="20"/>
       <c r="BH443" s="20"/>
-    </row>
-    <row r="444" spans="1:60">
+      <c r="BI443" s="20"/>
+      <c r="BJ443" s="20"/>
+    </row>
+    <row r="444" spans="1:62">
       <c r="A444" s="20"/>
       <c r="B444" s="20"/>
       <c r="C444" s="20"/>
@@ -30811,8 +31707,10 @@
       <c r="BF444" s="20"/>
       <c r="BG444" s="20"/>
       <c r="BH444" s="20"/>
-    </row>
-    <row r="445" spans="1:60">
+      <c r="BI444" s="20"/>
+      <c r="BJ444" s="20"/>
+    </row>
+    <row r="445" spans="1:62">
       <c r="A445" s="20"/>
       <c r="B445" s="20"/>
       <c r="C445" s="20"/>
@@ -30872,8 +31770,10 @@
       <c r="BF445" s="20"/>
       <c r="BG445" s="20"/>
       <c r="BH445" s="20"/>
-    </row>
-    <row r="446" spans="1:60">
+      <c r="BI445" s="20"/>
+      <c r="BJ445" s="20"/>
+    </row>
+    <row r="446" spans="1:62">
       <c r="A446" s="20"/>
       <c r="B446" s="20"/>
       <c r="C446" s="20"/>
@@ -30933,8 +31833,10 @@
       <c r="BF446" s="20"/>
       <c r="BG446" s="20"/>
       <c r="BH446" s="20"/>
-    </row>
-    <row r="447" spans="1:60">
+      <c r="BI446" s="20"/>
+      <c r="BJ446" s="20"/>
+    </row>
+    <row r="447" spans="1:62">
       <c r="A447" s="20"/>
       <c r="B447" s="20"/>
       <c r="C447" s="20"/>
@@ -30994,8 +31896,10 @@
       <c r="BF447" s="20"/>
       <c r="BG447" s="20"/>
       <c r="BH447" s="20"/>
-    </row>
-    <row r="448" spans="1:60">
+      <c r="BI447" s="20"/>
+      <c r="BJ447" s="20"/>
+    </row>
+    <row r="448" spans="1:62">
       <c r="A448" s="20"/>
       <c r="B448" s="20"/>
       <c r="C448" s="20"/>
@@ -31055,8 +31959,10 @@
       <c r="BF448" s="20"/>
       <c r="BG448" s="20"/>
       <c r="BH448" s="20"/>
-    </row>
-    <row r="449" spans="1:60">
+      <c r="BI448" s="20"/>
+      <c r="BJ448" s="20"/>
+    </row>
+    <row r="449" spans="1:62">
       <c r="A449" s="20"/>
       <c r="B449" s="20"/>
       <c r="C449" s="20"/>
@@ -31116,8 +32022,10 @@
       <c r="BF449" s="20"/>
       <c r="BG449" s="20"/>
       <c r="BH449" s="20"/>
-    </row>
-    <row r="450" spans="1:60">
+      <c r="BI449" s="20"/>
+      <c r="BJ449" s="20"/>
+    </row>
+    <row r="450" spans="1:62">
       <c r="A450" s="20"/>
       <c r="B450" s="20"/>
       <c r="C450" s="20"/>
@@ -31177,8 +32085,10 @@
       <c r="BF450" s="20"/>
       <c r="BG450" s="20"/>
       <c r="BH450" s="20"/>
-    </row>
-    <row r="451" spans="1:60">
+      <c r="BI450" s="20"/>
+      <c r="BJ450" s="20"/>
+    </row>
+    <row r="451" spans="1:62">
       <c r="A451" s="20"/>
       <c r="B451" s="20"/>
       <c r="C451" s="20"/>
@@ -31238,8 +32148,10 @@
       <c r="BF451" s="20"/>
       <c r="BG451" s="20"/>
       <c r="BH451" s="20"/>
-    </row>
-    <row r="452" spans="1:60">
+      <c r="BI451" s="20"/>
+      <c r="BJ451" s="20"/>
+    </row>
+    <row r="452" spans="1:62">
       <c r="A452" s="20"/>
       <c r="B452" s="20"/>
       <c r="C452" s="20"/>
@@ -31299,8 +32211,10 @@
       <c r="BF452" s="20"/>
       <c r="BG452" s="20"/>
       <c r="BH452" s="20"/>
-    </row>
-    <row r="453" spans="1:60">
+      <c r="BI452" s="20"/>
+      <c r="BJ452" s="20"/>
+    </row>
+    <row r="453" spans="1:62">
       <c r="A453" s="20"/>
       <c r="B453" s="20"/>
       <c r="C453" s="20"/>
@@ -31360,8 +32274,10 @@
       <c r="BF453" s="20"/>
       <c r="BG453" s="20"/>
       <c r="BH453" s="20"/>
-    </row>
-    <row r="454" spans="1:60">
+      <c r="BI453" s="20"/>
+      <c r="BJ453" s="20"/>
+    </row>
+    <row r="454" spans="1:62">
       <c r="A454" s="20"/>
       <c r="B454" s="20"/>
       <c r="C454" s="20"/>
@@ -31421,8 +32337,10 @@
       <c r="BF454" s="20"/>
       <c r="BG454" s="20"/>
       <c r="BH454" s="20"/>
-    </row>
-    <row r="455" spans="1:60">
+      <c r="BI454" s="20"/>
+      <c r="BJ454" s="20"/>
+    </row>
+    <row r="455" spans="1:62">
       <c r="A455" s="20"/>
       <c r="B455" s="20"/>
       <c r="C455" s="20"/>
@@ -31482,8 +32400,10 @@
       <c r="BF455" s="20"/>
       <c r="BG455" s="20"/>
       <c r="BH455" s="20"/>
-    </row>
-    <row r="456" spans="1:60">
+      <c r="BI455" s="20"/>
+      <c r="BJ455" s="20"/>
+    </row>
+    <row r="456" spans="1:62">
       <c r="A456" s="20"/>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
@@ -31543,8 +32463,10 @@
       <c r="BF456" s="20"/>
       <c r="BG456" s="20"/>
       <c r="BH456" s="20"/>
-    </row>
-    <row r="457" spans="1:60">
+      <c r="BI456" s="20"/>
+      <c r="BJ456" s="20"/>
+    </row>
+    <row r="457" spans="1:62">
       <c r="A457" s="20"/>
       <c r="B457" s="20"/>
       <c r="C457" s="20"/>
@@ -31604,8 +32526,10 @@
       <c r="BF457" s="20"/>
       <c r="BG457" s="20"/>
       <c r="BH457" s="20"/>
-    </row>
-    <row r="458" spans="1:60">
+      <c r="BI457" s="20"/>
+      <c r="BJ457" s="20"/>
+    </row>
+    <row r="458" spans="1:62">
       <c r="A458" s="20"/>
       <c r="B458" s="20"/>
       <c r="C458" s="20"/>
@@ -31665,8 +32589,10 @@
       <c r="BF458" s="20"/>
       <c r="BG458" s="20"/>
       <c r="BH458" s="20"/>
-    </row>
-    <row r="459" spans="1:60">
+      <c r="BI458" s="20"/>
+      <c r="BJ458" s="20"/>
+    </row>
+    <row r="459" spans="1:62">
       <c r="A459" s="20"/>
       <c r="B459" s="20"/>
       <c r="C459" s="20"/>
@@ -31726,8 +32652,10 @@
       <c r="BF459" s="20"/>
       <c r="BG459" s="20"/>
       <c r="BH459" s="20"/>
-    </row>
-    <row r="460" spans="1:60">
+      <c r="BI459" s="20"/>
+      <c r="BJ459" s="20"/>
+    </row>
+    <row r="460" spans="1:62">
       <c r="A460" s="20"/>
       <c r="B460" s="20"/>
       <c r="C460" s="20"/>
@@ -31787,8 +32715,10 @@
       <c r="BF460" s="20"/>
       <c r="BG460" s="20"/>
       <c r="BH460" s="20"/>
-    </row>
-    <row r="461" spans="1:60">
+      <c r="BI460" s="20"/>
+      <c r="BJ460" s="20"/>
+    </row>
+    <row r="461" spans="1:62">
       <c r="A461" s="20"/>
       <c r="B461" s="20"/>
       <c r="C461" s="20"/>
@@ -31848,8 +32778,10 @@
       <c r="BF461" s="20"/>
       <c r="BG461" s="20"/>
       <c r="BH461" s="20"/>
-    </row>
-    <row r="462" spans="1:60">
+      <c r="BI461" s="20"/>
+      <c r="BJ461" s="20"/>
+    </row>
+    <row r="462" spans="1:62">
       <c r="A462" s="20"/>
       <c r="B462" s="20"/>
       <c r="C462" s="20"/>
@@ -31909,8 +32841,10 @@
       <c r="BF462" s="20"/>
       <c r="BG462" s="20"/>
       <c r="BH462" s="20"/>
-    </row>
-    <row r="463" spans="1:60">
+      <c r="BI462" s="20"/>
+      <c r="BJ462" s="20"/>
+    </row>
+    <row r="463" spans="1:62">
       <c r="A463" s="20"/>
       <c r="B463" s="20"/>
       <c r="C463" s="20"/>
@@ -31970,8 +32904,10 @@
       <c r="BF463" s="20"/>
       <c r="BG463" s="20"/>
       <c r="BH463" s="20"/>
-    </row>
-    <row r="464" spans="1:60">
+      <c r="BI463" s="20"/>
+      <c r="BJ463" s="20"/>
+    </row>
+    <row r="464" spans="1:62">
       <c r="A464" s="20"/>
       <c r="B464" s="20"/>
       <c r="C464" s="20"/>
@@ -32031,8 +32967,10 @@
       <c r="BF464" s="20"/>
       <c r="BG464" s="20"/>
       <c r="BH464" s="20"/>
-    </row>
-    <row r="465" spans="1:60">
+      <c r="BI464" s="20"/>
+      <c r="BJ464" s="20"/>
+    </row>
+    <row r="465" spans="1:62">
       <c r="A465" s="20"/>
       <c r="B465" s="20"/>
       <c r="C465" s="20"/>
@@ -32092,8 +33030,10 @@
       <c r="BF465" s="20"/>
       <c r="BG465" s="20"/>
       <c r="BH465" s="20"/>
-    </row>
-    <row r="466" spans="1:60">
+      <c r="BI465" s="20"/>
+      <c r="BJ465" s="20"/>
+    </row>
+    <row r="466" spans="1:62">
       <c r="A466" s="20"/>
       <c r="B466" s="20"/>
       <c r="C466" s="20"/>
@@ -32153,8 +33093,10 @@
       <c r="BF466" s="20"/>
       <c r="BG466" s="20"/>
       <c r="BH466" s="20"/>
-    </row>
-    <row r="467" spans="1:60">
+      <c r="BI466" s="20"/>
+      <c r="BJ466" s="20"/>
+    </row>
+    <row r="467" spans="1:62">
       <c r="A467" s="20"/>
       <c r="B467" s="20"/>
       <c r="C467" s="20"/>
@@ -32214,8 +33156,10 @@
       <c r="BF467" s="20"/>
       <c r="BG467" s="20"/>
       <c r="BH467" s="20"/>
-    </row>
-    <row r="468" spans="1:60">
+      <c r="BI467" s="20"/>
+      <c r="BJ467" s="20"/>
+    </row>
+    <row r="468" spans="1:62">
       <c r="A468" s="20"/>
       <c r="B468" s="20"/>
       <c r="C468" s="20"/>
@@ -32275,8 +33219,10 @@
       <c r="BF468" s="20"/>
       <c r="BG468" s="20"/>
       <c r="BH468" s="20"/>
-    </row>
-    <row r="469" spans="1:60">
+      <c r="BI468" s="20"/>
+      <c r="BJ468" s="20"/>
+    </row>
+    <row r="469" spans="1:62">
       <c r="A469" s="20"/>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
@@ -32336,8 +33282,10 @@
       <c r="BF469" s="20"/>
       <c r="BG469" s="20"/>
       <c r="BH469" s="20"/>
-    </row>
-    <row r="470" spans="1:60">
+      <c r="BI469" s="20"/>
+      <c r="BJ469" s="20"/>
+    </row>
+    <row r="470" spans="1:62">
       <c r="A470" s="20"/>
       <c r="B470" s="20"/>
       <c r="C470" s="20"/>
@@ -32397,8 +33345,10 @@
       <c r="BF470" s="20"/>
       <c r="BG470" s="20"/>
       <c r="BH470" s="20"/>
-    </row>
-    <row r="471" spans="1:60">
+      <c r="BI470" s="20"/>
+      <c r="BJ470" s="20"/>
+    </row>
+    <row r="471" spans="1:62">
       <c r="A471" s="20"/>
       <c r="B471" s="20"/>
       <c r="C471" s="20"/>
@@ -32458,8 +33408,10 @@
       <c r="BF471" s="20"/>
       <c r="BG471" s="20"/>
       <c r="BH471" s="20"/>
-    </row>
-    <row r="472" spans="1:60">
+      <c r="BI471" s="20"/>
+      <c r="BJ471" s="20"/>
+    </row>
+    <row r="472" spans="1:62">
       <c r="A472" s="20"/>
       <c r="B472" s="20"/>
       <c r="C472" s="20"/>
@@ -32519,8 +33471,10 @@
       <c r="BF472" s="20"/>
       <c r="BG472" s="20"/>
       <c r="BH472" s="20"/>
-    </row>
-    <row r="473" spans="1:60">
+      <c r="BI472" s="20"/>
+      <c r="BJ472" s="20"/>
+    </row>
+    <row r="473" spans="1:62">
       <c r="A473" s="20"/>
       <c r="B473" s="20"/>
       <c r="C473" s="20"/>
@@ -32580,8 +33534,10 @@
       <c r="BF473" s="20"/>
       <c r="BG473" s="20"/>
       <c r="BH473" s="20"/>
-    </row>
-    <row r="474" spans="1:60">
+      <c r="BI473" s="20"/>
+      <c r="BJ473" s="20"/>
+    </row>
+    <row r="474" spans="1:62">
       <c r="A474" s="20"/>
       <c r="B474" s="20"/>
       <c r="C474" s="20"/>
@@ -32641,8 +33597,10 @@
       <c r="BF474" s="20"/>
       <c r="BG474" s="20"/>
       <c r="BH474" s="20"/>
-    </row>
-    <row r="475" spans="1:60">
+      <c r="BI474" s="20"/>
+      <c r="BJ474" s="20"/>
+    </row>
+    <row r="475" spans="1:62">
       <c r="A475" s="20"/>
       <c r="B475" s="20"/>
       <c r="C475" s="20"/>
@@ -32702,8 +33660,10 @@
       <c r="BF475" s="20"/>
       <c r="BG475" s="20"/>
       <c r="BH475" s="20"/>
-    </row>
-    <row r="476" spans="1:60">
+      <c r="BI475" s="20"/>
+      <c r="BJ475" s="20"/>
+    </row>
+    <row r="476" spans="1:62">
       <c r="A476" s="20"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20"/>
@@ -32763,8 +33723,10 @@
       <c r="BF476" s="20"/>
       <c r="BG476" s="20"/>
       <c r="BH476" s="20"/>
-    </row>
-    <row r="477" spans="1:60">
+      <c r="BI476" s="20"/>
+      <c r="BJ476" s="20"/>
+    </row>
+    <row r="477" spans="1:62">
       <c r="A477" s="20"/>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
@@ -32824,8 +33786,10 @@
       <c r="BF477" s="20"/>
       <c r="BG477" s="20"/>
       <c r="BH477" s="20"/>
-    </row>
-    <row r="478" spans="1:60">
+      <c r="BI477" s="20"/>
+      <c r="BJ477" s="20"/>
+    </row>
+    <row r="478" spans="1:62">
       <c r="A478" s="20"/>
       <c r="B478" s="20"/>
       <c r="C478" s="20"/>
@@ -32885,8 +33849,10 @@
       <c r="BF478" s="20"/>
       <c r="BG478" s="20"/>
       <c r="BH478" s="20"/>
-    </row>
-    <row r="479" spans="1:60">
+      <c r="BI478" s="20"/>
+      <c r="BJ478" s="20"/>
+    </row>
+    <row r="479" spans="1:62">
       <c r="A479" s="20"/>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
@@ -32946,8 +33912,10 @@
       <c r="BF479" s="20"/>
       <c r="BG479" s="20"/>
       <c r="BH479" s="20"/>
-    </row>
-    <row r="480" spans="1:60">
+      <c r="BI479" s="20"/>
+      <c r="BJ479" s="20"/>
+    </row>
+    <row r="480" spans="1:62">
       <c r="A480" s="20"/>
       <c r="B480" s="20"/>
       <c r="C480" s="20"/>
@@ -33007,8 +33975,10 @@
       <c r="BF480" s="20"/>
       <c r="BG480" s="20"/>
       <c r="BH480" s="20"/>
-    </row>
-    <row r="481" spans="1:60">
+      <c r="BI480" s="20"/>
+      <c r="BJ480" s="20"/>
+    </row>
+    <row r="481" spans="1:62">
       <c r="A481" s="20"/>
       <c r="B481" s="20"/>
       <c r="C481" s="20"/>
@@ -33068,8 +34038,10 @@
       <c r="BF481" s="20"/>
       <c r="BG481" s="20"/>
       <c r="BH481" s="20"/>
-    </row>
-    <row r="482" spans="1:60">
+      <c r="BI481" s="20"/>
+      <c r="BJ481" s="20"/>
+    </row>
+    <row r="482" spans="1:62">
       <c r="A482" s="20"/>
       <c r="B482" s="20"/>
       <c r="C482" s="20"/>
@@ -33129,8 +34101,10 @@
       <c r="BF482" s="20"/>
       <c r="BG482" s="20"/>
       <c r="BH482" s="20"/>
-    </row>
-    <row r="483" spans="1:60">
+      <c r="BI482" s="20"/>
+      <c r="BJ482" s="20"/>
+    </row>
+    <row r="483" spans="1:62">
       <c r="A483" s="20"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
@@ -33190,8 +34164,10 @@
       <c r="BF483" s="20"/>
       <c r="BG483" s="20"/>
       <c r="BH483" s="20"/>
-    </row>
-    <row r="484" spans="1:60">
+      <c r="BI483" s="20"/>
+      <c r="BJ483" s="20"/>
+    </row>
+    <row r="484" spans="1:62">
       <c r="A484" s="20"/>
       <c r="B484" s="20"/>
       <c r="C484" s="20"/>
@@ -33251,8 +34227,10 @@
       <c r="BF484" s="20"/>
       <c r="BG484" s="20"/>
       <c r="BH484" s="20"/>
-    </row>
-    <row r="485" spans="1:60">
+      <c r="BI484" s="20"/>
+      <c r="BJ484" s="20"/>
+    </row>
+    <row r="485" spans="1:62">
       <c r="A485" s="20"/>
       <c r="B485" s="20"/>
       <c r="C485" s="20"/>
@@ -33312,8 +34290,10 @@
       <c r="BF485" s="20"/>
       <c r="BG485" s="20"/>
       <c r="BH485" s="20"/>
-    </row>
-    <row r="486" spans="1:60">
+      <c r="BI485" s="20"/>
+      <c r="BJ485" s="20"/>
+    </row>
+    <row r="486" spans="1:62">
       <c r="A486" s="20"/>
       <c r="B486" s="20"/>
       <c r="C486" s="20"/>
@@ -33373,8 +34353,10 @@
       <c r="BF486" s="20"/>
       <c r="BG486" s="20"/>
       <c r="BH486" s="20"/>
-    </row>
-    <row r="487" spans="1:60">
+      <c r="BI486" s="20"/>
+      <c r="BJ486" s="20"/>
+    </row>
+    <row r="487" spans="1:62">
       <c r="A487" s="20"/>
       <c r="B487" s="20"/>
       <c r="C487" s="20"/>
@@ -33434,8 +34416,10 @@
       <c r="BF487" s="20"/>
       <c r="BG487" s="20"/>
       <c r="BH487" s="20"/>
-    </row>
-    <row r="488" spans="1:60">
+      <c r="BI487" s="20"/>
+      <c r="BJ487" s="20"/>
+    </row>
+    <row r="488" spans="1:62">
       <c r="A488" s="20"/>
       <c r="B488" s="20"/>
       <c r="C488" s="20"/>
@@ -33495,8 +34479,10 @@
       <c r="BF488" s="20"/>
       <c r="BG488" s="20"/>
       <c r="BH488" s="20"/>
-    </row>
-    <row r="489" spans="1:60">
+      <c r="BI488" s="20"/>
+      <c r="BJ488" s="20"/>
+    </row>
+    <row r="489" spans="1:62">
       <c r="A489" s="20"/>
       <c r="B489" s="20"/>
       <c r="C489" s="20"/>
@@ -33556,8 +34542,10 @@
       <c r="BF489" s="20"/>
       <c r="BG489" s="20"/>
       <c r="BH489" s="20"/>
-    </row>
-    <row r="490" spans="1:60">
+      <c r="BI489" s="20"/>
+      <c r="BJ489" s="20"/>
+    </row>
+    <row r="490" spans="1:62">
       <c r="A490" s="20"/>
       <c r="B490" s="20"/>
       <c r="C490" s="20"/>
@@ -33617,8 +34605,10 @@
       <c r="BF490" s="20"/>
       <c r="BG490" s="20"/>
       <c r="BH490" s="20"/>
-    </row>
-    <row r="491" spans="1:60">
+      <c r="BI490" s="20"/>
+      <c r="BJ490" s="20"/>
+    </row>
+    <row r="491" spans="1:62">
       <c r="A491" s="20"/>
       <c r="B491" s="20"/>
       <c r="C491" s="20"/>
@@ -33678,8 +34668,10 @@
       <c r="BF491" s="20"/>
       <c r="BG491" s="20"/>
       <c r="BH491" s="20"/>
-    </row>
-    <row r="492" spans="1:60">
+      <c r="BI491" s="20"/>
+      <c r="BJ491" s="20"/>
+    </row>
+    <row r="492" spans="1:62">
       <c r="A492" s="20"/>
       <c r="B492" s="20"/>
       <c r="C492" s="20"/>
@@ -33739,8 +34731,10 @@
       <c r="BF492" s="20"/>
       <c r="BG492" s="20"/>
       <c r="BH492" s="20"/>
-    </row>
-    <row r="493" spans="1:60">
+      <c r="BI492" s="20"/>
+      <c r="BJ492" s="20"/>
+    </row>
+    <row r="493" spans="1:62">
       <c r="A493" s="20"/>
       <c r="B493" s="20"/>
       <c r="C493" s="20"/>
@@ -33800,8 +34794,10 @@
       <c r="BF493" s="20"/>
       <c r="BG493" s="20"/>
       <c r="BH493" s="20"/>
-    </row>
-    <row r="494" spans="1:60">
+      <c r="BI493" s="20"/>
+      <c r="BJ493" s="20"/>
+    </row>
+    <row r="494" spans="1:62">
       <c r="A494" s="20"/>
       <c r="B494" s="20"/>
       <c r="C494" s="20"/>
@@ -33861,8 +34857,10 @@
       <c r="BF494" s="20"/>
       <c r="BG494" s="20"/>
       <c r="BH494" s="20"/>
-    </row>
-    <row r="495" spans="45:60">
+      <c r="BI494" s="20"/>
+      <c r="BJ494" s="20"/>
+    </row>
+    <row r="495" spans="45:62">
       <c r="AS495" s="20"/>
       <c r="AT495" s="20"/>
       <c r="AU495" s="20"/>
@@ -33879,8 +34877,10 @@
       <c r="BF495" s="20"/>
       <c r="BG495" s="20"/>
       <c r="BH495" s="20"/>
-    </row>
-    <row r="496" spans="45:60">
+      <c r="BI495" s="20"/>
+      <c r="BJ495" s="20"/>
+    </row>
+    <row r="496" spans="45:62">
       <c r="AS496" s="20"/>
       <c r="AT496" s="20"/>
       <c r="AU496" s="20"/>
@@ -33897,8 +34897,10 @@
       <c r="BF496" s="20"/>
       <c r="BG496" s="20"/>
       <c r="BH496" s="20"/>
-    </row>
-    <row r="497" spans="45:60">
+      <c r="BI496" s="20"/>
+      <c r="BJ496" s="20"/>
+    </row>
+    <row r="497" spans="45:62">
       <c r="AS497" s="20"/>
       <c r="AT497" s="20"/>
       <c r="AU497" s="20"/>
@@ -33915,8 +34917,10 @@
       <c r="BF497" s="20"/>
       <c r="BG497" s="20"/>
       <c r="BH497" s="20"/>
-    </row>
-    <row r="498" spans="45:60">
+      <c r="BI497" s="20"/>
+      <c r="BJ497" s="20"/>
+    </row>
+    <row r="498" spans="45:62">
       <c r="AS498" s="20"/>
       <c r="AT498" s="20"/>
       <c r="AU498" s="20"/>
@@ -33933,8 +34937,10 @@
       <c r="BF498" s="20"/>
       <c r="BG498" s="20"/>
       <c r="BH498" s="20"/>
-    </row>
-    <row r="499" spans="45:60">
+      <c r="BI498" s="20"/>
+      <c r="BJ498" s="20"/>
+    </row>
+    <row r="499" spans="45:62">
       <c r="AS499" s="20"/>
       <c r="AT499" s="20"/>
       <c r="AU499" s="20"/>
@@ -33951,8 +34957,10 @@
       <c r="BF499" s="20"/>
       <c r="BG499" s="20"/>
       <c r="BH499" s="20"/>
-    </row>
-    <row r="500" spans="45:60">
+      <c r="BI499" s="20"/>
+      <c r="BJ499" s="20"/>
+    </row>
+    <row r="500" spans="45:62">
       <c r="AS500" s="20"/>
       <c r="AT500" s="20"/>
       <c r="AU500" s="20"/>
@@ -33969,8 +34977,10 @@
       <c r="BF500" s="20"/>
       <c r="BG500" s="20"/>
       <c r="BH500" s="20"/>
-    </row>
-    <row r="501" spans="45:60">
+      <c r="BI500" s="20"/>
+      <c r="BJ500" s="20"/>
+    </row>
+    <row r="501" spans="45:62">
       <c r="AS501" s="20"/>
       <c r="AT501" s="20"/>
       <c r="AU501" s="20"/>
@@ -33987,13 +34997,15 @@
       <c r="BF501" s="20"/>
       <c r="BG501" s="20"/>
       <c r="BH501" s="20"/>
+      <c r="BI501" s="20"/>
+      <c r="BJ501" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
     <mergeCell ref="C1:AR1"/>
     <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
     <mergeCell ref="L2:AF2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="A1:A3"/>
@@ -34032,6 +35044,8 @@
     <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="BG2:BG3"/>
     <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="603867(新化股份)"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -22,7 +22,7 @@
     <t>股票代码</t>
   </si>
   <si>
-    <t>交易前计划</t>
+    <t>交易计划</t>
   </si>
   <si>
     <t>实际入场</t>
@@ -1118,18 +1118,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1723,76 +1717,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1801,7 +1795,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1810,7 +1804,7 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1822,25 +1816,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1852,16 +1846,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1875,28 +1869,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1905,10 +1899,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1917,10 +1911,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1932,16 +1926,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,49 +1947,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2007,19 +2001,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,10 +2028,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2046,25 +2040,25 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3234,8 +3228,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BG2" sqref="BG2:BG3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -125,8 +125,32 @@
 （超过一千股按万分之2.5收取，不超过1000股按5块钱收取）</t>
   </si>
   <si>
-    <t>入场杂费
-(沪市按万分之0.2收取；深市无此费用)</t>
+    <r>
+      <t>入场杂费
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即印花税+过户费。
+印花税：无。
+过户费：沪市按万分之0.2收取；深市无此费用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>入场费用合计
@@ -334,77 +358,39 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>印花税</t>
+      <t>即印花税</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;0.001*</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>出场金额</t>
+      <t>过户费。
+印花税：0.001*出场金额。
+过户费：沪市按万分之</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过户费</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沪市按万分之</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -414,7 +400,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
@@ -429,7 +415,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -877,7 +863,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1105,7 +1091,21 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -3224,8 +3224,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2:AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3254,7 +3254,7 @@
     <col min="53" max="53" width="13.2410714285714" customWidth="1"/>
     <col min="54" max="54" width="13.9821428571429" customWidth="1"/>
     <col min="55" max="55" width="19.0446428571429" customWidth="1"/>
-    <col min="56" max="56" width="16.9553571428571" customWidth="1"/>
+    <col min="56" max="56" width="21.5803571428571" customWidth="1"/>
     <col min="57" max="59" width="20.375" customWidth="1"/>
     <col min="60" max="61" width="21.4196428571429" customWidth="1"/>
     <col min="62" max="62" width="26.9285714285714" customWidth="1"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -3224,8 +3224,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2:AV3"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -170,87 +170,67 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>(&lt;</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>最高价</t>
+      <t>即</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>入场价格</t>
+      <t>最高价-入场价格</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;/</t>
+      <t>)/(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>最高价</t>
+      <t>最高价-最低价</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最低价</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -260,12 +240,22 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>，越高越好</t>
+      <t>，值越高越好</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -528,87 +518,67 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>(&lt;</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>出场价格</t>
+      <t>即</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>最低价</t>
+      <t>出场价格-最低价</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;/</t>
+      <t>)/(</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>最高价</t>
+      <t>最高价-最低价</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最低价</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -618,12 +588,22 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>，越高越好</t>
+      <t>，值越高越好</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -637,7 +617,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -647,7 +627,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
@@ -657,7 +637,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -667,7 +647,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
@@ -677,7 +657,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -687,7 +667,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
@@ -697,7 +677,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
@@ -1098,14 +1078,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -3224,8 +3204,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BD3"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2:BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -1106,7 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,8 +3204,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2:BH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>交易计划</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>交易总评</t>
+  </si>
+  <si>
+    <t>平均成功率</t>
+  </si>
+  <si>
+    <t>平均收益</t>
+  </si>
+  <si>
+    <t>平均亏损</t>
+  </si>
+  <si>
+    <t>平均回报</t>
   </si>
   <si>
     <t>日期</t>
@@ -847,13 +859,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>002249(</t>
+      <t>600771(</t>
     </r>
     <r>
       <rPr>
@@ -862,7 +868,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>大洋电机</t>
+      <t>广誉远</t>
     </r>
     <r>
       <rPr>
@@ -875,24 +881,77 @@
     </r>
   </si>
   <si>
-    <t>12w</t>
+    <t>16w</t>
   </si>
   <si>
-    <t>未减少</t>
+    <t>减少略明显</t>
+  </si>
+  <si>
+    <t>略清晰</t>
+  </si>
+  <si>
+    <r>
+      <t>605016(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百农创园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>清晰</t>
+  </si>
+  <si>
+    <r>
+      <t>000722(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湖南发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -969,8 +1028,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,8 +1076,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,32 +1092,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,7 +1117,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,15 +1125,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,14 +1155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,10 +1175,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,13 +1256,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,25 +1286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,19 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,25 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,19 +1388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,31 +1436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,56 +1709,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1722,157 +1743,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2002,6 +2073,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2056,6 +2130,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,6 +2140,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3230,10 +3313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BK501"/>
+  <dimension ref="A1:CQ496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CK1" sqref="CK1:CQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3246,11 +3329,12 @@
     <col min="10" max="10" width="11.6071428571429" customWidth="1"/>
     <col min="11" max="11" width="40.7767857142857" customWidth="1"/>
     <col min="24" max="24" width="9.85714285714286"/>
+    <col min="29" max="29" width="12.7857142857143"/>
     <col min="33" max="33" width="13.8303571428571" customWidth="1"/>
     <col min="37" max="37" width="11.9017857142857" customWidth="1"/>
     <col min="38" max="38" width="13.5357142857143" customWidth="1"/>
     <col min="39" max="40" width="14.1339285714286" customWidth="1"/>
-    <col min="41" max="41" width="12.7857142857143"/>
+    <col min="41" max="41" width="14"/>
     <col min="42" max="42" width="11.3035714285714" customWidth="1"/>
     <col min="43" max="43" width="11.1607142857143" customWidth="1"/>
     <col min="44" max="45" width="10.2589285714286" customWidth="1"/>
@@ -3268,7 +3352,7 @@
     <col min="62" max="62" width="26.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:62">
+    <row r="1" ht="23.6" spans="1:95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3315,67 +3399,104 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="46" t="s">
+      <c r="AS1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="57" t="s">
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="60" t="s">
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BJ1" s="60"/>
-    </row>
-    <row r="2" ht="18.8" spans="1:63">
-      <c r="A2" s="3" t="s">
+      <c r="BJ1" s="61"/>
+      <c r="BL1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BU1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CC1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CK1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+    </row>
+    <row r="2" ht="18.8" spans="1:95">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L2" s="23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -3398,94 +3519,123 @@
       <c r="AE2" s="28"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="28"/>
       <c r="AJ2" s="36"/>
       <c r="AK2" s="39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM2" s="39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AN2" s="39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR2" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS2" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="48" t="s">
+      <c r="AS2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="48" t="s">
+      <c r="AT2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="48" t="s">
+      <c r="AU2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="48" t="s">
+      <c r="AV2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" s="58" t="s">
+      <c r="AW2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="58" t="s">
+      <c r="AX2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="58" t="s">
+      <c r="AY2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="58" t="s">
+      <c r="AZ2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="58" t="s">
+      <c r="BA2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="58" t="s">
+      <c r="BB2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="58" t="s">
+      <c r="BC2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="58" t="s">
+      <c r="BD2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BI2" s="61" t="s">
+      <c r="BE2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="BJ2" s="61" t="s">
+      <c r="BF2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="62"/>
-    </row>
-    <row r="3" ht="25" spans="1:63">
+      <c r="BG2" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH2" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI2" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ2" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CC2" s="66"/>
+      <c r="CD2" s="66"/>
+      <c r="CE2" s="66"/>
+      <c r="CF2" s="66"/>
+      <c r="CG2" s="66"/>
+      <c r="CH2" s="66"/>
+      <c r="CI2" s="66"/>
+      <c r="CK2" s="66"/>
+      <c r="CL2" s="66"/>
+      <c r="CM2" s="66"/>
+      <c r="CN2" s="66"/>
+      <c r="CO2" s="66"/>
+      <c r="CP2" s="66"/>
+      <c r="CQ2" s="66"/>
+    </row>
+    <row r="3" ht="25" spans="1:95">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6"/>
@@ -3498,77 +3648,77 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC3" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3578,32 +3728,61 @@
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="42"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="62"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="66"/>
+      <c r="CE3" s="66"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CK3" s="66"/>
+      <c r="CL3" s="66"/>
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
     </row>
     <row r="4" ht="36" spans="1:62">
       <c r="A4" s="8">
         <v>44517</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="10">
         <v>22.15</v>
@@ -3658,7 +3837,7 @@
       <c r="U4" s="26"/>
       <c r="V4" s="26"/>
       <c r="W4" s="29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X4" s="30">
         <f>(H4-L4)/H4</f>
@@ -3682,16 +3861,16 @@
       </c>
       <c r="AC4" s="26"/>
       <c r="AD4" s="33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="11">
         <v>28.15</v>
@@ -3713,7 +3892,7 @@
         <v>32.49</v>
       </c>
       <c r="AN4" s="11"/>
-      <c r="AO4" s="11">
+      <c r="AO4" s="43">
         <f>(AM4-AK4)/(AK4-AL4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -3725,18 +3904,18 @@
         <f>(AM4-AK4)/AK4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AR4" s="43">
+      <c r="AR4" s="44">
         <v>150.88</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
       <c r="AZ4" s="20"/>
-      <c r="BA4" s="53"/>
+      <c r="BA4" s="54"/>
       <c r="BB4" s="20"/>
       <c r="BC4" s="20"/>
       <c r="BD4" s="20"/>
@@ -3752,7 +3931,7 @@
         <v>44517</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" s="14">
         <v>31.92</v>
@@ -3807,7 +3986,7 @@
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="31" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X5" s="30">
         <f>(H5-L5)/H5</f>
@@ -3825,22 +4004,22 @@
         <f>(Q5-R5)/Q5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AB5" s="32" t="e">
+      <c r="AB5" s="30" t="e">
         <f>(S5-T5)/S5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="27"/>
+      <c r="AC5" s="26"/>
       <c r="AD5" s="31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF5" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG5" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="15">
         <v>35.48</v>
@@ -3862,30 +4041,30 @@
         <v>39.33</v>
       </c>
       <c r="AN5" s="15"/>
-      <c r="AO5" s="15">
+      <c r="AO5" s="43">
         <f>(AM5-AK5)/(AK5-AL5)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="AP5" s="44">
+      <c r="AP5" s="45">
         <f>(AK5-AL5)/AK5</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="45">
         <f>(AM5-AK5)/AK5</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AR5" s="46">
         <v>37.41</v>
       </c>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="54"/>
       <c r="AZ5" s="20"/>
-      <c r="BA5" s="53"/>
+      <c r="BA5" s="54"/>
       <c r="BB5" s="20"/>
       <c r="BC5" s="20"/>
       <c r="BD5" s="20"/>
@@ -3901,7 +4080,7 @@
         <v>44519</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="14">
         <v>28.2</v>
@@ -3954,7 +4133,7 @@
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X6" s="30">
         <f>(H6-L6)/H6</f>
@@ -3968,26 +4147,23 @@
         <f>(O6-P6)/O6</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AA6" s="32">
-        <f>(Q6-R6)/Q6</f>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="32" t="e">
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="30" t="e">
         <f>(S6-T6)/S6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="27"/>
+      <c r="AC6" s="26"/>
       <c r="AD6" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AE6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="AF6" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="AG6" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="15">
         <v>36.21</v>
@@ -4011,48 +4187,48 @@
       <c r="AN6" s="15">
         <v>100</v>
       </c>
-      <c r="AO6" s="15">
+      <c r="AO6" s="43">
         <f>(AM6-AK6)/(AK6-AL6)</f>
         <v>2.02840909090909</v>
       </c>
-      <c r="AP6" s="44">
+      <c r="AP6" s="45">
         <f>(AK6-AL6)/AK6</f>
         <v>0.0539050535987748</v>
       </c>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="45">
         <f>(AM6-AK6)/AK6</f>
         <v>0.109341500765697</v>
       </c>
-      <c r="AR6" s="45">
+      <c r="AR6" s="46">
         <v>28.82</v>
       </c>
-      <c r="AS6" s="51">
+      <c r="AS6" s="52">
         <v>44522</v>
       </c>
-      <c r="AT6" s="52">
+      <c r="AT6" s="53">
         <v>32.65</v>
       </c>
-      <c r="AU6" s="53">
+      <c r="AU6" s="54">
         <v>5</v>
       </c>
-      <c r="AV6" s="53">
+      <c r="AV6" s="54">
         <v>0.653</v>
       </c>
-      <c r="AW6" s="55">
+      <c r="AW6" s="56">
         <f>AT6*AN6+AU6+AV6</f>
         <v>3270.653</v>
       </c>
-      <c r="AX6" s="55">
+      <c r="AX6" s="56">
         <v>33.9</v>
       </c>
-      <c r="AY6" s="55">
+      <c r="AY6" s="56">
         <v>32.49</v>
       </c>
-      <c r="AZ6" s="56">
+      <c r="AZ6" s="57">
         <f>(AX6-AT6)/(AX6-AY6)</f>
         <v>0.886524822695038</v>
       </c>
-      <c r="BA6" s="53"/>
+      <c r="BA6" s="54"/>
       <c r="BB6" s="20"/>
       <c r="BC6" s="20"/>
       <c r="BD6" s="20"/>
@@ -4063,104 +4239,138 @@
       <c r="BI6" s="20"/>
       <c r="BJ6" s="20"/>
     </row>
-    <row r="7" ht="13" spans="1:62">
+    <row r="7" ht="24" spans="1:62">
       <c r="A7" s="18">
-        <v>44510</v>
+        <v>44522</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="20">
-        <v>6.19</v>
+        <v>27.55</v>
       </c>
       <c r="D7" s="20">
-        <v>6.52</v>
+        <v>28.75</v>
       </c>
       <c r="E7" s="20">
-        <v>7.34</v>
+        <v>29.96</v>
       </c>
       <c r="F7" s="20">
-        <v>8.21</v>
+        <v>30.06</v>
       </c>
       <c r="G7" s="20">
-        <v>3.58</v>
+        <v>13.3</v>
       </c>
       <c r="H7" s="20">
-        <v>10.05</v>
+        <v>54.04</v>
       </c>
       <c r="I7" s="25">
         <f>(F7-G7)/G7</f>
-        <v>1.29329608938548</v>
+        <v>1.26015037593985</v>
       </c>
       <c r="J7" s="25">
         <f>(H7-F7)/H7</f>
-        <v>0.183084577114428</v>
+        <v>0.443745373797187</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20">
-        <v>6.33</v>
+        <v>26.69</v>
       </c>
       <c r="M7" s="20">
-        <v>7.32</v>
+        <v>33.26</v>
       </c>
       <c r="N7" s="20">
-        <v>6.41</v>
+        <v>27.12</v>
       </c>
       <c r="O7" s="20">
-        <v>8.3</v>
+        <v>28.94</v>
       </c>
       <c r="P7" s="20">
-        <v>7.33</v>
+        <v>27.52</v>
       </c>
       <c r="Q7" s="20">
-        <v>8.5</v>
+        <v>31.3</v>
       </c>
-      <c r="R7" s="19">
-        <v>7.75</v>
+      <c r="R7" s="20">
+        <v>29.67</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X7" s="30">
         <f>(H7-L7)/H7</f>
-        <v>0.370149253731343</v>
+        <v>0.506106587712805</v>
       </c>
       <c r="Y7" s="32">
         <f>(M7-N7)/M7</f>
-        <v>0.12431693989071</v>
+        <v>0.184606133493686</v>
       </c>
       <c r="Z7" s="32">
         <f>(O7-P7)/O7</f>
-        <v>0.116867469879518</v>
+        <v>0.0490670352453352</v>
       </c>
       <c r="AA7" s="32">
         <f>(Q7-R7)/Q7</f>
-        <v>0.0882352941176471</v>
+        <v>0.0520766773162939</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
+      <c r="AB7" s="30" t="e">
+        <f>(S7-T7)/S7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
+      <c r="AF7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" s="20">
+        <v>32.42</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>26.13</v>
+      </c>
+      <c r="AJ7" s="15">
+        <f>AH7-AI7</f>
+        <v>6.29</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>31.3</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>28.25</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>38.56</v>
+      </c>
+      <c r="AN7" s="20">
+        <v>100</v>
+      </c>
+      <c r="AO7" s="43">
+        <f>(AM7-AK7)/(AK7-AL7)</f>
+        <v>2.38032786885246</v>
+      </c>
+      <c r="AP7" s="45">
+        <f>(AK7-AL7)/AK7</f>
+        <v>0.097444089456869</v>
+      </c>
+      <c r="AQ7" s="45">
+        <f>(AM7-AK7)/AK7</f>
+        <v>0.231948881789137</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>903.68</v>
+      </c>
       <c r="AS7" s="20"/>
       <c r="AT7" s="20"/>
       <c r="AU7" s="20"/>
@@ -4180,50 +4390,128 @@
       <c r="BI7" s="20"/>
       <c r="BJ7" s="20"/>
     </row>
-    <row r="8" spans="1:62">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+    <row r="8" ht="48" spans="1:62">
+      <c r="A8" s="18">
+        <v>44522</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="20">
+        <v>28.37</v>
+      </c>
+      <c r="D8" s="20">
+        <v>29.06</v>
+      </c>
+      <c r="E8" s="20">
+        <v>29.49</v>
+      </c>
+      <c r="F8" s="20">
+        <v>29.69</v>
+      </c>
+      <c r="G8" s="20">
+        <v>17.54</v>
+      </c>
+      <c r="H8" s="20">
+        <v>48.5</v>
+      </c>
+      <c r="I8" s="25">
+        <f>(F8-G8)/G8</f>
+        <v>0.692702394526796</v>
+      </c>
+      <c r="J8" s="25">
+        <f>(H8-F8)/H8</f>
+        <v>0.387835051546392</v>
+      </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="L8" s="20">
+        <v>24.11</v>
+      </c>
+      <c r="M8" s="20">
+        <v>38.16</v>
+      </c>
+      <c r="N8" s="20">
+        <v>25.12</v>
+      </c>
+      <c r="O8" s="20">
+        <v>30.9</v>
+      </c>
+      <c r="P8" s="20">
+        <v>29.2</v>
+      </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="W8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="30">
+        <f>(H8-L8)/H8</f>
+        <v>0.502886597938144</v>
+      </c>
+      <c r="Y8" s="32">
+        <f>(M8-N8)/M8</f>
+        <v>0.341719077568134</v>
+      </c>
+      <c r="Z8" s="32">
+        <f>(O8-P8)/O8</f>
+        <v>0.0550161812297734</v>
+      </c>
+      <c r="AA8" s="32"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
+      <c r="AD8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH8" s="20">
+        <v>32.43</v>
+      </c>
+      <c r="AI8" s="20">
+        <v>26.16</v>
+      </c>
+      <c r="AJ8" s="15">
+        <f>AH8-AI8</f>
+        <v>6.27</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>30.9</v>
+      </c>
+      <c r="AL8" s="20">
+        <v>29.35</v>
+      </c>
+      <c r="AM8" s="20">
+        <v>38.71</v>
+      </c>
+      <c r="AN8" s="20">
+        <v>200</v>
+      </c>
+      <c r="AO8" s="43">
+        <f>(AM8-AK8)/(AK8-AL8)</f>
+        <v>5.03870967741937</v>
+      </c>
+      <c r="AP8" s="45">
+        <f>(AK8-AL8)/AK8</f>
+        <v>0.0501618122977345</v>
+      </c>
+      <c r="AQ8" s="45">
+        <f>(AM8-AK8)/AK8</f>
+        <v>0.252750809061489</v>
+      </c>
+      <c r="AR8" s="20">
+        <v>38.46</v>
+      </c>
       <c r="AS8" s="20"/>
       <c r="AT8" s="20"/>
       <c r="AU8" s="20"/>
@@ -4243,50 +4531,125 @@
       <c r="BI8" s="20"/>
       <c r="BJ8" s="20"/>
     </row>
-    <row r="9" spans="1:62">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+    <row r="9" ht="48" spans="1:62">
+      <c r="A9" s="18">
+        <v>44522</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7.01</v>
+      </c>
+      <c r="D9" s="20">
+        <v>7.12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7.44</v>
+      </c>
+      <c r="F9" s="20">
+        <v>7.74</v>
+      </c>
+      <c r="G9" s="20">
+        <v>5.47</v>
+      </c>
+      <c r="H9" s="20">
+        <v>9.59</v>
+      </c>
+      <c r="I9" s="25">
+        <f>(F9-G9)/G9</f>
+        <v>0.414990859232176</v>
+      </c>
+      <c r="J9" s="25">
+        <f>(H9-F9)/H9</f>
+        <v>0.192909280500521</v>
+      </c>
       <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="L9" s="20">
+        <v>6.06</v>
+      </c>
+      <c r="M9" s="20">
+        <v>8.34</v>
+      </c>
+      <c r="N9" s="20">
+        <v>6.68</v>
+      </c>
+      <c r="O9" s="20">
+        <v>7.95</v>
+      </c>
+      <c r="P9" s="20">
+        <v>7.31</v>
+      </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
+      <c r="W9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="30">
+        <f>(H9-L9)/H9</f>
+        <v>0.368091762252346</v>
+      </c>
+      <c r="Y9" s="32">
+        <f>(M9-N9)/M9</f>
+        <v>0.199040767386091</v>
+      </c>
+      <c r="Z9" s="32">
+        <f>(O9-P9)/O9</f>
+        <v>0.0805031446540881</v>
+      </c>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
+      <c r="AD9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF9" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH9" s="20">
+        <v>8.43</v>
+      </c>
+      <c r="AI9" s="20">
+        <v>6.78</v>
+      </c>
+      <c r="AJ9" s="15">
+        <f>AH9-AI9</f>
+        <v>1.65</v>
+      </c>
+      <c r="AK9" s="20">
+        <v>8.08</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>7.66</v>
+      </c>
+      <c r="AM9" s="20">
+        <v>9.31</v>
+      </c>
+      <c r="AN9" s="20">
+        <v>700</v>
+      </c>
+      <c r="AO9" s="43">
+        <f>(AM9-AK9)/(AK9-AL9)</f>
+        <v>2.92857142857143</v>
+      </c>
+      <c r="AP9" s="45">
+        <f>(AK9-AL9)/AK9</f>
+        <v>0.051980198019802</v>
+      </c>
+      <c r="AQ9" s="45">
+        <f>(AM9-AK9)/AK9</f>
+        <v>0.152227722772277</v>
+      </c>
       <c r="AS9" s="20"/>
       <c r="AT9" s="20"/>
       <c r="AU9" s="20"/>
@@ -34546,50 +34909,7 @@
       <c r="BI489" s="20"/>
       <c r="BJ489" s="20"/>
     </row>
-    <row r="490" spans="1:62">
-      <c r="A490" s="20"/>
-      <c r="B490" s="20"/>
-      <c r="C490" s="20"/>
-      <c r="D490" s="20"/>
-      <c r="E490" s="20"/>
-      <c r="F490" s="20"/>
-      <c r="G490" s="20"/>
-      <c r="H490" s="20"/>
-      <c r="I490" s="20"/>
-      <c r="J490" s="20"/>
-      <c r="K490" s="20"/>
-      <c r="L490" s="20"/>
-      <c r="M490" s="20"/>
-      <c r="N490" s="20"/>
-      <c r="O490" s="20"/>
-      <c r="P490" s="20"/>
-      <c r="Q490" s="20"/>
-      <c r="R490" s="20"/>
-      <c r="S490" s="20"/>
-      <c r="T490" s="20"/>
-      <c r="U490" s="20"/>
-      <c r="V490" s="20"/>
-      <c r="W490" s="20"/>
-      <c r="X490" s="20"/>
-      <c r="Y490" s="20"/>
-      <c r="Z490" s="20"/>
-      <c r="AA490" s="20"/>
-      <c r="AB490" s="20"/>
-      <c r="AC490" s="20"/>
-      <c r="AD490" s="20"/>
-      <c r="AE490" s="20"/>
-      <c r="AF490" s="20"/>
-      <c r="AG490" s="20"/>
-      <c r="AH490" s="20"/>
-      <c r="AI490" s="20"/>
-      <c r="AJ490" s="20"/>
-      <c r="AK490" s="20"/>
-      <c r="AL490" s="20"/>
-      <c r="AM490" s="20"/>
-      <c r="AN490" s="20"/>
-      <c r="AO490" s="20"/>
-      <c r="AP490" s="20"/>
-      <c r="AQ490" s="20"/>
+    <row r="490" spans="45:62">
       <c r="AS490" s="20"/>
       <c r="AT490" s="20"/>
       <c r="AU490" s="20"/>
@@ -34609,50 +34929,7 @@
       <c r="BI490" s="20"/>
       <c r="BJ490" s="20"/>
     </row>
-    <row r="491" spans="1:62">
-      <c r="A491" s="20"/>
-      <c r="B491" s="20"/>
-      <c r="C491" s="20"/>
-      <c r="D491" s="20"/>
-      <c r="E491" s="20"/>
-      <c r="F491" s="20"/>
-      <c r="G491" s="20"/>
-      <c r="H491" s="20"/>
-      <c r="I491" s="20"/>
-      <c r="J491" s="20"/>
-      <c r="K491" s="20"/>
-      <c r="L491" s="20"/>
-      <c r="M491" s="20"/>
-      <c r="N491" s="20"/>
-      <c r="O491" s="20"/>
-      <c r="P491" s="20"/>
-      <c r="Q491" s="20"/>
-      <c r="R491" s="20"/>
-      <c r="S491" s="20"/>
-      <c r="T491" s="20"/>
-      <c r="U491" s="20"/>
-      <c r="V491" s="20"/>
-      <c r="W491" s="20"/>
-      <c r="X491" s="20"/>
-      <c r="Y491" s="20"/>
-      <c r="Z491" s="20"/>
-      <c r="AA491" s="20"/>
-      <c r="AB491" s="20"/>
-      <c r="AC491" s="20"/>
-      <c r="AD491" s="20"/>
-      <c r="AE491" s="20"/>
-      <c r="AF491" s="20"/>
-      <c r="AG491" s="20"/>
-      <c r="AH491" s="20"/>
-      <c r="AI491" s="20"/>
-      <c r="AJ491" s="20"/>
-      <c r="AK491" s="20"/>
-      <c r="AL491" s="20"/>
-      <c r="AM491" s="20"/>
-      <c r="AN491" s="20"/>
-      <c r="AO491" s="20"/>
-      <c r="AP491" s="20"/>
-      <c r="AQ491" s="20"/>
+    <row r="491" spans="45:62">
       <c r="AS491" s="20"/>
       <c r="AT491" s="20"/>
       <c r="AU491" s="20"/>
@@ -34672,50 +34949,7 @@
       <c r="BI491" s="20"/>
       <c r="BJ491" s="20"/>
     </row>
-    <row r="492" spans="1:62">
-      <c r="A492" s="20"/>
-      <c r="B492" s="20"/>
-      <c r="C492" s="20"/>
-      <c r="D492" s="20"/>
-      <c r="E492" s="20"/>
-      <c r="F492" s="20"/>
-      <c r="G492" s="20"/>
-      <c r="H492" s="20"/>
-      <c r="I492" s="20"/>
-      <c r="J492" s="20"/>
-      <c r="K492" s="20"/>
-      <c r="L492" s="20"/>
-      <c r="M492" s="20"/>
-      <c r="N492" s="20"/>
-      <c r="O492" s="20"/>
-      <c r="P492" s="20"/>
-      <c r="Q492" s="20"/>
-      <c r="R492" s="20"/>
-      <c r="S492" s="20"/>
-      <c r="T492" s="20"/>
-      <c r="U492" s="20"/>
-      <c r="V492" s="20"/>
-      <c r="W492" s="20"/>
-      <c r="X492" s="20"/>
-      <c r="Y492" s="20"/>
-      <c r="Z492" s="20"/>
-      <c r="AA492" s="20"/>
-      <c r="AB492" s="20"/>
-      <c r="AC492" s="20"/>
-      <c r="AD492" s="20"/>
-      <c r="AE492" s="20"/>
-      <c r="AF492" s="20"/>
-      <c r="AG492" s="20"/>
-      <c r="AH492" s="20"/>
-      <c r="AI492" s="20"/>
-      <c r="AJ492" s="20"/>
-      <c r="AK492" s="20"/>
-      <c r="AL492" s="20"/>
-      <c r="AM492" s="20"/>
-      <c r="AN492" s="20"/>
-      <c r="AO492" s="20"/>
-      <c r="AP492" s="20"/>
-      <c r="AQ492" s="20"/>
+    <row r="492" spans="45:62">
       <c r="AS492" s="20"/>
       <c r="AT492" s="20"/>
       <c r="AU492" s="20"/>
@@ -34735,50 +34969,7 @@
       <c r="BI492" s="20"/>
       <c r="BJ492" s="20"/>
     </row>
-    <row r="493" spans="1:62">
-      <c r="A493" s="20"/>
-      <c r="B493" s="20"/>
-      <c r="C493" s="20"/>
-      <c r="D493" s="20"/>
-      <c r="E493" s="20"/>
-      <c r="F493" s="20"/>
-      <c r="G493" s="20"/>
-      <c r="H493" s="20"/>
-      <c r="I493" s="20"/>
-      <c r="J493" s="20"/>
-      <c r="K493" s="20"/>
-      <c r="L493" s="20"/>
-      <c r="M493" s="20"/>
-      <c r="N493" s="20"/>
-      <c r="O493" s="20"/>
-      <c r="P493" s="20"/>
-      <c r="Q493" s="20"/>
-      <c r="R493" s="20"/>
-      <c r="S493" s="20"/>
-      <c r="T493" s="20"/>
-      <c r="U493" s="20"/>
-      <c r="V493" s="20"/>
-      <c r="W493" s="20"/>
-      <c r="X493" s="20"/>
-      <c r="Y493" s="20"/>
-      <c r="Z493" s="20"/>
-      <c r="AA493" s="20"/>
-      <c r="AB493" s="20"/>
-      <c r="AC493" s="20"/>
-      <c r="AD493" s="20"/>
-      <c r="AE493" s="20"/>
-      <c r="AF493" s="20"/>
-      <c r="AG493" s="20"/>
-      <c r="AH493" s="20"/>
-      <c r="AI493" s="20"/>
-      <c r="AJ493" s="20"/>
-      <c r="AK493" s="20"/>
-      <c r="AL493" s="20"/>
-      <c r="AM493" s="20"/>
-      <c r="AN493" s="20"/>
-      <c r="AO493" s="20"/>
-      <c r="AP493" s="20"/>
-      <c r="AQ493" s="20"/>
+    <row r="493" spans="45:62">
       <c r="AS493" s="20"/>
       <c r="AT493" s="20"/>
       <c r="AU493" s="20"/>
@@ -34798,50 +34989,7 @@
       <c r="BI493" s="20"/>
       <c r="BJ493" s="20"/>
     </row>
-    <row r="494" spans="1:62">
-      <c r="A494" s="20"/>
-      <c r="B494" s="20"/>
-      <c r="C494" s="20"/>
-      <c r="D494" s="20"/>
-      <c r="E494" s="20"/>
-      <c r="F494" s="20"/>
-      <c r="G494" s="20"/>
-      <c r="H494" s="20"/>
-      <c r="I494" s="20"/>
-      <c r="J494" s="20"/>
-      <c r="K494" s="20"/>
-      <c r="L494" s="20"/>
-      <c r="M494" s="20"/>
-      <c r="N494" s="20"/>
-      <c r="O494" s="20"/>
-      <c r="P494" s="20"/>
-      <c r="Q494" s="20"/>
-      <c r="R494" s="20"/>
-      <c r="S494" s="20"/>
-      <c r="T494" s="20"/>
-      <c r="U494" s="20"/>
-      <c r="V494" s="20"/>
-      <c r="W494" s="20"/>
-      <c r="X494" s="20"/>
-      <c r="Y494" s="20"/>
-      <c r="Z494" s="20"/>
-      <c r="AA494" s="20"/>
-      <c r="AB494" s="20"/>
-      <c r="AC494" s="20"/>
-      <c r="AD494" s="20"/>
-      <c r="AE494" s="20"/>
-      <c r="AF494" s="20"/>
-      <c r="AG494" s="20"/>
-      <c r="AH494" s="20"/>
-      <c r="AI494" s="20"/>
-      <c r="AJ494" s="20"/>
-      <c r="AK494" s="20"/>
-      <c r="AL494" s="20"/>
-      <c r="AM494" s="20"/>
-      <c r="AN494" s="20"/>
-      <c r="AO494" s="20"/>
-      <c r="AP494" s="20"/>
-      <c r="AQ494" s="20"/>
+    <row r="494" spans="45:62">
       <c r="AS494" s="20"/>
       <c r="AT494" s="20"/>
       <c r="AU494" s="20"/>
@@ -34901,108 +35049,8 @@
       <c r="BI496" s="20"/>
       <c r="BJ496" s="20"/>
     </row>
-    <row r="497" spans="45:62">
-      <c r="AS497" s="20"/>
-      <c r="AT497" s="20"/>
-      <c r="AU497" s="20"/>
-      <c r="AV497" s="20"/>
-      <c r="AW497" s="20"/>
-      <c r="AX497" s="20"/>
-      <c r="AY497" s="20"/>
-      <c r="AZ497" s="20"/>
-      <c r="BA497" s="20"/>
-      <c r="BB497" s="20"/>
-      <c r="BC497" s="20"/>
-      <c r="BD497" s="20"/>
-      <c r="BE497" s="20"/>
-      <c r="BF497" s="20"/>
-      <c r="BG497" s="20"/>
-      <c r="BH497" s="20"/>
-      <c r="BI497" s="20"/>
-      <c r="BJ497" s="20"/>
-    </row>
-    <row r="498" spans="45:62">
-      <c r="AS498" s="20"/>
-      <c r="AT498" s="20"/>
-      <c r="AU498" s="20"/>
-      <c r="AV498" s="20"/>
-      <c r="AW498" s="20"/>
-      <c r="AX498" s="20"/>
-      <c r="AY498" s="20"/>
-      <c r="AZ498" s="20"/>
-      <c r="BA498" s="20"/>
-      <c r="BB498" s="20"/>
-      <c r="BC498" s="20"/>
-      <c r="BD498" s="20"/>
-      <c r="BE498" s="20"/>
-      <c r="BF498" s="20"/>
-      <c r="BG498" s="20"/>
-      <c r="BH498" s="20"/>
-      <c r="BI498" s="20"/>
-      <c r="BJ498" s="20"/>
-    </row>
-    <row r="499" spans="45:62">
-      <c r="AS499" s="20"/>
-      <c r="AT499" s="20"/>
-      <c r="AU499" s="20"/>
-      <c r="AV499" s="20"/>
-      <c r="AW499" s="20"/>
-      <c r="AX499" s="20"/>
-      <c r="AY499" s="20"/>
-      <c r="AZ499" s="20"/>
-      <c r="BA499" s="20"/>
-      <c r="BB499" s="20"/>
-      <c r="BC499" s="20"/>
-      <c r="BD499" s="20"/>
-      <c r="BE499" s="20"/>
-      <c r="BF499" s="20"/>
-      <c r="BG499" s="20"/>
-      <c r="BH499" s="20"/>
-      <c r="BI499" s="20"/>
-      <c r="BJ499" s="20"/>
-    </row>
-    <row r="500" spans="45:62">
-      <c r="AS500" s="20"/>
-      <c r="AT500" s="20"/>
-      <c r="AU500" s="20"/>
-      <c r="AV500" s="20"/>
-      <c r="AW500" s="20"/>
-      <c r="AX500" s="20"/>
-      <c r="AY500" s="20"/>
-      <c r="AZ500" s="20"/>
-      <c r="BA500" s="20"/>
-      <c r="BB500" s="20"/>
-      <c r="BC500" s="20"/>
-      <c r="BD500" s="20"/>
-      <c r="BE500" s="20"/>
-      <c r="BF500" s="20"/>
-      <c r="BG500" s="20"/>
-      <c r="BH500" s="20"/>
-      <c r="BI500" s="20"/>
-      <c r="BJ500" s="20"/>
-    </row>
-    <row r="501" spans="45:62">
-      <c r="AS501" s="20"/>
-      <c r="AT501" s="20"/>
-      <c r="AU501" s="20"/>
-      <c r="AV501" s="20"/>
-      <c r="AW501" s="20"/>
-      <c r="AX501" s="20"/>
-      <c r="AY501" s="20"/>
-      <c r="AZ501" s="20"/>
-      <c r="BA501" s="20"/>
-      <c r="BB501" s="20"/>
-      <c r="BC501" s="20"/>
-      <c r="BD501" s="20"/>
-      <c r="BE501" s="20"/>
-      <c r="BF501" s="20"/>
-      <c r="BG501" s="20"/>
-      <c r="BH501" s="20"/>
-      <c r="BI501" s="20"/>
-      <c r="BJ501" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="49">
     <mergeCell ref="A1:AR1"/>
     <mergeCell ref="AS1:AZ1"/>
     <mergeCell ref="BA1:BH1"/>
@@ -35048,6 +35096,10 @@
     <mergeCell ref="BI2:BI3"/>
     <mergeCell ref="BJ2:BJ3"/>
     <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL1:BS3"/>
+    <mergeCell ref="BU1:CA3"/>
+    <mergeCell ref="CC1:CI3"/>
+    <mergeCell ref="CK1:CQ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="603867(新化股份)"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -133,13 +133,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>入场杂费
 (</t>
     </r>
@@ -2122,10 +2115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3337,8 +3330,8 @@
   <sheetPr/>
   <dimension ref="A1:DB569"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3968,13 +3961,13 @@
       </c>
       <c r="AU4" s="54"/>
       <c r="AV4" s="55"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
       <c r="BB4" s="17"/>
-      <c r="BC4" s="58"/>
+      <c r="BC4" s="57"/>
       <c r="BD4" s="17"/>
       <c r="BE4" s="17"/>
       <c r="BF4" s="17"/>
@@ -4124,15 +4117,27 @@
       <c r="AT5" s="56">
         <v>37.41</v>
       </c>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
+      <c r="AU5" s="54">
+        <v>44523</v>
+      </c>
+      <c r="AV5" s="55">
+        <v>33.73</v>
+      </c>
+      <c r="AW5" s="57">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="58">
+        <f>AV5*AP5*0.2/10000</f>
+        <v>0.06746</v>
+      </c>
+      <c r="AY5" s="59">
+        <f>AV5*AP5+AW5+AX5</f>
+        <v>3378.06746</v>
+      </c>
+      <c r="AZ5" s="57"/>
+      <c r="BA5" s="57"/>
       <c r="BB5" s="17"/>
-      <c r="BC5" s="58"/>
+      <c r="BC5" s="57"/>
       <c r="BD5" s="17"/>
       <c r="BE5" s="17"/>
       <c r="BF5" s="17"/>
@@ -4281,17 +4286,18 @@
         <v>44522</v>
       </c>
       <c r="AV6" s="55">
-        <v>32.65</v>
+        <v>32.7</v>
       </c>
-      <c r="AW6" s="58">
+      <c r="AW6" s="57">
         <v>5</v>
       </c>
       <c r="AX6" s="58">
-        <v>0.653</v>
+        <f>AV6*AP6*0.2/10000</f>
+        <v>0.0654</v>
       </c>
       <c r="AY6" s="59">
         <f>AV6*AP6+AW6+AX6</f>
-        <v>3270.653</v>
+        <v>3275.0654</v>
       </c>
       <c r="AZ6" s="59">
         <v>33.9</v>
@@ -4301,9 +4307,9 @@
       </c>
       <c r="BB6" s="63">
         <f>(AZ6-AV6)/(AZ6-BA6)</f>
-        <v>0.886524822695038</v>
+        <v>0.851063829787233</v>
       </c>
-      <c r="BC6" s="58"/>
+      <c r="BC6" s="57"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="17"/>
       <c r="BF6" s="17"/>
@@ -36397,8 +36403,8 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -36433,7 +36439,7 @@
     <row r="2" spans="1:1">
       <c r="A2" s="2">
         <f>(VLOOKUP(入场指标!A6,入场指标!A4:BL1000,48,FALSE)-VLOOKUP(入场指标!A6,入场指标!A4:BL1000,39,FALSE))*VLOOKUP(入场指标!A6,入场指标!A4:BL1000,42,FALSE)</f>
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -3330,8 +3330,8 @@
   <sheetPr/>
   <dimension ref="A1:DB569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY4" sqref="AY4"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -3330,8 +3330,8 @@
   <sheetPr/>
   <dimension ref="A1:DB569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>交易编码</t>
   </si>
@@ -133,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>入场杂费
 (</t>
     </r>
@@ -855,21 +862,9 @@
     <t>减少明显，空头几乎被榨干</t>
   </si>
   <si>
-    <t>000004</t>
+    <t>000005</t>
   </si>
   <si>
-    <r>
-      <t>600771(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广誉远</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -877,23 +872,6 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>16w</t>
-  </si>
-  <si>
-    <t>减少略明显</t>
-  </si>
-  <si>
-    <t>略清晰</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <r>
       <t>605016(</t>
     </r>
     <r>
@@ -923,6 +901,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>000722(</t>
     </r>
     <r>
@@ -943,6 +927,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>略清晰</t>
   </si>
   <si>
     <t>当前暴露的风险总额</t>
@@ -967,10 +954,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1062,6 +1049,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1085,9 +1087,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1099,17 +1109,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,17 +1163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,48 +1177,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1277,19 +1264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,61 +1288,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,19 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,13 +1348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,37 +1396,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,22 +1696,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,37 +1766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,145 +1785,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3328,10 +3315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DB569"/>
+  <dimension ref="A1:DB568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL8" sqref="$A7:$XFD7 L8 AM8 AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -3480,7 +3467,7 @@
       <c r="DA1" s="69"/>
       <c r="DB1" s="69"/>
     </row>
-    <row r="2" ht="18.8" spans="1:106">
+    <row r="2" ht="23.6" spans="1:106">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3636,7 +3623,6 @@
       <c r="BS2" s="67"/>
       <c r="BT2" s="67"/>
       <c r="BU2" s="67"/>
-      <c r="BV2"/>
       <c r="BW2" s="69"/>
       <c r="BX2" s="69"/>
       <c r="BY2" s="69"/>
@@ -3789,7 +3775,6 @@
       <c r="BS3" s="67"/>
       <c r="BT3" s="67"/>
       <c r="BU3" s="67"/>
-      <c r="BV3"/>
       <c r="BW3" s="69"/>
       <c r="BX3" s="69"/>
       <c r="BY3" s="69"/>
@@ -4320,7 +4305,7 @@
       <c r="BK6" s="17"/>
       <c r="BL6" s="17"/>
     </row>
-    <row r="7" ht="24" spans="1:64">
+    <row r="7" ht="48" spans="1:64">
       <c r="A7" s="71" t="s">
         <v>86</v>
       </c>
@@ -4331,133 +4316,123 @@
         <v>87</v>
       </c>
       <c r="D7" s="17">
-        <v>27.55</v>
+        <v>28.37</v>
       </c>
       <c r="E7" s="17">
-        <v>28.75</v>
+        <v>29.06</v>
       </c>
       <c r="F7" s="17">
-        <v>29.96</v>
+        <v>29.49</v>
       </c>
       <c r="G7" s="17">
-        <v>30.06</v>
+        <v>29.69</v>
       </c>
       <c r="H7" s="17">
-        <v>13.3</v>
+        <v>17.54</v>
       </c>
       <c r="I7" s="17">
-        <v>54.04</v>
+        <v>48.5</v>
       </c>
       <c r="J7" s="27">
         <f>(G7-H7)/H7</f>
-        <v>1.26015037593985</v>
+        <v>0.692702394526796</v>
       </c>
       <c r="K7" s="27">
         <f>(I7-G7)/I7</f>
-        <v>0.443745373797187</v>
+        <v>0.387835051546392</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17">
-        <v>26.69</v>
+        <v>24.11</v>
       </c>
       <c r="N7" s="17">
-        <v>33.26</v>
+        <v>38.16</v>
       </c>
       <c r="O7" s="17">
-        <v>27.12</v>
+        <v>25.12</v>
       </c>
       <c r="P7" s="17">
-        <v>28.94</v>
+        <v>30.9</v>
       </c>
       <c r="Q7" s="17">
-        <v>27.52</v>
+        <v>29.2</v>
       </c>
-      <c r="R7" s="17">
-        <v>31.3</v>
-      </c>
-      <c r="S7" s="17">
-        <v>29.67</v>
-      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="35">
         <f>(I7-M7)/I7</f>
-        <v>0.506106587712805</v>
+        <v>0.502886597938144</v>
       </c>
       <c r="Z7" s="36">
         <f>(N7-O7)/N7</f>
-        <v>0.184606133493686</v>
+        <v>0.341719077568134</v>
       </c>
       <c r="AA7" s="36">
         <f>(P7-Q7)/P7</f>
-        <v>0.0490670352453352</v>
+        <v>0.0550161812297734</v>
       </c>
-      <c r="AB7" s="36">
-        <f>(R7-S7)/R7</f>
-        <v>0.0520766773162939</v>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17" t="s">
+        <v>84</v>
       </c>
-      <c r="AC7" s="35" t="e">
-        <f>(T7-U7)/T7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>89</v>
+      <c r="AF7" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AI7" s="17">
-        <v>32.42</v>
+        <v>32.43</v>
       </c>
       <c r="AJ7" s="17">
-        <v>26.13</v>
+        <v>26.16</v>
       </c>
       <c r="AK7" s="23">
         <f>AI7-AJ7</f>
-        <v>6.29</v>
+        <v>6.27</v>
       </c>
       <c r="AL7" s="17">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="AM7" s="17">
-        <v>28.25</v>
+        <v>29.35</v>
       </c>
       <c r="AN7" s="17">
-        <v>38.56</v>
+        <v>38.71</v>
       </c>
       <c r="AO7" s="22">
         <f>(AL7-AM7)*100</f>
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="AP7" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AQ7" s="44">
         <f>(AN7-AL7)/(AL7-AM7)</f>
-        <v>2.38032786885246</v>
+        <v>5.03870967741937</v>
       </c>
       <c r="AR7" s="45">
         <f>(AL7-AM7)/AL7</f>
-        <v>0.097444089456869</v>
+        <v>0.0501618122977345</v>
       </c>
       <c r="AS7" s="45">
         <f>(AN7-AL7)/AL7</f>
-        <v>0.231948881789137</v>
+        <v>0.252750809061489</v>
       </c>
       <c r="AT7" s="17">
-        <v>903.68</v>
+        <v>38.46</v>
       </c>
       <c r="AU7" s="17"/>
       <c r="AV7" s="17"/>
@@ -4480,55 +4455,55 @@
     </row>
     <row r="8" ht="48" spans="1:64">
       <c r="A8" s="71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="18">
         <v>44522</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>92</v>
+      <c r="C8" s="72" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="17">
-        <v>28.37</v>
+        <v>7.01</v>
       </c>
       <c r="E8" s="17">
-        <v>29.06</v>
+        <v>7.12</v>
       </c>
       <c r="F8" s="17">
-        <v>29.49</v>
+        <v>7.44</v>
       </c>
       <c r="G8" s="17">
-        <v>29.69</v>
+        <v>7.74</v>
       </c>
       <c r="H8" s="17">
-        <v>17.54</v>
+        <v>5.47</v>
       </c>
       <c r="I8" s="17">
-        <v>48.5</v>
+        <v>9.59</v>
       </c>
       <c r="J8" s="27">
         <f>(G8-H8)/H8</f>
-        <v>0.692702394526796</v>
+        <v>0.414990859232176</v>
       </c>
       <c r="K8" s="27">
         <f>(I8-G8)/I8</f>
-        <v>0.387835051546392</v>
+        <v>0.192909280500521</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17">
-        <v>24.11</v>
+        <v>6.06</v>
       </c>
       <c r="N8" s="17">
-        <v>38.16</v>
+        <v>8.34</v>
       </c>
       <c r="O8" s="17">
-        <v>25.12</v>
+        <v>6.68</v>
       </c>
       <c r="P8" s="17">
-        <v>30.9</v>
+        <v>7.95</v>
       </c>
       <c r="Q8" s="17">
-        <v>29.2</v>
+        <v>7.31</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
@@ -4541,17 +4516,17 @@
       </c>
       <c r="Y8" s="35">
         <f>(I8-M8)/I8</f>
-        <v>0.502886597938144</v>
+        <v>0.368091762252346</v>
       </c>
       <c r="Z8" s="36">
         <f>(N8-O8)/N8</f>
-        <v>0.341719077568134</v>
+        <v>0.199040767386091</v>
       </c>
       <c r="AA8" s="36">
         <f>(P8-Q8)/P8</f>
-        <v>0.0550161812297734</v>
+        <v>0.0805031446540881</v>
       </c>
-      <c r="AB8" s="36"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17" t="s">
@@ -4561,51 +4536,51 @@
         <v>85</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AI8" s="17">
-        <v>32.43</v>
+        <v>8.43</v>
       </c>
       <c r="AJ8" s="17">
-        <v>26.16</v>
+        <v>6.78</v>
       </c>
       <c r="AK8" s="23">
         <f>AI8-AJ8</f>
-        <v>6.27</v>
+        <v>1.65</v>
       </c>
       <c r="AL8" s="17">
-        <v>30.9</v>
+        <v>8.08</v>
       </c>
       <c r="AM8" s="17">
-        <v>29.35</v>
+        <v>7.66</v>
       </c>
       <c r="AN8" s="17">
-        <v>38.71</v>
+        <v>9.31</v>
       </c>
       <c r="AO8" s="22">
         <f>(AL8-AM8)*100</f>
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="AP8" s="17">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AQ8" s="44">
         <f>(AN8-AL8)/(AL8-AM8)</f>
-        <v>5.03870967741937</v>
+        <v>2.92857142857143</v>
       </c>
       <c r="AR8" s="45">
         <f>(AL8-AM8)/AL8</f>
-        <v>0.0501618122977345</v>
+        <v>0.051980198019802</v>
       </c>
       <c r="AS8" s="45">
         <f>(AN8-AL8)/AL8</f>
-        <v>0.252750809061489</v>
+        <v>0.152227722772277</v>
       </c>
       <c r="AT8" s="17">
-        <v>38.46</v>
+        <v>32.3</v>
       </c>
       <c r="AU8" s="17"/>
       <c r="AV8" s="17"/>
@@ -4626,135 +4601,52 @@
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
     </row>
-    <row r="9" ht="48" spans="1:64">
-      <c r="A9" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="18">
-        <v>44522</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.01</v>
-      </c>
-      <c r="E9" s="17">
-        <v>7.12</v>
-      </c>
-      <c r="F9" s="17">
-        <v>7.44</v>
-      </c>
-      <c r="G9" s="17">
-        <v>7.74</v>
-      </c>
-      <c r="H9" s="17">
-        <v>5.47</v>
-      </c>
-      <c r="I9" s="17">
-        <v>9.59</v>
-      </c>
-      <c r="J9" s="27">
-        <f>(G9-H9)/H9</f>
-        <v>0.414990859232176</v>
-      </c>
-      <c r="K9" s="27">
-        <f>(I9-G9)/I9</f>
-        <v>0.192909280500521</v>
-      </c>
+    <row r="9" spans="1:64">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>6.06</v>
-      </c>
-      <c r="N9" s="17">
-        <v>8.34</v>
-      </c>
-      <c r="O9" s="17">
-        <v>6.68</v>
-      </c>
-      <c r="P9" s="17">
-        <v>7.95</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>7.31</v>
-      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="35">
-        <f>(I9-M9)/I9</f>
-        <v>0.368091762252346</v>
-      </c>
-      <c r="Z9" s="36">
-        <f>(N9-O9)/N9</f>
-        <v>0.199040767386091</v>
-      </c>
-      <c r="AA9" s="36">
-        <f>(P9-Q9)/P9</f>
-        <v>0.0805031446540881</v>
-      </c>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
-      <c r="AE9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI9" s="17">
-        <v>8.43</v>
-      </c>
-      <c r="AJ9" s="17">
-        <v>6.78</v>
-      </c>
-      <c r="AK9" s="23">
-        <f>AI9-AJ9</f>
-        <v>1.65</v>
-      </c>
-      <c r="AL9" s="17">
-        <v>8.08</v>
-      </c>
-      <c r="AM9" s="17">
-        <v>7.66</v>
-      </c>
-      <c r="AN9" s="17">
-        <v>9.31</v>
-      </c>
-      <c r="AO9" s="22">
-        <f>(AL9-AM9)*100</f>
-        <v>42</v>
-      </c>
-      <c r="AP9" s="17">
-        <v>700</v>
-      </c>
-      <c r="AQ9" s="44">
-        <f>(AN9-AL9)/(AL9-AM9)</f>
-        <v>2.92857142857143</v>
-      </c>
-      <c r="AR9" s="45">
-        <f>(AL9-AM9)/AL9</f>
-        <v>0.051980198019802</v>
-      </c>
-      <c r="AS9" s="45">
-        <f>(AN9-AL9)/AL9</f>
-        <v>0.152227722772277</v>
-      </c>
-      <c r="AT9" s="17">
-        <v>32.3</v>
-      </c>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
       <c r="AU9" s="17"/>
       <c r="AV9" s="17"/>
       <c r="AW9" s="17"/>
@@ -35911,50 +35803,6 @@
     </row>
     <row r="489" spans="1:64">
       <c r="A489" s="17"/>
-      <c r="B489" s="17"/>
-      <c r="C489" s="17"/>
-      <c r="D489" s="17"/>
-      <c r="E489" s="17"/>
-      <c r="F489" s="17"/>
-      <c r="G489" s="17"/>
-      <c r="H489" s="17"/>
-      <c r="I489" s="17"/>
-      <c r="J489" s="17"/>
-      <c r="K489" s="17"/>
-      <c r="L489" s="17"/>
-      <c r="M489" s="17"/>
-      <c r="N489" s="17"/>
-      <c r="O489" s="17"/>
-      <c r="P489" s="17"/>
-      <c r="Q489" s="17"/>
-      <c r="R489" s="17"/>
-      <c r="S489" s="17"/>
-      <c r="T489" s="17"/>
-      <c r="U489" s="17"/>
-      <c r="V489" s="17"/>
-      <c r="W489" s="17"/>
-      <c r="X489" s="17"/>
-      <c r="Y489" s="17"/>
-      <c r="Z489" s="17"/>
-      <c r="AA489" s="17"/>
-      <c r="AB489" s="17"/>
-      <c r="AC489" s="17"/>
-      <c r="AD489" s="17"/>
-      <c r="AE489" s="17"/>
-      <c r="AF489" s="17"/>
-      <c r="AG489" s="17"/>
-      <c r="AH489" s="17"/>
-      <c r="AI489" s="17"/>
-      <c r="AJ489" s="17"/>
-      <c r="AK489" s="17"/>
-      <c r="AL489" s="17"/>
-      <c r="AM489" s="17"/>
-      <c r="AN489" s="17"/>
-      <c r="AO489" s="17"/>
-      <c r="AP489" s="17"/>
-      <c r="AQ489" s="17"/>
-      <c r="AR489" s="17"/>
-      <c r="AS489" s="17"/>
       <c r="AU489" s="17"/>
       <c r="AV489" s="17"/>
       <c r="AW489" s="17"/>
@@ -36100,26 +35948,8 @@
       <c r="BK495" s="17"/>
       <c r="BL495" s="17"/>
     </row>
-    <row r="496" spans="1:64">
+    <row r="496" spans="1:1">
       <c r="A496" s="17"/>
-      <c r="AU496" s="17"/>
-      <c r="AV496" s="17"/>
-      <c r="AW496" s="17"/>
-      <c r="AX496" s="17"/>
-      <c r="AY496" s="17"/>
-      <c r="AZ496" s="17"/>
-      <c r="BA496" s="17"/>
-      <c r="BB496" s="17"/>
-      <c r="BC496" s="17"/>
-      <c r="BD496" s="17"/>
-      <c r="BE496" s="17"/>
-      <c r="BF496" s="17"/>
-      <c r="BG496" s="17"/>
-      <c r="BH496" s="17"/>
-      <c r="BI496" s="17"/>
-      <c r="BJ496" s="17"/>
-      <c r="BK496" s="17"/>
-      <c r="BL496" s="17"/>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="17"/>
@@ -36336,9 +36166,6 @@
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="17"/>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -36418,27 +36245,27 @@
   <sheetData>
     <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="CU1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <f>(VLOOKUP(入场指标!A6,入场指标!A4:BL1000,48,FALSE)-VLOOKUP(入场指标!A6,入场指标!A4:BL1000,39,FALSE))*VLOOKUP(入场指标!A6,入场指标!A4:BL1000,42,FALSE)</f>
+        <f>(VLOOKUP(入场指标!A6,入场指标!A4:BL999,48,FALSE)-VLOOKUP(入场指标!A6,入场指标!A4:BL999,39,FALSE))*VLOOKUP(入场指标!A6,入场指标!A4:BL999,42,FALSE)</f>
         <v>181</v>
       </c>
     </row>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -954,10 +954,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1056,22 +1056,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1086,8 +1070,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,17 +1086,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,17 +1148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,30 +1163,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,13 +1264,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,43 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,103 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,6 +1692,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1710,28 +1725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,17 +1755,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,145 +1785,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3317,8 +3317,8 @@
   <sheetPr/>
   <dimension ref="A1:DB568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="$A7:$XFD7 L8 AM8 AL8"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -36231,7 +36231,7 @@
   <dimension ref="A1:CU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="1"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -954,10 +954,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -997,6 +997,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,14 +1051,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,15 +1080,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,72 +1094,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1162,7 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1178,8 +1124,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,13 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,13 +1282,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,61 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,73 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,8 +1686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,6 +1707,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1718,24 +1742,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,28 +1766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,149 +1788,149 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1964,7 +1964,7 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,13 +1973,13 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1988,7 +1988,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,10 +2006,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2021,7 +2021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,13 +2054,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2075,10 +2075,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2093,16 +2093,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2114,7 +2108,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,10 +2117,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2138,7 +2132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2147,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2202,7 +2196,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3317,11 +3311,11 @@
   <sheetPr/>
   <dimension ref="A1:DB568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AP3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="11.9017857142857" customWidth="1"/>
     <col min="3" max="3" width="17.1160714285714" customWidth="1"/>
@@ -3415,57 +3409,57 @@
       <c r="AZ1" s="46"/>
       <c r="BA1" s="46"/>
       <c r="BB1" s="46"/>
-      <c r="BC1" s="60" t="s">
+      <c r="BC1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="64" t="s">
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="64"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BW1" s="69"/>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
-      <c r="CB1" s="69"/>
-      <c r="CC1" s="69"/>
-      <c r="CD1" s="69"/>
-      <c r="CF1" s="69"/>
-      <c r="CG1" s="69"/>
-      <c r="CH1" s="69"/>
-      <c r="CI1" s="69"/>
-      <c r="CJ1" s="69"/>
-      <c r="CK1" s="69"/>
-      <c r="CL1" s="69"/>
-      <c r="CN1" s="69"/>
-      <c r="CO1" s="69"/>
-      <c r="CP1" s="69"/>
-      <c r="CQ1" s="69"/>
-      <c r="CR1" s="69"/>
-      <c r="CS1" s="69"/>
-      <c r="CT1" s="69"/>
-      <c r="CV1" s="69"/>
-      <c r="CW1" s="69"/>
-      <c r="CX1" s="69"/>
-      <c r="CY1" s="69"/>
-      <c r="CZ1" s="69"/>
-      <c r="DA1" s="69"/>
-      <c r="DB1" s="69"/>
+      <c r="BL1" s="62"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CN1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="67"/>
+      <c r="CT1" s="67"/>
+      <c r="CV1" s="67"/>
+      <c r="CW1" s="67"/>
+      <c r="CX1" s="67"/>
+      <c r="CY1" s="67"/>
+      <c r="CZ1" s="67"/>
+      <c r="DA1" s="67"/>
+      <c r="DB1" s="67"/>
     </row>
     <row r="2" ht="23.6" spans="1:106">
       <c r="A2" s="3"/>
@@ -3584,74 +3578,74 @@
       <c r="BB2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="61" t="s">
+      <c r="BC2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="61" t="s">
+      <c r="BD2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="61" t="s">
+      <c r="BE2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="61" t="s">
+      <c r="BF2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="61" t="s">
+      <c r="BG2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="61" t="s">
+      <c r="BH2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BI2" s="61" t="s">
+      <c r="BI2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="BJ2" s="61" t="s">
+      <c r="BJ2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="65" t="s">
+      <c r="BK2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="65" t="s">
+      <c r="BL2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="67"/>
-      <c r="BT2" s="67"/>
-      <c r="BU2" s="67"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="69"/>
-      <c r="CK2" s="69"/>
-      <c r="CL2" s="69"/>
-      <c r="CN2" s="69"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CR2" s="69"/>
-      <c r="CS2" s="69"/>
-      <c r="CT2" s="69"/>
-      <c r="CV2" s="69"/>
-      <c r="CW2" s="69"/>
-      <c r="CX2" s="69"/>
-      <c r="CY2" s="69"/>
-      <c r="CZ2" s="69"/>
-      <c r="DA2" s="69"/>
-      <c r="DB2" s="69"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
+      <c r="BR2" s="65"/>
+      <c r="BS2" s="65"/>
+      <c r="BT2" s="65"/>
+      <c r="BU2" s="65"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="67"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="67"/>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="67"/>
+      <c r="CF2" s="67"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67"/>
+      <c r="CI2" s="67"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CN2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
+      <c r="CZ2" s="67"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
     </row>
     <row r="3" ht="25" spans="1:106">
       <c r="A3" s="3"/>
@@ -3756,57 +3750,57 @@
       <c r="AZ3" s="49"/>
       <c r="BA3" s="49"/>
       <c r="BB3" s="52"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67"/>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="67"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
     </row>
     <row r="4" ht="36" spans="1:64">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="10">
@@ -3834,11 +3828,11 @@
         <v>46.33</v>
       </c>
       <c r="J4" s="27">
-        <f>(G4-H4)/H4</f>
+        <f t="shared" ref="J4:J8" si="0">(G4-H4)/H4</f>
         <v>3.70695970695971</v>
       </c>
       <c r="K4" s="27">
-        <f>(I4-G4)/I4</f>
+        <f t="shared" ref="K4:K8" si="1">(I4-G4)/I4</f>
         <v>0.445283833369307</v>
       </c>
       <c r="L4" s="28"/>
@@ -3871,15 +3865,15 @@
         <v>72</v>
       </c>
       <c r="Y4" s="35">
-        <f>(I4-M4)/I4</f>
+        <f t="shared" ref="Y4:Y8" si="2">(I4-M4)/I4</f>
         <v>0.551262680768401</v>
       </c>
       <c r="Z4" s="35">
-        <f>(N4-O4)/N4</f>
+        <f t="shared" ref="Z4:Z8" si="3">(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
       <c r="AA4" s="35">
-        <f>(P4-Q4)/P4</f>
+        <f t="shared" ref="AA4:AA8" si="4">(P4-Q4)/P4</f>
         <v>0.120922832140016</v>
       </c>
       <c r="AB4" s="35">
@@ -3887,7 +3881,7 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="AC4" s="35" t="e">
-        <f>(T4-U4)/T4</f>
+        <f t="shared" ref="AC4:AC6" si="5">(T4-U4)/T4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="28"/>
@@ -3910,7 +3904,7 @@
         <v>21.87</v>
       </c>
       <c r="AK4" s="23">
-        <f>AI4-AJ4</f>
+        <f t="shared" ref="AK4:AK8" si="6">AI4-AJ4</f>
         <v>6.28</v>
       </c>
       <c r="AL4" s="22">
@@ -3923,36 +3917,55 @@
         <v>32.49</v>
       </c>
       <c r="AO4" s="22">
-        <f>(AL4-AM4)*100</f>
+        <f t="shared" ref="AO4:AO8" si="7">(AL4-AM4)*100</f>
         <v>152</v>
       </c>
       <c r="AP4" s="22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AQ4" s="44">
-        <f>(AN4-AL4)/(AL4-AM4)</f>
+        <f t="shared" ref="AQ4:AQ8" si="8">(AN4-AL4)/(AL4-AM4)</f>
         <v>4.13815789473685</v>
       </c>
       <c r="AR4" s="27">
-        <f>(AL4-AM4)/AL4</f>
+        <f t="shared" ref="AR4:AR8" si="9">(AL4-AM4)/AL4</f>
         <v>0.0580152671755725</v>
       </c>
       <c r="AS4" s="27">
-        <f>(AN4-AL4)/AL4</f>
+        <f t="shared" ref="AS4:AS8" si="10">(AN4-AL4)/AL4</f>
         <v>0.240076335877863</v>
       </c>
       <c r="AT4" s="53">
         <v>150.88</v>
       </c>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="57"/>
+      <c r="AU4" s="18">
+        <v>44523</v>
+      </c>
+      <c r="AV4" s="54">
+        <v>26.2</v>
+      </c>
+      <c r="AW4" s="54">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="56">
+        <f>AV4*AP4*0.2/10000</f>
+        <v>0.1048</v>
+      </c>
+      <c r="AY4" s="57">
+        <f>AV4*AP4+AW4+AX4</f>
+        <v>5245.1048</v>
+      </c>
+      <c r="AZ4" s="54">
+        <v>26.5</v>
+      </c>
+      <c r="BA4" s="54">
+        <v>25.21</v>
+      </c>
+      <c r="BB4" s="61">
+        <f>(AZ4-AV4)/(AZ4-BA4)</f>
+        <v>0.232558139534884</v>
+      </c>
+      <c r="BC4" s="54"/>
       <c r="BD4" s="17"/>
       <c r="BE4" s="17"/>
       <c r="BF4" s="17"/>
@@ -3964,7 +3977,7 @@
       <c r="BL4" s="17"/>
     </row>
     <row r="5" ht="36" spans="1:64">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="13">
@@ -3992,11 +4005,11 @@
         <v>44.42</v>
       </c>
       <c r="J5" s="27">
-        <f>(G5-H5)/H5</f>
+        <f t="shared" si="0"/>
         <v>0.467798085291558</v>
       </c>
       <c r="K5" s="27">
-        <f>(I5-G5)/I5</f>
+        <f t="shared" si="1"/>
         <v>0.240657361548852</v>
       </c>
       <c r="L5" s="29"/>
@@ -4029,15 +4042,15 @@
         <v>72</v>
       </c>
       <c r="Y5" s="35">
-        <f>(I5-M5)/I5</f>
+        <f t="shared" si="2"/>
         <v>0.307068887888339</v>
       </c>
       <c r="Z5" s="36">
-        <f>(N5-O5)/N5</f>
+        <f t="shared" si="3"/>
         <v>0.106571428571429</v>
       </c>
       <c r="AA5" s="36">
-        <f>(P5-Q5)/P5</f>
+        <f t="shared" si="4"/>
         <v>0.077541642734061</v>
       </c>
       <c r="AB5" s="36">
@@ -4045,7 +4058,7 @@
         <v>0.0463207270595133</v>
       </c>
       <c r="AC5" s="35" t="e">
-        <f>(T5-U5)/T5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD5" s="28"/>
@@ -4068,7 +4081,7 @@
         <v>31.36</v>
       </c>
       <c r="AK5" s="23">
-        <f>AI5-AJ5</f>
+        <f t="shared" si="6"/>
         <v>4.12</v>
       </c>
       <c r="AL5" s="23">
@@ -4081,48 +4094,55 @@
         <v>39.33</v>
       </c>
       <c r="AO5" s="22">
-        <f>(AL5-AM5)*100</f>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
       <c r="AP5" s="23">
         <v>100</v>
       </c>
       <c r="AQ5" s="44">
-        <f>(AN5-AL5)/(AL5-AM5)</f>
+        <f t="shared" si="8"/>
         <v>3.27672955974844</v>
       </c>
       <c r="AR5" s="45">
-        <f>(AL5-AM5)/AL5</f>
+        <f t="shared" si="9"/>
         <v>0.0466002344665884</v>
       </c>
       <c r="AS5" s="45">
-        <f>(AN5-AL5)/AL5</f>
+        <f t="shared" si="10"/>
         <v>0.152696365767878</v>
       </c>
-      <c r="AT5" s="56">
+      <c r="AT5" s="55">
         <v>37.41</v>
       </c>
-      <c r="AU5" s="54">
+      <c r="AU5" s="18">
         <v>44523</v>
       </c>
-      <c r="AV5" s="55">
+      <c r="AV5" s="54">
         <v>33.73</v>
       </c>
-      <c r="AW5" s="57">
+      <c r="AW5" s="54">
         <v>5</v>
       </c>
-      <c r="AX5" s="58">
+      <c r="AX5" s="56">
         <f>AV5*AP5*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="AY5" s="59">
+      <c r="AY5" s="57">
         <f>AV5*AP5+AW5+AX5</f>
         <v>3378.06746</v>
       </c>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="57"/>
+      <c r="AZ5" s="54">
+        <v>35.36</v>
+      </c>
+      <c r="BA5" s="54">
+        <v>33.1</v>
+      </c>
+      <c r="BB5" s="61">
+        <f>(AZ5-AV5)/(AZ5-BA5)</f>
+        <v>0.721238938053099</v>
+      </c>
+      <c r="BC5" s="54"/>
       <c r="BD5" s="17"/>
       <c r="BE5" s="17"/>
       <c r="BF5" s="17"/>
@@ -4133,8 +4153,8 @@
       <c r="BK5" s="17"/>
       <c r="BL5" s="17"/>
     </row>
-    <row r="6" ht="48" spans="1:64">
-      <c r="A6" s="70" t="s">
+    <row r="6" ht="36" spans="1:64">
+      <c r="A6" s="68" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="13">
@@ -4162,11 +4182,11 @@
         <v>41.5</v>
       </c>
       <c r="J6" s="27">
-        <f>(G6-H6)/H6</f>
+        <f t="shared" si="0"/>
         <v>0.58030082484231</v>
       </c>
       <c r="K6" s="27">
-        <f>(I6-G6)/I6</f>
+        <f t="shared" si="1"/>
         <v>0.215180722891566</v>
       </c>
       <c r="L6" s="29"/>
@@ -4197,20 +4217,20 @@
         <v>83</v>
       </c>
       <c r="Y6" s="35">
-        <f>(I6-M6)/I6</f>
+        <f t="shared" si="2"/>
         <v>0.315180722891566</v>
       </c>
       <c r="Z6" s="36">
-        <f>(N6-O6)/N6</f>
+        <f t="shared" si="3"/>
         <v>0.164265129682997</v>
       </c>
       <c r="AA6" s="36">
-        <f>(P6-Q6)/P6</f>
+        <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
       <c r="AB6" s="36"/>
       <c r="AC6" s="35" t="e">
-        <f>(T6-U6)/T6</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="28"/>
@@ -4233,7 +4253,7 @@
         <v>27.35</v>
       </c>
       <c r="AK6" s="23">
-        <f>AI6-AJ6</f>
+        <f t="shared" si="6"/>
         <v>8.86</v>
       </c>
       <c r="AL6" s="23">
@@ -4246,55 +4266,55 @@
         <v>36.22</v>
       </c>
       <c r="AO6" s="22">
-        <f>(AL6-AM6)*100</f>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="AP6" s="23">
         <v>100</v>
       </c>
       <c r="AQ6" s="44">
-        <f>(AN6-AL6)/(AL6-AM6)</f>
+        <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
       <c r="AR6" s="45">
-        <f>(AL6-AM6)/AL6</f>
+        <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
       <c r="AS6" s="45">
-        <f>(AN6-AL6)/AL6</f>
+        <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="AT6" s="56">
+      <c r="AT6" s="55">
         <v>28.82</v>
       </c>
-      <c r="AU6" s="54">
+      <c r="AU6" s="18">
         <v>44522</v>
       </c>
-      <c r="AV6" s="55">
+      <c r="AV6" s="54">
         <v>32.7</v>
       </c>
-      <c r="AW6" s="57">
+      <c r="AW6" s="54">
         <v>5</v>
       </c>
-      <c r="AX6" s="58">
+      <c r="AX6" s="56">
         <f>AV6*AP6*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="AY6" s="59">
+      <c r="AY6" s="57">
         <f>AV6*AP6+AW6+AX6</f>
         <v>3275.0654</v>
       </c>
-      <c r="AZ6" s="59">
+      <c r="AZ6" s="57">
         <v>33.9</v>
       </c>
-      <c r="BA6" s="59">
+      <c r="BA6" s="57">
         <v>32.49</v>
       </c>
-      <c r="BB6" s="63">
+      <c r="BB6" s="61">
         <f>(AZ6-AV6)/(AZ6-BA6)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BC6" s="57"/>
+      <c r="BC6" s="54"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="17"/>
       <c r="BF6" s="17"/>
@@ -4305,8 +4325,8 @@
       <c r="BK6" s="17"/>
       <c r="BL6" s="17"/>
     </row>
-    <row r="7" ht="48" spans="1:64">
-      <c r="A7" s="71" t="s">
+    <row r="7" ht="36" spans="1:64">
+      <c r="A7" s="69" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="18">
@@ -4334,11 +4354,11 @@
         <v>48.5</v>
       </c>
       <c r="J7" s="27">
-        <f>(G7-H7)/H7</f>
+        <f t="shared" si="0"/>
         <v>0.692702394526796</v>
       </c>
       <c r="K7" s="27">
-        <f>(I7-G7)/I7</f>
+        <f t="shared" si="1"/>
         <v>0.387835051546392</v>
       </c>
       <c r="L7" s="17"/>
@@ -4367,15 +4387,15 @@
         <v>72</v>
       </c>
       <c r="Y7" s="35">
-        <f>(I7-M7)/I7</f>
+        <f t="shared" si="2"/>
         <v>0.502886597938144</v>
       </c>
       <c r="Z7" s="36">
-        <f>(N7-O7)/N7</f>
+        <f t="shared" si="3"/>
         <v>0.341719077568134</v>
       </c>
       <c r="AA7" s="36">
-        <f>(P7-Q7)/P7</f>
+        <f t="shared" si="4"/>
         <v>0.0550161812297734</v>
       </c>
       <c r="AB7" s="36"/>
@@ -4400,7 +4420,7 @@
         <v>26.16</v>
       </c>
       <c r="AK7" s="23">
-        <f>AI7-AJ7</f>
+        <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
       <c r="AL7" s="17">
@@ -4413,22 +4433,22 @@
         <v>38.71</v>
       </c>
       <c r="AO7" s="22">
-        <f>(AL7-AM7)*100</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="AP7" s="17">
         <v>200</v>
       </c>
       <c r="AQ7" s="44">
-        <f>(AN7-AL7)/(AL7-AM7)</f>
+        <f t="shared" si="8"/>
         <v>5.03870967741937</v>
       </c>
       <c r="AR7" s="45">
-        <f>(AL7-AM7)/AL7</f>
+        <f t="shared" si="9"/>
         <v>0.0501618122977345</v>
       </c>
       <c r="AS7" s="45">
-        <f>(AN7-AL7)/AL7</f>
+        <f t="shared" si="10"/>
         <v>0.252750809061489</v>
       </c>
       <c r="AT7" s="17">
@@ -4453,14 +4473,14 @@
       <c r="BK7" s="17"/>
       <c r="BL7" s="17"/>
     </row>
-    <row r="8" ht="48" spans="1:64">
-      <c r="A8" s="71" t="s">
+    <row r="8" ht="36" spans="1:64">
+      <c r="A8" s="69" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="18">
         <v>44522</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="70" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="17">
@@ -4482,11 +4502,11 @@
         <v>9.59</v>
       </c>
       <c r="J8" s="27">
-        <f>(G8-H8)/H8</f>
+        <f t="shared" si="0"/>
         <v>0.414990859232176</v>
       </c>
       <c r="K8" s="27">
-        <f>(I8-G8)/I8</f>
+        <f t="shared" si="1"/>
         <v>0.192909280500521</v>
       </c>
       <c r="L8" s="17"/>
@@ -4515,15 +4535,15 @@
         <v>72</v>
       </c>
       <c r="Y8" s="35">
-        <f>(I8-M8)/I8</f>
+        <f t="shared" si="2"/>
         <v>0.368091762252346</v>
       </c>
       <c r="Z8" s="36">
-        <f>(N8-O8)/N8</f>
+        <f t="shared" si="3"/>
         <v>0.199040767386091</v>
       </c>
       <c r="AA8" s="36">
-        <f>(P8-Q8)/P8</f>
+        <f t="shared" si="4"/>
         <v>0.0805031446540881</v>
       </c>
       <c r="AB8" s="17"/>
@@ -4548,7 +4568,7 @@
         <v>6.78</v>
       </c>
       <c r="AK8" s="23">
-        <f>AI8-AJ8</f>
+        <f t="shared" si="6"/>
         <v>1.65</v>
       </c>
       <c r="AL8" s="17">
@@ -4561,22 +4581,22 @@
         <v>9.31</v>
       </c>
       <c r="AO8" s="22">
-        <f>(AL8-AM8)*100</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AP8" s="17">
         <v>700</v>
       </c>
       <c r="AQ8" s="44">
-        <f>(AN8-AL8)/(AL8-AM8)</f>
+        <f t="shared" si="8"/>
         <v>2.92857142857143</v>
       </c>
       <c r="AR8" s="45">
-        <f>(AL8-AM8)/AL8</f>
+        <f t="shared" si="9"/>
         <v>0.051980198019802</v>
       </c>
       <c r="AS8" s="45">
-        <f>(AN8-AL8)/AL8</f>
+        <f t="shared" si="10"/>
         <v>0.152227722772277</v>
       </c>
       <c r="AT8" s="17">
@@ -36219,6 +36239,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="603867(新化股份)"/>
+    <hyperlink ref="C5" r:id="rId2" display="600085(同仁堂)"/>
+    <hyperlink ref="C4" r:id="rId3" display="003040(楚天龙)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -36234,7 +36256,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.0803571428571" customWidth="1"/>
     <col min="2" max="2" width="20.3839285714286" customWidth="1"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>交易编码</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>入场费用合计
 (入场价格*交易规模+交易佣金+杂费)</t>
+  </si>
+  <si>
+    <t>真实暴露风险</t>
   </si>
   <si>
     <t>入场当日最高价</t>
@@ -2108,10 +2111,10 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2120,14 +2123,14 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3306,10 +3309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DB568"/>
+  <dimension ref="A1:DC568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3333,19 +3336,19 @@
     <col min="46" max="47" width="10.2589285714286" customWidth="1"/>
     <col min="48" max="48" width="13.2410714285714" customWidth="1"/>
     <col min="49" max="51" width="19.7946428571429" customWidth="1"/>
-    <col min="52" max="52" width="15.6160714285714" customWidth="1"/>
-    <col min="53" max="53" width="14.4285714285714" customWidth="1"/>
-    <col min="54" max="54" width="16.6607142857143" customWidth="1"/>
-    <col min="55" max="55" width="13.2410714285714" customWidth="1"/>
-    <col min="56" max="56" width="13.9821428571429" customWidth="1"/>
-    <col min="57" max="57" width="19.0446428571429" customWidth="1"/>
-    <col min="58" max="58" width="21.5803571428571" customWidth="1"/>
-    <col min="59" max="61" width="20.375" customWidth="1"/>
-    <col min="62" max="63" width="21.4196428571429" customWidth="1"/>
-    <col min="64" max="64" width="26.9285714285714" customWidth="1"/>
+    <col min="52" max="53" width="15.6160714285714" customWidth="1"/>
+    <col min="54" max="54" width="14.4285714285714" customWidth="1"/>
+    <col min="55" max="55" width="16.6607142857143" customWidth="1"/>
+    <col min="56" max="56" width="13.2410714285714" customWidth="1"/>
+    <col min="57" max="57" width="13.9821428571429" customWidth="1"/>
+    <col min="58" max="58" width="19.0446428571429" customWidth="1"/>
+    <col min="59" max="59" width="21.5803571428571" customWidth="1"/>
+    <col min="60" max="62" width="20.375" customWidth="1"/>
+    <col min="63" max="64" width="21.4196428571429" customWidth="1"/>
+    <col min="65" max="65" width="26.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:106">
+    <row r="1" ht="23.6" spans="1:107">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3406,29 +3409,29 @@
       <c r="AZ1" s="45"/>
       <c r="BA1" s="45"/>
       <c r="BB1" s="45"/>
-      <c r="BC1" s="57" t="s">
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="BD1" s="57"/>
       <c r="BE1" s="57"/>
       <c r="BF1" s="57"/>
       <c r="BG1" s="57"/>
       <c r="BH1" s="57"/>
       <c r="BI1" s="57"/>
       <c r="BJ1" s="57"/>
-      <c r="BK1" s="61" t="s">
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="61"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BW1" s="66"/>
+      <c r="BM1" s="61"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
       <c r="BX1" s="66"/>
       <c r="BY1" s="66"/>
       <c r="BZ1" s="66"/>
@@ -3436,29 +3439,30 @@
       <c r="CB1" s="66"/>
       <c r="CC1" s="66"/>
       <c r="CD1" s="66"/>
-      <c r="CF1" s="66"/>
+      <c r="CE1" s="66"/>
       <c r="CG1" s="66"/>
       <c r="CH1" s="66"/>
       <c r="CI1" s="66"/>
       <c r="CJ1" s="66"/>
       <c r="CK1" s="66"/>
       <c r="CL1" s="66"/>
-      <c r="CN1" s="66"/>
+      <c r="CM1" s="66"/>
       <c r="CO1" s="66"/>
       <c r="CP1" s="66"/>
       <c r="CQ1" s="66"/>
       <c r="CR1" s="66"/>
       <c r="CS1" s="66"/>
       <c r="CT1" s="66"/>
-      <c r="CV1" s="66"/>
+      <c r="CU1" s="66"/>
       <c r="CW1" s="66"/>
       <c r="CX1" s="66"/>
       <c r="CY1" s="66"/>
       <c r="CZ1" s="66"/>
       <c r="DA1" s="66"/>
       <c r="DB1" s="66"/>
-    </row>
-    <row r="2" ht="23.6" spans="1:106">
+      <c r="DC1" s="66"/>
+    </row>
+    <row r="2" ht="23.6" spans="1:107">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3575,7 +3579,7 @@
       <c r="BB2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="58" t="s">
+      <c r="BC2" s="48" t="s">
         <v>36</v>
       </c>
       <c r="BD2" s="58" t="s">
@@ -3599,22 +3603,24 @@
       <c r="BJ2" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="62" t="s">
+      <c r="BK2" s="58" t="s">
         <v>44</v>
       </c>
       <c r="BL2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="65"/>
+      <c r="BM2" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BW2" s="66"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
       <c r="BX2" s="66"/>
       <c r="BY2" s="66"/>
       <c r="BZ2" s="66"/>
@@ -3622,29 +3628,30 @@
       <c r="CB2" s="66"/>
       <c r="CC2" s="66"/>
       <c r="CD2" s="66"/>
-      <c r="CF2" s="66"/>
+      <c r="CE2" s="66"/>
       <c r="CG2" s="66"/>
       <c r="CH2" s="66"/>
       <c r="CI2" s="66"/>
       <c r="CJ2" s="66"/>
       <c r="CK2" s="66"/>
       <c r="CL2" s="66"/>
-      <c r="CN2" s="66"/>
+      <c r="CM2" s="66"/>
       <c r="CO2" s="66"/>
       <c r="CP2" s="66"/>
       <c r="CQ2" s="66"/>
       <c r="CR2" s="66"/>
       <c r="CS2" s="66"/>
       <c r="CT2" s="66"/>
-      <c r="CV2" s="66"/>
+      <c r="CU2" s="66"/>
       <c r="CW2" s="66"/>
       <c r="CX2" s="66"/>
       <c r="CY2" s="66"/>
       <c r="CZ2" s="66"/>
       <c r="DA2" s="66"/>
       <c r="DB2" s="66"/>
-    </row>
-    <row r="3" ht="25" spans="1:106">
+      <c r="DC2" s="66"/>
+    </row>
+    <row r="3" ht="25" spans="1:107">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3658,77 +3665,77 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X3" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA3" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH3" s="20"/>
       <c r="AI3" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -3746,27 +3753,27 @@
       <c r="AY3" s="48"/>
       <c r="AZ3" s="48"/>
       <c r="BA3" s="48"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="58"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
       <c r="BI3" s="58"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="63"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="62"/>
       <c r="BM3" s="65"/>
       <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
-      <c r="BU3" s="64"/>
-      <c r="BW3" s="66"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="63"/>
+      <c r="BS3" s="63"/>
+      <c r="BT3" s="63"/>
+      <c r="BU3" s="63"/>
+      <c r="BV3" s="63"/>
       <c r="BX3" s="66"/>
       <c r="BY3" s="66"/>
       <c r="BZ3" s="66"/>
@@ -3774,37 +3781,38 @@
       <c r="CB3" s="66"/>
       <c r="CC3" s="66"/>
       <c r="CD3" s="66"/>
-      <c r="CF3" s="66"/>
+      <c r="CE3" s="66"/>
       <c r="CG3" s="66"/>
       <c r="CH3" s="66"/>
       <c r="CI3" s="66"/>
       <c r="CJ3" s="66"/>
       <c r="CK3" s="66"/>
       <c r="CL3" s="66"/>
-      <c r="CN3" s="66"/>
+      <c r="CM3" s="66"/>
       <c r="CO3" s="66"/>
       <c r="CP3" s="66"/>
       <c r="CQ3" s="66"/>
       <c r="CR3" s="66"/>
       <c r="CS3" s="66"/>
       <c r="CT3" s="66"/>
-      <c r="CV3" s="66"/>
+      <c r="CU3" s="66"/>
       <c r="CW3" s="66"/>
       <c r="CX3" s="66"/>
       <c r="CY3" s="66"/>
       <c r="CZ3" s="66"/>
       <c r="DA3" s="66"/>
       <c r="DB3" s="66"/>
-    </row>
-    <row r="4" ht="36" spans="1:64">
+      <c r="DC3" s="66"/>
+    </row>
+    <row r="4" ht="36" spans="1:65">
       <c r="A4" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10">
         <v>44517</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="12">
         <v>22.15</v>
@@ -3859,7 +3867,7 @@
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="34">
         <f t="shared" ref="Y4:Y8" si="2">(I4-M4)/I4</f>
@@ -3883,16 +3891,16 @@
       </c>
       <c r="AD4" s="27"/>
       <c r="AE4" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF4" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" s="21">
         <v>28.15</v>
@@ -3952,18 +3960,21 @@
         <f>AV4*AP4+AW4+AX4</f>
         <v>5245.1048</v>
       </c>
-      <c r="AZ4" s="53">
+      <c r="AZ4" s="56">
+        <f>(AV4-AM4)*AP4+AW4+AX4</f>
+        <v>309.1048</v>
+      </c>
+      <c r="BA4" s="53">
         <v>26.5</v>
       </c>
-      <c r="BA4" s="53">
+      <c r="BB4" s="53">
         <v>25.21</v>
       </c>
-      <c r="BB4" s="60">
-        <f>(AZ4-AV4)/(AZ4-BA4)</f>
+      <c r="BC4" s="59">
+        <f>(BA4-AV4)/(BA4-BB4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="16"/>
+      <c r="BD4" s="53"/>
       <c r="BE4" s="16"/>
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
@@ -3972,16 +3983,17 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
       <c r="BL4" s="16"/>
-    </row>
-    <row r="5" ht="36" spans="1:64">
+      <c r="BM4" s="16"/>
+    </row>
+    <row r="5" ht="36" spans="1:65">
       <c r="A5" s="67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="13">
         <v>44517</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="15">
         <v>31.92</v>
@@ -4036,7 +4048,7 @@
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
       <c r="X5" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" s="34">
         <f t="shared" si="2"/>
@@ -4060,16 +4072,16 @@
       </c>
       <c r="AD5" s="27"/>
       <c r="AE5" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" s="22">
         <v>35.48</v>
@@ -4129,18 +4141,21 @@
         <f>AV5*AP5+AW5+AX5</f>
         <v>3378.06746</v>
       </c>
-      <c r="AZ5" s="53">
+      <c r="AZ5" s="56">
+        <f>(AV5-AM5)*AP5+AW5+AX5</f>
+        <v>125.06746</v>
+      </c>
+      <c r="BA5" s="53">
         <v>35.36</v>
       </c>
-      <c r="BA5" s="53">
+      <c r="BB5" s="53">
         <v>33.1</v>
       </c>
-      <c r="BB5" s="60">
-        <f>(AZ5-AV5)/(AZ5-BA5)</f>
+      <c r="BC5" s="59">
+        <f>(BA5-AV5)/(BA5-BB5)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="16"/>
+      <c r="BD5" s="53"/>
       <c r="BE5" s="16"/>
       <c r="BF5" s="16"/>
       <c r="BG5" s="16"/>
@@ -4149,16 +4164,17 @@
       <c r="BJ5" s="16"/>
       <c r="BK5" s="16"/>
       <c r="BL5" s="16"/>
-    </row>
-    <row r="6" ht="36" spans="1:64">
+      <c r="BM5" s="16"/>
+    </row>
+    <row r="6" ht="36" spans="1:65">
       <c r="A6" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="13">
         <v>44519</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="15">
         <v>28.2</v>
@@ -4211,7 +4227,7 @@
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
       <c r="X6" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="34">
         <f t="shared" si="2"/>
@@ -4232,16 +4248,16 @@
       </c>
       <c r="AD6" s="27"/>
       <c r="AE6" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" s="22">
         <v>36.21</v>
@@ -4302,17 +4318,20 @@
         <v>3275.0654</v>
       </c>
       <c r="AZ6" s="56">
+        <f>(AV6-AM6)*AP6+AW6+AX6</f>
+        <v>186.0654</v>
+      </c>
+      <c r="BA6" s="56">
         <v>33.9</v>
       </c>
-      <c r="BA6" s="56">
+      <c r="BB6" s="56">
         <v>32.49</v>
       </c>
-      <c r="BB6" s="60">
-        <f>(AZ6-AV6)/(AZ6-BA6)</f>
+      <c r="BC6" s="59">
+        <f>(BA6-AV6)/(BA6-BB6)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="16"/>
+      <c r="BD6" s="53"/>
       <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
@@ -4321,16 +4340,17 @@
       <c r="BJ6" s="16"/>
       <c r="BK6" s="16"/>
       <c r="BL6" s="16"/>
-    </row>
-    <row r="7" ht="36" spans="1:64">
+      <c r="BM6" s="16"/>
+    </row>
+    <row r="7" ht="36" spans="1:65">
       <c r="A7" s="68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="17">
         <v>44522</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="16">
         <v>28.37</v>
@@ -4381,7 +4401,7 @@
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" s="34">
         <f t="shared" si="2"/>
@@ -4399,16 +4419,16 @@
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" s="16">
         <v>32.43</v>
@@ -4469,16 +4489,17 @@
       <c r="BJ7" s="16"/>
       <c r="BK7" s="16"/>
       <c r="BL7" s="16"/>
-    </row>
-    <row r="8" ht="36" spans="1:64">
+      <c r="BM7" s="16"/>
+    </row>
+    <row r="8" ht="36" spans="1:65">
       <c r="A8" s="68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="17">
         <v>44522</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="16">
         <v>7.01</v>
@@ -4529,7 +4550,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="34">
         <f t="shared" si="2"/>
@@ -4547,16 +4568,16 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" s="16">
         <v>8.43</v>
@@ -4617,8 +4638,9 @@
       <c r="BJ8" s="16"/>
       <c r="BK8" s="16"/>
       <c r="BL8" s="16"/>
-    </row>
-    <row r="9" spans="1:64">
+      <c r="BM8" s="16"/>
+    </row>
+    <row r="9" spans="1:65">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -4682,8 +4704,9 @@
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
-    </row>
-    <row r="10" spans="1:64">
+      <c r="BM9" s="16"/>
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4747,8 +4770,9 @@
       <c r="BJ10" s="16"/>
       <c r="BK10" s="16"/>
       <c r="BL10" s="16"/>
-    </row>
-    <row r="11" spans="1:64">
+      <c r="BM10" s="16"/>
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4812,8 +4836,9 @@
       <c r="BJ11" s="16"/>
       <c r="BK11" s="16"/>
       <c r="BL11" s="16"/>
-    </row>
-    <row r="12" spans="1:64">
+      <c r="BM11" s="16"/>
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4877,8 +4902,9 @@
       <c r="BJ12" s="16"/>
       <c r="BK12" s="16"/>
       <c r="BL12" s="16"/>
-    </row>
-    <row r="13" spans="1:64">
+      <c r="BM12" s="16"/>
+    </row>
+    <row r="13" spans="1:65">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4942,8 +4968,9 @@
       <c r="BJ13" s="16"/>
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
-    </row>
-    <row r="14" spans="1:64">
+      <c r="BM13" s="16"/>
+    </row>
+    <row r="14" spans="1:65">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5007,8 +5034,9 @@
       <c r="BJ14" s="16"/>
       <c r="BK14" s="16"/>
       <c r="BL14" s="16"/>
-    </row>
-    <row r="15" spans="1:64">
+      <c r="BM14" s="16"/>
+    </row>
+    <row r="15" spans="1:65">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -5072,8 +5100,9 @@
       <c r="BJ15" s="16"/>
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
-    </row>
-    <row r="16" spans="1:64">
+      <c r="BM15" s="16"/>
+    </row>
+    <row r="16" spans="1:65">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5137,8 +5166,9 @@
       <c r="BJ16" s="16"/>
       <c r="BK16" s="16"/>
       <c r="BL16" s="16"/>
-    </row>
-    <row r="17" spans="1:64">
+      <c r="BM16" s="16"/>
+    </row>
+    <row r="17" spans="1:65">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5202,8 +5232,9 @@
       <c r="BJ17" s="16"/>
       <c r="BK17" s="16"/>
       <c r="BL17" s="16"/>
-    </row>
-    <row r="18" spans="1:64">
+      <c r="BM17" s="16"/>
+    </row>
+    <row r="18" spans="1:65">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -5267,8 +5298,9 @@
       <c r="BJ18" s="16"/>
       <c r="BK18" s="16"/>
       <c r="BL18" s="16"/>
-    </row>
-    <row r="19" spans="1:64">
+      <c r="BM18" s="16"/>
+    </row>
+    <row r="19" spans="1:65">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5332,8 +5364,9 @@
       <c r="BJ19" s="16"/>
       <c r="BK19" s="16"/>
       <c r="BL19" s="16"/>
-    </row>
-    <row r="20" spans="1:64">
+      <c r="BM19" s="16"/>
+    </row>
+    <row r="20" spans="1:65">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5397,8 +5430,9 @@
       <c r="BJ20" s="16"/>
       <c r="BK20" s="16"/>
       <c r="BL20" s="16"/>
-    </row>
-    <row r="21" spans="1:64">
+      <c r="BM20" s="16"/>
+    </row>
+    <row r="21" spans="1:65">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5462,8 +5496,9 @@
       <c r="BJ21" s="16"/>
       <c r="BK21" s="16"/>
       <c r="BL21" s="16"/>
-    </row>
-    <row r="22" spans="1:64">
+      <c r="BM21" s="16"/>
+    </row>
+    <row r="22" spans="1:65">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5527,8 +5562,9 @@
       <c r="BJ22" s="16"/>
       <c r="BK22" s="16"/>
       <c r="BL22" s="16"/>
-    </row>
-    <row r="23" spans="1:64">
+      <c r="BM22" s="16"/>
+    </row>
+    <row r="23" spans="1:65">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5592,8 +5628,9 @@
       <c r="BJ23" s="16"/>
       <c r="BK23" s="16"/>
       <c r="BL23" s="16"/>
-    </row>
-    <row r="24" spans="1:64">
+      <c r="BM23" s="16"/>
+    </row>
+    <row r="24" spans="1:65">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5657,8 +5694,9 @@
       <c r="BJ24" s="16"/>
       <c r="BK24" s="16"/>
       <c r="BL24" s="16"/>
-    </row>
-    <row r="25" spans="1:64">
+      <c r="BM24" s="16"/>
+    </row>
+    <row r="25" spans="1:65">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5722,8 +5760,9 @@
       <c r="BJ25" s="16"/>
       <c r="BK25" s="16"/>
       <c r="BL25" s="16"/>
-    </row>
-    <row r="26" spans="1:64">
+      <c r="BM25" s="16"/>
+    </row>
+    <row r="26" spans="1:65">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5787,8 +5826,9 @@
       <c r="BJ26" s="16"/>
       <c r="BK26" s="16"/>
       <c r="BL26" s="16"/>
-    </row>
-    <row r="27" spans="1:64">
+      <c r="BM26" s="16"/>
+    </row>
+    <row r="27" spans="1:65">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -5852,8 +5892,9 @@
       <c r="BJ27" s="16"/>
       <c r="BK27" s="16"/>
       <c r="BL27" s="16"/>
-    </row>
-    <row r="28" spans="1:64">
+      <c r="BM27" s="16"/>
+    </row>
+    <row r="28" spans="1:65">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -5917,8 +5958,9 @@
       <c r="BJ28" s="16"/>
       <c r="BK28" s="16"/>
       <c r="BL28" s="16"/>
-    </row>
-    <row r="29" spans="1:64">
+      <c r="BM28" s="16"/>
+    </row>
+    <row r="29" spans="1:65">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -5982,8 +6024,9 @@
       <c r="BJ29" s="16"/>
       <c r="BK29" s="16"/>
       <c r="BL29" s="16"/>
-    </row>
-    <row r="30" spans="1:64">
+      <c r="BM29" s="16"/>
+    </row>
+    <row r="30" spans="1:65">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6047,8 +6090,9 @@
       <c r="BJ30" s="16"/>
       <c r="BK30" s="16"/>
       <c r="BL30" s="16"/>
-    </row>
-    <row r="31" spans="1:64">
+      <c r="BM30" s="16"/>
+    </row>
+    <row r="31" spans="1:65">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6112,8 +6156,9 @@
       <c r="BJ31" s="16"/>
       <c r="BK31" s="16"/>
       <c r="BL31" s="16"/>
-    </row>
-    <row r="32" spans="1:64">
+      <c r="BM31" s="16"/>
+    </row>
+    <row r="32" spans="1:65">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6177,8 +6222,9 @@
       <c r="BJ32" s="16"/>
       <c r="BK32" s="16"/>
       <c r="BL32" s="16"/>
-    </row>
-    <row r="33" spans="1:64">
+      <c r="BM32" s="16"/>
+    </row>
+    <row r="33" spans="1:65">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6242,8 +6288,9 @@
       <c r="BJ33" s="16"/>
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
-    </row>
-    <row r="34" spans="1:64">
+      <c r="BM33" s="16"/>
+    </row>
+    <row r="34" spans="1:65">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6307,8 +6354,9 @@
       <c r="BJ34" s="16"/>
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
-    </row>
-    <row r="35" spans="1:64">
+      <c r="BM34" s="16"/>
+    </row>
+    <row r="35" spans="1:65">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6372,8 +6420,9 @@
       <c r="BJ35" s="16"/>
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
-    </row>
-    <row r="36" spans="1:64">
+      <c r="BM35" s="16"/>
+    </row>
+    <row r="36" spans="1:65">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6437,8 +6486,9 @@
       <c r="BJ36" s="16"/>
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
-    </row>
-    <row r="37" spans="1:64">
+      <c r="BM36" s="16"/>
+    </row>
+    <row r="37" spans="1:65">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -6502,8 +6552,9 @@
       <c r="BJ37" s="16"/>
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
-    </row>
-    <row r="38" spans="1:64">
+      <c r="BM37" s="16"/>
+    </row>
+    <row r="38" spans="1:65">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -6567,8 +6618,9 @@
       <c r="BJ38" s="16"/>
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
-    </row>
-    <row r="39" spans="1:64">
+      <c r="BM38" s="16"/>
+    </row>
+    <row r="39" spans="1:65">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -6632,8 +6684,9 @@
       <c r="BJ39" s="16"/>
       <c r="BK39" s="16"/>
       <c r="BL39" s="16"/>
-    </row>
-    <row r="40" spans="1:64">
+      <c r="BM39" s="16"/>
+    </row>
+    <row r="40" spans="1:65">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -6697,8 +6750,9 @@
       <c r="BJ40" s="16"/>
       <c r="BK40" s="16"/>
       <c r="BL40" s="16"/>
-    </row>
-    <row r="41" spans="1:64">
+      <c r="BM40" s="16"/>
+    </row>
+    <row r="41" spans="1:65">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -6762,8 +6816,9 @@
       <c r="BJ41" s="16"/>
       <c r="BK41" s="16"/>
       <c r="BL41" s="16"/>
-    </row>
-    <row r="42" spans="1:64">
+      <c r="BM41" s="16"/>
+    </row>
+    <row r="42" spans="1:65">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -6827,8 +6882,9 @@
       <c r="BJ42" s="16"/>
       <c r="BK42" s="16"/>
       <c r="BL42" s="16"/>
-    </row>
-    <row r="43" spans="1:64">
+      <c r="BM42" s="16"/>
+    </row>
+    <row r="43" spans="1:65">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -6892,8 +6948,9 @@
       <c r="BJ43" s="16"/>
       <c r="BK43" s="16"/>
       <c r="BL43" s="16"/>
-    </row>
-    <row r="44" spans="1:64">
+      <c r="BM43" s="16"/>
+    </row>
+    <row r="44" spans="1:65">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -6957,8 +7014,9 @@
       <c r="BJ44" s="16"/>
       <c r="BK44" s="16"/>
       <c r="BL44" s="16"/>
-    </row>
-    <row r="45" spans="1:64">
+      <c r="BM44" s="16"/>
+    </row>
+    <row r="45" spans="1:65">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -7022,8 +7080,9 @@
       <c r="BJ45" s="16"/>
       <c r="BK45" s="16"/>
       <c r="BL45" s="16"/>
-    </row>
-    <row r="46" spans="1:64">
+      <c r="BM45" s="16"/>
+    </row>
+    <row r="46" spans="1:65">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -7087,8 +7146,9 @@
       <c r="BJ46" s="16"/>
       <c r="BK46" s="16"/>
       <c r="BL46" s="16"/>
-    </row>
-    <row r="47" spans="1:64">
+      <c r="BM46" s="16"/>
+    </row>
+    <row r="47" spans="1:65">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -7152,8 +7212,9 @@
       <c r="BJ47" s="16"/>
       <c r="BK47" s="16"/>
       <c r="BL47" s="16"/>
-    </row>
-    <row r="48" spans="1:64">
+      <c r="BM47" s="16"/>
+    </row>
+    <row r="48" spans="1:65">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -7217,8 +7278,9 @@
       <c r="BJ48" s="16"/>
       <c r="BK48" s="16"/>
       <c r="BL48" s="16"/>
-    </row>
-    <row r="49" spans="1:64">
+      <c r="BM48" s="16"/>
+    </row>
+    <row r="49" spans="1:65">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -7282,8 +7344,9 @@
       <c r="BJ49" s="16"/>
       <c r="BK49" s="16"/>
       <c r="BL49" s="16"/>
-    </row>
-    <row r="50" spans="1:64">
+      <c r="BM49" s="16"/>
+    </row>
+    <row r="50" spans="1:65">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -7347,8 +7410,9 @@
       <c r="BJ50" s="16"/>
       <c r="BK50" s="16"/>
       <c r="BL50" s="16"/>
-    </row>
-    <row r="51" spans="1:64">
+      <c r="BM50" s="16"/>
+    </row>
+    <row r="51" spans="1:65">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -7412,8 +7476,9 @@
       <c r="BJ51" s="16"/>
       <c r="BK51" s="16"/>
       <c r="BL51" s="16"/>
-    </row>
-    <row r="52" spans="1:64">
+      <c r="BM51" s="16"/>
+    </row>
+    <row r="52" spans="1:65">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7477,8 +7542,9 @@
       <c r="BJ52" s="16"/>
       <c r="BK52" s="16"/>
       <c r="BL52" s="16"/>
-    </row>
-    <row r="53" spans="1:64">
+      <c r="BM52" s="16"/>
+    </row>
+    <row r="53" spans="1:65">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -7542,8 +7608,9 @@
       <c r="BJ53" s="16"/>
       <c r="BK53" s="16"/>
       <c r="BL53" s="16"/>
-    </row>
-    <row r="54" spans="1:64">
+      <c r="BM53" s="16"/>
+    </row>
+    <row r="54" spans="1:65">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -7607,8 +7674,9 @@
       <c r="BJ54" s="16"/>
       <c r="BK54" s="16"/>
       <c r="BL54" s="16"/>
-    </row>
-    <row r="55" spans="1:64">
+      <c r="BM54" s="16"/>
+    </row>
+    <row r="55" spans="1:65">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -7672,8 +7740,9 @@
       <c r="BJ55" s="16"/>
       <c r="BK55" s="16"/>
       <c r="BL55" s="16"/>
-    </row>
-    <row r="56" spans="1:64">
+      <c r="BM55" s="16"/>
+    </row>
+    <row r="56" spans="1:65">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -7737,8 +7806,9 @@
       <c r="BJ56" s="16"/>
       <c r="BK56" s="16"/>
       <c r="BL56" s="16"/>
-    </row>
-    <row r="57" spans="1:64">
+      <c r="BM56" s="16"/>
+    </row>
+    <row r="57" spans="1:65">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -7802,8 +7872,9 @@
       <c r="BJ57" s="16"/>
       <c r="BK57" s="16"/>
       <c r="BL57" s="16"/>
-    </row>
-    <row r="58" spans="1:64">
+      <c r="BM57" s="16"/>
+    </row>
+    <row r="58" spans="1:65">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -7867,8 +7938,9 @@
       <c r="BJ58" s="16"/>
       <c r="BK58" s="16"/>
       <c r="BL58" s="16"/>
-    </row>
-    <row r="59" spans="1:64">
+      <c r="BM58" s="16"/>
+    </row>
+    <row r="59" spans="1:65">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -7932,8 +8004,9 @@
       <c r="BJ59" s="16"/>
       <c r="BK59" s="16"/>
       <c r="BL59" s="16"/>
-    </row>
-    <row r="60" spans="1:64">
+      <c r="BM59" s="16"/>
+    </row>
+    <row r="60" spans="1:65">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -7997,8 +8070,9 @@
       <c r="BJ60" s="16"/>
       <c r="BK60" s="16"/>
       <c r="BL60" s="16"/>
-    </row>
-    <row r="61" spans="1:64">
+      <c r="BM60" s="16"/>
+    </row>
+    <row r="61" spans="1:65">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8062,8 +8136,9 @@
       <c r="BJ61" s="16"/>
       <c r="BK61" s="16"/>
       <c r="BL61" s="16"/>
-    </row>
-    <row r="62" spans="1:64">
+      <c r="BM61" s="16"/>
+    </row>
+    <row r="62" spans="1:65">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -8127,8 +8202,9 @@
       <c r="BJ62" s="16"/>
       <c r="BK62" s="16"/>
       <c r="BL62" s="16"/>
-    </row>
-    <row r="63" spans="1:64">
+      <c r="BM62" s="16"/>
+    </row>
+    <row r="63" spans="1:65">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -8192,8 +8268,9 @@
       <c r="BJ63" s="16"/>
       <c r="BK63" s="16"/>
       <c r="BL63" s="16"/>
-    </row>
-    <row r="64" spans="1:64">
+      <c r="BM63" s="16"/>
+    </row>
+    <row r="64" spans="1:65">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -8257,8 +8334,9 @@
       <c r="BJ64" s="16"/>
       <c r="BK64" s="16"/>
       <c r="BL64" s="16"/>
-    </row>
-    <row r="65" spans="1:64">
+      <c r="BM64" s="16"/>
+    </row>
+    <row r="65" spans="1:65">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -8322,8 +8400,9 @@
       <c r="BJ65" s="16"/>
       <c r="BK65" s="16"/>
       <c r="BL65" s="16"/>
-    </row>
-    <row r="66" spans="1:64">
+      <c r="BM65" s="16"/>
+    </row>
+    <row r="66" spans="1:65">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -8387,8 +8466,9 @@
       <c r="BJ66" s="16"/>
       <c r="BK66" s="16"/>
       <c r="BL66" s="16"/>
-    </row>
-    <row r="67" spans="1:64">
+      <c r="BM66" s="16"/>
+    </row>
+    <row r="67" spans="1:65">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8452,8 +8532,9 @@
       <c r="BJ67" s="16"/>
       <c r="BK67" s="16"/>
       <c r="BL67" s="16"/>
-    </row>
-    <row r="68" spans="1:64">
+      <c r="BM67" s="16"/>
+    </row>
+    <row r="68" spans="1:65">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -8517,8 +8598,9 @@
       <c r="BJ68" s="16"/>
       <c r="BK68" s="16"/>
       <c r="BL68" s="16"/>
-    </row>
-    <row r="69" spans="1:64">
+      <c r="BM68" s="16"/>
+    </row>
+    <row r="69" spans="1:65">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -8582,8 +8664,9 @@
       <c r="BJ69" s="16"/>
       <c r="BK69" s="16"/>
       <c r="BL69" s="16"/>
-    </row>
-    <row r="70" spans="1:64">
+      <c r="BM69" s="16"/>
+    </row>
+    <row r="70" spans="1:65">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -8647,8 +8730,9 @@
       <c r="BJ70" s="16"/>
       <c r="BK70" s="16"/>
       <c r="BL70" s="16"/>
-    </row>
-    <row r="71" spans="1:64">
+      <c r="BM70" s="16"/>
+    </row>
+    <row r="71" spans="1:65">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -8712,8 +8796,9 @@
       <c r="BJ71" s="16"/>
       <c r="BK71" s="16"/>
       <c r="BL71" s="16"/>
-    </row>
-    <row r="72" spans="1:64">
+      <c r="BM71" s="16"/>
+    </row>
+    <row r="72" spans="1:65">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -8777,8 +8862,9 @@
       <c r="BJ72" s="16"/>
       <c r="BK72" s="16"/>
       <c r="BL72" s="16"/>
-    </row>
-    <row r="73" spans="1:64">
+      <c r="BM72" s="16"/>
+    </row>
+    <row r="73" spans="1:65">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -8842,8 +8928,9 @@
       <c r="BJ73" s="16"/>
       <c r="BK73" s="16"/>
       <c r="BL73" s="16"/>
-    </row>
-    <row r="74" spans="1:64">
+      <c r="BM73" s="16"/>
+    </row>
+    <row r="74" spans="1:65">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -8907,8 +8994,9 @@
       <c r="BJ74" s="16"/>
       <c r="BK74" s="16"/>
       <c r="BL74" s="16"/>
-    </row>
-    <row r="75" spans="1:64">
+      <c r="BM74" s="16"/>
+    </row>
+    <row r="75" spans="1:65">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -8972,8 +9060,9 @@
       <c r="BJ75" s="16"/>
       <c r="BK75" s="16"/>
       <c r="BL75" s="16"/>
-    </row>
-    <row r="76" spans="1:64">
+      <c r="BM75" s="16"/>
+    </row>
+    <row r="76" spans="1:65">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -9037,8 +9126,9 @@
       <c r="BJ76" s="16"/>
       <c r="BK76" s="16"/>
       <c r="BL76" s="16"/>
-    </row>
-    <row r="77" spans="1:64">
+      <c r="BM76" s="16"/>
+    </row>
+    <row r="77" spans="1:65">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -9102,8 +9192,9 @@
       <c r="BJ77" s="16"/>
       <c r="BK77" s="16"/>
       <c r="BL77" s="16"/>
-    </row>
-    <row r="78" spans="1:64">
+      <c r="BM77" s="16"/>
+    </row>
+    <row r="78" spans="1:65">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -9167,8 +9258,9 @@
       <c r="BJ78" s="16"/>
       <c r="BK78" s="16"/>
       <c r="BL78" s="16"/>
-    </row>
-    <row r="79" spans="1:64">
+      <c r="BM78" s="16"/>
+    </row>
+    <row r="79" spans="1:65">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -9232,8 +9324,9 @@
       <c r="BJ79" s="16"/>
       <c r="BK79" s="16"/>
       <c r="BL79" s="16"/>
-    </row>
-    <row r="80" spans="1:64">
+      <c r="BM79" s="16"/>
+    </row>
+    <row r="80" spans="1:65">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -9297,8 +9390,9 @@
       <c r="BJ80" s="16"/>
       <c r="BK80" s="16"/>
       <c r="BL80" s="16"/>
-    </row>
-    <row r="81" spans="1:64">
+      <c r="BM80" s="16"/>
+    </row>
+    <row r="81" spans="1:65">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -9362,8 +9456,9 @@
       <c r="BJ81" s="16"/>
       <c r="BK81" s="16"/>
       <c r="BL81" s="16"/>
-    </row>
-    <row r="82" spans="1:64">
+      <c r="BM81" s="16"/>
+    </row>
+    <row r="82" spans="1:65">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -9427,8 +9522,9 @@
       <c r="BJ82" s="16"/>
       <c r="BK82" s="16"/>
       <c r="BL82" s="16"/>
-    </row>
-    <row r="83" spans="1:64">
+      <c r="BM82" s="16"/>
+    </row>
+    <row r="83" spans="1:65">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -9492,8 +9588,9 @@
       <c r="BJ83" s="16"/>
       <c r="BK83" s="16"/>
       <c r="BL83" s="16"/>
-    </row>
-    <row r="84" spans="1:64">
+      <c r="BM83" s="16"/>
+    </row>
+    <row r="84" spans="1:65">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -9557,8 +9654,9 @@
       <c r="BJ84" s="16"/>
       <c r="BK84" s="16"/>
       <c r="BL84" s="16"/>
-    </row>
-    <row r="85" spans="1:64">
+      <c r="BM84" s="16"/>
+    </row>
+    <row r="85" spans="1:65">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -9622,8 +9720,9 @@
       <c r="BJ85" s="16"/>
       <c r="BK85" s="16"/>
       <c r="BL85" s="16"/>
-    </row>
-    <row r="86" spans="1:64">
+      <c r="BM85" s="16"/>
+    </row>
+    <row r="86" spans="1:65">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -9687,8 +9786,9 @@
       <c r="BJ86" s="16"/>
       <c r="BK86" s="16"/>
       <c r="BL86" s="16"/>
-    </row>
-    <row r="87" spans="1:64">
+      <c r="BM86" s="16"/>
+    </row>
+    <row r="87" spans="1:65">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -9752,8 +9852,9 @@
       <c r="BJ87" s="16"/>
       <c r="BK87" s="16"/>
       <c r="BL87" s="16"/>
-    </row>
-    <row r="88" spans="1:64">
+      <c r="BM87" s="16"/>
+    </row>
+    <row r="88" spans="1:65">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -9817,8 +9918,9 @@
       <c r="BJ88" s="16"/>
       <c r="BK88" s="16"/>
       <c r="BL88" s="16"/>
-    </row>
-    <row r="89" spans="1:64">
+      <c r="BM88" s="16"/>
+    </row>
+    <row r="89" spans="1:65">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -9882,8 +9984,9 @@
       <c r="BJ89" s="16"/>
       <c r="BK89" s="16"/>
       <c r="BL89" s="16"/>
-    </row>
-    <row r="90" spans="1:64">
+      <c r="BM89" s="16"/>
+    </row>
+    <row r="90" spans="1:65">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -9947,8 +10050,9 @@
       <c r="BJ90" s="16"/>
       <c r="BK90" s="16"/>
       <c r="BL90" s="16"/>
-    </row>
-    <row r="91" spans="1:64">
+      <c r="BM90" s="16"/>
+    </row>
+    <row r="91" spans="1:65">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -10012,8 +10116,9 @@
       <c r="BJ91" s="16"/>
       <c r="BK91" s="16"/>
       <c r="BL91" s="16"/>
-    </row>
-    <row r="92" spans="1:64">
+      <c r="BM91" s="16"/>
+    </row>
+    <row r="92" spans="1:65">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -10077,8 +10182,9 @@
       <c r="BJ92" s="16"/>
       <c r="BK92" s="16"/>
       <c r="BL92" s="16"/>
-    </row>
-    <row r="93" spans="1:64">
+      <c r="BM92" s="16"/>
+    </row>
+    <row r="93" spans="1:65">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -10142,8 +10248,9 @@
       <c r="BJ93" s="16"/>
       <c r="BK93" s="16"/>
       <c r="BL93" s="16"/>
-    </row>
-    <row r="94" spans="1:64">
+      <c r="BM93" s="16"/>
+    </row>
+    <row r="94" spans="1:65">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -10207,8 +10314,9 @@
       <c r="BJ94" s="16"/>
       <c r="BK94" s="16"/>
       <c r="BL94" s="16"/>
-    </row>
-    <row r="95" spans="1:64">
+      <c r="BM94" s="16"/>
+    </row>
+    <row r="95" spans="1:65">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -10272,8 +10380,9 @@
       <c r="BJ95" s="16"/>
       <c r="BK95" s="16"/>
       <c r="BL95" s="16"/>
-    </row>
-    <row r="96" spans="1:64">
+      <c r="BM95" s="16"/>
+    </row>
+    <row r="96" spans="1:65">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -10337,8 +10446,9 @@
       <c r="BJ96" s="16"/>
       <c r="BK96" s="16"/>
       <c r="BL96" s="16"/>
-    </row>
-    <row r="97" spans="1:64">
+      <c r="BM96" s="16"/>
+    </row>
+    <row r="97" spans="1:65">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -10402,8 +10512,9 @@
       <c r="BJ97" s="16"/>
       <c r="BK97" s="16"/>
       <c r="BL97" s="16"/>
-    </row>
-    <row r="98" spans="1:64">
+      <c r="BM97" s="16"/>
+    </row>
+    <row r="98" spans="1:65">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -10467,8 +10578,9 @@
       <c r="BJ98" s="16"/>
       <c r="BK98" s="16"/>
       <c r="BL98" s="16"/>
-    </row>
-    <row r="99" spans="1:64">
+      <c r="BM98" s="16"/>
+    </row>
+    <row r="99" spans="1:65">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -10532,8 +10644,9 @@
       <c r="BJ99" s="16"/>
       <c r="BK99" s="16"/>
       <c r="BL99" s="16"/>
-    </row>
-    <row r="100" spans="1:64">
+      <c r="BM99" s="16"/>
+    </row>
+    <row r="100" spans="1:65">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -10597,8 +10710,9 @@
       <c r="BJ100" s="16"/>
       <c r="BK100" s="16"/>
       <c r="BL100" s="16"/>
-    </row>
-    <row r="101" spans="1:64">
+      <c r="BM100" s="16"/>
+    </row>
+    <row r="101" spans="1:65">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -10662,8 +10776,9 @@
       <c r="BJ101" s="16"/>
       <c r="BK101" s="16"/>
       <c r="BL101" s="16"/>
-    </row>
-    <row r="102" spans="1:64">
+      <c r="BM101" s="16"/>
+    </row>
+    <row r="102" spans="1:65">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -10727,8 +10842,9 @@
       <c r="BJ102" s="16"/>
       <c r="BK102" s="16"/>
       <c r="BL102" s="16"/>
-    </row>
-    <row r="103" spans="1:64">
+      <c r="BM102" s="16"/>
+    </row>
+    <row r="103" spans="1:65">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -10792,8 +10908,9 @@
       <c r="BJ103" s="16"/>
       <c r="BK103" s="16"/>
       <c r="BL103" s="16"/>
-    </row>
-    <row r="104" spans="1:64">
+      <c r="BM103" s="16"/>
+    </row>
+    <row r="104" spans="1:65">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -10857,8 +10974,9 @@
       <c r="BJ104" s="16"/>
       <c r="BK104" s="16"/>
       <c r="BL104" s="16"/>
-    </row>
-    <row r="105" spans="1:64">
+      <c r="BM104" s="16"/>
+    </row>
+    <row r="105" spans="1:65">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -10922,8 +11040,9 @@
       <c r="BJ105" s="16"/>
       <c r="BK105" s="16"/>
       <c r="BL105" s="16"/>
-    </row>
-    <row r="106" spans="1:64">
+      <c r="BM105" s="16"/>
+    </row>
+    <row r="106" spans="1:65">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -10987,8 +11106,9 @@
       <c r="BJ106" s="16"/>
       <c r="BK106" s="16"/>
       <c r="BL106" s="16"/>
-    </row>
-    <row r="107" spans="1:64">
+      <c r="BM106" s="16"/>
+    </row>
+    <row r="107" spans="1:65">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -11052,8 +11172,9 @@
       <c r="BJ107" s="16"/>
       <c r="BK107" s="16"/>
       <c r="BL107" s="16"/>
-    </row>
-    <row r="108" spans="1:64">
+      <c r="BM107" s="16"/>
+    </row>
+    <row r="108" spans="1:65">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -11117,8 +11238,9 @@
       <c r="BJ108" s="16"/>
       <c r="BK108" s="16"/>
       <c r="BL108" s="16"/>
-    </row>
-    <row r="109" spans="1:64">
+      <c r="BM108" s="16"/>
+    </row>
+    <row r="109" spans="1:65">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -11182,8 +11304,9 @@
       <c r="BJ109" s="16"/>
       <c r="BK109" s="16"/>
       <c r="BL109" s="16"/>
-    </row>
-    <row r="110" spans="1:64">
+      <c r="BM109" s="16"/>
+    </row>
+    <row r="110" spans="1:65">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -11247,8 +11370,9 @@
       <c r="BJ110" s="16"/>
       <c r="BK110" s="16"/>
       <c r="BL110" s="16"/>
-    </row>
-    <row r="111" spans="1:64">
+      <c r="BM110" s="16"/>
+    </row>
+    <row r="111" spans="1:65">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -11312,8 +11436,9 @@
       <c r="BJ111" s="16"/>
       <c r="BK111" s="16"/>
       <c r="BL111" s="16"/>
-    </row>
-    <row r="112" spans="1:64">
+      <c r="BM111" s="16"/>
+    </row>
+    <row r="112" spans="1:65">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -11377,8 +11502,9 @@
       <c r="BJ112" s="16"/>
       <c r="BK112" s="16"/>
       <c r="BL112" s="16"/>
-    </row>
-    <row r="113" spans="1:64">
+      <c r="BM112" s="16"/>
+    </row>
+    <row r="113" spans="1:65">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -11442,8 +11568,9 @@
       <c r="BJ113" s="16"/>
       <c r="BK113" s="16"/>
       <c r="BL113" s="16"/>
-    </row>
-    <row r="114" spans="1:64">
+      <c r="BM113" s="16"/>
+    </row>
+    <row r="114" spans="1:65">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -11507,8 +11634,9 @@
       <c r="BJ114" s="16"/>
       <c r="BK114" s="16"/>
       <c r="BL114" s="16"/>
-    </row>
-    <row r="115" spans="1:64">
+      <c r="BM114" s="16"/>
+    </row>
+    <row r="115" spans="1:65">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -11572,8 +11700,9 @@
       <c r="BJ115" s="16"/>
       <c r="BK115" s="16"/>
       <c r="BL115" s="16"/>
-    </row>
-    <row r="116" spans="1:64">
+      <c r="BM115" s="16"/>
+    </row>
+    <row r="116" spans="1:65">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -11637,8 +11766,9 @@
       <c r="BJ116" s="16"/>
       <c r="BK116" s="16"/>
       <c r="BL116" s="16"/>
-    </row>
-    <row r="117" spans="1:64">
+      <c r="BM116" s="16"/>
+    </row>
+    <row r="117" spans="1:65">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -11702,8 +11832,9 @@
       <c r="BJ117" s="16"/>
       <c r="BK117" s="16"/>
       <c r="BL117" s="16"/>
-    </row>
-    <row r="118" spans="1:64">
+      <c r="BM117" s="16"/>
+    </row>
+    <row r="118" spans="1:65">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -11767,8 +11898,9 @@
       <c r="BJ118" s="16"/>
       <c r="BK118" s="16"/>
       <c r="BL118" s="16"/>
-    </row>
-    <row r="119" spans="1:64">
+      <c r="BM118" s="16"/>
+    </row>
+    <row r="119" spans="1:65">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -11832,8 +11964,9 @@
       <c r="BJ119" s="16"/>
       <c r="BK119" s="16"/>
       <c r="BL119" s="16"/>
-    </row>
-    <row r="120" spans="1:64">
+      <c r="BM119" s="16"/>
+    </row>
+    <row r="120" spans="1:65">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -11897,8 +12030,9 @@
       <c r="BJ120" s="16"/>
       <c r="BK120" s="16"/>
       <c r="BL120" s="16"/>
-    </row>
-    <row r="121" spans="1:64">
+      <c r="BM120" s="16"/>
+    </row>
+    <row r="121" spans="1:65">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -11962,8 +12096,9 @@
       <c r="BJ121" s="16"/>
       <c r="BK121" s="16"/>
       <c r="BL121" s="16"/>
-    </row>
-    <row r="122" spans="1:64">
+      <c r="BM121" s="16"/>
+    </row>
+    <row r="122" spans="1:65">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -12027,8 +12162,9 @@
       <c r="BJ122" s="16"/>
       <c r="BK122" s="16"/>
       <c r="BL122" s="16"/>
-    </row>
-    <row r="123" spans="1:64">
+      <c r="BM122" s="16"/>
+    </row>
+    <row r="123" spans="1:65">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -12092,8 +12228,9 @@
       <c r="BJ123" s="16"/>
       <c r="BK123" s="16"/>
       <c r="BL123" s="16"/>
-    </row>
-    <row r="124" spans="1:64">
+      <c r="BM123" s="16"/>
+    </row>
+    <row r="124" spans="1:65">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -12157,8 +12294,9 @@
       <c r="BJ124" s="16"/>
       <c r="BK124" s="16"/>
       <c r="BL124" s="16"/>
-    </row>
-    <row r="125" spans="1:64">
+      <c r="BM124" s="16"/>
+    </row>
+    <row r="125" spans="1:65">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -12222,8 +12360,9 @@
       <c r="BJ125" s="16"/>
       <c r="BK125" s="16"/>
       <c r="BL125" s="16"/>
-    </row>
-    <row r="126" spans="1:64">
+      <c r="BM125" s="16"/>
+    </row>
+    <row r="126" spans="1:65">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -12287,8 +12426,9 @@
       <c r="BJ126" s="16"/>
       <c r="BK126" s="16"/>
       <c r="BL126" s="16"/>
-    </row>
-    <row r="127" spans="1:64">
+      <c r="BM126" s="16"/>
+    </row>
+    <row r="127" spans="1:65">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -12352,8 +12492,9 @@
       <c r="BJ127" s="16"/>
       <c r="BK127" s="16"/>
       <c r="BL127" s="16"/>
-    </row>
-    <row r="128" spans="1:64">
+      <c r="BM127" s="16"/>
+    </row>
+    <row r="128" spans="1:65">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -12417,8 +12558,9 @@
       <c r="BJ128" s="16"/>
       <c r="BK128" s="16"/>
       <c r="BL128" s="16"/>
-    </row>
-    <row r="129" spans="1:64">
+      <c r="BM128" s="16"/>
+    </row>
+    <row r="129" spans="1:65">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -12482,8 +12624,9 @@
       <c r="BJ129" s="16"/>
       <c r="BK129" s="16"/>
       <c r="BL129" s="16"/>
-    </row>
-    <row r="130" spans="1:64">
+      <c r="BM129" s="16"/>
+    </row>
+    <row r="130" spans="1:65">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -12547,8 +12690,9 @@
       <c r="BJ130" s="16"/>
       <c r="BK130" s="16"/>
       <c r="BL130" s="16"/>
-    </row>
-    <row r="131" spans="1:64">
+      <c r="BM130" s="16"/>
+    </row>
+    <row r="131" spans="1:65">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -12612,8 +12756,9 @@
       <c r="BJ131" s="16"/>
       <c r="BK131" s="16"/>
       <c r="BL131" s="16"/>
-    </row>
-    <row r="132" spans="1:64">
+      <c r="BM131" s="16"/>
+    </row>
+    <row r="132" spans="1:65">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -12677,8 +12822,9 @@
       <c r="BJ132" s="16"/>
       <c r="BK132" s="16"/>
       <c r="BL132" s="16"/>
-    </row>
-    <row r="133" spans="1:64">
+      <c r="BM132" s="16"/>
+    </row>
+    <row r="133" spans="1:65">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -12742,8 +12888,9 @@
       <c r="BJ133" s="16"/>
       <c r="BK133" s="16"/>
       <c r="BL133" s="16"/>
-    </row>
-    <row r="134" spans="1:64">
+      <c r="BM133" s="16"/>
+    </row>
+    <row r="134" spans="1:65">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -12807,8 +12954,9 @@
       <c r="BJ134" s="16"/>
       <c r="BK134" s="16"/>
       <c r="BL134" s="16"/>
-    </row>
-    <row r="135" spans="1:64">
+      <c r="BM134" s="16"/>
+    </row>
+    <row r="135" spans="1:65">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -12872,8 +13020,9 @@
       <c r="BJ135" s="16"/>
       <c r="BK135" s="16"/>
       <c r="BL135" s="16"/>
-    </row>
-    <row r="136" spans="1:64">
+      <c r="BM135" s="16"/>
+    </row>
+    <row r="136" spans="1:65">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -12937,8 +13086,9 @@
       <c r="BJ136" s="16"/>
       <c r="BK136" s="16"/>
       <c r="BL136" s="16"/>
-    </row>
-    <row r="137" spans="1:64">
+      <c r="BM136" s="16"/>
+    </row>
+    <row r="137" spans="1:65">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -13002,8 +13152,9 @@
       <c r="BJ137" s="16"/>
       <c r="BK137" s="16"/>
       <c r="BL137" s="16"/>
-    </row>
-    <row r="138" spans="1:64">
+      <c r="BM137" s="16"/>
+    </row>
+    <row r="138" spans="1:65">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -13067,8 +13218,9 @@
       <c r="BJ138" s="16"/>
       <c r="BK138" s="16"/>
       <c r="BL138" s="16"/>
-    </row>
-    <row r="139" spans="1:64">
+      <c r="BM138" s="16"/>
+    </row>
+    <row r="139" spans="1:65">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -13132,8 +13284,9 @@
       <c r="BJ139" s="16"/>
       <c r="BK139" s="16"/>
       <c r="BL139" s="16"/>
-    </row>
-    <row r="140" spans="1:64">
+      <c r="BM139" s="16"/>
+    </row>
+    <row r="140" spans="1:65">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -13197,8 +13350,9 @@
       <c r="BJ140" s="16"/>
       <c r="BK140" s="16"/>
       <c r="BL140" s="16"/>
-    </row>
-    <row r="141" spans="1:64">
+      <c r="BM140" s="16"/>
+    </row>
+    <row r="141" spans="1:65">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -13262,8 +13416,9 @@
       <c r="BJ141" s="16"/>
       <c r="BK141" s="16"/>
       <c r="BL141" s="16"/>
-    </row>
-    <row r="142" spans="1:64">
+      <c r="BM141" s="16"/>
+    </row>
+    <row r="142" spans="1:65">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -13327,8 +13482,9 @@
       <c r="BJ142" s="16"/>
       <c r="BK142" s="16"/>
       <c r="BL142" s="16"/>
-    </row>
-    <row r="143" spans="1:64">
+      <c r="BM142" s="16"/>
+    </row>
+    <row r="143" spans="1:65">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -13392,8 +13548,9 @@
       <c r="BJ143" s="16"/>
       <c r="BK143" s="16"/>
       <c r="BL143" s="16"/>
-    </row>
-    <row r="144" spans="1:64">
+      <c r="BM143" s="16"/>
+    </row>
+    <row r="144" spans="1:65">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -13457,8 +13614,9 @@
       <c r="BJ144" s="16"/>
       <c r="BK144" s="16"/>
       <c r="BL144" s="16"/>
-    </row>
-    <row r="145" spans="1:64">
+      <c r="BM144" s="16"/>
+    </row>
+    <row r="145" spans="1:65">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -13522,8 +13680,9 @@
       <c r="BJ145" s="16"/>
       <c r="BK145" s="16"/>
       <c r="BL145" s="16"/>
-    </row>
-    <row r="146" spans="1:64">
+      <c r="BM145" s="16"/>
+    </row>
+    <row r="146" spans="1:65">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -13587,8 +13746,9 @@
       <c r="BJ146" s="16"/>
       <c r="BK146" s="16"/>
       <c r="BL146" s="16"/>
-    </row>
-    <row r="147" spans="1:64">
+      <c r="BM146" s="16"/>
+    </row>
+    <row r="147" spans="1:65">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -13652,8 +13812,9 @@
       <c r="BJ147" s="16"/>
       <c r="BK147" s="16"/>
       <c r="BL147" s="16"/>
-    </row>
-    <row r="148" spans="1:64">
+      <c r="BM147" s="16"/>
+    </row>
+    <row r="148" spans="1:65">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -13717,8 +13878,9 @@
       <c r="BJ148" s="16"/>
       <c r="BK148" s="16"/>
       <c r="BL148" s="16"/>
-    </row>
-    <row r="149" spans="1:64">
+      <c r="BM148" s="16"/>
+    </row>
+    <row r="149" spans="1:65">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -13782,8 +13944,9 @@
       <c r="BJ149" s="16"/>
       <c r="BK149" s="16"/>
       <c r="BL149" s="16"/>
-    </row>
-    <row r="150" spans="1:64">
+      <c r="BM149" s="16"/>
+    </row>
+    <row r="150" spans="1:65">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -13847,8 +14010,9 @@
       <c r="BJ150" s="16"/>
       <c r="BK150" s="16"/>
       <c r="BL150" s="16"/>
-    </row>
-    <row r="151" spans="1:64">
+      <c r="BM150" s="16"/>
+    </row>
+    <row r="151" spans="1:65">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -13912,8 +14076,9 @@
       <c r="BJ151" s="16"/>
       <c r="BK151" s="16"/>
       <c r="BL151" s="16"/>
-    </row>
-    <row r="152" spans="1:64">
+      <c r="BM151" s="16"/>
+    </row>
+    <row r="152" spans="1:65">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -13977,8 +14142,9 @@
       <c r="BJ152" s="16"/>
       <c r="BK152" s="16"/>
       <c r="BL152" s="16"/>
-    </row>
-    <row r="153" spans="1:64">
+      <c r="BM152" s="16"/>
+    </row>
+    <row r="153" spans="1:65">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -14042,8 +14208,9 @@
       <c r="BJ153" s="16"/>
       <c r="BK153" s="16"/>
       <c r="BL153" s="16"/>
-    </row>
-    <row r="154" spans="1:64">
+      <c r="BM153" s="16"/>
+    </row>
+    <row r="154" spans="1:65">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -14107,8 +14274,9 @@
       <c r="BJ154" s="16"/>
       <c r="BK154" s="16"/>
       <c r="BL154" s="16"/>
-    </row>
-    <row r="155" spans="1:64">
+      <c r="BM154" s="16"/>
+    </row>
+    <row r="155" spans="1:65">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -14172,8 +14340,9 @@
       <c r="BJ155" s="16"/>
       <c r="BK155" s="16"/>
       <c r="BL155" s="16"/>
-    </row>
-    <row r="156" spans="1:64">
+      <c r="BM155" s="16"/>
+    </row>
+    <row r="156" spans="1:65">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -14237,8 +14406,9 @@
       <c r="BJ156" s="16"/>
       <c r="BK156" s="16"/>
       <c r="BL156" s="16"/>
-    </row>
-    <row r="157" spans="1:64">
+      <c r="BM156" s="16"/>
+    </row>
+    <row r="157" spans="1:65">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -14302,8 +14472,9 @@
       <c r="BJ157" s="16"/>
       <c r="BK157" s="16"/>
       <c r="BL157" s="16"/>
-    </row>
-    <row r="158" spans="1:64">
+      <c r="BM157" s="16"/>
+    </row>
+    <row r="158" spans="1:65">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -14367,8 +14538,9 @@
       <c r="BJ158" s="16"/>
       <c r="BK158" s="16"/>
       <c r="BL158" s="16"/>
-    </row>
-    <row r="159" spans="1:64">
+      <c r="BM158" s="16"/>
+    </row>
+    <row r="159" spans="1:65">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -14432,8 +14604,9 @@
       <c r="BJ159" s="16"/>
       <c r="BK159" s="16"/>
       <c r="BL159" s="16"/>
-    </row>
-    <row r="160" spans="1:64">
+      <c r="BM159" s="16"/>
+    </row>
+    <row r="160" spans="1:65">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -14497,8 +14670,9 @@
       <c r="BJ160" s="16"/>
       <c r="BK160" s="16"/>
       <c r="BL160" s="16"/>
-    </row>
-    <row r="161" spans="1:64">
+      <c r="BM160" s="16"/>
+    </row>
+    <row r="161" spans="1:65">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -14562,8 +14736,9 @@
       <c r="BJ161" s="16"/>
       <c r="BK161" s="16"/>
       <c r="BL161" s="16"/>
-    </row>
-    <row r="162" spans="1:64">
+      <c r="BM161" s="16"/>
+    </row>
+    <row r="162" spans="1:65">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -14627,8 +14802,9 @@
       <c r="BJ162" s="16"/>
       <c r="BK162" s="16"/>
       <c r="BL162" s="16"/>
-    </row>
-    <row r="163" spans="1:64">
+      <c r="BM162" s="16"/>
+    </row>
+    <row r="163" spans="1:65">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -14692,8 +14868,9 @@
       <c r="BJ163" s="16"/>
       <c r="BK163" s="16"/>
       <c r="BL163" s="16"/>
-    </row>
-    <row r="164" spans="1:64">
+      <c r="BM163" s="16"/>
+    </row>
+    <row r="164" spans="1:65">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -14757,8 +14934,9 @@
       <c r="BJ164" s="16"/>
       <c r="BK164" s="16"/>
       <c r="BL164" s="16"/>
-    </row>
-    <row r="165" spans="1:64">
+      <c r="BM164" s="16"/>
+    </row>
+    <row r="165" spans="1:65">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -14822,8 +15000,9 @@
       <c r="BJ165" s="16"/>
       <c r="BK165" s="16"/>
       <c r="BL165" s="16"/>
-    </row>
-    <row r="166" spans="1:64">
+      <c r="BM165" s="16"/>
+    </row>
+    <row r="166" spans="1:65">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -14887,8 +15066,9 @@
       <c r="BJ166" s="16"/>
       <c r="BK166" s="16"/>
       <c r="BL166" s="16"/>
-    </row>
-    <row r="167" spans="1:64">
+      <c r="BM166" s="16"/>
+    </row>
+    <row r="167" spans="1:65">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -14952,8 +15132,9 @@
       <c r="BJ167" s="16"/>
       <c r="BK167" s="16"/>
       <c r="BL167" s="16"/>
-    </row>
-    <row r="168" spans="1:64">
+      <c r="BM167" s="16"/>
+    </row>
+    <row r="168" spans="1:65">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -15017,8 +15198,9 @@
       <c r="BJ168" s="16"/>
       <c r="BK168" s="16"/>
       <c r="BL168" s="16"/>
-    </row>
-    <row r="169" spans="1:64">
+      <c r="BM168" s="16"/>
+    </row>
+    <row r="169" spans="1:65">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -15082,8 +15264,9 @@
       <c r="BJ169" s="16"/>
       <c r="BK169" s="16"/>
       <c r="BL169" s="16"/>
-    </row>
-    <row r="170" spans="1:64">
+      <c r="BM169" s="16"/>
+    </row>
+    <row r="170" spans="1:65">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -15147,8 +15330,9 @@
       <c r="BJ170" s="16"/>
       <c r="BK170" s="16"/>
       <c r="BL170" s="16"/>
-    </row>
-    <row r="171" spans="1:64">
+      <c r="BM170" s="16"/>
+    </row>
+    <row r="171" spans="1:65">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -15212,8 +15396,9 @@
       <c r="BJ171" s="16"/>
       <c r="BK171" s="16"/>
       <c r="BL171" s="16"/>
-    </row>
-    <row r="172" spans="1:64">
+      <c r="BM171" s="16"/>
+    </row>
+    <row r="172" spans="1:65">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -15277,8 +15462,9 @@
       <c r="BJ172" s="16"/>
       <c r="BK172" s="16"/>
       <c r="BL172" s="16"/>
-    </row>
-    <row r="173" spans="1:64">
+      <c r="BM172" s="16"/>
+    </row>
+    <row r="173" spans="1:65">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -15342,8 +15528,9 @@
       <c r="BJ173" s="16"/>
       <c r="BK173" s="16"/>
       <c r="BL173" s="16"/>
-    </row>
-    <row r="174" spans="1:64">
+      <c r="BM173" s="16"/>
+    </row>
+    <row r="174" spans="1:65">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -15407,8 +15594,9 @@
       <c r="BJ174" s="16"/>
       <c r="BK174" s="16"/>
       <c r="BL174" s="16"/>
-    </row>
-    <row r="175" spans="1:64">
+      <c r="BM174" s="16"/>
+    </row>
+    <row r="175" spans="1:65">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -15472,8 +15660,9 @@
       <c r="BJ175" s="16"/>
       <c r="BK175" s="16"/>
       <c r="BL175" s="16"/>
-    </row>
-    <row r="176" spans="1:64">
+      <c r="BM175" s="16"/>
+    </row>
+    <row r="176" spans="1:65">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -15537,8 +15726,9 @@
       <c r="BJ176" s="16"/>
       <c r="BK176" s="16"/>
       <c r="BL176" s="16"/>
-    </row>
-    <row r="177" spans="1:64">
+      <c r="BM176" s="16"/>
+    </row>
+    <row r="177" spans="1:65">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -15602,8 +15792,9 @@
       <c r="BJ177" s="16"/>
       <c r="BK177" s="16"/>
       <c r="BL177" s="16"/>
-    </row>
-    <row r="178" spans="1:64">
+      <c r="BM177" s="16"/>
+    </row>
+    <row r="178" spans="1:65">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -15667,8 +15858,9 @@
       <c r="BJ178" s="16"/>
       <c r="BK178" s="16"/>
       <c r="BL178" s="16"/>
-    </row>
-    <row r="179" spans="1:64">
+      <c r="BM178" s="16"/>
+    </row>
+    <row r="179" spans="1:65">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -15732,8 +15924,9 @@
       <c r="BJ179" s="16"/>
       <c r="BK179" s="16"/>
       <c r="BL179" s="16"/>
-    </row>
-    <row r="180" spans="1:64">
+      <c r="BM179" s="16"/>
+    </row>
+    <row r="180" spans="1:65">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -15797,8 +15990,9 @@
       <c r="BJ180" s="16"/>
       <c r="BK180" s="16"/>
       <c r="BL180" s="16"/>
-    </row>
-    <row r="181" spans="1:64">
+      <c r="BM180" s="16"/>
+    </row>
+    <row r="181" spans="1:65">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
@@ -15862,8 +16056,9 @@
       <c r="BJ181" s="16"/>
       <c r="BK181" s="16"/>
       <c r="BL181" s="16"/>
-    </row>
-    <row r="182" spans="1:64">
+      <c r="BM181" s="16"/>
+    </row>
+    <row r="182" spans="1:65">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -15927,8 +16122,9 @@
       <c r="BJ182" s="16"/>
       <c r="BK182" s="16"/>
       <c r="BL182" s="16"/>
-    </row>
-    <row r="183" spans="1:64">
+      <c r="BM182" s="16"/>
+    </row>
+    <row r="183" spans="1:65">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -15992,8 +16188,9 @@
       <c r="BJ183" s="16"/>
       <c r="BK183" s="16"/>
       <c r="BL183" s="16"/>
-    </row>
-    <row r="184" spans="1:64">
+      <c r="BM183" s="16"/>
+    </row>
+    <row r="184" spans="1:65">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
@@ -16057,8 +16254,9 @@
       <c r="BJ184" s="16"/>
       <c r="BK184" s="16"/>
       <c r="BL184" s="16"/>
-    </row>
-    <row r="185" spans="1:64">
+      <c r="BM184" s="16"/>
+    </row>
+    <row r="185" spans="1:65">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -16122,8 +16320,9 @@
       <c r="BJ185" s="16"/>
       <c r="BK185" s="16"/>
       <c r="BL185" s="16"/>
-    </row>
-    <row r="186" spans="1:64">
+      <c r="BM185" s="16"/>
+    </row>
+    <row r="186" spans="1:65">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -16187,8 +16386,9 @@
       <c r="BJ186" s="16"/>
       <c r="BK186" s="16"/>
       <c r="BL186" s="16"/>
-    </row>
-    <row r="187" spans="1:64">
+      <c r="BM186" s="16"/>
+    </row>
+    <row r="187" spans="1:65">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -16252,8 +16452,9 @@
       <c r="BJ187" s="16"/>
       <c r="BK187" s="16"/>
       <c r="BL187" s="16"/>
-    </row>
-    <row r="188" spans="1:64">
+      <c r="BM187" s="16"/>
+    </row>
+    <row r="188" spans="1:65">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -16317,8 +16518,9 @@
       <c r="BJ188" s="16"/>
       <c r="BK188" s="16"/>
       <c r="BL188" s="16"/>
-    </row>
-    <row r="189" spans="1:64">
+      <c r="BM188" s="16"/>
+    </row>
+    <row r="189" spans="1:65">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -16382,8 +16584,9 @@
       <c r="BJ189" s="16"/>
       <c r="BK189" s="16"/>
       <c r="BL189" s="16"/>
-    </row>
-    <row r="190" spans="1:64">
+      <c r="BM189" s="16"/>
+    </row>
+    <row r="190" spans="1:65">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -16447,8 +16650,9 @@
       <c r="BJ190" s="16"/>
       <c r="BK190" s="16"/>
       <c r="BL190" s="16"/>
-    </row>
-    <row r="191" spans="1:64">
+      <c r="BM190" s="16"/>
+    </row>
+    <row r="191" spans="1:65">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -16512,8 +16716,9 @@
       <c r="BJ191" s="16"/>
       <c r="BK191" s="16"/>
       <c r="BL191" s="16"/>
-    </row>
-    <row r="192" spans="1:64">
+      <c r="BM191" s="16"/>
+    </row>
+    <row r="192" spans="1:65">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -16577,8 +16782,9 @@
       <c r="BJ192" s="16"/>
       <c r="BK192" s="16"/>
       <c r="BL192" s="16"/>
-    </row>
-    <row r="193" spans="1:64">
+      <c r="BM192" s="16"/>
+    </row>
+    <row r="193" spans="1:65">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -16642,8 +16848,9 @@
       <c r="BJ193" s="16"/>
       <c r="BK193" s="16"/>
       <c r="BL193" s="16"/>
-    </row>
-    <row r="194" spans="1:64">
+      <c r="BM193" s="16"/>
+    </row>
+    <row r="194" spans="1:65">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
@@ -16707,8 +16914,9 @@
       <c r="BJ194" s="16"/>
       <c r="BK194" s="16"/>
       <c r="BL194" s="16"/>
-    </row>
-    <row r="195" spans="1:64">
+      <c r="BM194" s="16"/>
+    </row>
+    <row r="195" spans="1:65">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
@@ -16772,8 +16980,9 @@
       <c r="BJ195" s="16"/>
       <c r="BK195" s="16"/>
       <c r="BL195" s="16"/>
-    </row>
-    <row r="196" spans="1:64">
+      <c r="BM195" s="16"/>
+    </row>
+    <row r="196" spans="1:65">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -16837,8 +17046,9 @@
       <c r="BJ196" s="16"/>
       <c r="BK196" s="16"/>
       <c r="BL196" s="16"/>
-    </row>
-    <row r="197" spans="1:64">
+      <c r="BM196" s="16"/>
+    </row>
+    <row r="197" spans="1:65">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -16902,8 +17112,9 @@
       <c r="BJ197" s="16"/>
       <c r="BK197" s="16"/>
       <c r="BL197" s="16"/>
-    </row>
-    <row r="198" spans="1:64">
+      <c r="BM197" s="16"/>
+    </row>
+    <row r="198" spans="1:65">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -16967,8 +17178,9 @@
       <c r="BJ198" s="16"/>
       <c r="BK198" s="16"/>
       <c r="BL198" s="16"/>
-    </row>
-    <row r="199" spans="1:64">
+      <c r="BM198" s="16"/>
+    </row>
+    <row r="199" spans="1:65">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -17032,8 +17244,9 @@
       <c r="BJ199" s="16"/>
       <c r="BK199" s="16"/>
       <c r="BL199" s="16"/>
-    </row>
-    <row r="200" spans="1:64">
+      <c r="BM199" s="16"/>
+    </row>
+    <row r="200" spans="1:65">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -17097,8 +17310,9 @@
       <c r="BJ200" s="16"/>
       <c r="BK200" s="16"/>
       <c r="BL200" s="16"/>
-    </row>
-    <row r="201" spans="1:64">
+      <c r="BM200" s="16"/>
+    </row>
+    <row r="201" spans="1:65">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
@@ -17162,8 +17376,9 @@
       <c r="BJ201" s="16"/>
       <c r="BK201" s="16"/>
       <c r="BL201" s="16"/>
-    </row>
-    <row r="202" spans="1:64">
+      <c r="BM201" s="16"/>
+    </row>
+    <row r="202" spans="1:65">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
@@ -17227,8 +17442,9 @@
       <c r="BJ202" s="16"/>
       <c r="BK202" s="16"/>
       <c r="BL202" s="16"/>
-    </row>
-    <row r="203" spans="1:64">
+      <c r="BM202" s="16"/>
+    </row>
+    <row r="203" spans="1:65">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
@@ -17292,8 +17508,9 @@
       <c r="BJ203" s="16"/>
       <c r="BK203" s="16"/>
       <c r="BL203" s="16"/>
-    </row>
-    <row r="204" spans="1:64">
+      <c r="BM203" s="16"/>
+    </row>
+    <row r="204" spans="1:65">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -17357,8 +17574,9 @@
       <c r="BJ204" s="16"/>
       <c r="BK204" s="16"/>
       <c r="BL204" s="16"/>
-    </row>
-    <row r="205" spans="1:64">
+      <c r="BM204" s="16"/>
+    </row>
+    <row r="205" spans="1:65">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
@@ -17422,8 +17640,9 @@
       <c r="BJ205" s="16"/>
       <c r="BK205" s="16"/>
       <c r="BL205" s="16"/>
-    </row>
-    <row r="206" spans="1:64">
+      <c r="BM205" s="16"/>
+    </row>
+    <row r="206" spans="1:65">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
@@ -17487,8 +17706,9 @@
       <c r="BJ206" s="16"/>
       <c r="BK206" s="16"/>
       <c r="BL206" s="16"/>
-    </row>
-    <row r="207" spans="1:64">
+      <c r="BM206" s="16"/>
+    </row>
+    <row r="207" spans="1:65">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
@@ -17552,8 +17772,9 @@
       <c r="BJ207" s="16"/>
       <c r="BK207" s="16"/>
       <c r="BL207" s="16"/>
-    </row>
-    <row r="208" spans="1:64">
+      <c r="BM207" s="16"/>
+    </row>
+    <row r="208" spans="1:65">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
@@ -17617,8 +17838,9 @@
       <c r="BJ208" s="16"/>
       <c r="BK208" s="16"/>
       <c r="BL208" s="16"/>
-    </row>
-    <row r="209" spans="1:64">
+      <c r="BM208" s="16"/>
+    </row>
+    <row r="209" spans="1:65">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -17682,8 +17904,9 @@
       <c r="BJ209" s="16"/>
       <c r="BK209" s="16"/>
       <c r="BL209" s="16"/>
-    </row>
-    <row r="210" spans="1:64">
+      <c r="BM209" s="16"/>
+    </row>
+    <row r="210" spans="1:65">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -17747,8 +17970,9 @@
       <c r="BJ210" s="16"/>
       <c r="BK210" s="16"/>
       <c r="BL210" s="16"/>
-    </row>
-    <row r="211" spans="1:64">
+      <c r="BM210" s="16"/>
+    </row>
+    <row r="211" spans="1:65">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -17812,8 +18036,9 @@
       <c r="BJ211" s="16"/>
       <c r="BK211" s="16"/>
       <c r="BL211" s="16"/>
-    </row>
-    <row r="212" spans="1:64">
+      <c r="BM211" s="16"/>
+    </row>
+    <row r="212" spans="1:65">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
@@ -17877,8 +18102,9 @@
       <c r="BJ212" s="16"/>
       <c r="BK212" s="16"/>
       <c r="BL212" s="16"/>
-    </row>
-    <row r="213" spans="1:64">
+      <c r="BM212" s="16"/>
+    </row>
+    <row r="213" spans="1:65">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -17942,8 +18168,9 @@
       <c r="BJ213" s="16"/>
       <c r="BK213" s="16"/>
       <c r="BL213" s="16"/>
-    </row>
-    <row r="214" spans="1:64">
+      <c r="BM213" s="16"/>
+    </row>
+    <row r="214" spans="1:65">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
@@ -18007,8 +18234,9 @@
       <c r="BJ214" s="16"/>
       <c r="BK214" s="16"/>
       <c r="BL214" s="16"/>
-    </row>
-    <row r="215" spans="1:64">
+      <c r="BM214" s="16"/>
+    </row>
+    <row r="215" spans="1:65">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -18072,8 +18300,9 @@
       <c r="BJ215" s="16"/>
       <c r="BK215" s="16"/>
       <c r="BL215" s="16"/>
-    </row>
-    <row r="216" spans="1:64">
+      <c r="BM215" s="16"/>
+    </row>
+    <row r="216" spans="1:65">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
@@ -18137,8 +18366,9 @@
       <c r="BJ216" s="16"/>
       <c r="BK216" s="16"/>
       <c r="BL216" s="16"/>
-    </row>
-    <row r="217" spans="1:64">
+      <c r="BM216" s="16"/>
+    </row>
+    <row r="217" spans="1:65">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -18202,8 +18432,9 @@
       <c r="BJ217" s="16"/>
       <c r="BK217" s="16"/>
       <c r="BL217" s="16"/>
-    </row>
-    <row r="218" spans="1:64">
+      <c r="BM217" s="16"/>
+    </row>
+    <row r="218" spans="1:65">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -18267,8 +18498,9 @@
       <c r="BJ218" s="16"/>
       <c r="BK218" s="16"/>
       <c r="BL218" s="16"/>
-    </row>
-    <row r="219" spans="1:64">
+      <c r="BM218" s="16"/>
+    </row>
+    <row r="219" spans="1:65">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
@@ -18332,8 +18564,9 @@
       <c r="BJ219" s="16"/>
       <c r="BK219" s="16"/>
       <c r="BL219" s="16"/>
-    </row>
-    <row r="220" spans="1:64">
+      <c r="BM219" s="16"/>
+    </row>
+    <row r="220" spans="1:65">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
@@ -18397,8 +18630,9 @@
       <c r="BJ220" s="16"/>
       <c r="BK220" s="16"/>
       <c r="BL220" s="16"/>
-    </row>
-    <row r="221" spans="1:64">
+      <c r="BM220" s="16"/>
+    </row>
+    <row r="221" spans="1:65">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
@@ -18462,8 +18696,9 @@
       <c r="BJ221" s="16"/>
       <c r="BK221" s="16"/>
       <c r="BL221" s="16"/>
-    </row>
-    <row r="222" spans="1:64">
+      <c r="BM221" s="16"/>
+    </row>
+    <row r="222" spans="1:65">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
@@ -18527,8 +18762,9 @@
       <c r="BJ222" s="16"/>
       <c r="BK222" s="16"/>
       <c r="BL222" s="16"/>
-    </row>
-    <row r="223" spans="1:64">
+      <c r="BM222" s="16"/>
+    </row>
+    <row r="223" spans="1:65">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -18592,8 +18828,9 @@
       <c r="BJ223" s="16"/>
       <c r="BK223" s="16"/>
       <c r="BL223" s="16"/>
-    </row>
-    <row r="224" spans="1:64">
+      <c r="BM223" s="16"/>
+    </row>
+    <row r="224" spans="1:65">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
@@ -18657,8 +18894,9 @@
       <c r="BJ224" s="16"/>
       <c r="BK224" s="16"/>
       <c r="BL224" s="16"/>
-    </row>
-    <row r="225" spans="1:64">
+      <c r="BM224" s="16"/>
+    </row>
+    <row r="225" spans="1:65">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
@@ -18722,8 +18960,9 @@
       <c r="BJ225" s="16"/>
       <c r="BK225" s="16"/>
       <c r="BL225" s="16"/>
-    </row>
-    <row r="226" spans="1:64">
+      <c r="BM225" s="16"/>
+    </row>
+    <row r="226" spans="1:65">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
@@ -18787,8 +19026,9 @@
       <c r="BJ226" s="16"/>
       <c r="BK226" s="16"/>
       <c r="BL226" s="16"/>
-    </row>
-    <row r="227" spans="1:64">
+      <c r="BM226" s="16"/>
+    </row>
+    <row r="227" spans="1:65">
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -18852,8 +19092,9 @@
       <c r="BJ227" s="16"/>
       <c r="BK227" s="16"/>
       <c r="BL227" s="16"/>
-    </row>
-    <row r="228" spans="1:64">
+      <c r="BM227" s="16"/>
+    </row>
+    <row r="228" spans="1:65">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
@@ -18917,8 +19158,9 @@
       <c r="BJ228" s="16"/>
       <c r="BK228" s="16"/>
       <c r="BL228" s="16"/>
-    </row>
-    <row r="229" spans="1:64">
+      <c r="BM228" s="16"/>
+    </row>
+    <row r="229" spans="1:65">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
@@ -18982,8 +19224,9 @@
       <c r="BJ229" s="16"/>
       <c r="BK229" s="16"/>
       <c r="BL229" s="16"/>
-    </row>
-    <row r="230" spans="1:64">
+      <c r="BM229" s="16"/>
+    </row>
+    <row r="230" spans="1:65">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
@@ -19047,8 +19290,9 @@
       <c r="BJ230" s="16"/>
       <c r="BK230" s="16"/>
       <c r="BL230" s="16"/>
-    </row>
-    <row r="231" spans="1:64">
+      <c r="BM230" s="16"/>
+    </row>
+    <row r="231" spans="1:65">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -19112,8 +19356,9 @@
       <c r="BJ231" s="16"/>
       <c r="BK231" s="16"/>
       <c r="BL231" s="16"/>
-    </row>
-    <row r="232" spans="1:64">
+      <c r="BM231" s="16"/>
+    </row>
+    <row r="232" spans="1:65">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
@@ -19177,8 +19422,9 @@
       <c r="BJ232" s="16"/>
       <c r="BK232" s="16"/>
       <c r="BL232" s="16"/>
-    </row>
-    <row r="233" spans="1:64">
+      <c r="BM232" s="16"/>
+    </row>
+    <row r="233" spans="1:65">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -19242,8 +19488,9 @@
       <c r="BJ233" s="16"/>
       <c r="BK233" s="16"/>
       <c r="BL233" s="16"/>
-    </row>
-    <row r="234" spans="1:64">
+      <c r="BM233" s="16"/>
+    </row>
+    <row r="234" spans="1:65">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
@@ -19307,8 +19554,9 @@
       <c r="BJ234" s="16"/>
       <c r="BK234" s="16"/>
       <c r="BL234" s="16"/>
-    </row>
-    <row r="235" spans="1:64">
+      <c r="BM234" s="16"/>
+    </row>
+    <row r="235" spans="1:65">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -19372,8 +19620,9 @@
       <c r="BJ235" s="16"/>
       <c r="BK235" s="16"/>
       <c r="BL235" s="16"/>
-    </row>
-    <row r="236" spans="1:64">
+      <c r="BM235" s="16"/>
+    </row>
+    <row r="236" spans="1:65">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
@@ -19437,8 +19686,9 @@
       <c r="BJ236" s="16"/>
       <c r="BK236" s="16"/>
       <c r="BL236" s="16"/>
-    </row>
-    <row r="237" spans="1:64">
+      <c r="BM236" s="16"/>
+    </row>
+    <row r="237" spans="1:65">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
@@ -19502,8 +19752,9 @@
       <c r="BJ237" s="16"/>
       <c r="BK237" s="16"/>
       <c r="BL237" s="16"/>
-    </row>
-    <row r="238" spans="1:64">
+      <c r="BM237" s="16"/>
+    </row>
+    <row r="238" spans="1:65">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
@@ -19567,8 +19818,9 @@
       <c r="BJ238" s="16"/>
       <c r="BK238" s="16"/>
       <c r="BL238" s="16"/>
-    </row>
-    <row r="239" spans="1:64">
+      <c r="BM238" s="16"/>
+    </row>
+    <row r="239" spans="1:65">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -19632,8 +19884,9 @@
       <c r="BJ239" s="16"/>
       <c r="BK239" s="16"/>
       <c r="BL239" s="16"/>
-    </row>
-    <row r="240" spans="1:64">
+      <c r="BM239" s="16"/>
+    </row>
+    <row r="240" spans="1:65">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
@@ -19697,8 +19950,9 @@
       <c r="BJ240" s="16"/>
       <c r="BK240" s="16"/>
       <c r="BL240" s="16"/>
-    </row>
-    <row r="241" spans="1:64">
+      <c r="BM240" s="16"/>
+    </row>
+    <row r="241" spans="1:65">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
@@ -19762,8 +20016,9 @@
       <c r="BJ241" s="16"/>
       <c r="BK241" s="16"/>
       <c r="BL241" s="16"/>
-    </row>
-    <row r="242" spans="1:64">
+      <c r="BM241" s="16"/>
+    </row>
+    <row r="242" spans="1:65">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
@@ -19827,8 +20082,9 @@
       <c r="BJ242" s="16"/>
       <c r="BK242" s="16"/>
       <c r="BL242" s="16"/>
-    </row>
-    <row r="243" spans="1:64">
+      <c r="BM242" s="16"/>
+    </row>
+    <row r="243" spans="1:65">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
@@ -19892,8 +20148,9 @@
       <c r="BJ243" s="16"/>
       <c r="BK243" s="16"/>
       <c r="BL243" s="16"/>
-    </row>
-    <row r="244" spans="1:64">
+      <c r="BM243" s="16"/>
+    </row>
+    <row r="244" spans="1:65">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
@@ -19957,8 +20214,9 @@
       <c r="BJ244" s="16"/>
       <c r="BK244" s="16"/>
       <c r="BL244" s="16"/>
-    </row>
-    <row r="245" spans="1:64">
+      <c r="BM244" s="16"/>
+    </row>
+    <row r="245" spans="1:65">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
@@ -20022,8 +20280,9 @@
       <c r="BJ245" s="16"/>
       <c r="BK245" s="16"/>
       <c r="BL245" s="16"/>
-    </row>
-    <row r="246" spans="1:64">
+      <c r="BM245" s="16"/>
+    </row>
+    <row r="246" spans="1:65">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
@@ -20087,8 +20346,9 @@
       <c r="BJ246" s="16"/>
       <c r="BK246" s="16"/>
       <c r="BL246" s="16"/>
-    </row>
-    <row r="247" spans="1:64">
+      <c r="BM246" s="16"/>
+    </row>
+    <row r="247" spans="1:65">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
@@ -20152,8 +20412,9 @@
       <c r="BJ247" s="16"/>
       <c r="BK247" s="16"/>
       <c r="BL247" s="16"/>
-    </row>
-    <row r="248" spans="1:64">
+      <c r="BM247" s="16"/>
+    </row>
+    <row r="248" spans="1:65">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
@@ -20217,8 +20478,9 @@
       <c r="BJ248" s="16"/>
       <c r="BK248" s="16"/>
       <c r="BL248" s="16"/>
-    </row>
-    <row r="249" spans="1:64">
+      <c r="BM248" s="16"/>
+    </row>
+    <row r="249" spans="1:65">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
@@ -20282,8 +20544,9 @@
       <c r="BJ249" s="16"/>
       <c r="BK249" s="16"/>
       <c r="BL249" s="16"/>
-    </row>
-    <row r="250" spans="1:64">
+      <c r="BM249" s="16"/>
+    </row>
+    <row r="250" spans="1:65">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
@@ -20347,8 +20610,9 @@
       <c r="BJ250" s="16"/>
       <c r="BK250" s="16"/>
       <c r="BL250" s="16"/>
-    </row>
-    <row r="251" spans="1:64">
+      <c r="BM250" s="16"/>
+    </row>
+    <row r="251" spans="1:65">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
@@ -20412,8 +20676,9 @@
       <c r="BJ251" s="16"/>
       <c r="BK251" s="16"/>
       <c r="BL251" s="16"/>
-    </row>
-    <row r="252" spans="1:64">
+      <c r="BM251" s="16"/>
+    </row>
+    <row r="252" spans="1:65">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
@@ -20477,8 +20742,9 @@
       <c r="BJ252" s="16"/>
       <c r="BK252" s="16"/>
       <c r="BL252" s="16"/>
-    </row>
-    <row r="253" spans="1:64">
+      <c r="BM252" s="16"/>
+    </row>
+    <row r="253" spans="1:65">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
@@ -20542,8 +20808,9 @@
       <c r="BJ253" s="16"/>
       <c r="BK253" s="16"/>
       <c r="BL253" s="16"/>
-    </row>
-    <row r="254" spans="1:64">
+      <c r="BM253" s="16"/>
+    </row>
+    <row r="254" spans="1:65">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
@@ -20607,8 +20874,9 @@
       <c r="BJ254" s="16"/>
       <c r="BK254" s="16"/>
       <c r="BL254" s="16"/>
-    </row>
-    <row r="255" spans="1:64">
+      <c r="BM254" s="16"/>
+    </row>
+    <row r="255" spans="1:65">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -20672,8 +20940,9 @@
       <c r="BJ255" s="16"/>
       <c r="BK255" s="16"/>
       <c r="BL255" s="16"/>
-    </row>
-    <row r="256" spans="1:64">
+      <c r="BM255" s="16"/>
+    </row>
+    <row r="256" spans="1:65">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
@@ -20737,8 +21006,9 @@
       <c r="BJ256" s="16"/>
       <c r="BK256" s="16"/>
       <c r="BL256" s="16"/>
-    </row>
-    <row r="257" spans="1:64">
+      <c r="BM256" s="16"/>
+    </row>
+    <row r="257" spans="1:65">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
       <c r="C257" s="16"/>
@@ -20802,8 +21072,9 @@
       <c r="BJ257" s="16"/>
       <c r="BK257" s="16"/>
       <c r="BL257" s="16"/>
-    </row>
-    <row r="258" spans="1:64">
+      <c r="BM257" s="16"/>
+    </row>
+    <row r="258" spans="1:65">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
@@ -20867,8 +21138,9 @@
       <c r="BJ258" s="16"/>
       <c r="BK258" s="16"/>
       <c r="BL258" s="16"/>
-    </row>
-    <row r="259" spans="1:64">
+      <c r="BM258" s="16"/>
+    </row>
+    <row r="259" spans="1:65">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -20932,8 +21204,9 @@
       <c r="BJ259" s="16"/>
       <c r="BK259" s="16"/>
       <c r="BL259" s="16"/>
-    </row>
-    <row r="260" spans="1:64">
+      <c r="BM259" s="16"/>
+    </row>
+    <row r="260" spans="1:65">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
       <c r="C260" s="16"/>
@@ -20997,8 +21270,9 @@
       <c r="BJ260" s="16"/>
       <c r="BK260" s="16"/>
       <c r="BL260" s="16"/>
-    </row>
-    <row r="261" spans="1:64">
+      <c r="BM260" s="16"/>
+    </row>
+    <row r="261" spans="1:65">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
       <c r="C261" s="16"/>
@@ -21062,8 +21336,9 @@
       <c r="BJ261" s="16"/>
       <c r="BK261" s="16"/>
       <c r="BL261" s="16"/>
-    </row>
-    <row r="262" spans="1:64">
+      <c r="BM261" s="16"/>
+    </row>
+    <row r="262" spans="1:65">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
@@ -21127,8 +21402,9 @@
       <c r="BJ262" s="16"/>
       <c r="BK262" s="16"/>
       <c r="BL262" s="16"/>
-    </row>
-    <row r="263" spans="1:64">
+      <c r="BM262" s="16"/>
+    </row>
+    <row r="263" spans="1:65">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
@@ -21192,8 +21468,9 @@
       <c r="BJ263" s="16"/>
       <c r="BK263" s="16"/>
       <c r="BL263" s="16"/>
-    </row>
-    <row r="264" spans="1:64">
+      <c r="BM263" s="16"/>
+    </row>
+    <row r="264" spans="1:65">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
       <c r="C264" s="16"/>
@@ -21257,8 +21534,9 @@
       <c r="BJ264" s="16"/>
       <c r="BK264" s="16"/>
       <c r="BL264" s="16"/>
-    </row>
-    <row r="265" spans="1:64">
+      <c r="BM264" s="16"/>
+    </row>
+    <row r="265" spans="1:65">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
       <c r="C265" s="16"/>
@@ -21322,8 +21600,9 @@
       <c r="BJ265" s="16"/>
       <c r="BK265" s="16"/>
       <c r="BL265" s="16"/>
-    </row>
-    <row r="266" spans="1:64">
+      <c r="BM265" s="16"/>
+    </row>
+    <row r="266" spans="1:65">
       <c r="A266" s="16"/>
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
@@ -21387,8 +21666,9 @@
       <c r="BJ266" s="16"/>
       <c r="BK266" s="16"/>
       <c r="BL266" s="16"/>
-    </row>
-    <row r="267" spans="1:64">
+      <c r="BM266" s="16"/>
+    </row>
+    <row r="267" spans="1:65">
       <c r="A267" s="16"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
@@ -21452,8 +21732,9 @@
       <c r="BJ267" s="16"/>
       <c r="BK267" s="16"/>
       <c r="BL267" s="16"/>
-    </row>
-    <row r="268" spans="1:64">
+      <c r="BM267" s="16"/>
+    </row>
+    <row r="268" spans="1:65">
       <c r="A268" s="16"/>
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
@@ -21517,8 +21798,9 @@
       <c r="BJ268" s="16"/>
       <c r="BK268" s="16"/>
       <c r="BL268" s="16"/>
-    </row>
-    <row r="269" spans="1:64">
+      <c r="BM268" s="16"/>
+    </row>
+    <row r="269" spans="1:65">
       <c r="A269" s="16"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
@@ -21582,8 +21864,9 @@
       <c r="BJ269" s="16"/>
       <c r="BK269" s="16"/>
       <c r="BL269" s="16"/>
-    </row>
-    <row r="270" spans="1:64">
+      <c r="BM269" s="16"/>
+    </row>
+    <row r="270" spans="1:65">
       <c r="A270" s="16"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
@@ -21647,8 +21930,9 @@
       <c r="BJ270" s="16"/>
       <c r="BK270" s="16"/>
       <c r="BL270" s="16"/>
-    </row>
-    <row r="271" spans="1:64">
+      <c r="BM270" s="16"/>
+    </row>
+    <row r="271" spans="1:65">
       <c r="A271" s="16"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
@@ -21712,8 +21996,9 @@
       <c r="BJ271" s="16"/>
       <c r="BK271" s="16"/>
       <c r="BL271" s="16"/>
-    </row>
-    <row r="272" spans="1:64">
+      <c r="BM271" s="16"/>
+    </row>
+    <row r="272" spans="1:65">
       <c r="A272" s="16"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
@@ -21777,8 +22062,9 @@
       <c r="BJ272" s="16"/>
       <c r="BK272" s="16"/>
       <c r="BL272" s="16"/>
-    </row>
-    <row r="273" spans="1:64">
+      <c r="BM272" s="16"/>
+    </row>
+    <row r="273" spans="1:65">
       <c r="A273" s="16"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
@@ -21842,8 +22128,9 @@
       <c r="BJ273" s="16"/>
       <c r="BK273" s="16"/>
       <c r="BL273" s="16"/>
-    </row>
-    <row r="274" spans="1:64">
+      <c r="BM273" s="16"/>
+    </row>
+    <row r="274" spans="1:65">
       <c r="A274" s="16"/>
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
@@ -21907,8 +22194,9 @@
       <c r="BJ274" s="16"/>
       <c r="BK274" s="16"/>
       <c r="BL274" s="16"/>
-    </row>
-    <row r="275" spans="1:64">
+      <c r="BM274" s="16"/>
+    </row>
+    <row r="275" spans="1:65">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
@@ -21972,8 +22260,9 @@
       <c r="BJ275" s="16"/>
       <c r="BK275" s="16"/>
       <c r="BL275" s="16"/>
-    </row>
-    <row r="276" spans="1:64">
+      <c r="BM275" s="16"/>
+    </row>
+    <row r="276" spans="1:65">
       <c r="A276" s="16"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
@@ -22037,8 +22326,9 @@
       <c r="BJ276" s="16"/>
       <c r="BK276" s="16"/>
       <c r="BL276" s="16"/>
-    </row>
-    <row r="277" spans="1:64">
+      <c r="BM276" s="16"/>
+    </row>
+    <row r="277" spans="1:65">
       <c r="A277" s="16"/>
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
@@ -22102,8 +22392,9 @@
       <c r="BJ277" s="16"/>
       <c r="BK277" s="16"/>
       <c r="BL277" s="16"/>
-    </row>
-    <row r="278" spans="1:64">
+      <c r="BM277" s="16"/>
+    </row>
+    <row r="278" spans="1:65">
       <c r="A278" s="16"/>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
@@ -22167,8 +22458,9 @@
       <c r="BJ278" s="16"/>
       <c r="BK278" s="16"/>
       <c r="BL278" s="16"/>
-    </row>
-    <row r="279" spans="1:64">
+      <c r="BM278" s="16"/>
+    </row>
+    <row r="279" spans="1:65">
       <c r="A279" s="16"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -22232,8 +22524,9 @@
       <c r="BJ279" s="16"/>
       <c r="BK279" s="16"/>
       <c r="BL279" s="16"/>
-    </row>
-    <row r="280" spans="1:64">
+      <c r="BM279" s="16"/>
+    </row>
+    <row r="280" spans="1:65">
       <c r="A280" s="16"/>
       <c r="B280" s="16"/>
       <c r="C280" s="16"/>
@@ -22297,8 +22590,9 @@
       <c r="BJ280" s="16"/>
       <c r="BK280" s="16"/>
       <c r="BL280" s="16"/>
-    </row>
-    <row r="281" spans="1:64">
+      <c r="BM280" s="16"/>
+    </row>
+    <row r="281" spans="1:65">
       <c r="A281" s="16"/>
       <c r="B281" s="16"/>
       <c r="C281" s="16"/>
@@ -22362,8 +22656,9 @@
       <c r="BJ281" s="16"/>
       <c r="BK281" s="16"/>
       <c r="BL281" s="16"/>
-    </row>
-    <row r="282" spans="1:64">
+      <c r="BM281" s="16"/>
+    </row>
+    <row r="282" spans="1:65">
       <c r="A282" s="16"/>
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
@@ -22427,8 +22722,9 @@
       <c r="BJ282" s="16"/>
       <c r="BK282" s="16"/>
       <c r="BL282" s="16"/>
-    </row>
-    <row r="283" spans="1:64">
+      <c r="BM282" s="16"/>
+    </row>
+    <row r="283" spans="1:65">
       <c r="A283" s="16"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
@@ -22492,8 +22788,9 @@
       <c r="BJ283" s="16"/>
       <c r="BK283" s="16"/>
       <c r="BL283" s="16"/>
-    </row>
-    <row r="284" spans="1:64">
+      <c r="BM283" s="16"/>
+    </row>
+    <row r="284" spans="1:65">
       <c r="A284" s="16"/>
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
@@ -22557,8 +22854,9 @@
       <c r="BJ284" s="16"/>
       <c r="BK284" s="16"/>
       <c r="BL284" s="16"/>
-    </row>
-    <row r="285" spans="1:64">
+      <c r="BM284" s="16"/>
+    </row>
+    <row r="285" spans="1:65">
       <c r="A285" s="16"/>
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
@@ -22622,8 +22920,9 @@
       <c r="BJ285" s="16"/>
       <c r="BK285" s="16"/>
       <c r="BL285" s="16"/>
-    </row>
-    <row r="286" spans="1:64">
+      <c r="BM285" s="16"/>
+    </row>
+    <row r="286" spans="1:65">
       <c r="A286" s="16"/>
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
@@ -22687,8 +22986,9 @@
       <c r="BJ286" s="16"/>
       <c r="BK286" s="16"/>
       <c r="BL286" s="16"/>
-    </row>
-    <row r="287" spans="1:64">
+      <c r="BM286" s="16"/>
+    </row>
+    <row r="287" spans="1:65">
       <c r="A287" s="16"/>
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
@@ -22752,8 +23052,9 @@
       <c r="BJ287" s="16"/>
       <c r="BK287" s="16"/>
       <c r="BL287" s="16"/>
-    </row>
-    <row r="288" spans="1:64">
+      <c r="BM287" s="16"/>
+    </row>
+    <row r="288" spans="1:65">
       <c r="A288" s="16"/>
       <c r="B288" s="16"/>
       <c r="C288" s="16"/>
@@ -22817,8 +23118,9 @@
       <c r="BJ288" s="16"/>
       <c r="BK288" s="16"/>
       <c r="BL288" s="16"/>
-    </row>
-    <row r="289" spans="1:64">
+      <c r="BM288" s="16"/>
+    </row>
+    <row r="289" spans="1:65">
       <c r="A289" s="16"/>
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
@@ -22882,8 +23184,9 @@
       <c r="BJ289" s="16"/>
       <c r="BK289" s="16"/>
       <c r="BL289" s="16"/>
-    </row>
-    <row r="290" spans="1:64">
+      <c r="BM289" s="16"/>
+    </row>
+    <row r="290" spans="1:65">
       <c r="A290" s="16"/>
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
@@ -22947,8 +23250,9 @@
       <c r="BJ290" s="16"/>
       <c r="BK290" s="16"/>
       <c r="BL290" s="16"/>
-    </row>
-    <row r="291" spans="1:64">
+      <c r="BM290" s="16"/>
+    </row>
+    <row r="291" spans="1:65">
       <c r="A291" s="16"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
@@ -23012,8 +23316,9 @@
       <c r="BJ291" s="16"/>
       <c r="BK291" s="16"/>
       <c r="BL291" s="16"/>
-    </row>
-    <row r="292" spans="1:64">
+      <c r="BM291" s="16"/>
+    </row>
+    <row r="292" spans="1:65">
       <c r="A292" s="16"/>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
@@ -23077,8 +23382,9 @@
       <c r="BJ292" s="16"/>
       <c r="BK292" s="16"/>
       <c r="BL292" s="16"/>
-    </row>
-    <row r="293" spans="1:64">
+      <c r="BM292" s="16"/>
+    </row>
+    <row r="293" spans="1:65">
       <c r="A293" s="16"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
@@ -23142,8 +23448,9 @@
       <c r="BJ293" s="16"/>
       <c r="BK293" s="16"/>
       <c r="BL293" s="16"/>
-    </row>
-    <row r="294" spans="1:64">
+      <c r="BM293" s="16"/>
+    </row>
+    <row r="294" spans="1:65">
       <c r="A294" s="16"/>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
@@ -23207,8 +23514,9 @@
       <c r="BJ294" s="16"/>
       <c r="BK294" s="16"/>
       <c r="BL294" s="16"/>
-    </row>
-    <row r="295" spans="1:64">
+      <c r="BM294" s="16"/>
+    </row>
+    <row r="295" spans="1:65">
       <c r="A295" s="16"/>
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
@@ -23272,8 +23580,9 @@
       <c r="BJ295" s="16"/>
       <c r="BK295" s="16"/>
       <c r="BL295" s="16"/>
-    </row>
-    <row r="296" spans="1:64">
+      <c r="BM295" s="16"/>
+    </row>
+    <row r="296" spans="1:65">
       <c r="A296" s="16"/>
       <c r="B296" s="16"/>
       <c r="C296" s="16"/>
@@ -23337,8 +23646,9 @@
       <c r="BJ296" s="16"/>
       <c r="BK296" s="16"/>
       <c r="BL296" s="16"/>
-    </row>
-    <row r="297" spans="1:64">
+      <c r="BM296" s="16"/>
+    </row>
+    <row r="297" spans="1:65">
       <c r="A297" s="16"/>
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
@@ -23402,8 +23712,9 @@
       <c r="BJ297" s="16"/>
       <c r="BK297" s="16"/>
       <c r="BL297" s="16"/>
-    </row>
-    <row r="298" spans="1:64">
+      <c r="BM297" s="16"/>
+    </row>
+    <row r="298" spans="1:65">
       <c r="A298" s="16"/>
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
@@ -23467,8 +23778,9 @@
       <c r="BJ298" s="16"/>
       <c r="BK298" s="16"/>
       <c r="BL298" s="16"/>
-    </row>
-    <row r="299" spans="1:64">
+      <c r="BM298" s="16"/>
+    </row>
+    <row r="299" spans="1:65">
       <c r="A299" s="16"/>
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
@@ -23532,8 +23844,9 @@
       <c r="BJ299" s="16"/>
       <c r="BK299" s="16"/>
       <c r="BL299" s="16"/>
-    </row>
-    <row r="300" spans="1:64">
+      <c r="BM299" s="16"/>
+    </row>
+    <row r="300" spans="1:65">
       <c r="A300" s="16"/>
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
@@ -23597,8 +23910,9 @@
       <c r="BJ300" s="16"/>
       <c r="BK300" s="16"/>
       <c r="BL300" s="16"/>
-    </row>
-    <row r="301" spans="1:64">
+      <c r="BM300" s="16"/>
+    </row>
+    <row r="301" spans="1:65">
       <c r="A301" s="16"/>
       <c r="B301" s="16"/>
       <c r="C301" s="16"/>
@@ -23662,8 +23976,9 @@
       <c r="BJ301" s="16"/>
       <c r="BK301" s="16"/>
       <c r="BL301" s="16"/>
-    </row>
-    <row r="302" spans="1:64">
+      <c r="BM301" s="16"/>
+    </row>
+    <row r="302" spans="1:65">
       <c r="A302" s="16"/>
       <c r="B302" s="16"/>
       <c r="C302" s="16"/>
@@ -23727,8 +24042,9 @@
       <c r="BJ302" s="16"/>
       <c r="BK302" s="16"/>
       <c r="BL302" s="16"/>
-    </row>
-    <row r="303" spans="1:64">
+      <c r="BM302" s="16"/>
+    </row>
+    <row r="303" spans="1:65">
       <c r="A303" s="16"/>
       <c r="B303" s="16"/>
       <c r="C303" s="16"/>
@@ -23792,8 +24108,9 @@
       <c r="BJ303" s="16"/>
       <c r="BK303" s="16"/>
       <c r="BL303" s="16"/>
-    </row>
-    <row r="304" spans="1:64">
+      <c r="BM303" s="16"/>
+    </row>
+    <row r="304" spans="1:65">
       <c r="A304" s="16"/>
       <c r="B304" s="16"/>
       <c r="C304" s="16"/>
@@ -23857,8 +24174,9 @@
       <c r="BJ304" s="16"/>
       <c r="BK304" s="16"/>
       <c r="BL304" s="16"/>
-    </row>
-    <row r="305" spans="1:64">
+      <c r="BM304" s="16"/>
+    </row>
+    <row r="305" spans="1:65">
       <c r="A305" s="16"/>
       <c r="B305" s="16"/>
       <c r="C305" s="16"/>
@@ -23922,8 +24240,9 @@
       <c r="BJ305" s="16"/>
       <c r="BK305" s="16"/>
       <c r="BL305" s="16"/>
-    </row>
-    <row r="306" spans="1:64">
+      <c r="BM305" s="16"/>
+    </row>
+    <row r="306" spans="1:65">
       <c r="A306" s="16"/>
       <c r="B306" s="16"/>
       <c r="C306" s="16"/>
@@ -23987,8 +24306,9 @@
       <c r="BJ306" s="16"/>
       <c r="BK306" s="16"/>
       <c r="BL306" s="16"/>
-    </row>
-    <row r="307" spans="1:64">
+      <c r="BM306" s="16"/>
+    </row>
+    <row r="307" spans="1:65">
       <c r="A307" s="16"/>
       <c r="B307" s="16"/>
       <c r="C307" s="16"/>
@@ -24052,8 +24372,9 @@
       <c r="BJ307" s="16"/>
       <c r="BK307" s="16"/>
       <c r="BL307" s="16"/>
-    </row>
-    <row r="308" spans="1:64">
+      <c r="BM307" s="16"/>
+    </row>
+    <row r="308" spans="1:65">
       <c r="A308" s="16"/>
       <c r="B308" s="16"/>
       <c r="C308" s="16"/>
@@ -24117,8 +24438,9 @@
       <c r="BJ308" s="16"/>
       <c r="BK308" s="16"/>
       <c r="BL308" s="16"/>
-    </row>
-    <row r="309" spans="1:64">
+      <c r="BM308" s="16"/>
+    </row>
+    <row r="309" spans="1:65">
       <c r="A309" s="16"/>
       <c r="B309" s="16"/>
       <c r="C309" s="16"/>
@@ -24182,8 +24504,9 @@
       <c r="BJ309" s="16"/>
       <c r="BK309" s="16"/>
       <c r="BL309" s="16"/>
-    </row>
-    <row r="310" spans="1:64">
+      <c r="BM309" s="16"/>
+    </row>
+    <row r="310" spans="1:65">
       <c r="A310" s="16"/>
       <c r="B310" s="16"/>
       <c r="C310" s="16"/>
@@ -24247,8 +24570,9 @@
       <c r="BJ310" s="16"/>
       <c r="BK310" s="16"/>
       <c r="BL310" s="16"/>
-    </row>
-    <row r="311" spans="1:64">
+      <c r="BM310" s="16"/>
+    </row>
+    <row r="311" spans="1:65">
       <c r="A311" s="16"/>
       <c r="B311" s="16"/>
       <c r="C311" s="16"/>
@@ -24312,8 +24636,9 @@
       <c r="BJ311" s="16"/>
       <c r="BK311" s="16"/>
       <c r="BL311" s="16"/>
-    </row>
-    <row r="312" spans="1:64">
+      <c r="BM311" s="16"/>
+    </row>
+    <row r="312" spans="1:65">
       <c r="A312" s="16"/>
       <c r="B312" s="16"/>
       <c r="C312" s="16"/>
@@ -24377,8 +24702,9 @@
       <c r="BJ312" s="16"/>
       <c r="BK312" s="16"/>
       <c r="BL312" s="16"/>
-    </row>
-    <row r="313" spans="1:64">
+      <c r="BM312" s="16"/>
+    </row>
+    <row r="313" spans="1:65">
       <c r="A313" s="16"/>
       <c r="B313" s="16"/>
       <c r="C313" s="16"/>
@@ -24442,8 +24768,9 @@
       <c r="BJ313" s="16"/>
       <c r="BK313" s="16"/>
       <c r="BL313" s="16"/>
-    </row>
-    <row r="314" spans="1:64">
+      <c r="BM313" s="16"/>
+    </row>
+    <row r="314" spans="1:65">
       <c r="A314" s="16"/>
       <c r="B314" s="16"/>
       <c r="C314" s="16"/>
@@ -24507,8 +24834,9 @@
       <c r="BJ314" s="16"/>
       <c r="BK314" s="16"/>
       <c r="BL314" s="16"/>
-    </row>
-    <row r="315" spans="1:64">
+      <c r="BM314" s="16"/>
+    </row>
+    <row r="315" spans="1:65">
       <c r="A315" s="16"/>
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
@@ -24572,8 +24900,9 @@
       <c r="BJ315" s="16"/>
       <c r="BK315" s="16"/>
       <c r="BL315" s="16"/>
-    </row>
-    <row r="316" spans="1:64">
+      <c r="BM315" s="16"/>
+    </row>
+    <row r="316" spans="1:65">
       <c r="A316" s="16"/>
       <c r="B316" s="16"/>
       <c r="C316" s="16"/>
@@ -24637,8 +24966,9 @@
       <c r="BJ316" s="16"/>
       <c r="BK316" s="16"/>
       <c r="BL316" s="16"/>
-    </row>
-    <row r="317" spans="1:64">
+      <c r="BM316" s="16"/>
+    </row>
+    <row r="317" spans="1:65">
       <c r="A317" s="16"/>
       <c r="B317" s="16"/>
       <c r="C317" s="16"/>
@@ -24702,8 +25032,9 @@
       <c r="BJ317" s="16"/>
       <c r="BK317" s="16"/>
       <c r="BL317" s="16"/>
-    </row>
-    <row r="318" spans="1:64">
+      <c r="BM317" s="16"/>
+    </row>
+    <row r="318" spans="1:65">
       <c r="A318" s="16"/>
       <c r="B318" s="16"/>
       <c r="C318" s="16"/>
@@ -24767,8 +25098,9 @@
       <c r="BJ318" s="16"/>
       <c r="BK318" s="16"/>
       <c r="BL318" s="16"/>
-    </row>
-    <row r="319" spans="1:64">
+      <c r="BM318" s="16"/>
+    </row>
+    <row r="319" spans="1:65">
       <c r="A319" s="16"/>
       <c r="B319" s="16"/>
       <c r="C319" s="16"/>
@@ -24832,8 +25164,9 @@
       <c r="BJ319" s="16"/>
       <c r="BK319" s="16"/>
       <c r="BL319" s="16"/>
-    </row>
-    <row r="320" spans="1:64">
+      <c r="BM319" s="16"/>
+    </row>
+    <row r="320" spans="1:65">
       <c r="A320" s="16"/>
       <c r="B320" s="16"/>
       <c r="C320" s="16"/>
@@ -24897,8 +25230,9 @@
       <c r="BJ320" s="16"/>
       <c r="BK320" s="16"/>
       <c r="BL320" s="16"/>
-    </row>
-    <row r="321" spans="1:64">
+      <c r="BM320" s="16"/>
+    </row>
+    <row r="321" spans="1:65">
       <c r="A321" s="16"/>
       <c r="B321" s="16"/>
       <c r="C321" s="16"/>
@@ -24962,8 +25296,9 @@
       <c r="BJ321" s="16"/>
       <c r="BK321" s="16"/>
       <c r="BL321" s="16"/>
-    </row>
-    <row r="322" spans="1:64">
+      <c r="BM321" s="16"/>
+    </row>
+    <row r="322" spans="1:65">
       <c r="A322" s="16"/>
       <c r="B322" s="16"/>
       <c r="C322" s="16"/>
@@ -25027,8 +25362,9 @@
       <c r="BJ322" s="16"/>
       <c r="BK322" s="16"/>
       <c r="BL322" s="16"/>
-    </row>
-    <row r="323" spans="1:64">
+      <c r="BM322" s="16"/>
+    </row>
+    <row r="323" spans="1:65">
       <c r="A323" s="16"/>
       <c r="B323" s="16"/>
       <c r="C323" s="16"/>
@@ -25092,8 +25428,9 @@
       <c r="BJ323" s="16"/>
       <c r="BK323" s="16"/>
       <c r="BL323" s="16"/>
-    </row>
-    <row r="324" spans="1:64">
+      <c r="BM323" s="16"/>
+    </row>
+    <row r="324" spans="1:65">
       <c r="A324" s="16"/>
       <c r="B324" s="16"/>
       <c r="C324" s="16"/>
@@ -25157,8 +25494,9 @@
       <c r="BJ324" s="16"/>
       <c r="BK324" s="16"/>
       <c r="BL324" s="16"/>
-    </row>
-    <row r="325" spans="1:64">
+      <c r="BM324" s="16"/>
+    </row>
+    <row r="325" spans="1:65">
       <c r="A325" s="16"/>
       <c r="B325" s="16"/>
       <c r="C325" s="16"/>
@@ -25222,8 +25560,9 @@
       <c r="BJ325" s="16"/>
       <c r="BK325" s="16"/>
       <c r="BL325" s="16"/>
-    </row>
-    <row r="326" spans="1:64">
+      <c r="BM325" s="16"/>
+    </row>
+    <row r="326" spans="1:65">
       <c r="A326" s="16"/>
       <c r="B326" s="16"/>
       <c r="C326" s="16"/>
@@ -25287,8 +25626,9 @@
       <c r="BJ326" s="16"/>
       <c r="BK326" s="16"/>
       <c r="BL326" s="16"/>
-    </row>
-    <row r="327" spans="1:64">
+      <c r="BM326" s="16"/>
+    </row>
+    <row r="327" spans="1:65">
       <c r="A327" s="16"/>
       <c r="B327" s="16"/>
       <c r="C327" s="16"/>
@@ -25352,8 +25692,9 @@
       <c r="BJ327" s="16"/>
       <c r="BK327" s="16"/>
       <c r="BL327" s="16"/>
-    </row>
-    <row r="328" spans="1:64">
+      <c r="BM327" s="16"/>
+    </row>
+    <row r="328" spans="1:65">
       <c r="A328" s="16"/>
       <c r="B328" s="16"/>
       <c r="C328" s="16"/>
@@ -25417,8 +25758,9 @@
       <c r="BJ328" s="16"/>
       <c r="BK328" s="16"/>
       <c r="BL328" s="16"/>
-    </row>
-    <row r="329" spans="1:64">
+      <c r="BM328" s="16"/>
+    </row>
+    <row r="329" spans="1:65">
       <c r="A329" s="16"/>
       <c r="B329" s="16"/>
       <c r="C329" s="16"/>
@@ -25482,8 +25824,9 @@
       <c r="BJ329" s="16"/>
       <c r="BK329" s="16"/>
       <c r="BL329" s="16"/>
-    </row>
-    <row r="330" spans="1:64">
+      <c r="BM329" s="16"/>
+    </row>
+    <row r="330" spans="1:65">
       <c r="A330" s="16"/>
       <c r="B330" s="16"/>
       <c r="C330" s="16"/>
@@ -25547,8 +25890,9 @@
       <c r="BJ330" s="16"/>
       <c r="BK330" s="16"/>
       <c r="BL330" s="16"/>
-    </row>
-    <row r="331" spans="1:64">
+      <c r="BM330" s="16"/>
+    </row>
+    <row r="331" spans="1:65">
       <c r="A331" s="16"/>
       <c r="B331" s="16"/>
       <c r="C331" s="16"/>
@@ -25612,8 +25956,9 @@
       <c r="BJ331" s="16"/>
       <c r="BK331" s="16"/>
       <c r="BL331" s="16"/>
-    </row>
-    <row r="332" spans="1:64">
+      <c r="BM331" s="16"/>
+    </row>
+    <row r="332" spans="1:65">
       <c r="A332" s="16"/>
       <c r="B332" s="16"/>
       <c r="C332" s="16"/>
@@ -25677,8 +26022,9 @@
       <c r="BJ332" s="16"/>
       <c r="BK332" s="16"/>
       <c r="BL332" s="16"/>
-    </row>
-    <row r="333" spans="1:64">
+      <c r="BM332" s="16"/>
+    </row>
+    <row r="333" spans="1:65">
       <c r="A333" s="16"/>
       <c r="B333" s="16"/>
       <c r="C333" s="16"/>
@@ -25742,8 +26088,9 @@
       <c r="BJ333" s="16"/>
       <c r="BK333" s="16"/>
       <c r="BL333" s="16"/>
-    </row>
-    <row r="334" spans="1:64">
+      <c r="BM333" s="16"/>
+    </row>
+    <row r="334" spans="1:65">
       <c r="A334" s="16"/>
       <c r="B334" s="16"/>
       <c r="C334" s="16"/>
@@ -25807,8 +26154,9 @@
       <c r="BJ334" s="16"/>
       <c r="BK334" s="16"/>
       <c r="BL334" s="16"/>
-    </row>
-    <row r="335" spans="1:64">
+      <c r="BM334" s="16"/>
+    </row>
+    <row r="335" spans="1:65">
       <c r="A335" s="16"/>
       <c r="B335" s="16"/>
       <c r="C335" s="16"/>
@@ -25872,8 +26220,9 @@
       <c r="BJ335" s="16"/>
       <c r="BK335" s="16"/>
       <c r="BL335" s="16"/>
-    </row>
-    <row r="336" spans="1:64">
+      <c r="BM335" s="16"/>
+    </row>
+    <row r="336" spans="1:65">
       <c r="A336" s="16"/>
       <c r="B336" s="16"/>
       <c r="C336" s="16"/>
@@ -25937,8 +26286,9 @@
       <c r="BJ336" s="16"/>
       <c r="BK336" s="16"/>
       <c r="BL336" s="16"/>
-    </row>
-    <row r="337" spans="1:64">
+      <c r="BM336" s="16"/>
+    </row>
+    <row r="337" spans="1:65">
       <c r="A337" s="16"/>
       <c r="B337" s="16"/>
       <c r="C337" s="16"/>
@@ -26002,8 +26352,9 @@
       <c r="BJ337" s="16"/>
       <c r="BK337" s="16"/>
       <c r="BL337" s="16"/>
-    </row>
-    <row r="338" spans="1:64">
+      <c r="BM337" s="16"/>
+    </row>
+    <row r="338" spans="1:65">
       <c r="A338" s="16"/>
       <c r="B338" s="16"/>
       <c r="C338" s="16"/>
@@ -26067,8 +26418,9 @@
       <c r="BJ338" s="16"/>
       <c r="BK338" s="16"/>
       <c r="BL338" s="16"/>
-    </row>
-    <row r="339" spans="1:64">
+      <c r="BM338" s="16"/>
+    </row>
+    <row r="339" spans="1:65">
       <c r="A339" s="16"/>
       <c r="B339" s="16"/>
       <c r="C339" s="16"/>
@@ -26132,8 +26484,9 @@
       <c r="BJ339" s="16"/>
       <c r="BK339" s="16"/>
       <c r="BL339" s="16"/>
-    </row>
-    <row r="340" spans="1:64">
+      <c r="BM339" s="16"/>
+    </row>
+    <row r="340" spans="1:65">
       <c r="A340" s="16"/>
       <c r="B340" s="16"/>
       <c r="C340" s="16"/>
@@ -26197,8 +26550,9 @@
       <c r="BJ340" s="16"/>
       <c r="BK340" s="16"/>
       <c r="BL340" s="16"/>
-    </row>
-    <row r="341" spans="1:64">
+      <c r="BM340" s="16"/>
+    </row>
+    <row r="341" spans="1:65">
       <c r="A341" s="16"/>
       <c r="B341" s="16"/>
       <c r="C341" s="16"/>
@@ -26262,8 +26616,9 @@
       <c r="BJ341" s="16"/>
       <c r="BK341" s="16"/>
       <c r="BL341" s="16"/>
-    </row>
-    <row r="342" spans="1:64">
+      <c r="BM341" s="16"/>
+    </row>
+    <row r="342" spans="1:65">
       <c r="A342" s="16"/>
       <c r="B342" s="16"/>
       <c r="C342" s="16"/>
@@ -26327,8 +26682,9 @@
       <c r="BJ342" s="16"/>
       <c r="BK342" s="16"/>
       <c r="BL342" s="16"/>
-    </row>
-    <row r="343" spans="1:64">
+      <c r="BM342" s="16"/>
+    </row>
+    <row r="343" spans="1:65">
       <c r="A343" s="16"/>
       <c r="B343" s="16"/>
       <c r="C343" s="16"/>
@@ -26392,8 +26748,9 @@
       <c r="BJ343" s="16"/>
       <c r="BK343" s="16"/>
       <c r="BL343" s="16"/>
-    </row>
-    <row r="344" spans="1:64">
+      <c r="BM343" s="16"/>
+    </row>
+    <row r="344" spans="1:65">
       <c r="A344" s="16"/>
       <c r="B344" s="16"/>
       <c r="C344" s="16"/>
@@ -26457,8 +26814,9 @@
       <c r="BJ344" s="16"/>
       <c r="BK344" s="16"/>
       <c r="BL344" s="16"/>
-    </row>
-    <row r="345" spans="1:64">
+      <c r="BM344" s="16"/>
+    </row>
+    <row r="345" spans="1:65">
       <c r="A345" s="16"/>
       <c r="B345" s="16"/>
       <c r="C345" s="16"/>
@@ -26522,8 +26880,9 @@
       <c r="BJ345" s="16"/>
       <c r="BK345" s="16"/>
       <c r="BL345" s="16"/>
-    </row>
-    <row r="346" spans="1:64">
+      <c r="BM345" s="16"/>
+    </row>
+    <row r="346" spans="1:65">
       <c r="A346" s="16"/>
       <c r="B346" s="16"/>
       <c r="C346" s="16"/>
@@ -26587,8 +26946,9 @@
       <c r="BJ346" s="16"/>
       <c r="BK346" s="16"/>
       <c r="BL346" s="16"/>
-    </row>
-    <row r="347" spans="1:64">
+      <c r="BM346" s="16"/>
+    </row>
+    <row r="347" spans="1:65">
       <c r="A347" s="16"/>
       <c r="B347" s="16"/>
       <c r="C347" s="16"/>
@@ -26652,8 +27012,9 @@
       <c r="BJ347" s="16"/>
       <c r="BK347" s="16"/>
       <c r="BL347" s="16"/>
-    </row>
-    <row r="348" spans="1:64">
+      <c r="BM347" s="16"/>
+    </row>
+    <row r="348" spans="1:65">
       <c r="A348" s="16"/>
       <c r="B348" s="16"/>
       <c r="C348" s="16"/>
@@ -26717,8 +27078,9 @@
       <c r="BJ348" s="16"/>
       <c r="BK348" s="16"/>
       <c r="BL348" s="16"/>
-    </row>
-    <row r="349" spans="1:64">
+      <c r="BM348" s="16"/>
+    </row>
+    <row r="349" spans="1:65">
       <c r="A349" s="16"/>
       <c r="B349" s="16"/>
       <c r="C349" s="16"/>
@@ -26782,8 +27144,9 @@
       <c r="BJ349" s="16"/>
       <c r="BK349" s="16"/>
       <c r="BL349" s="16"/>
-    </row>
-    <row r="350" spans="1:64">
+      <c r="BM349" s="16"/>
+    </row>
+    <row r="350" spans="1:65">
       <c r="A350" s="16"/>
       <c r="B350" s="16"/>
       <c r="C350" s="16"/>
@@ -26847,8 +27210,9 @@
       <c r="BJ350" s="16"/>
       <c r="BK350" s="16"/>
       <c r="BL350" s="16"/>
-    </row>
-    <row r="351" spans="1:64">
+      <c r="BM350" s="16"/>
+    </row>
+    <row r="351" spans="1:65">
       <c r="A351" s="16"/>
       <c r="B351" s="16"/>
       <c r="C351" s="16"/>
@@ -26912,8 +27276,9 @@
       <c r="BJ351" s="16"/>
       <c r="BK351" s="16"/>
       <c r="BL351" s="16"/>
-    </row>
-    <row r="352" spans="1:64">
+      <c r="BM351" s="16"/>
+    </row>
+    <row r="352" spans="1:65">
       <c r="A352" s="16"/>
       <c r="B352" s="16"/>
       <c r="C352" s="16"/>
@@ -26977,8 +27342,9 @@
       <c r="BJ352" s="16"/>
       <c r="BK352" s="16"/>
       <c r="BL352" s="16"/>
-    </row>
-    <row r="353" spans="1:64">
+      <c r="BM352" s="16"/>
+    </row>
+    <row r="353" spans="1:65">
       <c r="A353" s="16"/>
       <c r="B353" s="16"/>
       <c r="C353" s="16"/>
@@ -27042,8 +27408,9 @@
       <c r="BJ353" s="16"/>
       <c r="BK353" s="16"/>
       <c r="BL353" s="16"/>
-    </row>
-    <row r="354" spans="1:64">
+      <c r="BM353" s="16"/>
+    </row>
+    <row r="354" spans="1:65">
       <c r="A354" s="16"/>
       <c r="B354" s="16"/>
       <c r="C354" s="16"/>
@@ -27107,8 +27474,9 @@
       <c r="BJ354" s="16"/>
       <c r="BK354" s="16"/>
       <c r="BL354" s="16"/>
-    </row>
-    <row r="355" spans="1:64">
+      <c r="BM354" s="16"/>
+    </row>
+    <row r="355" spans="1:65">
       <c r="A355" s="16"/>
       <c r="B355" s="16"/>
       <c r="C355" s="16"/>
@@ -27172,8 +27540,9 @@
       <c r="BJ355" s="16"/>
       <c r="BK355" s="16"/>
       <c r="BL355" s="16"/>
-    </row>
-    <row r="356" spans="1:64">
+      <c r="BM355" s="16"/>
+    </row>
+    <row r="356" spans="1:65">
       <c r="A356" s="16"/>
       <c r="B356" s="16"/>
       <c r="C356" s="16"/>
@@ -27237,8 +27606,9 @@
       <c r="BJ356" s="16"/>
       <c r="BK356" s="16"/>
       <c r="BL356" s="16"/>
-    </row>
-    <row r="357" spans="1:64">
+      <c r="BM356" s="16"/>
+    </row>
+    <row r="357" spans="1:65">
       <c r="A357" s="16"/>
       <c r="B357" s="16"/>
       <c r="C357" s="16"/>
@@ -27302,8 +27672,9 @@
       <c r="BJ357" s="16"/>
       <c r="BK357" s="16"/>
       <c r="BL357" s="16"/>
-    </row>
-    <row r="358" spans="1:64">
+      <c r="BM357" s="16"/>
+    </row>
+    <row r="358" spans="1:65">
       <c r="A358" s="16"/>
       <c r="B358" s="16"/>
       <c r="C358" s="16"/>
@@ -27367,8 +27738,9 @@
       <c r="BJ358" s="16"/>
       <c r="BK358" s="16"/>
       <c r="BL358" s="16"/>
-    </row>
-    <row r="359" spans="1:64">
+      <c r="BM358" s="16"/>
+    </row>
+    <row r="359" spans="1:65">
       <c r="A359" s="16"/>
       <c r="B359" s="16"/>
       <c r="C359" s="16"/>
@@ -27432,8 +27804,9 @@
       <c r="BJ359" s="16"/>
       <c r="BK359" s="16"/>
       <c r="BL359" s="16"/>
-    </row>
-    <row r="360" spans="1:64">
+      <c r="BM359" s="16"/>
+    </row>
+    <row r="360" spans="1:65">
       <c r="A360" s="16"/>
       <c r="B360" s="16"/>
       <c r="C360" s="16"/>
@@ -27497,8 +27870,9 @@
       <c r="BJ360" s="16"/>
       <c r="BK360" s="16"/>
       <c r="BL360" s="16"/>
-    </row>
-    <row r="361" spans="1:64">
+      <c r="BM360" s="16"/>
+    </row>
+    <row r="361" spans="1:65">
       <c r="A361" s="16"/>
       <c r="B361" s="16"/>
       <c r="C361" s="16"/>
@@ -27562,8 +27936,9 @@
       <c r="BJ361" s="16"/>
       <c r="BK361" s="16"/>
       <c r="BL361" s="16"/>
-    </row>
-    <row r="362" spans="1:64">
+      <c r="BM361" s="16"/>
+    </row>
+    <row r="362" spans="1:65">
       <c r="A362" s="16"/>
       <c r="B362" s="16"/>
       <c r="C362" s="16"/>
@@ -27627,8 +28002,9 @@
       <c r="BJ362" s="16"/>
       <c r="BK362" s="16"/>
       <c r="BL362" s="16"/>
-    </row>
-    <row r="363" spans="1:64">
+      <c r="BM362" s="16"/>
+    </row>
+    <row r="363" spans="1:65">
       <c r="A363" s="16"/>
       <c r="B363" s="16"/>
       <c r="C363" s="16"/>
@@ -27692,8 +28068,9 @@
       <c r="BJ363" s="16"/>
       <c r="BK363" s="16"/>
       <c r="BL363" s="16"/>
-    </row>
-    <row r="364" spans="1:64">
+      <c r="BM363" s="16"/>
+    </row>
+    <row r="364" spans="1:65">
       <c r="A364" s="16"/>
       <c r="B364" s="16"/>
       <c r="C364" s="16"/>
@@ -27757,8 +28134,9 @@
       <c r="BJ364" s="16"/>
       <c r="BK364" s="16"/>
       <c r="BL364" s="16"/>
-    </row>
-    <row r="365" spans="1:64">
+      <c r="BM364" s="16"/>
+    </row>
+    <row r="365" spans="1:65">
       <c r="A365" s="16"/>
       <c r="B365" s="16"/>
       <c r="C365" s="16"/>
@@ -27822,8 +28200,9 @@
       <c r="BJ365" s="16"/>
       <c r="BK365" s="16"/>
       <c r="BL365" s="16"/>
-    </row>
-    <row r="366" spans="1:64">
+      <c r="BM365" s="16"/>
+    </row>
+    <row r="366" spans="1:65">
       <c r="A366" s="16"/>
       <c r="B366" s="16"/>
       <c r="C366" s="16"/>
@@ -27887,8 +28266,9 @@
       <c r="BJ366" s="16"/>
       <c r="BK366" s="16"/>
       <c r="BL366" s="16"/>
-    </row>
-    <row r="367" spans="1:64">
+      <c r="BM366" s="16"/>
+    </row>
+    <row r="367" spans="1:65">
       <c r="A367" s="16"/>
       <c r="B367" s="16"/>
       <c r="C367" s="16"/>
@@ -27952,8 +28332,9 @@
       <c r="BJ367" s="16"/>
       <c r="BK367" s="16"/>
       <c r="BL367" s="16"/>
-    </row>
-    <row r="368" spans="1:64">
+      <c r="BM367" s="16"/>
+    </row>
+    <row r="368" spans="1:65">
       <c r="A368" s="16"/>
       <c r="B368" s="16"/>
       <c r="C368" s="16"/>
@@ -28017,8 +28398,9 @@
       <c r="BJ368" s="16"/>
       <c r="BK368" s="16"/>
       <c r="BL368" s="16"/>
-    </row>
-    <row r="369" spans="1:64">
+      <c r="BM368" s="16"/>
+    </row>
+    <row r="369" spans="1:65">
       <c r="A369" s="16"/>
       <c r="B369" s="16"/>
       <c r="C369" s="16"/>
@@ -28082,8 +28464,9 @@
       <c r="BJ369" s="16"/>
       <c r="BK369" s="16"/>
       <c r="BL369" s="16"/>
-    </row>
-    <row r="370" spans="1:64">
+      <c r="BM369" s="16"/>
+    </row>
+    <row r="370" spans="1:65">
       <c r="A370" s="16"/>
       <c r="B370" s="16"/>
       <c r="C370" s="16"/>
@@ -28147,8 +28530,9 @@
       <c r="BJ370" s="16"/>
       <c r="BK370" s="16"/>
       <c r="BL370" s="16"/>
-    </row>
-    <row r="371" spans="1:64">
+      <c r="BM370" s="16"/>
+    </row>
+    <row r="371" spans="1:65">
       <c r="A371" s="16"/>
       <c r="B371" s="16"/>
       <c r="C371" s="16"/>
@@ -28212,8 +28596,9 @@
       <c r="BJ371" s="16"/>
       <c r="BK371" s="16"/>
       <c r="BL371" s="16"/>
-    </row>
-    <row r="372" spans="1:64">
+      <c r="BM371" s="16"/>
+    </row>
+    <row r="372" spans="1:65">
       <c r="A372" s="16"/>
       <c r="B372" s="16"/>
       <c r="C372" s="16"/>
@@ -28277,8 +28662,9 @@
       <c r="BJ372" s="16"/>
       <c r="BK372" s="16"/>
       <c r="BL372" s="16"/>
-    </row>
-    <row r="373" spans="1:64">
+      <c r="BM372" s="16"/>
+    </row>
+    <row r="373" spans="1:65">
       <c r="A373" s="16"/>
       <c r="B373" s="16"/>
       <c r="C373" s="16"/>
@@ -28342,8 +28728,9 @@
       <c r="BJ373" s="16"/>
       <c r="BK373" s="16"/>
       <c r="BL373" s="16"/>
-    </row>
-    <row r="374" spans="1:64">
+      <c r="BM373" s="16"/>
+    </row>
+    <row r="374" spans="1:65">
       <c r="A374" s="16"/>
       <c r="B374" s="16"/>
       <c r="C374" s="16"/>
@@ -28407,8 +28794,9 @@
       <c r="BJ374" s="16"/>
       <c r="BK374" s="16"/>
       <c r="BL374" s="16"/>
-    </row>
-    <row r="375" spans="1:64">
+      <c r="BM374" s="16"/>
+    </row>
+    <row r="375" spans="1:65">
       <c r="A375" s="16"/>
       <c r="B375" s="16"/>
       <c r="C375" s="16"/>
@@ -28472,8 +28860,9 @@
       <c r="BJ375" s="16"/>
       <c r="BK375" s="16"/>
       <c r="BL375" s="16"/>
-    </row>
-    <row r="376" spans="1:64">
+      <c r="BM375" s="16"/>
+    </row>
+    <row r="376" spans="1:65">
       <c r="A376" s="16"/>
       <c r="B376" s="16"/>
       <c r="C376" s="16"/>
@@ -28537,8 +28926,9 @@
       <c r="BJ376" s="16"/>
       <c r="BK376" s="16"/>
       <c r="BL376" s="16"/>
-    </row>
-    <row r="377" spans="1:64">
+      <c r="BM376" s="16"/>
+    </row>
+    <row r="377" spans="1:65">
       <c r="A377" s="16"/>
       <c r="B377" s="16"/>
       <c r="C377" s="16"/>
@@ -28602,8 +28992,9 @@
       <c r="BJ377" s="16"/>
       <c r="BK377" s="16"/>
       <c r="BL377" s="16"/>
-    </row>
-    <row r="378" spans="1:64">
+      <c r="BM377" s="16"/>
+    </row>
+    <row r="378" spans="1:65">
       <c r="A378" s="16"/>
       <c r="B378" s="16"/>
       <c r="C378" s="16"/>
@@ -28667,8 +29058,9 @@
       <c r="BJ378" s="16"/>
       <c r="BK378" s="16"/>
       <c r="BL378" s="16"/>
-    </row>
-    <row r="379" spans="1:64">
+      <c r="BM378" s="16"/>
+    </row>
+    <row r="379" spans="1:65">
       <c r="A379" s="16"/>
       <c r="B379" s="16"/>
       <c r="C379" s="16"/>
@@ -28732,8 +29124,9 @@
       <c r="BJ379" s="16"/>
       <c r="BK379" s="16"/>
       <c r="BL379" s="16"/>
-    </row>
-    <row r="380" spans="1:64">
+      <c r="BM379" s="16"/>
+    </row>
+    <row r="380" spans="1:65">
       <c r="A380" s="16"/>
       <c r="B380" s="16"/>
       <c r="C380" s="16"/>
@@ -28797,8 +29190,9 @@
       <c r="BJ380" s="16"/>
       <c r="BK380" s="16"/>
       <c r="BL380" s="16"/>
-    </row>
-    <row r="381" spans="1:64">
+      <c r="BM380" s="16"/>
+    </row>
+    <row r="381" spans="1:65">
       <c r="A381" s="16"/>
       <c r="B381" s="16"/>
       <c r="C381" s="16"/>
@@ -28862,8 +29256,9 @@
       <c r="BJ381" s="16"/>
       <c r="BK381" s="16"/>
       <c r="BL381" s="16"/>
-    </row>
-    <row r="382" spans="1:64">
+      <c r="BM381" s="16"/>
+    </row>
+    <row r="382" spans="1:65">
       <c r="A382" s="16"/>
       <c r="B382" s="16"/>
       <c r="C382" s="16"/>
@@ -28927,8 +29322,9 @@
       <c r="BJ382" s="16"/>
       <c r="BK382" s="16"/>
       <c r="BL382" s="16"/>
-    </row>
-    <row r="383" spans="1:64">
+      <c r="BM382" s="16"/>
+    </row>
+    <row r="383" spans="1:65">
       <c r="A383" s="16"/>
       <c r="B383" s="16"/>
       <c r="C383" s="16"/>
@@ -28992,8 +29388,9 @@
       <c r="BJ383" s="16"/>
       <c r="BK383" s="16"/>
       <c r="BL383" s="16"/>
-    </row>
-    <row r="384" spans="1:64">
+      <c r="BM383" s="16"/>
+    </row>
+    <row r="384" spans="1:65">
       <c r="A384" s="16"/>
       <c r="B384" s="16"/>
       <c r="C384" s="16"/>
@@ -29057,8 +29454,9 @@
       <c r="BJ384" s="16"/>
       <c r="BK384" s="16"/>
       <c r="BL384" s="16"/>
-    </row>
-    <row r="385" spans="1:64">
+      <c r="BM384" s="16"/>
+    </row>
+    <row r="385" spans="1:65">
       <c r="A385" s="16"/>
       <c r="B385" s="16"/>
       <c r="C385" s="16"/>
@@ -29122,8 +29520,9 @@
       <c r="BJ385" s="16"/>
       <c r="BK385" s="16"/>
       <c r="BL385" s="16"/>
-    </row>
-    <row r="386" spans="1:64">
+      <c r="BM385" s="16"/>
+    </row>
+    <row r="386" spans="1:65">
       <c r="A386" s="16"/>
       <c r="B386" s="16"/>
       <c r="C386" s="16"/>
@@ -29187,8 +29586,9 @@
       <c r="BJ386" s="16"/>
       <c r="BK386" s="16"/>
       <c r="BL386" s="16"/>
-    </row>
-    <row r="387" spans="1:64">
+      <c r="BM386" s="16"/>
+    </row>
+    <row r="387" spans="1:65">
       <c r="A387" s="16"/>
       <c r="B387" s="16"/>
       <c r="C387" s="16"/>
@@ -29252,8 +29652,9 @@
       <c r="BJ387" s="16"/>
       <c r="BK387" s="16"/>
       <c r="BL387" s="16"/>
-    </row>
-    <row r="388" spans="1:64">
+      <c r="BM387" s="16"/>
+    </row>
+    <row r="388" spans="1:65">
       <c r="A388" s="16"/>
       <c r="B388" s="16"/>
       <c r="C388" s="16"/>
@@ -29317,8 +29718,9 @@
       <c r="BJ388" s="16"/>
       <c r="BK388" s="16"/>
       <c r="BL388" s="16"/>
-    </row>
-    <row r="389" spans="1:64">
+      <c r="BM388" s="16"/>
+    </row>
+    <row r="389" spans="1:65">
       <c r="A389" s="16"/>
       <c r="B389" s="16"/>
       <c r="C389" s="16"/>
@@ -29382,8 +29784,9 @@
       <c r="BJ389" s="16"/>
       <c r="BK389" s="16"/>
       <c r="BL389" s="16"/>
-    </row>
-    <row r="390" spans="1:64">
+      <c r="BM389" s="16"/>
+    </row>
+    <row r="390" spans="1:65">
       <c r="A390" s="16"/>
       <c r="B390" s="16"/>
       <c r="C390" s="16"/>
@@ -29447,8 +29850,9 @@
       <c r="BJ390" s="16"/>
       <c r="BK390" s="16"/>
       <c r="BL390" s="16"/>
-    </row>
-    <row r="391" spans="1:64">
+      <c r="BM390" s="16"/>
+    </row>
+    <row r="391" spans="1:65">
       <c r="A391" s="16"/>
       <c r="B391" s="16"/>
       <c r="C391" s="16"/>
@@ -29512,8 +29916,9 @@
       <c r="BJ391" s="16"/>
       <c r="BK391" s="16"/>
       <c r="BL391" s="16"/>
-    </row>
-    <row r="392" spans="1:64">
+      <c r="BM391" s="16"/>
+    </row>
+    <row r="392" spans="1:65">
       <c r="A392" s="16"/>
       <c r="B392" s="16"/>
       <c r="C392" s="16"/>
@@ -29577,8 +29982,9 @@
       <c r="BJ392" s="16"/>
       <c r="BK392" s="16"/>
       <c r="BL392" s="16"/>
-    </row>
-    <row r="393" spans="1:64">
+      <c r="BM392" s="16"/>
+    </row>
+    <row r="393" spans="1:65">
       <c r="A393" s="16"/>
       <c r="B393" s="16"/>
       <c r="C393" s="16"/>
@@ -29642,8 +30048,9 @@
       <c r="BJ393" s="16"/>
       <c r="BK393" s="16"/>
       <c r="BL393" s="16"/>
-    </row>
-    <row r="394" spans="1:64">
+      <c r="BM393" s="16"/>
+    </row>
+    <row r="394" spans="1:65">
       <c r="A394" s="16"/>
       <c r="B394" s="16"/>
       <c r="C394" s="16"/>
@@ -29707,8 +30114,9 @@
       <c r="BJ394" s="16"/>
       <c r="BK394" s="16"/>
       <c r="BL394" s="16"/>
-    </row>
-    <row r="395" spans="1:64">
+      <c r="BM394" s="16"/>
+    </row>
+    <row r="395" spans="1:65">
       <c r="A395" s="16"/>
       <c r="B395" s="16"/>
       <c r="C395" s="16"/>
@@ -29772,8 +30180,9 @@
       <c r="BJ395" s="16"/>
       <c r="BK395" s="16"/>
       <c r="BL395" s="16"/>
-    </row>
-    <row r="396" spans="1:64">
+      <c r="BM395" s="16"/>
+    </row>
+    <row r="396" spans="1:65">
       <c r="A396" s="16"/>
       <c r="B396" s="16"/>
       <c r="C396" s="16"/>
@@ -29837,8 +30246,9 @@
       <c r="BJ396" s="16"/>
       <c r="BK396" s="16"/>
       <c r="BL396" s="16"/>
-    </row>
-    <row r="397" spans="1:64">
+      <c r="BM396" s="16"/>
+    </row>
+    <row r="397" spans="1:65">
       <c r="A397" s="16"/>
       <c r="B397" s="16"/>
       <c r="C397" s="16"/>
@@ -29902,8 +30312,9 @@
       <c r="BJ397" s="16"/>
       <c r="BK397" s="16"/>
       <c r="BL397" s="16"/>
-    </row>
-    <row r="398" spans="1:64">
+      <c r="BM397" s="16"/>
+    </row>
+    <row r="398" spans="1:65">
       <c r="A398" s="16"/>
       <c r="B398" s="16"/>
       <c r="C398" s="16"/>
@@ -29967,8 +30378,9 @@
       <c r="BJ398" s="16"/>
       <c r="BK398" s="16"/>
       <c r="BL398" s="16"/>
-    </row>
-    <row r="399" spans="1:64">
+      <c r="BM398" s="16"/>
+    </row>
+    <row r="399" spans="1:65">
       <c r="A399" s="16"/>
       <c r="B399" s="16"/>
       <c r="C399" s="16"/>
@@ -30032,8 +30444,9 @@
       <c r="BJ399" s="16"/>
       <c r="BK399" s="16"/>
       <c r="BL399" s="16"/>
-    </row>
-    <row r="400" spans="1:64">
+      <c r="BM399" s="16"/>
+    </row>
+    <row r="400" spans="1:65">
       <c r="A400" s="16"/>
       <c r="B400" s="16"/>
       <c r="C400" s="16"/>
@@ -30097,8 +30510,9 @@
       <c r="BJ400" s="16"/>
       <c r="BK400" s="16"/>
       <c r="BL400" s="16"/>
-    </row>
-    <row r="401" spans="1:64">
+      <c r="BM400" s="16"/>
+    </row>
+    <row r="401" spans="1:65">
       <c r="A401" s="16"/>
       <c r="B401" s="16"/>
       <c r="C401" s="16"/>
@@ -30162,8 +30576,9 @@
       <c r="BJ401" s="16"/>
       <c r="BK401" s="16"/>
       <c r="BL401" s="16"/>
-    </row>
-    <row r="402" spans="1:64">
+      <c r="BM401" s="16"/>
+    </row>
+    <row r="402" spans="1:65">
       <c r="A402" s="16"/>
       <c r="B402" s="16"/>
       <c r="C402" s="16"/>
@@ -30227,8 +30642,9 @@
       <c r="BJ402" s="16"/>
       <c r="BK402" s="16"/>
       <c r="BL402" s="16"/>
-    </row>
-    <row r="403" spans="1:64">
+      <c r="BM402" s="16"/>
+    </row>
+    <row r="403" spans="1:65">
       <c r="A403" s="16"/>
       <c r="B403" s="16"/>
       <c r="C403" s="16"/>
@@ -30292,8 +30708,9 @@
       <c r="BJ403" s="16"/>
       <c r="BK403" s="16"/>
       <c r="BL403" s="16"/>
-    </row>
-    <row r="404" spans="1:64">
+      <c r="BM403" s="16"/>
+    </row>
+    <row r="404" spans="1:65">
       <c r="A404" s="16"/>
       <c r="B404" s="16"/>
       <c r="C404" s="16"/>
@@ -30357,8 +30774,9 @@
       <c r="BJ404" s="16"/>
       <c r="BK404" s="16"/>
       <c r="BL404" s="16"/>
-    </row>
-    <row r="405" spans="1:64">
+      <c r="BM404" s="16"/>
+    </row>
+    <row r="405" spans="1:65">
       <c r="A405" s="16"/>
       <c r="B405" s="16"/>
       <c r="C405" s="16"/>
@@ -30422,8 +30840,9 @@
       <c r="BJ405" s="16"/>
       <c r="BK405" s="16"/>
       <c r="BL405" s="16"/>
-    </row>
-    <row r="406" spans="1:64">
+      <c r="BM405" s="16"/>
+    </row>
+    <row r="406" spans="1:65">
       <c r="A406" s="16"/>
       <c r="B406" s="16"/>
       <c r="C406" s="16"/>
@@ -30487,8 +30906,9 @@
       <c r="BJ406" s="16"/>
       <c r="BK406" s="16"/>
       <c r="BL406" s="16"/>
-    </row>
-    <row r="407" spans="1:64">
+      <c r="BM406" s="16"/>
+    </row>
+    <row r="407" spans="1:65">
       <c r="A407" s="16"/>
       <c r="B407" s="16"/>
       <c r="C407" s="16"/>
@@ -30552,8 +30972,9 @@
       <c r="BJ407" s="16"/>
       <c r="BK407" s="16"/>
       <c r="BL407" s="16"/>
-    </row>
-    <row r="408" spans="1:64">
+      <c r="BM407" s="16"/>
+    </row>
+    <row r="408" spans="1:65">
       <c r="A408" s="16"/>
       <c r="B408" s="16"/>
       <c r="C408" s="16"/>
@@ -30617,8 +31038,9 @@
       <c r="BJ408" s="16"/>
       <c r="BK408" s="16"/>
       <c r="BL408" s="16"/>
-    </row>
-    <row r="409" spans="1:64">
+      <c r="BM408" s="16"/>
+    </row>
+    <row r="409" spans="1:65">
       <c r="A409" s="16"/>
       <c r="B409" s="16"/>
       <c r="C409" s="16"/>
@@ -30682,8 +31104,9 @@
       <c r="BJ409" s="16"/>
       <c r="BK409" s="16"/>
       <c r="BL409" s="16"/>
-    </row>
-    <row r="410" spans="1:64">
+      <c r="BM409" s="16"/>
+    </row>
+    <row r="410" spans="1:65">
       <c r="A410" s="16"/>
       <c r="B410" s="16"/>
       <c r="C410" s="16"/>
@@ -30747,8 +31170,9 @@
       <c r="BJ410" s="16"/>
       <c r="BK410" s="16"/>
       <c r="BL410" s="16"/>
-    </row>
-    <row r="411" spans="1:64">
+      <c r="BM410" s="16"/>
+    </row>
+    <row r="411" spans="1:65">
       <c r="A411" s="16"/>
       <c r="B411" s="16"/>
       <c r="C411" s="16"/>
@@ -30812,8 +31236,9 @@
       <c r="BJ411" s="16"/>
       <c r="BK411" s="16"/>
       <c r="BL411" s="16"/>
-    </row>
-    <row r="412" spans="1:64">
+      <c r="BM411" s="16"/>
+    </row>
+    <row r="412" spans="1:65">
       <c r="A412" s="16"/>
       <c r="B412" s="16"/>
       <c r="C412" s="16"/>
@@ -30877,8 +31302,9 @@
       <c r="BJ412" s="16"/>
       <c r="BK412" s="16"/>
       <c r="BL412" s="16"/>
-    </row>
-    <row r="413" spans="1:64">
+      <c r="BM412" s="16"/>
+    </row>
+    <row r="413" spans="1:65">
       <c r="A413" s="16"/>
       <c r="B413" s="16"/>
       <c r="C413" s="16"/>
@@ -30942,8 +31368,9 @@
       <c r="BJ413" s="16"/>
       <c r="BK413" s="16"/>
       <c r="BL413" s="16"/>
-    </row>
-    <row r="414" spans="1:64">
+      <c r="BM413" s="16"/>
+    </row>
+    <row r="414" spans="1:65">
       <c r="A414" s="16"/>
       <c r="B414" s="16"/>
       <c r="C414" s="16"/>
@@ -31007,8 +31434,9 @@
       <c r="BJ414" s="16"/>
       <c r="BK414" s="16"/>
       <c r="BL414" s="16"/>
-    </row>
-    <row r="415" spans="1:64">
+      <c r="BM414" s="16"/>
+    </row>
+    <row r="415" spans="1:65">
       <c r="A415" s="16"/>
       <c r="B415" s="16"/>
       <c r="C415" s="16"/>
@@ -31072,8 +31500,9 @@
       <c r="BJ415" s="16"/>
       <c r="BK415" s="16"/>
       <c r="BL415" s="16"/>
-    </row>
-    <row r="416" spans="1:64">
+      <c r="BM415" s="16"/>
+    </row>
+    <row r="416" spans="1:65">
       <c r="A416" s="16"/>
       <c r="B416" s="16"/>
       <c r="C416" s="16"/>
@@ -31137,8 +31566,9 @@
       <c r="BJ416" s="16"/>
       <c r="BK416" s="16"/>
       <c r="BL416" s="16"/>
-    </row>
-    <row r="417" spans="1:64">
+      <c r="BM416" s="16"/>
+    </row>
+    <row r="417" spans="1:65">
       <c r="A417" s="16"/>
       <c r="B417" s="16"/>
       <c r="C417" s="16"/>
@@ -31202,8 +31632,9 @@
       <c r="BJ417" s="16"/>
       <c r="BK417" s="16"/>
       <c r="BL417" s="16"/>
-    </row>
-    <row r="418" spans="1:64">
+      <c r="BM417" s="16"/>
+    </row>
+    <row r="418" spans="1:65">
       <c r="A418" s="16"/>
       <c r="B418" s="16"/>
       <c r="C418" s="16"/>
@@ -31267,8 +31698,9 @@
       <c r="BJ418" s="16"/>
       <c r="BK418" s="16"/>
       <c r="BL418" s="16"/>
-    </row>
-    <row r="419" spans="1:64">
+      <c r="BM418" s="16"/>
+    </row>
+    <row r="419" spans="1:65">
       <c r="A419" s="16"/>
       <c r="B419" s="16"/>
       <c r="C419" s="16"/>
@@ -31332,8 +31764,9 @@
       <c r="BJ419" s="16"/>
       <c r="BK419" s="16"/>
       <c r="BL419" s="16"/>
-    </row>
-    <row r="420" spans="1:64">
+      <c r="BM419" s="16"/>
+    </row>
+    <row r="420" spans="1:65">
       <c r="A420" s="16"/>
       <c r="B420" s="16"/>
       <c r="C420" s="16"/>
@@ -31397,8 +31830,9 @@
       <c r="BJ420" s="16"/>
       <c r="BK420" s="16"/>
       <c r="BL420" s="16"/>
-    </row>
-    <row r="421" spans="1:64">
+      <c r="BM420" s="16"/>
+    </row>
+    <row r="421" spans="1:65">
       <c r="A421" s="16"/>
       <c r="B421" s="16"/>
       <c r="C421" s="16"/>
@@ -31462,8 +31896,9 @@
       <c r="BJ421" s="16"/>
       <c r="BK421" s="16"/>
       <c r="BL421" s="16"/>
-    </row>
-    <row r="422" spans="1:64">
+      <c r="BM421" s="16"/>
+    </row>
+    <row r="422" spans="1:65">
       <c r="A422" s="16"/>
       <c r="B422" s="16"/>
       <c r="C422" s="16"/>
@@ -31527,8 +31962,9 @@
       <c r="BJ422" s="16"/>
       <c r="BK422" s="16"/>
       <c r="BL422" s="16"/>
-    </row>
-    <row r="423" spans="1:64">
+      <c r="BM422" s="16"/>
+    </row>
+    <row r="423" spans="1:65">
       <c r="A423" s="16"/>
       <c r="B423" s="16"/>
       <c r="C423" s="16"/>
@@ -31592,8 +32028,9 @@
       <c r="BJ423" s="16"/>
       <c r="BK423" s="16"/>
       <c r="BL423" s="16"/>
-    </row>
-    <row r="424" spans="1:64">
+      <c r="BM423" s="16"/>
+    </row>
+    <row r="424" spans="1:65">
       <c r="A424" s="16"/>
       <c r="B424" s="16"/>
       <c r="C424" s="16"/>
@@ -31657,8 +32094,9 @@
       <c r="BJ424" s="16"/>
       <c r="BK424" s="16"/>
       <c r="BL424" s="16"/>
-    </row>
-    <row r="425" spans="1:64">
+      <c r="BM424" s="16"/>
+    </row>
+    <row r="425" spans="1:65">
       <c r="A425" s="16"/>
       <c r="B425" s="16"/>
       <c r="C425" s="16"/>
@@ -31722,8 +32160,9 @@
       <c r="BJ425" s="16"/>
       <c r="BK425" s="16"/>
       <c r="BL425" s="16"/>
-    </row>
-    <row r="426" spans="1:64">
+      <c r="BM425" s="16"/>
+    </row>
+    <row r="426" spans="1:65">
       <c r="A426" s="16"/>
       <c r="B426" s="16"/>
       <c r="C426" s="16"/>
@@ -31787,8 +32226,9 @@
       <c r="BJ426" s="16"/>
       <c r="BK426" s="16"/>
       <c r="BL426" s="16"/>
-    </row>
-    <row r="427" spans="1:64">
+      <c r="BM426" s="16"/>
+    </row>
+    <row r="427" spans="1:65">
       <c r="A427" s="16"/>
       <c r="B427" s="16"/>
       <c r="C427" s="16"/>
@@ -31852,8 +32292,9 @@
       <c r="BJ427" s="16"/>
       <c r="BK427" s="16"/>
       <c r="BL427" s="16"/>
-    </row>
-    <row r="428" spans="1:64">
+      <c r="BM427" s="16"/>
+    </row>
+    <row r="428" spans="1:65">
       <c r="A428" s="16"/>
       <c r="B428" s="16"/>
       <c r="C428" s="16"/>
@@ -31917,8 +32358,9 @@
       <c r="BJ428" s="16"/>
       <c r="BK428" s="16"/>
       <c r="BL428" s="16"/>
-    </row>
-    <row r="429" spans="1:64">
+      <c r="BM428" s="16"/>
+    </row>
+    <row r="429" spans="1:65">
       <c r="A429" s="16"/>
       <c r="B429" s="16"/>
       <c r="C429" s="16"/>
@@ -31982,8 +32424,9 @@
       <c r="BJ429" s="16"/>
       <c r="BK429" s="16"/>
       <c r="BL429" s="16"/>
-    </row>
-    <row r="430" spans="1:64">
+      <c r="BM429" s="16"/>
+    </row>
+    <row r="430" spans="1:65">
       <c r="A430" s="16"/>
       <c r="B430" s="16"/>
       <c r="C430" s="16"/>
@@ -32047,8 +32490,9 @@
       <c r="BJ430" s="16"/>
       <c r="BK430" s="16"/>
       <c r="BL430" s="16"/>
-    </row>
-    <row r="431" spans="1:64">
+      <c r="BM430" s="16"/>
+    </row>
+    <row r="431" spans="1:65">
       <c r="A431" s="16"/>
       <c r="B431" s="16"/>
       <c r="C431" s="16"/>
@@ -32112,8 +32556,9 @@
       <c r="BJ431" s="16"/>
       <c r="BK431" s="16"/>
       <c r="BL431" s="16"/>
-    </row>
-    <row r="432" spans="1:64">
+      <c r="BM431" s="16"/>
+    </row>
+    <row r="432" spans="1:65">
       <c r="A432" s="16"/>
       <c r="B432" s="16"/>
       <c r="C432" s="16"/>
@@ -32177,8 +32622,9 @@
       <c r="BJ432" s="16"/>
       <c r="BK432" s="16"/>
       <c r="BL432" s="16"/>
-    </row>
-    <row r="433" spans="1:64">
+      <c r="BM432" s="16"/>
+    </row>
+    <row r="433" spans="1:65">
       <c r="A433" s="16"/>
       <c r="B433" s="16"/>
       <c r="C433" s="16"/>
@@ -32242,8 +32688,9 @@
       <c r="BJ433" s="16"/>
       <c r="BK433" s="16"/>
       <c r="BL433" s="16"/>
-    </row>
-    <row r="434" spans="1:64">
+      <c r="BM433" s="16"/>
+    </row>
+    <row r="434" spans="1:65">
       <c r="A434" s="16"/>
       <c r="B434" s="16"/>
       <c r="C434" s="16"/>
@@ -32307,8 +32754,9 @@
       <c r="BJ434" s="16"/>
       <c r="BK434" s="16"/>
       <c r="BL434" s="16"/>
-    </row>
-    <row r="435" spans="1:64">
+      <c r="BM434" s="16"/>
+    </row>
+    <row r="435" spans="1:65">
       <c r="A435" s="16"/>
       <c r="B435" s="16"/>
       <c r="C435" s="16"/>
@@ -32372,8 +32820,9 @@
       <c r="BJ435" s="16"/>
       <c r="BK435" s="16"/>
       <c r="BL435" s="16"/>
-    </row>
-    <row r="436" spans="1:64">
+      <c r="BM435" s="16"/>
+    </row>
+    <row r="436" spans="1:65">
       <c r="A436" s="16"/>
       <c r="B436" s="16"/>
       <c r="C436" s="16"/>
@@ -32437,8 +32886,9 @@
       <c r="BJ436" s="16"/>
       <c r="BK436" s="16"/>
       <c r="BL436" s="16"/>
-    </row>
-    <row r="437" spans="1:64">
+      <c r="BM436" s="16"/>
+    </row>
+    <row r="437" spans="1:65">
       <c r="A437" s="16"/>
       <c r="B437" s="16"/>
       <c r="C437" s="16"/>
@@ -32502,8 +32952,9 @@
       <c r="BJ437" s="16"/>
       <c r="BK437" s="16"/>
       <c r="BL437" s="16"/>
-    </row>
-    <row r="438" spans="1:64">
+      <c r="BM437" s="16"/>
+    </row>
+    <row r="438" spans="1:65">
       <c r="A438" s="16"/>
       <c r="B438" s="16"/>
       <c r="C438" s="16"/>
@@ -32567,8 +33018,9 @@
       <c r="BJ438" s="16"/>
       <c r="BK438" s="16"/>
       <c r="BL438" s="16"/>
-    </row>
-    <row r="439" spans="1:64">
+      <c r="BM438" s="16"/>
+    </row>
+    <row r="439" spans="1:65">
       <c r="A439" s="16"/>
       <c r="B439" s="16"/>
       <c r="C439" s="16"/>
@@ -32632,8 +33084,9 @@
       <c r="BJ439" s="16"/>
       <c r="BK439" s="16"/>
       <c r="BL439" s="16"/>
-    </row>
-    <row r="440" spans="1:64">
+      <c r="BM439" s="16"/>
+    </row>
+    <row r="440" spans="1:65">
       <c r="A440" s="16"/>
       <c r="B440" s="16"/>
       <c r="C440" s="16"/>
@@ -32697,8 +33150,9 @@
       <c r="BJ440" s="16"/>
       <c r="BK440" s="16"/>
       <c r="BL440" s="16"/>
-    </row>
-    <row r="441" spans="1:64">
+      <c r="BM440" s="16"/>
+    </row>
+    <row r="441" spans="1:65">
       <c r="A441" s="16"/>
       <c r="B441" s="16"/>
       <c r="C441" s="16"/>
@@ -32762,8 +33216,9 @@
       <c r="BJ441" s="16"/>
       <c r="BK441" s="16"/>
       <c r="BL441" s="16"/>
-    </row>
-    <row r="442" spans="1:64">
+      <c r="BM441" s="16"/>
+    </row>
+    <row r="442" spans="1:65">
       <c r="A442" s="16"/>
       <c r="B442" s="16"/>
       <c r="C442" s="16"/>
@@ -32827,8 +33282,9 @@
       <c r="BJ442" s="16"/>
       <c r="BK442" s="16"/>
       <c r="BL442" s="16"/>
-    </row>
-    <row r="443" spans="1:64">
+      <c r="BM442" s="16"/>
+    </row>
+    <row r="443" spans="1:65">
       <c r="A443" s="16"/>
       <c r="B443" s="16"/>
       <c r="C443" s="16"/>
@@ -32892,8 +33348,9 @@
       <c r="BJ443" s="16"/>
       <c r="BK443" s="16"/>
       <c r="BL443" s="16"/>
-    </row>
-    <row r="444" spans="1:64">
+      <c r="BM443" s="16"/>
+    </row>
+    <row r="444" spans="1:65">
       <c r="A444" s="16"/>
       <c r="B444" s="16"/>
       <c r="C444" s="16"/>
@@ -32957,8 +33414,9 @@
       <c r="BJ444" s="16"/>
       <c r="BK444" s="16"/>
       <c r="BL444" s="16"/>
-    </row>
-    <row r="445" spans="1:64">
+      <c r="BM444" s="16"/>
+    </row>
+    <row r="445" spans="1:65">
       <c r="A445" s="16"/>
       <c r="B445" s="16"/>
       <c r="C445" s="16"/>
@@ -33022,8 +33480,9 @@
       <c r="BJ445" s="16"/>
       <c r="BK445" s="16"/>
       <c r="BL445" s="16"/>
-    </row>
-    <row r="446" spans="1:64">
+      <c r="BM445" s="16"/>
+    </row>
+    <row r="446" spans="1:65">
       <c r="A446" s="16"/>
       <c r="B446" s="16"/>
       <c r="C446" s="16"/>
@@ -33087,8 +33546,9 @@
       <c r="BJ446" s="16"/>
       <c r="BK446" s="16"/>
       <c r="BL446" s="16"/>
-    </row>
-    <row r="447" spans="1:64">
+      <c r="BM446" s="16"/>
+    </row>
+    <row r="447" spans="1:65">
       <c r="A447" s="16"/>
       <c r="B447" s="16"/>
       <c r="C447" s="16"/>
@@ -33152,8 +33612,9 @@
       <c r="BJ447" s="16"/>
       <c r="BK447" s="16"/>
       <c r="BL447" s="16"/>
-    </row>
-    <row r="448" spans="1:64">
+      <c r="BM447" s="16"/>
+    </row>
+    <row r="448" spans="1:65">
       <c r="A448" s="16"/>
       <c r="B448" s="16"/>
       <c r="C448" s="16"/>
@@ -33217,8 +33678,9 @@
       <c r="BJ448" s="16"/>
       <c r="BK448" s="16"/>
       <c r="BL448" s="16"/>
-    </row>
-    <row r="449" spans="1:64">
+      <c r="BM448" s="16"/>
+    </row>
+    <row r="449" spans="1:65">
       <c r="A449" s="16"/>
       <c r="B449" s="16"/>
       <c r="C449" s="16"/>
@@ -33282,8 +33744,9 @@
       <c r="BJ449" s="16"/>
       <c r="BK449" s="16"/>
       <c r="BL449" s="16"/>
-    </row>
-    <row r="450" spans="1:64">
+      <c r="BM449" s="16"/>
+    </row>
+    <row r="450" spans="1:65">
       <c r="A450" s="16"/>
       <c r="B450" s="16"/>
       <c r="C450" s="16"/>
@@ -33347,8 +33810,9 @@
       <c r="BJ450" s="16"/>
       <c r="BK450" s="16"/>
       <c r="BL450" s="16"/>
-    </row>
-    <row r="451" spans="1:64">
+      <c r="BM450" s="16"/>
+    </row>
+    <row r="451" spans="1:65">
       <c r="A451" s="16"/>
       <c r="B451" s="16"/>
       <c r="C451" s="16"/>
@@ -33412,8 +33876,9 @@
       <c r="BJ451" s="16"/>
       <c r="BK451" s="16"/>
       <c r="BL451" s="16"/>
-    </row>
-    <row r="452" spans="1:64">
+      <c r="BM451" s="16"/>
+    </row>
+    <row r="452" spans="1:65">
       <c r="A452" s="16"/>
       <c r="B452" s="16"/>
       <c r="C452" s="16"/>
@@ -33477,8 +33942,9 @@
       <c r="BJ452" s="16"/>
       <c r="BK452" s="16"/>
       <c r="BL452" s="16"/>
-    </row>
-    <row r="453" spans="1:64">
+      <c r="BM452" s="16"/>
+    </row>
+    <row r="453" spans="1:65">
       <c r="A453" s="16"/>
       <c r="B453" s="16"/>
       <c r="C453" s="16"/>
@@ -33542,8 +34008,9 @@
       <c r="BJ453" s="16"/>
       <c r="BK453" s="16"/>
       <c r="BL453" s="16"/>
-    </row>
-    <row r="454" spans="1:64">
+      <c r="BM453" s="16"/>
+    </row>
+    <row r="454" spans="1:65">
       <c r="A454" s="16"/>
       <c r="B454" s="16"/>
       <c r="C454" s="16"/>
@@ -33607,8 +34074,9 @@
       <c r="BJ454" s="16"/>
       <c r="BK454" s="16"/>
       <c r="BL454" s="16"/>
-    </row>
-    <row r="455" spans="1:64">
+      <c r="BM454" s="16"/>
+    </row>
+    <row r="455" spans="1:65">
       <c r="A455" s="16"/>
       <c r="B455" s="16"/>
       <c r="C455" s="16"/>
@@ -33672,8 +34140,9 @@
       <c r="BJ455" s="16"/>
       <c r="BK455" s="16"/>
       <c r="BL455" s="16"/>
-    </row>
-    <row r="456" spans="1:64">
+      <c r="BM455" s="16"/>
+    </row>
+    <row r="456" spans="1:65">
       <c r="A456" s="16"/>
       <c r="B456" s="16"/>
       <c r="C456" s="16"/>
@@ -33737,8 +34206,9 @@
       <c r="BJ456" s="16"/>
       <c r="BK456" s="16"/>
       <c r="BL456" s="16"/>
-    </row>
-    <row r="457" spans="1:64">
+      <c r="BM456" s="16"/>
+    </row>
+    <row r="457" spans="1:65">
       <c r="A457" s="16"/>
       <c r="B457" s="16"/>
       <c r="C457" s="16"/>
@@ -33802,8 +34272,9 @@
       <c r="BJ457" s="16"/>
       <c r="BK457" s="16"/>
       <c r="BL457" s="16"/>
-    </row>
-    <row r="458" spans="1:64">
+      <c r="BM457" s="16"/>
+    </row>
+    <row r="458" spans="1:65">
       <c r="A458" s="16"/>
       <c r="B458" s="16"/>
       <c r="C458" s="16"/>
@@ -33867,8 +34338,9 @@
       <c r="BJ458" s="16"/>
       <c r="BK458" s="16"/>
       <c r="BL458" s="16"/>
-    </row>
-    <row r="459" spans="1:64">
+      <c r="BM458" s="16"/>
+    </row>
+    <row r="459" spans="1:65">
       <c r="A459" s="16"/>
       <c r="B459" s="16"/>
       <c r="C459" s="16"/>
@@ -33932,8 +34404,9 @@
       <c r="BJ459" s="16"/>
       <c r="BK459" s="16"/>
       <c r="BL459" s="16"/>
-    </row>
-    <row r="460" spans="1:64">
+      <c r="BM459" s="16"/>
+    </row>
+    <row r="460" spans="1:65">
       <c r="A460" s="16"/>
       <c r="B460" s="16"/>
       <c r="C460" s="16"/>
@@ -33997,8 +34470,9 @@
       <c r="BJ460" s="16"/>
       <c r="BK460" s="16"/>
       <c r="BL460" s="16"/>
-    </row>
-    <row r="461" spans="1:64">
+      <c r="BM460" s="16"/>
+    </row>
+    <row r="461" spans="1:65">
       <c r="A461" s="16"/>
       <c r="B461" s="16"/>
       <c r="C461" s="16"/>
@@ -34062,8 +34536,9 @@
       <c r="BJ461" s="16"/>
       <c r="BK461" s="16"/>
       <c r="BL461" s="16"/>
-    </row>
-    <row r="462" spans="1:64">
+      <c r="BM461" s="16"/>
+    </row>
+    <row r="462" spans="1:65">
       <c r="A462" s="16"/>
       <c r="B462" s="16"/>
       <c r="C462" s="16"/>
@@ -34127,8 +34602,9 @@
       <c r="BJ462" s="16"/>
       <c r="BK462" s="16"/>
       <c r="BL462" s="16"/>
-    </row>
-    <row r="463" spans="1:64">
+      <c r="BM462" s="16"/>
+    </row>
+    <row r="463" spans="1:65">
       <c r="A463" s="16"/>
       <c r="B463" s="16"/>
       <c r="C463" s="16"/>
@@ -34192,8 +34668,9 @@
       <c r="BJ463" s="16"/>
       <c r="BK463" s="16"/>
       <c r="BL463" s="16"/>
-    </row>
-    <row r="464" spans="1:64">
+      <c r="BM463" s="16"/>
+    </row>
+    <row r="464" spans="1:65">
       <c r="A464" s="16"/>
       <c r="B464" s="16"/>
       <c r="C464" s="16"/>
@@ -34257,8 +34734,9 @@
       <c r="BJ464" s="16"/>
       <c r="BK464" s="16"/>
       <c r="BL464" s="16"/>
-    </row>
-    <row r="465" spans="1:64">
+      <c r="BM464" s="16"/>
+    </row>
+    <row r="465" spans="1:65">
       <c r="A465" s="16"/>
       <c r="B465" s="16"/>
       <c r="C465" s="16"/>
@@ -34322,8 +34800,9 @@
       <c r="BJ465" s="16"/>
       <c r="BK465" s="16"/>
       <c r="BL465" s="16"/>
-    </row>
-    <row r="466" spans="1:64">
+      <c r="BM465" s="16"/>
+    </row>
+    <row r="466" spans="1:65">
       <c r="A466" s="16"/>
       <c r="B466" s="16"/>
       <c r="C466" s="16"/>
@@ -34387,8 +34866,9 @@
       <c r="BJ466" s="16"/>
       <c r="BK466" s="16"/>
       <c r="BL466" s="16"/>
-    </row>
-    <row r="467" spans="1:64">
+      <c r="BM466" s="16"/>
+    </row>
+    <row r="467" spans="1:65">
       <c r="A467" s="16"/>
       <c r="B467" s="16"/>
       <c r="C467" s="16"/>
@@ -34452,8 +34932,9 @@
       <c r="BJ467" s="16"/>
       <c r="BK467" s="16"/>
       <c r="BL467" s="16"/>
-    </row>
-    <row r="468" spans="1:64">
+      <c r="BM467" s="16"/>
+    </row>
+    <row r="468" spans="1:65">
       <c r="A468" s="16"/>
       <c r="B468" s="16"/>
       <c r="C468" s="16"/>
@@ -34517,8 +34998,9 @@
       <c r="BJ468" s="16"/>
       <c r="BK468" s="16"/>
       <c r="BL468" s="16"/>
-    </row>
-    <row r="469" spans="1:64">
+      <c r="BM468" s="16"/>
+    </row>
+    <row r="469" spans="1:65">
       <c r="A469" s="16"/>
       <c r="B469" s="16"/>
       <c r="C469" s="16"/>
@@ -34582,8 +35064,9 @@
       <c r="BJ469" s="16"/>
       <c r="BK469" s="16"/>
       <c r="BL469" s="16"/>
-    </row>
-    <row r="470" spans="1:64">
+      <c r="BM469" s="16"/>
+    </row>
+    <row r="470" spans="1:65">
       <c r="A470" s="16"/>
       <c r="B470" s="16"/>
       <c r="C470" s="16"/>
@@ -34647,8 +35130,9 @@
       <c r="BJ470" s="16"/>
       <c r="BK470" s="16"/>
       <c r="BL470" s="16"/>
-    </row>
-    <row r="471" spans="1:64">
+      <c r="BM470" s="16"/>
+    </row>
+    <row r="471" spans="1:65">
       <c r="A471" s="16"/>
       <c r="B471" s="16"/>
       <c r="C471" s="16"/>
@@ -34712,8 +35196,9 @@
       <c r="BJ471" s="16"/>
       <c r="BK471" s="16"/>
       <c r="BL471" s="16"/>
-    </row>
-    <row r="472" spans="1:64">
+      <c r="BM471" s="16"/>
+    </row>
+    <row r="472" spans="1:65">
       <c r="A472" s="16"/>
       <c r="B472" s="16"/>
       <c r="C472" s="16"/>
@@ -34777,8 +35262,9 @@
       <c r="BJ472" s="16"/>
       <c r="BK472" s="16"/>
       <c r="BL472" s="16"/>
-    </row>
-    <row r="473" spans="1:64">
+      <c r="BM472" s="16"/>
+    </row>
+    <row r="473" spans="1:65">
       <c r="A473" s="16"/>
       <c r="B473" s="16"/>
       <c r="C473" s="16"/>
@@ -34842,8 +35328,9 @@
       <c r="BJ473" s="16"/>
       <c r="BK473" s="16"/>
       <c r="BL473" s="16"/>
-    </row>
-    <row r="474" spans="1:64">
+      <c r="BM473" s="16"/>
+    </row>
+    <row r="474" spans="1:65">
       <c r="A474" s="16"/>
       <c r="B474" s="16"/>
       <c r="C474" s="16"/>
@@ -34907,8 +35394,9 @@
       <c r="BJ474" s="16"/>
       <c r="BK474" s="16"/>
       <c r="BL474" s="16"/>
-    </row>
-    <row r="475" spans="1:64">
+      <c r="BM474" s="16"/>
+    </row>
+    <row r="475" spans="1:65">
       <c r="A475" s="16"/>
       <c r="B475" s="16"/>
       <c r="C475" s="16"/>
@@ -34972,8 +35460,9 @@
       <c r="BJ475" s="16"/>
       <c r="BK475" s="16"/>
       <c r="BL475" s="16"/>
-    </row>
-    <row r="476" spans="1:64">
+      <c r="BM475" s="16"/>
+    </row>
+    <row r="476" spans="1:65">
       <c r="A476" s="16"/>
       <c r="B476" s="16"/>
       <c r="C476" s="16"/>
@@ -35037,8 +35526,9 @@
       <c r="BJ476" s="16"/>
       <c r="BK476" s="16"/>
       <c r="BL476" s="16"/>
-    </row>
-    <row r="477" spans="1:64">
+      <c r="BM476" s="16"/>
+    </row>
+    <row r="477" spans="1:65">
       <c r="A477" s="16"/>
       <c r="B477" s="16"/>
       <c r="C477" s="16"/>
@@ -35102,8 +35592,9 @@
       <c r="BJ477" s="16"/>
       <c r="BK477" s="16"/>
       <c r="BL477" s="16"/>
-    </row>
-    <row r="478" spans="1:64">
+      <c r="BM477" s="16"/>
+    </row>
+    <row r="478" spans="1:65">
       <c r="A478" s="16"/>
       <c r="B478" s="16"/>
       <c r="C478" s="16"/>
@@ -35167,8 +35658,9 @@
       <c r="BJ478" s="16"/>
       <c r="BK478" s="16"/>
       <c r="BL478" s="16"/>
-    </row>
-    <row r="479" spans="1:64">
+      <c r="BM478" s="16"/>
+    </row>
+    <row r="479" spans="1:65">
       <c r="A479" s="16"/>
       <c r="B479" s="16"/>
       <c r="C479" s="16"/>
@@ -35232,8 +35724,9 @@
       <c r="BJ479" s="16"/>
       <c r="BK479" s="16"/>
       <c r="BL479" s="16"/>
-    </row>
-    <row r="480" spans="1:64">
+      <c r="BM479" s="16"/>
+    </row>
+    <row r="480" spans="1:65">
       <c r="A480" s="16"/>
       <c r="B480" s="16"/>
       <c r="C480" s="16"/>
@@ -35297,8 +35790,9 @@
       <c r="BJ480" s="16"/>
       <c r="BK480" s="16"/>
       <c r="BL480" s="16"/>
-    </row>
-    <row r="481" spans="1:64">
+      <c r="BM480" s="16"/>
+    </row>
+    <row r="481" spans="1:65">
       <c r="A481" s="16"/>
       <c r="B481" s="16"/>
       <c r="C481" s="16"/>
@@ -35362,8 +35856,9 @@
       <c r="BJ481" s="16"/>
       <c r="BK481" s="16"/>
       <c r="BL481" s="16"/>
-    </row>
-    <row r="482" spans="1:64">
+      <c r="BM481" s="16"/>
+    </row>
+    <row r="482" spans="1:65">
       <c r="A482" s="16"/>
       <c r="B482" s="16"/>
       <c r="C482" s="16"/>
@@ -35427,8 +35922,9 @@
       <c r="BJ482" s="16"/>
       <c r="BK482" s="16"/>
       <c r="BL482" s="16"/>
-    </row>
-    <row r="483" spans="1:64">
+      <c r="BM482" s="16"/>
+    </row>
+    <row r="483" spans="1:65">
       <c r="A483" s="16"/>
       <c r="B483" s="16"/>
       <c r="C483" s="16"/>
@@ -35492,8 +35988,9 @@
       <c r="BJ483" s="16"/>
       <c r="BK483" s="16"/>
       <c r="BL483" s="16"/>
-    </row>
-    <row r="484" spans="1:64">
+      <c r="BM483" s="16"/>
+    </row>
+    <row r="484" spans="1:65">
       <c r="A484" s="16"/>
       <c r="B484" s="16"/>
       <c r="C484" s="16"/>
@@ -35557,8 +36054,9 @@
       <c r="BJ484" s="16"/>
       <c r="BK484" s="16"/>
       <c r="BL484" s="16"/>
-    </row>
-    <row r="485" spans="1:64">
+      <c r="BM484" s="16"/>
+    </row>
+    <row r="485" spans="1:65">
       <c r="A485" s="16"/>
       <c r="B485" s="16"/>
       <c r="C485" s="16"/>
@@ -35622,8 +36120,9 @@
       <c r="BJ485" s="16"/>
       <c r="BK485" s="16"/>
       <c r="BL485" s="16"/>
-    </row>
-    <row r="486" spans="1:64">
+      <c r="BM485" s="16"/>
+    </row>
+    <row r="486" spans="1:65">
       <c r="A486" s="16"/>
       <c r="B486" s="16"/>
       <c r="C486" s="16"/>
@@ -35687,8 +36186,9 @@
       <c r="BJ486" s="16"/>
       <c r="BK486" s="16"/>
       <c r="BL486" s="16"/>
-    </row>
-    <row r="487" spans="1:64">
+      <c r="BM486" s="16"/>
+    </row>
+    <row r="487" spans="1:65">
       <c r="A487" s="16"/>
       <c r="B487" s="16"/>
       <c r="C487" s="16"/>
@@ -35752,8 +36252,9 @@
       <c r="BJ487" s="16"/>
       <c r="BK487" s="16"/>
       <c r="BL487" s="16"/>
-    </row>
-    <row r="488" spans="1:64">
+      <c r="BM487" s="16"/>
+    </row>
+    <row r="488" spans="1:65">
       <c r="A488" s="16"/>
       <c r="B488" s="16"/>
       <c r="C488" s="16"/>
@@ -35817,8 +36318,9 @@
       <c r="BJ488" s="16"/>
       <c r="BK488" s="16"/>
       <c r="BL488" s="16"/>
-    </row>
-    <row r="489" spans="1:64">
+      <c r="BM488" s="16"/>
+    </row>
+    <row r="489" spans="1:65">
       <c r="A489" s="16"/>
       <c r="AU489" s="16"/>
       <c r="AV489" s="16"/>
@@ -35838,8 +36340,9 @@
       <c r="BJ489" s="16"/>
       <c r="BK489" s="16"/>
       <c r="BL489" s="16"/>
-    </row>
-    <row r="490" spans="1:64">
+      <c r="BM489" s="16"/>
+    </row>
+    <row r="490" spans="1:65">
       <c r="A490" s="16"/>
       <c r="AU490" s="16"/>
       <c r="AV490" s="16"/>
@@ -35859,8 +36362,9 @@
       <c r="BJ490" s="16"/>
       <c r="BK490" s="16"/>
       <c r="BL490" s="16"/>
-    </row>
-    <row r="491" spans="1:64">
+      <c r="BM490" s="16"/>
+    </row>
+    <row r="491" spans="1:65">
       <c r="A491" s="16"/>
       <c r="AU491" s="16"/>
       <c r="AV491" s="16"/>
@@ -35880,8 +36384,9 @@
       <c r="BJ491" s="16"/>
       <c r="BK491" s="16"/>
       <c r="BL491" s="16"/>
-    </row>
-    <row r="492" spans="1:64">
+      <c r="BM491" s="16"/>
+    </row>
+    <row r="492" spans="1:65">
       <c r="A492" s="16"/>
       <c r="AU492" s="16"/>
       <c r="AV492" s="16"/>
@@ -35901,8 +36406,9 @@
       <c r="BJ492" s="16"/>
       <c r="BK492" s="16"/>
       <c r="BL492" s="16"/>
-    </row>
-    <row r="493" spans="1:64">
+      <c r="BM492" s="16"/>
+    </row>
+    <row r="493" spans="1:65">
       <c r="A493" s="16"/>
       <c r="AU493" s="16"/>
       <c r="AV493" s="16"/>
@@ -35922,8 +36428,9 @@
       <c r="BJ493" s="16"/>
       <c r="BK493" s="16"/>
       <c r="BL493" s="16"/>
-    </row>
-    <row r="494" spans="1:64">
+      <c r="BM493" s="16"/>
+    </row>
+    <row r="494" spans="1:65">
       <c r="A494" s="16"/>
       <c r="AU494" s="16"/>
       <c r="AV494" s="16"/>
@@ -35943,8 +36450,9 @@
       <c r="BJ494" s="16"/>
       <c r="BK494" s="16"/>
       <c r="BL494" s="16"/>
-    </row>
-    <row r="495" spans="1:64">
+      <c r="BM494" s="16"/>
+    </row>
+    <row r="495" spans="1:65">
       <c r="A495" s="16"/>
       <c r="AU495" s="16"/>
       <c r="AV495" s="16"/>
@@ -35964,6 +36472,7 @@
       <c r="BJ495" s="16"/>
       <c r="BK495" s="16"/>
       <c r="BL495" s="16"/>
+      <c r="BM495" s="16"/>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="16"/>
@@ -36185,11 +36694,11 @@
       <c r="A568" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="48">
     <mergeCell ref="B1:AT1"/>
-    <mergeCell ref="AU1:BB1"/>
-    <mergeCell ref="BC1:BJ1"/>
-    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="M2:AG2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="A1:A3"/>
@@ -36233,6 +36742,7 @@
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="603867(新化股份)"/>
@@ -36264,28 +36774,28 @@
   <sheetData>
     <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <f>(VLOOKUP(入场指标!A6,入场指标!A4:BL999,48,FALSE)-VLOOKUP(入场指标!A6,入场指标!A4:BL999,39,FALSE))*VLOOKUP(入场指标!A6,入场指标!A4:BL999,42,FALSE)</f>
-        <v>181</v>
+        <f>SUM(入场指标!AZ4:AZ6)</f>
+        <v>620.23766</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -962,11 +962,18 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1788,152 +1795,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1943,40 +1950,40 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,13 +1995,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2006,10 +2013,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2021,13 +2028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,16 +2058,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2069,25 +2079,25 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,34 +2115,34 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2141,7 +2151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3311,8 +3321,8 @@
   <sheetPr/>
   <dimension ref="A1:DC568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3399,68 +3409,68 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AU1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="57" t="s">
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="61" t="s">
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM1" s="61"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="66"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="66"/>
-      <c r="CL1" s="66"/>
-      <c r="CM1" s="66"/>
-      <c r="CO1" s="66"/>
-      <c r="CP1" s="66"/>
-      <c r="CQ1" s="66"/>
-      <c r="CR1" s="66"/>
-      <c r="CS1" s="66"/>
-      <c r="CT1" s="66"/>
-      <c r="CU1" s="66"/>
-      <c r="CW1" s="66"/>
-      <c r="CX1" s="66"/>
-      <c r="CY1" s="66"/>
-      <c r="CZ1" s="66"/>
-      <c r="DA1" s="66"/>
-      <c r="DB1" s="66"/>
-      <c r="DC1" s="66"/>
+      <c r="BM1" s="62"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="67"/>
+      <c r="CL1" s="67"/>
+      <c r="CM1" s="67"/>
+      <c r="CO1" s="67"/>
+      <c r="CP1" s="67"/>
+      <c r="CQ1" s="67"/>
+      <c r="CR1" s="67"/>
+      <c r="CS1" s="67"/>
+      <c r="CT1" s="67"/>
+      <c r="CU1" s="67"/>
+      <c r="CW1" s="67"/>
+      <c r="CX1" s="67"/>
+      <c r="CY1" s="67"/>
+      <c r="CZ1" s="67"/>
+      <c r="DA1" s="67"/>
+      <c r="DB1" s="67"/>
+      <c r="DC1" s="67"/>
     </row>
     <row r="2" ht="23.6" spans="1:107">
       <c r="A2" s="3"/>
@@ -3527,20 +3537,20 @@
         <v>18</v>
       </c>
       <c r="AJ2" s="30"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="40" t="s">
+      <c r="AN2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="40" t="s">
+      <c r="AO2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="40" t="s">
+      <c r="AP2" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AQ2" s="19" t="s">
@@ -3552,104 +3562,104 @@
       <c r="AS2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" s="46" t="s">
+      <c r="AT2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="47" t="s">
+      <c r="AU2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" s="48" t="s">
+      <c r="AV2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="48" t="s">
+      <c r="AW2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="48" t="s">
+      <c r="AX2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="48" t="s">
+      <c r="AY2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="48" t="s">
+      <c r="AZ2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" s="48" t="s">
+      <c r="BA2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="48" t="s">
+      <c r="BB2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="48" t="s">
+      <c r="BC2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="58" t="s">
+      <c r="BD2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="58" t="s">
+      <c r="BE2" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="58" t="s">
+      <c r="BF2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="58" t="s">
+      <c r="BG2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="58" t="s">
+      <c r="BH2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BI2" s="58" t="s">
+      <c r="BI2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="BJ2" s="58" t="s">
+      <c r="BJ2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="58" t="s">
+      <c r="BK2" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="62" t="s">
+      <c r="BL2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="62" t="s">
+      <c r="BM2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BX2" s="66"/>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="66"/>
-      <c r="CC2" s="66"/>
-      <c r="CD2" s="66"/>
-      <c r="CE2" s="66"/>
-      <c r="CG2" s="66"/>
-      <c r="CH2" s="66"/>
-      <c r="CI2" s="66"/>
-      <c r="CJ2" s="66"/>
-      <c r="CK2" s="66"/>
-      <c r="CL2" s="66"/>
-      <c r="CM2" s="66"/>
-      <c r="CO2" s="66"/>
-      <c r="CP2" s="66"/>
-      <c r="CQ2" s="66"/>
-      <c r="CR2" s="66"/>
-      <c r="CS2" s="66"/>
-      <c r="CT2" s="66"/>
-      <c r="CU2" s="66"/>
-      <c r="CW2" s="66"/>
-      <c r="CX2" s="66"/>
-      <c r="CY2" s="66"/>
-      <c r="CZ2" s="66"/>
-      <c r="DA2" s="66"/>
-      <c r="DB2" s="66"/>
-      <c r="DC2" s="66"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BX2" s="67"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="67"/>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="67"/>
+      <c r="CE2" s="67"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67"/>
+      <c r="CI2" s="67"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
+      <c r="CZ2" s="67"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
+      <c r="DC2" s="67"/>
     </row>
     <row r="3" ht="25" spans="1:107">
       <c r="A3" s="3"/>
@@ -3734,78 +3744,78 @@
       <c r="AJ3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="41" t="s">
+      <c r="AK3" s="42" t="s">
         <v>70</v>
       </c>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
       <c r="AQ3" s="20"/>
       <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63"/>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="66"/>
-      <c r="DC3" s="66"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
     </row>
     <row r="4" ht="36" spans="1:65">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="10">
@@ -3928,7 +3938,7 @@
       <c r="AP4" s="21">
         <v>200</v>
       </c>
-      <c r="AQ4" s="43">
+      <c r="AQ4" s="44">
         <f t="shared" ref="AQ4:AQ8" si="8">(AN4-AL4)/(AL4-AM4)</f>
         <v>4.13815789473685</v>
       </c>
@@ -3940,41 +3950,41 @@
         <f t="shared" ref="AS4:AS8" si="10">(AN4-AL4)/AL4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AT4" s="52">
+      <c r="AT4" s="53">
         <v>150.88</v>
       </c>
       <c r="AU4" s="17">
         <v>44523</v>
       </c>
-      <c r="AV4" s="53">
+      <c r="AV4" s="54">
         <v>26.2</v>
       </c>
-      <c r="AW4" s="53">
+      <c r="AW4" s="54">
         <v>5</v>
       </c>
-      <c r="AX4" s="55">
+      <c r="AX4" s="56">
         <f>AV4*AP4*0.2/10000</f>
         <v>0.1048</v>
       </c>
-      <c r="AY4" s="56">
+      <c r="AY4" s="57">
         <f>AV4*AP4+AW4+AX4</f>
         <v>5245.1048</v>
       </c>
-      <c r="AZ4" s="56">
+      <c r="AZ4" s="57">
         <f>(AV4-AM4)*AP4+AW4+AX4</f>
         <v>309.1048</v>
       </c>
-      <c r="BA4" s="53">
+      <c r="BA4" s="54">
         <v>26.5</v>
       </c>
-      <c r="BB4" s="53">
+      <c r="BB4" s="54">
         <v>25.21</v>
       </c>
-      <c r="BC4" s="59">
+      <c r="BC4" s="60">
         <f>(BA4-AV4)/(BA4-BB4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BD4" s="53"/>
+      <c r="BD4" s="54"/>
       <c r="BE4" s="16"/>
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
@@ -3986,7 +3996,7 @@
       <c r="BM4" s="16"/>
     </row>
     <row r="5" ht="36" spans="1:65">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="13">
@@ -4109,53 +4119,53 @@
       <c r="AP5" s="22">
         <v>100</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AQ5" s="44">
         <f t="shared" si="8"/>
         <v>3.27672955974844</v>
       </c>
-      <c r="AR5" s="44">
+      <c r="AR5" s="45">
         <f t="shared" si="9"/>
         <v>0.0466002344665884</v>
       </c>
-      <c r="AS5" s="44">
+      <c r="AS5" s="45">
         <f t="shared" si="10"/>
         <v>0.152696365767878</v>
       </c>
-      <c r="AT5" s="54">
+      <c r="AT5" s="55">
         <v>37.41</v>
       </c>
       <c r="AU5" s="17">
         <v>44523</v>
       </c>
-      <c r="AV5" s="53">
+      <c r="AV5" s="54">
         <v>33.73</v>
       </c>
-      <c r="AW5" s="53">
+      <c r="AW5" s="54">
         <v>5</v>
       </c>
-      <c r="AX5" s="55">
+      <c r="AX5" s="56">
         <f>AV5*AP5*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="AY5" s="56">
+      <c r="AY5" s="57">
         <f>AV5*AP5+AW5+AX5</f>
         <v>3378.06746</v>
       </c>
-      <c r="AZ5" s="56">
+      <c r="AZ5" s="57">
         <f>(AV5-AM5)*AP5+AW5+AX5</f>
         <v>125.06746</v>
       </c>
-      <c r="BA5" s="53">
+      <c r="BA5" s="54">
         <v>35.36</v>
       </c>
-      <c r="BB5" s="53">
+      <c r="BB5" s="54">
         <v>33.1</v>
       </c>
-      <c r="BC5" s="59">
+      <c r="BC5" s="60">
         <f>(BA5-AV5)/(BA5-BB5)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="BD5" s="53"/>
+      <c r="BD5" s="54"/>
       <c r="BE5" s="16"/>
       <c r="BF5" s="16"/>
       <c r="BG5" s="16"/>
@@ -4167,7 +4177,7 @@
       <c r="BM5" s="16"/>
     </row>
     <row r="6" ht="36" spans="1:65">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="13">
@@ -4285,53 +4295,53 @@
       <c r="AP6" s="22">
         <v>100</v>
       </c>
-      <c r="AQ6" s="43">
+      <c r="AQ6" s="44">
         <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="AR6" s="44">
+      <c r="AR6" s="45">
         <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="AS6" s="44">
+      <c r="AS6" s="45">
         <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="AT6" s="54">
+      <c r="AT6" s="55">
         <v>28.82</v>
       </c>
       <c r="AU6" s="17">
         <v>44522</v>
       </c>
-      <c r="AV6" s="53">
+      <c r="AV6" s="54">
         <v>32.7</v>
       </c>
-      <c r="AW6" s="53">
+      <c r="AW6" s="54">
         <v>5</v>
       </c>
-      <c r="AX6" s="55">
+      <c r="AX6" s="56">
         <f>AV6*AP6*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="AY6" s="56">
+      <c r="AY6" s="57">
         <f>AV6*AP6+AW6+AX6</f>
         <v>3275.0654</v>
       </c>
-      <c r="AZ6" s="56">
+      <c r="AZ6" s="57">
         <f>(AV6-AM6)*AP6+AW6+AX6</f>
         <v>186.0654</v>
       </c>
-      <c r="BA6" s="56">
+      <c r="BA6" s="57">
         <v>33.9</v>
       </c>
-      <c r="BB6" s="56">
+      <c r="BB6" s="57">
         <v>32.49</v>
       </c>
-      <c r="BC6" s="59">
+      <c r="BC6" s="60">
         <f>(BA6-AV6)/(BA6-BB6)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BD6" s="53"/>
+      <c r="BD6" s="54"/>
       <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
@@ -4343,7 +4353,7 @@
       <c r="BM6" s="16"/>
     </row>
     <row r="7" ht="36" spans="1:65">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="17">
@@ -4424,10 +4434,10 @@
       <c r="AF7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="39" t="s">
         <v>77</v>
       </c>
       <c r="AI7" s="16">
@@ -4456,15 +4466,15 @@
       <c r="AP7" s="16">
         <v>200</v>
       </c>
-      <c r="AQ7" s="43">
+      <c r="AQ7" s="44">
         <f t="shared" si="8"/>
         <v>5.03870967741937</v>
       </c>
-      <c r="AR7" s="44">
+      <c r="AR7" s="45">
         <f t="shared" si="9"/>
         <v>0.0501618122977345</v>
       </c>
-      <c r="AS7" s="44">
+      <c r="AS7" s="45">
         <f t="shared" si="10"/>
         <v>0.252750809061489</v>
       </c>
@@ -4492,13 +4502,13 @@
       <c r="BM7" s="16"/>
     </row>
     <row r="8" ht="36" spans="1:65">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="17">
         <v>44522</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="70" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="16">
@@ -4573,10 +4583,10 @@
       <c r="AF8" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="AI8" s="16">
@@ -4605,15 +4615,15 @@
       <c r="AP8" s="16">
         <v>700</v>
       </c>
-      <c r="AQ8" s="43">
+      <c r="AQ8" s="44">
         <f t="shared" si="8"/>
         <v>2.92857142857143</v>
       </c>
-      <c r="AR8" s="44">
+      <c r="AR8" s="45">
         <f t="shared" si="9"/>
         <v>0.051980198019802</v>
       </c>
-      <c r="AS8" s="44">
+      <c r="AS8" s="45">
         <f t="shared" si="10"/>
         <v>0.152227722772277</v>
       </c>
@@ -36759,7 +36769,7 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -36772,7 +36782,7 @@
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>交易编码</t>
   </si>
@@ -933,6 +933,195 @@
   </si>
   <si>
     <t>略清晰</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>000031</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>000035</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>000037</t>
+  </si>
+  <si>
+    <t>000038</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>000042</t>
+  </si>
+  <si>
+    <t>000043</t>
+  </si>
+  <si>
+    <t>000044</t>
+  </si>
+  <si>
+    <t>000045</t>
+  </si>
+  <si>
+    <t>000046</t>
+  </si>
+  <si>
+    <t>000047</t>
+  </si>
+  <si>
+    <t>000048</t>
+  </si>
+  <si>
+    <t>000049</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>000051</t>
+  </si>
+  <si>
+    <t>000052</t>
+  </si>
+  <si>
+    <t>000053</t>
+  </si>
+  <si>
+    <t>000054</t>
+  </si>
+  <si>
+    <t>000055</t>
+  </si>
+  <si>
+    <t>000056</t>
+  </si>
+  <si>
+    <t>000057</t>
+  </si>
+  <si>
+    <t>000058</t>
+  </si>
+  <si>
+    <t>000059</t>
+  </si>
+  <si>
+    <t>000060</t>
+  </si>
+  <si>
+    <t>000061</t>
+  </si>
+  <si>
+    <t>000062</t>
+  </si>
+  <si>
+    <t>000063</t>
+  </si>
+  <si>
+    <t>000064</t>
+  </si>
+  <si>
+    <t>000065</t>
+  </si>
+  <si>
+    <t>000066</t>
+  </si>
+  <si>
+    <t>000067</t>
+  </si>
+  <si>
+    <t>000068</t>
+  </si>
+  <si>
+    <t>000069</t>
   </si>
   <si>
     <t>当前暴露的风险总额</t>
@@ -3321,8 +3510,8 @@
   <sheetPr/>
   <dimension ref="A1:DC568"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4451,7 +4640,7 @@
         <v>6.27</v>
       </c>
       <c r="AL7" s="16">
-        <v>30.9</v>
+        <v>30.66</v>
       </c>
       <c r="AM7" s="16">
         <v>29.35</v>
@@ -4461,22 +4650,23 @@
       </c>
       <c r="AO7" s="21">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AP7" s="16">
+        <f>FLOOR(300/(AL7-AM7),100)</f>
         <v>200</v>
       </c>
       <c r="AQ7" s="44">
         <f t="shared" si="8"/>
-        <v>5.03870967741937</v>
+        <v>6.14503816793894</v>
       </c>
       <c r="AR7" s="45">
         <f t="shared" si="9"/>
-        <v>0.0501618122977345</v>
+        <v>0.042726679712981</v>
       </c>
       <c r="AS7" s="45">
         <f t="shared" si="10"/>
-        <v>0.252750809061489</v>
+        <v>0.262557077625571</v>
       </c>
       <c r="AT7" s="16">
         <v>38.46</v>
@@ -4600,7 +4790,7 @@
         <v>1.65</v>
       </c>
       <c r="AL8" s="16">
-        <v>8.08</v>
+        <v>8.03</v>
       </c>
       <c r="AM8" s="16">
         <v>7.66</v>
@@ -4610,22 +4800,23 @@
       </c>
       <c r="AO8" s="21">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>36.9999999999999</v>
       </c>
       <c r="AP8" s="16">
-        <v>700</v>
+        <f>FLOOR(300/(AL8-AM8),100)</f>
+        <v>800</v>
       </c>
       <c r="AQ8" s="44">
         <f t="shared" si="8"/>
-        <v>2.92857142857143</v>
+        <v>3.45945945945947</v>
       </c>
       <c r="AR8" s="45">
         <f t="shared" si="9"/>
-        <v>0.051980198019802</v>
+        <v>0.046077210460772</v>
       </c>
       <c r="AS8" s="45">
         <f t="shared" si="10"/>
-        <v>0.152227722772277</v>
+        <v>0.159402241594023</v>
       </c>
       <c r="AT8" s="16">
         <v>32.3</v>
@@ -4650,8 +4841,10 @@
       <c r="BL8" s="16"/>
       <c r="BM8" s="16"/>
     </row>
-    <row r="9" spans="1:65">
-      <c r="A9" s="16"/>
+    <row r="9" ht="13" spans="1:65">
+      <c r="A9" s="69" t="s">
+        <v>93</v>
+      </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -4716,8 +4909,10 @@
       <c r="BL9" s="16"/>
       <c r="BM9" s="16"/>
     </row>
-    <row r="10" spans="1:65">
-      <c r="A10" s="16"/>
+    <row r="10" ht="13" spans="1:65">
+      <c r="A10" s="69" t="s">
+        <v>94</v>
+      </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -4782,8 +4977,10 @@
       <c r="BL10" s="16"/>
       <c r="BM10" s="16"/>
     </row>
-    <row r="11" spans="1:65">
-      <c r="A11" s="16"/>
+    <row r="11" ht="13" spans="1:65">
+      <c r="A11" s="69" t="s">
+        <v>95</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4848,8 +5045,10 @@
       <c r="BL11" s="16"/>
       <c r="BM11" s="16"/>
     </row>
-    <row r="12" spans="1:65">
-      <c r="A12" s="16"/>
+    <row r="12" ht="13" spans="1:65">
+      <c r="A12" s="69" t="s">
+        <v>96</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4914,8 +5113,10 @@
       <c r="BL12" s="16"/>
       <c r="BM12" s="16"/>
     </row>
-    <row r="13" spans="1:65">
-      <c r="A13" s="16"/>
+    <row r="13" ht="13" spans="1:65">
+      <c r="A13" s="69" t="s">
+        <v>97</v>
+      </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4980,8 +5181,10 @@
       <c r="BL13" s="16"/>
       <c r="BM13" s="16"/>
     </row>
-    <row r="14" spans="1:65">
-      <c r="A14" s="16"/>
+    <row r="14" ht="13" spans="1:65">
+      <c r="A14" s="69" t="s">
+        <v>98</v>
+      </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5046,8 +5249,10 @@
       <c r="BL14" s="16"/>
       <c r="BM14" s="16"/>
     </row>
-    <row r="15" spans="1:65">
-      <c r="A15" s="16"/>
+    <row r="15" ht="13" spans="1:65">
+      <c r="A15" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5112,8 +5317,10 @@
       <c r="BL15" s="16"/>
       <c r="BM15" s="16"/>
     </row>
-    <row r="16" spans="1:65">
-      <c r="A16" s="16"/>
+    <row r="16" ht="13" spans="1:65">
+      <c r="A16" s="69" t="s">
+        <v>100</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -5178,8 +5385,10 @@
       <c r="BL16" s="16"/>
       <c r="BM16" s="16"/>
     </row>
-    <row r="17" spans="1:65">
-      <c r="A17" s="16"/>
+    <row r="17" ht="13" spans="1:65">
+      <c r="A17" s="69" t="s">
+        <v>101</v>
+      </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5244,8 +5453,10 @@
       <c r="BL17" s="16"/>
       <c r="BM17" s="16"/>
     </row>
-    <row r="18" spans="1:65">
-      <c r="A18" s="16"/>
+    <row r="18" ht="13" spans="1:65">
+      <c r="A18" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -5310,8 +5521,10 @@
       <c r="BL18" s="16"/>
       <c r="BM18" s="16"/>
     </row>
-    <row r="19" spans="1:65">
-      <c r="A19" s="16"/>
+    <row r="19" ht="13" spans="1:65">
+      <c r="A19" s="69" t="s">
+        <v>103</v>
+      </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -5376,8 +5589,10 @@
       <c r="BL19" s="16"/>
       <c r="BM19" s="16"/>
     </row>
-    <row r="20" spans="1:65">
-      <c r="A20" s="16"/>
+    <row r="20" ht="13" spans="1:65">
+      <c r="A20" s="69" t="s">
+        <v>104</v>
+      </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5442,8 +5657,10 @@
       <c r="BL20" s="16"/>
       <c r="BM20" s="16"/>
     </row>
-    <row r="21" spans="1:65">
-      <c r="A21" s="16"/>
+    <row r="21" ht="13" spans="1:65">
+      <c r="A21" s="69" t="s">
+        <v>105</v>
+      </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5508,8 +5725,10 @@
       <c r="BL21" s="16"/>
       <c r="BM21" s="16"/>
     </row>
-    <row r="22" spans="1:65">
-      <c r="A22" s="16"/>
+    <row r="22" ht="13" spans="1:65">
+      <c r="A22" s="69" t="s">
+        <v>106</v>
+      </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5574,8 +5793,10 @@
       <c r="BL22" s="16"/>
       <c r="BM22" s="16"/>
     </row>
-    <row r="23" spans="1:65">
-      <c r="A23" s="16"/>
+    <row r="23" ht="13" spans="1:65">
+      <c r="A23" s="69" t="s">
+        <v>107</v>
+      </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5640,8 +5861,10 @@
       <c r="BL23" s="16"/>
       <c r="BM23" s="16"/>
     </row>
-    <row r="24" spans="1:65">
-      <c r="A24" s="16"/>
+    <row r="24" ht="13" spans="1:65">
+      <c r="A24" s="69" t="s">
+        <v>108</v>
+      </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5706,8 +5929,10 @@
       <c r="BL24" s="16"/>
       <c r="BM24" s="16"/>
     </row>
-    <row r="25" spans="1:65">
-      <c r="A25" s="16"/>
+    <row r="25" ht="13" spans="1:65">
+      <c r="A25" s="69" t="s">
+        <v>109</v>
+      </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5772,8 +5997,10 @@
       <c r="BL25" s="16"/>
       <c r="BM25" s="16"/>
     </row>
-    <row r="26" spans="1:65">
-      <c r="A26" s="16"/>
+    <row r="26" ht="13" spans="1:65">
+      <c r="A26" s="69" t="s">
+        <v>110</v>
+      </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5838,8 +6065,10 @@
       <c r="BL26" s="16"/>
       <c r="BM26" s="16"/>
     </row>
-    <row r="27" spans="1:65">
-      <c r="A27" s="16"/>
+    <row r="27" ht="13" spans="1:65">
+      <c r="A27" s="69" t="s">
+        <v>111</v>
+      </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5904,8 +6133,10 @@
       <c r="BL27" s="16"/>
       <c r="BM27" s="16"/>
     </row>
-    <row r="28" spans="1:65">
-      <c r="A28" s="16"/>
+    <row r="28" ht="13" spans="1:65">
+      <c r="A28" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5970,8 +6201,10 @@
       <c r="BL28" s="16"/>
       <c r="BM28" s="16"/>
     </row>
-    <row r="29" spans="1:65">
-      <c r="A29" s="16"/>
+    <row r="29" ht="13" spans="1:65">
+      <c r="A29" s="69" t="s">
+        <v>113</v>
+      </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -6036,8 +6269,10 @@
       <c r="BL29" s="16"/>
       <c r="BM29" s="16"/>
     </row>
-    <row r="30" spans="1:65">
-      <c r="A30" s="16"/>
+    <row r="30" ht="13" spans="1:65">
+      <c r="A30" s="69" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -6102,8 +6337,10 @@
       <c r="BL30" s="16"/>
       <c r="BM30" s="16"/>
     </row>
-    <row r="31" spans="1:65">
-      <c r="A31" s="16"/>
+    <row r="31" ht="13" spans="1:65">
+      <c r="A31" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6168,8 +6405,10 @@
       <c r="BL31" s="16"/>
       <c r="BM31" s="16"/>
     </row>
-    <row r="32" spans="1:65">
-      <c r="A32" s="16"/>
+    <row r="32" ht="13" spans="1:65">
+      <c r="A32" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -6234,8 +6473,10 @@
       <c r="BL32" s="16"/>
       <c r="BM32" s="16"/>
     </row>
-    <row r="33" spans="1:65">
-      <c r="A33" s="16"/>
+    <row r="33" ht="13" spans="1:65">
+      <c r="A33" s="69" t="s">
+        <v>117</v>
+      </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -6300,8 +6541,10 @@
       <c r="BL33" s="16"/>
       <c r="BM33" s="16"/>
     </row>
-    <row r="34" spans="1:65">
-      <c r="A34" s="16"/>
+    <row r="34" ht="13" spans="1:65">
+      <c r="A34" s="69" t="s">
+        <v>118</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -6366,8 +6609,10 @@
       <c r="BL34" s="16"/>
       <c r="BM34" s="16"/>
     </row>
-    <row r="35" spans="1:65">
-      <c r="A35" s="16"/>
+    <row r="35" ht="13" spans="1:65">
+      <c r="A35" s="69" t="s">
+        <v>119</v>
+      </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -6432,8 +6677,10 @@
       <c r="BL35" s="16"/>
       <c r="BM35" s="16"/>
     </row>
-    <row r="36" spans="1:65">
-      <c r="A36" s="16"/>
+    <row r="36" ht="13" spans="1:65">
+      <c r="A36" s="69" t="s">
+        <v>120</v>
+      </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -6498,8 +6745,10 @@
       <c r="BL36" s="16"/>
       <c r="BM36" s="16"/>
     </row>
-    <row r="37" spans="1:65">
-      <c r="A37" s="16"/>
+    <row r="37" ht="13" spans="1:65">
+      <c r="A37" s="69" t="s">
+        <v>121</v>
+      </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -6564,8 +6813,10 @@
       <c r="BL37" s="16"/>
       <c r="BM37" s="16"/>
     </row>
-    <row r="38" spans="1:65">
-      <c r="A38" s="16"/>
+    <row r="38" ht="13" spans="1:65">
+      <c r="A38" s="69" t="s">
+        <v>122</v>
+      </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -6630,8 +6881,10 @@
       <c r="BL38" s="16"/>
       <c r="BM38" s="16"/>
     </row>
-    <row r="39" spans="1:65">
-      <c r="A39" s="16"/>
+    <row r="39" ht="13" spans="1:65">
+      <c r="A39" s="69" t="s">
+        <v>123</v>
+      </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -6696,8 +6949,10 @@
       <c r="BL39" s="16"/>
       <c r="BM39" s="16"/>
     </row>
-    <row r="40" spans="1:65">
-      <c r="A40" s="16"/>
+    <row r="40" ht="13" spans="1:65">
+      <c r="A40" s="69" t="s">
+        <v>124</v>
+      </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -6762,8 +7017,10 @@
       <c r="BL40" s="16"/>
       <c r="BM40" s="16"/>
     </row>
-    <row r="41" spans="1:65">
-      <c r="A41" s="16"/>
+    <row r="41" ht="13" spans="1:65">
+      <c r="A41" s="69" t="s">
+        <v>125</v>
+      </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -6828,8 +7085,10 @@
       <c r="BL41" s="16"/>
       <c r="BM41" s="16"/>
     </row>
-    <row r="42" spans="1:65">
-      <c r="A42" s="16"/>
+    <row r="42" ht="13" spans="1:65">
+      <c r="A42" s="69" t="s">
+        <v>126</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -6894,8 +7153,10 @@
       <c r="BL42" s="16"/>
       <c r="BM42" s="16"/>
     </row>
-    <row r="43" spans="1:65">
-      <c r="A43" s="16"/>
+    <row r="43" ht="13" spans="1:65">
+      <c r="A43" s="69" t="s">
+        <v>127</v>
+      </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -6960,8 +7221,10 @@
       <c r="BL43" s="16"/>
       <c r="BM43" s="16"/>
     </row>
-    <row r="44" spans="1:65">
-      <c r="A44" s="16"/>
+    <row r="44" ht="13" spans="1:65">
+      <c r="A44" s="69" t="s">
+        <v>128</v>
+      </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -7026,8 +7289,10 @@
       <c r="BL44" s="16"/>
       <c r="BM44" s="16"/>
     </row>
-    <row r="45" spans="1:65">
-      <c r="A45" s="16"/>
+    <row r="45" ht="13" spans="1:65">
+      <c r="A45" s="69" t="s">
+        <v>129</v>
+      </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -7092,8 +7357,10 @@
       <c r="BL45" s="16"/>
       <c r="BM45" s="16"/>
     </row>
-    <row r="46" spans="1:65">
-      <c r="A46" s="16"/>
+    <row r="46" ht="13" spans="1:65">
+      <c r="A46" s="69" t="s">
+        <v>130</v>
+      </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -7158,8 +7425,10 @@
       <c r="BL46" s="16"/>
       <c r="BM46" s="16"/>
     </row>
-    <row r="47" spans="1:65">
-      <c r="A47" s="16"/>
+    <row r="47" ht="13" spans="1:65">
+      <c r="A47" s="69" t="s">
+        <v>131</v>
+      </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -7224,8 +7493,10 @@
       <c r="BL47" s="16"/>
       <c r="BM47" s="16"/>
     </row>
-    <row r="48" spans="1:65">
-      <c r="A48" s="16"/>
+    <row r="48" ht="13" spans="1:65">
+      <c r="A48" s="69" t="s">
+        <v>132</v>
+      </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -7290,8 +7561,10 @@
       <c r="BL48" s="16"/>
       <c r="BM48" s="16"/>
     </row>
-    <row r="49" spans="1:65">
-      <c r="A49" s="16"/>
+    <row r="49" ht="13" spans="1:65">
+      <c r="A49" s="69" t="s">
+        <v>133</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -7356,8 +7629,10 @@
       <c r="BL49" s="16"/>
       <c r="BM49" s="16"/>
     </row>
-    <row r="50" spans="1:65">
-      <c r="A50" s="16"/>
+    <row r="50" ht="13" spans="1:65">
+      <c r="A50" s="69" t="s">
+        <v>134</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -7422,8 +7697,10 @@
       <c r="BL50" s="16"/>
       <c r="BM50" s="16"/>
     </row>
-    <row r="51" spans="1:65">
-      <c r="A51" s="16"/>
+    <row r="51" ht="13" spans="1:65">
+      <c r="A51" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -7488,8 +7765,10 @@
       <c r="BL51" s="16"/>
       <c r="BM51" s="16"/>
     </row>
-    <row r="52" spans="1:65">
-      <c r="A52" s="16"/>
+    <row r="52" ht="13" spans="1:65">
+      <c r="A52" s="69" t="s">
+        <v>136</v>
+      </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -7554,8 +7833,10 @@
       <c r="BL52" s="16"/>
       <c r="BM52" s="16"/>
     </row>
-    <row r="53" spans="1:65">
-      <c r="A53" s="16"/>
+    <row r="53" ht="13" spans="1:65">
+      <c r="A53" s="69" t="s">
+        <v>137</v>
+      </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -7620,8 +7901,10 @@
       <c r="BL53" s="16"/>
       <c r="BM53" s="16"/>
     </row>
-    <row r="54" spans="1:65">
-      <c r="A54" s="16"/>
+    <row r="54" ht="13" spans="1:65">
+      <c r="A54" s="69" t="s">
+        <v>138</v>
+      </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -7686,8 +7969,10 @@
       <c r="BL54" s="16"/>
       <c r="BM54" s="16"/>
     </row>
-    <row r="55" spans="1:65">
-      <c r="A55" s="16"/>
+    <row r="55" ht="13" spans="1:65">
+      <c r="A55" s="69" t="s">
+        <v>139</v>
+      </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -7752,8 +8037,10 @@
       <c r="BL55" s="16"/>
       <c r="BM55" s="16"/>
     </row>
-    <row r="56" spans="1:65">
-      <c r="A56" s="16"/>
+    <row r="56" ht="13" spans="1:65">
+      <c r="A56" s="69" t="s">
+        <v>140</v>
+      </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -7818,8 +8105,10 @@
       <c r="BL56" s="16"/>
       <c r="BM56" s="16"/>
     </row>
-    <row r="57" spans="1:65">
-      <c r="A57" s="16"/>
+    <row r="57" ht="13" spans="1:65">
+      <c r="A57" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -7884,8 +8173,10 @@
       <c r="BL57" s="16"/>
       <c r="BM57" s="16"/>
     </row>
-    <row r="58" spans="1:65">
-      <c r="A58" s="16"/>
+    <row r="58" ht="13" spans="1:65">
+      <c r="A58" s="69" t="s">
+        <v>142</v>
+      </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -7950,8 +8241,10 @@
       <c r="BL58" s="16"/>
       <c r="BM58" s="16"/>
     </row>
-    <row r="59" spans="1:65">
-      <c r="A59" s="16"/>
+    <row r="59" ht="13" spans="1:65">
+      <c r="A59" s="69" t="s">
+        <v>143</v>
+      </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -8016,8 +8309,10 @@
       <c r="BL59" s="16"/>
       <c r="BM59" s="16"/>
     </row>
-    <row r="60" spans="1:65">
-      <c r="A60" s="16"/>
+    <row r="60" ht="13" spans="1:65">
+      <c r="A60" s="69" t="s">
+        <v>144</v>
+      </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -8082,8 +8377,10 @@
       <c r="BL60" s="16"/>
       <c r="BM60" s="16"/>
     </row>
-    <row r="61" spans="1:65">
-      <c r="A61" s="16"/>
+    <row r="61" ht="13" spans="1:65">
+      <c r="A61" s="69" t="s">
+        <v>145</v>
+      </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -8148,8 +8445,10 @@
       <c r="BL61" s="16"/>
       <c r="BM61" s="16"/>
     </row>
-    <row r="62" spans="1:65">
-      <c r="A62" s="16"/>
+    <row r="62" ht="13" spans="1:65">
+      <c r="A62" s="69" t="s">
+        <v>146</v>
+      </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -8214,8 +8513,10 @@
       <c r="BL62" s="16"/>
       <c r="BM62" s="16"/>
     </row>
-    <row r="63" spans="1:65">
-      <c r="A63" s="16"/>
+    <row r="63" ht="13" spans="1:65">
+      <c r="A63" s="69" t="s">
+        <v>147</v>
+      </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -8280,8 +8581,10 @@
       <c r="BL63" s="16"/>
       <c r="BM63" s="16"/>
     </row>
-    <row r="64" spans="1:65">
-      <c r="A64" s="16"/>
+    <row r="64" ht="13" spans="1:65">
+      <c r="A64" s="69" t="s">
+        <v>148</v>
+      </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -8346,8 +8649,10 @@
       <c r="BL64" s="16"/>
       <c r="BM64" s="16"/>
     </row>
-    <row r="65" spans="1:65">
-      <c r="A65" s="16"/>
+    <row r="65" ht="13" spans="1:65">
+      <c r="A65" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -8412,8 +8717,10 @@
       <c r="BL65" s="16"/>
       <c r="BM65" s="16"/>
     </row>
-    <row r="66" spans="1:65">
-      <c r="A66" s="16"/>
+    <row r="66" ht="13" spans="1:65">
+      <c r="A66" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -8478,8 +8785,10 @@
       <c r="BL66" s="16"/>
       <c r="BM66" s="16"/>
     </row>
-    <row r="67" spans="1:65">
-      <c r="A67" s="16"/>
+    <row r="67" ht="13" spans="1:65">
+      <c r="A67" s="69" t="s">
+        <v>151</v>
+      </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -8544,8 +8853,10 @@
       <c r="BL67" s="16"/>
       <c r="BM67" s="16"/>
     </row>
-    <row r="68" spans="1:65">
-      <c r="A68" s="16"/>
+    <row r="68" ht="13" spans="1:65">
+      <c r="A68" s="69" t="s">
+        <v>152</v>
+      </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -8610,8 +8921,10 @@
       <c r="BL68" s="16"/>
       <c r="BM68" s="16"/>
     </row>
-    <row r="69" spans="1:65">
-      <c r="A69" s="16"/>
+    <row r="69" ht="13" spans="1:65">
+      <c r="A69" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -8676,8 +8989,10 @@
       <c r="BL69" s="16"/>
       <c r="BM69" s="16"/>
     </row>
-    <row r="70" spans="1:65">
-      <c r="A70" s="16"/>
+    <row r="70" ht="13" spans="1:65">
+      <c r="A70" s="69" t="s">
+        <v>154</v>
+      </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -8742,8 +9057,10 @@
       <c r="BL70" s="16"/>
       <c r="BM70" s="16"/>
     </row>
-    <row r="71" spans="1:65">
-      <c r="A71" s="16"/>
+    <row r="71" ht="13" spans="1:65">
+      <c r="A71" s="69" t="s">
+        <v>155</v>
+      </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -36769,8 +37086,8 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -36784,22 +37101,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="CU1" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -3510,8 +3510,8 @@
   <sheetPr/>
   <dimension ref="A1:DC568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -1145,11 +1145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1242,6 +1242,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1249,45 +1256,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,15 +1271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,18 +1308,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1361,9 +1340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,7 +1356,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1463,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,169 +1631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,6 +1885,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1906,39 +1939,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1951,16 +1951,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,148 +1984,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3510,8 +3510,8 @@
   <sheetPr/>
   <dimension ref="A1:DC568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4845,7 +4845,9 @@
       <c r="A9" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17">
+        <v>44523</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>交易编码</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>实际入场价</t>
+  </si>
+  <si>
+    <t>实际购买股数</t>
   </si>
   <si>
     <t>入场交易佣金
@@ -868,33 +871,7 @@
     <t>000005</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>605016(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百农创园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>605016(百龙创园)</t>
   </si>
   <si>
     <t>清晰</t>
@@ -1144,11 +1121,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -1249,9 +1226,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1265,21 +1325,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,92 +1354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1440,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,37 +1530,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,25 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,19 +1590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,66 +1615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,16 +1868,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1925,6 +1902,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1939,6 +1931,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1949,132 +1956,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2083,60 +2060,60 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2182,6 +2159,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2262,7 +2242,7 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2298,10 +2278,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2310,20 +2293,17 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3508,10 +3488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DC568"/>
+  <dimension ref="A1:DD568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3533,21 +3513,21 @@
     <col min="44" max="44" width="11.3035714285714" customWidth="1"/>
     <col min="45" max="45" width="11.1607142857143" customWidth="1"/>
     <col min="46" max="47" width="10.2589285714286" customWidth="1"/>
-    <col min="48" max="48" width="13.2410714285714" customWidth="1"/>
-    <col min="49" max="51" width="19.7946428571429" customWidth="1"/>
-    <col min="52" max="53" width="15.6160714285714" customWidth="1"/>
-    <col min="54" max="54" width="14.4285714285714" customWidth="1"/>
-    <col min="55" max="55" width="16.6607142857143" customWidth="1"/>
-    <col min="56" max="56" width="13.2410714285714" customWidth="1"/>
-    <col min="57" max="57" width="13.9821428571429" customWidth="1"/>
-    <col min="58" max="58" width="19.0446428571429" customWidth="1"/>
-    <col min="59" max="59" width="21.5803571428571" customWidth="1"/>
-    <col min="60" max="62" width="20.375" customWidth="1"/>
-    <col min="63" max="64" width="21.4196428571429" customWidth="1"/>
-    <col min="65" max="65" width="26.9285714285714" customWidth="1"/>
+    <col min="48" max="49" width="13.2410714285714" customWidth="1"/>
+    <col min="50" max="52" width="19.7946428571429" customWidth="1"/>
+    <col min="53" max="54" width="15.6160714285714" customWidth="1"/>
+    <col min="55" max="55" width="14.4285714285714" customWidth="1"/>
+    <col min="56" max="56" width="16.6607142857143" customWidth="1"/>
+    <col min="57" max="57" width="13.2410714285714" customWidth="1"/>
+    <col min="58" max="58" width="13.9821428571429" customWidth="1"/>
+    <col min="59" max="59" width="19.0446428571429" customWidth="1"/>
+    <col min="60" max="60" width="21.5803571428571" customWidth="1"/>
+    <col min="61" max="63" width="20.375" customWidth="1"/>
+    <col min="64" max="65" width="21.4196428571429" customWidth="1"/>
+    <col min="66" max="66" width="26.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:107">
+    <row r="1" ht="23.6" spans="1:108">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3598,32 +3578,32 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AU1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="58" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="62" t="s">
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="BM1" s="62"/>
-      <c r="BO1" s="64"/>
+      <c r="BN1" s="63"/>
       <c r="BP1" s="64"/>
       <c r="BQ1" s="64"/>
       <c r="BR1" s="64"/>
@@ -3631,37 +3611,38 @@
       <c r="BT1" s="64"/>
       <c r="BU1" s="64"/>
       <c r="BV1" s="64"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="67"/>
-      <c r="CT1" s="67"/>
-      <c r="CU1" s="67"/>
-      <c r="CW1" s="67"/>
-      <c r="CX1" s="67"/>
-      <c r="CY1" s="67"/>
-      <c r="CZ1" s="67"/>
-      <c r="DA1" s="67"/>
-      <c r="DB1" s="67"/>
-      <c r="DC1" s="67"/>
-    </row>
-    <row r="2" ht="23.6" spans="1:107">
+      <c r="BW1" s="64"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="68"/>
+      <c r="CN1" s="68"/>
+      <c r="CP1" s="68"/>
+      <c r="CQ1" s="68"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="68"/>
+      <c r="CT1" s="68"/>
+      <c r="CU1" s="68"/>
+      <c r="CV1" s="68"/>
+      <c r="CX1" s="68"/>
+      <c r="CY1" s="68"/>
+      <c r="CZ1" s="68"/>
+      <c r="DA1" s="68"/>
+      <c r="DB1" s="68"/>
+      <c r="DC1" s="68"/>
+      <c r="DD1" s="68"/>
+    </row>
+    <row r="2" ht="23.6" spans="1:108">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3672,147 +3653,149 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="19" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="41" t="s">
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AM2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AP2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AR2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AS2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" s="47" t="s">
+      <c r="AT2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="48" t="s">
+      <c r="AU2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="49" t="s">
+      <c r="AW2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" s="49" t="s">
+      <c r="AX2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="49" t="s">
+      <c r="AY2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" s="49" t="s">
+      <c r="AZ2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" s="49" t="s">
+      <c r="BA2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="49" t="s">
+      <c r="BB2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="49" t="s">
+      <c r="BC2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="59" t="s">
+      <c r="BD2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="59" t="s">
+      <c r="BE2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="59" t="s">
+      <c r="BF2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="59" t="s">
+      <c r="BG2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="59" t="s">
+      <c r="BH2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="BI2" s="59" t="s">
+      <c r="BI2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="BJ2" s="59" t="s">
+      <c r="BJ2" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="BK2" s="59" t="s">
+      <c r="BK2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="63" t="s">
+      <c r="BL2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="63" t="s">
+      <c r="BM2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="64"/>
+      <c r="BN2" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO2" s="66"/>
       <c r="BP2" s="64"/>
       <c r="BQ2" s="64"/>
       <c r="BR2" s="64"/>
@@ -3820,152 +3803,153 @@
       <c r="BT2" s="64"/>
       <c r="BU2" s="64"/>
       <c r="BV2" s="64"/>
-      <c r="BX2" s="67"/>
-      <c r="BY2" s="67"/>
-      <c r="BZ2" s="67"/>
-      <c r="CA2" s="67"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="67"/>
-      <c r="CD2" s="67"/>
-      <c r="CE2" s="67"/>
-      <c r="CG2" s="67"/>
-      <c r="CH2" s="67"/>
-      <c r="CI2" s="67"/>
-      <c r="CJ2" s="67"/>
-      <c r="CK2" s="67"/>
-      <c r="CL2" s="67"/>
-      <c r="CM2" s="67"/>
-      <c r="CO2" s="67"/>
-      <c r="CP2" s="67"/>
-      <c r="CQ2" s="67"/>
-      <c r="CR2" s="67"/>
-      <c r="CS2" s="67"/>
-      <c r="CT2" s="67"/>
-      <c r="CU2" s="67"/>
-      <c r="CW2" s="67"/>
-      <c r="CX2" s="67"/>
-      <c r="CY2" s="67"/>
-      <c r="CZ2" s="67"/>
-      <c r="DA2" s="67"/>
-      <c r="DB2" s="67"/>
-      <c r="DC2" s="67"/>
-    </row>
-    <row r="3" ht="25" spans="1:107">
+      <c r="BW2" s="64"/>
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CK2" s="68"/>
+      <c r="CL2" s="68"/>
+      <c r="CM2" s="68"/>
+      <c r="CN2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+      <c r="CV2" s="68"/>
+      <c r="CX2" s="68"/>
+      <c r="CY2" s="68"/>
+      <c r="CZ2" s="68"/>
+      <c r="DA2" s="68"/>
+      <c r="DB2" s="68"/>
+      <c r="DC2" s="68"/>
+      <c r="DD2" s="68"/>
+    </row>
+    <row r="3" ht="25" spans="1:108">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="31" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="N3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="P3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="Q3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="R3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="S3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="T3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="U3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="V3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="W3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="X3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Y3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="Z3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AA3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="31" t="s">
+      <c r="AB3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AC3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AD3" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AE3" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="31" t="s">
+      <c r="AF3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="38" t="s">
+      <c r="AG3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="38" t="s">
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="42" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="59"/>
+      <c r="AK3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="53"/>
       <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="61"/>
       <c r="BK3" s="61"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="64"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="66"/>
       <c r="BP3" s="64"/>
       <c r="BQ3" s="64"/>
       <c r="BR3" s="64"/>
@@ -3973,208 +3957,211 @@
       <c r="BT3" s="64"/>
       <c r="BU3" s="64"/>
       <c r="BV3" s="64"/>
-      <c r="BX3" s="67"/>
-      <c r="BY3" s="67"/>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="67"/>
-      <c r="CG3" s="67"/>
-      <c r="CH3" s="67"/>
-      <c r="CI3" s="67"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-    </row>
-    <row r="4" ht="36" spans="1:65">
-      <c r="A4" s="68" t="s">
-        <v>71</v>
+      <c r="BW3" s="64"/>
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="68"/>
+      <c r="CA3" s="68"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="68"/>
+      <c r="CD3" s="68"/>
+      <c r="CE3" s="68"/>
+      <c r="CF3" s="68"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="68"/>
+      <c r="CJ3" s="68"/>
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="68"/>
+      <c r="CN3" s="68"/>
+      <c r="CP3" s="68"/>
+      <c r="CQ3" s="68"/>
+      <c r="CR3" s="68"/>
+      <c r="CS3" s="68"/>
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+      <c r="CV3" s="68"/>
+      <c r="CX3" s="68"/>
+      <c r="CY3" s="68"/>
+      <c r="CZ3" s="68"/>
+      <c r="DA3" s="68"/>
+      <c r="DB3" s="68"/>
+      <c r="DC3" s="68"/>
+      <c r="DD3" s="68"/>
+    </row>
+    <row r="4" ht="36" spans="1:66">
+      <c r="A4" s="69" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="10">
         <v>44517</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12">
         <v>22.15</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>23.55</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <v>24.52</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <v>25.7</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="22">
         <v>5.46</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="22">
         <v>46.33</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="27">
         <f t="shared" ref="J4:J8" si="0">(G4-H4)/H4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="27">
         <f t="shared" ref="K4:K8" si="1">(I4-G4)/I4</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="21">
+      <c r="L4" s="28"/>
+      <c r="M4" s="22">
         <v>20.79</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="22">
         <v>29.8</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <v>21.88</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="22">
         <v>25.14</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="22">
         <v>22.1</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="22">
         <v>26.4</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="22">
         <v>24</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="32" t="s">
-        <v>73</v>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="33" t="s">
+        <v>74</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="35">
         <f t="shared" ref="Y4:Y8" si="2">(I4-M4)/I4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="35">
         <f t="shared" ref="Z4:Z8" si="3">(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="35">
         <f t="shared" ref="AA4:AA8" si="4">(P4-Q4)/P4</f>
         <v>0.120922832140016</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="35">
         <f>(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="34" t="e">
+      <c r="AC4" s="35" t="e">
         <f t="shared" ref="AC4:AC6" si="5">(T4-U4)/T4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" s="36" t="s">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="36" t="s">
+      <c r="AF4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="AH4" s="32" t="s">
+      <c r="AG4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AH4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="22">
         <v>28.15</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AJ4" s="22">
         <v>21.87</v>
       </c>
-      <c r="AK4" s="22">
+      <c r="AK4" s="23">
         <f t="shared" ref="AK4:AK8" si="6">AI4-AJ4</f>
         <v>6.28</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AL4" s="22">
         <v>26.2</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AM4" s="22">
         <v>24.68</v>
       </c>
-      <c r="AN4" s="21">
+      <c r="AN4" s="22">
         <v>32.49</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="AO4" s="22">
         <f t="shared" ref="AO4:AO8" si="7">(AL4-AM4)*100</f>
         <v>152</v>
       </c>
-      <c r="AP4" s="21">
+      <c r="AP4" s="22">
         <v>200</v>
       </c>
-      <c r="AQ4" s="44">
+      <c r="AQ4" s="45">
         <f t="shared" ref="AQ4:AQ8" si="8">(AN4-AL4)/(AL4-AM4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AR4" s="26">
+      <c r="AR4" s="27">
         <f t="shared" ref="AR4:AR8" si="9">(AL4-AM4)/AL4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AS4" s="26">
+      <c r="AS4" s="27">
         <f t="shared" ref="AS4:AS8" si="10">(AN4-AL4)/AL4</f>
         <v>0.240076335877863</v>
       </c>
-      <c r="AT4" s="53">
+      <c r="AT4" s="54">
         <v>150.88</v>
       </c>
       <c r="AU4" s="17">
         <v>44523</v>
       </c>
-      <c r="AV4" s="54">
+      <c r="AV4" s="55">
         <v>26.2</v>
       </c>
-      <c r="AW4" s="54">
+      <c r="AW4" s="55">
+        <v>200</v>
+      </c>
+      <c r="AX4" s="55">
         <v>5</v>
       </c>
-      <c r="AX4" s="56">
-        <f>AV4*AP4*0.2/10000</f>
+      <c r="AY4" s="57">
+        <f>AV4*AW4*0.2/10000</f>
         <v>0.1048</v>
       </c>
-      <c r="AY4" s="57">
-        <f>AV4*AP4+AW4+AX4</f>
+      <c r="AZ4" s="58">
+        <f>AV4*AW4+AX4+AY4</f>
         <v>5245.1048</v>
       </c>
-      <c r="AZ4" s="57">
-        <f>(AV4-AM4)*AP4+AW4+AX4</f>
+      <c r="BA4" s="58">
+        <f>(AV4-AM4)*AW4+AX4+AY4</f>
         <v>309.1048</v>
       </c>
-      <c r="BA4" s="54">
+      <c r="BB4" s="55">
         <v>26.5</v>
       </c>
-      <c r="BB4" s="54">
+      <c r="BC4" s="55">
         <v>25.21</v>
       </c>
-      <c r="BC4" s="60">
-        <f>(BA4-AV4)/(BA4-BB4)</f>
+      <c r="BD4" s="59">
+        <f>(BB4-AV4)/(BB4-BC4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="16"/>
+      <c r="BE4" s="55"/>
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
       <c r="BH4" s="16"/>
@@ -4183,179 +4170,182 @@
       <c r="BK4" s="16"/>
       <c r="BL4" s="16"/>
       <c r="BM4" s="16"/>
-    </row>
-    <row r="5" ht="36" spans="1:65">
-      <c r="A5" s="68" t="s">
-        <v>78</v>
+      <c r="BN4" s="16"/>
+    </row>
+    <row r="5" ht="36" spans="1:66">
+      <c r="A5" s="69" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="13">
         <v>44517</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="15">
         <v>31.92</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="23">
         <v>32.63</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>33.17</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <v>33.73</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>22.98</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="23">
         <v>44.42</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>0.467798085291558</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="27">
         <f t="shared" si="1"/>
         <v>0.240657361548852</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="22">
+      <c r="L5" s="29"/>
+      <c r="M5" s="23">
         <v>30.78</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="23">
         <v>35</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="23">
         <v>31.27</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="23">
         <v>34.82</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="23">
         <v>32.12</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="23">
         <v>34.11</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="23">
         <v>32.53</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="33" t="s">
-        <v>73</v>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="34" t="s">
+        <v>74</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="35">
         <f t="shared" si="2"/>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="36">
         <f t="shared" si="3"/>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="36">
         <f t="shared" si="4"/>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="36">
         <f>(R5-S5)/R5</f>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="34" t="e">
+      <c r="AC5" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="33" t="s">
-        <v>74</v>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="34" t="s">
+        <v>75</v>
       </c>
-      <c r="AF5" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="33" t="s">
+      <c r="AF5" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" s="37" t="s">
-        <v>77</v>
+      <c r="AG5" s="34" t="s">
+        <v>82</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AH5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI5" s="23">
         <v>35.48</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="23">
         <v>31.36</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="23">
         <f t="shared" si="6"/>
         <v>4.12</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="23">
         <v>34.12</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="23">
         <v>32.53</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="23">
         <v>39.33</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AO5" s="22">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="23">
         <v>100</v>
       </c>
-      <c r="AQ5" s="44">
+      <c r="AQ5" s="45">
         <f t="shared" si="8"/>
         <v>3.27672955974844</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AR5" s="46">
         <f t="shared" si="9"/>
         <v>0.0466002344665884</v>
       </c>
-      <c r="AS5" s="45">
+      <c r="AS5" s="46">
         <f t="shared" si="10"/>
         <v>0.152696365767878</v>
       </c>
-      <c r="AT5" s="55">
+      <c r="AT5" s="56">
         <v>37.41</v>
       </c>
       <c r="AU5" s="17">
         <v>44523</v>
       </c>
-      <c r="AV5" s="54">
+      <c r="AV5" s="55">
         <v>33.73</v>
       </c>
-      <c r="AW5" s="54">
+      <c r="AW5" s="55">
+        <v>100</v>
+      </c>
+      <c r="AX5" s="55">
         <v>5</v>
       </c>
-      <c r="AX5" s="56">
-        <f>AV5*AP5*0.2/10000</f>
+      <c r="AY5" s="57">
+        <f>AV5*AW5*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="AY5" s="57">
-        <f>AV5*AP5+AW5+AX5</f>
+      <c r="AZ5" s="58">
+        <f>AV5*AW5+AX5+AY5</f>
         <v>3378.06746</v>
       </c>
-      <c r="AZ5" s="57">
-        <f>(AV5-AM5)*AP5+AW5+AX5</f>
+      <c r="BA5" s="58">
+        <f>(AV5-AM5)*AW5+AX5+AY5</f>
         <v>125.06746</v>
       </c>
-      <c r="BA5" s="54">
+      <c r="BB5" s="55">
         <v>35.36</v>
       </c>
-      <c r="BB5" s="54">
+      <c r="BC5" s="55">
         <v>33.1</v>
       </c>
-      <c r="BC5" s="60">
-        <f>(BA5-AV5)/(BA5-BB5)</f>
+      <c r="BD5" s="59">
+        <f>(BB5-AV5)/(BB5-BC5)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="16"/>
+      <c r="BE5" s="55"/>
       <c r="BF5" s="16"/>
       <c r="BG5" s="16"/>
       <c r="BH5" s="16"/>
@@ -4364,174 +4354,177 @@
       <c r="BK5" s="16"/>
       <c r="BL5" s="16"/>
       <c r="BM5" s="16"/>
-    </row>
-    <row r="6" ht="36" spans="1:65">
-      <c r="A6" s="68" t="s">
-        <v>82</v>
+      <c r="BN5" s="16"/>
+    </row>
+    <row r="6" ht="36" spans="1:66">
+      <c r="A6" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="13">
         <v>44519</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="15">
         <v>28.2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="24">
         <v>29.15</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="24">
         <v>31.53</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <v>32.57</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>20.61</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>41.5</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="27">
         <f t="shared" si="0"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="27">
         <f t="shared" si="1"/>
         <v>0.215180722891566</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="22">
+      <c r="L6" s="29"/>
+      <c r="M6" s="23">
         <v>28.42</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
         <v>34.7</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="23">
         <v>29</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="23">
         <v>35.27</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="23">
         <v>30.89</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="23">
         <v>32.65</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="33" t="s">
-        <v>84</v>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="34" t="s">
+        <v>85</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="35">
         <f t="shared" si="2"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6" s="36">
         <f t="shared" si="3"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6" s="36">
         <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="34" t="e">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF6" s="33" t="s">
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AG6" s="33" t="s">
-        <v>81</v>
+      <c r="AF6" s="34" t="s">
+        <v>87</v>
       </c>
-      <c r="AH6" s="33" t="s">
-        <v>77</v>
+      <c r="AG6" s="34" t="s">
+        <v>82</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AH6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI6" s="23">
         <v>36.21</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="23">
         <v>27.35</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="23">
         <f t="shared" si="6"/>
         <v>8.86</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AL6" s="23">
         <v>32.65</v>
       </c>
-      <c r="AM6" s="22">
+      <c r="AM6" s="23">
         <v>30.89</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="23">
         <v>36.22</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AO6" s="22">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="AP6" s="22">
+      <c r="AP6" s="23">
         <v>100</v>
       </c>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="45">
         <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="AR6" s="45">
+      <c r="AR6" s="46">
         <f t="shared" si="9"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="AS6" s="45">
+      <c r="AS6" s="46">
         <f t="shared" si="10"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="AT6" s="55">
+      <c r="AT6" s="56">
         <v>28.82</v>
       </c>
       <c r="AU6" s="17">
         <v>44522</v>
       </c>
-      <c r="AV6" s="54">
+      <c r="AV6" s="55">
         <v>32.7</v>
       </c>
-      <c r="AW6" s="54">
+      <c r="AW6" s="55">
+        <v>100</v>
+      </c>
+      <c r="AX6" s="55">
         <v>5</v>
       </c>
-      <c r="AX6" s="56">
-        <f>AV6*AP6*0.2/10000</f>
+      <c r="AY6" s="57">
+        <f>AV6*AW6*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="AY6" s="57">
-        <f>AV6*AP6+AW6+AX6</f>
+      <c r="AZ6" s="58">
+        <f>AV6*AW6+AX6+AY6</f>
         <v>3275.0654</v>
       </c>
-      <c r="AZ6" s="57">
-        <f>(AV6-AM6)*AP6+AW6+AX6</f>
+      <c r="BA6" s="58">
+        <f>(AV6-AM6)*AW6+AX6+AY6</f>
         <v>186.0654</v>
       </c>
-      <c r="BA6" s="57">
+      <c r="BB6" s="58">
         <v>33.9</v>
       </c>
-      <c r="BB6" s="57">
+      <c r="BC6" s="58">
         <v>32.49</v>
       </c>
-      <c r="BC6" s="60">
-        <f>(BA6-AV6)/(BA6-BB6)</f>
+      <c r="BD6" s="59">
+        <f>(BB6-AV6)/(BB6-BC6)</f>
         <v>0.851063829787233</v>
       </c>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="16"/>
+      <c r="BE6" s="55"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
       <c r="BH6" s="16"/>
@@ -4540,16 +4533,17 @@
       <c r="BK6" s="16"/>
       <c r="BL6" s="16"/>
       <c r="BM6" s="16"/>
-    </row>
-    <row r="7" ht="36" spans="1:65">
-      <c r="A7" s="69" t="s">
-        <v>87</v>
+      <c r="BN6" s="16"/>
+    </row>
+    <row r="7" ht="36" spans="1:66">
+      <c r="A7" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="17">
         <v>44522</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="16">
         <v>28.37</v>
@@ -4569,11 +4563,11 @@
       <c r="I7" s="16">
         <v>48.5</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="27">
         <f t="shared" si="1"/>
         <v>0.387835051546392</v>
       </c>
@@ -4600,34 +4594,34 @@
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="35">
         <f t="shared" si="2"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="36">
         <f t="shared" si="3"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7" s="36">
         <f t="shared" si="4"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB7" s="35"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
-      <c r="AG7" s="39" t="s">
-        <v>89</v>
+      <c r="AG7" s="40" t="s">
+        <v>90</v>
       </c>
-      <c r="AH7" s="39" t="s">
-        <v>77</v>
+      <c r="AH7" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="AI7" s="16">
         <v>32.43</v>
@@ -4635,7 +4629,7 @@
       <c r="AJ7" s="16">
         <v>26.16</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="23">
         <f t="shared" si="6"/>
         <v>6.27</v>
       </c>
@@ -4648,7 +4642,7 @@
       <c r="AN7" s="16">
         <v>38.71</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AO7" s="22">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
@@ -4656,31 +4650,55 @@
         <f>FLOOR(300/(AL7-AM7),100)</f>
         <v>200</v>
       </c>
-      <c r="AQ7" s="44">
+      <c r="AQ7" s="45">
         <f t="shared" si="8"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="AR7" s="45">
+      <c r="AR7" s="46">
         <f t="shared" si="9"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="AS7" s="45">
+      <c r="AS7" s="46">
         <f t="shared" si="10"/>
         <v>0.262557077625571</v>
       </c>
       <c r="AT7" s="16">
         <v>38.46</v>
       </c>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
+      <c r="AU7" s="17">
+        <v>44524</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>30.54</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>100</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="57">
+        <f>AV7*AW7*0.2/10000</f>
+        <v>0.06108</v>
+      </c>
+      <c r="AZ7" s="58">
+        <f>AV7*AW7+AX7+AY7</f>
+        <v>3059.06108</v>
+      </c>
+      <c r="BA7" s="58">
+        <f>(AV7-AM7)*AW7+AX7+AY7</f>
+        <v>124.06108</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>30.72</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>29.33</v>
+      </c>
+      <c r="BD7" s="59">
+        <f>(BB7-AV7)/(BB7-BC7)</f>
+        <v>0.129496402877698</v>
+      </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
       <c r="BG7" s="16"/>
@@ -4690,16 +4708,17 @@
       <c r="BK7" s="16"/>
       <c r="BL7" s="16"/>
       <c r="BM7" s="16"/>
-    </row>
-    <row r="8" ht="36" spans="1:65">
-      <c r="A8" s="69" t="s">
-        <v>90</v>
+      <c r="BN7" s="16"/>
+    </row>
+    <row r="8" ht="36" spans="1:66">
+      <c r="A8" s="70" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="17">
         <v>44522</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>91</v>
+      <c r="C8" s="71" t="s">
+        <v>92</v>
       </c>
       <c r="D8" s="16">
         <v>7.01</v>
@@ -4719,11 +4738,11 @@
       <c r="I8" s="16">
         <v>9.59</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="27">
         <f t="shared" si="0"/>
         <v>0.414990859232176</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="27">
         <f t="shared" si="1"/>
         <v>0.192909280500521</v>
       </c>
@@ -4750,17 +4769,17 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="35">
         <f t="shared" si="2"/>
         <v>0.368091762252346</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="36">
         <f t="shared" si="3"/>
         <v>0.199040767386091</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="36">
         <f t="shared" si="4"/>
         <v>0.0805031446540881</v>
       </c>
@@ -4768,16 +4787,16 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
-      <c r="AG8" s="39" t="s">
-        <v>92</v>
+      <c r="AG8" s="40" t="s">
+        <v>93</v>
       </c>
-      <c r="AH8" s="39" t="s">
-        <v>77</v>
+      <c r="AH8" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="AI8" s="16">
         <v>8.43</v>
@@ -4785,7 +4804,7 @@
       <c r="AJ8" s="16">
         <v>6.78</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AK8" s="23">
         <f t="shared" si="6"/>
         <v>1.65</v>
       </c>
@@ -4798,7 +4817,7 @@
       <c r="AN8" s="16">
         <v>9.31</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="AO8" s="22">
         <f t="shared" si="7"/>
         <v>36.9999999999999</v>
       </c>
@@ -4806,15 +4825,15 @@
         <f>FLOOR(300/(AL8-AM8),100)</f>
         <v>800</v>
       </c>
-      <c r="AQ8" s="44">
+      <c r="AQ8" s="45">
         <f t="shared" si="8"/>
         <v>3.45945945945947</v>
       </c>
-      <c r="AR8" s="45">
+      <c r="AR8" s="46">
         <f t="shared" si="9"/>
         <v>0.046077210460772</v>
       </c>
-      <c r="AS8" s="45">
+      <c r="AS8" s="46">
         <f t="shared" si="10"/>
         <v>0.159402241594023</v>
       </c>
@@ -4840,10 +4859,11 @@
       <c r="BK8" s="16"/>
       <c r="BL8" s="16"/>
       <c r="BM8" s="16"/>
-    </row>
-    <row r="9" ht="13" spans="1:65">
-      <c r="A9" s="69" t="s">
-        <v>93</v>
+      <c r="BN8" s="16"/>
+    </row>
+    <row r="9" ht="13" spans="1:66">
+      <c r="A9" s="70" t="s">
+        <v>94</v>
       </c>
       <c r="B9" s="17">
         <v>44523</v>
@@ -4910,10 +4930,11 @@
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
       <c r="BM9" s="16"/>
-    </row>
-    <row r="10" ht="13" spans="1:65">
-      <c r="A10" s="69" t="s">
-        <v>94</v>
+      <c r="BN9" s="16"/>
+    </row>
+    <row r="10" ht="13" spans="1:66">
+      <c r="A10" s="70" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4978,10 +4999,11 @@
       <c r="BK10" s="16"/>
       <c r="BL10" s="16"/>
       <c r="BM10" s="16"/>
-    </row>
-    <row r="11" ht="13" spans="1:65">
-      <c r="A11" s="69" t="s">
-        <v>95</v>
+      <c r="BN10" s="16"/>
+    </row>
+    <row r="11" ht="13" spans="1:66">
+      <c r="A11" s="70" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5046,10 +5068,11 @@
       <c r="BK11" s="16"/>
       <c r="BL11" s="16"/>
       <c r="BM11" s="16"/>
-    </row>
-    <row r="12" ht="13" spans="1:65">
-      <c r="A12" s="69" t="s">
-        <v>96</v>
+      <c r="BN11" s="16"/>
+    </row>
+    <row r="12" ht="13" spans="1:66">
+      <c r="A12" s="70" t="s">
+        <v>97</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -5114,10 +5137,11 @@
       <c r="BK12" s="16"/>
       <c r="BL12" s="16"/>
       <c r="BM12" s="16"/>
-    </row>
-    <row r="13" ht="13" spans="1:65">
-      <c r="A13" s="69" t="s">
-        <v>97</v>
+      <c r="BN12" s="16"/>
+    </row>
+    <row r="13" ht="13" spans="1:66">
+      <c r="A13" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5182,10 +5206,11 @@
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
       <c r="BM13" s="16"/>
-    </row>
-    <row r="14" ht="13" spans="1:65">
-      <c r="A14" s="69" t="s">
-        <v>98</v>
+      <c r="BN13" s="16"/>
+    </row>
+    <row r="14" ht="13" spans="1:66">
+      <c r="A14" s="70" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5250,10 +5275,11 @@
       <c r="BK14" s="16"/>
       <c r="BL14" s="16"/>
       <c r="BM14" s="16"/>
-    </row>
-    <row r="15" ht="13" spans="1:65">
-      <c r="A15" s="69" t="s">
-        <v>99</v>
+      <c r="BN14" s="16"/>
+    </row>
+    <row r="15" ht="13" spans="1:66">
+      <c r="A15" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -5318,10 +5344,11 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
       <c r="BM15" s="16"/>
-    </row>
-    <row r="16" ht="13" spans="1:65">
-      <c r="A16" s="69" t="s">
-        <v>100</v>
+      <c r="BN15" s="16"/>
+    </row>
+    <row r="16" ht="13" spans="1:66">
+      <c r="A16" s="70" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5386,10 +5413,11 @@
       <c r="BK16" s="16"/>
       <c r="BL16" s="16"/>
       <c r="BM16" s="16"/>
-    </row>
-    <row r="17" ht="13" spans="1:65">
-      <c r="A17" s="69" t="s">
-        <v>101</v>
+      <c r="BN16" s="16"/>
+    </row>
+    <row r="17" ht="13" spans="1:66">
+      <c r="A17" s="70" t="s">
+        <v>102</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5454,10 +5482,11 @@
       <c r="BK17" s="16"/>
       <c r="BL17" s="16"/>
       <c r="BM17" s="16"/>
-    </row>
-    <row r="18" ht="13" spans="1:65">
-      <c r="A18" s="69" t="s">
-        <v>102</v>
+      <c r="BN17" s="16"/>
+    </row>
+    <row r="18" ht="13" spans="1:66">
+      <c r="A18" s="70" t="s">
+        <v>103</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -5522,10 +5551,11 @@
       <c r="BK18" s="16"/>
       <c r="BL18" s="16"/>
       <c r="BM18" s="16"/>
-    </row>
-    <row r="19" ht="13" spans="1:65">
-      <c r="A19" s="69" t="s">
-        <v>103</v>
+      <c r="BN18" s="16"/>
+    </row>
+    <row r="19" ht="13" spans="1:66">
+      <c r="A19" s="70" t="s">
+        <v>104</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5590,10 +5620,11 @@
       <c r="BK19" s="16"/>
       <c r="BL19" s="16"/>
       <c r="BM19" s="16"/>
-    </row>
-    <row r="20" ht="13" spans="1:65">
-      <c r="A20" s="69" t="s">
-        <v>104</v>
+      <c r="BN19" s="16"/>
+    </row>
+    <row r="20" ht="13" spans="1:66">
+      <c r="A20" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5658,10 +5689,11 @@
       <c r="BK20" s="16"/>
       <c r="BL20" s="16"/>
       <c r="BM20" s="16"/>
-    </row>
-    <row r="21" ht="13" spans="1:65">
-      <c r="A21" s="69" t="s">
-        <v>105</v>
+      <c r="BN20" s="16"/>
+    </row>
+    <row r="21" ht="13" spans="1:66">
+      <c r="A21" s="70" t="s">
+        <v>106</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5726,10 +5758,11 @@
       <c r="BK21" s="16"/>
       <c r="BL21" s="16"/>
       <c r="BM21" s="16"/>
-    </row>
-    <row r="22" ht="13" spans="1:65">
-      <c r="A22" s="69" t="s">
-        <v>106</v>
+      <c r="BN21" s="16"/>
+    </row>
+    <row r="22" ht="13" spans="1:66">
+      <c r="A22" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5794,10 +5827,11 @@
       <c r="BK22" s="16"/>
       <c r="BL22" s="16"/>
       <c r="BM22" s="16"/>
-    </row>
-    <row r="23" ht="13" spans="1:65">
-      <c r="A23" s="69" t="s">
-        <v>107</v>
+      <c r="BN22" s="16"/>
+    </row>
+    <row r="23" ht="13" spans="1:66">
+      <c r="A23" s="70" t="s">
+        <v>108</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5862,10 +5896,11 @@
       <c r="BK23" s="16"/>
       <c r="BL23" s="16"/>
       <c r="BM23" s="16"/>
-    </row>
-    <row r="24" ht="13" spans="1:65">
-      <c r="A24" s="69" t="s">
-        <v>108</v>
+      <c r="BN23" s="16"/>
+    </row>
+    <row r="24" ht="13" spans="1:66">
+      <c r="A24" s="70" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5930,10 +5965,11 @@
       <c r="BK24" s="16"/>
       <c r="BL24" s="16"/>
       <c r="BM24" s="16"/>
-    </row>
-    <row r="25" ht="13" spans="1:65">
-      <c r="A25" s="69" t="s">
-        <v>109</v>
+      <c r="BN24" s="16"/>
+    </row>
+    <row r="25" ht="13" spans="1:66">
+      <c r="A25" s="70" t="s">
+        <v>110</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5998,10 +6034,11 @@
       <c r="BK25" s="16"/>
       <c r="BL25" s="16"/>
       <c r="BM25" s="16"/>
-    </row>
-    <row r="26" ht="13" spans="1:65">
-      <c r="A26" s="69" t="s">
-        <v>110</v>
+      <c r="BN25" s="16"/>
+    </row>
+    <row r="26" ht="13" spans="1:66">
+      <c r="A26" s="70" t="s">
+        <v>111</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6066,10 +6103,11 @@
       <c r="BK26" s="16"/>
       <c r="BL26" s="16"/>
       <c r="BM26" s="16"/>
-    </row>
-    <row r="27" ht="13" spans="1:65">
-      <c r="A27" s="69" t="s">
-        <v>111</v>
+      <c r="BN26" s="16"/>
+    </row>
+    <row r="27" ht="13" spans="1:66">
+      <c r="A27" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6134,10 +6172,11 @@
       <c r="BK27" s="16"/>
       <c r="BL27" s="16"/>
       <c r="BM27" s="16"/>
-    </row>
-    <row r="28" ht="13" spans="1:65">
-      <c r="A28" s="69" t="s">
-        <v>112</v>
+      <c r="BN27" s="16"/>
+    </row>
+    <row r="28" ht="13" spans="1:66">
+      <c r="A28" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6202,10 +6241,11 @@
       <c r="BK28" s="16"/>
       <c r="BL28" s="16"/>
       <c r="BM28" s="16"/>
-    </row>
-    <row r="29" ht="13" spans="1:65">
-      <c r="A29" s="69" t="s">
-        <v>113</v>
+      <c r="BN28" s="16"/>
+    </row>
+    <row r="29" ht="13" spans="1:66">
+      <c r="A29" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6270,10 +6310,11 @@
       <c r="BK29" s="16"/>
       <c r="BL29" s="16"/>
       <c r="BM29" s="16"/>
-    </row>
-    <row r="30" ht="13" spans="1:65">
-      <c r="A30" s="69" t="s">
-        <v>114</v>
+      <c r="BN29" s="16"/>
+    </row>
+    <row r="30" ht="13" spans="1:66">
+      <c r="A30" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6338,10 +6379,11 @@
       <c r="BK30" s="16"/>
       <c r="BL30" s="16"/>
       <c r="BM30" s="16"/>
-    </row>
-    <row r="31" ht="13" spans="1:65">
-      <c r="A31" s="69" t="s">
-        <v>115</v>
+      <c r="BN30" s="16"/>
+    </row>
+    <row r="31" ht="13" spans="1:66">
+      <c r="A31" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6406,10 +6448,11 @@
       <c r="BK31" s="16"/>
       <c r="BL31" s="16"/>
       <c r="BM31" s="16"/>
-    </row>
-    <row r="32" ht="13" spans="1:65">
-      <c r="A32" s="69" t="s">
-        <v>116</v>
+      <c r="BN31" s="16"/>
+    </row>
+    <row r="32" ht="13" spans="1:66">
+      <c r="A32" s="70" t="s">
+        <v>117</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6474,10 +6517,11 @@
       <c r="BK32" s="16"/>
       <c r="BL32" s="16"/>
       <c r="BM32" s="16"/>
-    </row>
-    <row r="33" ht="13" spans="1:65">
-      <c r="A33" s="69" t="s">
-        <v>117</v>
+      <c r="BN32" s="16"/>
+    </row>
+    <row r="33" ht="13" spans="1:66">
+      <c r="A33" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6542,10 +6586,11 @@
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
       <c r="BM33" s="16"/>
-    </row>
-    <row r="34" ht="13" spans="1:65">
-      <c r="A34" s="69" t="s">
-        <v>118</v>
+      <c r="BN33" s="16"/>
+    </row>
+    <row r="34" ht="13" spans="1:66">
+      <c r="A34" s="70" t="s">
+        <v>119</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6610,10 +6655,11 @@
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
       <c r="BM34" s="16"/>
-    </row>
-    <row r="35" ht="13" spans="1:65">
-      <c r="A35" s="69" t="s">
-        <v>119</v>
+      <c r="BN34" s="16"/>
+    </row>
+    <row r="35" ht="13" spans="1:66">
+      <c r="A35" s="70" t="s">
+        <v>120</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6678,10 +6724,11 @@
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
       <c r="BM35" s="16"/>
-    </row>
-    <row r="36" ht="13" spans="1:65">
-      <c r="A36" s="69" t="s">
-        <v>120</v>
+      <c r="BN35" s="16"/>
+    </row>
+    <row r="36" ht="13" spans="1:66">
+      <c r="A36" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6746,10 +6793,11 @@
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
       <c r="BM36" s="16"/>
-    </row>
-    <row r="37" ht="13" spans="1:65">
-      <c r="A37" s="69" t="s">
-        <v>121</v>
+      <c r="BN36" s="16"/>
+    </row>
+    <row r="37" ht="13" spans="1:66">
+      <c r="A37" s="70" t="s">
+        <v>122</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -6814,10 +6862,11 @@
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
       <c r="BM37" s="16"/>
-    </row>
-    <row r="38" ht="13" spans="1:65">
-      <c r="A38" s="69" t="s">
-        <v>122</v>
+      <c r="BN37" s="16"/>
+    </row>
+    <row r="38" ht="13" spans="1:66">
+      <c r="A38" s="70" t="s">
+        <v>123</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -6882,10 +6931,11 @@
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
       <c r="BM38" s="16"/>
-    </row>
-    <row r="39" ht="13" spans="1:65">
-      <c r="A39" s="69" t="s">
-        <v>123</v>
+      <c r="BN38" s="16"/>
+    </row>
+    <row r="39" ht="13" spans="1:66">
+      <c r="A39" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -6950,10 +7000,11 @@
       <c r="BK39" s="16"/>
       <c r="BL39" s="16"/>
       <c r="BM39" s="16"/>
-    </row>
-    <row r="40" ht="13" spans="1:65">
-      <c r="A40" s="69" t="s">
-        <v>124</v>
+      <c r="BN39" s="16"/>
+    </row>
+    <row r="40" ht="13" spans="1:66">
+      <c r="A40" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7018,10 +7069,11 @@
       <c r="BK40" s="16"/>
       <c r="BL40" s="16"/>
       <c r="BM40" s="16"/>
-    </row>
-    <row r="41" ht="13" spans="1:65">
-      <c r="A41" s="69" t="s">
-        <v>125</v>
+      <c r="BN40" s="16"/>
+    </row>
+    <row r="41" ht="13" spans="1:66">
+      <c r="A41" s="70" t="s">
+        <v>126</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -7086,10 +7138,11 @@
       <c r="BK41" s="16"/>
       <c r="BL41" s="16"/>
       <c r="BM41" s="16"/>
-    </row>
-    <row r="42" ht="13" spans="1:65">
-      <c r="A42" s="69" t="s">
-        <v>126</v>
+      <c r="BN41" s="16"/>
+    </row>
+    <row r="42" ht="13" spans="1:66">
+      <c r="A42" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -7154,10 +7207,11 @@
       <c r="BK42" s="16"/>
       <c r="BL42" s="16"/>
       <c r="BM42" s="16"/>
-    </row>
-    <row r="43" ht="13" spans="1:65">
-      <c r="A43" s="69" t="s">
-        <v>127</v>
+      <c r="BN42" s="16"/>
+    </row>
+    <row r="43" ht="13" spans="1:66">
+      <c r="A43" s="70" t="s">
+        <v>128</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -7222,10 +7276,11 @@
       <c r="BK43" s="16"/>
       <c r="BL43" s="16"/>
       <c r="BM43" s="16"/>
-    </row>
-    <row r="44" ht="13" spans="1:65">
-      <c r="A44" s="69" t="s">
-        <v>128</v>
+      <c r="BN43" s="16"/>
+    </row>
+    <row r="44" ht="13" spans="1:66">
+      <c r="A44" s="70" t="s">
+        <v>129</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -7290,10 +7345,11 @@
       <c r="BK44" s="16"/>
       <c r="BL44" s="16"/>
       <c r="BM44" s="16"/>
-    </row>
-    <row r="45" ht="13" spans="1:65">
-      <c r="A45" s="69" t="s">
-        <v>129</v>
+      <c r="BN44" s="16"/>
+    </row>
+    <row r="45" ht="13" spans="1:66">
+      <c r="A45" s="70" t="s">
+        <v>130</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -7358,10 +7414,11 @@
       <c r="BK45" s="16"/>
       <c r="BL45" s="16"/>
       <c r="BM45" s="16"/>
-    </row>
-    <row r="46" ht="13" spans="1:65">
-      <c r="A46" s="69" t="s">
-        <v>130</v>
+      <c r="BN45" s="16"/>
+    </row>
+    <row r="46" ht="13" spans="1:66">
+      <c r="A46" s="70" t="s">
+        <v>131</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -7426,10 +7483,11 @@
       <c r="BK46" s="16"/>
       <c r="BL46" s="16"/>
       <c r="BM46" s="16"/>
-    </row>
-    <row r="47" ht="13" spans="1:65">
-      <c r="A47" s="69" t="s">
-        <v>131</v>
+      <c r="BN46" s="16"/>
+    </row>
+    <row r="47" ht="13" spans="1:66">
+      <c r="A47" s="70" t="s">
+        <v>132</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -7494,10 +7552,11 @@
       <c r="BK47" s="16"/>
       <c r="BL47" s="16"/>
       <c r="BM47" s="16"/>
-    </row>
-    <row r="48" ht="13" spans="1:65">
-      <c r="A48" s="69" t="s">
-        <v>132</v>
+      <c r="BN47" s="16"/>
+    </row>
+    <row r="48" ht="13" spans="1:66">
+      <c r="A48" s="70" t="s">
+        <v>133</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -7562,10 +7621,11 @@
       <c r="BK48" s="16"/>
       <c r="BL48" s="16"/>
       <c r="BM48" s="16"/>
-    </row>
-    <row r="49" ht="13" spans="1:65">
-      <c r="A49" s="69" t="s">
-        <v>133</v>
+      <c r="BN48" s="16"/>
+    </row>
+    <row r="49" ht="13" spans="1:66">
+      <c r="A49" s="70" t="s">
+        <v>134</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -7630,10 +7690,11 @@
       <c r="BK49" s="16"/>
       <c r="BL49" s="16"/>
       <c r="BM49" s="16"/>
-    </row>
-    <row r="50" ht="13" spans="1:65">
-      <c r="A50" s="69" t="s">
-        <v>134</v>
+      <c r="BN49" s="16"/>
+    </row>
+    <row r="50" ht="13" spans="1:66">
+      <c r="A50" s="70" t="s">
+        <v>135</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -7698,10 +7759,11 @@
       <c r="BK50" s="16"/>
       <c r="BL50" s="16"/>
       <c r="BM50" s="16"/>
-    </row>
-    <row r="51" ht="13" spans="1:65">
-      <c r="A51" s="69" t="s">
-        <v>135</v>
+      <c r="BN50" s="16"/>
+    </row>
+    <row r="51" ht="13" spans="1:66">
+      <c r="A51" s="70" t="s">
+        <v>136</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -7766,10 +7828,11 @@
       <c r="BK51" s="16"/>
       <c r="BL51" s="16"/>
       <c r="BM51" s="16"/>
-    </row>
-    <row r="52" ht="13" spans="1:65">
-      <c r="A52" s="69" t="s">
-        <v>136</v>
+      <c r="BN51" s="16"/>
+    </row>
+    <row r="52" ht="13" spans="1:66">
+      <c r="A52" s="70" t="s">
+        <v>137</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7834,10 +7897,11 @@
       <c r="BK52" s="16"/>
       <c r="BL52" s="16"/>
       <c r="BM52" s="16"/>
-    </row>
-    <row r="53" ht="13" spans="1:65">
-      <c r="A53" s="69" t="s">
-        <v>137</v>
+      <c r="BN52" s="16"/>
+    </row>
+    <row r="53" ht="13" spans="1:66">
+      <c r="A53" s="70" t="s">
+        <v>138</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -7902,10 +7966,11 @@
       <c r="BK53" s="16"/>
       <c r="BL53" s="16"/>
       <c r="BM53" s="16"/>
-    </row>
-    <row r="54" ht="13" spans="1:65">
-      <c r="A54" s="69" t="s">
-        <v>138</v>
+      <c r="BN53" s="16"/>
+    </row>
+    <row r="54" ht="13" spans="1:66">
+      <c r="A54" s="70" t="s">
+        <v>139</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -7970,10 +8035,11 @@
       <c r="BK54" s="16"/>
       <c r="BL54" s="16"/>
       <c r="BM54" s="16"/>
-    </row>
-    <row r="55" ht="13" spans="1:65">
-      <c r="A55" s="69" t="s">
-        <v>139</v>
+      <c r="BN54" s="16"/>
+    </row>
+    <row r="55" ht="13" spans="1:66">
+      <c r="A55" s="70" t="s">
+        <v>140</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -8038,10 +8104,11 @@
       <c r="BK55" s="16"/>
       <c r="BL55" s="16"/>
       <c r="BM55" s="16"/>
-    </row>
-    <row r="56" ht="13" spans="1:65">
-      <c r="A56" s="69" t="s">
-        <v>140</v>
+      <c r="BN55" s="16"/>
+    </row>
+    <row r="56" ht="13" spans="1:66">
+      <c r="A56" s="70" t="s">
+        <v>141</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -8106,10 +8173,11 @@
       <c r="BK56" s="16"/>
       <c r="BL56" s="16"/>
       <c r="BM56" s="16"/>
-    </row>
-    <row r="57" ht="13" spans="1:65">
-      <c r="A57" s="69" t="s">
-        <v>141</v>
+      <c r="BN56" s="16"/>
+    </row>
+    <row r="57" ht="13" spans="1:66">
+      <c r="A57" s="70" t="s">
+        <v>142</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -8174,10 +8242,11 @@
       <c r="BK57" s="16"/>
       <c r="BL57" s="16"/>
       <c r="BM57" s="16"/>
-    </row>
-    <row r="58" ht="13" spans="1:65">
-      <c r="A58" s="69" t="s">
-        <v>142</v>
+      <c r="BN57" s="16"/>
+    </row>
+    <row r="58" ht="13" spans="1:66">
+      <c r="A58" s="70" t="s">
+        <v>143</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -8242,10 +8311,11 @@
       <c r="BK58" s="16"/>
       <c r="BL58" s="16"/>
       <c r="BM58" s="16"/>
-    </row>
-    <row r="59" ht="13" spans="1:65">
-      <c r="A59" s="69" t="s">
-        <v>143</v>
+      <c r="BN58" s="16"/>
+    </row>
+    <row r="59" ht="13" spans="1:66">
+      <c r="A59" s="70" t="s">
+        <v>144</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8310,10 +8380,11 @@
       <c r="BK59" s="16"/>
       <c r="BL59" s="16"/>
       <c r="BM59" s="16"/>
-    </row>
-    <row r="60" ht="13" spans="1:65">
-      <c r="A60" s="69" t="s">
-        <v>144</v>
+      <c r="BN59" s="16"/>
+    </row>
+    <row r="60" ht="13" spans="1:66">
+      <c r="A60" s="70" t="s">
+        <v>145</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -8378,10 +8449,11 @@
       <c r="BK60" s="16"/>
       <c r="BL60" s="16"/>
       <c r="BM60" s="16"/>
-    </row>
-    <row r="61" ht="13" spans="1:65">
-      <c r="A61" s="69" t="s">
-        <v>145</v>
+      <c r="BN60" s="16"/>
+    </row>
+    <row r="61" ht="13" spans="1:66">
+      <c r="A61" s="70" t="s">
+        <v>146</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8446,10 +8518,11 @@
       <c r="BK61" s="16"/>
       <c r="BL61" s="16"/>
       <c r="BM61" s="16"/>
-    </row>
-    <row r="62" ht="13" spans="1:65">
-      <c r="A62" s="69" t="s">
-        <v>146</v>
+      <c r="BN61" s="16"/>
+    </row>
+    <row r="62" ht="13" spans="1:66">
+      <c r="A62" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -8514,10 +8587,11 @@
       <c r="BK62" s="16"/>
       <c r="BL62" s="16"/>
       <c r="BM62" s="16"/>
-    </row>
-    <row r="63" ht="13" spans="1:65">
-      <c r="A63" s="69" t="s">
-        <v>147</v>
+      <c r="BN62" s="16"/>
+    </row>
+    <row r="63" ht="13" spans="1:66">
+      <c r="A63" s="70" t="s">
+        <v>148</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -8582,10 +8656,11 @@
       <c r="BK63" s="16"/>
       <c r="BL63" s="16"/>
       <c r="BM63" s="16"/>
-    </row>
-    <row r="64" ht="13" spans="1:65">
-      <c r="A64" s="69" t="s">
-        <v>148</v>
+      <c r="BN63" s="16"/>
+    </row>
+    <row r="64" ht="13" spans="1:66">
+      <c r="A64" s="70" t="s">
+        <v>149</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -8650,10 +8725,11 @@
       <c r="BK64" s="16"/>
       <c r="BL64" s="16"/>
       <c r="BM64" s="16"/>
-    </row>
-    <row r="65" ht="13" spans="1:65">
-      <c r="A65" s="69" t="s">
-        <v>149</v>
+      <c r="BN64" s="16"/>
+    </row>
+    <row r="65" ht="13" spans="1:66">
+      <c r="A65" s="70" t="s">
+        <v>150</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -8718,10 +8794,11 @@
       <c r="BK65" s="16"/>
       <c r="BL65" s="16"/>
       <c r="BM65" s="16"/>
-    </row>
-    <row r="66" ht="13" spans="1:65">
-      <c r="A66" s="69" t="s">
-        <v>150</v>
+      <c r="BN65" s="16"/>
+    </row>
+    <row r="66" ht="13" spans="1:66">
+      <c r="A66" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -8786,10 +8863,11 @@
       <c r="BK66" s="16"/>
       <c r="BL66" s="16"/>
       <c r="BM66" s="16"/>
-    </row>
-    <row r="67" ht="13" spans="1:65">
-      <c r="A67" s="69" t="s">
-        <v>151</v>
+      <c r="BN66" s="16"/>
+    </row>
+    <row r="67" ht="13" spans="1:66">
+      <c r="A67" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8854,10 +8932,11 @@
       <c r="BK67" s="16"/>
       <c r="BL67" s="16"/>
       <c r="BM67" s="16"/>
-    </row>
-    <row r="68" ht="13" spans="1:65">
-      <c r="A68" s="69" t="s">
-        <v>152</v>
+      <c r="BN67" s="16"/>
+    </row>
+    <row r="68" ht="13" spans="1:66">
+      <c r="A68" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -8922,10 +9001,11 @@
       <c r="BK68" s="16"/>
       <c r="BL68" s="16"/>
       <c r="BM68" s="16"/>
-    </row>
-    <row r="69" ht="13" spans="1:65">
-      <c r="A69" s="69" t="s">
-        <v>153</v>
+      <c r="BN68" s="16"/>
+    </row>
+    <row r="69" ht="13" spans="1:66">
+      <c r="A69" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -8990,10 +9070,11 @@
       <c r="BK69" s="16"/>
       <c r="BL69" s="16"/>
       <c r="BM69" s="16"/>
-    </row>
-    <row r="70" ht="13" spans="1:65">
-      <c r="A70" s="69" t="s">
-        <v>154</v>
+      <c r="BN69" s="16"/>
+    </row>
+    <row r="70" ht="13" spans="1:66">
+      <c r="A70" s="70" t="s">
+        <v>155</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -9058,10 +9139,11 @@
       <c r="BK70" s="16"/>
       <c r="BL70" s="16"/>
       <c r="BM70" s="16"/>
-    </row>
-    <row r="71" ht="13" spans="1:65">
-      <c r="A71" s="69" t="s">
-        <v>155</v>
+      <c r="BN70" s="16"/>
+    </row>
+    <row r="71" ht="13" spans="1:66">
+      <c r="A71" s="70" t="s">
+        <v>156</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -9126,8 +9208,9 @@
       <c r="BK71" s="16"/>
       <c r="BL71" s="16"/>
       <c r="BM71" s="16"/>
-    </row>
-    <row r="72" spans="1:65">
+      <c r="BN71" s="16"/>
+    </row>
+    <row r="72" spans="1:66">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -9192,8 +9275,9 @@
       <c r="BK72" s="16"/>
       <c r="BL72" s="16"/>
       <c r="BM72" s="16"/>
-    </row>
-    <row r="73" spans="1:65">
+      <c r="BN72" s="16"/>
+    </row>
+    <row r="73" spans="1:66">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -9258,8 +9342,9 @@
       <c r="BK73" s="16"/>
       <c r="BL73" s="16"/>
       <c r="BM73" s="16"/>
-    </row>
-    <row r="74" spans="1:65">
+      <c r="BN73" s="16"/>
+    </row>
+    <row r="74" spans="1:66">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -9324,8 +9409,9 @@
       <c r="BK74" s="16"/>
       <c r="BL74" s="16"/>
       <c r="BM74" s="16"/>
-    </row>
-    <row r="75" spans="1:65">
+      <c r="BN74" s="16"/>
+    </row>
+    <row r="75" spans="1:66">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -9390,8 +9476,9 @@
       <c r="BK75" s="16"/>
       <c r="BL75" s="16"/>
       <c r="BM75" s="16"/>
-    </row>
-    <row r="76" spans="1:65">
+      <c r="BN75" s="16"/>
+    </row>
+    <row r="76" spans="1:66">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -9456,8 +9543,9 @@
       <c r="BK76" s="16"/>
       <c r="BL76" s="16"/>
       <c r="BM76" s="16"/>
-    </row>
-    <row r="77" spans="1:65">
+      <c r="BN76" s="16"/>
+    </row>
+    <row r="77" spans="1:66">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -9522,8 +9610,9 @@
       <c r="BK77" s="16"/>
       <c r="BL77" s="16"/>
       <c r="BM77" s="16"/>
-    </row>
-    <row r="78" spans="1:65">
+      <c r="BN77" s="16"/>
+    </row>
+    <row r="78" spans="1:66">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -9588,8 +9677,9 @@
       <c r="BK78" s="16"/>
       <c r="BL78" s="16"/>
       <c r="BM78" s="16"/>
-    </row>
-    <row r="79" spans="1:65">
+      <c r="BN78" s="16"/>
+    </row>
+    <row r="79" spans="1:66">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -9654,8 +9744,9 @@
       <c r="BK79" s="16"/>
       <c r="BL79" s="16"/>
       <c r="BM79" s="16"/>
-    </row>
-    <row r="80" spans="1:65">
+      <c r="BN79" s="16"/>
+    </row>
+    <row r="80" spans="1:66">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -9720,8 +9811,9 @@
       <c r="BK80" s="16"/>
       <c r="BL80" s="16"/>
       <c r="BM80" s="16"/>
-    </row>
-    <row r="81" spans="1:65">
+      <c r="BN80" s="16"/>
+    </row>
+    <row r="81" spans="1:66">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -9786,8 +9878,9 @@
       <c r="BK81" s="16"/>
       <c r="BL81" s="16"/>
       <c r="BM81" s="16"/>
-    </row>
-    <row r="82" spans="1:65">
+      <c r="BN81" s="16"/>
+    </row>
+    <row r="82" spans="1:66">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -9852,8 +9945,9 @@
       <c r="BK82" s="16"/>
       <c r="BL82" s="16"/>
       <c r="BM82" s="16"/>
-    </row>
-    <row r="83" spans="1:65">
+      <c r="BN82" s="16"/>
+    </row>
+    <row r="83" spans="1:66">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -9918,8 +10012,9 @@
       <c r="BK83" s="16"/>
       <c r="BL83" s="16"/>
       <c r="BM83" s="16"/>
-    </row>
-    <row r="84" spans="1:65">
+      <c r="BN83" s="16"/>
+    </row>
+    <row r="84" spans="1:66">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -9984,8 +10079,9 @@
       <c r="BK84" s="16"/>
       <c r="BL84" s="16"/>
       <c r="BM84" s="16"/>
-    </row>
-    <row r="85" spans="1:65">
+      <c r="BN84" s="16"/>
+    </row>
+    <row r="85" spans="1:66">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -10050,8 +10146,9 @@
       <c r="BK85" s="16"/>
       <c r="BL85" s="16"/>
       <c r="BM85" s="16"/>
-    </row>
-    <row r="86" spans="1:65">
+      <c r="BN85" s="16"/>
+    </row>
+    <row r="86" spans="1:66">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -10116,8 +10213,9 @@
       <c r="BK86" s="16"/>
       <c r="BL86" s="16"/>
       <c r="BM86" s="16"/>
-    </row>
-    <row r="87" spans="1:65">
+      <c r="BN86" s="16"/>
+    </row>
+    <row r="87" spans="1:66">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -10182,8 +10280,9 @@
       <c r="BK87" s="16"/>
       <c r="BL87" s="16"/>
       <c r="BM87" s="16"/>
-    </row>
-    <row r="88" spans="1:65">
+      <c r="BN87" s="16"/>
+    </row>
+    <row r="88" spans="1:66">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -10248,8 +10347,9 @@
       <c r="BK88" s="16"/>
       <c r="BL88" s="16"/>
       <c r="BM88" s="16"/>
-    </row>
-    <row r="89" spans="1:65">
+      <c r="BN88" s="16"/>
+    </row>
+    <row r="89" spans="1:66">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -10314,8 +10414,9 @@
       <c r="BK89" s="16"/>
       <c r="BL89" s="16"/>
       <c r="BM89" s="16"/>
-    </row>
-    <row r="90" spans="1:65">
+      <c r="BN89" s="16"/>
+    </row>
+    <row r="90" spans="1:66">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -10380,8 +10481,9 @@
       <c r="BK90" s="16"/>
       <c r="BL90" s="16"/>
       <c r="BM90" s="16"/>
-    </row>
-    <row r="91" spans="1:65">
+      <c r="BN90" s="16"/>
+    </row>
+    <row r="91" spans="1:66">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -10446,8 +10548,9 @@
       <c r="BK91" s="16"/>
       <c r="BL91" s="16"/>
       <c r="BM91" s="16"/>
-    </row>
-    <row r="92" spans="1:65">
+      <c r="BN91" s="16"/>
+    </row>
+    <row r="92" spans="1:66">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -10512,8 +10615,9 @@
       <c r="BK92" s="16"/>
       <c r="BL92" s="16"/>
       <c r="BM92" s="16"/>
-    </row>
-    <row r="93" spans="1:65">
+      <c r="BN92" s="16"/>
+    </row>
+    <row r="93" spans="1:66">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -10578,8 +10682,9 @@
       <c r="BK93" s="16"/>
       <c r="BL93" s="16"/>
       <c r="BM93" s="16"/>
-    </row>
-    <row r="94" spans="1:65">
+      <c r="BN93" s="16"/>
+    </row>
+    <row r="94" spans="1:66">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -10644,8 +10749,9 @@
       <c r="BK94" s="16"/>
       <c r="BL94" s="16"/>
       <c r="BM94" s="16"/>
-    </row>
-    <row r="95" spans="1:65">
+      <c r="BN94" s="16"/>
+    </row>
+    <row r="95" spans="1:66">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -10710,8 +10816,9 @@
       <c r="BK95" s="16"/>
       <c r="BL95" s="16"/>
       <c r="BM95" s="16"/>
-    </row>
-    <row r="96" spans="1:65">
+      <c r="BN95" s="16"/>
+    </row>
+    <row r="96" spans="1:66">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -10776,8 +10883,9 @@
       <c r="BK96" s="16"/>
       <c r="BL96" s="16"/>
       <c r="BM96" s="16"/>
-    </row>
-    <row r="97" spans="1:65">
+      <c r="BN96" s="16"/>
+    </row>
+    <row r="97" spans="1:66">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -10842,8 +10950,9 @@
       <c r="BK97" s="16"/>
       <c r="BL97" s="16"/>
       <c r="BM97" s="16"/>
-    </row>
-    <row r="98" spans="1:65">
+      <c r="BN97" s="16"/>
+    </row>
+    <row r="98" spans="1:66">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -10908,8 +11017,9 @@
       <c r="BK98" s="16"/>
       <c r="BL98" s="16"/>
       <c r="BM98" s="16"/>
-    </row>
-    <row r="99" spans="1:65">
+      <c r="BN98" s="16"/>
+    </row>
+    <row r="99" spans="1:66">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -10974,8 +11084,9 @@
       <c r="BK99" s="16"/>
       <c r="BL99" s="16"/>
       <c r="BM99" s="16"/>
-    </row>
-    <row r="100" spans="1:65">
+      <c r="BN99" s="16"/>
+    </row>
+    <row r="100" spans="1:66">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -11040,8 +11151,9 @@
       <c r="BK100" s="16"/>
       <c r="BL100" s="16"/>
       <c r="BM100" s="16"/>
-    </row>
-    <row r="101" spans="1:65">
+      <c r="BN100" s="16"/>
+    </row>
+    <row r="101" spans="1:66">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -11106,8 +11218,9 @@
       <c r="BK101" s="16"/>
       <c r="BL101" s="16"/>
       <c r="BM101" s="16"/>
-    </row>
-    <row r="102" spans="1:65">
+      <c r="BN101" s="16"/>
+    </row>
+    <row r="102" spans="1:66">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -11172,8 +11285,9 @@
       <c r="BK102" s="16"/>
       <c r="BL102" s="16"/>
       <c r="BM102" s="16"/>
-    </row>
-    <row r="103" spans="1:65">
+      <c r="BN102" s="16"/>
+    </row>
+    <row r="103" spans="1:66">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -11238,8 +11352,9 @@
       <c r="BK103" s="16"/>
       <c r="BL103" s="16"/>
       <c r="BM103" s="16"/>
-    </row>
-    <row r="104" spans="1:65">
+      <c r="BN103" s="16"/>
+    </row>
+    <row r="104" spans="1:66">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -11304,8 +11419,9 @@
       <c r="BK104" s="16"/>
       <c r="BL104" s="16"/>
       <c r="BM104" s="16"/>
-    </row>
-    <row r="105" spans="1:65">
+      <c r="BN104" s="16"/>
+    </row>
+    <row r="105" spans="1:66">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -11370,8 +11486,9 @@
       <c r="BK105" s="16"/>
       <c r="BL105" s="16"/>
       <c r="BM105" s="16"/>
-    </row>
-    <row r="106" spans="1:65">
+      <c r="BN105" s="16"/>
+    </row>
+    <row r="106" spans="1:66">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -11436,8 +11553,9 @@
       <c r="BK106" s="16"/>
       <c r="BL106" s="16"/>
       <c r="BM106" s="16"/>
-    </row>
-    <row r="107" spans="1:65">
+      <c r="BN106" s="16"/>
+    </row>
+    <row r="107" spans="1:66">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -11502,8 +11620,9 @@
       <c r="BK107" s="16"/>
       <c r="BL107" s="16"/>
       <c r="BM107" s="16"/>
-    </row>
-    <row r="108" spans="1:65">
+      <c r="BN107" s="16"/>
+    </row>
+    <row r="108" spans="1:66">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -11568,8 +11687,9 @@
       <c r="BK108" s="16"/>
       <c r="BL108" s="16"/>
       <c r="BM108" s="16"/>
-    </row>
-    <row r="109" spans="1:65">
+      <c r="BN108" s="16"/>
+    </row>
+    <row r="109" spans="1:66">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -11634,8 +11754,9 @@
       <c r="BK109" s="16"/>
       <c r="BL109" s="16"/>
       <c r="BM109" s="16"/>
-    </row>
-    <row r="110" spans="1:65">
+      <c r="BN109" s="16"/>
+    </row>
+    <row r="110" spans="1:66">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -11700,8 +11821,9 @@
       <c r="BK110" s="16"/>
       <c r="BL110" s="16"/>
       <c r="BM110" s="16"/>
-    </row>
-    <row r="111" spans="1:65">
+      <c r="BN110" s="16"/>
+    </row>
+    <row r="111" spans="1:66">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -11766,8 +11888,9 @@
       <c r="BK111" s="16"/>
       <c r="BL111" s="16"/>
       <c r="BM111" s="16"/>
-    </row>
-    <row r="112" spans="1:65">
+      <c r="BN111" s="16"/>
+    </row>
+    <row r="112" spans="1:66">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -11832,8 +11955,9 @@
       <c r="BK112" s="16"/>
       <c r="BL112" s="16"/>
       <c r="BM112" s="16"/>
-    </row>
-    <row r="113" spans="1:65">
+      <c r="BN112" s="16"/>
+    </row>
+    <row r="113" spans="1:66">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -11898,8 +12022,9 @@
       <c r="BK113" s="16"/>
       <c r="BL113" s="16"/>
       <c r="BM113" s="16"/>
-    </row>
-    <row r="114" spans="1:65">
+      <c r="BN113" s="16"/>
+    </row>
+    <row r="114" spans="1:66">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -11964,8 +12089,9 @@
       <c r="BK114" s="16"/>
       <c r="BL114" s="16"/>
       <c r="BM114" s="16"/>
-    </row>
-    <row r="115" spans="1:65">
+      <c r="BN114" s="16"/>
+    </row>
+    <row r="115" spans="1:66">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -12030,8 +12156,9 @@
       <c r="BK115" s="16"/>
       <c r="BL115" s="16"/>
       <c r="BM115" s="16"/>
-    </row>
-    <row r="116" spans="1:65">
+      <c r="BN115" s="16"/>
+    </row>
+    <row r="116" spans="1:66">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -12096,8 +12223,9 @@
       <c r="BK116" s="16"/>
       <c r="BL116" s="16"/>
       <c r="BM116" s="16"/>
-    </row>
-    <row r="117" spans="1:65">
+      <c r="BN116" s="16"/>
+    </row>
+    <row r="117" spans="1:66">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -12162,8 +12290,9 @@
       <c r="BK117" s="16"/>
       <c r="BL117" s="16"/>
       <c r="BM117" s="16"/>
-    </row>
-    <row r="118" spans="1:65">
+      <c r="BN117" s="16"/>
+    </row>
+    <row r="118" spans="1:66">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -12228,8 +12357,9 @@
       <c r="BK118" s="16"/>
       <c r="BL118" s="16"/>
       <c r="BM118" s="16"/>
-    </row>
-    <row r="119" spans="1:65">
+      <c r="BN118" s="16"/>
+    </row>
+    <row r="119" spans="1:66">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -12294,8 +12424,9 @@
       <c r="BK119" s="16"/>
       <c r="BL119" s="16"/>
       <c r="BM119" s="16"/>
-    </row>
-    <row r="120" spans="1:65">
+      <c r="BN119" s="16"/>
+    </row>
+    <row r="120" spans="1:66">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -12360,8 +12491,9 @@
       <c r="BK120" s="16"/>
       <c r="BL120" s="16"/>
       <c r="BM120" s="16"/>
-    </row>
-    <row r="121" spans="1:65">
+      <c r="BN120" s="16"/>
+    </row>
+    <row r="121" spans="1:66">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -12426,8 +12558,9 @@
       <c r="BK121" s="16"/>
       <c r="BL121" s="16"/>
       <c r="BM121" s="16"/>
-    </row>
-    <row r="122" spans="1:65">
+      <c r="BN121" s="16"/>
+    </row>
+    <row r="122" spans="1:66">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -12492,8 +12625,9 @@
       <c r="BK122" s="16"/>
       <c r="BL122" s="16"/>
       <c r="BM122" s="16"/>
-    </row>
-    <row r="123" spans="1:65">
+      <c r="BN122" s="16"/>
+    </row>
+    <row r="123" spans="1:66">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -12558,8 +12692,9 @@
       <c r="BK123" s="16"/>
       <c r="BL123" s="16"/>
       <c r="BM123" s="16"/>
-    </row>
-    <row r="124" spans="1:65">
+      <c r="BN123" s="16"/>
+    </row>
+    <row r="124" spans="1:66">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -12624,8 +12759,9 @@
       <c r="BK124" s="16"/>
       <c r="BL124" s="16"/>
       <c r="BM124" s="16"/>
-    </row>
-    <row r="125" spans="1:65">
+      <c r="BN124" s="16"/>
+    </row>
+    <row r="125" spans="1:66">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -12690,8 +12826,9 @@
       <c r="BK125" s="16"/>
       <c r="BL125" s="16"/>
       <c r="BM125" s="16"/>
-    </row>
-    <row r="126" spans="1:65">
+      <c r="BN125" s="16"/>
+    </row>
+    <row r="126" spans="1:66">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -12756,8 +12893,9 @@
       <c r="BK126" s="16"/>
       <c r="BL126" s="16"/>
       <c r="BM126" s="16"/>
-    </row>
-    <row r="127" spans="1:65">
+      <c r="BN126" s="16"/>
+    </row>
+    <row r="127" spans="1:66">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -12822,8 +12960,9 @@
       <c r="BK127" s="16"/>
       <c r="BL127" s="16"/>
       <c r="BM127" s="16"/>
-    </row>
-    <row r="128" spans="1:65">
+      <c r="BN127" s="16"/>
+    </row>
+    <row r="128" spans="1:66">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -12888,8 +13027,9 @@
       <c r="BK128" s="16"/>
       <c r="BL128" s="16"/>
       <c r="BM128" s="16"/>
-    </row>
-    <row r="129" spans="1:65">
+      <c r="BN128" s="16"/>
+    </row>
+    <row r="129" spans="1:66">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -12954,8 +13094,9 @@
       <c r="BK129" s="16"/>
       <c r="BL129" s="16"/>
       <c r="BM129" s="16"/>
-    </row>
-    <row r="130" spans="1:65">
+      <c r="BN129" s="16"/>
+    </row>
+    <row r="130" spans="1:66">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -13020,8 +13161,9 @@
       <c r="BK130" s="16"/>
       <c r="BL130" s="16"/>
       <c r="BM130" s="16"/>
-    </row>
-    <row r="131" spans="1:65">
+      <c r="BN130" s="16"/>
+    </row>
+    <row r="131" spans="1:66">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -13086,8 +13228,9 @@
       <c r="BK131" s="16"/>
       <c r="BL131" s="16"/>
       <c r="BM131" s="16"/>
-    </row>
-    <row r="132" spans="1:65">
+      <c r="BN131" s="16"/>
+    </row>
+    <row r="132" spans="1:66">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -13152,8 +13295,9 @@
       <c r="BK132" s="16"/>
       <c r="BL132" s="16"/>
       <c r="BM132" s="16"/>
-    </row>
-    <row r="133" spans="1:65">
+      <c r="BN132" s="16"/>
+    </row>
+    <row r="133" spans="1:66">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -13218,8 +13362,9 @@
       <c r="BK133" s="16"/>
       <c r="BL133" s="16"/>
       <c r="BM133" s="16"/>
-    </row>
-    <row r="134" spans="1:65">
+      <c r="BN133" s="16"/>
+    </row>
+    <row r="134" spans="1:66">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -13284,8 +13429,9 @@
       <c r="BK134" s="16"/>
       <c r="BL134" s="16"/>
       <c r="BM134" s="16"/>
-    </row>
-    <row r="135" spans="1:65">
+      <c r="BN134" s="16"/>
+    </row>
+    <row r="135" spans="1:66">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -13350,8 +13496,9 @@
       <c r="BK135" s="16"/>
       <c r="BL135" s="16"/>
       <c r="BM135" s="16"/>
-    </row>
-    <row r="136" spans="1:65">
+      <c r="BN135" s="16"/>
+    </row>
+    <row r="136" spans="1:66">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -13416,8 +13563,9 @@
       <c r="BK136" s="16"/>
       <c r="BL136" s="16"/>
       <c r="BM136" s="16"/>
-    </row>
-    <row r="137" spans="1:65">
+      <c r="BN136" s="16"/>
+    </row>
+    <row r="137" spans="1:66">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -13482,8 +13630,9 @@
       <c r="BK137" s="16"/>
       <c r="BL137" s="16"/>
       <c r="BM137" s="16"/>
-    </row>
-    <row r="138" spans="1:65">
+      <c r="BN137" s="16"/>
+    </row>
+    <row r="138" spans="1:66">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -13548,8 +13697,9 @@
       <c r="BK138" s="16"/>
       <c r="BL138" s="16"/>
       <c r="BM138" s="16"/>
-    </row>
-    <row r="139" spans="1:65">
+      <c r="BN138" s="16"/>
+    </row>
+    <row r="139" spans="1:66">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -13614,8 +13764,9 @@
       <c r="BK139" s="16"/>
       <c r="BL139" s="16"/>
       <c r="BM139" s="16"/>
-    </row>
-    <row r="140" spans="1:65">
+      <c r="BN139" s="16"/>
+    </row>
+    <row r="140" spans="1:66">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -13680,8 +13831,9 @@
       <c r="BK140" s="16"/>
       <c r="BL140" s="16"/>
       <c r="BM140" s="16"/>
-    </row>
-    <row r="141" spans="1:65">
+      <c r="BN140" s="16"/>
+    </row>
+    <row r="141" spans="1:66">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -13746,8 +13898,9 @@
       <c r="BK141" s="16"/>
       <c r="BL141" s="16"/>
       <c r="BM141" s="16"/>
-    </row>
-    <row r="142" spans="1:65">
+      <c r="BN141" s="16"/>
+    </row>
+    <row r="142" spans="1:66">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -13812,8 +13965,9 @@
       <c r="BK142" s="16"/>
       <c r="BL142" s="16"/>
       <c r="BM142" s="16"/>
-    </row>
-    <row r="143" spans="1:65">
+      <c r="BN142" s="16"/>
+    </row>
+    <row r="143" spans="1:66">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -13878,8 +14032,9 @@
       <c r="BK143" s="16"/>
       <c r="BL143" s="16"/>
       <c r="BM143" s="16"/>
-    </row>
-    <row r="144" spans="1:65">
+      <c r="BN143" s="16"/>
+    </row>
+    <row r="144" spans="1:66">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -13944,8 +14099,9 @@
       <c r="BK144" s="16"/>
       <c r="BL144" s="16"/>
       <c r="BM144" s="16"/>
-    </row>
-    <row r="145" spans="1:65">
+      <c r="BN144" s="16"/>
+    </row>
+    <row r="145" spans="1:66">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -14010,8 +14166,9 @@
       <c r="BK145" s="16"/>
       <c r="BL145" s="16"/>
       <c r="BM145" s="16"/>
-    </row>
-    <row r="146" spans="1:65">
+      <c r="BN145" s="16"/>
+    </row>
+    <row r="146" spans="1:66">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -14076,8 +14233,9 @@
       <c r="BK146" s="16"/>
       <c r="BL146" s="16"/>
       <c r="BM146" s="16"/>
-    </row>
-    <row r="147" spans="1:65">
+      <c r="BN146" s="16"/>
+    </row>
+    <row r="147" spans="1:66">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -14142,8 +14300,9 @@
       <c r="BK147" s="16"/>
       <c r="BL147" s="16"/>
       <c r="BM147" s="16"/>
-    </row>
-    <row r="148" spans="1:65">
+      <c r="BN147" s="16"/>
+    </row>
+    <row r="148" spans="1:66">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -14208,8 +14367,9 @@
       <c r="BK148" s="16"/>
       <c r="BL148" s="16"/>
       <c r="BM148" s="16"/>
-    </row>
-    <row r="149" spans="1:65">
+      <c r="BN148" s="16"/>
+    </row>
+    <row r="149" spans="1:66">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -14274,8 +14434,9 @@
       <c r="BK149" s="16"/>
       <c r="BL149" s="16"/>
       <c r="BM149" s="16"/>
-    </row>
-    <row r="150" spans="1:65">
+      <c r="BN149" s="16"/>
+    </row>
+    <row r="150" spans="1:66">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -14340,8 +14501,9 @@
       <c r="BK150" s="16"/>
       <c r="BL150" s="16"/>
       <c r="BM150" s="16"/>
-    </row>
-    <row r="151" spans="1:65">
+      <c r="BN150" s="16"/>
+    </row>
+    <row r="151" spans="1:66">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -14406,8 +14568,9 @@
       <c r="BK151" s="16"/>
       <c r="BL151" s="16"/>
       <c r="BM151" s="16"/>
-    </row>
-    <row r="152" spans="1:65">
+      <c r="BN151" s="16"/>
+    </row>
+    <row r="152" spans="1:66">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -14472,8 +14635,9 @@
       <c r="BK152" s="16"/>
       <c r="BL152" s="16"/>
       <c r="BM152" s="16"/>
-    </row>
-    <row r="153" spans="1:65">
+      <c r="BN152" s="16"/>
+    </row>
+    <row r="153" spans="1:66">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -14538,8 +14702,9 @@
       <c r="BK153" s="16"/>
       <c r="BL153" s="16"/>
       <c r="BM153" s="16"/>
-    </row>
-    <row r="154" spans="1:65">
+      <c r="BN153" s="16"/>
+    </row>
+    <row r="154" spans="1:66">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -14604,8 +14769,9 @@
       <c r="BK154" s="16"/>
       <c r="BL154" s="16"/>
       <c r="BM154" s="16"/>
-    </row>
-    <row r="155" spans="1:65">
+      <c r="BN154" s="16"/>
+    </row>
+    <row r="155" spans="1:66">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -14670,8 +14836,9 @@
       <c r="BK155" s="16"/>
       <c r="BL155" s="16"/>
       <c r="BM155" s="16"/>
-    </row>
-    <row r="156" spans="1:65">
+      <c r="BN155" s="16"/>
+    </row>
+    <row r="156" spans="1:66">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -14736,8 +14903,9 @@
       <c r="BK156" s="16"/>
       <c r="BL156" s="16"/>
       <c r="BM156" s="16"/>
-    </row>
-    <row r="157" spans="1:65">
+      <c r="BN156" s="16"/>
+    </row>
+    <row r="157" spans="1:66">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -14802,8 +14970,9 @@
       <c r="BK157" s="16"/>
       <c r="BL157" s="16"/>
       <c r="BM157" s="16"/>
-    </row>
-    <row r="158" spans="1:65">
+      <c r="BN157" s="16"/>
+    </row>
+    <row r="158" spans="1:66">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -14868,8 +15037,9 @@
       <c r="BK158" s="16"/>
       <c r="BL158" s="16"/>
       <c r="BM158" s="16"/>
-    </row>
-    <row r="159" spans="1:65">
+      <c r="BN158" s="16"/>
+    </row>
+    <row r="159" spans="1:66">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -14934,8 +15104,9 @@
       <c r="BK159" s="16"/>
       <c r="BL159" s="16"/>
       <c r="BM159" s="16"/>
-    </row>
-    <row r="160" spans="1:65">
+      <c r="BN159" s="16"/>
+    </row>
+    <row r="160" spans="1:66">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -15000,8 +15171,9 @@
       <c r="BK160" s="16"/>
       <c r="BL160" s="16"/>
       <c r="BM160" s="16"/>
-    </row>
-    <row r="161" spans="1:65">
+      <c r="BN160" s="16"/>
+    </row>
+    <row r="161" spans="1:66">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -15066,8 +15238,9 @@
       <c r="BK161" s="16"/>
       <c r="BL161" s="16"/>
       <c r="BM161" s="16"/>
-    </row>
-    <row r="162" spans="1:65">
+      <c r="BN161" s="16"/>
+    </row>
+    <row r="162" spans="1:66">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -15132,8 +15305,9 @@
       <c r="BK162" s="16"/>
       <c r="BL162" s="16"/>
       <c r="BM162" s="16"/>
-    </row>
-    <row r="163" spans="1:65">
+      <c r="BN162" s="16"/>
+    </row>
+    <row r="163" spans="1:66">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -15198,8 +15372,9 @@
       <c r="BK163" s="16"/>
       <c r="BL163" s="16"/>
       <c r="BM163" s="16"/>
-    </row>
-    <row r="164" spans="1:65">
+      <c r="BN163" s="16"/>
+    </row>
+    <row r="164" spans="1:66">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
@@ -15264,8 +15439,9 @@
       <c r="BK164" s="16"/>
       <c r="BL164" s="16"/>
       <c r="BM164" s="16"/>
-    </row>
-    <row r="165" spans="1:65">
+      <c r="BN164" s="16"/>
+    </row>
+    <row r="165" spans="1:66">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -15330,8 +15506,9 @@
       <c r="BK165" s="16"/>
       <c r="BL165" s="16"/>
       <c r="BM165" s="16"/>
-    </row>
-    <row r="166" spans="1:65">
+      <c r="BN165" s="16"/>
+    </row>
+    <row r="166" spans="1:66">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -15396,8 +15573,9 @@
       <c r="BK166" s="16"/>
       <c r="BL166" s="16"/>
       <c r="BM166" s="16"/>
-    </row>
-    <row r="167" spans="1:65">
+      <c r="BN166" s="16"/>
+    </row>
+    <row r="167" spans="1:66">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -15462,8 +15640,9 @@
       <c r="BK167" s="16"/>
       <c r="BL167" s="16"/>
       <c r="BM167" s="16"/>
-    </row>
-    <row r="168" spans="1:65">
+      <c r="BN167" s="16"/>
+    </row>
+    <row r="168" spans="1:66">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
@@ -15528,8 +15707,9 @@
       <c r="BK168" s="16"/>
       <c r="BL168" s="16"/>
       <c r="BM168" s="16"/>
-    </row>
-    <row r="169" spans="1:65">
+      <c r="BN168" s="16"/>
+    </row>
+    <row r="169" spans="1:66">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -15594,8 +15774,9 @@
       <c r="BK169" s="16"/>
       <c r="BL169" s="16"/>
       <c r="BM169" s="16"/>
-    </row>
-    <row r="170" spans="1:65">
+      <c r="BN169" s="16"/>
+    </row>
+    <row r="170" spans="1:66">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
@@ -15660,8 +15841,9 @@
       <c r="BK170" s="16"/>
       <c r="BL170" s="16"/>
       <c r="BM170" s="16"/>
-    </row>
-    <row r="171" spans="1:65">
+      <c r="BN170" s="16"/>
+    </row>
+    <row r="171" spans="1:66">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -15726,8 +15908,9 @@
       <c r="BK171" s="16"/>
       <c r="BL171" s="16"/>
       <c r="BM171" s="16"/>
-    </row>
-    <row r="172" spans="1:65">
+      <c r="BN171" s="16"/>
+    </row>
+    <row r="172" spans="1:66">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -15792,8 +15975,9 @@
       <c r="BK172" s="16"/>
       <c r="BL172" s="16"/>
       <c r="BM172" s="16"/>
-    </row>
-    <row r="173" spans="1:65">
+      <c r="BN172" s="16"/>
+    </row>
+    <row r="173" spans="1:66">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -15858,8 +16042,9 @@
       <c r="BK173" s="16"/>
       <c r="BL173" s="16"/>
       <c r="BM173" s="16"/>
-    </row>
-    <row r="174" spans="1:65">
+      <c r="BN173" s="16"/>
+    </row>
+    <row r="174" spans="1:66">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
@@ -15924,8 +16109,9 @@
       <c r="BK174" s="16"/>
       <c r="BL174" s="16"/>
       <c r="BM174" s="16"/>
-    </row>
-    <row r="175" spans="1:65">
+      <c r="BN174" s="16"/>
+    </row>
+    <row r="175" spans="1:66">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -15990,8 +16176,9 @@
       <c r="BK175" s="16"/>
       <c r="BL175" s="16"/>
       <c r="BM175" s="16"/>
-    </row>
-    <row r="176" spans="1:65">
+      <c r="BN175" s="16"/>
+    </row>
+    <row r="176" spans="1:66">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
@@ -16056,8 +16243,9 @@
       <c r="BK176" s="16"/>
       <c r="BL176" s="16"/>
       <c r="BM176" s="16"/>
-    </row>
-    <row r="177" spans="1:65">
+      <c r="BN176" s="16"/>
+    </row>
+    <row r="177" spans="1:66">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -16122,8 +16310,9 @@
       <c r="BK177" s="16"/>
       <c r="BL177" s="16"/>
       <c r="BM177" s="16"/>
-    </row>
-    <row r="178" spans="1:65">
+      <c r="BN177" s="16"/>
+    </row>
+    <row r="178" spans="1:66">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
@@ -16188,8 +16377,9 @@
       <c r="BK178" s="16"/>
       <c r="BL178" s="16"/>
       <c r="BM178" s="16"/>
-    </row>
-    <row r="179" spans="1:65">
+      <c r="BN178" s="16"/>
+    </row>
+    <row r="179" spans="1:66">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
@@ -16254,8 +16444,9 @@
       <c r="BK179" s="16"/>
       <c r="BL179" s="16"/>
       <c r="BM179" s="16"/>
-    </row>
-    <row r="180" spans="1:65">
+      <c r="BN179" s="16"/>
+    </row>
+    <row r="180" spans="1:66">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -16320,8 +16511,9 @@
       <c r="BK180" s="16"/>
       <c r="BL180" s="16"/>
       <c r="BM180" s="16"/>
-    </row>
-    <row r="181" spans="1:65">
+      <c r="BN180" s="16"/>
+    </row>
+    <row r="181" spans="1:66">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
@@ -16386,8 +16578,9 @@
       <c r="BK181" s="16"/>
       <c r="BL181" s="16"/>
       <c r="BM181" s="16"/>
-    </row>
-    <row r="182" spans="1:65">
+      <c r="BN181" s="16"/>
+    </row>
+    <row r="182" spans="1:66">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -16452,8 +16645,9 @@
       <c r="BK182" s="16"/>
       <c r="BL182" s="16"/>
       <c r="BM182" s="16"/>
-    </row>
-    <row r="183" spans="1:65">
+      <c r="BN182" s="16"/>
+    </row>
+    <row r="183" spans="1:66">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -16518,8 +16712,9 @@
       <c r="BK183" s="16"/>
       <c r="BL183" s="16"/>
       <c r="BM183" s="16"/>
-    </row>
-    <row r="184" spans="1:65">
+      <c r="BN183" s="16"/>
+    </row>
+    <row r="184" spans="1:66">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
@@ -16584,8 +16779,9 @@
       <c r="BK184" s="16"/>
       <c r="BL184" s="16"/>
       <c r="BM184" s="16"/>
-    </row>
-    <row r="185" spans="1:65">
+      <c r="BN184" s="16"/>
+    </row>
+    <row r="185" spans="1:66">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -16650,8 +16846,9 @@
       <c r="BK185" s="16"/>
       <c r="BL185" s="16"/>
       <c r="BM185" s="16"/>
-    </row>
-    <row r="186" spans="1:65">
+      <c r="BN185" s="16"/>
+    </row>
+    <row r="186" spans="1:66">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -16716,8 +16913,9 @@
       <c r="BK186" s="16"/>
       <c r="BL186" s="16"/>
       <c r="BM186" s="16"/>
-    </row>
-    <row r="187" spans="1:65">
+      <c r="BN186" s="16"/>
+    </row>
+    <row r="187" spans="1:66">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -16782,8 +16980,9 @@
       <c r="BK187" s="16"/>
       <c r="BL187" s="16"/>
       <c r="BM187" s="16"/>
-    </row>
-    <row r="188" spans="1:65">
+      <c r="BN187" s="16"/>
+    </row>
+    <row r="188" spans="1:66">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -16848,8 +17047,9 @@
       <c r="BK188" s="16"/>
       <c r="BL188" s="16"/>
       <c r="BM188" s="16"/>
-    </row>
-    <row r="189" spans="1:65">
+      <c r="BN188" s="16"/>
+    </row>
+    <row r="189" spans="1:66">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -16914,8 +17114,9 @@
       <c r="BK189" s="16"/>
       <c r="BL189" s="16"/>
       <c r="BM189" s="16"/>
-    </row>
-    <row r="190" spans="1:65">
+      <c r="BN189" s="16"/>
+    </row>
+    <row r="190" spans="1:66">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -16980,8 +17181,9 @@
       <c r="BK190" s="16"/>
       <c r="BL190" s="16"/>
       <c r="BM190" s="16"/>
-    </row>
-    <row r="191" spans="1:65">
+      <c r="BN190" s="16"/>
+    </row>
+    <row r="191" spans="1:66">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -17046,8 +17248,9 @@
       <c r="BK191" s="16"/>
       <c r="BL191" s="16"/>
       <c r="BM191" s="16"/>
-    </row>
-    <row r="192" spans="1:65">
+      <c r="BN191" s="16"/>
+    </row>
+    <row r="192" spans="1:66">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -17112,8 +17315,9 @@
       <c r="BK192" s="16"/>
       <c r="BL192" s="16"/>
       <c r="BM192" s="16"/>
-    </row>
-    <row r="193" spans="1:65">
+      <c r="BN192" s="16"/>
+    </row>
+    <row r="193" spans="1:66">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -17178,8 +17382,9 @@
       <c r="BK193" s="16"/>
       <c r="BL193" s="16"/>
       <c r="BM193" s="16"/>
-    </row>
-    <row r="194" spans="1:65">
+      <c r="BN193" s="16"/>
+    </row>
+    <row r="194" spans="1:66">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
@@ -17244,8 +17449,9 @@
       <c r="BK194" s="16"/>
       <c r="BL194" s="16"/>
       <c r="BM194" s="16"/>
-    </row>
-    <row r="195" spans="1:65">
+      <c r="BN194" s="16"/>
+    </row>
+    <row r="195" spans="1:66">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
@@ -17310,8 +17516,9 @@
       <c r="BK195" s="16"/>
       <c r="BL195" s="16"/>
       <c r="BM195" s="16"/>
-    </row>
-    <row r="196" spans="1:65">
+      <c r="BN195" s="16"/>
+    </row>
+    <row r="196" spans="1:66">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -17376,8 +17583,9 @@
       <c r="BK196" s="16"/>
       <c r="BL196" s="16"/>
       <c r="BM196" s="16"/>
-    </row>
-    <row r="197" spans="1:65">
+      <c r="BN196" s="16"/>
+    </row>
+    <row r="197" spans="1:66">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -17442,8 +17650,9 @@
       <c r="BK197" s="16"/>
       <c r="BL197" s="16"/>
       <c r="BM197" s="16"/>
-    </row>
-    <row r="198" spans="1:65">
+      <c r="BN197" s="16"/>
+    </row>
+    <row r="198" spans="1:66">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -17508,8 +17717,9 @@
       <c r="BK198" s="16"/>
       <c r="BL198" s="16"/>
       <c r="BM198" s="16"/>
-    </row>
-    <row r="199" spans="1:65">
+      <c r="BN198" s="16"/>
+    </row>
+    <row r="199" spans="1:66">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -17574,8 +17784,9 @@
       <c r="BK199" s="16"/>
       <c r="BL199" s="16"/>
       <c r="BM199" s="16"/>
-    </row>
-    <row r="200" spans="1:65">
+      <c r="BN199" s="16"/>
+    </row>
+    <row r="200" spans="1:66">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -17640,8 +17851,9 @@
       <c r="BK200" s="16"/>
       <c r="BL200" s="16"/>
       <c r="BM200" s="16"/>
-    </row>
-    <row r="201" spans="1:65">
+      <c r="BN200" s="16"/>
+    </row>
+    <row r="201" spans="1:66">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
@@ -17706,8 +17918,9 @@
       <c r="BK201" s="16"/>
       <c r="BL201" s="16"/>
       <c r="BM201" s="16"/>
-    </row>
-    <row r="202" spans="1:65">
+      <c r="BN201" s="16"/>
+    </row>
+    <row r="202" spans="1:66">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
@@ -17772,8 +17985,9 @@
       <c r="BK202" s="16"/>
       <c r="BL202" s="16"/>
       <c r="BM202" s="16"/>
-    </row>
-    <row r="203" spans="1:65">
+      <c r="BN202" s="16"/>
+    </row>
+    <row r="203" spans="1:66">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
@@ -17838,8 +18052,9 @@
       <c r="BK203" s="16"/>
       <c r="BL203" s="16"/>
       <c r="BM203" s="16"/>
-    </row>
-    <row r="204" spans="1:65">
+      <c r="BN203" s="16"/>
+    </row>
+    <row r="204" spans="1:66">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
@@ -17904,8 +18119,9 @@
       <c r="BK204" s="16"/>
       <c r="BL204" s="16"/>
       <c r="BM204" s="16"/>
-    </row>
-    <row r="205" spans="1:65">
+      <c r="BN204" s="16"/>
+    </row>
+    <row r="205" spans="1:66">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
@@ -17970,8 +18186,9 @@
       <c r="BK205" s="16"/>
       <c r="BL205" s="16"/>
       <c r="BM205" s="16"/>
-    </row>
-    <row r="206" spans="1:65">
+      <c r="BN205" s="16"/>
+    </row>
+    <row r="206" spans="1:66">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
@@ -18036,8 +18253,9 @@
       <c r="BK206" s="16"/>
       <c r="BL206" s="16"/>
       <c r="BM206" s="16"/>
-    </row>
-    <row r="207" spans="1:65">
+      <c r="BN206" s="16"/>
+    </row>
+    <row r="207" spans="1:66">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
@@ -18102,8 +18320,9 @@
       <c r="BK207" s="16"/>
       <c r="BL207" s="16"/>
       <c r="BM207" s="16"/>
-    </row>
-    <row r="208" spans="1:65">
+      <c r="BN207" s="16"/>
+    </row>
+    <row r="208" spans="1:66">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
@@ -18168,8 +18387,9 @@
       <c r="BK208" s="16"/>
       <c r="BL208" s="16"/>
       <c r="BM208" s="16"/>
-    </row>
-    <row r="209" spans="1:65">
+      <c r="BN208" s="16"/>
+    </row>
+    <row r="209" spans="1:66">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -18234,8 +18454,9 @@
       <c r="BK209" s="16"/>
       <c r="BL209" s="16"/>
       <c r="BM209" s="16"/>
-    </row>
-    <row r="210" spans="1:65">
+      <c r="BN209" s="16"/>
+    </row>
+    <row r="210" spans="1:66">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -18300,8 +18521,9 @@
       <c r="BK210" s="16"/>
       <c r="BL210" s="16"/>
       <c r="BM210" s="16"/>
-    </row>
-    <row r="211" spans="1:65">
+      <c r="BN210" s="16"/>
+    </row>
+    <row r="211" spans="1:66">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -18366,8 +18588,9 @@
       <c r="BK211" s="16"/>
       <c r="BL211" s="16"/>
       <c r="BM211" s="16"/>
-    </row>
-    <row r="212" spans="1:65">
+      <c r="BN211" s="16"/>
+    </row>
+    <row r="212" spans="1:66">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
@@ -18432,8 +18655,9 @@
       <c r="BK212" s="16"/>
       <c r="BL212" s="16"/>
       <c r="BM212" s="16"/>
-    </row>
-    <row r="213" spans="1:65">
+      <c r="BN212" s="16"/>
+    </row>
+    <row r="213" spans="1:66">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -18498,8 +18722,9 @@
       <c r="BK213" s="16"/>
       <c r="BL213" s="16"/>
       <c r="BM213" s="16"/>
-    </row>
-    <row r="214" spans="1:65">
+      <c r="BN213" s="16"/>
+    </row>
+    <row r="214" spans="1:66">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
@@ -18564,8 +18789,9 @@
       <c r="BK214" s="16"/>
       <c r="BL214" s="16"/>
       <c r="BM214" s="16"/>
-    </row>
-    <row r="215" spans="1:65">
+      <c r="BN214" s="16"/>
+    </row>
+    <row r="215" spans="1:66">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -18630,8 +18856,9 @@
       <c r="BK215" s="16"/>
       <c r="BL215" s="16"/>
       <c r="BM215" s="16"/>
-    </row>
-    <row r="216" spans="1:65">
+      <c r="BN215" s="16"/>
+    </row>
+    <row r="216" spans="1:66">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
@@ -18696,8 +18923,9 @@
       <c r="BK216" s="16"/>
       <c r="BL216" s="16"/>
       <c r="BM216" s="16"/>
-    </row>
-    <row r="217" spans="1:65">
+      <c r="BN216" s="16"/>
+    </row>
+    <row r="217" spans="1:66">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
@@ -18762,8 +18990,9 @@
       <c r="BK217" s="16"/>
       <c r="BL217" s="16"/>
       <c r="BM217" s="16"/>
-    </row>
-    <row r="218" spans="1:65">
+      <c r="BN217" s="16"/>
+    </row>
+    <row r="218" spans="1:66">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -18828,8 +19057,9 @@
       <c r="BK218" s="16"/>
       <c r="BL218" s="16"/>
       <c r="BM218" s="16"/>
-    </row>
-    <row r="219" spans="1:65">
+      <c r="BN218" s="16"/>
+    </row>
+    <row r="219" spans="1:66">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
@@ -18894,8 +19124,9 @@
       <c r="BK219" s="16"/>
       <c r="BL219" s="16"/>
       <c r="BM219" s="16"/>
-    </row>
-    <row r="220" spans="1:65">
+      <c r="BN219" s="16"/>
+    </row>
+    <row r="220" spans="1:66">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
@@ -18960,8 +19191,9 @@
       <c r="BK220" s="16"/>
       <c r="BL220" s="16"/>
       <c r="BM220" s="16"/>
-    </row>
-    <row r="221" spans="1:65">
+      <c r="BN220" s="16"/>
+    </row>
+    <row r="221" spans="1:66">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
@@ -19026,8 +19258,9 @@
       <c r="BK221" s="16"/>
       <c r="BL221" s="16"/>
       <c r="BM221" s="16"/>
-    </row>
-    <row r="222" spans="1:65">
+      <c r="BN221" s="16"/>
+    </row>
+    <row r="222" spans="1:66">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
@@ -19092,8 +19325,9 @@
       <c r="BK222" s="16"/>
       <c r="BL222" s="16"/>
       <c r="BM222" s="16"/>
-    </row>
-    <row r="223" spans="1:65">
+      <c r="BN222" s="16"/>
+    </row>
+    <row r="223" spans="1:66">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -19158,8 +19392,9 @@
       <c r="BK223" s="16"/>
       <c r="BL223" s="16"/>
       <c r="BM223" s="16"/>
-    </row>
-    <row r="224" spans="1:65">
+      <c r="BN223" s="16"/>
+    </row>
+    <row r="224" spans="1:66">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
@@ -19224,8 +19459,9 @@
       <c r="BK224" s="16"/>
       <c r="BL224" s="16"/>
       <c r="BM224" s="16"/>
-    </row>
-    <row r="225" spans="1:65">
+      <c r="BN224" s="16"/>
+    </row>
+    <row r="225" spans="1:66">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
@@ -19290,8 +19526,9 @@
       <c r="BK225" s="16"/>
       <c r="BL225" s="16"/>
       <c r="BM225" s="16"/>
-    </row>
-    <row r="226" spans="1:65">
+      <c r="BN225" s="16"/>
+    </row>
+    <row r="226" spans="1:66">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
@@ -19356,8 +19593,9 @@
       <c r="BK226" s="16"/>
       <c r="BL226" s="16"/>
       <c r="BM226" s="16"/>
-    </row>
-    <row r="227" spans="1:65">
+      <c r="BN226" s="16"/>
+    </row>
+    <row r="227" spans="1:66">
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -19422,8 +19660,9 @@
       <c r="BK227" s="16"/>
       <c r="BL227" s="16"/>
       <c r="BM227" s="16"/>
-    </row>
-    <row r="228" spans="1:65">
+      <c r="BN227" s="16"/>
+    </row>
+    <row r="228" spans="1:66">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
@@ -19488,8 +19727,9 @@
       <c r="BK228" s="16"/>
       <c r="BL228" s="16"/>
       <c r="BM228" s="16"/>
-    </row>
-    <row r="229" spans="1:65">
+      <c r="BN228" s="16"/>
+    </row>
+    <row r="229" spans="1:66">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
@@ -19554,8 +19794,9 @@
       <c r="BK229" s="16"/>
       <c r="BL229" s="16"/>
       <c r="BM229" s="16"/>
-    </row>
-    <row r="230" spans="1:65">
+      <c r="BN229" s="16"/>
+    </row>
+    <row r="230" spans="1:66">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
@@ -19620,8 +19861,9 @@
       <c r="BK230" s="16"/>
       <c r="BL230" s="16"/>
       <c r="BM230" s="16"/>
-    </row>
-    <row r="231" spans="1:65">
+      <c r="BN230" s="16"/>
+    </row>
+    <row r="231" spans="1:66">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -19686,8 +19928,9 @@
       <c r="BK231" s="16"/>
       <c r="BL231" s="16"/>
       <c r="BM231" s="16"/>
-    </row>
-    <row r="232" spans="1:65">
+      <c r="BN231" s="16"/>
+    </row>
+    <row r="232" spans="1:66">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
@@ -19752,8 +19995,9 @@
       <c r="BK232" s="16"/>
       <c r="BL232" s="16"/>
       <c r="BM232" s="16"/>
-    </row>
-    <row r="233" spans="1:65">
+      <c r="BN232" s="16"/>
+    </row>
+    <row r="233" spans="1:66">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -19818,8 +20062,9 @@
       <c r="BK233" s="16"/>
       <c r="BL233" s="16"/>
       <c r="BM233" s="16"/>
-    </row>
-    <row r="234" spans="1:65">
+      <c r="BN233" s="16"/>
+    </row>
+    <row r="234" spans="1:66">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
@@ -19884,8 +20129,9 @@
       <c r="BK234" s="16"/>
       <c r="BL234" s="16"/>
       <c r="BM234" s="16"/>
-    </row>
-    <row r="235" spans="1:65">
+      <c r="BN234" s="16"/>
+    </row>
+    <row r="235" spans="1:66">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -19950,8 +20196,9 @@
       <c r="BK235" s="16"/>
       <c r="BL235" s="16"/>
       <c r="BM235" s="16"/>
-    </row>
-    <row r="236" spans="1:65">
+      <c r="BN235" s="16"/>
+    </row>
+    <row r="236" spans="1:66">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
@@ -20016,8 +20263,9 @@
       <c r="BK236" s="16"/>
       <c r="BL236" s="16"/>
       <c r="BM236" s="16"/>
-    </row>
-    <row r="237" spans="1:65">
+      <c r="BN236" s="16"/>
+    </row>
+    <row r="237" spans="1:66">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
@@ -20082,8 +20330,9 @@
       <c r="BK237" s="16"/>
       <c r="BL237" s="16"/>
       <c r="BM237" s="16"/>
-    </row>
-    <row r="238" spans="1:65">
+      <c r="BN237" s="16"/>
+    </row>
+    <row r="238" spans="1:66">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
@@ -20148,8 +20397,9 @@
       <c r="BK238" s="16"/>
       <c r="BL238" s="16"/>
       <c r="BM238" s="16"/>
-    </row>
-    <row r="239" spans="1:65">
+      <c r="BN238" s="16"/>
+    </row>
+    <row r="239" spans="1:66">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -20214,8 +20464,9 @@
       <c r="BK239" s="16"/>
       <c r="BL239" s="16"/>
       <c r="BM239" s="16"/>
-    </row>
-    <row r="240" spans="1:65">
+      <c r="BN239" s="16"/>
+    </row>
+    <row r="240" spans="1:66">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
@@ -20280,8 +20531,9 @@
       <c r="BK240" s="16"/>
       <c r="BL240" s="16"/>
       <c r="BM240" s="16"/>
-    </row>
-    <row r="241" spans="1:65">
+      <c r="BN240" s="16"/>
+    </row>
+    <row r="241" spans="1:66">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
@@ -20346,8 +20598,9 @@
       <c r="BK241" s="16"/>
       <c r="BL241" s="16"/>
       <c r="BM241" s="16"/>
-    </row>
-    <row r="242" spans="1:65">
+      <c r="BN241" s="16"/>
+    </row>
+    <row r="242" spans="1:66">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
@@ -20412,8 +20665,9 @@
       <c r="BK242" s="16"/>
       <c r="BL242" s="16"/>
       <c r="BM242" s="16"/>
-    </row>
-    <row r="243" spans="1:65">
+      <c r="BN242" s="16"/>
+    </row>
+    <row r="243" spans="1:66">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
@@ -20478,8 +20732,9 @@
       <c r="BK243" s="16"/>
       <c r="BL243" s="16"/>
       <c r="BM243" s="16"/>
-    </row>
-    <row r="244" spans="1:65">
+      <c r="BN243" s="16"/>
+    </row>
+    <row r="244" spans="1:66">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
@@ -20544,8 +20799,9 @@
       <c r="BK244" s="16"/>
       <c r="BL244" s="16"/>
       <c r="BM244" s="16"/>
-    </row>
-    <row r="245" spans="1:65">
+      <c r="BN244" s="16"/>
+    </row>
+    <row r="245" spans="1:66">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
@@ -20610,8 +20866,9 @@
       <c r="BK245" s="16"/>
       <c r="BL245" s="16"/>
       <c r="BM245" s="16"/>
-    </row>
-    <row r="246" spans="1:65">
+      <c r="BN245" s="16"/>
+    </row>
+    <row r="246" spans="1:66">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
@@ -20676,8 +20933,9 @@
       <c r="BK246" s="16"/>
       <c r="BL246" s="16"/>
       <c r="BM246" s="16"/>
-    </row>
-    <row r="247" spans="1:65">
+      <c r="BN246" s="16"/>
+    </row>
+    <row r="247" spans="1:66">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
@@ -20742,8 +21000,9 @@
       <c r="BK247" s="16"/>
       <c r="BL247" s="16"/>
       <c r="BM247" s="16"/>
-    </row>
-    <row r="248" spans="1:65">
+      <c r="BN247" s="16"/>
+    </row>
+    <row r="248" spans="1:66">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
@@ -20808,8 +21067,9 @@
       <c r="BK248" s="16"/>
       <c r="BL248" s="16"/>
       <c r="BM248" s="16"/>
-    </row>
-    <row r="249" spans="1:65">
+      <c r="BN248" s="16"/>
+    </row>
+    <row r="249" spans="1:66">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
@@ -20874,8 +21134,9 @@
       <c r="BK249" s="16"/>
       <c r="BL249" s="16"/>
       <c r="BM249" s="16"/>
-    </row>
-    <row r="250" spans="1:65">
+      <c r="BN249" s="16"/>
+    </row>
+    <row r="250" spans="1:66">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
@@ -20940,8 +21201,9 @@
       <c r="BK250" s="16"/>
       <c r="BL250" s="16"/>
       <c r="BM250" s="16"/>
-    </row>
-    <row r="251" spans="1:65">
+      <c r="BN250" s="16"/>
+    </row>
+    <row r="251" spans="1:66">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
@@ -21006,8 +21268,9 @@
       <c r="BK251" s="16"/>
       <c r="BL251" s="16"/>
       <c r="BM251" s="16"/>
-    </row>
-    <row r="252" spans="1:65">
+      <c r="BN251" s="16"/>
+    </row>
+    <row r="252" spans="1:66">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
@@ -21072,8 +21335,9 @@
       <c r="BK252" s="16"/>
       <c r="BL252" s="16"/>
       <c r="BM252" s="16"/>
-    </row>
-    <row r="253" spans="1:65">
+      <c r="BN252" s="16"/>
+    </row>
+    <row r="253" spans="1:66">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
@@ -21138,8 +21402,9 @@
       <c r="BK253" s="16"/>
       <c r="BL253" s="16"/>
       <c r="BM253" s="16"/>
-    </row>
-    <row r="254" spans="1:65">
+      <c r="BN253" s="16"/>
+    </row>
+    <row r="254" spans="1:66">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
@@ -21204,8 +21469,9 @@
       <c r="BK254" s="16"/>
       <c r="BL254" s="16"/>
       <c r="BM254" s="16"/>
-    </row>
-    <row r="255" spans="1:65">
+      <c r="BN254" s="16"/>
+    </row>
+    <row r="255" spans="1:66">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -21270,8 +21536,9 @@
       <c r="BK255" s="16"/>
       <c r="BL255" s="16"/>
       <c r="BM255" s="16"/>
-    </row>
-    <row r="256" spans="1:65">
+      <c r="BN255" s="16"/>
+    </row>
+    <row r="256" spans="1:66">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
@@ -21336,8 +21603,9 @@
       <c r="BK256" s="16"/>
       <c r="BL256" s="16"/>
       <c r="BM256" s="16"/>
-    </row>
-    <row r="257" spans="1:65">
+      <c r="BN256" s="16"/>
+    </row>
+    <row r="257" spans="1:66">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
       <c r="C257" s="16"/>
@@ -21402,8 +21670,9 @@
       <c r="BK257" s="16"/>
       <c r="BL257" s="16"/>
       <c r="BM257" s="16"/>
-    </row>
-    <row r="258" spans="1:65">
+      <c r="BN257" s="16"/>
+    </row>
+    <row r="258" spans="1:66">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
@@ -21468,8 +21737,9 @@
       <c r="BK258" s="16"/>
       <c r="BL258" s="16"/>
       <c r="BM258" s="16"/>
-    </row>
-    <row r="259" spans="1:65">
+      <c r="BN258" s="16"/>
+    </row>
+    <row r="259" spans="1:66">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -21534,8 +21804,9 @@
       <c r="BK259" s="16"/>
       <c r="BL259" s="16"/>
       <c r="BM259" s="16"/>
-    </row>
-    <row r="260" spans="1:65">
+      <c r="BN259" s="16"/>
+    </row>
+    <row r="260" spans="1:66">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
       <c r="C260" s="16"/>
@@ -21600,8 +21871,9 @@
       <c r="BK260" s="16"/>
       <c r="BL260" s="16"/>
       <c r="BM260" s="16"/>
-    </row>
-    <row r="261" spans="1:65">
+      <c r="BN260" s="16"/>
+    </row>
+    <row r="261" spans="1:66">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
       <c r="C261" s="16"/>
@@ -21666,8 +21938,9 @@
       <c r="BK261" s="16"/>
       <c r="BL261" s="16"/>
       <c r="BM261" s="16"/>
-    </row>
-    <row r="262" spans="1:65">
+      <c r="BN261" s="16"/>
+    </row>
+    <row r="262" spans="1:66">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
@@ -21732,8 +22005,9 @@
       <c r="BK262" s="16"/>
       <c r="BL262" s="16"/>
       <c r="BM262" s="16"/>
-    </row>
-    <row r="263" spans="1:65">
+      <c r="BN262" s="16"/>
+    </row>
+    <row r="263" spans="1:66">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
@@ -21798,8 +22072,9 @@
       <c r="BK263" s="16"/>
       <c r="BL263" s="16"/>
       <c r="BM263" s="16"/>
-    </row>
-    <row r="264" spans="1:65">
+      <c r="BN263" s="16"/>
+    </row>
+    <row r="264" spans="1:66">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
       <c r="C264" s="16"/>
@@ -21864,8 +22139,9 @@
       <c r="BK264" s="16"/>
       <c r="BL264" s="16"/>
       <c r="BM264" s="16"/>
-    </row>
-    <row r="265" spans="1:65">
+      <c r="BN264" s="16"/>
+    </row>
+    <row r="265" spans="1:66">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
       <c r="C265" s="16"/>
@@ -21930,8 +22206,9 @@
       <c r="BK265" s="16"/>
       <c r="BL265" s="16"/>
       <c r="BM265" s="16"/>
-    </row>
-    <row r="266" spans="1:65">
+      <c r="BN265" s="16"/>
+    </row>
+    <row r="266" spans="1:66">
       <c r="A266" s="16"/>
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
@@ -21996,8 +22273,9 @@
       <c r="BK266" s="16"/>
       <c r="BL266" s="16"/>
       <c r="BM266" s="16"/>
-    </row>
-    <row r="267" spans="1:65">
+      <c r="BN266" s="16"/>
+    </row>
+    <row r="267" spans="1:66">
       <c r="A267" s="16"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
@@ -22062,8 +22340,9 @@
       <c r="BK267" s="16"/>
       <c r="BL267" s="16"/>
       <c r="BM267" s="16"/>
-    </row>
-    <row r="268" spans="1:65">
+      <c r="BN267" s="16"/>
+    </row>
+    <row r="268" spans="1:66">
       <c r="A268" s="16"/>
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
@@ -22128,8 +22407,9 @@
       <c r="BK268" s="16"/>
       <c r="BL268" s="16"/>
       <c r="BM268" s="16"/>
-    </row>
-    <row r="269" spans="1:65">
+      <c r="BN268" s="16"/>
+    </row>
+    <row r="269" spans="1:66">
       <c r="A269" s="16"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
@@ -22194,8 +22474,9 @@
       <c r="BK269" s="16"/>
       <c r="BL269" s="16"/>
       <c r="BM269" s="16"/>
-    </row>
-    <row r="270" spans="1:65">
+      <c r="BN269" s="16"/>
+    </row>
+    <row r="270" spans="1:66">
       <c r="A270" s="16"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
@@ -22260,8 +22541,9 @@
       <c r="BK270" s="16"/>
       <c r="BL270" s="16"/>
       <c r="BM270" s="16"/>
-    </row>
-    <row r="271" spans="1:65">
+      <c r="BN270" s="16"/>
+    </row>
+    <row r="271" spans="1:66">
       <c r="A271" s="16"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
@@ -22326,8 +22608,9 @@
       <c r="BK271" s="16"/>
       <c r="BL271" s="16"/>
       <c r="BM271" s="16"/>
-    </row>
-    <row r="272" spans="1:65">
+      <c r="BN271" s="16"/>
+    </row>
+    <row r="272" spans="1:66">
       <c r="A272" s="16"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
@@ -22392,8 +22675,9 @@
       <c r="BK272" s="16"/>
       <c r="BL272" s="16"/>
       <c r="BM272" s="16"/>
-    </row>
-    <row r="273" spans="1:65">
+      <c r="BN272" s="16"/>
+    </row>
+    <row r="273" spans="1:66">
       <c r="A273" s="16"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
@@ -22458,8 +22742,9 @@
       <c r="BK273" s="16"/>
       <c r="BL273" s="16"/>
       <c r="BM273" s="16"/>
-    </row>
-    <row r="274" spans="1:65">
+      <c r="BN273" s="16"/>
+    </row>
+    <row r="274" spans="1:66">
       <c r="A274" s="16"/>
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
@@ -22524,8 +22809,9 @@
       <c r="BK274" s="16"/>
       <c r="BL274" s="16"/>
       <c r="BM274" s="16"/>
-    </row>
-    <row r="275" spans="1:65">
+      <c r="BN274" s="16"/>
+    </row>
+    <row r="275" spans="1:66">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
@@ -22590,8 +22876,9 @@
       <c r="BK275" s="16"/>
       <c r="BL275" s="16"/>
       <c r="BM275" s="16"/>
-    </row>
-    <row r="276" spans="1:65">
+      <c r="BN275" s="16"/>
+    </row>
+    <row r="276" spans="1:66">
       <c r="A276" s="16"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
@@ -22656,8 +22943,9 @@
       <c r="BK276" s="16"/>
       <c r="BL276" s="16"/>
       <c r="BM276" s="16"/>
-    </row>
-    <row r="277" spans="1:65">
+      <c r="BN276" s="16"/>
+    </row>
+    <row r="277" spans="1:66">
       <c r="A277" s="16"/>
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
@@ -22722,8 +23010,9 @@
       <c r="BK277" s="16"/>
       <c r="BL277" s="16"/>
       <c r="BM277" s="16"/>
-    </row>
-    <row r="278" spans="1:65">
+      <c r="BN277" s="16"/>
+    </row>
+    <row r="278" spans="1:66">
       <c r="A278" s="16"/>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
@@ -22788,8 +23077,9 @@
       <c r="BK278" s="16"/>
       <c r="BL278" s="16"/>
       <c r="BM278" s="16"/>
-    </row>
-    <row r="279" spans="1:65">
+      <c r="BN278" s="16"/>
+    </row>
+    <row r="279" spans="1:66">
       <c r="A279" s="16"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -22854,8 +23144,9 @@
       <c r="BK279" s="16"/>
       <c r="BL279" s="16"/>
       <c r="BM279" s="16"/>
-    </row>
-    <row r="280" spans="1:65">
+      <c r="BN279" s="16"/>
+    </row>
+    <row r="280" spans="1:66">
       <c r="A280" s="16"/>
       <c r="B280" s="16"/>
       <c r="C280" s="16"/>
@@ -22920,8 +23211,9 @@
       <c r="BK280" s="16"/>
       <c r="BL280" s="16"/>
       <c r="BM280" s="16"/>
-    </row>
-    <row r="281" spans="1:65">
+      <c r="BN280" s="16"/>
+    </row>
+    <row r="281" spans="1:66">
       <c r="A281" s="16"/>
       <c r="B281" s="16"/>
       <c r="C281" s="16"/>
@@ -22986,8 +23278,9 @@
       <c r="BK281" s="16"/>
       <c r="BL281" s="16"/>
       <c r="BM281" s="16"/>
-    </row>
-    <row r="282" spans="1:65">
+      <c r="BN281" s="16"/>
+    </row>
+    <row r="282" spans="1:66">
       <c r="A282" s="16"/>
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
@@ -23052,8 +23345,9 @@
       <c r="BK282" s="16"/>
       <c r="BL282" s="16"/>
       <c r="BM282" s="16"/>
-    </row>
-    <row r="283" spans="1:65">
+      <c r="BN282" s="16"/>
+    </row>
+    <row r="283" spans="1:66">
       <c r="A283" s="16"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
@@ -23118,8 +23412,9 @@
       <c r="BK283" s="16"/>
       <c r="BL283" s="16"/>
       <c r="BM283" s="16"/>
-    </row>
-    <row r="284" spans="1:65">
+      <c r="BN283" s="16"/>
+    </row>
+    <row r="284" spans="1:66">
       <c r="A284" s="16"/>
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
@@ -23184,8 +23479,9 @@
       <c r="BK284" s="16"/>
       <c r="BL284" s="16"/>
       <c r="BM284" s="16"/>
-    </row>
-    <row r="285" spans="1:65">
+      <c r="BN284" s="16"/>
+    </row>
+    <row r="285" spans="1:66">
       <c r="A285" s="16"/>
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
@@ -23250,8 +23546,9 @@
       <c r="BK285" s="16"/>
       <c r="BL285" s="16"/>
       <c r="BM285" s="16"/>
-    </row>
-    <row r="286" spans="1:65">
+      <c r="BN285" s="16"/>
+    </row>
+    <row r="286" spans="1:66">
       <c r="A286" s="16"/>
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
@@ -23316,8 +23613,9 @@
       <c r="BK286" s="16"/>
       <c r="BL286" s="16"/>
       <c r="BM286" s="16"/>
-    </row>
-    <row r="287" spans="1:65">
+      <c r="BN286" s="16"/>
+    </row>
+    <row r="287" spans="1:66">
       <c r="A287" s="16"/>
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
@@ -23382,8 +23680,9 @@
       <c r="BK287" s="16"/>
       <c r="BL287" s="16"/>
       <c r="BM287" s="16"/>
-    </row>
-    <row r="288" spans="1:65">
+      <c r="BN287" s="16"/>
+    </row>
+    <row r="288" spans="1:66">
       <c r="A288" s="16"/>
       <c r="B288" s="16"/>
       <c r="C288" s="16"/>
@@ -23448,8 +23747,9 @@
       <c r="BK288" s="16"/>
       <c r="BL288" s="16"/>
       <c r="BM288" s="16"/>
-    </row>
-    <row r="289" spans="1:65">
+      <c r="BN288" s="16"/>
+    </row>
+    <row r="289" spans="1:66">
       <c r="A289" s="16"/>
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
@@ -23514,8 +23814,9 @@
       <c r="BK289" s="16"/>
       <c r="BL289" s="16"/>
       <c r="BM289" s="16"/>
-    </row>
-    <row r="290" spans="1:65">
+      <c r="BN289" s="16"/>
+    </row>
+    <row r="290" spans="1:66">
       <c r="A290" s="16"/>
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
@@ -23580,8 +23881,9 @@
       <c r="BK290" s="16"/>
       <c r="BL290" s="16"/>
       <c r="BM290" s="16"/>
-    </row>
-    <row r="291" spans="1:65">
+      <c r="BN290" s="16"/>
+    </row>
+    <row r="291" spans="1:66">
       <c r="A291" s="16"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
@@ -23646,8 +23948,9 @@
       <c r="BK291" s="16"/>
       <c r="BL291" s="16"/>
       <c r="BM291" s="16"/>
-    </row>
-    <row r="292" spans="1:65">
+      <c r="BN291" s="16"/>
+    </row>
+    <row r="292" spans="1:66">
       <c r="A292" s="16"/>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
@@ -23712,8 +24015,9 @@
       <c r="BK292" s="16"/>
       <c r="BL292" s="16"/>
       <c r="BM292" s="16"/>
-    </row>
-    <row r="293" spans="1:65">
+      <c r="BN292" s="16"/>
+    </row>
+    <row r="293" spans="1:66">
       <c r="A293" s="16"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
@@ -23778,8 +24082,9 @@
       <c r="BK293" s="16"/>
       <c r="BL293" s="16"/>
       <c r="BM293" s="16"/>
-    </row>
-    <row r="294" spans="1:65">
+      <c r="BN293" s="16"/>
+    </row>
+    <row r="294" spans="1:66">
       <c r="A294" s="16"/>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
@@ -23844,8 +24149,9 @@
       <c r="BK294" s="16"/>
       <c r="BL294" s="16"/>
       <c r="BM294" s="16"/>
-    </row>
-    <row r="295" spans="1:65">
+      <c r="BN294" s="16"/>
+    </row>
+    <row r="295" spans="1:66">
       <c r="A295" s="16"/>
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
@@ -23910,8 +24216,9 @@
       <c r="BK295" s="16"/>
       <c r="BL295" s="16"/>
       <c r="BM295" s="16"/>
-    </row>
-    <row r="296" spans="1:65">
+      <c r="BN295" s="16"/>
+    </row>
+    <row r="296" spans="1:66">
       <c r="A296" s="16"/>
       <c r="B296" s="16"/>
       <c r="C296" s="16"/>
@@ -23976,8 +24283,9 @@
       <c r="BK296" s="16"/>
       <c r="BL296" s="16"/>
       <c r="BM296" s="16"/>
-    </row>
-    <row r="297" spans="1:65">
+      <c r="BN296" s="16"/>
+    </row>
+    <row r="297" spans="1:66">
       <c r="A297" s="16"/>
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
@@ -24042,8 +24350,9 @@
       <c r="BK297" s="16"/>
       <c r="BL297" s="16"/>
       <c r="BM297" s="16"/>
-    </row>
-    <row r="298" spans="1:65">
+      <c r="BN297" s="16"/>
+    </row>
+    <row r="298" spans="1:66">
       <c r="A298" s="16"/>
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
@@ -24108,8 +24417,9 @@
       <c r="BK298" s="16"/>
       <c r="BL298" s="16"/>
       <c r="BM298" s="16"/>
-    </row>
-    <row r="299" spans="1:65">
+      <c r="BN298" s="16"/>
+    </row>
+    <row r="299" spans="1:66">
       <c r="A299" s="16"/>
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
@@ -24174,8 +24484,9 @@
       <c r="BK299" s="16"/>
       <c r="BL299" s="16"/>
       <c r="BM299" s="16"/>
-    </row>
-    <row r="300" spans="1:65">
+      <c r="BN299" s="16"/>
+    </row>
+    <row r="300" spans="1:66">
       <c r="A300" s="16"/>
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
@@ -24240,8 +24551,9 @@
       <c r="BK300" s="16"/>
       <c r="BL300" s="16"/>
       <c r="BM300" s="16"/>
-    </row>
-    <row r="301" spans="1:65">
+      <c r="BN300" s="16"/>
+    </row>
+    <row r="301" spans="1:66">
       <c r="A301" s="16"/>
       <c r="B301" s="16"/>
       <c r="C301" s="16"/>
@@ -24306,8 +24618,9 @@
       <c r="BK301" s="16"/>
       <c r="BL301" s="16"/>
       <c r="BM301" s="16"/>
-    </row>
-    <row r="302" spans="1:65">
+      <c r="BN301" s="16"/>
+    </row>
+    <row r="302" spans="1:66">
       <c r="A302" s="16"/>
       <c r="B302" s="16"/>
       <c r="C302" s="16"/>
@@ -24372,8 +24685,9 @@
       <c r="BK302" s="16"/>
       <c r="BL302" s="16"/>
       <c r="BM302" s="16"/>
-    </row>
-    <row r="303" spans="1:65">
+      <c r="BN302" s="16"/>
+    </row>
+    <row r="303" spans="1:66">
       <c r="A303" s="16"/>
       <c r="B303" s="16"/>
       <c r="C303" s="16"/>
@@ -24438,8 +24752,9 @@
       <c r="BK303" s="16"/>
       <c r="BL303" s="16"/>
       <c r="BM303" s="16"/>
-    </row>
-    <row r="304" spans="1:65">
+      <c r="BN303" s="16"/>
+    </row>
+    <row r="304" spans="1:66">
       <c r="A304" s="16"/>
       <c r="B304" s="16"/>
       <c r="C304" s="16"/>
@@ -24504,8 +24819,9 @@
       <c r="BK304" s="16"/>
       <c r="BL304" s="16"/>
       <c r="BM304" s="16"/>
-    </row>
-    <row r="305" spans="1:65">
+      <c r="BN304" s="16"/>
+    </row>
+    <row r="305" spans="1:66">
       <c r="A305" s="16"/>
       <c r="B305" s="16"/>
       <c r="C305" s="16"/>
@@ -24570,8 +24886,9 @@
       <c r="BK305" s="16"/>
       <c r="BL305" s="16"/>
       <c r="BM305" s="16"/>
-    </row>
-    <row r="306" spans="1:65">
+      <c r="BN305" s="16"/>
+    </row>
+    <row r="306" spans="1:66">
       <c r="A306" s="16"/>
       <c r="B306" s="16"/>
       <c r="C306" s="16"/>
@@ -24636,8 +24953,9 @@
       <c r="BK306" s="16"/>
       <c r="BL306" s="16"/>
       <c r="BM306" s="16"/>
-    </row>
-    <row r="307" spans="1:65">
+      <c r="BN306" s="16"/>
+    </row>
+    <row r="307" spans="1:66">
       <c r="A307" s="16"/>
       <c r="B307" s="16"/>
       <c r="C307" s="16"/>
@@ -24702,8 +25020,9 @@
       <c r="BK307" s="16"/>
       <c r="BL307" s="16"/>
       <c r="BM307" s="16"/>
-    </row>
-    <row r="308" spans="1:65">
+      <c r="BN307" s="16"/>
+    </row>
+    <row r="308" spans="1:66">
       <c r="A308" s="16"/>
       <c r="B308" s="16"/>
       <c r="C308" s="16"/>
@@ -24768,8 +25087,9 @@
       <c r="BK308" s="16"/>
       <c r="BL308" s="16"/>
       <c r="BM308" s="16"/>
-    </row>
-    <row r="309" spans="1:65">
+      <c r="BN308" s="16"/>
+    </row>
+    <row r="309" spans="1:66">
       <c r="A309" s="16"/>
       <c r="B309" s="16"/>
       <c r="C309" s="16"/>
@@ -24834,8 +25154,9 @@
       <c r="BK309" s="16"/>
       <c r="BL309" s="16"/>
       <c r="BM309" s="16"/>
-    </row>
-    <row r="310" spans="1:65">
+      <c r="BN309" s="16"/>
+    </row>
+    <row r="310" spans="1:66">
       <c r="A310" s="16"/>
       <c r="B310" s="16"/>
       <c r="C310" s="16"/>
@@ -24900,8 +25221,9 @@
       <c r="BK310" s="16"/>
       <c r="BL310" s="16"/>
       <c r="BM310" s="16"/>
-    </row>
-    <row r="311" spans="1:65">
+      <c r="BN310" s="16"/>
+    </row>
+    <row r="311" spans="1:66">
       <c r="A311" s="16"/>
       <c r="B311" s="16"/>
       <c r="C311" s="16"/>
@@ -24966,8 +25288,9 @@
       <c r="BK311" s="16"/>
       <c r="BL311" s="16"/>
       <c r="BM311" s="16"/>
-    </row>
-    <row r="312" spans="1:65">
+      <c r="BN311" s="16"/>
+    </row>
+    <row r="312" spans="1:66">
       <c r="A312" s="16"/>
       <c r="B312" s="16"/>
       <c r="C312" s="16"/>
@@ -25032,8 +25355,9 @@
       <c r="BK312" s="16"/>
       <c r="BL312" s="16"/>
       <c r="BM312" s="16"/>
-    </row>
-    <row r="313" spans="1:65">
+      <c r="BN312" s="16"/>
+    </row>
+    <row r="313" spans="1:66">
       <c r="A313" s="16"/>
       <c r="B313" s="16"/>
       <c r="C313" s="16"/>
@@ -25098,8 +25422,9 @@
       <c r="BK313" s="16"/>
       <c r="BL313" s="16"/>
       <c r="BM313" s="16"/>
-    </row>
-    <row r="314" spans="1:65">
+      <c r="BN313" s="16"/>
+    </row>
+    <row r="314" spans="1:66">
       <c r="A314" s="16"/>
       <c r="B314" s="16"/>
       <c r="C314" s="16"/>
@@ -25164,8 +25489,9 @@
       <c r="BK314" s="16"/>
       <c r="BL314" s="16"/>
       <c r="BM314" s="16"/>
-    </row>
-    <row r="315" spans="1:65">
+      <c r="BN314" s="16"/>
+    </row>
+    <row r="315" spans="1:66">
       <c r="A315" s="16"/>
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
@@ -25230,8 +25556,9 @@
       <c r="BK315" s="16"/>
       <c r="BL315" s="16"/>
       <c r="BM315" s="16"/>
-    </row>
-    <row r="316" spans="1:65">
+      <c r="BN315" s="16"/>
+    </row>
+    <row r="316" spans="1:66">
       <c r="A316" s="16"/>
       <c r="B316" s="16"/>
       <c r="C316" s="16"/>
@@ -25296,8 +25623,9 @@
       <c r="BK316" s="16"/>
       <c r="BL316" s="16"/>
       <c r="BM316" s="16"/>
-    </row>
-    <row r="317" spans="1:65">
+      <c r="BN316" s="16"/>
+    </row>
+    <row r="317" spans="1:66">
       <c r="A317" s="16"/>
       <c r="B317" s="16"/>
       <c r="C317" s="16"/>
@@ -25362,8 +25690,9 @@
       <c r="BK317" s="16"/>
       <c r="BL317" s="16"/>
       <c r="BM317" s="16"/>
-    </row>
-    <row r="318" spans="1:65">
+      <c r="BN317" s="16"/>
+    </row>
+    <row r="318" spans="1:66">
       <c r="A318" s="16"/>
       <c r="B318" s="16"/>
       <c r="C318" s="16"/>
@@ -25428,8 +25757,9 @@
       <c r="BK318" s="16"/>
       <c r="BL318" s="16"/>
       <c r="BM318" s="16"/>
-    </row>
-    <row r="319" spans="1:65">
+      <c r="BN318" s="16"/>
+    </row>
+    <row r="319" spans="1:66">
       <c r="A319" s="16"/>
       <c r="B319" s="16"/>
       <c r="C319" s="16"/>
@@ -25494,8 +25824,9 @@
       <c r="BK319" s="16"/>
       <c r="BL319" s="16"/>
       <c r="BM319" s="16"/>
-    </row>
-    <row r="320" spans="1:65">
+      <c r="BN319" s="16"/>
+    </row>
+    <row r="320" spans="1:66">
       <c r="A320" s="16"/>
       <c r="B320" s="16"/>
       <c r="C320" s="16"/>
@@ -25560,8 +25891,9 @@
       <c r="BK320" s="16"/>
       <c r="BL320" s="16"/>
       <c r="BM320" s="16"/>
-    </row>
-    <row r="321" spans="1:65">
+      <c r="BN320" s="16"/>
+    </row>
+    <row r="321" spans="1:66">
       <c r="A321" s="16"/>
       <c r="B321" s="16"/>
       <c r="C321" s="16"/>
@@ -25626,8 +25958,9 @@
       <c r="BK321" s="16"/>
       <c r="BL321" s="16"/>
       <c r="BM321" s="16"/>
-    </row>
-    <row r="322" spans="1:65">
+      <c r="BN321" s="16"/>
+    </row>
+    <row r="322" spans="1:66">
       <c r="A322" s="16"/>
       <c r="B322" s="16"/>
       <c r="C322" s="16"/>
@@ -25692,8 +26025,9 @@
       <c r="BK322" s="16"/>
       <c r="BL322" s="16"/>
       <c r="BM322" s="16"/>
-    </row>
-    <row r="323" spans="1:65">
+      <c r="BN322" s="16"/>
+    </row>
+    <row r="323" spans="1:66">
       <c r="A323" s="16"/>
       <c r="B323" s="16"/>
       <c r="C323" s="16"/>
@@ -25758,8 +26092,9 @@
       <c r="BK323" s="16"/>
       <c r="BL323" s="16"/>
       <c r="BM323" s="16"/>
-    </row>
-    <row r="324" spans="1:65">
+      <c r="BN323" s="16"/>
+    </row>
+    <row r="324" spans="1:66">
       <c r="A324" s="16"/>
       <c r="B324" s="16"/>
       <c r="C324" s="16"/>
@@ -25824,8 +26159,9 @@
       <c r="BK324" s="16"/>
       <c r="BL324" s="16"/>
       <c r="BM324" s="16"/>
-    </row>
-    <row r="325" spans="1:65">
+      <c r="BN324" s="16"/>
+    </row>
+    <row r="325" spans="1:66">
       <c r="A325" s="16"/>
       <c r="B325" s="16"/>
       <c r="C325" s="16"/>
@@ -25890,8 +26226,9 @@
       <c r="BK325" s="16"/>
       <c r="BL325" s="16"/>
       <c r="BM325" s="16"/>
-    </row>
-    <row r="326" spans="1:65">
+      <c r="BN325" s="16"/>
+    </row>
+    <row r="326" spans="1:66">
       <c r="A326" s="16"/>
       <c r="B326" s="16"/>
       <c r="C326" s="16"/>
@@ -25956,8 +26293,9 @@
       <c r="BK326" s="16"/>
       <c r="BL326" s="16"/>
       <c r="BM326" s="16"/>
-    </row>
-    <row r="327" spans="1:65">
+      <c r="BN326" s="16"/>
+    </row>
+    <row r="327" spans="1:66">
       <c r="A327" s="16"/>
       <c r="B327" s="16"/>
       <c r="C327" s="16"/>
@@ -26022,8 +26360,9 @@
       <c r="BK327" s="16"/>
       <c r="BL327" s="16"/>
       <c r="BM327" s="16"/>
-    </row>
-    <row r="328" spans="1:65">
+      <c r="BN327" s="16"/>
+    </row>
+    <row r="328" spans="1:66">
       <c r="A328" s="16"/>
       <c r="B328" s="16"/>
       <c r="C328" s="16"/>
@@ -26088,8 +26427,9 @@
       <c r="BK328" s="16"/>
       <c r="BL328" s="16"/>
       <c r="BM328" s="16"/>
-    </row>
-    <row r="329" spans="1:65">
+      <c r="BN328" s="16"/>
+    </row>
+    <row r="329" spans="1:66">
       <c r="A329" s="16"/>
       <c r="B329" s="16"/>
       <c r="C329" s="16"/>
@@ -26154,8 +26494,9 @@
       <c r="BK329" s="16"/>
       <c r="BL329" s="16"/>
       <c r="BM329" s="16"/>
-    </row>
-    <row r="330" spans="1:65">
+      <c r="BN329" s="16"/>
+    </row>
+    <row r="330" spans="1:66">
       <c r="A330" s="16"/>
       <c r="B330" s="16"/>
       <c r="C330" s="16"/>
@@ -26220,8 +26561,9 @@
       <c r="BK330" s="16"/>
       <c r="BL330" s="16"/>
       <c r="BM330" s="16"/>
-    </row>
-    <row r="331" spans="1:65">
+      <c r="BN330" s="16"/>
+    </row>
+    <row r="331" spans="1:66">
       <c r="A331" s="16"/>
       <c r="B331" s="16"/>
       <c r="C331" s="16"/>
@@ -26286,8 +26628,9 @@
       <c r="BK331" s="16"/>
       <c r="BL331" s="16"/>
       <c r="BM331" s="16"/>
-    </row>
-    <row r="332" spans="1:65">
+      <c r="BN331" s="16"/>
+    </row>
+    <row r="332" spans="1:66">
       <c r="A332" s="16"/>
       <c r="B332" s="16"/>
       <c r="C332" s="16"/>
@@ -26352,8 +26695,9 @@
       <c r="BK332" s="16"/>
       <c r="BL332" s="16"/>
       <c r="BM332" s="16"/>
-    </row>
-    <row r="333" spans="1:65">
+      <c r="BN332" s="16"/>
+    </row>
+    <row r="333" spans="1:66">
       <c r="A333" s="16"/>
       <c r="B333" s="16"/>
       <c r="C333" s="16"/>
@@ -26418,8 +26762,9 @@
       <c r="BK333" s="16"/>
       <c r="BL333" s="16"/>
       <c r="BM333" s="16"/>
-    </row>
-    <row r="334" spans="1:65">
+      <c r="BN333" s="16"/>
+    </row>
+    <row r="334" spans="1:66">
       <c r="A334" s="16"/>
       <c r="B334" s="16"/>
       <c r="C334" s="16"/>
@@ -26484,8 +26829,9 @@
       <c r="BK334" s="16"/>
       <c r="BL334" s="16"/>
       <c r="BM334" s="16"/>
-    </row>
-    <row r="335" spans="1:65">
+      <c r="BN334" s="16"/>
+    </row>
+    <row r="335" spans="1:66">
       <c r="A335" s="16"/>
       <c r="B335" s="16"/>
       <c r="C335" s="16"/>
@@ -26550,8 +26896,9 @@
       <c r="BK335" s="16"/>
       <c r="BL335" s="16"/>
       <c r="BM335" s="16"/>
-    </row>
-    <row r="336" spans="1:65">
+      <c r="BN335" s="16"/>
+    </row>
+    <row r="336" spans="1:66">
       <c r="A336" s="16"/>
       <c r="B336" s="16"/>
       <c r="C336" s="16"/>
@@ -26616,8 +26963,9 @@
       <c r="BK336" s="16"/>
       <c r="BL336" s="16"/>
       <c r="BM336" s="16"/>
-    </row>
-    <row r="337" spans="1:65">
+      <c r="BN336" s="16"/>
+    </row>
+    <row r="337" spans="1:66">
       <c r="A337" s="16"/>
       <c r="B337" s="16"/>
       <c r="C337" s="16"/>
@@ -26682,8 +27030,9 @@
       <c r="BK337" s="16"/>
       <c r="BL337" s="16"/>
       <c r="BM337" s="16"/>
-    </row>
-    <row r="338" spans="1:65">
+      <c r="BN337" s="16"/>
+    </row>
+    <row r="338" spans="1:66">
       <c r="A338" s="16"/>
       <c r="B338" s="16"/>
       <c r="C338" s="16"/>
@@ -26748,8 +27097,9 @@
       <c r="BK338" s="16"/>
       <c r="BL338" s="16"/>
       <c r="BM338" s="16"/>
-    </row>
-    <row r="339" spans="1:65">
+      <c r="BN338" s="16"/>
+    </row>
+    <row r="339" spans="1:66">
       <c r="A339" s="16"/>
       <c r="B339" s="16"/>
       <c r="C339" s="16"/>
@@ -26814,8 +27164,9 @@
       <c r="BK339" s="16"/>
       <c r="BL339" s="16"/>
       <c r="BM339" s="16"/>
-    </row>
-    <row r="340" spans="1:65">
+      <c r="BN339" s="16"/>
+    </row>
+    <row r="340" spans="1:66">
       <c r="A340" s="16"/>
       <c r="B340" s="16"/>
       <c r="C340" s="16"/>
@@ -26880,8 +27231,9 @@
       <c r="BK340" s="16"/>
       <c r="BL340" s="16"/>
       <c r="BM340" s="16"/>
-    </row>
-    <row r="341" spans="1:65">
+      <c r="BN340" s="16"/>
+    </row>
+    <row r="341" spans="1:66">
       <c r="A341" s="16"/>
       <c r="B341" s="16"/>
       <c r="C341" s="16"/>
@@ -26946,8 +27298,9 @@
       <c r="BK341" s="16"/>
       <c r="BL341" s="16"/>
       <c r="BM341" s="16"/>
-    </row>
-    <row r="342" spans="1:65">
+      <c r="BN341" s="16"/>
+    </row>
+    <row r="342" spans="1:66">
       <c r="A342" s="16"/>
       <c r="B342" s="16"/>
       <c r="C342" s="16"/>
@@ -27012,8 +27365,9 @@
       <c r="BK342" s="16"/>
       <c r="BL342" s="16"/>
       <c r="BM342" s="16"/>
-    </row>
-    <row r="343" spans="1:65">
+      <c r="BN342" s="16"/>
+    </row>
+    <row r="343" spans="1:66">
       <c r="A343" s="16"/>
       <c r="B343" s="16"/>
       <c r="C343" s="16"/>
@@ -27078,8 +27432,9 @@
       <c r="BK343" s="16"/>
       <c r="BL343" s="16"/>
       <c r="BM343" s="16"/>
-    </row>
-    <row r="344" spans="1:65">
+      <c r="BN343" s="16"/>
+    </row>
+    <row r="344" spans="1:66">
       <c r="A344" s="16"/>
       <c r="B344" s="16"/>
       <c r="C344" s="16"/>
@@ -27144,8 +27499,9 @@
       <c r="BK344" s="16"/>
       <c r="BL344" s="16"/>
       <c r="BM344" s="16"/>
-    </row>
-    <row r="345" spans="1:65">
+      <c r="BN344" s="16"/>
+    </row>
+    <row r="345" spans="1:66">
       <c r="A345" s="16"/>
       <c r="B345" s="16"/>
       <c r="C345" s="16"/>
@@ -27210,8 +27566,9 @@
       <c r="BK345" s="16"/>
       <c r="BL345" s="16"/>
       <c r="BM345" s="16"/>
-    </row>
-    <row r="346" spans="1:65">
+      <c r="BN345" s="16"/>
+    </row>
+    <row r="346" spans="1:66">
       <c r="A346" s="16"/>
       <c r="B346" s="16"/>
       <c r="C346" s="16"/>
@@ -27276,8 +27633,9 @@
       <c r="BK346" s="16"/>
       <c r="BL346" s="16"/>
       <c r="BM346" s="16"/>
-    </row>
-    <row r="347" spans="1:65">
+      <c r="BN346" s="16"/>
+    </row>
+    <row r="347" spans="1:66">
       <c r="A347" s="16"/>
       <c r="B347" s="16"/>
       <c r="C347" s="16"/>
@@ -27342,8 +27700,9 @@
       <c r="BK347" s="16"/>
       <c r="BL347" s="16"/>
       <c r="BM347" s="16"/>
-    </row>
-    <row r="348" spans="1:65">
+      <c r="BN347" s="16"/>
+    </row>
+    <row r="348" spans="1:66">
       <c r="A348" s="16"/>
       <c r="B348" s="16"/>
       <c r="C348" s="16"/>
@@ -27408,8 +27767,9 @@
       <c r="BK348" s="16"/>
       <c r="BL348" s="16"/>
       <c r="BM348" s="16"/>
-    </row>
-    <row r="349" spans="1:65">
+      <c r="BN348" s="16"/>
+    </row>
+    <row r="349" spans="1:66">
       <c r="A349" s="16"/>
       <c r="B349" s="16"/>
       <c r="C349" s="16"/>
@@ -27474,8 +27834,9 @@
       <c r="BK349" s="16"/>
       <c r="BL349" s="16"/>
       <c r="BM349" s="16"/>
-    </row>
-    <row r="350" spans="1:65">
+      <c r="BN349" s="16"/>
+    </row>
+    <row r="350" spans="1:66">
       <c r="A350" s="16"/>
       <c r="B350" s="16"/>
       <c r="C350" s="16"/>
@@ -27540,8 +27901,9 @@
       <c r="BK350" s="16"/>
       <c r="BL350" s="16"/>
       <c r="BM350" s="16"/>
-    </row>
-    <row r="351" spans="1:65">
+      <c r="BN350" s="16"/>
+    </row>
+    <row r="351" spans="1:66">
       <c r="A351" s="16"/>
       <c r="B351" s="16"/>
       <c r="C351" s="16"/>
@@ -27606,8 +27968,9 @@
       <c r="BK351" s="16"/>
       <c r="BL351" s="16"/>
       <c r="BM351" s="16"/>
-    </row>
-    <row r="352" spans="1:65">
+      <c r="BN351" s="16"/>
+    </row>
+    <row r="352" spans="1:66">
       <c r="A352" s="16"/>
       <c r="B352" s="16"/>
       <c r="C352" s="16"/>
@@ -27672,8 +28035,9 @@
       <c r="BK352" s="16"/>
       <c r="BL352" s="16"/>
       <c r="BM352" s="16"/>
-    </row>
-    <row r="353" spans="1:65">
+      <c r="BN352" s="16"/>
+    </row>
+    <row r="353" spans="1:66">
       <c r="A353" s="16"/>
       <c r="B353" s="16"/>
       <c r="C353" s="16"/>
@@ -27738,8 +28102,9 @@
       <c r="BK353" s="16"/>
       <c r="BL353" s="16"/>
       <c r="BM353" s="16"/>
-    </row>
-    <row r="354" spans="1:65">
+      <c r="BN353" s="16"/>
+    </row>
+    <row r="354" spans="1:66">
       <c r="A354" s="16"/>
       <c r="B354" s="16"/>
       <c r="C354" s="16"/>
@@ -27804,8 +28169,9 @@
       <c r="BK354" s="16"/>
       <c r="BL354" s="16"/>
       <c r="BM354" s="16"/>
-    </row>
-    <row r="355" spans="1:65">
+      <c r="BN354" s="16"/>
+    </row>
+    <row r="355" spans="1:66">
       <c r="A355" s="16"/>
       <c r="B355" s="16"/>
       <c r="C355" s="16"/>
@@ -27870,8 +28236,9 @@
       <c r="BK355" s="16"/>
       <c r="BL355" s="16"/>
       <c r="BM355" s="16"/>
-    </row>
-    <row r="356" spans="1:65">
+      <c r="BN355" s="16"/>
+    </row>
+    <row r="356" spans="1:66">
       <c r="A356" s="16"/>
       <c r="B356" s="16"/>
       <c r="C356" s="16"/>
@@ -27936,8 +28303,9 @@
       <c r="BK356" s="16"/>
       <c r="BL356" s="16"/>
       <c r="BM356" s="16"/>
-    </row>
-    <row r="357" spans="1:65">
+      <c r="BN356" s="16"/>
+    </row>
+    <row r="357" spans="1:66">
       <c r="A357" s="16"/>
       <c r="B357" s="16"/>
       <c r="C357" s="16"/>
@@ -28002,8 +28370,9 @@
       <c r="BK357" s="16"/>
       <c r="BL357" s="16"/>
       <c r="BM357" s="16"/>
-    </row>
-    <row r="358" spans="1:65">
+      <c r="BN357" s="16"/>
+    </row>
+    <row r="358" spans="1:66">
       <c r="A358" s="16"/>
       <c r="B358" s="16"/>
       <c r="C358" s="16"/>
@@ -28068,8 +28437,9 @@
       <c r="BK358" s="16"/>
       <c r="BL358" s="16"/>
       <c r="BM358" s="16"/>
-    </row>
-    <row r="359" spans="1:65">
+      <c r="BN358" s="16"/>
+    </row>
+    <row r="359" spans="1:66">
       <c r="A359" s="16"/>
       <c r="B359" s="16"/>
       <c r="C359" s="16"/>
@@ -28134,8 +28504,9 @@
       <c r="BK359" s="16"/>
       <c r="BL359" s="16"/>
       <c r="BM359" s="16"/>
-    </row>
-    <row r="360" spans="1:65">
+      <c r="BN359" s="16"/>
+    </row>
+    <row r="360" spans="1:66">
       <c r="A360" s="16"/>
       <c r="B360" s="16"/>
       <c r="C360" s="16"/>
@@ -28200,8 +28571,9 @@
       <c r="BK360" s="16"/>
       <c r="BL360" s="16"/>
       <c r="BM360" s="16"/>
-    </row>
-    <row r="361" spans="1:65">
+      <c r="BN360" s="16"/>
+    </row>
+    <row r="361" spans="1:66">
       <c r="A361" s="16"/>
       <c r="B361" s="16"/>
       <c r="C361" s="16"/>
@@ -28266,8 +28638,9 @@
       <c r="BK361" s="16"/>
       <c r="BL361" s="16"/>
       <c r="BM361" s="16"/>
-    </row>
-    <row r="362" spans="1:65">
+      <c r="BN361" s="16"/>
+    </row>
+    <row r="362" spans="1:66">
       <c r="A362" s="16"/>
       <c r="B362" s="16"/>
       <c r="C362" s="16"/>
@@ -28332,8 +28705,9 @@
       <c r="BK362" s="16"/>
       <c r="BL362" s="16"/>
       <c r="BM362" s="16"/>
-    </row>
-    <row r="363" spans="1:65">
+      <c r="BN362" s="16"/>
+    </row>
+    <row r="363" spans="1:66">
       <c r="A363" s="16"/>
       <c r="B363" s="16"/>
       <c r="C363" s="16"/>
@@ -28398,8 +28772,9 @@
       <c r="BK363" s="16"/>
       <c r="BL363" s="16"/>
       <c r="BM363" s="16"/>
-    </row>
-    <row r="364" spans="1:65">
+      <c r="BN363" s="16"/>
+    </row>
+    <row r="364" spans="1:66">
       <c r="A364" s="16"/>
       <c r="B364" s="16"/>
       <c r="C364" s="16"/>
@@ -28464,8 +28839,9 @@
       <c r="BK364" s="16"/>
       <c r="BL364" s="16"/>
       <c r="BM364" s="16"/>
-    </row>
-    <row r="365" spans="1:65">
+      <c r="BN364" s="16"/>
+    </row>
+    <row r="365" spans="1:66">
       <c r="A365" s="16"/>
       <c r="B365" s="16"/>
       <c r="C365" s="16"/>
@@ -28530,8 +28906,9 @@
       <c r="BK365" s="16"/>
       <c r="BL365" s="16"/>
       <c r="BM365" s="16"/>
-    </row>
-    <row r="366" spans="1:65">
+      <c r="BN365" s="16"/>
+    </row>
+    <row r="366" spans="1:66">
       <c r="A366" s="16"/>
       <c r="B366" s="16"/>
       <c r="C366" s="16"/>
@@ -28596,8 +28973,9 @@
       <c r="BK366" s="16"/>
       <c r="BL366" s="16"/>
       <c r="BM366" s="16"/>
-    </row>
-    <row r="367" spans="1:65">
+      <c r="BN366" s="16"/>
+    </row>
+    <row r="367" spans="1:66">
       <c r="A367" s="16"/>
       <c r="B367" s="16"/>
       <c r="C367" s="16"/>
@@ -28662,8 +29040,9 @@
       <c r="BK367" s="16"/>
       <c r="BL367" s="16"/>
       <c r="BM367" s="16"/>
-    </row>
-    <row r="368" spans="1:65">
+      <c r="BN367" s="16"/>
+    </row>
+    <row r="368" spans="1:66">
       <c r="A368" s="16"/>
       <c r="B368" s="16"/>
       <c r="C368" s="16"/>
@@ -28728,8 +29107,9 @@
       <c r="BK368" s="16"/>
       <c r="BL368" s="16"/>
       <c r="BM368" s="16"/>
-    </row>
-    <row r="369" spans="1:65">
+      <c r="BN368" s="16"/>
+    </row>
+    <row r="369" spans="1:66">
       <c r="A369" s="16"/>
       <c r="B369" s="16"/>
       <c r="C369" s="16"/>
@@ -28794,8 +29174,9 @@
       <c r="BK369" s="16"/>
       <c r="BL369" s="16"/>
       <c r="BM369" s="16"/>
-    </row>
-    <row r="370" spans="1:65">
+      <c r="BN369" s="16"/>
+    </row>
+    <row r="370" spans="1:66">
       <c r="A370" s="16"/>
       <c r="B370" s="16"/>
       <c r="C370" s="16"/>
@@ -28860,8 +29241,9 @@
       <c r="BK370" s="16"/>
       <c r="BL370" s="16"/>
       <c r="BM370" s="16"/>
-    </row>
-    <row r="371" spans="1:65">
+      <c r="BN370" s="16"/>
+    </row>
+    <row r="371" spans="1:66">
       <c r="A371" s="16"/>
       <c r="B371" s="16"/>
       <c r="C371" s="16"/>
@@ -28926,8 +29308,9 @@
       <c r="BK371" s="16"/>
       <c r="BL371" s="16"/>
       <c r="BM371" s="16"/>
-    </row>
-    <row r="372" spans="1:65">
+      <c r="BN371" s="16"/>
+    </row>
+    <row r="372" spans="1:66">
       <c r="A372" s="16"/>
       <c r="B372" s="16"/>
       <c r="C372" s="16"/>
@@ -28992,8 +29375,9 @@
       <c r="BK372" s="16"/>
       <c r="BL372" s="16"/>
       <c r="BM372" s="16"/>
-    </row>
-    <row r="373" spans="1:65">
+      <c r="BN372" s="16"/>
+    </row>
+    <row r="373" spans="1:66">
       <c r="A373" s="16"/>
       <c r="B373" s="16"/>
       <c r="C373" s="16"/>
@@ -29058,8 +29442,9 @@
       <c r="BK373" s="16"/>
       <c r="BL373" s="16"/>
       <c r="BM373" s="16"/>
-    </row>
-    <row r="374" spans="1:65">
+      <c r="BN373" s="16"/>
+    </row>
+    <row r="374" spans="1:66">
       <c r="A374" s="16"/>
       <c r="B374" s="16"/>
       <c r="C374" s="16"/>
@@ -29124,8 +29509,9 @@
       <c r="BK374" s="16"/>
       <c r="BL374" s="16"/>
       <c r="BM374" s="16"/>
-    </row>
-    <row r="375" spans="1:65">
+      <c r="BN374" s="16"/>
+    </row>
+    <row r="375" spans="1:66">
       <c r="A375" s="16"/>
       <c r="B375" s="16"/>
       <c r="C375" s="16"/>
@@ -29190,8 +29576,9 @@
       <c r="BK375" s="16"/>
       <c r="BL375" s="16"/>
       <c r="BM375" s="16"/>
-    </row>
-    <row r="376" spans="1:65">
+      <c r="BN375" s="16"/>
+    </row>
+    <row r="376" spans="1:66">
       <c r="A376" s="16"/>
       <c r="B376" s="16"/>
       <c r="C376" s="16"/>
@@ -29256,8 +29643,9 @@
       <c r="BK376" s="16"/>
       <c r="BL376" s="16"/>
       <c r="BM376" s="16"/>
-    </row>
-    <row r="377" spans="1:65">
+      <c r="BN376" s="16"/>
+    </row>
+    <row r="377" spans="1:66">
       <c r="A377" s="16"/>
       <c r="B377" s="16"/>
       <c r="C377" s="16"/>
@@ -29322,8 +29710,9 @@
       <c r="BK377" s="16"/>
       <c r="BL377" s="16"/>
       <c r="BM377" s="16"/>
-    </row>
-    <row r="378" spans="1:65">
+      <c r="BN377" s="16"/>
+    </row>
+    <row r="378" spans="1:66">
       <c r="A378" s="16"/>
       <c r="B378" s="16"/>
       <c r="C378" s="16"/>
@@ -29388,8 +29777,9 @@
       <c r="BK378" s="16"/>
       <c r="BL378" s="16"/>
       <c r="BM378" s="16"/>
-    </row>
-    <row r="379" spans="1:65">
+      <c r="BN378" s="16"/>
+    </row>
+    <row r="379" spans="1:66">
       <c r="A379" s="16"/>
       <c r="B379" s="16"/>
       <c r="C379" s="16"/>
@@ -29454,8 +29844,9 @@
       <c r="BK379" s="16"/>
       <c r="BL379" s="16"/>
       <c r="BM379" s="16"/>
-    </row>
-    <row r="380" spans="1:65">
+      <c r="BN379" s="16"/>
+    </row>
+    <row r="380" spans="1:66">
       <c r="A380" s="16"/>
       <c r="B380" s="16"/>
       <c r="C380" s="16"/>
@@ -29520,8 +29911,9 @@
       <c r="BK380" s="16"/>
       <c r="BL380" s="16"/>
       <c r="BM380" s="16"/>
-    </row>
-    <row r="381" spans="1:65">
+      <c r="BN380" s="16"/>
+    </row>
+    <row r="381" spans="1:66">
       <c r="A381" s="16"/>
       <c r="B381" s="16"/>
       <c r="C381" s="16"/>
@@ -29586,8 +29978,9 @@
       <c r="BK381" s="16"/>
       <c r="BL381" s="16"/>
       <c r="BM381" s="16"/>
-    </row>
-    <row r="382" spans="1:65">
+      <c r="BN381" s="16"/>
+    </row>
+    <row r="382" spans="1:66">
       <c r="A382" s="16"/>
       <c r="B382" s="16"/>
       <c r="C382" s="16"/>
@@ -29652,8 +30045,9 @@
       <c r="BK382" s="16"/>
       <c r="BL382" s="16"/>
       <c r="BM382" s="16"/>
-    </row>
-    <row r="383" spans="1:65">
+      <c r="BN382" s="16"/>
+    </row>
+    <row r="383" spans="1:66">
       <c r="A383" s="16"/>
       <c r="B383" s="16"/>
       <c r="C383" s="16"/>
@@ -29718,8 +30112,9 @@
       <c r="BK383" s="16"/>
       <c r="BL383" s="16"/>
       <c r="BM383" s="16"/>
-    </row>
-    <row r="384" spans="1:65">
+      <c r="BN383" s="16"/>
+    </row>
+    <row r="384" spans="1:66">
       <c r="A384" s="16"/>
       <c r="B384" s="16"/>
       <c r="C384" s="16"/>
@@ -29784,8 +30179,9 @@
       <c r="BK384" s="16"/>
       <c r="BL384" s="16"/>
       <c r="BM384" s="16"/>
-    </row>
-    <row r="385" spans="1:65">
+      <c r="BN384" s="16"/>
+    </row>
+    <row r="385" spans="1:66">
       <c r="A385" s="16"/>
       <c r="B385" s="16"/>
       <c r="C385" s="16"/>
@@ -29850,8 +30246,9 @@
       <c r="BK385" s="16"/>
       <c r="BL385" s="16"/>
       <c r="BM385" s="16"/>
-    </row>
-    <row r="386" spans="1:65">
+      <c r="BN385" s="16"/>
+    </row>
+    <row r="386" spans="1:66">
       <c r="A386" s="16"/>
       <c r="B386" s="16"/>
       <c r="C386" s="16"/>
@@ -29916,8 +30313,9 @@
       <c r="BK386" s="16"/>
       <c r="BL386" s="16"/>
       <c r="BM386" s="16"/>
-    </row>
-    <row r="387" spans="1:65">
+      <c r="BN386" s="16"/>
+    </row>
+    <row r="387" spans="1:66">
       <c r="A387" s="16"/>
       <c r="B387" s="16"/>
       <c r="C387" s="16"/>
@@ -29982,8 +30380,9 @@
       <c r="BK387" s="16"/>
       <c r="BL387" s="16"/>
       <c r="BM387" s="16"/>
-    </row>
-    <row r="388" spans="1:65">
+      <c r="BN387" s="16"/>
+    </row>
+    <row r="388" spans="1:66">
       <c r="A388" s="16"/>
       <c r="B388" s="16"/>
       <c r="C388" s="16"/>
@@ -30048,8 +30447,9 @@
       <c r="BK388" s="16"/>
       <c r="BL388" s="16"/>
       <c r="BM388" s="16"/>
-    </row>
-    <row r="389" spans="1:65">
+      <c r="BN388" s="16"/>
+    </row>
+    <row r="389" spans="1:66">
       <c r="A389" s="16"/>
       <c r="B389" s="16"/>
       <c r="C389" s="16"/>
@@ -30114,8 +30514,9 @@
       <c r="BK389" s="16"/>
       <c r="BL389" s="16"/>
       <c r="BM389" s="16"/>
-    </row>
-    <row r="390" spans="1:65">
+      <c r="BN389" s="16"/>
+    </row>
+    <row r="390" spans="1:66">
       <c r="A390" s="16"/>
       <c r="B390" s="16"/>
       <c r="C390" s="16"/>
@@ -30180,8 +30581,9 @@
       <c r="BK390" s="16"/>
       <c r="BL390" s="16"/>
       <c r="BM390" s="16"/>
-    </row>
-    <row r="391" spans="1:65">
+      <c r="BN390" s="16"/>
+    </row>
+    <row r="391" spans="1:66">
       <c r="A391" s="16"/>
       <c r="B391" s="16"/>
       <c r="C391" s="16"/>
@@ -30246,8 +30648,9 @@
       <c r="BK391" s="16"/>
       <c r="BL391" s="16"/>
       <c r="BM391" s="16"/>
-    </row>
-    <row r="392" spans="1:65">
+      <c r="BN391" s="16"/>
+    </row>
+    <row r="392" spans="1:66">
       <c r="A392" s="16"/>
       <c r="B392" s="16"/>
       <c r="C392" s="16"/>
@@ -30312,8 +30715,9 @@
       <c r="BK392" s="16"/>
       <c r="BL392" s="16"/>
       <c r="BM392" s="16"/>
-    </row>
-    <row r="393" spans="1:65">
+      <c r="BN392" s="16"/>
+    </row>
+    <row r="393" spans="1:66">
       <c r="A393" s="16"/>
       <c r="B393" s="16"/>
       <c r="C393" s="16"/>
@@ -30378,8 +30782,9 @@
       <c r="BK393" s="16"/>
       <c r="BL393" s="16"/>
       <c r="BM393" s="16"/>
-    </row>
-    <row r="394" spans="1:65">
+      <c r="BN393" s="16"/>
+    </row>
+    <row r="394" spans="1:66">
       <c r="A394" s="16"/>
       <c r="B394" s="16"/>
       <c r="C394" s="16"/>
@@ -30444,8 +30849,9 @@
       <c r="BK394" s="16"/>
       <c r="BL394" s="16"/>
       <c r="BM394" s="16"/>
-    </row>
-    <row r="395" spans="1:65">
+      <c r="BN394" s="16"/>
+    </row>
+    <row r="395" spans="1:66">
       <c r="A395" s="16"/>
       <c r="B395" s="16"/>
       <c r="C395" s="16"/>
@@ -30510,8 +30916,9 @@
       <c r="BK395" s="16"/>
       <c r="BL395" s="16"/>
       <c r="BM395" s="16"/>
-    </row>
-    <row r="396" spans="1:65">
+      <c r="BN395" s="16"/>
+    </row>
+    <row r="396" spans="1:66">
       <c r="A396" s="16"/>
       <c r="B396" s="16"/>
       <c r="C396" s="16"/>
@@ -30576,8 +30983,9 @@
       <c r="BK396" s="16"/>
       <c r="BL396" s="16"/>
       <c r="BM396" s="16"/>
-    </row>
-    <row r="397" spans="1:65">
+      <c r="BN396" s="16"/>
+    </row>
+    <row r="397" spans="1:66">
       <c r="A397" s="16"/>
       <c r="B397" s="16"/>
       <c r="C397" s="16"/>
@@ -30642,8 +31050,9 @@
       <c r="BK397" s="16"/>
       <c r="BL397" s="16"/>
       <c r="BM397" s="16"/>
-    </row>
-    <row r="398" spans="1:65">
+      <c r="BN397" s="16"/>
+    </row>
+    <row r="398" spans="1:66">
       <c r="A398" s="16"/>
       <c r="B398" s="16"/>
       <c r="C398" s="16"/>
@@ -30708,8 +31117,9 @@
       <c r="BK398" s="16"/>
       <c r="BL398" s="16"/>
       <c r="BM398" s="16"/>
-    </row>
-    <row r="399" spans="1:65">
+      <c r="BN398" s="16"/>
+    </row>
+    <row r="399" spans="1:66">
       <c r="A399" s="16"/>
       <c r="B399" s="16"/>
       <c r="C399" s="16"/>
@@ -30774,8 +31184,9 @@
       <c r="BK399" s="16"/>
       <c r="BL399" s="16"/>
       <c r="BM399" s="16"/>
-    </row>
-    <row r="400" spans="1:65">
+      <c r="BN399" s="16"/>
+    </row>
+    <row r="400" spans="1:66">
       <c r="A400" s="16"/>
       <c r="B400" s="16"/>
       <c r="C400" s="16"/>
@@ -30840,8 +31251,9 @@
       <c r="BK400" s="16"/>
       <c r="BL400" s="16"/>
       <c r="BM400" s="16"/>
-    </row>
-    <row r="401" spans="1:65">
+      <c r="BN400" s="16"/>
+    </row>
+    <row r="401" spans="1:66">
       <c r="A401" s="16"/>
       <c r="B401" s="16"/>
       <c r="C401" s="16"/>
@@ -30906,8 +31318,9 @@
       <c r="BK401" s="16"/>
       <c r="BL401" s="16"/>
       <c r="BM401" s="16"/>
-    </row>
-    <row r="402" spans="1:65">
+      <c r="BN401" s="16"/>
+    </row>
+    <row r="402" spans="1:66">
       <c r="A402" s="16"/>
       <c r="B402" s="16"/>
       <c r="C402" s="16"/>
@@ -30972,8 +31385,9 @@
       <c r="BK402" s="16"/>
       <c r="BL402" s="16"/>
       <c r="BM402" s="16"/>
-    </row>
-    <row r="403" spans="1:65">
+      <c r="BN402" s="16"/>
+    </row>
+    <row r="403" spans="1:66">
       <c r="A403" s="16"/>
       <c r="B403" s="16"/>
       <c r="C403" s="16"/>
@@ -31038,8 +31452,9 @@
       <c r="BK403" s="16"/>
       <c r="BL403" s="16"/>
       <c r="BM403" s="16"/>
-    </row>
-    <row r="404" spans="1:65">
+      <c r="BN403" s="16"/>
+    </row>
+    <row r="404" spans="1:66">
       <c r="A404" s="16"/>
       <c r="B404" s="16"/>
       <c r="C404" s="16"/>
@@ -31104,8 +31519,9 @@
       <c r="BK404" s="16"/>
       <c r="BL404" s="16"/>
       <c r="BM404" s="16"/>
-    </row>
-    <row r="405" spans="1:65">
+      <c r="BN404" s="16"/>
+    </row>
+    <row r="405" spans="1:66">
       <c r="A405" s="16"/>
       <c r="B405" s="16"/>
       <c r="C405" s="16"/>
@@ -31170,8 +31586,9 @@
       <c r="BK405" s="16"/>
       <c r="BL405" s="16"/>
       <c r="BM405" s="16"/>
-    </row>
-    <row r="406" spans="1:65">
+      <c r="BN405" s="16"/>
+    </row>
+    <row r="406" spans="1:66">
       <c r="A406" s="16"/>
       <c r="B406" s="16"/>
       <c r="C406" s="16"/>
@@ -31236,8 +31653,9 @@
       <c r="BK406" s="16"/>
       <c r="BL406" s="16"/>
       <c r="BM406" s="16"/>
-    </row>
-    <row r="407" spans="1:65">
+      <c r="BN406" s="16"/>
+    </row>
+    <row r="407" spans="1:66">
       <c r="A407" s="16"/>
       <c r="B407" s="16"/>
       <c r="C407" s="16"/>
@@ -31302,8 +31720,9 @@
       <c r="BK407" s="16"/>
       <c r="BL407" s="16"/>
       <c r="BM407" s="16"/>
-    </row>
-    <row r="408" spans="1:65">
+      <c r="BN407" s="16"/>
+    </row>
+    <row r="408" spans="1:66">
       <c r="A408" s="16"/>
       <c r="B408" s="16"/>
       <c r="C408" s="16"/>
@@ -31368,8 +31787,9 @@
       <c r="BK408" s="16"/>
       <c r="BL408" s="16"/>
       <c r="BM408" s="16"/>
-    </row>
-    <row r="409" spans="1:65">
+      <c r="BN408" s="16"/>
+    </row>
+    <row r="409" spans="1:66">
       <c r="A409" s="16"/>
       <c r="B409" s="16"/>
       <c r="C409" s="16"/>
@@ -31434,8 +31854,9 @@
       <c r="BK409" s="16"/>
       <c r="BL409" s="16"/>
       <c r="BM409" s="16"/>
-    </row>
-    <row r="410" spans="1:65">
+      <c r="BN409" s="16"/>
+    </row>
+    <row r="410" spans="1:66">
       <c r="A410" s="16"/>
       <c r="B410" s="16"/>
       <c r="C410" s="16"/>
@@ -31500,8 +31921,9 @@
       <c r="BK410" s="16"/>
       <c r="BL410" s="16"/>
       <c r="BM410" s="16"/>
-    </row>
-    <row r="411" spans="1:65">
+      <c r="BN410" s="16"/>
+    </row>
+    <row r="411" spans="1:66">
       <c r="A411" s="16"/>
       <c r="B411" s="16"/>
       <c r="C411" s="16"/>
@@ -31566,8 +31988,9 @@
       <c r="BK411" s="16"/>
       <c r="BL411" s="16"/>
       <c r="BM411" s="16"/>
-    </row>
-    <row r="412" spans="1:65">
+      <c r="BN411" s="16"/>
+    </row>
+    <row r="412" spans="1:66">
       <c r="A412" s="16"/>
       <c r="B412" s="16"/>
       <c r="C412" s="16"/>
@@ -31632,8 +32055,9 @@
       <c r="BK412" s="16"/>
       <c r="BL412" s="16"/>
       <c r="BM412" s="16"/>
-    </row>
-    <row r="413" spans="1:65">
+      <c r="BN412" s="16"/>
+    </row>
+    <row r="413" spans="1:66">
       <c r="A413" s="16"/>
       <c r="B413" s="16"/>
       <c r="C413" s="16"/>
@@ -31698,8 +32122,9 @@
       <c r="BK413" s="16"/>
       <c r="BL413" s="16"/>
       <c r="BM413" s="16"/>
-    </row>
-    <row r="414" spans="1:65">
+      <c r="BN413" s="16"/>
+    </row>
+    <row r="414" spans="1:66">
       <c r="A414" s="16"/>
       <c r="B414" s="16"/>
       <c r="C414" s="16"/>
@@ -31764,8 +32189,9 @@
       <c r="BK414" s="16"/>
       <c r="BL414" s="16"/>
       <c r="BM414" s="16"/>
-    </row>
-    <row r="415" spans="1:65">
+      <c r="BN414" s="16"/>
+    </row>
+    <row r="415" spans="1:66">
       <c r="A415" s="16"/>
       <c r="B415" s="16"/>
       <c r="C415" s="16"/>
@@ -31830,8 +32256,9 @@
       <c r="BK415" s="16"/>
       <c r="BL415" s="16"/>
       <c r="BM415" s="16"/>
-    </row>
-    <row r="416" spans="1:65">
+      <c r="BN415" s="16"/>
+    </row>
+    <row r="416" spans="1:66">
       <c r="A416" s="16"/>
       <c r="B416" s="16"/>
       <c r="C416" s="16"/>
@@ -31896,8 +32323,9 @@
       <c r="BK416" s="16"/>
       <c r="BL416" s="16"/>
       <c r="BM416" s="16"/>
-    </row>
-    <row r="417" spans="1:65">
+      <c r="BN416" s="16"/>
+    </row>
+    <row r="417" spans="1:66">
       <c r="A417" s="16"/>
       <c r="B417" s="16"/>
       <c r="C417" s="16"/>
@@ -31962,8 +32390,9 @@
       <c r="BK417" s="16"/>
       <c r="BL417" s="16"/>
       <c r="BM417" s="16"/>
-    </row>
-    <row r="418" spans="1:65">
+      <c r="BN417" s="16"/>
+    </row>
+    <row r="418" spans="1:66">
       <c r="A418" s="16"/>
       <c r="B418" s="16"/>
       <c r="C418" s="16"/>
@@ -32028,8 +32457,9 @@
       <c r="BK418" s="16"/>
       <c r="BL418" s="16"/>
       <c r="BM418" s="16"/>
-    </row>
-    <row r="419" spans="1:65">
+      <c r="BN418" s="16"/>
+    </row>
+    <row r="419" spans="1:66">
       <c r="A419" s="16"/>
       <c r="B419" s="16"/>
       <c r="C419" s="16"/>
@@ -32094,8 +32524,9 @@
       <c r="BK419" s="16"/>
       <c r="BL419" s="16"/>
       <c r="BM419" s="16"/>
-    </row>
-    <row r="420" spans="1:65">
+      <c r="BN419" s="16"/>
+    </row>
+    <row r="420" spans="1:66">
       <c r="A420" s="16"/>
       <c r="B420" s="16"/>
       <c r="C420" s="16"/>
@@ -32160,8 +32591,9 @@
       <c r="BK420" s="16"/>
       <c r="BL420" s="16"/>
       <c r="BM420" s="16"/>
-    </row>
-    <row r="421" spans="1:65">
+      <c r="BN420" s="16"/>
+    </row>
+    <row r="421" spans="1:66">
       <c r="A421" s="16"/>
       <c r="B421" s="16"/>
       <c r="C421" s="16"/>
@@ -32226,8 +32658,9 @@
       <c r="BK421" s="16"/>
       <c r="BL421" s="16"/>
       <c r="BM421" s="16"/>
-    </row>
-    <row r="422" spans="1:65">
+      <c r="BN421" s="16"/>
+    </row>
+    <row r="422" spans="1:66">
       <c r="A422" s="16"/>
       <c r="B422" s="16"/>
       <c r="C422" s="16"/>
@@ -32292,8 +32725,9 @@
       <c r="BK422" s="16"/>
       <c r="BL422" s="16"/>
       <c r="BM422" s="16"/>
-    </row>
-    <row r="423" spans="1:65">
+      <c r="BN422" s="16"/>
+    </row>
+    <row r="423" spans="1:66">
       <c r="A423" s="16"/>
       <c r="B423" s="16"/>
       <c r="C423" s="16"/>
@@ -32358,8 +32792,9 @@
       <c r="BK423" s="16"/>
       <c r="BL423" s="16"/>
       <c r="BM423" s="16"/>
-    </row>
-    <row r="424" spans="1:65">
+      <c r="BN423" s="16"/>
+    </row>
+    <row r="424" spans="1:66">
       <c r="A424" s="16"/>
       <c r="B424" s="16"/>
       <c r="C424" s="16"/>
@@ -32424,8 +32859,9 @@
       <c r="BK424" s="16"/>
       <c r="BL424" s="16"/>
       <c r="BM424" s="16"/>
-    </row>
-    <row r="425" spans="1:65">
+      <c r="BN424" s="16"/>
+    </row>
+    <row r="425" spans="1:66">
       <c r="A425" s="16"/>
       <c r="B425" s="16"/>
       <c r="C425" s="16"/>
@@ -32490,8 +32926,9 @@
       <c r="BK425" s="16"/>
       <c r="BL425" s="16"/>
       <c r="BM425" s="16"/>
-    </row>
-    <row r="426" spans="1:65">
+      <c r="BN425" s="16"/>
+    </row>
+    <row r="426" spans="1:66">
       <c r="A426" s="16"/>
       <c r="B426" s="16"/>
       <c r="C426" s="16"/>
@@ -32556,8 +32993,9 @@
       <c r="BK426" s="16"/>
       <c r="BL426" s="16"/>
       <c r="BM426" s="16"/>
-    </row>
-    <row r="427" spans="1:65">
+      <c r="BN426" s="16"/>
+    </row>
+    <row r="427" spans="1:66">
       <c r="A427" s="16"/>
       <c r="B427" s="16"/>
       <c r="C427" s="16"/>
@@ -32622,8 +33060,9 @@
       <c r="BK427" s="16"/>
       <c r="BL427" s="16"/>
       <c r="BM427" s="16"/>
-    </row>
-    <row r="428" spans="1:65">
+      <c r="BN427" s="16"/>
+    </row>
+    <row r="428" spans="1:66">
       <c r="A428" s="16"/>
       <c r="B428" s="16"/>
       <c r="C428" s="16"/>
@@ -32688,8 +33127,9 @@
       <c r="BK428" s="16"/>
       <c r="BL428" s="16"/>
       <c r="BM428" s="16"/>
-    </row>
-    <row r="429" spans="1:65">
+      <c r="BN428" s="16"/>
+    </row>
+    <row r="429" spans="1:66">
       <c r="A429" s="16"/>
       <c r="B429" s="16"/>
       <c r="C429" s="16"/>
@@ -32754,8 +33194,9 @@
       <c r="BK429" s="16"/>
       <c r="BL429" s="16"/>
       <c r="BM429" s="16"/>
-    </row>
-    <row r="430" spans="1:65">
+      <c r="BN429" s="16"/>
+    </row>
+    <row r="430" spans="1:66">
       <c r="A430" s="16"/>
       <c r="B430" s="16"/>
       <c r="C430" s="16"/>
@@ -32820,8 +33261,9 @@
       <c r="BK430" s="16"/>
       <c r="BL430" s="16"/>
       <c r="BM430" s="16"/>
-    </row>
-    <row r="431" spans="1:65">
+      <c r="BN430" s="16"/>
+    </row>
+    <row r="431" spans="1:66">
       <c r="A431" s="16"/>
       <c r="B431" s="16"/>
       <c r="C431" s="16"/>
@@ -32886,8 +33328,9 @@
       <c r="BK431" s="16"/>
       <c r="BL431" s="16"/>
       <c r="BM431" s="16"/>
-    </row>
-    <row r="432" spans="1:65">
+      <c r="BN431" s="16"/>
+    </row>
+    <row r="432" spans="1:66">
       <c r="A432" s="16"/>
       <c r="B432" s="16"/>
       <c r="C432" s="16"/>
@@ -32952,8 +33395,9 @@
       <c r="BK432" s="16"/>
       <c r="BL432" s="16"/>
       <c r="BM432" s="16"/>
-    </row>
-    <row r="433" spans="1:65">
+      <c r="BN432" s="16"/>
+    </row>
+    <row r="433" spans="1:66">
       <c r="A433" s="16"/>
       <c r="B433" s="16"/>
       <c r="C433" s="16"/>
@@ -33018,8 +33462,9 @@
       <c r="BK433" s="16"/>
       <c r="BL433" s="16"/>
       <c r="BM433" s="16"/>
-    </row>
-    <row r="434" spans="1:65">
+      <c r="BN433" s="16"/>
+    </row>
+    <row r="434" spans="1:66">
       <c r="A434" s="16"/>
       <c r="B434" s="16"/>
       <c r="C434" s="16"/>
@@ -33084,8 +33529,9 @@
       <c r="BK434" s="16"/>
       <c r="BL434" s="16"/>
       <c r="BM434" s="16"/>
-    </row>
-    <row r="435" spans="1:65">
+      <c r="BN434" s="16"/>
+    </row>
+    <row r="435" spans="1:66">
       <c r="A435" s="16"/>
       <c r="B435" s="16"/>
       <c r="C435" s="16"/>
@@ -33150,8 +33596,9 @@
       <c r="BK435" s="16"/>
       <c r="BL435" s="16"/>
       <c r="BM435" s="16"/>
-    </row>
-    <row r="436" spans="1:65">
+      <c r="BN435" s="16"/>
+    </row>
+    <row r="436" spans="1:66">
       <c r="A436" s="16"/>
       <c r="B436" s="16"/>
       <c r="C436" s="16"/>
@@ -33216,8 +33663,9 @@
       <c r="BK436" s="16"/>
       <c r="BL436" s="16"/>
       <c r="BM436" s="16"/>
-    </row>
-    <row r="437" spans="1:65">
+      <c r="BN436" s="16"/>
+    </row>
+    <row r="437" spans="1:66">
       <c r="A437" s="16"/>
       <c r="B437" s="16"/>
       <c r="C437" s="16"/>
@@ -33282,8 +33730,9 @@
       <c r="BK437" s="16"/>
       <c r="BL437" s="16"/>
       <c r="BM437" s="16"/>
-    </row>
-    <row r="438" spans="1:65">
+      <c r="BN437" s="16"/>
+    </row>
+    <row r="438" spans="1:66">
       <c r="A438" s="16"/>
       <c r="B438" s="16"/>
       <c r="C438" s="16"/>
@@ -33348,8 +33797,9 @@
       <c r="BK438" s="16"/>
       <c r="BL438" s="16"/>
       <c r="BM438" s="16"/>
-    </row>
-    <row r="439" spans="1:65">
+      <c r="BN438" s="16"/>
+    </row>
+    <row r="439" spans="1:66">
       <c r="A439" s="16"/>
       <c r="B439" s="16"/>
       <c r="C439" s="16"/>
@@ -33414,8 +33864,9 @@
       <c r="BK439" s="16"/>
       <c r="BL439" s="16"/>
       <c r="BM439" s="16"/>
-    </row>
-    <row r="440" spans="1:65">
+      <c r="BN439" s="16"/>
+    </row>
+    <row r="440" spans="1:66">
       <c r="A440" s="16"/>
       <c r="B440" s="16"/>
       <c r="C440" s="16"/>
@@ -33480,8 +33931,9 @@
       <c r="BK440" s="16"/>
       <c r="BL440" s="16"/>
       <c r="BM440" s="16"/>
-    </row>
-    <row r="441" spans="1:65">
+      <c r="BN440" s="16"/>
+    </row>
+    <row r="441" spans="1:66">
       <c r="A441" s="16"/>
       <c r="B441" s="16"/>
       <c r="C441" s="16"/>
@@ -33546,8 +33998,9 @@
       <c r="BK441" s="16"/>
       <c r="BL441" s="16"/>
       <c r="BM441" s="16"/>
-    </row>
-    <row r="442" spans="1:65">
+      <c r="BN441" s="16"/>
+    </row>
+    <row r="442" spans="1:66">
       <c r="A442" s="16"/>
       <c r="B442" s="16"/>
       <c r="C442" s="16"/>
@@ -33612,8 +34065,9 @@
       <c r="BK442" s="16"/>
       <c r="BL442" s="16"/>
       <c r="BM442" s="16"/>
-    </row>
-    <row r="443" spans="1:65">
+      <c r="BN442" s="16"/>
+    </row>
+    <row r="443" spans="1:66">
       <c r="A443" s="16"/>
       <c r="B443" s="16"/>
       <c r="C443" s="16"/>
@@ -33678,8 +34132,9 @@
       <c r="BK443" s="16"/>
       <c r="BL443" s="16"/>
       <c r="BM443" s="16"/>
-    </row>
-    <row r="444" spans="1:65">
+      <c r="BN443" s="16"/>
+    </row>
+    <row r="444" spans="1:66">
       <c r="A444" s="16"/>
       <c r="B444" s="16"/>
       <c r="C444" s="16"/>
@@ -33744,8 +34199,9 @@
       <c r="BK444" s="16"/>
       <c r="BL444" s="16"/>
       <c r="BM444" s="16"/>
-    </row>
-    <row r="445" spans="1:65">
+      <c r="BN444" s="16"/>
+    </row>
+    <row r="445" spans="1:66">
       <c r="A445" s="16"/>
       <c r="B445" s="16"/>
       <c r="C445" s="16"/>
@@ -33810,8 +34266,9 @@
       <c r="BK445" s="16"/>
       <c r="BL445" s="16"/>
       <c r="BM445" s="16"/>
-    </row>
-    <row r="446" spans="1:65">
+      <c r="BN445" s="16"/>
+    </row>
+    <row r="446" spans="1:66">
       <c r="A446" s="16"/>
       <c r="B446" s="16"/>
       <c r="C446" s="16"/>
@@ -33876,8 +34333,9 @@
       <c r="BK446" s="16"/>
       <c r="BL446" s="16"/>
       <c r="BM446" s="16"/>
-    </row>
-    <row r="447" spans="1:65">
+      <c r="BN446" s="16"/>
+    </row>
+    <row r="447" spans="1:66">
       <c r="A447" s="16"/>
       <c r="B447" s="16"/>
       <c r="C447" s="16"/>
@@ -33942,8 +34400,9 @@
       <c r="BK447" s="16"/>
       <c r="BL447" s="16"/>
       <c r="BM447" s="16"/>
-    </row>
-    <row r="448" spans="1:65">
+      <c r="BN447" s="16"/>
+    </row>
+    <row r="448" spans="1:66">
       <c r="A448" s="16"/>
       <c r="B448" s="16"/>
       <c r="C448" s="16"/>
@@ -34008,8 +34467,9 @@
       <c r="BK448" s="16"/>
       <c r="BL448" s="16"/>
       <c r="BM448" s="16"/>
-    </row>
-    <row r="449" spans="1:65">
+      <c r="BN448" s="16"/>
+    </row>
+    <row r="449" spans="1:66">
       <c r="A449" s="16"/>
       <c r="B449" s="16"/>
       <c r="C449" s="16"/>
@@ -34074,8 +34534,9 @@
       <c r="BK449" s="16"/>
       <c r="BL449" s="16"/>
       <c r="BM449" s="16"/>
-    </row>
-    <row r="450" spans="1:65">
+      <c r="BN449" s="16"/>
+    </row>
+    <row r="450" spans="1:66">
       <c r="A450" s="16"/>
       <c r="B450" s="16"/>
       <c r="C450" s="16"/>
@@ -34140,8 +34601,9 @@
       <c r="BK450" s="16"/>
       <c r="BL450" s="16"/>
       <c r="BM450" s="16"/>
-    </row>
-    <row r="451" spans="1:65">
+      <c r="BN450" s="16"/>
+    </row>
+    <row r="451" spans="1:66">
       <c r="A451" s="16"/>
       <c r="B451" s="16"/>
       <c r="C451" s="16"/>
@@ -34206,8 +34668,9 @@
       <c r="BK451" s="16"/>
       <c r="BL451" s="16"/>
       <c r="BM451" s="16"/>
-    </row>
-    <row r="452" spans="1:65">
+      <c r="BN451" s="16"/>
+    </row>
+    <row r="452" spans="1:66">
       <c r="A452" s="16"/>
       <c r="B452" s="16"/>
       <c r="C452" s="16"/>
@@ -34272,8 +34735,9 @@
       <c r="BK452" s="16"/>
       <c r="BL452" s="16"/>
       <c r="BM452" s="16"/>
-    </row>
-    <row r="453" spans="1:65">
+      <c r="BN452" s="16"/>
+    </row>
+    <row r="453" spans="1:66">
       <c r="A453" s="16"/>
       <c r="B453" s="16"/>
       <c r="C453" s="16"/>
@@ -34338,8 +34802,9 @@
       <c r="BK453" s="16"/>
       <c r="BL453" s="16"/>
       <c r="BM453" s="16"/>
-    </row>
-    <row r="454" spans="1:65">
+      <c r="BN453" s="16"/>
+    </row>
+    <row r="454" spans="1:66">
       <c r="A454" s="16"/>
       <c r="B454" s="16"/>
       <c r="C454" s="16"/>
@@ -34404,8 +34869,9 @@
       <c r="BK454" s="16"/>
       <c r="BL454" s="16"/>
       <c r="BM454" s="16"/>
-    </row>
-    <row r="455" spans="1:65">
+      <c r="BN454" s="16"/>
+    </row>
+    <row r="455" spans="1:66">
       <c r="A455" s="16"/>
       <c r="B455" s="16"/>
       <c r="C455" s="16"/>
@@ -34470,8 +34936,9 @@
       <c r="BK455" s="16"/>
       <c r="BL455" s="16"/>
       <c r="BM455" s="16"/>
-    </row>
-    <row r="456" spans="1:65">
+      <c r="BN455" s="16"/>
+    </row>
+    <row r="456" spans="1:66">
       <c r="A456" s="16"/>
       <c r="B456" s="16"/>
       <c r="C456" s="16"/>
@@ -34536,8 +35003,9 @@
       <c r="BK456" s="16"/>
       <c r="BL456" s="16"/>
       <c r="BM456" s="16"/>
-    </row>
-    <row r="457" spans="1:65">
+      <c r="BN456" s="16"/>
+    </row>
+    <row r="457" spans="1:66">
       <c r="A457" s="16"/>
       <c r="B457" s="16"/>
       <c r="C457" s="16"/>
@@ -34602,8 +35070,9 @@
       <c r="BK457" s="16"/>
       <c r="BL457" s="16"/>
       <c r="BM457" s="16"/>
-    </row>
-    <row r="458" spans="1:65">
+      <c r="BN457" s="16"/>
+    </row>
+    <row r="458" spans="1:66">
       <c r="A458" s="16"/>
       <c r="B458" s="16"/>
       <c r="C458" s="16"/>
@@ -34668,8 +35137,9 @@
       <c r="BK458" s="16"/>
       <c r="BL458" s="16"/>
       <c r="BM458" s="16"/>
-    </row>
-    <row r="459" spans="1:65">
+      <c r="BN458" s="16"/>
+    </row>
+    <row r="459" spans="1:66">
       <c r="A459" s="16"/>
       <c r="B459" s="16"/>
       <c r="C459" s="16"/>
@@ -34734,8 +35204,9 @@
       <c r="BK459" s="16"/>
       <c r="BL459" s="16"/>
       <c r="BM459" s="16"/>
-    </row>
-    <row r="460" spans="1:65">
+      <c r="BN459" s="16"/>
+    </row>
+    <row r="460" spans="1:66">
       <c r="A460" s="16"/>
       <c r="B460" s="16"/>
       <c r="C460" s="16"/>
@@ -34800,8 +35271,9 @@
       <c r="BK460" s="16"/>
       <c r="BL460" s="16"/>
       <c r="BM460" s="16"/>
-    </row>
-    <row r="461" spans="1:65">
+      <c r="BN460" s="16"/>
+    </row>
+    <row r="461" spans="1:66">
       <c r="A461" s="16"/>
       <c r="B461" s="16"/>
       <c r="C461" s="16"/>
@@ -34866,8 +35338,9 @@
       <c r="BK461" s="16"/>
       <c r="BL461" s="16"/>
       <c r="BM461" s="16"/>
-    </row>
-    <row r="462" spans="1:65">
+      <c r="BN461" s="16"/>
+    </row>
+    <row r="462" spans="1:66">
       <c r="A462" s="16"/>
       <c r="B462" s="16"/>
       <c r="C462" s="16"/>
@@ -34932,8 +35405,9 @@
       <c r="BK462" s="16"/>
       <c r="BL462" s="16"/>
       <c r="BM462" s="16"/>
-    </row>
-    <row r="463" spans="1:65">
+      <c r="BN462" s="16"/>
+    </row>
+    <row r="463" spans="1:66">
       <c r="A463" s="16"/>
       <c r="B463" s="16"/>
       <c r="C463" s="16"/>
@@ -34998,8 +35472,9 @@
       <c r="BK463" s="16"/>
       <c r="BL463" s="16"/>
       <c r="BM463" s="16"/>
-    </row>
-    <row r="464" spans="1:65">
+      <c r="BN463" s="16"/>
+    </row>
+    <row r="464" spans="1:66">
       <c r="A464" s="16"/>
       <c r="B464" s="16"/>
       <c r="C464" s="16"/>
@@ -35064,8 +35539,9 @@
       <c r="BK464" s="16"/>
       <c r="BL464" s="16"/>
       <c r="BM464" s="16"/>
-    </row>
-    <row r="465" spans="1:65">
+      <c r="BN464" s="16"/>
+    </row>
+    <row r="465" spans="1:66">
       <c r="A465" s="16"/>
       <c r="B465" s="16"/>
       <c r="C465" s="16"/>
@@ -35130,8 +35606,9 @@
       <c r="BK465" s="16"/>
       <c r="BL465" s="16"/>
       <c r="BM465" s="16"/>
-    </row>
-    <row r="466" spans="1:65">
+      <c r="BN465" s="16"/>
+    </row>
+    <row r="466" spans="1:66">
       <c r="A466" s="16"/>
       <c r="B466" s="16"/>
       <c r="C466" s="16"/>
@@ -35196,8 +35673,9 @@
       <c r="BK466" s="16"/>
       <c r="BL466" s="16"/>
       <c r="BM466" s="16"/>
-    </row>
-    <row r="467" spans="1:65">
+      <c r="BN466" s="16"/>
+    </row>
+    <row r="467" spans="1:66">
       <c r="A467" s="16"/>
       <c r="B467" s="16"/>
       <c r="C467" s="16"/>
@@ -35262,8 +35740,9 @@
       <c r="BK467" s="16"/>
       <c r="BL467" s="16"/>
       <c r="BM467" s="16"/>
-    </row>
-    <row r="468" spans="1:65">
+      <c r="BN467" s="16"/>
+    </row>
+    <row r="468" spans="1:66">
       <c r="A468" s="16"/>
       <c r="B468" s="16"/>
       <c r="C468" s="16"/>
@@ -35328,8 +35807,9 @@
       <c r="BK468" s="16"/>
       <c r="BL468" s="16"/>
       <c r="BM468" s="16"/>
-    </row>
-    <row r="469" spans="1:65">
+      <c r="BN468" s="16"/>
+    </row>
+    <row r="469" spans="1:66">
       <c r="A469" s="16"/>
       <c r="B469" s="16"/>
       <c r="C469" s="16"/>
@@ -35394,8 +35874,9 @@
       <c r="BK469" s="16"/>
       <c r="BL469" s="16"/>
       <c r="BM469" s="16"/>
-    </row>
-    <row r="470" spans="1:65">
+      <c r="BN469" s="16"/>
+    </row>
+    <row r="470" spans="1:66">
       <c r="A470" s="16"/>
       <c r="B470" s="16"/>
       <c r="C470" s="16"/>
@@ -35460,8 +35941,9 @@
       <c r="BK470" s="16"/>
       <c r="BL470" s="16"/>
       <c r="BM470" s="16"/>
-    </row>
-    <row r="471" spans="1:65">
+      <c r="BN470" s="16"/>
+    </row>
+    <row r="471" spans="1:66">
       <c r="A471" s="16"/>
       <c r="B471" s="16"/>
       <c r="C471" s="16"/>
@@ -35526,8 +36008,9 @@
       <c r="BK471" s="16"/>
       <c r="BL471" s="16"/>
       <c r="BM471" s="16"/>
-    </row>
-    <row r="472" spans="1:65">
+      <c r="BN471" s="16"/>
+    </row>
+    <row r="472" spans="1:66">
       <c r="A472" s="16"/>
       <c r="B472" s="16"/>
       <c r="C472" s="16"/>
@@ -35592,8 +36075,9 @@
       <c r="BK472" s="16"/>
       <c r="BL472" s="16"/>
       <c r="BM472" s="16"/>
-    </row>
-    <row r="473" spans="1:65">
+      <c r="BN472" s="16"/>
+    </row>
+    <row r="473" spans="1:66">
       <c r="A473" s="16"/>
       <c r="B473" s="16"/>
       <c r="C473" s="16"/>
@@ -35658,8 +36142,9 @@
       <c r="BK473" s="16"/>
       <c r="BL473" s="16"/>
       <c r="BM473" s="16"/>
-    </row>
-    <row r="474" spans="1:65">
+      <c r="BN473" s="16"/>
+    </row>
+    <row r="474" spans="1:66">
       <c r="A474" s="16"/>
       <c r="B474" s="16"/>
       <c r="C474" s="16"/>
@@ -35724,8 +36209,9 @@
       <c r="BK474" s="16"/>
       <c r="BL474" s="16"/>
       <c r="BM474" s="16"/>
-    </row>
-    <row r="475" spans="1:65">
+      <c r="BN474" s="16"/>
+    </row>
+    <row r="475" spans="1:66">
       <c r="A475" s="16"/>
       <c r="B475" s="16"/>
       <c r="C475" s="16"/>
@@ -35790,8 +36276,9 @@
       <c r="BK475" s="16"/>
       <c r="BL475" s="16"/>
       <c r="BM475" s="16"/>
-    </row>
-    <row r="476" spans="1:65">
+      <c r="BN475" s="16"/>
+    </row>
+    <row r="476" spans="1:66">
       <c r="A476" s="16"/>
       <c r="B476" s="16"/>
       <c r="C476" s="16"/>
@@ -35856,8 +36343,9 @@
       <c r="BK476" s="16"/>
       <c r="BL476" s="16"/>
       <c r="BM476" s="16"/>
-    </row>
-    <row r="477" spans="1:65">
+      <c r="BN476" s="16"/>
+    </row>
+    <row r="477" spans="1:66">
       <c r="A477" s="16"/>
       <c r="B477" s="16"/>
       <c r="C477" s="16"/>
@@ -35922,8 +36410,9 @@
       <c r="BK477" s="16"/>
       <c r="BL477" s="16"/>
       <c r="BM477" s="16"/>
-    </row>
-    <row r="478" spans="1:65">
+      <c r="BN477" s="16"/>
+    </row>
+    <row r="478" spans="1:66">
       <c r="A478" s="16"/>
       <c r="B478" s="16"/>
       <c r="C478" s="16"/>
@@ -35988,8 +36477,9 @@
       <c r="BK478" s="16"/>
       <c r="BL478" s="16"/>
       <c r="BM478" s="16"/>
-    </row>
-    <row r="479" spans="1:65">
+      <c r="BN478" s="16"/>
+    </row>
+    <row r="479" spans="1:66">
       <c r="A479" s="16"/>
       <c r="B479" s="16"/>
       <c r="C479" s="16"/>
@@ -36054,8 +36544,9 @@
       <c r="BK479" s="16"/>
       <c r="BL479" s="16"/>
       <c r="BM479" s="16"/>
-    </row>
-    <row r="480" spans="1:65">
+      <c r="BN479" s="16"/>
+    </row>
+    <row r="480" spans="1:66">
       <c r="A480" s="16"/>
       <c r="B480" s="16"/>
       <c r="C480" s="16"/>
@@ -36120,8 +36611,9 @@
       <c r="BK480" s="16"/>
       <c r="BL480" s="16"/>
       <c r="BM480" s="16"/>
-    </row>
-    <row r="481" spans="1:65">
+      <c r="BN480" s="16"/>
+    </row>
+    <row r="481" spans="1:66">
       <c r="A481" s="16"/>
       <c r="B481" s="16"/>
       <c r="C481" s="16"/>
@@ -36186,8 +36678,9 @@
       <c r="BK481" s="16"/>
       <c r="BL481" s="16"/>
       <c r="BM481" s="16"/>
-    </row>
-    <row r="482" spans="1:65">
+      <c r="BN481" s="16"/>
+    </row>
+    <row r="482" spans="1:66">
       <c r="A482" s="16"/>
       <c r="B482" s="16"/>
       <c r="C482" s="16"/>
@@ -36252,8 +36745,9 @@
       <c r="BK482" s="16"/>
       <c r="BL482" s="16"/>
       <c r="BM482" s="16"/>
-    </row>
-    <row r="483" spans="1:65">
+      <c r="BN482" s="16"/>
+    </row>
+    <row r="483" spans="1:66">
       <c r="A483" s="16"/>
       <c r="B483" s="16"/>
       <c r="C483" s="16"/>
@@ -36318,8 +36812,9 @@
       <c r="BK483" s="16"/>
       <c r="BL483" s="16"/>
       <c r="BM483" s="16"/>
-    </row>
-    <row r="484" spans="1:65">
+      <c r="BN483" s="16"/>
+    </row>
+    <row r="484" spans="1:66">
       <c r="A484" s="16"/>
       <c r="B484" s="16"/>
       <c r="C484" s="16"/>
@@ -36384,8 +36879,9 @@
       <c r="BK484" s="16"/>
       <c r="BL484" s="16"/>
       <c r="BM484" s="16"/>
-    </row>
-    <row r="485" spans="1:65">
+      <c r="BN484" s="16"/>
+    </row>
+    <row r="485" spans="1:66">
       <c r="A485" s="16"/>
       <c r="B485" s="16"/>
       <c r="C485" s="16"/>
@@ -36450,8 +36946,9 @@
       <c r="BK485" s="16"/>
       <c r="BL485" s="16"/>
       <c r="BM485" s="16"/>
-    </row>
-    <row r="486" spans="1:65">
+      <c r="BN485" s="16"/>
+    </row>
+    <row r="486" spans="1:66">
       <c r="A486" s="16"/>
       <c r="B486" s="16"/>
       <c r="C486" s="16"/>
@@ -36516,8 +37013,9 @@
       <c r="BK486" s="16"/>
       <c r="BL486" s="16"/>
       <c r="BM486" s="16"/>
-    </row>
-    <row r="487" spans="1:65">
+      <c r="BN486" s="16"/>
+    </row>
+    <row r="487" spans="1:66">
       <c r="A487" s="16"/>
       <c r="B487" s="16"/>
       <c r="C487" s="16"/>
@@ -36582,8 +37080,9 @@
       <c r="BK487" s="16"/>
       <c r="BL487" s="16"/>
       <c r="BM487" s="16"/>
-    </row>
-    <row r="488" spans="1:65">
+      <c r="BN487" s="16"/>
+    </row>
+    <row r="488" spans="1:66">
       <c r="A488" s="16"/>
       <c r="B488" s="16"/>
       <c r="C488" s="16"/>
@@ -36648,8 +37147,9 @@
       <c r="BK488" s="16"/>
       <c r="BL488" s="16"/>
       <c r="BM488" s="16"/>
-    </row>
-    <row r="489" spans="1:65">
+      <c r="BN488" s="16"/>
+    </row>
+    <row r="489" spans="1:66">
       <c r="A489" s="16"/>
       <c r="AU489" s="16"/>
       <c r="AV489" s="16"/>
@@ -36670,8 +37170,9 @@
       <c r="BK489" s="16"/>
       <c r="BL489" s="16"/>
       <c r="BM489" s="16"/>
-    </row>
-    <row r="490" spans="1:65">
+      <c r="BN489" s="16"/>
+    </row>
+    <row r="490" spans="1:66">
       <c r="A490" s="16"/>
       <c r="AU490" s="16"/>
       <c r="AV490" s="16"/>
@@ -36692,8 +37193,9 @@
       <c r="BK490" s="16"/>
       <c r="BL490" s="16"/>
       <c r="BM490" s="16"/>
-    </row>
-    <row r="491" spans="1:65">
+      <c r="BN490" s="16"/>
+    </row>
+    <row r="491" spans="1:66">
       <c r="A491" s="16"/>
       <c r="AU491" s="16"/>
       <c r="AV491" s="16"/>
@@ -36714,8 +37216,9 @@
       <c r="BK491" s="16"/>
       <c r="BL491" s="16"/>
       <c r="BM491" s="16"/>
-    </row>
-    <row r="492" spans="1:65">
+      <c r="BN491" s="16"/>
+    </row>
+    <row r="492" spans="1:66">
       <c r="A492" s="16"/>
       <c r="AU492" s="16"/>
       <c r="AV492" s="16"/>
@@ -36736,8 +37239,9 @@
       <c r="BK492" s="16"/>
       <c r="BL492" s="16"/>
       <c r="BM492" s="16"/>
-    </row>
-    <row r="493" spans="1:65">
+      <c r="BN492" s="16"/>
+    </row>
+    <row r="493" spans="1:66">
       <c r="A493" s="16"/>
       <c r="AU493" s="16"/>
       <c r="AV493" s="16"/>
@@ -36758,8 +37262,9 @@
       <c r="BK493" s="16"/>
       <c r="BL493" s="16"/>
       <c r="BM493" s="16"/>
-    </row>
-    <row r="494" spans="1:65">
+      <c r="BN493" s="16"/>
+    </row>
+    <row r="494" spans="1:66">
       <c r="A494" s="16"/>
       <c r="AU494" s="16"/>
       <c r="AV494" s="16"/>
@@ -36780,8 +37285,9 @@
       <c r="BK494" s="16"/>
       <c r="BL494" s="16"/>
       <c r="BM494" s="16"/>
-    </row>
-    <row r="495" spans="1:65">
+      <c r="BN494" s="16"/>
+    </row>
+    <row r="495" spans="1:66">
       <c r="A495" s="16"/>
       <c r="AU495" s="16"/>
       <c r="AV495" s="16"/>
@@ -36802,6 +37308,7 @@
       <c r="BK495" s="16"/>
       <c r="BL495" s="16"/>
       <c r="BM495" s="16"/>
+      <c r="BN495" s="16"/>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="16"/>
@@ -37023,11 +37530,11 @@
       <c r="A568" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="B1:AT1"/>
-    <mergeCell ref="AU1:BC1"/>
-    <mergeCell ref="BD1:BK1"/>
-    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AU1:BD1"/>
+    <mergeCell ref="BE1:BL1"/>
+    <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="M2:AG2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="A1:A3"/>
@@ -37072,11 +37579,13 @@
     <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="603867(新化股份)"/>
     <hyperlink ref="C5" r:id="rId2" display="600085(同仁堂)"/>
     <hyperlink ref="C4" r:id="rId3" display="003040(楚天龙)"/>
+    <hyperlink ref="C7" r:id="rId4" display="605016(百龙创园)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -37103,27 +37612,27 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CU1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <f>SUM(入场指标!AZ4:AZ6)</f>
+        <f>SUM(入场指标!BA4:BA6)</f>
         <v>620.23766</v>
       </c>
     </row>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -3490,8 +3490,8 @@
   <sheetPr/>
   <dimension ref="A1:DD568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BB4" sqref="BB4:BB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -37597,8 +37597,8 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -37632,8 +37632,8 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <f>SUM(入场指标!BA4:BA6)</f>
-        <v>620.23766</v>
+        <f>SUM(入场指标!BA4:BA7)</f>
+        <v>744.298739999999</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="入场指标" sheetId="7" r:id="rId1"/>
@@ -1121,10 +1121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1226,25 +1226,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1255,38 +1239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,6 +1270,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1325,7 +1303,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,23 +1345,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,13 +1440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,31 +1452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,13 +1500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,13 +1548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,25 +1584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,31 +1596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,54 +1868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1927,6 +1879,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,6 +1909,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1961,145 +1961,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2113,7 +2113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2242,7 +2242,7 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2278,10 +2278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3490,8 +3490,8 @@
   <sheetPr/>
   <dimension ref="A1:DD568"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BB4" sqref="BB4:BB7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -37597,7 +37597,7 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>交易编码</t>
   </si>
@@ -748,6 +748,9 @@
     </r>
   </si>
   <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>支撑位1</t>
   </si>
   <si>
@@ -877,17 +880,11 @@
     <t>清晰</t>
   </si>
   <si>
-    <t>000006</t>
+    <t>000008</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000722(</t>
+      <t>600378(</t>
     </r>
     <r>
       <rPr>
@@ -896,7 +893,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>湖南发展</t>
+      <t>昊华科技</t>
     </r>
     <r>
       <rPr>
@@ -909,13 +906,13 @@
     </r>
   </si>
   <si>
-    <t>略清晰</t>
+    <t>12w</t>
   </si>
   <si>
-    <t>000007</t>
+    <t>5T</t>
   </si>
   <si>
-    <t>000008</t>
+    <t>略清晰</t>
   </si>
   <si>
     <t>000009</t>
@@ -1122,11 +1119,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1226,29 +1223,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,14 +1268,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1323,15 +1320,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,17 +1351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,13 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,37 +1485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,13 +1515,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,13 +1569,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,48 +1605,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1859,11 +1856,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,15 +1911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1903,15 +1922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,6 +1941,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1945,168 +1966,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2299,16 +2309,25 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2318,9 +2337,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3488,10 +3504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DD568"/>
+  <dimension ref="A1:DD566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3604,43 +3620,44 @@
         <v>4</v>
       </c>
       <c r="BN1" s="63"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="68"/>
-      <c r="CA1" s="68"/>
-      <c r="CB1" s="68"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="68"/>
-      <c r="CE1" s="68"/>
-      <c r="CF1" s="68"/>
-      <c r="CH1" s="68"/>
-      <c r="CI1" s="68"/>
-      <c r="CJ1" s="68"/>
-      <c r="CK1" s="68"/>
-      <c r="CL1" s="68"/>
-      <c r="CM1" s="68"/>
-      <c r="CN1" s="68"/>
-      <c r="CP1" s="68"/>
-      <c r="CQ1" s="68"/>
-      <c r="CR1" s="68"/>
-      <c r="CS1" s="68"/>
-      <c r="CT1" s="68"/>
-      <c r="CU1" s="68"/>
-      <c r="CV1" s="68"/>
-      <c r="CX1" s="68"/>
-      <c r="CY1" s="68"/>
-      <c r="CZ1" s="68"/>
-      <c r="DA1" s="68"/>
-      <c r="DB1" s="68"/>
-      <c r="DC1" s="68"/>
-      <c r="DD1" s="68"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="71"/>
+      <c r="CC1" s="71"/>
+      <c r="CD1" s="71"/>
+      <c r="CE1" s="71"/>
+      <c r="CF1" s="71"/>
+      <c r="CH1" s="71"/>
+      <c r="CI1" s="71"/>
+      <c r="CJ1" s="71"/>
+      <c r="CK1" s="71"/>
+      <c r="CL1" s="71"/>
+      <c r="CM1" s="71"/>
+      <c r="CN1" s="71"/>
+      <c r="CP1" s="71"/>
+      <c r="CQ1" s="71"/>
+      <c r="CR1" s="71"/>
+      <c r="CS1" s="71"/>
+      <c r="CT1" s="71"/>
+      <c r="CU1" s="71"/>
+      <c r="CV1" s="71"/>
+      <c r="CX1" s="71"/>
+      <c r="CY1" s="71"/>
+      <c r="CZ1" s="71"/>
+      <c r="DA1" s="71"/>
+      <c r="DB1" s="71"/>
+      <c r="DC1" s="71"/>
+      <c r="DD1" s="71"/>
     </row>
     <row r="2" ht="23.6" spans="1:108">
       <c r="A2" s="3"/>
@@ -3789,50 +3806,52 @@
       <c r="BL2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="65" t="s">
+      <c r="BM2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" s="65" t="s">
+      <c r="BN2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BV2" s="64"/>
-      <c r="BW2" s="64"/>
-      <c r="BY2" s="68"/>
-      <c r="BZ2" s="68"/>
-      <c r="CA2" s="68"/>
-      <c r="CB2" s="68"/>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="68"/>
-      <c r="CE2" s="68"/>
-      <c r="CF2" s="68"/>
-      <c r="CH2" s="68"/>
-      <c r="CI2" s="68"/>
-      <c r="CJ2" s="68"/>
-      <c r="CK2" s="68"/>
-      <c r="CL2" s="68"/>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="68"/>
-      <c r="CP2" s="68"/>
-      <c r="CQ2" s="68"/>
-      <c r="CR2" s="68"/>
-      <c r="CS2" s="68"/>
-      <c r="CT2" s="68"/>
-      <c r="CU2" s="68"/>
-      <c r="CV2" s="68"/>
-      <c r="CX2" s="68"/>
-      <c r="CY2" s="68"/>
-      <c r="CZ2" s="68"/>
-      <c r="DA2" s="68"/>
-      <c r="DB2" s="68"/>
-      <c r="DC2" s="68"/>
-      <c r="DD2" s="68"/>
+      <c r="BO2" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
+      <c r="BR2" s="65"/>
+      <c r="BS2" s="65"/>
+      <c r="BT2" s="65"/>
+      <c r="BU2" s="65"/>
+      <c r="BV2" s="65"/>
+      <c r="BW2" s="65"/>
+      <c r="BY2" s="71"/>
+      <c r="BZ2" s="71"/>
+      <c r="CA2" s="71"/>
+      <c r="CB2" s="71"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="71"/>
+      <c r="CF2" s="71"/>
+      <c r="CH2" s="71"/>
+      <c r="CI2" s="71"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="71"/>
+      <c r="CM2" s="71"/>
+      <c r="CN2" s="71"/>
+      <c r="CP2" s="71"/>
+      <c r="CQ2" s="71"/>
+      <c r="CR2" s="71"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="71"/>
+      <c r="CU2" s="71"/>
+      <c r="CV2" s="71"/>
+      <c r="CX2" s="71"/>
+      <c r="CY2" s="71"/>
+      <c r="CZ2" s="71"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="71"/>
+      <c r="DC2" s="71"/>
+      <c r="DD2" s="71"/>
     </row>
     <row r="3" ht="25" spans="1:108">
       <c r="A3" s="3"/>
@@ -3848,77 +3867,77 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
@@ -3947,56 +3966,56 @@
       <c r="BJ3" s="61"/>
       <c r="BK3" s="61"/>
       <c r="BL3" s="62"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
-      <c r="BU3" s="64"/>
-      <c r="BV3" s="64"/>
-      <c r="BW3" s="64"/>
-      <c r="BY3" s="68"/>
-      <c r="BZ3" s="68"/>
-      <c r="CA3" s="68"/>
-      <c r="CB3" s="68"/>
-      <c r="CC3" s="68"/>
-      <c r="CD3" s="68"/>
-      <c r="CE3" s="68"/>
-      <c r="CF3" s="68"/>
-      <c r="CH3" s="68"/>
-      <c r="CI3" s="68"/>
-      <c r="CJ3" s="68"/>
-      <c r="CK3" s="68"/>
-      <c r="CL3" s="68"/>
-      <c r="CM3" s="68"/>
-      <c r="CN3" s="68"/>
-      <c r="CP3" s="68"/>
-      <c r="CQ3" s="68"/>
-      <c r="CR3" s="68"/>
-      <c r="CS3" s="68"/>
-      <c r="CT3" s="68"/>
-      <c r="CU3" s="68"/>
-      <c r="CV3" s="68"/>
-      <c r="CX3" s="68"/>
-      <c r="CY3" s="68"/>
-      <c r="CZ3" s="68"/>
-      <c r="DA3" s="68"/>
-      <c r="DB3" s="68"/>
-      <c r="DC3" s="68"/>
-      <c r="DD3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="65"/>
+      <c r="BY3" s="71"/>
+      <c r="BZ3" s="71"/>
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="71"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="71"/>
+      <c r="CF3" s="71"/>
+      <c r="CH3" s="71"/>
+      <c r="CI3" s="71"/>
+      <c r="CJ3" s="71"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="71"/>
+      <c r="CM3" s="71"/>
+      <c r="CN3" s="71"/>
+      <c r="CP3" s="71"/>
+      <c r="CQ3" s="71"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="71"/>
+      <c r="CU3" s="71"/>
+      <c r="CV3" s="71"/>
+      <c r="CX3" s="71"/>
+      <c r="CY3" s="71"/>
+      <c r="CZ3" s="71"/>
+      <c r="DA3" s="71"/>
+      <c r="DB3" s="71"/>
+      <c r="DC3" s="71"/>
+      <c r="DD3" s="71"/>
     </row>
     <row r="4" ht="36" spans="1:66">
-      <c r="A4" s="69" t="s">
-        <v>72</v>
+      <c r="A4" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="10">
         <v>44517</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12">
         <v>22.15</v>
@@ -4017,11 +4036,11 @@
         <v>46.33</v>
       </c>
       <c r="J4" s="27">
-        <f t="shared" ref="J4:J8" si="0">(G4-H4)/H4</f>
+        <f>(G4-H4)/H4</f>
         <v>3.70695970695971</v>
       </c>
       <c r="K4" s="27">
-        <f t="shared" ref="K4:K8" si="1">(I4-G4)/I4</f>
+        <f>(I4-G4)/I4</f>
         <v>0.445283833369307</v>
       </c>
       <c r="L4" s="28"/>
@@ -4051,18 +4070,18 @@
       <c r="V4" s="28"/>
       <c r="W4" s="28"/>
       <c r="X4" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" s="35">
-        <f t="shared" ref="Y4:Y8" si="2">(I4-M4)/I4</f>
+        <f>(I4-M4)/I4</f>
         <v>0.551262680768401</v>
       </c>
       <c r="Z4" s="35">
-        <f t="shared" ref="Z4:Z8" si="3">(N4-O4)/N4</f>
+        <f>(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
       <c r="AA4" s="35">
-        <f t="shared" ref="AA4:AA8" si="4">(P4-Q4)/P4</f>
+        <f>(P4-Q4)/P4</f>
         <v>0.120922832140016</v>
       </c>
       <c r="AB4" s="35">
@@ -4070,21 +4089,21 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="AC4" s="35" t="e">
-        <f t="shared" ref="AC4:AC6" si="5">(T4-U4)/T4</f>
+        <f t="shared" ref="AC4:AC6" si="0">(T4-U4)/T4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="28"/>
       <c r="AE4" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF4" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" s="22">
         <v>28.15</v>
@@ -4093,7 +4112,7 @@
         <v>21.87</v>
       </c>
       <c r="AK4" s="23">
-        <f t="shared" ref="AK4:AK8" si="6">AI4-AJ4</f>
+        <f>AI4-AJ4</f>
         <v>6.28</v>
       </c>
       <c r="AL4" s="22">
@@ -4106,22 +4125,22 @@
         <v>32.49</v>
       </c>
       <c r="AO4" s="22">
-        <f t="shared" ref="AO4:AO8" si="7">(AL4-AM4)*100</f>
+        <f>(AL4-AM4)*100</f>
         <v>152</v>
       </c>
       <c r="AP4" s="22">
         <v>200</v>
       </c>
       <c r="AQ4" s="45">
-        <f t="shared" ref="AQ4:AQ8" si="8">(AN4-AL4)/(AL4-AM4)</f>
+        <f>(AN4-AL4)/(AL4-AM4)</f>
         <v>4.13815789473685</v>
       </c>
       <c r="AR4" s="27">
-        <f t="shared" ref="AR4:AR8" si="9">(AL4-AM4)/AL4</f>
+        <f>(AL4-AM4)/AL4</f>
         <v>0.0580152671755725</v>
       </c>
       <c r="AS4" s="27">
-        <f t="shared" ref="AS4:AS8" si="10">(AN4-AL4)/AL4</f>
+        <f>(AN4-AL4)/AL4</f>
         <v>0.240076335877863</v>
       </c>
       <c r="AT4" s="54">
@@ -4173,14 +4192,14 @@
       <c r="BN4" s="16"/>
     </row>
     <row r="5" ht="36" spans="1:66">
-      <c r="A5" s="69" t="s">
-        <v>79</v>
+      <c r="A5" s="72" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="13">
         <v>44517</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="15">
         <v>31.92</v>
@@ -4201,11 +4220,11 @@
         <v>44.42</v>
       </c>
       <c r="J5" s="27">
-        <f t="shared" si="0"/>
+        <f>(G5-H5)/H5</f>
         <v>0.467798085291558</v>
       </c>
       <c r="K5" s="27">
-        <f t="shared" si="1"/>
+        <f>(I5-G5)/I5</f>
         <v>0.240657361548852</v>
       </c>
       <c r="L5" s="29"/>
@@ -4235,18 +4254,18 @@
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
       <c r="X5" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="35">
-        <f t="shared" si="2"/>
+        <f>(I5-M5)/I5</f>
         <v>0.307068887888339</v>
       </c>
       <c r="Z5" s="36">
-        <f t="shared" si="3"/>
+        <f>(N5-O5)/N5</f>
         <v>0.106571428571429</v>
       </c>
       <c r="AA5" s="36">
-        <f t="shared" si="4"/>
+        <f>(P5-Q5)/P5</f>
         <v>0.077541642734061</v>
       </c>
       <c r="AB5" s="36">
@@ -4254,21 +4273,21 @@
         <v>0.0463207270595133</v>
       </c>
       <c r="AC5" s="35" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD5" s="28"/>
       <c r="AE5" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" s="23">
         <v>35.48</v>
@@ -4277,7 +4296,7 @@
         <v>31.36</v>
       </c>
       <c r="AK5" s="23">
-        <f t="shared" si="6"/>
+        <f>AI5-AJ5</f>
         <v>4.12</v>
       </c>
       <c r="AL5" s="23">
@@ -4290,22 +4309,22 @@
         <v>39.33</v>
       </c>
       <c r="AO5" s="22">
-        <f t="shared" si="7"/>
+        <f>(AL5-AM5)*100</f>
         <v>159</v>
       </c>
       <c r="AP5" s="23">
         <v>100</v>
       </c>
       <c r="AQ5" s="45">
-        <f t="shared" si="8"/>
+        <f>(AN5-AL5)/(AL5-AM5)</f>
         <v>3.27672955974844</v>
       </c>
       <c r="AR5" s="46">
-        <f t="shared" si="9"/>
+        <f>(AL5-AM5)/AL5</f>
         <v>0.0466002344665884</v>
       </c>
       <c r="AS5" s="46">
-        <f t="shared" si="10"/>
+        <f>(AN5-AL5)/AL5</f>
         <v>0.152696365767878</v>
       </c>
       <c r="AT5" s="56">
@@ -4357,14 +4376,14 @@
       <c r="BN5" s="16"/>
     </row>
     <row r="6" ht="36" spans="1:66">
-      <c r="A6" s="69" t="s">
-        <v>83</v>
+      <c r="A6" s="72" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="13">
         <v>44519</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="15">
         <v>28.2</v>
@@ -4385,11 +4404,11 @@
         <v>41.5</v>
       </c>
       <c r="J6" s="27">
-        <f t="shared" si="0"/>
+        <f>(G6-H6)/H6</f>
         <v>0.58030082484231</v>
       </c>
       <c r="K6" s="27">
-        <f t="shared" si="1"/>
+        <f>(I6-G6)/I6</f>
         <v>0.215180722891566</v>
       </c>
       <c r="L6" s="29"/>
@@ -4417,37 +4436,40 @@
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
       <c r="X6" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y6" s="35">
-        <f t="shared" si="2"/>
+        <f>(I6-M6)/I6</f>
         <v>0.315180722891566</v>
       </c>
       <c r="Z6" s="36">
-        <f t="shared" si="3"/>
+        <f>(N6-O6)/N6</f>
         <v>0.164265129682997</v>
       </c>
       <c r="AA6" s="36">
-        <f t="shared" si="4"/>
+        <f>(P6-Q6)/P6</f>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="36"/>
+      <c r="AB6" s="36">
+        <f>(R6-S6)/R6</f>
+        <v>1</v>
+      </c>
       <c r="AC6" s="35" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="28"/>
       <c r="AE6" s="38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF6" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG6" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" s="23">
         <v>36.21</v>
@@ -4456,7 +4478,7 @@
         <v>27.35</v>
       </c>
       <c r="AK6" s="23">
-        <f t="shared" si="6"/>
+        <f>AI6-AJ6</f>
         <v>8.86</v>
       </c>
       <c r="AL6" s="23">
@@ -4469,22 +4491,22 @@
         <v>36.22</v>
       </c>
       <c r="AO6" s="22">
-        <f t="shared" si="7"/>
+        <f>(AL6-AM6)*100</f>
         <v>176</v>
       </c>
       <c r="AP6" s="23">
         <v>100</v>
       </c>
       <c r="AQ6" s="45">
-        <f t="shared" si="8"/>
+        <f>(AN6-AL6)/(AL6-AM6)</f>
         <v>2.02840909090909</v>
       </c>
       <c r="AR6" s="46">
-        <f t="shared" si="9"/>
+        <f>(AL6-AM6)/AL6</f>
         <v>0.0539050535987748</v>
       </c>
       <c r="AS6" s="46">
-        <f t="shared" si="10"/>
+        <f>(AN6-AL6)/AL6</f>
         <v>0.109341500765697</v>
       </c>
       <c r="AT6" s="56">
@@ -4536,14 +4558,14 @@
       <c r="BN6" s="16"/>
     </row>
     <row r="7" ht="36" spans="1:66">
-      <c r="A7" s="70" t="s">
-        <v>88</v>
+      <c r="A7" s="73" t="s">
+        <v>89</v>
       </c>
       <c r="B7" s="17">
         <v>44522</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="16">
         <v>28.37</v>
@@ -4564,11 +4586,11 @@
         <v>48.5</v>
       </c>
       <c r="J7" s="27">
-        <f t="shared" si="0"/>
+        <f>(G7-H7)/H7</f>
         <v>0.692702394526796</v>
       </c>
       <c r="K7" s="27">
-        <f t="shared" si="1"/>
+        <f>(I7-G7)/I7</f>
         <v>0.387835051546392</v>
       </c>
       <c r="L7" s="16"/>
@@ -4594,34 +4616,40 @@
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="35">
-        <f t="shared" si="2"/>
+        <f>(I7-M7)/I7</f>
         <v>0.502886597938144</v>
       </c>
       <c r="Z7" s="36">
-        <f t="shared" si="3"/>
+        <f>(N7-O7)/N7</f>
         <v>0.341719077568134</v>
       </c>
       <c r="AA7" s="36">
-        <f t="shared" si="4"/>
+        <f>(P7-Q7)/P7</f>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="16"/>
+      <c r="AB7" s="36" t="e">
+        <f>(R7-S7)/R7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="35" t="e">
+        <f>(T7-U7)/T7</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH7" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" s="16">
         <v>32.43</v>
@@ -4630,7 +4658,7 @@
         <v>26.16</v>
       </c>
       <c r="AK7" s="23">
-        <f t="shared" si="6"/>
+        <f>AI7-AJ7</f>
         <v>6.27</v>
       </c>
       <c r="AL7" s="16">
@@ -4643,7 +4671,7 @@
         <v>38.71</v>
       </c>
       <c r="AO7" s="22">
-        <f t="shared" si="7"/>
+        <f>(AL7-AM7)*100</f>
         <v>131</v>
       </c>
       <c r="AP7" s="16">
@@ -4651,15 +4679,15 @@
         <v>200</v>
       </c>
       <c r="AQ7" s="45">
-        <f t="shared" si="8"/>
+        <f>(AN7-AL7)/(AL7-AM7)</f>
         <v>6.14503816793894</v>
       </c>
       <c r="AR7" s="46">
-        <f t="shared" si="9"/>
+        <f>(AL7-AM7)/AL7</f>
         <v>0.042726679712981</v>
       </c>
       <c r="AS7" s="46">
-        <f t="shared" si="10"/>
+        <f>(AN7-AL7)/AL7</f>
         <v>0.262557077625571</v>
       </c>
       <c r="AT7" s="16">
@@ -4711,134 +4739,147 @@
       <c r="BN7" s="16"/>
     </row>
     <row r="8" ht="36" spans="1:66">
-      <c r="A8" s="70" t="s">
-        <v>91</v>
+      <c r="A8" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="17">
-        <v>44522</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>92</v>
+        <v>44524</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="16">
-        <v>7.01</v>
+        <v>27.92</v>
       </c>
       <c r="E8" s="16">
-        <v>7.12</v>
+        <v>28.99</v>
       </c>
       <c r="F8" s="16">
-        <v>7.44</v>
+        <v>32.33</v>
       </c>
       <c r="G8" s="16">
-        <v>7.74</v>
+        <v>34.46</v>
       </c>
       <c r="H8" s="16">
-        <v>5.47</v>
+        <v>18.9</v>
       </c>
       <c r="I8" s="16">
-        <v>9.59</v>
+        <v>39.36</v>
       </c>
       <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>0.414990859232176</v>
+        <f>(G8-H8)/H8</f>
+        <v>0.823280423280424</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" si="1"/>
-        <v>0.192909280500521</v>
+        <f>(I8-G8)/I8</f>
+        <v>0.124491869918699</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16">
-        <v>6.06</v>
+        <v>28.2</v>
       </c>
       <c r="N8" s="16">
-        <v>8.34</v>
+        <v>32.04</v>
       </c>
       <c r="O8" s="16">
-        <v>6.68</v>
+        <v>28.34</v>
       </c>
       <c r="P8" s="16">
-        <v>7.95</v>
+        <v>31.31</v>
       </c>
       <c r="Q8" s="16">
-        <v>7.31</v>
-      </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+        <v>28.81</v>
+      </c>
+      <c r="R8" s="16">
+        <v>33.27</v>
+      </c>
+      <c r="S8" s="16">
+        <v>30.72</v>
+      </c>
+      <c r="T8" s="16">
+        <v>36.38</v>
+      </c>
+      <c r="U8" s="16">
+        <v>33.9</v>
+      </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="Y8" s="35">
-        <f t="shared" si="2"/>
-        <v>0.368091762252346</v>
+        <f>(I8-M8)/I8</f>
+        <v>0.283536585365854</v>
       </c>
       <c r="Z8" s="36">
-        <f t="shared" si="3"/>
-        <v>0.199040767386091</v>
+        <f>(N8-O8)/N8</f>
+        <v>0.115480649188514</v>
       </c>
       <c r="AA8" s="36">
-        <f t="shared" si="4"/>
-        <v>0.0805031446540881</v>
-      </c>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
+        <f>(P8-Q8)/P8</f>
+        <v>0.079846694346854</v>
+      </c>
+      <c r="AB8" s="36">
+        <f>(R8-S8)/R8</f>
+        <v>0.0766456266907125</v>
+      </c>
+      <c r="AC8" s="35">
+        <f>(T8-U8)/T8</f>
+        <v>0.0681693238042882</v>
+      </c>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" s="40" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="AG8" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="AH8" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" s="16">
-        <v>8.43</v>
+        <v>37.65</v>
       </c>
       <c r="AJ8" s="16">
-        <v>6.78</v>
+        <v>28.77</v>
       </c>
       <c r="AK8" s="23">
-        <f t="shared" si="6"/>
-        <v>1.65</v>
+        <f>AI8-AJ8</f>
+        <v>8.88</v>
       </c>
       <c r="AL8" s="16">
-        <v>8.03</v>
+        <v>35.99</v>
       </c>
       <c r="AM8" s="16">
-        <v>7.66</v>
+        <v>33.9</v>
       </c>
       <c r="AN8" s="16">
-        <v>9.31</v>
+        <v>40.35</v>
       </c>
       <c r="AO8" s="22">
-        <f t="shared" si="7"/>
-        <v>36.9999999999999</v>
+        <f>(AL8-AM8)*100</f>
+        <v>209</v>
       </c>
       <c r="AP8" s="16">
-        <f>FLOOR(300/(AL8-AM8),100)</f>
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="AQ8" s="45">
-        <f t="shared" si="8"/>
-        <v>3.45945945945947</v>
+        <f>(AN8-AL8)/(AL8-AM8)</f>
+        <v>2.08612440191387</v>
       </c>
       <c r="AR8" s="46">
-        <f t="shared" si="9"/>
-        <v>0.046077210460772</v>
+        <f>(AL8-AM8)/AL8</f>
+        <v>0.0580716865796055</v>
       </c>
       <c r="AS8" s="46">
-        <f t="shared" si="10"/>
-        <v>0.159402241594023</v>
+        <f>(AN8-AL8)/AL8</f>
+        <v>0.121144762434009</v>
       </c>
       <c r="AT8" s="16">
-        <v>32.3</v>
+        <v>37.83</v>
       </c>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
@@ -4862,12 +4903,10 @@
       <c r="BN8" s="16"/>
     </row>
     <row r="9" ht="13" spans="1:66">
-      <c r="A9" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="17">
-        <v>44523</v>
-      </c>
+      <c r="A9" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -4933,8 +4972,8 @@
       <c r="BN9" s="16"/>
     </row>
     <row r="10" ht="13" spans="1:66">
-      <c r="A10" s="70" t="s">
-        <v>95</v>
+      <c r="A10" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -5002,8 +5041,8 @@
       <c r="BN10" s="16"/>
     </row>
     <row r="11" ht="13" spans="1:66">
-      <c r="A11" s="70" t="s">
-        <v>96</v>
+      <c r="A11" s="73" t="s">
+        <v>99</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -5071,8 +5110,8 @@
       <c r="BN11" s="16"/>
     </row>
     <row r="12" ht="13" spans="1:66">
-      <c r="A12" s="70" t="s">
-        <v>97</v>
+      <c r="A12" s="73" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -5140,8 +5179,8 @@
       <c r="BN12" s="16"/>
     </row>
     <row r="13" ht="13" spans="1:66">
-      <c r="A13" s="70" t="s">
-        <v>98</v>
+      <c r="A13" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5209,8 +5248,8 @@
       <c r="BN13" s="16"/>
     </row>
     <row r="14" ht="13" spans="1:66">
-      <c r="A14" s="70" t="s">
-        <v>99</v>
+      <c r="A14" s="73" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5278,8 +5317,8 @@
       <c r="BN14" s="16"/>
     </row>
     <row r="15" ht="13" spans="1:66">
-      <c r="A15" s="70" t="s">
-        <v>100</v>
+      <c r="A15" s="73" t="s">
+        <v>103</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -5347,8 +5386,8 @@
       <c r="BN15" s="16"/>
     </row>
     <row r="16" ht="13" spans="1:66">
-      <c r="A16" s="70" t="s">
-        <v>101</v>
+      <c r="A16" s="73" t="s">
+        <v>104</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5416,8 +5455,8 @@
       <c r="BN16" s="16"/>
     </row>
     <row r="17" ht="13" spans="1:66">
-      <c r="A17" s="70" t="s">
-        <v>102</v>
+      <c r="A17" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5485,8 +5524,8 @@
       <c r="BN17" s="16"/>
     </row>
     <row r="18" ht="13" spans="1:66">
-      <c r="A18" s="70" t="s">
-        <v>103</v>
+      <c r="A18" s="73" t="s">
+        <v>106</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -5554,8 +5593,8 @@
       <c r="BN18" s="16"/>
     </row>
     <row r="19" ht="13" spans="1:66">
-      <c r="A19" s="70" t="s">
-        <v>104</v>
+      <c r="A19" s="73" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5623,8 +5662,8 @@
       <c r="BN19" s="16"/>
     </row>
     <row r="20" ht="13" spans="1:66">
-      <c r="A20" s="70" t="s">
-        <v>105</v>
+      <c r="A20" s="73" t="s">
+        <v>108</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5692,8 +5731,8 @@
       <c r="BN20" s="16"/>
     </row>
     <row r="21" ht="13" spans="1:66">
-      <c r="A21" s="70" t="s">
-        <v>106</v>
+      <c r="A21" s="73" t="s">
+        <v>109</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5761,8 +5800,8 @@
       <c r="BN21" s="16"/>
     </row>
     <row r="22" ht="13" spans="1:66">
-      <c r="A22" s="70" t="s">
-        <v>107</v>
+      <c r="A22" s="73" t="s">
+        <v>110</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5830,8 +5869,8 @@
       <c r="BN22" s="16"/>
     </row>
     <row r="23" ht="13" spans="1:66">
-      <c r="A23" s="70" t="s">
-        <v>108</v>
+      <c r="A23" s="73" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5899,8 +5938,8 @@
       <c r="BN23" s="16"/>
     </row>
     <row r="24" ht="13" spans="1:66">
-      <c r="A24" s="70" t="s">
-        <v>109</v>
+      <c r="A24" s="73" t="s">
+        <v>112</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5968,8 +6007,8 @@
       <c r="BN24" s="16"/>
     </row>
     <row r="25" ht="13" spans="1:66">
-      <c r="A25" s="70" t="s">
-        <v>110</v>
+      <c r="A25" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6037,8 +6076,8 @@
       <c r="BN25" s="16"/>
     </row>
     <row r="26" ht="13" spans="1:66">
-      <c r="A26" s="70" t="s">
-        <v>111</v>
+      <c r="A26" s="73" t="s">
+        <v>114</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6106,8 +6145,8 @@
       <c r="BN26" s="16"/>
     </row>
     <row r="27" ht="13" spans="1:66">
-      <c r="A27" s="70" t="s">
-        <v>112</v>
+      <c r="A27" s="73" t="s">
+        <v>115</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6175,8 +6214,8 @@
       <c r="BN27" s="16"/>
     </row>
     <row r="28" ht="13" spans="1:66">
-      <c r="A28" s="70" t="s">
-        <v>113</v>
+      <c r="A28" s="73" t="s">
+        <v>116</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6244,8 +6283,8 @@
       <c r="BN28" s="16"/>
     </row>
     <row r="29" ht="13" spans="1:66">
-      <c r="A29" s="70" t="s">
-        <v>114</v>
+      <c r="A29" s="73" t="s">
+        <v>117</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6313,8 +6352,8 @@
       <c r="BN29" s="16"/>
     </row>
     <row r="30" ht="13" spans="1:66">
-      <c r="A30" s="70" t="s">
-        <v>115</v>
+      <c r="A30" s="73" t="s">
+        <v>118</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6382,8 +6421,8 @@
       <c r="BN30" s="16"/>
     </row>
     <row r="31" ht="13" spans="1:66">
-      <c r="A31" s="70" t="s">
-        <v>116</v>
+      <c r="A31" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6451,8 +6490,8 @@
       <c r="BN31" s="16"/>
     </row>
     <row r="32" ht="13" spans="1:66">
-      <c r="A32" s="70" t="s">
-        <v>117</v>
+      <c r="A32" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6520,8 +6559,8 @@
       <c r="BN32" s="16"/>
     </row>
     <row r="33" ht="13" spans="1:66">
-      <c r="A33" s="70" t="s">
-        <v>118</v>
+      <c r="A33" s="73" t="s">
+        <v>121</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6589,8 +6628,8 @@
       <c r="BN33" s="16"/>
     </row>
     <row r="34" ht="13" spans="1:66">
-      <c r="A34" s="70" t="s">
-        <v>119</v>
+      <c r="A34" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6658,8 +6697,8 @@
       <c r="BN34" s="16"/>
     </row>
     <row r="35" ht="13" spans="1:66">
-      <c r="A35" s="70" t="s">
-        <v>120</v>
+      <c r="A35" s="73" t="s">
+        <v>123</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6727,8 +6766,8 @@
       <c r="BN35" s="16"/>
     </row>
     <row r="36" ht="13" spans="1:66">
-      <c r="A36" s="70" t="s">
-        <v>121</v>
+      <c r="A36" s="73" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6796,8 +6835,8 @@
       <c r="BN36" s="16"/>
     </row>
     <row r="37" ht="13" spans="1:66">
-      <c r="A37" s="70" t="s">
-        <v>122</v>
+      <c r="A37" s="73" t="s">
+        <v>125</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -6865,8 +6904,8 @@
       <c r="BN37" s="16"/>
     </row>
     <row r="38" ht="13" spans="1:66">
-      <c r="A38" s="70" t="s">
-        <v>123</v>
+      <c r="A38" s="73" t="s">
+        <v>126</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -6934,8 +6973,8 @@
       <c r="BN38" s="16"/>
     </row>
     <row r="39" ht="13" spans="1:66">
-      <c r="A39" s="70" t="s">
-        <v>124</v>
+      <c r="A39" s="73" t="s">
+        <v>127</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -7003,8 +7042,8 @@
       <c r="BN39" s="16"/>
     </row>
     <row r="40" ht="13" spans="1:66">
-      <c r="A40" s="70" t="s">
-        <v>125</v>
+      <c r="A40" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7072,8 +7111,8 @@
       <c r="BN40" s="16"/>
     </row>
     <row r="41" ht="13" spans="1:66">
-      <c r="A41" s="70" t="s">
-        <v>126</v>
+      <c r="A41" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -7141,8 +7180,8 @@
       <c r="BN41" s="16"/>
     </row>
     <row r="42" ht="13" spans="1:66">
-      <c r="A42" s="70" t="s">
-        <v>127</v>
+      <c r="A42" s="73" t="s">
+        <v>130</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -7210,8 +7249,8 @@
       <c r="BN42" s="16"/>
     </row>
     <row r="43" ht="13" spans="1:66">
-      <c r="A43" s="70" t="s">
-        <v>128</v>
+      <c r="A43" s="73" t="s">
+        <v>131</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -7279,8 +7318,8 @@
       <c r="BN43" s="16"/>
     </row>
     <row r="44" ht="13" spans="1:66">
-      <c r="A44" s="70" t="s">
-        <v>129</v>
+      <c r="A44" s="73" t="s">
+        <v>132</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -7348,8 +7387,8 @@
       <c r="BN44" s="16"/>
     </row>
     <row r="45" ht="13" spans="1:66">
-      <c r="A45" s="70" t="s">
-        <v>130</v>
+      <c r="A45" s="73" t="s">
+        <v>133</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -7417,8 +7456,8 @@
       <c r="BN45" s="16"/>
     </row>
     <row r="46" ht="13" spans="1:66">
-      <c r="A46" s="70" t="s">
-        <v>131</v>
+      <c r="A46" s="73" t="s">
+        <v>134</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -7486,8 +7525,8 @@
       <c r="BN46" s="16"/>
     </row>
     <row r="47" ht="13" spans="1:66">
-      <c r="A47" s="70" t="s">
-        <v>132</v>
+      <c r="A47" s="73" t="s">
+        <v>135</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -7555,8 +7594,8 @@
       <c r="BN47" s="16"/>
     </row>
     <row r="48" ht="13" spans="1:66">
-      <c r="A48" s="70" t="s">
-        <v>133</v>
+      <c r="A48" s="73" t="s">
+        <v>136</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -7624,8 +7663,8 @@
       <c r="BN48" s="16"/>
     </row>
     <row r="49" ht="13" spans="1:66">
-      <c r="A49" s="70" t="s">
-        <v>134</v>
+      <c r="A49" s="73" t="s">
+        <v>137</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -7693,8 +7732,8 @@
       <c r="BN49" s="16"/>
     </row>
     <row r="50" ht="13" spans="1:66">
-      <c r="A50" s="70" t="s">
-        <v>135</v>
+      <c r="A50" s="73" t="s">
+        <v>138</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -7762,8 +7801,8 @@
       <c r="BN50" s="16"/>
     </row>
     <row r="51" ht="13" spans="1:66">
-      <c r="A51" s="70" t="s">
-        <v>136</v>
+      <c r="A51" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -7831,8 +7870,8 @@
       <c r="BN51" s="16"/>
     </row>
     <row r="52" ht="13" spans="1:66">
-      <c r="A52" s="70" t="s">
-        <v>137</v>
+      <c r="A52" s="73" t="s">
+        <v>140</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7900,8 +7939,8 @@
       <c r="BN52" s="16"/>
     </row>
     <row r="53" ht="13" spans="1:66">
-      <c r="A53" s="70" t="s">
-        <v>138</v>
+      <c r="A53" s="73" t="s">
+        <v>141</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -7969,8 +8008,8 @@
       <c r="BN53" s="16"/>
     </row>
     <row r="54" ht="13" spans="1:66">
-      <c r="A54" s="70" t="s">
-        <v>139</v>
+      <c r="A54" s="73" t="s">
+        <v>142</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -8038,8 +8077,8 @@
       <c r="BN54" s="16"/>
     </row>
     <row r="55" ht="13" spans="1:66">
-      <c r="A55" s="70" t="s">
-        <v>140</v>
+      <c r="A55" s="73" t="s">
+        <v>143</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -8107,8 +8146,8 @@
       <c r="BN55" s="16"/>
     </row>
     <row r="56" ht="13" spans="1:66">
-      <c r="A56" s="70" t="s">
-        <v>141</v>
+      <c r="A56" s="73" t="s">
+        <v>144</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -8176,8 +8215,8 @@
       <c r="BN56" s="16"/>
     </row>
     <row r="57" ht="13" spans="1:66">
-      <c r="A57" s="70" t="s">
-        <v>142</v>
+      <c r="A57" s="73" t="s">
+        <v>145</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -8245,8 +8284,8 @@
       <c r="BN57" s="16"/>
     </row>
     <row r="58" ht="13" spans="1:66">
-      <c r="A58" s="70" t="s">
-        <v>143</v>
+      <c r="A58" s="73" t="s">
+        <v>146</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -8314,8 +8353,8 @@
       <c r="BN58" s="16"/>
     </row>
     <row r="59" ht="13" spans="1:66">
-      <c r="A59" s="70" t="s">
-        <v>144</v>
+      <c r="A59" s="73" t="s">
+        <v>147</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8383,8 +8422,8 @@
       <c r="BN59" s="16"/>
     </row>
     <row r="60" ht="13" spans="1:66">
-      <c r="A60" s="70" t="s">
-        <v>145</v>
+      <c r="A60" s="73" t="s">
+        <v>148</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -8452,8 +8491,8 @@
       <c r="BN60" s="16"/>
     </row>
     <row r="61" ht="13" spans="1:66">
-      <c r="A61" s="70" t="s">
-        <v>146</v>
+      <c r="A61" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8521,8 +8560,8 @@
       <c r="BN61" s="16"/>
     </row>
     <row r="62" ht="13" spans="1:66">
-      <c r="A62" s="70" t="s">
-        <v>147</v>
+      <c r="A62" s="73" t="s">
+        <v>150</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -8590,8 +8629,8 @@
       <c r="BN62" s="16"/>
     </row>
     <row r="63" ht="13" spans="1:66">
-      <c r="A63" s="70" t="s">
-        <v>148</v>
+      <c r="A63" s="73" t="s">
+        <v>151</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -8659,8 +8698,8 @@
       <c r="BN63" s="16"/>
     </row>
     <row r="64" ht="13" spans="1:66">
-      <c r="A64" s="70" t="s">
-        <v>149</v>
+      <c r="A64" s="73" t="s">
+        <v>152</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -8728,8 +8767,8 @@
       <c r="BN64" s="16"/>
     </row>
     <row r="65" ht="13" spans="1:66">
-      <c r="A65" s="70" t="s">
-        <v>150</v>
+      <c r="A65" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -8797,8 +8836,8 @@
       <c r="BN65" s="16"/>
     </row>
     <row r="66" ht="13" spans="1:66">
-      <c r="A66" s="70" t="s">
-        <v>151</v>
+      <c r="A66" s="73" t="s">
+        <v>154</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -8866,8 +8905,8 @@
       <c r="BN66" s="16"/>
     </row>
     <row r="67" ht="13" spans="1:66">
-      <c r="A67" s="70" t="s">
-        <v>152</v>
+      <c r="A67" s="73" t="s">
+        <v>155</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8935,8 +8974,8 @@
       <c r="BN67" s="16"/>
     </row>
     <row r="68" ht="13" spans="1:66">
-      <c r="A68" s="70" t="s">
-        <v>153</v>
+      <c r="A68" s="73" t="s">
+        <v>156</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -9004,8 +9043,8 @@
       <c r="BN68" s="16"/>
     </row>
     <row r="69" ht="13" spans="1:66">
-      <c r="A69" s="70" t="s">
-        <v>154</v>
+      <c r="A69" s="73" t="s">
+        <v>157</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -9072,10 +9111,8 @@
       <c r="BM69" s="16"/>
       <c r="BN69" s="16"/>
     </row>
-    <row r="70" ht="13" spans="1:66">
-      <c r="A70" s="70" t="s">
-        <v>155</v>
-      </c>
+    <row r="70" spans="1:66">
+      <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -9141,10 +9178,8 @@
       <c r="BM70" s="16"/>
       <c r="BN70" s="16"/>
     </row>
-    <row r="71" ht="13" spans="1:66">
-      <c r="A71" s="70" t="s">
-        <v>156</v>
-      </c>
+    <row r="71" spans="1:66">
+      <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -37017,50 +37052,6 @@
     </row>
     <row r="487" spans="1:66">
       <c r="A487" s="16"/>
-      <c r="B487" s="16"/>
-      <c r="C487" s="16"/>
-      <c r="D487" s="16"/>
-      <c r="E487" s="16"/>
-      <c r="F487" s="16"/>
-      <c r="G487" s="16"/>
-      <c r="H487" s="16"/>
-      <c r="I487" s="16"/>
-      <c r="J487" s="16"/>
-      <c r="K487" s="16"/>
-      <c r="L487" s="16"/>
-      <c r="M487" s="16"/>
-      <c r="N487" s="16"/>
-      <c r="O487" s="16"/>
-      <c r="P487" s="16"/>
-      <c r="Q487" s="16"/>
-      <c r="R487" s="16"/>
-      <c r="S487" s="16"/>
-      <c r="T487" s="16"/>
-      <c r="U487" s="16"/>
-      <c r="V487" s="16"/>
-      <c r="W487" s="16"/>
-      <c r="X487" s="16"/>
-      <c r="Y487" s="16"/>
-      <c r="Z487" s="16"/>
-      <c r="AA487" s="16"/>
-      <c r="AB487" s="16"/>
-      <c r="AC487" s="16"/>
-      <c r="AD487" s="16"/>
-      <c r="AE487" s="16"/>
-      <c r="AF487" s="16"/>
-      <c r="AG487" s="16"/>
-      <c r="AH487" s="16"/>
-      <c r="AI487" s="16"/>
-      <c r="AJ487" s="16"/>
-      <c r="AK487" s="16"/>
-      <c r="AL487" s="16"/>
-      <c r="AM487" s="16"/>
-      <c r="AN487" s="16"/>
-      <c r="AO487" s="16"/>
-      <c r="AP487" s="16"/>
-      <c r="AQ487" s="16"/>
-      <c r="AR487" s="16"/>
-      <c r="AS487" s="16"/>
       <c r="AU487" s="16"/>
       <c r="AV487" s="16"/>
       <c r="AW487" s="16"/>
@@ -37084,50 +37075,6 @@
     </row>
     <row r="488" spans="1:66">
       <c r="A488" s="16"/>
-      <c r="B488" s="16"/>
-      <c r="C488" s="16"/>
-      <c r="D488" s="16"/>
-      <c r="E488" s="16"/>
-      <c r="F488" s="16"/>
-      <c r="G488" s="16"/>
-      <c r="H488" s="16"/>
-      <c r="I488" s="16"/>
-      <c r="J488" s="16"/>
-      <c r="K488" s="16"/>
-      <c r="L488" s="16"/>
-      <c r="M488" s="16"/>
-      <c r="N488" s="16"/>
-      <c r="O488" s="16"/>
-      <c r="P488" s="16"/>
-      <c r="Q488" s="16"/>
-      <c r="R488" s="16"/>
-      <c r="S488" s="16"/>
-      <c r="T488" s="16"/>
-      <c r="U488" s="16"/>
-      <c r="V488" s="16"/>
-      <c r="W488" s="16"/>
-      <c r="X488" s="16"/>
-      <c r="Y488" s="16"/>
-      <c r="Z488" s="16"/>
-      <c r="AA488" s="16"/>
-      <c r="AB488" s="16"/>
-      <c r="AC488" s="16"/>
-      <c r="AD488" s="16"/>
-      <c r="AE488" s="16"/>
-      <c r="AF488" s="16"/>
-      <c r="AG488" s="16"/>
-      <c r="AH488" s="16"/>
-      <c r="AI488" s="16"/>
-      <c r="AJ488" s="16"/>
-      <c r="AK488" s="16"/>
-      <c r="AL488" s="16"/>
-      <c r="AM488" s="16"/>
-      <c r="AN488" s="16"/>
-      <c r="AO488" s="16"/>
-      <c r="AP488" s="16"/>
-      <c r="AQ488" s="16"/>
-      <c r="AR488" s="16"/>
-      <c r="AS488" s="16"/>
       <c r="AU488" s="16"/>
       <c r="AV488" s="16"/>
       <c r="AW488" s="16"/>
@@ -37264,51 +37211,11 @@
       <c r="BM493" s="16"/>
       <c r="BN493" s="16"/>
     </row>
-    <row r="494" spans="1:66">
+    <row r="494" spans="1:1">
       <c r="A494" s="16"/>
-      <c r="AU494" s="16"/>
-      <c r="AV494" s="16"/>
-      <c r="AW494" s="16"/>
-      <c r="AX494" s="16"/>
-      <c r="AY494" s="16"/>
-      <c r="AZ494" s="16"/>
-      <c r="BA494" s="16"/>
-      <c r="BB494" s="16"/>
-      <c r="BC494" s="16"/>
-      <c r="BD494" s="16"/>
-      <c r="BE494" s="16"/>
-      <c r="BF494" s="16"/>
-      <c r="BG494" s="16"/>
-      <c r="BH494" s="16"/>
-      <c r="BI494" s="16"/>
-      <c r="BJ494" s="16"/>
-      <c r="BK494" s="16"/>
-      <c r="BL494" s="16"/>
-      <c r="BM494" s="16"/>
-      <c r="BN494" s="16"/>
-    </row>
-    <row r="495" spans="1:66">
+    </row>
+    <row r="495" spans="1:1">
       <c r="A495" s="16"/>
-      <c r="AU495" s="16"/>
-      <c r="AV495" s="16"/>
-      <c r="AW495" s="16"/>
-      <c r="AX495" s="16"/>
-      <c r="AY495" s="16"/>
-      <c r="AZ495" s="16"/>
-      <c r="BA495" s="16"/>
-      <c r="BB495" s="16"/>
-      <c r="BC495" s="16"/>
-      <c r="BD495" s="16"/>
-      <c r="BE495" s="16"/>
-      <c r="BF495" s="16"/>
-      <c r="BG495" s="16"/>
-      <c r="BH495" s="16"/>
-      <c r="BI495" s="16"/>
-      <c r="BJ495" s="16"/>
-      <c r="BK495" s="16"/>
-      <c r="BL495" s="16"/>
-      <c r="BM495" s="16"/>
-      <c r="BN495" s="16"/>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="16"/>
@@ -37522,19 +37429,13 @@
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="16"/>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" s="16"/>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="49">
     <mergeCell ref="B1:AT1"/>
     <mergeCell ref="AU1:BD1"/>
     <mergeCell ref="BE1:BL1"/>
-    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BM1:BO1"/>
     <mergeCell ref="M2:AG2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="A1:A3"/>
@@ -37612,22 +37513,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CU1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>交易编码</t>
   </si>
@@ -83,7 +83,7 @@
 (25%内最好)</t>
   </si>
   <si>
-    <t>相对实力排名（除了实力排名外，应该关注股价的表现是否优于其他公司且同时出现VCP特征）</t>
+    <t>相对实力排名（除了实力排名外，应该关注股价的表现是否优于其他公司）</t>
   </si>
   <si>
     <t>技术足迹</t>
@@ -808,7 +808,8 @@
     <t>收缩数量</t>
   </si>
   <si>
-    <t>成交量减少情况</t>
+    <t>最后收缩的成交量
+(应低于50天的平均水平且有一到两天交易量极低)</t>
   </si>
   <si>
     <t>3-C形态清晰度</t>
@@ -832,7 +833,7 @@
     <t>24w</t>
   </si>
   <si>
-    <t>4T</t>
+    <t>5T</t>
   </si>
   <si>
     <t>减少不明显，空头依然较强</t>
@@ -848,6 +849,9 @@
   </si>
   <si>
     <t>600085(同仁堂)</t>
+  </si>
+  <si>
+    <t>4T</t>
   </si>
   <si>
     <t>减少一般，空头仍然较强</t>
@@ -880,11 +884,17 @@
     <t>清晰</t>
   </si>
   <si>
-    <t>000008</t>
+    <t>000010</t>
   </si>
   <si>
     <r>
-      <t>600378(</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>603663(</t>
     </r>
     <r>
       <rPr>
@@ -893,7 +903,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>昊华科技</t>
+      <t>三祥新材</t>
     </r>
     <r>
       <rPr>
@@ -909,40 +919,144 @@
     <t>12w</t>
   </si>
   <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>略清晰</t>
-  </si>
-  <si>
-    <t>000009</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>000012</t>
-  </si>
-  <si>
-    <t>000013</t>
+    <t>未明显减少</t>
   </si>
   <si>
     <t>000014</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>600392(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盛和资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000015</t>
   </si>
   <si>
-    <t>000016</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>600399(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抚顺特钢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>略明显</t>
   </si>
   <si>
     <t>000017</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>601677(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明泰铝业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>000018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002223(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼跃医疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>16w</t>
+  </si>
+  <si>
+    <t>不是很明显</t>
   </si>
   <si>
     <t>000019</t>
@@ -1118,12 +1232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1189,14 +1303,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -1223,7 +1337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,18 +1351,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1266,6 +1373,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1274,27 +1388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1320,9 +1418,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,7 +1443,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,7 +1451,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,7 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1563,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,49 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,19 +1647,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,25 +1701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,43 +1725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,21 +2025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1941,13 +2040,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1966,102 +2069,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2070,60 +2184,60 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2195,6 +2309,9 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,7 +2324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2228,31 +2345,28 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,10 +2378,10 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2288,10 +2402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2300,7 +2414,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,19 +2423,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3504,10 +3615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DD566"/>
+  <dimension ref="A1:DD560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -3521,6 +3632,7 @@
     <col min="12" max="12" width="40.7767857142857" customWidth="1"/>
     <col min="25" max="25" width="9.85714285714286"/>
     <col min="30" max="30" width="12.7857142857143"/>
+    <col min="32" max="32" width="22.0178571428571" customWidth="1"/>
     <col min="34" max="34" width="13.8303571428571" customWidth="1"/>
     <col min="38" max="38" width="11.9017857142857" customWidth="1"/>
     <col min="39" max="39" width="13.5357142857143" customWidth="1"/>
@@ -3620,44 +3732,44 @@
         <v>4</v>
       </c>
       <c r="BN1" s="63"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BY1" s="71"/>
-      <c r="BZ1" s="71"/>
-      <c r="CA1" s="71"/>
-      <c r="CB1" s="71"/>
-      <c r="CC1" s="71"/>
-      <c r="CD1" s="71"/>
-      <c r="CE1" s="71"/>
-      <c r="CF1" s="71"/>
-      <c r="CH1" s="71"/>
-      <c r="CI1" s="71"/>
-      <c r="CJ1" s="71"/>
-      <c r="CK1" s="71"/>
-      <c r="CL1" s="71"/>
-      <c r="CM1" s="71"/>
-      <c r="CN1" s="71"/>
-      <c r="CP1" s="71"/>
-      <c r="CQ1" s="71"/>
-      <c r="CR1" s="71"/>
-      <c r="CS1" s="71"/>
-      <c r="CT1" s="71"/>
-      <c r="CU1" s="71"/>
-      <c r="CV1" s="71"/>
-      <c r="CX1" s="71"/>
-      <c r="CY1" s="71"/>
-      <c r="CZ1" s="71"/>
-      <c r="DA1" s="71"/>
-      <c r="DB1" s="71"/>
-      <c r="DC1" s="71"/>
-      <c r="DD1" s="71"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="70"/>
+      <c r="CB1" s="70"/>
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="70"/>
+      <c r="CE1" s="70"/>
+      <c r="CF1" s="70"/>
+      <c r="CH1" s="70"/>
+      <c r="CI1" s="70"/>
+      <c r="CJ1" s="70"/>
+      <c r="CK1" s="70"/>
+      <c r="CL1" s="70"/>
+      <c r="CM1" s="70"/>
+      <c r="CN1" s="70"/>
+      <c r="CP1" s="70"/>
+      <c r="CQ1" s="70"/>
+      <c r="CR1" s="70"/>
+      <c r="CS1" s="70"/>
+      <c r="CT1" s="70"/>
+      <c r="CU1" s="70"/>
+      <c r="CV1" s="70"/>
+      <c r="CX1" s="70"/>
+      <c r="CY1" s="70"/>
+      <c r="CZ1" s="70"/>
+      <c r="DA1" s="70"/>
+      <c r="DB1" s="70"/>
+      <c r="DC1" s="70"/>
+      <c r="DD1" s="70"/>
     </row>
     <row r="2" ht="23.6" spans="1:108">
       <c r="A2" s="3"/>
@@ -3691,53 +3803,53 @@
       <c r="K2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
       <c r="AH2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="AI2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="42" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AO2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AP2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="AQ2" s="20" t="s">
@@ -3806,54 +3918,54 @@
       <c r="BL2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="66" t="s">
+      <c r="BM2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="BN2" s="66" t="s">
+      <c r="BN2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="BO2" s="67" t="s">
+      <c r="BO2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="65"/>
-      <c r="BS2" s="65"/>
-      <c r="BT2" s="65"/>
-      <c r="BU2" s="65"/>
-      <c r="BV2" s="65"/>
-      <c r="BW2" s="65"/>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="71"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="71"/>
-      <c r="CX2" s="71"/>
-      <c r="CY2" s="71"/>
-      <c r="CZ2" s="71"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71"/>
-    </row>
-    <row r="3" ht="25" spans="1:108">
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="64"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+    </row>
+    <row r="3" ht="48" spans="1:108">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3862,88 +3974,88 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="32" t="s">
+      <c r="AB3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" s="32" t="s">
+      <c r="AE3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="32" t="s">
+      <c r="AF3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AG3" s="32" t="s">
+      <c r="AG3" s="33" t="s">
         <v>69</v>
       </c>
       <c r="AH3" s="21"/>
-      <c r="AI3" s="39" t="s">
+      <c r="AI3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AJ3" s="39" t="s">
+      <c r="AJ3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="43" t="s">
+      <c r="AK3" s="44" t="s">
         <v>72</v>
       </c>
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
       <c r="AQ3" s="21"/>
       <c r="AR3" s="21"/>
       <c r="AS3" s="21"/>
@@ -3966,49 +4078,49 @@
       <c r="BJ3" s="61"/>
       <c r="BK3" s="61"/>
       <c r="BL3" s="62"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-    </row>
-    <row r="4" ht="36" spans="1:66">
-      <c r="A4" s="72" t="s">
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="70"/>
+      <c r="DC3" s="70"/>
+      <c r="DD3" s="70"/>
+    </row>
+    <row r="4" ht="24" spans="1:66">
+      <c r="A4" s="71" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="10">
@@ -4035,15 +4147,15 @@
       <c r="I4" s="22">
         <v>46.33</v>
       </c>
-      <c r="J4" s="27">
-        <f>(G4-H4)/H4</f>
+      <c r="J4" s="28">
+        <f t="shared" ref="J4:J12" si="0">(G4-H4)/H4</f>
         <v>3.70695970695971</v>
       </c>
-      <c r="K4" s="27">
-        <f>(I4-G4)/I4</f>
+      <c r="K4" s="28">
+        <f t="shared" ref="K4:K12" si="1">(I4-G4)/I4</f>
         <v>0.445283833369307</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="22">
         <v>20.79</v>
       </c>
@@ -4054,7 +4166,7 @@
         <v>21.88</v>
       </c>
       <c r="P4" s="22">
-        <v>25.14</v>
+        <v>26.5</v>
       </c>
       <c r="Q4" s="22">
         <v>22.1</v>
@@ -4065,44 +4177,48 @@
       <c r="S4" s="22">
         <v>24</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="33" t="s">
+      <c r="T4" s="29">
+        <v>26.2</v>
+      </c>
+      <c r="U4" s="29">
+        <v>24.52</v>
+      </c>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="35">
-        <f>(I4-M4)/I4</f>
+      <c r="Y4" s="36">
+        <f t="shared" ref="Y4:Y12" si="2">(I4-M4)/I4</f>
         <v>0.551262680768401</v>
       </c>
-      <c r="Z4" s="35">
-        <f>(N4-O4)/N4</f>
+      <c r="Z4" s="36">
+        <f t="shared" ref="Z4:Z12" si="3">(N4-O4)/N4</f>
         <v>0.265771812080537</v>
       </c>
-      <c r="AA4" s="35">
-        <f>(P4-Q4)/P4</f>
-        <v>0.120922832140016</v>
-      </c>
-      <c r="AB4" s="35">
-        <f>(R4-S4)/R4</f>
+      <c r="AA4" s="36">
+        <f t="shared" ref="AA4:AA12" si="4">(P4-Q4)/P4</f>
+        <v>0.166037735849057</v>
+      </c>
+      <c r="AB4" s="36">
+        <f t="shared" ref="AB4:AB10" si="5">(R4-S4)/R4</f>
         <v>0.0909090909090909</v>
       </c>
-      <c r="AC4" s="35" t="e">
-        <f t="shared" ref="AC4:AC6" si="0">(T4-U4)/T4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="37" t="s">
+      <c r="AC4" s="36">
+        <f t="shared" ref="AC4:AC7" si="6">(T4-U4)/T4</f>
+        <v>0.0641221374045801</v>
+      </c>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AF4" s="37" t="s">
+      <c r="AF4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AG4" s="37" t="s">
+      <c r="AG4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AH4" s="34" t="s">
         <v>79</v>
       </c>
       <c r="AI4" s="22">
@@ -4125,21 +4241,21 @@
         <v>32.49</v>
       </c>
       <c r="AO4" s="22">
-        <f>(AL4-AM4)*100</f>
+        <f t="shared" ref="AO4:AO12" si="7">(AL4-AM4)*100</f>
         <v>152</v>
       </c>
       <c r="AP4" s="22">
         <v>200</v>
       </c>
       <c r="AQ4" s="45">
-        <f>(AN4-AL4)/(AL4-AM4)</f>
+        <f t="shared" ref="AQ4:AQ12" si="8">(AN4-AL4)/(AL4-AM4)</f>
         <v>4.13815789473685</v>
       </c>
-      <c r="AR4" s="27">
+      <c r="AR4" s="28">
         <f>(AL4-AM4)/AL4</f>
         <v>0.0580152671755725</v>
       </c>
-      <c r="AS4" s="27">
+      <c r="AS4" s="28">
         <f>(AN4-AL4)/AL4</f>
         <v>0.240076335877863</v>
       </c>
@@ -4192,7 +4308,7 @@
       <c r="BN4" s="16"/>
     </row>
     <row r="5" ht="36" spans="1:66">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="13">
@@ -4219,15 +4335,15 @@
       <c r="I5" s="23">
         <v>44.42</v>
       </c>
-      <c r="J5" s="27">
-        <f>(G5-H5)/H5</f>
+      <c r="J5" s="28">
+        <f t="shared" si="0"/>
         <v>0.467798085291558</v>
       </c>
-      <c r="K5" s="27">
-        <f>(I5-G5)/I5</f>
+      <c r="K5" s="28">
+        <f t="shared" si="1"/>
         <v>0.240657361548852</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="23">
         <v>30.78</v>
       </c>
@@ -4249,44 +4365,44 @@
       <c r="S5" s="23">
         <v>32.53</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="34" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="35">
-        <f>(I5-M5)/I5</f>
+      <c r="Y5" s="36">
+        <f t="shared" si="2"/>
         <v>0.307068887888339</v>
       </c>
-      <c r="Z5" s="36">
-        <f>(N5-O5)/N5</f>
+      <c r="Z5" s="37">
+        <f t="shared" si="3"/>
         <v>0.106571428571429</v>
       </c>
-      <c r="AA5" s="36">
-        <f>(P5-Q5)/P5</f>
+      <c r="AA5" s="37">
+        <f t="shared" si="4"/>
         <v>0.077541642734061</v>
       </c>
-      <c r="AB5" s="36">
-        <f>(R5-S5)/R5</f>
+      <c r="AB5" s="37">
+        <f t="shared" si="5"/>
         <v>0.0463207270595133</v>
       </c>
-      <c r="AC5" s="35" t="e">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="36" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF5" s="34" t="s">
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="34" t="s">
+      <c r="AF5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AH5" s="38" t="s">
+      <c r="AG5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" s="40" t="s">
         <v>79</v>
       </c>
       <c r="AI5" s="23">
@@ -4309,14 +4425,14 @@
         <v>39.33</v>
       </c>
       <c r="AO5" s="22">
-        <f>(AL5-AM5)*100</f>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
       <c r="AP5" s="23">
         <v>100</v>
       </c>
       <c r="AQ5" s="45">
-        <f>(AN5-AL5)/(AL5-AM5)</f>
+        <f t="shared" si="8"/>
         <v>3.27672955974844</v>
       </c>
       <c r="AR5" s="46">
@@ -4376,14 +4492,14 @@
       <c r="BN5" s="16"/>
     </row>
     <row r="6" ht="36" spans="1:66">
-      <c r="A6" s="72" t="s">
-        <v>84</v>
+      <c r="A6" s="71" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="13">
         <v>44519</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="15">
         <v>28.2</v>
@@ -4403,15 +4519,15 @@
       <c r="I6" s="23">
         <v>41.5</v>
       </c>
-      <c r="J6" s="27">
-        <f>(G6-H6)/H6</f>
+      <c r="J6" s="28">
+        <f t="shared" si="0"/>
         <v>0.58030082484231</v>
       </c>
-      <c r="K6" s="27">
-        <f>(I6-G6)/I6</f>
+      <c r="K6" s="28">
+        <f t="shared" si="1"/>
         <v>0.215180722891566</v>
       </c>
-      <c r="L6" s="29"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="23">
         <v>28.42</v>
       </c>
@@ -4430,45 +4546,45 @@
       <c r="R6" s="23">
         <v>32.65</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" s="35">
-        <f>(I6-M6)/I6</f>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="36">
+        <f t="shared" si="2"/>
         <v>0.315180722891566</v>
       </c>
-      <c r="Z6" s="36">
-        <f>(N6-O6)/N6</f>
+      <c r="Z6" s="37">
+        <f t="shared" si="3"/>
         <v>0.164265129682997</v>
       </c>
-      <c r="AA6" s="36">
-        <f>(P6-Q6)/P6</f>
+      <c r="AA6" s="37">
+        <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="36">
-        <f>(R6-S6)/R6</f>
+      <c r="AB6" s="37">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AC6" s="35" t="e">
-        <f t="shared" si="0"/>
+      <c r="AC6" s="36" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF6" s="34" t="s">
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AG6" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH6" s="34" t="s">
+      <c r="AF6" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH6" s="35" t="s">
         <v>79</v>
       </c>
       <c r="AI6" s="23">
@@ -4491,14 +4607,14 @@
         <v>36.22</v>
       </c>
       <c r="AO6" s="22">
-        <f>(AL6-AM6)*100</f>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="AP6" s="23">
         <v>100</v>
       </c>
       <c r="AQ6" s="45">
-        <f>(AN6-AL6)/(AL6-AM6)</f>
+        <f t="shared" si="8"/>
         <v>2.02840909090909</v>
       </c>
       <c r="AR6" s="46">
@@ -4558,14 +4674,14 @@
       <c r="BN6" s="16"/>
     </row>
     <row r="7" ht="36" spans="1:66">
-      <c r="A7" s="73" t="s">
-        <v>89</v>
+      <c r="A7" s="72" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="17">
         <v>44522</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="16">
         <v>28.37</v>
@@ -4585,12 +4701,12 @@
       <c r="I7" s="16">
         <v>48.5</v>
       </c>
-      <c r="J7" s="27">
-        <f>(G7-H7)/H7</f>
+      <c r="J7" s="28">
+        <f t="shared" si="0"/>
         <v>0.692702394526796</v>
       </c>
-      <c r="K7" s="27">
-        <f>(I7-G7)/I7</f>
+      <c r="K7" s="28">
+        <f t="shared" si="1"/>
         <v>0.387835051546392</v>
       </c>
       <c r="L7" s="16"/>
@@ -4618,37 +4734,37 @@
       <c r="X7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="35">
-        <f>(I7-M7)/I7</f>
+      <c r="Y7" s="36">
+        <f t="shared" si="2"/>
         <v>0.502886597938144</v>
       </c>
-      <c r="Z7" s="36">
-        <f>(N7-O7)/N7</f>
+      <c r="Z7" s="37">
+        <f t="shared" si="3"/>
         <v>0.341719077568134</v>
       </c>
-      <c r="AA7" s="36">
-        <f>(P7-Q7)/P7</f>
+      <c r="AA7" s="37">
+        <f t="shared" si="4"/>
         <v>0.0550161812297734</v>
       </c>
-      <c r="AB7" s="36" t="e">
-        <f>(R7-S7)/R7</f>
+      <c r="AB7" s="37" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="35" t="e">
-        <f>(T7-U7)/T7</f>
+      <c r="AC7" s="36" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH7" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" s="41" t="s">
         <v>79</v>
       </c>
       <c r="AI7" s="16">
@@ -4671,15 +4787,15 @@
         <v>38.71</v>
       </c>
       <c r="AO7" s="22">
-        <f>(AL7-AM7)*100</f>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="AP7" s="16">
-        <f>FLOOR(300/(AL7-AM7),100)</f>
+        <f t="shared" ref="AP7:AP12" si="9">FLOOR(300/(AL7-AM7),100)</f>
         <v>200</v>
       </c>
       <c r="AQ7" s="45">
-        <f>(AN7-AL7)/(AL7-AM7)</f>
+        <f t="shared" si="8"/>
         <v>6.14503816793894</v>
       </c>
       <c r="AR7" s="46">
@@ -4738,148 +4854,138 @@
       <c r="BM7" s="16"/>
       <c r="BN7" s="16"/>
     </row>
-    <row r="8" ht="36" spans="1:66">
-      <c r="A8" s="73" t="s">
-        <v>92</v>
+    <row r="8" ht="13" spans="1:66">
+      <c r="A8" s="72" t="s">
+        <v>93</v>
       </c>
       <c r="B8" s="17">
         <v>44524</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="16">
-        <v>27.92</v>
+        <v>18.26</v>
       </c>
       <c r="E8" s="16">
-        <v>28.99</v>
+        <v>19.01</v>
       </c>
       <c r="F8" s="16">
-        <v>32.33</v>
+        <v>21.05</v>
       </c>
       <c r="G8" s="16">
-        <v>34.46</v>
+        <v>23.2</v>
       </c>
       <c r="H8" s="16">
-        <v>18.9</v>
+        <v>13.04</v>
       </c>
       <c r="I8" s="16">
-        <v>39.36</v>
-      </c>
-      <c r="J8" s="27">
-        <f>(G8-H8)/H8</f>
-        <v>0.823280423280424</v>
-      </c>
-      <c r="K8" s="27">
-        <f>(I8-G8)/I8</f>
-        <v>0.124491869918699</v>
+        <v>26.64</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.779141104294479</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.129129129129129</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16">
-        <v>28.2</v>
+        <v>18.5</v>
       </c>
       <c r="N8" s="16">
-        <v>32.04</v>
+        <v>22.39</v>
       </c>
       <c r="O8" s="16">
-        <v>28.34</v>
+        <v>18.85</v>
       </c>
       <c r="P8" s="16">
-        <v>31.31</v>
+        <v>23.56</v>
       </c>
       <c r="Q8" s="16">
-        <v>28.81</v>
-      </c>
-      <c r="R8" s="16">
-        <v>33.27</v>
-      </c>
-      <c r="S8" s="16">
-        <v>30.72</v>
-      </c>
-      <c r="T8" s="16">
-        <v>36.38</v>
-      </c>
-      <c r="U8" s="16">
-        <v>33.9</v>
-      </c>
+        <v>20.89</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y8" s="35">
-        <f>(I8-M8)/I8</f>
-        <v>0.283536585365854</v>
-      </c>
-      <c r="Z8" s="36">
-        <f>(N8-O8)/N8</f>
-        <v>0.115480649188514</v>
-      </c>
-      <c r="AA8" s="36">
-        <f>(P8-Q8)/P8</f>
-        <v>0.079846694346854</v>
-      </c>
-      <c r="AB8" s="36">
-        <f>(R8-S8)/R8</f>
-        <v>0.0766456266907125</v>
-      </c>
-      <c r="AC8" s="35">
-        <f>(T8-U8)/T8</f>
-        <v>0.0681693238042882</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="Y8" s="36">
+        <f t="shared" si="2"/>
+        <v>0.305555555555556</v>
+      </c>
+      <c r="Z8" s="37">
+        <f t="shared" si="3"/>
+        <v>0.158106297454221</v>
+      </c>
+      <c r="AA8" s="37">
+        <f t="shared" si="4"/>
+        <v>0.113327674023769</v>
+      </c>
+      <c r="AB8" s="37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AH8" s="40" t="s">
+      <c r="AG8" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="41" t="s">
         <v>79</v>
       </c>
       <c r="AI8" s="16">
-        <v>37.65</v>
+        <v>25.19</v>
       </c>
       <c r="AJ8" s="16">
-        <v>28.77</v>
+        <v>17.73</v>
       </c>
       <c r="AK8" s="23">
         <f>AI8-AJ8</f>
-        <v>8.88</v>
+        <v>7.46</v>
       </c>
       <c r="AL8" s="16">
-        <v>35.99</v>
+        <v>23.56</v>
       </c>
       <c r="AM8" s="16">
-        <v>33.9</v>
+        <v>22.12</v>
       </c>
       <c r="AN8" s="16">
-        <v>40.35</v>
+        <v>26.91</v>
       </c>
       <c r="AO8" s="22">
-        <f>(AL8-AM8)*100</f>
-        <v>209</v>
+        <f t="shared" si="7"/>
+        <v>144</v>
       </c>
       <c r="AP8" s="16">
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="AQ8" s="45">
-        <f>(AN8-AL8)/(AL8-AM8)</f>
-        <v>2.08612440191387</v>
+        <f t="shared" si="8"/>
+        <v>2.32638888888889</v>
       </c>
       <c r="AR8" s="46">
         <f>(AL8-AM8)/AL8</f>
-        <v>0.0580716865796055</v>
+        <v>0.0611205432937181</v>
       </c>
       <c r="AS8" s="46">
         <f>(AN8-AL8)/AL8</f>
-        <v>0.121144762434009</v>
+        <v>0.142190152801358</v>
       </c>
       <c r="AT8" s="16">
-        <v>37.83</v>
+        <v>53.49</v>
       </c>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
@@ -4903,39 +5009,87 @@
       <c r="BN8" s="16"/>
     </row>
     <row r="9" ht="13" spans="1:66">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="17">
+        <v>44524</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20.14</v>
+      </c>
+      <c r="E9" s="16">
+        <v>20.65</v>
+      </c>
+      <c r="F9" s="16">
+        <v>20.97</v>
+      </c>
+      <c r="G9" s="16">
+        <v>21.52</v>
+      </c>
+      <c r="H9" s="16">
+        <v>7.07</v>
+      </c>
+      <c r="I9" s="16">
+        <v>29.28</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="0"/>
+        <v>2.04384724186704</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="1"/>
+        <v>0.265027322404372</v>
+      </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="M9" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="N9" s="16">
+        <v>21.65</v>
+      </c>
+      <c r="O9" s="16">
+        <v>18.61</v>
+      </c>
+      <c r="P9" s="16">
+        <v>21.14</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>18.86</v>
+      </c>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
+      <c r="X9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="36">
+        <f t="shared" si="2"/>
+        <v>0.373633879781421</v>
+      </c>
+      <c r="Z9" s="37">
+        <f t="shared" si="3"/>
+        <v>0.140415704387991</v>
+      </c>
+      <c r="AA9" s="37">
+        <f t="shared" si="4"/>
+        <v>0.107852412488174</v>
+      </c>
+      <c r="AB9" s="37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
+      <c r="AE9" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -4945,9 +5099,18 @@
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
+      <c r="AO9" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="16" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="45" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
       <c r="AU9" s="16"/>
@@ -4972,51 +5135,120 @@
       <c r="BN9" s="16"/>
     </row>
     <row r="10" ht="13" spans="1:66">
-      <c r="A10" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="A10" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="17">
+        <v>44524</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="16">
+        <v>19.9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>20.73</v>
+      </c>
+      <c r="F10" s="16">
+        <v>22.88</v>
+      </c>
+      <c r="G10" s="16">
+        <v>23.53</v>
+      </c>
+      <c r="H10" s="16">
+        <v>7.25</v>
+      </c>
+      <c r="I10" s="16">
+        <v>29.3</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="0"/>
+        <v>2.24551724137931</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.196928327645051</v>
+      </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="M10" s="16">
+        <v>19.05</v>
+      </c>
+      <c r="N10" s="16">
+        <v>22.91</v>
+      </c>
+      <c r="O10" s="16">
+        <v>19.73</v>
+      </c>
+      <c r="P10" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>23.12</v>
+      </c>
+      <c r="R10" s="16">
+        <v>26.45</v>
+      </c>
+      <c r="S10" s="16">
+        <v>23.48</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
+      <c r="X10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" s="36">
+        <f t="shared" si="2"/>
+        <v>0.349829351535836</v>
+      </c>
+      <c r="Z10" s="37">
+        <f t="shared" si="3"/>
+        <v>0.138804015713662</v>
+      </c>
+      <c r="AA10" s="37">
+        <f t="shared" si="4"/>
+        <v>0.0933333333333333</v>
+      </c>
+      <c r="AB10" s="37">
+        <f t="shared" si="5"/>
+        <v>0.112287334593573</v>
+      </c>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
+      <c r="AE10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AL10" s="16">
+        <v>25.15</v>
+      </c>
+      <c r="AM10" s="16">
+        <v>23.48</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>27.83</v>
+      </c>
+      <c r="AO10" s="22">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="AP10" s="16">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AQ10" s="45">
+        <f t="shared" si="8"/>
+        <v>1.60479041916168</v>
+      </c>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
       <c r="AU10" s="16"/>
@@ -5040,52 +5272,118 @@
       <c r="BM10" s="16"/>
       <c r="BN10" s="16"/>
     </row>
-    <row r="11" ht="13" spans="1:66">
-      <c r="A11" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+    <row r="11" ht="36" spans="1:66">
+      <c r="A11" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44524</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="16">
+        <v>26.7</v>
+      </c>
+      <c r="E11" s="16">
+        <v>28.65</v>
+      </c>
+      <c r="F11" s="16">
+        <v>33.16</v>
+      </c>
+      <c r="G11" s="16">
+        <v>36.11</v>
+      </c>
+      <c r="H11" s="16">
+        <v>11.38</v>
+      </c>
+      <c r="I11" s="16">
+        <v>41.75</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="0"/>
+        <v>2.17311072056239</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.135089820359281</v>
+      </c>
       <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="M11" s="16">
+        <v>28.85</v>
+      </c>
+      <c r="N11" s="16">
+        <v>35.46</v>
+      </c>
+      <c r="O11" s="16">
+        <v>29.05</v>
+      </c>
+      <c r="P11" s="16">
+        <v>34.35</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>31.5</v>
+      </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
+      <c r="X11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="36">
+        <f t="shared" si="2"/>
+        <v>0.308982035928144</v>
+      </c>
+      <c r="Z11" s="37">
+        <f t="shared" si="3"/>
+        <v>0.180767061477721</v>
+      </c>
+      <c r="AA11" s="37">
+        <f t="shared" si="4"/>
+        <v>0.0829694323144105</v>
+      </c>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
+      <c r="AE11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG11" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
+      <c r="AL11" s="16">
+        <v>37.13</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>35.6</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>38.61</v>
+      </c>
+      <c r="AO11" s="22">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="AP11" s="16">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AQ11" s="45">
+        <f t="shared" si="8"/>
+        <v>0.967320261437906</v>
+      </c>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AU11" s="16"/>
@@ -5110,51 +5408,117 @@
       <c r="BN11" s="16"/>
     </row>
     <row r="12" ht="13" spans="1:66">
-      <c r="A12" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="A12" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44524</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="16">
+        <v>32.91</v>
+      </c>
+      <c r="E12" s="16">
+        <v>33.52</v>
+      </c>
+      <c r="F12" s="16">
+        <v>34.71</v>
+      </c>
+      <c r="G12" s="16">
+        <v>36.09</v>
+      </c>
+      <c r="H12" s="16">
+        <v>25.12</v>
+      </c>
+      <c r="I12" s="16">
+        <v>41.77</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.436703821656051</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.135982762748384</v>
+      </c>
       <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="M12" s="16">
+        <v>30.46</v>
+      </c>
+      <c r="N12" s="16">
+        <v>36.94</v>
+      </c>
+      <c r="O12" s="16">
+        <v>33.59</v>
+      </c>
+      <c r="P12" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>34.44</v>
+      </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
+      <c r="X12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="36">
+        <f t="shared" si="2"/>
+        <v>0.270768494134546</v>
+      </c>
+      <c r="Z12" s="37">
+        <f t="shared" si="3"/>
+        <v>0.0906876015159717</v>
+      </c>
+      <c r="AA12" s="37">
+        <f t="shared" si="4"/>
+        <v>0.0716981132075473</v>
+      </c>
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AE12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG12" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH12" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
+      <c r="AL12" s="16">
+        <v>37.09</v>
+      </c>
+      <c r="AM12" s="16">
+        <v>35.25</v>
+      </c>
+      <c r="AN12" s="16">
+        <v>38.8</v>
+      </c>
+      <c r="AO12" s="22">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="AP12" s="16">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="AQ12" s="45">
+        <f t="shared" si="8"/>
+        <v>0.929347826086951</v>
+      </c>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
       <c r="AU12" s="16"/>
@@ -5179,8 +5543,8 @@
       <c r="BN12" s="16"/>
     </row>
     <row r="13" ht="13" spans="1:66">
-      <c r="A13" s="73" t="s">
-        <v>101</v>
+      <c r="A13" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5248,8 +5612,8 @@
       <c r="BN13" s="16"/>
     </row>
     <row r="14" ht="13" spans="1:66">
-      <c r="A14" s="73" t="s">
-        <v>102</v>
+      <c r="A14" s="72" t="s">
+        <v>109</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -5317,8 +5681,8 @@
       <c r="BN14" s="16"/>
     </row>
     <row r="15" ht="13" spans="1:66">
-      <c r="A15" s="73" t="s">
-        <v>103</v>
+      <c r="A15" s="72" t="s">
+        <v>110</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -5386,8 +5750,8 @@
       <c r="BN15" s="16"/>
     </row>
     <row r="16" ht="13" spans="1:66">
-      <c r="A16" s="73" t="s">
-        <v>104</v>
+      <c r="A16" s="72" t="s">
+        <v>111</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5455,8 +5819,8 @@
       <c r="BN16" s="16"/>
     </row>
     <row r="17" ht="13" spans="1:66">
-      <c r="A17" s="73" t="s">
-        <v>105</v>
+      <c r="A17" s="72" t="s">
+        <v>112</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5524,8 +5888,8 @@
       <c r="BN17" s="16"/>
     </row>
     <row r="18" ht="13" spans="1:66">
-      <c r="A18" s="73" t="s">
-        <v>106</v>
+      <c r="A18" s="72" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -5593,8 +5957,8 @@
       <c r="BN18" s="16"/>
     </row>
     <row r="19" ht="13" spans="1:66">
-      <c r="A19" s="73" t="s">
-        <v>107</v>
+      <c r="A19" s="72" t="s">
+        <v>114</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5662,8 +6026,8 @@
       <c r="BN19" s="16"/>
     </row>
     <row r="20" ht="13" spans="1:66">
-      <c r="A20" s="73" t="s">
-        <v>108</v>
+      <c r="A20" s="72" t="s">
+        <v>115</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5731,8 +6095,8 @@
       <c r="BN20" s="16"/>
     </row>
     <row r="21" ht="13" spans="1:66">
-      <c r="A21" s="73" t="s">
-        <v>109</v>
+      <c r="A21" s="72" t="s">
+        <v>116</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5800,8 +6164,8 @@
       <c r="BN21" s="16"/>
     </row>
     <row r="22" ht="13" spans="1:66">
-      <c r="A22" s="73" t="s">
-        <v>110</v>
+      <c r="A22" s="72" t="s">
+        <v>117</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5869,8 +6233,8 @@
       <c r="BN22" s="16"/>
     </row>
     <row r="23" ht="13" spans="1:66">
-      <c r="A23" s="73" t="s">
-        <v>111</v>
+      <c r="A23" s="72" t="s">
+        <v>118</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5938,8 +6302,8 @@
       <c r="BN23" s="16"/>
     </row>
     <row r="24" ht="13" spans="1:66">
-      <c r="A24" s="73" t="s">
-        <v>112</v>
+      <c r="A24" s="72" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -6007,8 +6371,8 @@
       <c r="BN24" s="16"/>
     </row>
     <row r="25" ht="13" spans="1:66">
-      <c r="A25" s="73" t="s">
-        <v>113</v>
+      <c r="A25" s="72" t="s">
+        <v>120</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6076,8 +6440,8 @@
       <c r="BN25" s="16"/>
     </row>
     <row r="26" ht="13" spans="1:66">
-      <c r="A26" s="73" t="s">
-        <v>114</v>
+      <c r="A26" s="72" t="s">
+        <v>121</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6145,8 +6509,8 @@
       <c r="BN26" s="16"/>
     </row>
     <row r="27" ht="13" spans="1:66">
-      <c r="A27" s="73" t="s">
-        <v>115</v>
+      <c r="A27" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6214,8 +6578,8 @@
       <c r="BN27" s="16"/>
     </row>
     <row r="28" ht="13" spans="1:66">
-      <c r="A28" s="73" t="s">
-        <v>116</v>
+      <c r="A28" s="72" t="s">
+        <v>123</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6283,8 +6647,8 @@
       <c r="BN28" s="16"/>
     </row>
     <row r="29" ht="13" spans="1:66">
-      <c r="A29" s="73" t="s">
-        <v>117</v>
+      <c r="A29" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6352,8 +6716,8 @@
       <c r="BN29" s="16"/>
     </row>
     <row r="30" ht="13" spans="1:66">
-      <c r="A30" s="73" t="s">
-        <v>118</v>
+      <c r="A30" s="72" t="s">
+        <v>125</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6421,8 +6785,8 @@
       <c r="BN30" s="16"/>
     </row>
     <row r="31" ht="13" spans="1:66">
-      <c r="A31" s="73" t="s">
-        <v>119</v>
+      <c r="A31" s="72" t="s">
+        <v>126</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6490,8 +6854,8 @@
       <c r="BN31" s="16"/>
     </row>
     <row r="32" ht="13" spans="1:66">
-      <c r="A32" s="73" t="s">
-        <v>120</v>
+      <c r="A32" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6559,8 +6923,8 @@
       <c r="BN32" s="16"/>
     </row>
     <row r="33" ht="13" spans="1:66">
-      <c r="A33" s="73" t="s">
-        <v>121</v>
+      <c r="A33" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6628,8 +6992,8 @@
       <c r="BN33" s="16"/>
     </row>
     <row r="34" ht="13" spans="1:66">
-      <c r="A34" s="73" t="s">
-        <v>122</v>
+      <c r="A34" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6697,8 +7061,8 @@
       <c r="BN34" s="16"/>
     </row>
     <row r="35" ht="13" spans="1:66">
-      <c r="A35" s="73" t="s">
-        <v>123</v>
+      <c r="A35" s="72" t="s">
+        <v>130</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6766,8 +7130,8 @@
       <c r="BN35" s="16"/>
     </row>
     <row r="36" ht="13" spans="1:66">
-      <c r="A36" s="73" t="s">
-        <v>124</v>
+      <c r="A36" s="72" t="s">
+        <v>131</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6835,8 +7199,8 @@
       <c r="BN36" s="16"/>
     </row>
     <row r="37" ht="13" spans="1:66">
-      <c r="A37" s="73" t="s">
-        <v>125</v>
+      <c r="A37" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -6904,8 +7268,8 @@
       <c r="BN37" s="16"/>
     </row>
     <row r="38" ht="13" spans="1:66">
-      <c r="A38" s="73" t="s">
-        <v>126</v>
+      <c r="A38" s="72" t="s">
+        <v>133</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -6973,8 +7337,8 @@
       <c r="BN38" s="16"/>
     </row>
     <row r="39" ht="13" spans="1:66">
-      <c r="A39" s="73" t="s">
-        <v>127</v>
+      <c r="A39" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -7042,8 +7406,8 @@
       <c r="BN39" s="16"/>
     </row>
     <row r="40" ht="13" spans="1:66">
-      <c r="A40" s="73" t="s">
-        <v>128</v>
+      <c r="A40" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7111,8 +7475,8 @@
       <c r="BN40" s="16"/>
     </row>
     <row r="41" ht="13" spans="1:66">
-      <c r="A41" s="73" t="s">
-        <v>129</v>
+      <c r="A41" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -7180,8 +7544,8 @@
       <c r="BN41" s="16"/>
     </row>
     <row r="42" ht="13" spans="1:66">
-      <c r="A42" s="73" t="s">
-        <v>130</v>
+      <c r="A42" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -7249,8 +7613,8 @@
       <c r="BN42" s="16"/>
     </row>
     <row r="43" ht="13" spans="1:66">
-      <c r="A43" s="73" t="s">
-        <v>131</v>
+      <c r="A43" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -7318,8 +7682,8 @@
       <c r="BN43" s="16"/>
     </row>
     <row r="44" ht="13" spans="1:66">
-      <c r="A44" s="73" t="s">
-        <v>132</v>
+      <c r="A44" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -7387,8 +7751,8 @@
       <c r="BN44" s="16"/>
     </row>
     <row r="45" ht="13" spans="1:66">
-      <c r="A45" s="73" t="s">
-        <v>133</v>
+      <c r="A45" s="72" t="s">
+        <v>140</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -7456,8 +7820,8 @@
       <c r="BN45" s="16"/>
     </row>
     <row r="46" ht="13" spans="1:66">
-      <c r="A46" s="73" t="s">
-        <v>134</v>
+      <c r="A46" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -7525,8 +7889,8 @@
       <c r="BN46" s="16"/>
     </row>
     <row r="47" ht="13" spans="1:66">
-      <c r="A47" s="73" t="s">
-        <v>135</v>
+      <c r="A47" s="72" t="s">
+        <v>142</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -7594,8 +7958,8 @@
       <c r="BN47" s="16"/>
     </row>
     <row r="48" ht="13" spans="1:66">
-      <c r="A48" s="73" t="s">
-        <v>136</v>
+      <c r="A48" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -7663,8 +8027,8 @@
       <c r="BN48" s="16"/>
     </row>
     <row r="49" ht="13" spans="1:66">
-      <c r="A49" s="73" t="s">
-        <v>137</v>
+      <c r="A49" s="72" t="s">
+        <v>144</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -7732,8 +8096,8 @@
       <c r="BN49" s="16"/>
     </row>
     <row r="50" ht="13" spans="1:66">
-      <c r="A50" s="73" t="s">
-        <v>138</v>
+      <c r="A50" s="72" t="s">
+        <v>145</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -7801,8 +8165,8 @@
       <c r="BN50" s="16"/>
     </row>
     <row r="51" ht="13" spans="1:66">
-      <c r="A51" s="73" t="s">
-        <v>139</v>
+      <c r="A51" s="72" t="s">
+        <v>146</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -7870,8 +8234,8 @@
       <c r="BN51" s="16"/>
     </row>
     <row r="52" ht="13" spans="1:66">
-      <c r="A52" s="73" t="s">
-        <v>140</v>
+      <c r="A52" s="72" t="s">
+        <v>147</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7939,8 +8303,8 @@
       <c r="BN52" s="16"/>
     </row>
     <row r="53" ht="13" spans="1:66">
-      <c r="A53" s="73" t="s">
-        <v>141</v>
+      <c r="A53" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -8008,8 +8372,8 @@
       <c r="BN53" s="16"/>
     </row>
     <row r="54" ht="13" spans="1:66">
-      <c r="A54" s="73" t="s">
-        <v>142</v>
+      <c r="A54" s="72" t="s">
+        <v>149</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -8077,8 +8441,8 @@
       <c r="BN54" s="16"/>
     </row>
     <row r="55" ht="13" spans="1:66">
-      <c r="A55" s="73" t="s">
-        <v>143</v>
+      <c r="A55" s="72" t="s">
+        <v>150</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -8146,8 +8510,8 @@
       <c r="BN55" s="16"/>
     </row>
     <row r="56" ht="13" spans="1:66">
-      <c r="A56" s="73" t="s">
-        <v>144</v>
+      <c r="A56" s="72" t="s">
+        <v>151</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -8215,8 +8579,8 @@
       <c r="BN56" s="16"/>
     </row>
     <row r="57" ht="13" spans="1:66">
-      <c r="A57" s="73" t="s">
-        <v>145</v>
+      <c r="A57" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -8284,8 +8648,8 @@
       <c r="BN57" s="16"/>
     </row>
     <row r="58" ht="13" spans="1:66">
-      <c r="A58" s="73" t="s">
-        <v>146</v>
+      <c r="A58" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -8353,8 +8717,8 @@
       <c r="BN58" s="16"/>
     </row>
     <row r="59" ht="13" spans="1:66">
-      <c r="A59" s="73" t="s">
-        <v>147</v>
+      <c r="A59" s="72" t="s">
+        <v>154</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8422,8 +8786,8 @@
       <c r="BN59" s="16"/>
     </row>
     <row r="60" ht="13" spans="1:66">
-      <c r="A60" s="73" t="s">
-        <v>148</v>
+      <c r="A60" s="72" t="s">
+        <v>155</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -8491,8 +8855,8 @@
       <c r="BN60" s="16"/>
     </row>
     <row r="61" ht="13" spans="1:66">
-      <c r="A61" s="73" t="s">
-        <v>149</v>
+      <c r="A61" s="72" t="s">
+        <v>156</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8560,8 +8924,8 @@
       <c r="BN61" s="16"/>
     </row>
     <row r="62" ht="13" spans="1:66">
-      <c r="A62" s="73" t="s">
-        <v>150</v>
+      <c r="A62" s="72" t="s">
+        <v>157</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -8629,8 +8993,8 @@
       <c r="BN62" s="16"/>
     </row>
     <row r="63" ht="13" spans="1:66">
-      <c r="A63" s="73" t="s">
-        <v>151</v>
+      <c r="A63" s="72" t="s">
+        <v>158</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -8697,10 +9061,8 @@
       <c r="BM63" s="16"/>
       <c r="BN63" s="16"/>
     </row>
-    <row r="64" ht="13" spans="1:66">
-      <c r="A64" s="73" t="s">
-        <v>152</v>
-      </c>
+    <row r="64" spans="1:66">
+      <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -8766,10 +9128,8 @@
       <c r="BM64" s="16"/>
       <c r="BN64" s="16"/>
     </row>
-    <row r="65" ht="13" spans="1:66">
-      <c r="A65" s="73" t="s">
-        <v>153</v>
-      </c>
+    <row r="65" spans="1:66">
+      <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -8835,10 +9195,8 @@
       <c r="BM65" s="16"/>
       <c r="BN65" s="16"/>
     </row>
-    <row r="66" ht="13" spans="1:66">
-      <c r="A66" s="73" t="s">
-        <v>154</v>
-      </c>
+    <row r="66" spans="1:66">
+      <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -8904,10 +9262,8 @@
       <c r="BM66" s="16"/>
       <c r="BN66" s="16"/>
     </row>
-    <row r="67" ht="13" spans="1:66">
-      <c r="A67" s="73" t="s">
-        <v>155</v>
-      </c>
+    <row r="67" spans="1:66">
+      <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -8973,10 +9329,8 @@
       <c r="BM67" s="16"/>
       <c r="BN67" s="16"/>
     </row>
-    <row r="68" ht="13" spans="1:66">
-      <c r="A68" s="73" t="s">
-        <v>156</v>
-      </c>
+    <row r="68" spans="1:66">
+      <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -9042,10 +9396,8 @@
       <c r="BM68" s="16"/>
       <c r="BN68" s="16"/>
     </row>
-    <row r="69" ht="13" spans="1:66">
-      <c r="A69" s="73" t="s">
-        <v>157</v>
-      </c>
+    <row r="69" spans="1:66">
+      <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -36650,50 +37002,6 @@
     </row>
     <row r="481" spans="1:66">
       <c r="A481" s="16"/>
-      <c r="B481" s="16"/>
-      <c r="C481" s="16"/>
-      <c r="D481" s="16"/>
-      <c r="E481" s="16"/>
-      <c r="F481" s="16"/>
-      <c r="G481" s="16"/>
-      <c r="H481" s="16"/>
-      <c r="I481" s="16"/>
-      <c r="J481" s="16"/>
-      <c r="K481" s="16"/>
-      <c r="L481" s="16"/>
-      <c r="M481" s="16"/>
-      <c r="N481" s="16"/>
-      <c r="O481" s="16"/>
-      <c r="P481" s="16"/>
-      <c r="Q481" s="16"/>
-      <c r="R481" s="16"/>
-      <c r="S481" s="16"/>
-      <c r="T481" s="16"/>
-      <c r="U481" s="16"/>
-      <c r="V481" s="16"/>
-      <c r="W481" s="16"/>
-      <c r="X481" s="16"/>
-      <c r="Y481" s="16"/>
-      <c r="Z481" s="16"/>
-      <c r="AA481" s="16"/>
-      <c r="AB481" s="16"/>
-      <c r="AC481" s="16"/>
-      <c r="AD481" s="16"/>
-      <c r="AE481" s="16"/>
-      <c r="AF481" s="16"/>
-      <c r="AG481" s="16"/>
-      <c r="AH481" s="16"/>
-      <c r="AI481" s="16"/>
-      <c r="AJ481" s="16"/>
-      <c r="AK481" s="16"/>
-      <c r="AL481" s="16"/>
-      <c r="AM481" s="16"/>
-      <c r="AN481" s="16"/>
-      <c r="AO481" s="16"/>
-      <c r="AP481" s="16"/>
-      <c r="AQ481" s="16"/>
-      <c r="AR481" s="16"/>
-      <c r="AS481" s="16"/>
       <c r="AU481" s="16"/>
       <c r="AV481" s="16"/>
       <c r="AW481" s="16"/>
@@ -36717,50 +37025,6 @@
     </row>
     <row r="482" spans="1:66">
       <c r="A482" s="16"/>
-      <c r="B482" s="16"/>
-      <c r="C482" s="16"/>
-      <c r="D482" s="16"/>
-      <c r="E482" s="16"/>
-      <c r="F482" s="16"/>
-      <c r="G482" s="16"/>
-      <c r="H482" s="16"/>
-      <c r="I482" s="16"/>
-      <c r="J482" s="16"/>
-      <c r="K482" s="16"/>
-      <c r="L482" s="16"/>
-      <c r="M482" s="16"/>
-      <c r="N482" s="16"/>
-      <c r="O482" s="16"/>
-      <c r="P482" s="16"/>
-      <c r="Q482" s="16"/>
-      <c r="R482" s="16"/>
-      <c r="S482" s="16"/>
-      <c r="T482" s="16"/>
-      <c r="U482" s="16"/>
-      <c r="V482" s="16"/>
-      <c r="W482" s="16"/>
-      <c r="X482" s="16"/>
-      <c r="Y482" s="16"/>
-      <c r="Z482" s="16"/>
-      <c r="AA482" s="16"/>
-      <c r="AB482" s="16"/>
-      <c r="AC482" s="16"/>
-      <c r="AD482" s="16"/>
-      <c r="AE482" s="16"/>
-      <c r="AF482" s="16"/>
-      <c r="AG482" s="16"/>
-      <c r="AH482" s="16"/>
-      <c r="AI482" s="16"/>
-      <c r="AJ482" s="16"/>
-      <c r="AK482" s="16"/>
-      <c r="AL482" s="16"/>
-      <c r="AM482" s="16"/>
-      <c r="AN482" s="16"/>
-      <c r="AO482" s="16"/>
-      <c r="AP482" s="16"/>
-      <c r="AQ482" s="16"/>
-      <c r="AR482" s="16"/>
-      <c r="AS482" s="16"/>
       <c r="AU482" s="16"/>
       <c r="AV482" s="16"/>
       <c r="AW482" s="16"/>
@@ -36784,50 +37048,6 @@
     </row>
     <row r="483" spans="1:66">
       <c r="A483" s="16"/>
-      <c r="B483" s="16"/>
-      <c r="C483" s="16"/>
-      <c r="D483" s="16"/>
-      <c r="E483" s="16"/>
-      <c r="F483" s="16"/>
-      <c r="G483" s="16"/>
-      <c r="H483" s="16"/>
-      <c r="I483" s="16"/>
-      <c r="J483" s="16"/>
-      <c r="K483" s="16"/>
-      <c r="L483" s="16"/>
-      <c r="M483" s="16"/>
-      <c r="N483" s="16"/>
-      <c r="O483" s="16"/>
-      <c r="P483" s="16"/>
-      <c r="Q483" s="16"/>
-      <c r="R483" s="16"/>
-      <c r="S483" s="16"/>
-      <c r="T483" s="16"/>
-      <c r="U483" s="16"/>
-      <c r="V483" s="16"/>
-      <c r="W483" s="16"/>
-      <c r="X483" s="16"/>
-      <c r="Y483" s="16"/>
-      <c r="Z483" s="16"/>
-      <c r="AA483" s="16"/>
-      <c r="AB483" s="16"/>
-      <c r="AC483" s="16"/>
-      <c r="AD483" s="16"/>
-      <c r="AE483" s="16"/>
-      <c r="AF483" s="16"/>
-      <c r="AG483" s="16"/>
-      <c r="AH483" s="16"/>
-      <c r="AI483" s="16"/>
-      <c r="AJ483" s="16"/>
-      <c r="AK483" s="16"/>
-      <c r="AL483" s="16"/>
-      <c r="AM483" s="16"/>
-      <c r="AN483" s="16"/>
-      <c r="AO483" s="16"/>
-      <c r="AP483" s="16"/>
-      <c r="AQ483" s="16"/>
-      <c r="AR483" s="16"/>
-      <c r="AS483" s="16"/>
       <c r="AU483" s="16"/>
       <c r="AV483" s="16"/>
       <c r="AW483" s="16"/>
@@ -36851,50 +37071,6 @@
     </row>
     <row r="484" spans="1:66">
       <c r="A484" s="16"/>
-      <c r="B484" s="16"/>
-      <c r="C484" s="16"/>
-      <c r="D484" s="16"/>
-      <c r="E484" s="16"/>
-      <c r="F484" s="16"/>
-      <c r="G484" s="16"/>
-      <c r="H484" s="16"/>
-      <c r="I484" s="16"/>
-      <c r="J484" s="16"/>
-      <c r="K484" s="16"/>
-      <c r="L484" s="16"/>
-      <c r="M484" s="16"/>
-      <c r="N484" s="16"/>
-      <c r="O484" s="16"/>
-      <c r="P484" s="16"/>
-      <c r="Q484" s="16"/>
-      <c r="R484" s="16"/>
-      <c r="S484" s="16"/>
-      <c r="T484" s="16"/>
-      <c r="U484" s="16"/>
-      <c r="V484" s="16"/>
-      <c r="W484" s="16"/>
-      <c r="X484" s="16"/>
-      <c r="Y484" s="16"/>
-      <c r="Z484" s="16"/>
-      <c r="AA484" s="16"/>
-      <c r="AB484" s="16"/>
-      <c r="AC484" s="16"/>
-      <c r="AD484" s="16"/>
-      <c r="AE484" s="16"/>
-      <c r="AF484" s="16"/>
-      <c r="AG484" s="16"/>
-      <c r="AH484" s="16"/>
-      <c r="AI484" s="16"/>
-      <c r="AJ484" s="16"/>
-      <c r="AK484" s="16"/>
-      <c r="AL484" s="16"/>
-      <c r="AM484" s="16"/>
-      <c r="AN484" s="16"/>
-      <c r="AO484" s="16"/>
-      <c r="AP484" s="16"/>
-      <c r="AQ484" s="16"/>
-      <c r="AR484" s="16"/>
-      <c r="AS484" s="16"/>
       <c r="AU484" s="16"/>
       <c r="AV484" s="16"/>
       <c r="AW484" s="16"/>
@@ -36918,50 +37094,6 @@
     </row>
     <row r="485" spans="1:66">
       <c r="A485" s="16"/>
-      <c r="B485" s="16"/>
-      <c r="C485" s="16"/>
-      <c r="D485" s="16"/>
-      <c r="E485" s="16"/>
-      <c r="F485" s="16"/>
-      <c r="G485" s="16"/>
-      <c r="H485" s="16"/>
-      <c r="I485" s="16"/>
-      <c r="J485" s="16"/>
-      <c r="K485" s="16"/>
-      <c r="L485" s="16"/>
-      <c r="M485" s="16"/>
-      <c r="N485" s="16"/>
-      <c r="O485" s="16"/>
-      <c r="P485" s="16"/>
-      <c r="Q485" s="16"/>
-      <c r="R485" s="16"/>
-      <c r="S485" s="16"/>
-      <c r="T485" s="16"/>
-      <c r="U485" s="16"/>
-      <c r="V485" s="16"/>
-      <c r="W485" s="16"/>
-      <c r="X485" s="16"/>
-      <c r="Y485" s="16"/>
-      <c r="Z485" s="16"/>
-      <c r="AA485" s="16"/>
-      <c r="AB485" s="16"/>
-      <c r="AC485" s="16"/>
-      <c r="AD485" s="16"/>
-      <c r="AE485" s="16"/>
-      <c r="AF485" s="16"/>
-      <c r="AG485" s="16"/>
-      <c r="AH485" s="16"/>
-      <c r="AI485" s="16"/>
-      <c r="AJ485" s="16"/>
-      <c r="AK485" s="16"/>
-      <c r="AL485" s="16"/>
-      <c r="AM485" s="16"/>
-      <c r="AN485" s="16"/>
-      <c r="AO485" s="16"/>
-      <c r="AP485" s="16"/>
-      <c r="AQ485" s="16"/>
-      <c r="AR485" s="16"/>
-      <c r="AS485" s="16"/>
       <c r="AU485" s="16"/>
       <c r="AV485" s="16"/>
       <c r="AW485" s="16"/>
@@ -36985,50 +37117,6 @@
     </row>
     <row r="486" spans="1:66">
       <c r="A486" s="16"/>
-      <c r="B486" s="16"/>
-      <c r="C486" s="16"/>
-      <c r="D486" s="16"/>
-      <c r="E486" s="16"/>
-      <c r="F486" s="16"/>
-      <c r="G486" s="16"/>
-      <c r="H486" s="16"/>
-      <c r="I486" s="16"/>
-      <c r="J486" s="16"/>
-      <c r="K486" s="16"/>
-      <c r="L486" s="16"/>
-      <c r="M486" s="16"/>
-      <c r="N486" s="16"/>
-      <c r="O486" s="16"/>
-      <c r="P486" s="16"/>
-      <c r="Q486" s="16"/>
-      <c r="R486" s="16"/>
-      <c r="S486" s="16"/>
-      <c r="T486" s="16"/>
-      <c r="U486" s="16"/>
-      <c r="V486" s="16"/>
-      <c r="W486" s="16"/>
-      <c r="X486" s="16"/>
-      <c r="Y486" s="16"/>
-      <c r="Z486" s="16"/>
-      <c r="AA486" s="16"/>
-      <c r="AB486" s="16"/>
-      <c r="AC486" s="16"/>
-      <c r="AD486" s="16"/>
-      <c r="AE486" s="16"/>
-      <c r="AF486" s="16"/>
-      <c r="AG486" s="16"/>
-      <c r="AH486" s="16"/>
-      <c r="AI486" s="16"/>
-      <c r="AJ486" s="16"/>
-      <c r="AK486" s="16"/>
-      <c r="AL486" s="16"/>
-      <c r="AM486" s="16"/>
-      <c r="AN486" s="16"/>
-      <c r="AO486" s="16"/>
-      <c r="AP486" s="16"/>
-      <c r="AQ486" s="16"/>
-      <c r="AR486" s="16"/>
-      <c r="AS486" s="16"/>
       <c r="AU486" s="16"/>
       <c r="AV486" s="16"/>
       <c r="AW486" s="16"/>
@@ -37073,143 +37161,23 @@
       <c r="BM487" s="16"/>
       <c r="BN487" s="16"/>
     </row>
-    <row r="488" spans="1:66">
+    <row r="488" spans="1:1">
       <c r="A488" s="16"/>
-      <c r="AU488" s="16"/>
-      <c r="AV488" s="16"/>
-      <c r="AW488" s="16"/>
-      <c r="AX488" s="16"/>
-      <c r="AY488" s="16"/>
-      <c r="AZ488" s="16"/>
-      <c r="BA488" s="16"/>
-      <c r="BB488" s="16"/>
-      <c r="BC488" s="16"/>
-      <c r="BD488" s="16"/>
-      <c r="BE488" s="16"/>
-      <c r="BF488" s="16"/>
-      <c r="BG488" s="16"/>
-      <c r="BH488" s="16"/>
-      <c r="BI488" s="16"/>
-      <c r="BJ488" s="16"/>
-      <c r="BK488" s="16"/>
-      <c r="BL488" s="16"/>
-      <c r="BM488" s="16"/>
-      <c r="BN488" s="16"/>
-    </row>
-    <row r="489" spans="1:66">
+    </row>
+    <row r="489" spans="1:1">
       <c r="A489" s="16"/>
-      <c r="AU489" s="16"/>
-      <c r="AV489" s="16"/>
-      <c r="AW489" s="16"/>
-      <c r="AX489" s="16"/>
-      <c r="AY489" s="16"/>
-      <c r="AZ489" s="16"/>
-      <c r="BA489" s="16"/>
-      <c r="BB489" s="16"/>
-      <c r="BC489" s="16"/>
-      <c r="BD489" s="16"/>
-      <c r="BE489" s="16"/>
-      <c r="BF489" s="16"/>
-      <c r="BG489" s="16"/>
-      <c r="BH489" s="16"/>
-      <c r="BI489" s="16"/>
-      <c r="BJ489" s="16"/>
-      <c r="BK489" s="16"/>
-      <c r="BL489" s="16"/>
-      <c r="BM489" s="16"/>
-      <c r="BN489" s="16"/>
-    </row>
-    <row r="490" spans="1:66">
+    </row>
+    <row r="490" spans="1:1">
       <c r="A490" s="16"/>
-      <c r="AU490" s="16"/>
-      <c r="AV490" s="16"/>
-      <c r="AW490" s="16"/>
-      <c r="AX490" s="16"/>
-      <c r="AY490" s="16"/>
-      <c r="AZ490" s="16"/>
-      <c r="BA490" s="16"/>
-      <c r="BB490" s="16"/>
-      <c r="BC490" s="16"/>
-      <c r="BD490" s="16"/>
-      <c r="BE490" s="16"/>
-      <c r="BF490" s="16"/>
-      <c r="BG490" s="16"/>
-      <c r="BH490" s="16"/>
-      <c r="BI490" s="16"/>
-      <c r="BJ490" s="16"/>
-      <c r="BK490" s="16"/>
-      <c r="BL490" s="16"/>
-      <c r="BM490" s="16"/>
-      <c r="BN490" s="16"/>
-    </row>
-    <row r="491" spans="1:66">
+    </row>
+    <row r="491" spans="1:1">
       <c r="A491" s="16"/>
-      <c r="AU491" s="16"/>
-      <c r="AV491" s="16"/>
-      <c r="AW491" s="16"/>
-      <c r="AX491" s="16"/>
-      <c r="AY491" s="16"/>
-      <c r="AZ491" s="16"/>
-      <c r="BA491" s="16"/>
-      <c r="BB491" s="16"/>
-      <c r="BC491" s="16"/>
-      <c r="BD491" s="16"/>
-      <c r="BE491" s="16"/>
-      <c r="BF491" s="16"/>
-      <c r="BG491" s="16"/>
-      <c r="BH491" s="16"/>
-      <c r="BI491" s="16"/>
-      <c r="BJ491" s="16"/>
-      <c r="BK491" s="16"/>
-      <c r="BL491" s="16"/>
-      <c r="BM491" s="16"/>
-      <c r="BN491" s="16"/>
-    </row>
-    <row r="492" spans="1:66">
+    </row>
+    <row r="492" spans="1:1">
       <c r="A492" s="16"/>
-      <c r="AU492" s="16"/>
-      <c r="AV492" s="16"/>
-      <c r="AW492" s="16"/>
-      <c r="AX492" s="16"/>
-      <c r="AY492" s="16"/>
-      <c r="AZ492" s="16"/>
-      <c r="BA492" s="16"/>
-      <c r="BB492" s="16"/>
-      <c r="BC492" s="16"/>
-      <c r="BD492" s="16"/>
-      <c r="BE492" s="16"/>
-      <c r="BF492" s="16"/>
-      <c r="BG492" s="16"/>
-      <c r="BH492" s="16"/>
-      <c r="BI492" s="16"/>
-      <c r="BJ492" s="16"/>
-      <c r="BK492" s="16"/>
-      <c r="BL492" s="16"/>
-      <c r="BM492" s="16"/>
-      <c r="BN492" s="16"/>
-    </row>
-    <row r="493" spans="1:66">
+    </row>
+    <row r="493" spans="1:1">
       <c r="A493" s="16"/>
-      <c r="AU493" s="16"/>
-      <c r="AV493" s="16"/>
-      <c r="AW493" s="16"/>
-      <c r="AX493" s="16"/>
-      <c r="AY493" s="16"/>
-      <c r="AZ493" s="16"/>
-      <c r="BA493" s="16"/>
-      <c r="BB493" s="16"/>
-      <c r="BC493" s="16"/>
-      <c r="BD493" s="16"/>
-      <c r="BE493" s="16"/>
-      <c r="BF493" s="16"/>
-      <c r="BG493" s="16"/>
-      <c r="BH493" s="16"/>
-      <c r="BI493" s="16"/>
-      <c r="BJ493" s="16"/>
-      <c r="BK493" s="16"/>
-      <c r="BL493" s="16"/>
-      <c r="BM493" s="16"/>
-      <c r="BN493" s="16"/>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="16"/>
@@ -37411,24 +37379,6 @@
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="16"/>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" s="16"/>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" s="16"/>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563" s="16"/>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" s="16"/>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="16"/>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -37513,22 +37463,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CU1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/我的创作/炒股/技术面投资研究.xlsx
+++ b/我的创作/炒股/技术面投资研究.xlsx
@@ -1235,11 +1235,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -1368,22 +1368,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,6 +1389,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1412,7 +1405,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1427,8 +1420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,10 +1436,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1458,40 +1474,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,6 +1586,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1598,25 +1718,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,133 +1754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,20 +2021,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,6 +2051,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2065,6 +2071,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2084,28 +2101,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,142 +2114,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2266,7 +2266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,7 +2440,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,7 +2452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2476,16 +2476,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3707,11 +3707,11 @@
   <dimension ref="A1:DD560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4062,7 +4062,7 @@
       <c r="DC2" s="89"/>
       <c r="DD2" s="89"/>
     </row>
-    <row r="3" ht="60" spans="1:108">
+    <row r="3" ht="48" spans="1:108">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4637,9 +4637,7 @@
       <c r="Q6" s="28">
         <v>30.89</v>
       </c>
-      <c r="R6" s="28">
-        <v>32.65</v>
-      </c>
+      <c r="R6" s="28"/>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
@@ -4660,9 +4658,9 @@
         <f t="shared" si="4"/>
         <v>0.124184859654097</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="44" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AC6" s="43" t="e">
         <f>(T6-U6)/T6</f>
@@ -5381,7 +5379,7 @@
       <c r="BM10" s="20"/>
       <c r="BN10" s="20"/>
     </row>
-    <row r="11" ht="24" spans="1:66">
+    <row r="11" ht="13" spans="1:66">
       <c r="A11" s="92" t="s">
         <v>102</v>
       </c>
